--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -1082,7 +1082,7 @@
     <t>"OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR Y FORMACION DE LA IEP N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
   <si>
-    <t>INSTITUCION ADUCATIVA PRIMARIA  N°54408 AYRIHUANCA, DISTRITO SANTA ROSA</t>
+    <t>INSTITUCION ADUCATIVA PRIMARIA  N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS</t>
   </si>
 </sst>
 </file>
@@ -2001,6 +2001,300 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2028,52 +2322,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2099,258 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2640,8 +2640,8 @@
   </sheetPr>
   <dimension ref="A3:P543"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A83" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K493" sqref="K493"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2663,52 +2663,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="190" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="233"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="194" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="237"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="198" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="206"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2742,17 +2742,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="261" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="263"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2949,10 +2949,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="260" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="162"/>
+      <c r="E21" s="260"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2981,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="162" t="s">
+      <c r="D23" s="260" t="s">
         <v>331</v>
       </c>
-      <c r="E23" s="162"/>
+      <c r="E23" s="260"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3046,13 +3046,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="166" t="s">
+      <c r="F27" s="264" t="s">
         <v>337</v>
       </c>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="264"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="264"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3071,22 +3071,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="239" t="s">
+      <c r="B29" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="167" t="s">
+      <c r="G29" s="265" t="s">
         <v>332</v>
       </c>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="169"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="266"/>
+      <c r="L29" s="267"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3105,11 +3105,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="202" t="s">
+      <c r="B31" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="258"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3270,12 +3270,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="195" t="s">
+      <c r="G40" s="229" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="197"/>
+      <c r="H40" s="230"/>
+      <c r="I40" s="230"/>
+      <c r="J40" s="231"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3288,12 +3288,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="195" t="s">
+      <c r="G41" s="229" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="230"/>
+      <c r="J41" s="231"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3306,12 +3306,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="195" t="s">
+      <c r="G42" s="229" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="197"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="231"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3324,12 +3324,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="195" t="s">
+      <c r="G43" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="197"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="231"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3373,12 +3373,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="195" t="s">
+      <c r="G46" s="229" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="196"/>
-      <c r="I46" s="196"/>
-      <c r="J46" s="197"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="230"/>
+      <c r="J46" s="231"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3391,12 +3391,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="195" t="s">
+      <c r="G47" s="229" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="197"/>
+      <c r="H47" s="230"/>
+      <c r="I47" s="230"/>
+      <c r="J47" s="231"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3409,12 +3409,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="217" t="s">
+      <c r="G48" s="226" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="268"/>
-      <c r="I48" s="268"/>
-      <c r="J48" s="218"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="227"/>
+      <c r="J48" s="228"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3481,12 +3481,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="195" t="s">
+      <c r="G52" s="229" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="196"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="197"/>
+      <c r="H52" s="230"/>
+      <c r="I52" s="230"/>
+      <c r="J52" s="231"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3499,12 +3499,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="195" t="s">
+      <c r="G53" s="229" t="s">
         <v>327</v>
       </c>
-      <c r="H53" s="196"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="197"/>
+      <c r="H53" s="230"/>
+      <c r="I53" s="230"/>
+      <c r="J53" s="231"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3753,14 +3753,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="170" t="s">
+      <c r="E68" s="243" t="s">
         <v>343</v>
       </c>
-      <c r="F68" s="194"/>
-      <c r="G68" s="194"/>
-      <c r="H68" s="194"/>
-      <c r="I68" s="194"/>
-      <c r="J68" s="171"/>
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244"/>
+      <c r="J68" s="245"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3825,11 +3825,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="219" t="s">
+      <c r="F72" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="219"/>
-      <c r="H72" s="219"/>
+      <c r="G72" s="161"/>
+      <c r="H72" s="161"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3847,11 +3847,11 @@
         <v>330</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="269" t="s">
+      <c r="F73" s="162" t="s">
         <v>338</v>
       </c>
-      <c r="G73" s="269"/>
-      <c r="H73" s="269"/>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3983,10 +3983,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="204" t="s">
+      <c r="D82" s="233" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="204"/>
+      <c r="E82" s="233"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4072,17 +4072,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="271" t="s">
+      <c r="B87" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="271"/>
-      <c r="D87" s="271"/>
-      <c r="E87" s="271"/>
-      <c r="F87" s="271"/>
-      <c r="G87" s="271"/>
-      <c r="H87" s="271"/>
-      <c r="I87" s="271"/>
-      <c r="J87" s="271"/>
+      <c r="C87" s="166"/>
+      <c r="D87" s="166"/>
+      <c r="E87" s="166"/>
+      <c r="F87" s="166"/>
+      <c r="G87" s="166"/>
+      <c r="H87" s="166"/>
+      <c r="I87" s="166"/>
+      <c r="J87" s="166"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4249,10 +4249,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="273" t="s">
+      <c r="E98" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="274"/>
+      <c r="F98" s="172"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4432,13 +4432,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="256" t="s">
+      <c r="B110" s="217" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="256"/>
-      <c r="D110" s="256"/>
-      <c r="E110" s="256"/>
-      <c r="F110" s="257"/>
+      <c r="C110" s="217"/>
+      <c r="D110" s="217"/>
+      <c r="E110" s="217"/>
+      <c r="F110" s="218"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4453,8 +4453,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="258"/>
-      <c r="H111" s="258"/>
+      <c r="G111" s="219"/>
+      <c r="H111" s="219"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4462,13 +4462,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="256" t="s">
+      <c r="B112" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="256"/>
-      <c r="D112" s="256"/>
-      <c r="E112" s="256"/>
-      <c r="F112" s="257"/>
+      <c r="C112" s="217"/>
+      <c r="D112" s="217"/>
+      <c r="E112" s="217"/>
+      <c r="F112" s="218"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4600,47 +4600,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="259" t="s">
+      <c r="B121" s="220" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="260"/>
-      <c r="D121" s="260"/>
-      <c r="E121" s="260"/>
-      <c r="F121" s="260"/>
-      <c r="G121" s="260"/>
-      <c r="H121" s="260"/>
-      <c r="I121" s="260"/>
-      <c r="J121" s="260"/>
-      <c r="K121" s="260"/>
-      <c r="L121" s="261"/>
+      <c r="C121" s="221"/>
+      <c r="D121" s="221"/>
+      <c r="E121" s="221"/>
+      <c r="F121" s="221"/>
+      <c r="G121" s="221"/>
+      <c r="H121" s="221"/>
+      <c r="I121" s="221"/>
+      <c r="J121" s="221"/>
+      <c r="K121" s="221"/>
+      <c r="L121" s="222"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="262"/>
-      <c r="C122" s="263"/>
-      <c r="D122" s="263"/>
-      <c r="E122" s="263"/>
-      <c r="F122" s="263"/>
-      <c r="G122" s="263"/>
-      <c r="H122" s="263"/>
-      <c r="I122" s="263"/>
-      <c r="J122" s="263"/>
-      <c r="K122" s="263"/>
-      <c r="L122" s="264"/>
+      <c r="B122" s="173"/>
+      <c r="C122" s="174"/>
+      <c r="D122" s="174"/>
+      <c r="E122" s="174"/>
+      <c r="F122" s="174"/>
+      <c r="G122" s="174"/>
+      <c r="H122" s="174"/>
+      <c r="I122" s="174"/>
+      <c r="J122" s="174"/>
+      <c r="K122" s="174"/>
+      <c r="L122" s="175"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="265"/>
-      <c r="C123" s="266"/>
-      <c r="D123" s="266"/>
-      <c r="E123" s="266"/>
-      <c r="F123" s="266"/>
-      <c r="G123" s="266"/>
-      <c r="H123" s="266"/>
-      <c r="I123" s="266"/>
-      <c r="J123" s="266"/>
-      <c r="K123" s="266"/>
-      <c r="L123" s="267"/>
+      <c r="B123" s="223"/>
+      <c r="C123" s="224"/>
+      <c r="D123" s="224"/>
+      <c r="E123" s="224"/>
+      <c r="F123" s="224"/>
+      <c r="G123" s="224"/>
+      <c r="H123" s="224"/>
+      <c r="I123" s="224"/>
+      <c r="J123" s="224"/>
+      <c r="K123" s="224"/>
+      <c r="L123" s="225"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4674,19 +4674,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="249" t="s">
+      <c r="B126" s="210" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="250"/>
-      <c r="D126" s="250"/>
-      <c r="E126" s="250"/>
-      <c r="F126" s="250"/>
-      <c r="G126" s="250"/>
-      <c r="H126" s="250"/>
-      <c r="I126" s="250"/>
-      <c r="J126" s="250"/>
-      <c r="K126" s="250"/>
-      <c r="L126" s="251"/>
+      <c r="C126" s="211"/>
+      <c r="D126" s="211"/>
+      <c r="E126" s="211"/>
+      <c r="F126" s="211"/>
+      <c r="G126" s="211"/>
+      <c r="H126" s="211"/>
+      <c r="I126" s="211"/>
+      <c r="J126" s="211"/>
+      <c r="K126" s="211"/>
+      <c r="L126" s="212"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4720,19 +4720,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="252" t="s">
+      <c r="B129" s="213" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="253"/>
-      <c r="D129" s="253"/>
-      <c r="E129" s="253"/>
-      <c r="F129" s="253"/>
-      <c r="G129" s="253"/>
-      <c r="H129" s="253"/>
-      <c r="I129" s="253"/>
-      <c r="J129" s="253"/>
-      <c r="K129" s="253"/>
-      <c r="L129" s="254"/>
+      <c r="C129" s="214"/>
+      <c r="D129" s="214"/>
+      <c r="E129" s="214"/>
+      <c r="F129" s="214"/>
+      <c r="G129" s="214"/>
+      <c r="H129" s="214"/>
+      <c r="I129" s="214"/>
+      <c r="J129" s="214"/>
+      <c r="K129" s="214"/>
+      <c r="L129" s="215"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4931,19 +4931,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="255" t="s">
+      <c r="B143" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="255"/>
-      <c r="D143" s="255"/>
-      <c r="E143" s="255"/>
-      <c r="F143" s="255"/>
-      <c r="G143" s="255"/>
-      <c r="H143" s="255"/>
-      <c r="I143" s="255"/>
-      <c r="J143" s="255"/>
-      <c r="K143" s="255"/>
-      <c r="L143" s="255"/>
+      <c r="C143" s="216"/>
+      <c r="D143" s="216"/>
+      <c r="E143" s="216"/>
+      <c r="F143" s="216"/>
+      <c r="G143" s="216"/>
+      <c r="H143" s="216"/>
+      <c r="I143" s="216"/>
+      <c r="J143" s="216"/>
+      <c r="K143" s="216"/>
+      <c r="L143" s="216"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4961,11 +4961,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="173" t="s">
+      <c r="B145" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="173"/>
-      <c r="D145" s="173"/>
+      <c r="C145" s="163"/>
+      <c r="D145" s="163"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4989,11 +4989,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="173" t="s">
+      <c r="B147" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="173"/>
-      <c r="D147" s="173"/>
+      <c r="C147" s="163"/>
+      <c r="D147" s="163"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5017,11 +5017,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="173" t="s">
+      <c r="B149" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="173"/>
-      <c r="D149" s="173"/>
+      <c r="C149" s="163"/>
+      <c r="D149" s="163"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5043,12 +5043,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="173" t="s">
+      <c r="B151" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="173"/>
-      <c r="D151" s="173"/>
-      <c r="E151" s="173"/>
+      <c r="C151" s="163"/>
+      <c r="D151" s="163"/>
+      <c r="E151" s="163"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5071,13 +5071,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="173" t="s">
+      <c r="B153" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="173"/>
-      <c r="D153" s="173"/>
-      <c r="E153" s="173"/>
-      <c r="F153" s="174"/>
+      <c r="C153" s="163"/>
+      <c r="D153" s="163"/>
+      <c r="E153" s="163"/>
+      <c r="F153" s="164"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5205,19 +5205,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="275" t="s">
+      <c r="B162" s="176" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="276"/>
-      <c r="D162" s="276"/>
-      <c r="E162" s="276"/>
-      <c r="F162" s="276"/>
-      <c r="G162" s="276"/>
-      <c r="H162" s="276"/>
-      <c r="I162" s="276"/>
-      <c r="J162" s="276"/>
-      <c r="K162" s="276"/>
-      <c r="L162" s="277"/>
+      <c r="C162" s="177"/>
+      <c r="D162" s="177"/>
+      <c r="E162" s="177"/>
+      <c r="F162" s="177"/>
+      <c r="G162" s="177"/>
+      <c r="H162" s="177"/>
+      <c r="I162" s="177"/>
+      <c r="J162" s="177"/>
+      <c r="K162" s="177"/>
+      <c r="L162" s="178"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5435,12 +5435,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="173" t="s">
+      <c r="B179" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="173"/>
-      <c r="D179" s="173"/>
-      <c r="E179" s="173"/>
+      <c r="C179" s="163"/>
+      <c r="D179" s="163"/>
+      <c r="E179" s="163"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5467,13 +5467,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="173" t="s">
+      <c r="B181" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="173"/>
-      <c r="D181" s="173"/>
-      <c r="E181" s="173"/>
-      <c r="F181" s="174"/>
+      <c r="C181" s="163"/>
+      <c r="D181" s="163"/>
+      <c r="E181" s="163"/>
+      <c r="F181" s="164"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="173" t="s">
+      <c r="B185" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="173"/>
-      <c r="D185" s="173"/>
-      <c r="E185" s="173"/>
-      <c r="F185" s="174"/>
+      <c r="C185" s="163"/>
+      <c r="D185" s="163"/>
+      <c r="E185" s="163"/>
+      <c r="F185" s="164"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5646,79 +5646,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="176" t="s">
+      <c r="B193" s="179" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="177"/>
-      <c r="D193" s="177"/>
-      <c r="E193" s="177"/>
-      <c r="F193" s="177"/>
-      <c r="G193" s="177"/>
-      <c r="H193" s="177"/>
-      <c r="I193" s="177"/>
-      <c r="J193" s="177"/>
-      <c r="K193" s="177"/>
-      <c r="L193" s="178"/>
+      <c r="C193" s="180"/>
+      <c r="D193" s="180"/>
+      <c r="E193" s="180"/>
+      <c r="F193" s="180"/>
+      <c r="G193" s="180"/>
+      <c r="H193" s="180"/>
+      <c r="I193" s="180"/>
+      <c r="J193" s="180"/>
+      <c r="K193" s="180"/>
+      <c r="L193" s="181"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="179"/>
-      <c r="C194" s="180"/>
-      <c r="D194" s="180"/>
-      <c r="E194" s="180"/>
-      <c r="F194" s="180"/>
-      <c r="G194" s="180"/>
-      <c r="H194" s="180"/>
-      <c r="I194" s="180"/>
-      <c r="J194" s="180"/>
-      <c r="K194" s="180"/>
-      <c r="L194" s="181"/>
+      <c r="B194" s="182"/>
+      <c r="C194" s="183"/>
+      <c r="D194" s="183"/>
+      <c r="E194" s="183"/>
+      <c r="F194" s="183"/>
+      <c r="G194" s="183"/>
+      <c r="H194" s="183"/>
+      <c r="I194" s="183"/>
+      <c r="J194" s="183"/>
+      <c r="K194" s="183"/>
+      <c r="L194" s="184"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="179"/>
-      <c r="C195" s="180"/>
-      <c r="D195" s="180"/>
-      <c r="E195" s="180"/>
-      <c r="F195" s="180"/>
-      <c r="G195" s="180"/>
-      <c r="H195" s="180"/>
-      <c r="I195" s="180"/>
-      <c r="J195" s="180"/>
-      <c r="K195" s="180"/>
-      <c r="L195" s="181"/>
+      <c r="B195" s="182"/>
+      <c r="C195" s="183"/>
+      <c r="D195" s="183"/>
+      <c r="E195" s="183"/>
+      <c r="F195" s="183"/>
+      <c r="G195" s="183"/>
+      <c r="H195" s="183"/>
+      <c r="I195" s="183"/>
+      <c r="J195" s="183"/>
+      <c r="K195" s="183"/>
+      <c r="L195" s="184"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="179"/>
-      <c r="C196" s="180"/>
-      <c r="D196" s="180"/>
-      <c r="E196" s="180"/>
-      <c r="F196" s="180"/>
-      <c r="G196" s="180"/>
-      <c r="H196" s="180"/>
-      <c r="I196" s="180"/>
-      <c r="J196" s="180"/>
-      <c r="K196" s="180"/>
-      <c r="L196" s="181"/>
+      <c r="B196" s="182"/>
+      <c r="C196" s="183"/>
+      <c r="D196" s="183"/>
+      <c r="E196" s="183"/>
+      <c r="F196" s="183"/>
+      <c r="G196" s="183"/>
+      <c r="H196" s="183"/>
+      <c r="I196" s="183"/>
+      <c r="J196" s="183"/>
+      <c r="K196" s="183"/>
+      <c r="L196" s="184"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="182"/>
-      <c r="C197" s="183"/>
-      <c r="D197" s="183"/>
-      <c r="E197" s="183"/>
-      <c r="F197" s="183"/>
-      <c r="G197" s="183"/>
-      <c r="H197" s="183"/>
-      <c r="I197" s="183"/>
-      <c r="J197" s="183"/>
-      <c r="K197" s="183"/>
-      <c r="L197" s="184"/>
+      <c r="B197" s="185"/>
+      <c r="C197" s="186"/>
+      <c r="D197" s="186"/>
+      <c r="E197" s="186"/>
+      <c r="F197" s="186"/>
+      <c r="G197" s="186"/>
+      <c r="H197" s="186"/>
+      <c r="I197" s="186"/>
+      <c r="J197" s="186"/>
+      <c r="K197" s="186"/>
+      <c r="L197" s="187"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5755,79 +5755,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="176" t="s">
+      <c r="B200" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="177"/>
-      <c r="D200" s="177"/>
-      <c r="E200" s="177"/>
-      <c r="F200" s="177"/>
-      <c r="G200" s="177"/>
-      <c r="H200" s="177"/>
-      <c r="I200" s="177"/>
-      <c r="J200" s="177"/>
-      <c r="K200" s="177"/>
-      <c r="L200" s="178"/>
+      <c r="C200" s="180"/>
+      <c r="D200" s="180"/>
+      <c r="E200" s="180"/>
+      <c r="F200" s="180"/>
+      <c r="G200" s="180"/>
+      <c r="H200" s="180"/>
+      <c r="I200" s="180"/>
+      <c r="J200" s="180"/>
+      <c r="K200" s="180"/>
+      <c r="L200" s="181"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="179"/>
-      <c r="C201" s="180"/>
-      <c r="D201" s="180"/>
-      <c r="E201" s="180"/>
-      <c r="F201" s="180"/>
-      <c r="G201" s="180"/>
-      <c r="H201" s="180"/>
-      <c r="I201" s="180"/>
-      <c r="J201" s="180"/>
-      <c r="K201" s="180"/>
-      <c r="L201" s="181"/>
+      <c r="B201" s="182"/>
+      <c r="C201" s="183"/>
+      <c r="D201" s="183"/>
+      <c r="E201" s="183"/>
+      <c r="F201" s="183"/>
+      <c r="G201" s="183"/>
+      <c r="H201" s="183"/>
+      <c r="I201" s="183"/>
+      <c r="J201" s="183"/>
+      <c r="K201" s="183"/>
+      <c r="L201" s="184"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="179"/>
-      <c r="C202" s="180"/>
-      <c r="D202" s="180"/>
-      <c r="E202" s="180"/>
-      <c r="F202" s="180"/>
-      <c r="G202" s="180"/>
-      <c r="H202" s="180"/>
-      <c r="I202" s="180"/>
-      <c r="J202" s="180"/>
-      <c r="K202" s="180"/>
-      <c r="L202" s="181"/>
+      <c r="B202" s="182"/>
+      <c r="C202" s="183"/>
+      <c r="D202" s="183"/>
+      <c r="E202" s="183"/>
+      <c r="F202" s="183"/>
+      <c r="G202" s="183"/>
+      <c r="H202" s="183"/>
+      <c r="I202" s="183"/>
+      <c r="J202" s="183"/>
+      <c r="K202" s="183"/>
+      <c r="L202" s="184"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="179"/>
-      <c r="C203" s="180"/>
-      <c r="D203" s="180"/>
-      <c r="E203" s="180"/>
-      <c r="F203" s="180"/>
-      <c r="G203" s="180"/>
-      <c r="H203" s="180"/>
-      <c r="I203" s="180"/>
-      <c r="J203" s="180"/>
-      <c r="K203" s="180"/>
-      <c r="L203" s="181"/>
+      <c r="B203" s="182"/>
+      <c r="C203" s="183"/>
+      <c r="D203" s="183"/>
+      <c r="E203" s="183"/>
+      <c r="F203" s="183"/>
+      <c r="G203" s="183"/>
+      <c r="H203" s="183"/>
+      <c r="I203" s="183"/>
+      <c r="J203" s="183"/>
+      <c r="K203" s="183"/>
+      <c r="L203" s="184"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="182"/>
-      <c r="C204" s="183"/>
-      <c r="D204" s="183"/>
-      <c r="E204" s="183"/>
-      <c r="F204" s="183"/>
-      <c r="G204" s="183"/>
-      <c r="H204" s="183"/>
-      <c r="I204" s="183"/>
-      <c r="J204" s="183"/>
-      <c r="K204" s="183"/>
-      <c r="L204" s="184"/>
+      <c r="B204" s="185"/>
+      <c r="C204" s="186"/>
+      <c r="D204" s="186"/>
+      <c r="E204" s="186"/>
+      <c r="F204" s="186"/>
+      <c r="G204" s="186"/>
+      <c r="H204" s="186"/>
+      <c r="I204" s="186"/>
+      <c r="J204" s="186"/>
+      <c r="K204" s="186"/>
+      <c r="L204" s="187"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5974,49 +5974,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="240" t="s">
+      <c r="B214" s="201" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="241"/>
-      <c r="D214" s="241"/>
-      <c r="E214" s="241"/>
-      <c r="F214" s="241"/>
-      <c r="G214" s="241"/>
-      <c r="H214" s="241"/>
-      <c r="I214" s="241"/>
-      <c r="J214" s="241"/>
-      <c r="K214" s="241"/>
-      <c r="L214" s="242"/>
+      <c r="C214" s="202"/>
+      <c r="D214" s="202"/>
+      <c r="E214" s="202"/>
+      <c r="F214" s="202"/>
+      <c r="G214" s="202"/>
+      <c r="H214" s="202"/>
+      <c r="I214" s="202"/>
+      <c r="J214" s="202"/>
+      <c r="K214" s="202"/>
+      <c r="L214" s="203"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="243"/>
-      <c r="C215" s="244"/>
-      <c r="D215" s="244"/>
-      <c r="E215" s="244"/>
-      <c r="F215" s="244"/>
-      <c r="G215" s="244"/>
-      <c r="H215" s="244"/>
-      <c r="I215" s="244"/>
-      <c r="J215" s="244"/>
-      <c r="K215" s="244"/>
-      <c r="L215" s="245"/>
+      <c r="B215" s="204"/>
+      <c r="C215" s="205"/>
+      <c r="D215" s="205"/>
+      <c r="E215" s="205"/>
+      <c r="F215" s="205"/>
+      <c r="G215" s="205"/>
+      <c r="H215" s="205"/>
+      <c r="I215" s="205"/>
+      <c r="J215" s="205"/>
+      <c r="K215" s="205"/>
+      <c r="L215" s="206"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="246"/>
-      <c r="C216" s="247"/>
-      <c r="D216" s="247"/>
-      <c r="E216" s="247"/>
-      <c r="F216" s="247"/>
-      <c r="G216" s="247"/>
-      <c r="H216" s="247"/>
-      <c r="I216" s="247"/>
-      <c r="J216" s="247"/>
-      <c r="K216" s="247"/>
-      <c r="L216" s="248"/>
+      <c r="B216" s="207"/>
+      <c r="C216" s="208"/>
+      <c r="D216" s="208"/>
+      <c r="E216" s="208"/>
+      <c r="F216" s="208"/>
+      <c r="G216" s="208"/>
+      <c r="H216" s="208"/>
+      <c r="I216" s="208"/>
+      <c r="J216" s="208"/>
+      <c r="K216" s="208"/>
+      <c r="L216" s="209"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6051,10 +6051,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="173" t="s">
+      <c r="B219" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="173"/>
+      <c r="C219" s="163"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6179,19 +6179,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="262" t="s">
+      <c r="B227" s="173" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="263"/>
-      <c r="D227" s="263"/>
-      <c r="E227" s="263"/>
-      <c r="F227" s="263"/>
-      <c r="G227" s="263"/>
-      <c r="H227" s="263"/>
-      <c r="I227" s="263"/>
-      <c r="J227" s="263"/>
-      <c r="K227" s="263"/>
-      <c r="L227" s="264"/>
+      <c r="C227" s="174"/>
+      <c r="D227" s="174"/>
+      <c r="E227" s="174"/>
+      <c r="F227" s="174"/>
+      <c r="G227" s="174"/>
+      <c r="H227" s="174"/>
+      <c r="I227" s="174"/>
+      <c r="J227" s="174"/>
+      <c r="K227" s="174"/>
+      <c r="L227" s="175"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6300,51 +6300,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="185" t="s">
+      <c r="B235" s="269" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="186"/>
-      <c r="D235" s="186"/>
-      <c r="E235" s="186"/>
-      <c r="F235" s="186"/>
-      <c r="G235" s="186"/>
-      <c r="H235" s="186"/>
-      <c r="I235" s="186"/>
-      <c r="J235" s="186"/>
-      <c r="K235" s="186"/>
-      <c r="L235" s="187"/>
+      <c r="C235" s="270"/>
+      <c r="D235" s="270"/>
+      <c r="E235" s="270"/>
+      <c r="F235" s="270"/>
+      <c r="G235" s="270"/>
+      <c r="H235" s="270"/>
+      <c r="I235" s="270"/>
+      <c r="J235" s="270"/>
+      <c r="K235" s="270"/>
+      <c r="L235" s="271"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="188"/>
-      <c r="C236" s="189"/>
-      <c r="D236" s="189"/>
-      <c r="E236" s="189"/>
-      <c r="F236" s="189"/>
-      <c r="G236" s="189"/>
-      <c r="H236" s="189"/>
-      <c r="I236" s="189"/>
-      <c r="J236" s="189"/>
-      <c r="K236" s="189"/>
-      <c r="L236" s="190"/>
+      <c r="B236" s="272"/>
+      <c r="C236" s="273"/>
+      <c r="D236" s="273"/>
+      <c r="E236" s="273"/>
+      <c r="F236" s="273"/>
+      <c r="G236" s="273"/>
+      <c r="H236" s="273"/>
+      <c r="I236" s="273"/>
+      <c r="J236" s="273"/>
+      <c r="K236" s="273"/>
+      <c r="L236" s="274"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="191"/>
-      <c r="C237" s="192"/>
-      <c r="D237" s="192"/>
-      <c r="E237" s="192"/>
-      <c r="F237" s="192"/>
-      <c r="G237" s="192"/>
-      <c r="H237" s="192"/>
-      <c r="I237" s="192"/>
-      <c r="J237" s="192"/>
-      <c r="K237" s="192"/>
-      <c r="L237" s="193"/>
+      <c r="B237" s="275"/>
+      <c r="C237" s="276"/>
+      <c r="D237" s="276"/>
+      <c r="E237" s="276"/>
+      <c r="F237" s="276"/>
+      <c r="G237" s="276"/>
+      <c r="H237" s="276"/>
+      <c r="I237" s="276"/>
+      <c r="J237" s="276"/>
+      <c r="K237" s="276"/>
+      <c r="L237" s="277"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6459,35 +6459,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="271" t="s">
+      <c r="B245" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="271"/>
-      <c r="D245" s="271"/>
-      <c r="E245" s="271"/>
-      <c r="F245" s="271"/>
-      <c r="G245" s="271"/>
-      <c r="H245" s="271"/>
-      <c r="I245" s="271"/>
-      <c r="J245" s="271"/>
-      <c r="K245" s="271"/>
-      <c r="L245" s="271"/>
+      <c r="C245" s="166"/>
+      <c r="D245" s="166"/>
+      <c r="E245" s="166"/>
+      <c r="F245" s="166"/>
+      <c r="G245" s="166"/>
+      <c r="H245" s="166"/>
+      <c r="I245" s="166"/>
+      <c r="J245" s="166"/>
+      <c r="K245" s="166"/>
+      <c r="L245" s="166"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="271" t="s">
+      <c r="B246" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="271"/>
-      <c r="D246" s="271"/>
-      <c r="E246" s="271"/>
-      <c r="F246" s="271"/>
-      <c r="G246" s="271"/>
-      <c r="H246" s="271"/>
-      <c r="I246" s="271"/>
-      <c r="J246" s="271"/>
-      <c r="K246" s="271"/>
-      <c r="L246" s="271"/>
+      <c r="C246" s="166"/>
+      <c r="D246" s="166"/>
+      <c r="E246" s="166"/>
+      <c r="F246" s="166"/>
+      <c r="G246" s="166"/>
+      <c r="H246" s="166"/>
+      <c r="I246" s="166"/>
+      <c r="J246" s="166"/>
+      <c r="K246" s="166"/>
+      <c r="L246" s="166"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6693,83 +6693,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="176" t="s">
+      <c r="B260" s="179" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="177"/>
-      <c r="D260" s="177"/>
-      <c r="E260" s="177"/>
-      <c r="F260" s="177"/>
-      <c r="G260" s="177"/>
-      <c r="H260" s="177"/>
-      <c r="I260" s="177"/>
-      <c r="J260" s="177"/>
-      <c r="K260" s="177"/>
-      <c r="L260" s="178"/>
+      <c r="C260" s="180"/>
+      <c r="D260" s="180"/>
+      <c r="E260" s="180"/>
+      <c r="F260" s="180"/>
+      <c r="G260" s="180"/>
+      <c r="H260" s="180"/>
+      <c r="I260" s="180"/>
+      <c r="J260" s="180"/>
+      <c r="K260" s="180"/>
+      <c r="L260" s="181"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="179"/>
-      <c r="C261" s="180"/>
-      <c r="D261" s="180"/>
-      <c r="E261" s="180"/>
-      <c r="F261" s="180"/>
-      <c r="G261" s="180"/>
-      <c r="H261" s="180"/>
-      <c r="I261" s="180"/>
-      <c r="J261" s="180"/>
-      <c r="K261" s="180"/>
-      <c r="L261" s="181"/>
+      <c r="B261" s="182"/>
+      <c r="C261" s="183"/>
+      <c r="D261" s="183"/>
+      <c r="E261" s="183"/>
+      <c r="F261" s="183"/>
+      <c r="G261" s="183"/>
+      <c r="H261" s="183"/>
+      <c r="I261" s="183"/>
+      <c r="J261" s="183"/>
+      <c r="K261" s="183"/>
+      <c r="L261" s="184"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="179"/>
-      <c r="C262" s="180"/>
-      <c r="D262" s="180"/>
-      <c r="E262" s="180"/>
-      <c r="F262" s="180"/>
-      <c r="G262" s="180"/>
-      <c r="H262" s="180"/>
-      <c r="I262" s="180"/>
-      <c r="J262" s="180"/>
-      <c r="K262" s="180"/>
-      <c r="L262" s="181"/>
+      <c r="B262" s="182"/>
+      <c r="C262" s="183"/>
+      <c r="D262" s="183"/>
+      <c r="E262" s="183"/>
+      <c r="F262" s="183"/>
+      <c r="G262" s="183"/>
+      <c r="H262" s="183"/>
+      <c r="I262" s="183"/>
+      <c r="J262" s="183"/>
+      <c r="K262" s="183"/>
+      <c r="L262" s="184"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="179"/>
-      <c r="C263" s="180"/>
-      <c r="D263" s="180"/>
-      <c r="E263" s="180"/>
-      <c r="F263" s="180"/>
-      <c r="G263" s="180"/>
-      <c r="H263" s="180"/>
-      <c r="I263" s="180"/>
-      <c r="J263" s="180"/>
-      <c r="K263" s="180"/>
-      <c r="L263" s="181"/>
+      <c r="B263" s="182"/>
+      <c r="C263" s="183"/>
+      <c r="D263" s="183"/>
+      <c r="E263" s="183"/>
+      <c r="F263" s="183"/>
+      <c r="G263" s="183"/>
+      <c r="H263" s="183"/>
+      <c r="I263" s="183"/>
+      <c r="J263" s="183"/>
+      <c r="K263" s="183"/>
+      <c r="L263" s="184"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="182"/>
-      <c r="C264" s="183"/>
-      <c r="D264" s="183"/>
-      <c r="E264" s="183"/>
-      <c r="F264" s="183"/>
-      <c r="G264" s="183"/>
-      <c r="H264" s="183"/>
-      <c r="I264" s="183"/>
-      <c r="J264" s="183"/>
-      <c r="K264" s="183"/>
-      <c r="L264" s="184"/>
+      <c r="B264" s="185"/>
+      <c r="C264" s="186"/>
+      <c r="D264" s="186"/>
+      <c r="E264" s="186"/>
+      <c r="F264" s="186"/>
+      <c r="G264" s="186"/>
+      <c r="H264" s="186"/>
+      <c r="I264" s="186"/>
+      <c r="J264" s="186"/>
+      <c r="K264" s="186"/>
+      <c r="L264" s="187"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6825,28 +6825,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="219" t="s">
+      <c r="B268" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="219"/>
-      <c r="D268" s="213" t="s">
+      <c r="C268" s="161"/>
+      <c r="D268" s="168" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="214"/>
-      <c r="F268" s="214"/>
-      <c r="G268" s="214"/>
-      <c r="H268" s="214"/>
-      <c r="I268" s="214"/>
-      <c r="J268" s="214"/>
-      <c r="K268" s="214"/>
-      <c r="L268" s="215"/>
+      <c r="E268" s="169"/>
+      <c r="F268" s="169"/>
+      <c r="G268" s="169"/>
+      <c r="H268" s="169"/>
+      <c r="I268" s="169"/>
+      <c r="J268" s="169"/>
+      <c r="K268" s="169"/>
+      <c r="L268" s="170"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="270"/>
-      <c r="C269" s="270"/>
+      <c r="B269" s="165"/>
+      <c r="C269" s="165"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6861,8 +6861,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="270"/>
-      <c r="C270" s="270"/>
+      <c r="B270" s="165"/>
+      <c r="C270" s="165"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6877,8 +6877,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="270"/>
-      <c r="C271" s="270"/>
+      <c r="B271" s="165"/>
+      <c r="C271" s="165"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6893,8 +6893,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="270"/>
-      <c r="C272" s="270"/>
+      <c r="B272" s="165"/>
+      <c r="C272" s="165"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6959,83 +6959,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="272" t="s">
+      <c r="B276" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="272"/>
-      <c r="D276" s="272"/>
-      <c r="E276" s="272"/>
-      <c r="F276" s="272"/>
-      <c r="G276" s="272"/>
-      <c r="H276" s="272"/>
-      <c r="I276" s="272"/>
-      <c r="J276" s="272"/>
-      <c r="K276" s="272"/>
-      <c r="L276" s="272"/>
+      <c r="C276" s="167"/>
+      <c r="D276" s="167"/>
+      <c r="E276" s="167"/>
+      <c r="F276" s="167"/>
+      <c r="G276" s="167"/>
+      <c r="H276" s="167"/>
+      <c r="I276" s="167"/>
+      <c r="J276" s="167"/>
+      <c r="K276" s="167"/>
+      <c r="L276" s="167"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="272"/>
-      <c r="C277" s="272"/>
-      <c r="D277" s="272"/>
-      <c r="E277" s="272"/>
-      <c r="F277" s="272"/>
-      <c r="G277" s="272"/>
-      <c r="H277" s="272"/>
-      <c r="I277" s="272"/>
-      <c r="J277" s="272"/>
-      <c r="K277" s="272"/>
-      <c r="L277" s="272"/>
+      <c r="B277" s="167"/>
+      <c r="C277" s="167"/>
+      <c r="D277" s="167"/>
+      <c r="E277" s="167"/>
+      <c r="F277" s="167"/>
+      <c r="G277" s="167"/>
+      <c r="H277" s="167"/>
+      <c r="I277" s="167"/>
+      <c r="J277" s="167"/>
+      <c r="K277" s="167"/>
+      <c r="L277" s="167"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="272"/>
-      <c r="C278" s="272"/>
-      <c r="D278" s="272"/>
-      <c r="E278" s="272"/>
-      <c r="F278" s="272"/>
-      <c r="G278" s="272"/>
-      <c r="H278" s="272"/>
-      <c r="I278" s="272"/>
-      <c r="J278" s="272"/>
-      <c r="K278" s="272"/>
-      <c r="L278" s="272"/>
+      <c r="B278" s="167"/>
+      <c r="C278" s="167"/>
+      <c r="D278" s="167"/>
+      <c r="E278" s="167"/>
+      <c r="F278" s="167"/>
+      <c r="G278" s="167"/>
+      <c r="H278" s="167"/>
+      <c r="I278" s="167"/>
+      <c r="J278" s="167"/>
+      <c r="K278" s="167"/>
+      <c r="L278" s="167"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="272"/>
-      <c r="C279" s="272"/>
-      <c r="D279" s="272"/>
-      <c r="E279" s="272"/>
-      <c r="F279" s="272"/>
-      <c r="G279" s="272"/>
-      <c r="H279" s="272"/>
-      <c r="I279" s="272"/>
-      <c r="J279" s="272"/>
-      <c r="K279" s="272"/>
-      <c r="L279" s="272"/>
+      <c r="B279" s="167"/>
+      <c r="C279" s="167"/>
+      <c r="D279" s="167"/>
+      <c r="E279" s="167"/>
+      <c r="F279" s="167"/>
+      <c r="G279" s="167"/>
+      <c r="H279" s="167"/>
+      <c r="I279" s="167"/>
+      <c r="J279" s="167"/>
+      <c r="K279" s="167"/>
+      <c r="L279" s="167"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="272"/>
-      <c r="C280" s="272"/>
-      <c r="D280" s="272"/>
-      <c r="E280" s="272"/>
-      <c r="F280" s="272"/>
-      <c r="G280" s="272"/>
-      <c r="H280" s="272"/>
-      <c r="I280" s="272"/>
-      <c r="J280" s="272"/>
-      <c r="K280" s="272"/>
-      <c r="L280" s="272"/>
+      <c r="B280" s="167"/>
+      <c r="C280" s="167"/>
+      <c r="D280" s="167"/>
+      <c r="E280" s="167"/>
+      <c r="F280" s="167"/>
+      <c r="G280" s="167"/>
+      <c r="H280" s="167"/>
+      <c r="I280" s="167"/>
+      <c r="J280" s="167"/>
+      <c r="K280" s="167"/>
+      <c r="L280" s="167"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7091,12 +7091,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="173" t="s">
+      <c r="B284" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="173"/>
-      <c r="D284" s="173"/>
-      <c r="E284" s="174"/>
+      <c r="C284" s="163"/>
+      <c r="D284" s="163"/>
+      <c r="E284" s="164"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="173"/>
-      <c r="C285" s="173"/>
-      <c r="D285" s="173"/>
-      <c r="E285" s="173"/>
+      <c r="B285" s="163"/>
+      <c r="C285" s="163"/>
+      <c r="D285" s="163"/>
+      <c r="E285" s="163"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7121,12 +7121,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="173" t="s">
+      <c r="B286" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="173"/>
-      <c r="D286" s="173"/>
-      <c r="E286" s="174"/>
+      <c r="C286" s="163"/>
+      <c r="D286" s="163"/>
+      <c r="E286" s="164"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7139,10 +7139,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="173"/>
-      <c r="C287" s="173"/>
-      <c r="D287" s="173"/>
-      <c r="E287" s="173"/>
+      <c r="B287" s="163"/>
+      <c r="C287" s="163"/>
+      <c r="D287" s="163"/>
+      <c r="E287" s="163"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7153,12 +7153,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="173" t="s">
+      <c r="B288" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="173"/>
-      <c r="D288" s="173"/>
-      <c r="E288" s="174"/>
+      <c r="C288" s="163"/>
+      <c r="D288" s="163"/>
+      <c r="E288" s="164"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7183,12 +7183,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="173" t="s">
+      <c r="B290" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="173"/>
-      <c r="D290" s="173"/>
-      <c r="E290" s="174"/>
+      <c r="C290" s="163"/>
+      <c r="D290" s="163"/>
+      <c r="E290" s="164"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7213,12 +7213,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="173" t="s">
+      <c r="B292" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="173"/>
-      <c r="D292" s="173"/>
-      <c r="E292" s="174"/>
+      <c r="C292" s="163"/>
+      <c r="D292" s="163"/>
+      <c r="E292" s="164"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7321,82 +7321,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="176" t="s">
+      <c r="B299" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="177"/>
-      <c r="D299" s="177"/>
-      <c r="E299" s="177"/>
-      <c r="F299" s="177"/>
-      <c r="G299" s="177"/>
-      <c r="H299" s="177"/>
-      <c r="I299" s="177"/>
-      <c r="J299" s="177"/>
-      <c r="K299" s="177"/>
-      <c r="L299" s="178"/>
+      <c r="C299" s="180"/>
+      <c r="D299" s="180"/>
+      <c r="E299" s="180"/>
+      <c r="F299" s="180"/>
+      <c r="G299" s="180"/>
+      <c r="H299" s="180"/>
+      <c r="I299" s="180"/>
+      <c r="J299" s="180"/>
+      <c r="K299" s="180"/>
+      <c r="L299" s="181"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="179"/>
-      <c r="C300" s="180"/>
-      <c r="D300" s="180"/>
-      <c r="E300" s="180"/>
-      <c r="F300" s="180"/>
-      <c r="G300" s="180"/>
-      <c r="H300" s="180"/>
-      <c r="I300" s="180"/>
-      <c r="J300" s="180"/>
-      <c r="K300" s="180"/>
-      <c r="L300" s="181"/>
+      <c r="B300" s="182"/>
+      <c r="C300" s="183"/>
+      <c r="D300" s="183"/>
+      <c r="E300" s="183"/>
+      <c r="F300" s="183"/>
+      <c r="G300" s="183"/>
+      <c r="H300" s="183"/>
+      <c r="I300" s="183"/>
+      <c r="J300" s="183"/>
+      <c r="K300" s="183"/>
+      <c r="L300" s="184"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="179"/>
-      <c r="C301" s="180"/>
-      <c r="D301" s="180"/>
-      <c r="E301" s="180"/>
-      <c r="F301" s="180"/>
-      <c r="G301" s="180"/>
-      <c r="H301" s="180"/>
-      <c r="I301" s="180"/>
-      <c r="J301" s="180"/>
-      <c r="K301" s="180"/>
-      <c r="L301" s="181"/>
+      <c r="B301" s="182"/>
+      <c r="C301" s="183"/>
+      <c r="D301" s="183"/>
+      <c r="E301" s="183"/>
+      <c r="F301" s="183"/>
+      <c r="G301" s="183"/>
+      <c r="H301" s="183"/>
+      <c r="I301" s="183"/>
+      <c r="J301" s="183"/>
+      <c r="K301" s="183"/>
+      <c r="L301" s="184"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="179"/>
-      <c r="C302" s="180"/>
-      <c r="D302" s="180"/>
-      <c r="E302" s="180"/>
-      <c r="F302" s="180"/>
-      <c r="G302" s="180"/>
-      <c r="H302" s="180"/>
-      <c r="I302" s="180"/>
-      <c r="J302" s="180"/>
-      <c r="K302" s="180"/>
-      <c r="L302" s="181"/>
+      <c r="B302" s="182"/>
+      <c r="C302" s="183"/>
+      <c r="D302" s="183"/>
+      <c r="E302" s="183"/>
+      <c r="F302" s="183"/>
+      <c r="G302" s="183"/>
+      <c r="H302" s="183"/>
+      <c r="I302" s="183"/>
+      <c r="J302" s="183"/>
+      <c r="K302" s="183"/>
+      <c r="L302" s="184"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="182"/>
-      <c r="C303" s="183"/>
-      <c r="D303" s="183"/>
-      <c r="E303" s="183"/>
-      <c r="F303" s="183"/>
-      <c r="G303" s="183"/>
-      <c r="H303" s="183"/>
-      <c r="I303" s="183"/>
-      <c r="J303" s="183"/>
-      <c r="K303" s="183"/>
-      <c r="L303" s="184"/>
+      <c r="B303" s="185"/>
+      <c r="C303" s="186"/>
+      <c r="D303" s="186"/>
+      <c r="E303" s="186"/>
+      <c r="F303" s="186"/>
+      <c r="G303" s="186"/>
+      <c r="H303" s="186"/>
+      <c r="I303" s="186"/>
+      <c r="J303" s="186"/>
+      <c r="K303" s="186"/>
+      <c r="L303" s="187"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7435,83 +7435,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="176" t="s">
+      <c r="B306" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="177"/>
-      <c r="D306" s="177"/>
-      <c r="E306" s="177"/>
-      <c r="F306" s="177"/>
-      <c r="G306" s="177"/>
-      <c r="H306" s="177"/>
-      <c r="I306" s="177"/>
-      <c r="J306" s="177"/>
-      <c r="K306" s="177"/>
-      <c r="L306" s="178"/>
+      <c r="C306" s="180"/>
+      <c r="D306" s="180"/>
+      <c r="E306" s="180"/>
+      <c r="F306" s="180"/>
+      <c r="G306" s="180"/>
+      <c r="H306" s="180"/>
+      <c r="I306" s="180"/>
+      <c r="J306" s="180"/>
+      <c r="K306" s="180"/>
+      <c r="L306" s="181"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="179"/>
-      <c r="C307" s="180"/>
-      <c r="D307" s="180"/>
-      <c r="E307" s="180"/>
-      <c r="F307" s="180"/>
-      <c r="G307" s="180"/>
-      <c r="H307" s="180"/>
-      <c r="I307" s="180"/>
-      <c r="J307" s="180"/>
-      <c r="K307" s="180"/>
-      <c r="L307" s="181"/>
+      <c r="B307" s="182"/>
+      <c r="C307" s="183"/>
+      <c r="D307" s="183"/>
+      <c r="E307" s="183"/>
+      <c r="F307" s="183"/>
+      <c r="G307" s="183"/>
+      <c r="H307" s="183"/>
+      <c r="I307" s="183"/>
+      <c r="J307" s="183"/>
+      <c r="K307" s="183"/>
+      <c r="L307" s="184"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="179"/>
-      <c r="C308" s="180"/>
-      <c r="D308" s="180"/>
-      <c r="E308" s="180"/>
-      <c r="F308" s="180"/>
-      <c r="G308" s="180"/>
-      <c r="H308" s="180"/>
-      <c r="I308" s="180"/>
-      <c r="J308" s="180"/>
-      <c r="K308" s="180"/>
-      <c r="L308" s="181"/>
+      <c r="B308" s="182"/>
+      <c r="C308" s="183"/>
+      <c r="D308" s="183"/>
+      <c r="E308" s="183"/>
+      <c r="F308" s="183"/>
+      <c r="G308" s="183"/>
+      <c r="H308" s="183"/>
+      <c r="I308" s="183"/>
+      <c r="J308" s="183"/>
+      <c r="K308" s="183"/>
+      <c r="L308" s="184"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="179"/>
-      <c r="C309" s="180"/>
-      <c r="D309" s="180"/>
-      <c r="E309" s="180"/>
-      <c r="F309" s="180"/>
-      <c r="G309" s="180"/>
-      <c r="H309" s="180"/>
-      <c r="I309" s="180"/>
-      <c r="J309" s="180"/>
-      <c r="K309" s="180"/>
-      <c r="L309" s="181"/>
+      <c r="B309" s="182"/>
+      <c r="C309" s="183"/>
+      <c r="D309" s="183"/>
+      <c r="E309" s="183"/>
+      <c r="F309" s="183"/>
+      <c r="G309" s="183"/>
+      <c r="H309" s="183"/>
+      <c r="I309" s="183"/>
+      <c r="J309" s="183"/>
+      <c r="K309" s="183"/>
+      <c r="L309" s="184"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="182"/>
-      <c r="C310" s="183"/>
-      <c r="D310" s="183"/>
-      <c r="E310" s="183"/>
-      <c r="F310" s="183"/>
-      <c r="G310" s="183"/>
-      <c r="H310" s="183"/>
-      <c r="I310" s="183"/>
-      <c r="J310" s="183"/>
-      <c r="K310" s="183"/>
-      <c r="L310" s="184"/>
+      <c r="B310" s="185"/>
+      <c r="C310" s="186"/>
+      <c r="D310" s="186"/>
+      <c r="E310" s="186"/>
+      <c r="F310" s="186"/>
+      <c r="G310" s="186"/>
+      <c r="H310" s="186"/>
+      <c r="I310" s="186"/>
+      <c r="J310" s="186"/>
+      <c r="K310" s="186"/>
+      <c r="L310" s="187"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7691,83 +7691,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="176" t="s">
+      <c r="B321" s="179" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="177"/>
-      <c r="D321" s="177"/>
-      <c r="E321" s="177"/>
-      <c r="F321" s="177"/>
-      <c r="G321" s="177"/>
-      <c r="H321" s="177"/>
-      <c r="I321" s="177"/>
-      <c r="J321" s="177"/>
-      <c r="K321" s="177"/>
-      <c r="L321" s="178"/>
+      <c r="C321" s="180"/>
+      <c r="D321" s="180"/>
+      <c r="E321" s="180"/>
+      <c r="F321" s="180"/>
+      <c r="G321" s="180"/>
+      <c r="H321" s="180"/>
+      <c r="I321" s="180"/>
+      <c r="J321" s="180"/>
+      <c r="K321" s="180"/>
+      <c r="L321" s="181"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="179"/>
-      <c r="C322" s="180"/>
-      <c r="D322" s="180"/>
-      <c r="E322" s="180"/>
-      <c r="F322" s="180"/>
-      <c r="G322" s="180"/>
-      <c r="H322" s="180"/>
-      <c r="I322" s="180"/>
-      <c r="J322" s="180"/>
-      <c r="K322" s="180"/>
-      <c r="L322" s="181"/>
+      <c r="B322" s="182"/>
+      <c r="C322" s="183"/>
+      <c r="D322" s="183"/>
+      <c r="E322" s="183"/>
+      <c r="F322" s="183"/>
+      <c r="G322" s="183"/>
+      <c r="H322" s="183"/>
+      <c r="I322" s="183"/>
+      <c r="J322" s="183"/>
+      <c r="K322" s="183"/>
+      <c r="L322" s="184"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="179"/>
-      <c r="C323" s="180"/>
-      <c r="D323" s="180"/>
-      <c r="E323" s="180"/>
-      <c r="F323" s="180"/>
-      <c r="G323" s="180"/>
-      <c r="H323" s="180"/>
-      <c r="I323" s="180"/>
-      <c r="J323" s="180"/>
-      <c r="K323" s="180"/>
-      <c r="L323" s="181"/>
+      <c r="B323" s="182"/>
+      <c r="C323" s="183"/>
+      <c r="D323" s="183"/>
+      <c r="E323" s="183"/>
+      <c r="F323" s="183"/>
+      <c r="G323" s="183"/>
+      <c r="H323" s="183"/>
+      <c r="I323" s="183"/>
+      <c r="J323" s="183"/>
+      <c r="K323" s="183"/>
+      <c r="L323" s="184"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="179"/>
-      <c r="C324" s="180"/>
-      <c r="D324" s="180"/>
-      <c r="E324" s="180"/>
-      <c r="F324" s="180"/>
-      <c r="G324" s="180"/>
-      <c r="H324" s="180"/>
-      <c r="I324" s="180"/>
-      <c r="J324" s="180"/>
-      <c r="K324" s="180"/>
-      <c r="L324" s="181"/>
+      <c r="B324" s="182"/>
+      <c r="C324" s="183"/>
+      <c r="D324" s="183"/>
+      <c r="E324" s="183"/>
+      <c r="F324" s="183"/>
+      <c r="G324" s="183"/>
+      <c r="H324" s="183"/>
+      <c r="I324" s="183"/>
+      <c r="J324" s="183"/>
+      <c r="K324" s="183"/>
+      <c r="L324" s="184"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="182"/>
-      <c r="C325" s="183"/>
-      <c r="D325" s="183"/>
-      <c r="E325" s="183"/>
-      <c r="F325" s="183"/>
-      <c r="G325" s="183"/>
-      <c r="H325" s="183"/>
-      <c r="I325" s="183"/>
-      <c r="J325" s="183"/>
-      <c r="K325" s="183"/>
-      <c r="L325" s="184"/>
+      <c r="B325" s="185"/>
+      <c r="C325" s="186"/>
+      <c r="D325" s="186"/>
+      <c r="E325" s="186"/>
+      <c r="F325" s="186"/>
+      <c r="G325" s="186"/>
+      <c r="H325" s="186"/>
+      <c r="I325" s="186"/>
+      <c r="J325" s="186"/>
+      <c r="K325" s="186"/>
+      <c r="L325" s="187"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7789,19 +7789,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="175" t="s">
+      <c r="B327" s="268" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="175"/>
-      <c r="D327" s="175"/>
-      <c r="E327" s="175"/>
-      <c r="F327" s="175"/>
-      <c r="G327" s="175"/>
-      <c r="H327" s="175"/>
-      <c r="I327" s="175"/>
-      <c r="J327" s="175"/>
-      <c r="K327" s="175"/>
-      <c r="L327" s="175"/>
+      <c r="C327" s="268"/>
+      <c r="D327" s="268"/>
+      <c r="E327" s="268"/>
+      <c r="F327" s="268"/>
+      <c r="G327" s="268"/>
+      <c r="H327" s="268"/>
+      <c r="I327" s="268"/>
+      <c r="J327" s="268"/>
+      <c r="K327" s="268"/>
+      <c r="L327" s="268"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7916,79 +7916,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="185" t="s">
+      <c r="B335" s="269" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="186"/>
-      <c r="D335" s="186"/>
-      <c r="E335" s="186"/>
-      <c r="F335" s="186"/>
-      <c r="G335" s="186"/>
-      <c r="H335" s="186"/>
-      <c r="I335" s="186"/>
-      <c r="J335" s="186"/>
-      <c r="K335" s="186"/>
-      <c r="L335" s="187"/>
+      <c r="C335" s="270"/>
+      <c r="D335" s="270"/>
+      <c r="E335" s="270"/>
+      <c r="F335" s="270"/>
+      <c r="G335" s="270"/>
+      <c r="H335" s="270"/>
+      <c r="I335" s="270"/>
+      <c r="J335" s="270"/>
+      <c r="K335" s="270"/>
+      <c r="L335" s="271"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="188"/>
-      <c r="C336" s="189"/>
-      <c r="D336" s="189"/>
-      <c r="E336" s="189"/>
-      <c r="F336" s="189"/>
-      <c r="G336" s="189"/>
-      <c r="H336" s="189"/>
-      <c r="I336" s="189"/>
-      <c r="J336" s="189"/>
-      <c r="K336" s="189"/>
-      <c r="L336" s="190"/>
+      <c r="B336" s="272"/>
+      <c r="C336" s="273"/>
+      <c r="D336" s="273"/>
+      <c r="E336" s="273"/>
+      <c r="F336" s="273"/>
+      <c r="G336" s="273"/>
+      <c r="H336" s="273"/>
+      <c r="I336" s="273"/>
+      <c r="J336" s="273"/>
+      <c r="K336" s="273"/>
+      <c r="L336" s="274"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="188"/>
-      <c r="C337" s="189"/>
-      <c r="D337" s="189"/>
-      <c r="E337" s="189"/>
-      <c r="F337" s="189"/>
-      <c r="G337" s="189"/>
-      <c r="H337" s="189"/>
-      <c r="I337" s="189"/>
-      <c r="J337" s="189"/>
-      <c r="K337" s="189"/>
-      <c r="L337" s="190"/>
+      <c r="B337" s="272"/>
+      <c r="C337" s="273"/>
+      <c r="D337" s="273"/>
+      <c r="E337" s="273"/>
+      <c r="F337" s="273"/>
+      <c r="G337" s="273"/>
+      <c r="H337" s="273"/>
+      <c r="I337" s="273"/>
+      <c r="J337" s="273"/>
+      <c r="K337" s="273"/>
+      <c r="L337" s="274"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="188"/>
-      <c r="C338" s="189"/>
-      <c r="D338" s="189"/>
-      <c r="E338" s="189"/>
-      <c r="F338" s="189"/>
-      <c r="G338" s="189"/>
-      <c r="H338" s="189"/>
-      <c r="I338" s="189"/>
-      <c r="J338" s="189"/>
-      <c r="K338" s="189"/>
-      <c r="L338" s="190"/>
+      <c r="B338" s="272"/>
+      <c r="C338" s="273"/>
+      <c r="D338" s="273"/>
+      <c r="E338" s="273"/>
+      <c r="F338" s="273"/>
+      <c r="G338" s="273"/>
+      <c r="H338" s="273"/>
+      <c r="I338" s="273"/>
+      <c r="J338" s="273"/>
+      <c r="K338" s="273"/>
+      <c r="L338" s="274"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="191"/>
-      <c r="C339" s="192"/>
-      <c r="D339" s="192"/>
-      <c r="E339" s="192"/>
-      <c r="F339" s="192"/>
-      <c r="G339" s="192"/>
-      <c r="H339" s="192"/>
-      <c r="I339" s="192"/>
-      <c r="J339" s="192"/>
-      <c r="K339" s="192"/>
-      <c r="L339" s="193"/>
+      <c r="B339" s="275"/>
+      <c r="C339" s="276"/>
+      <c r="D339" s="276"/>
+      <c r="E339" s="276"/>
+      <c r="F339" s="276"/>
+      <c r="G339" s="276"/>
+      <c r="H339" s="276"/>
+      <c r="I339" s="276"/>
+      <c r="J339" s="276"/>
+      <c r="K339" s="276"/>
+      <c r="L339" s="277"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8008,19 +8008,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="175" t="s">
+      <c r="B341" s="268" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="175"/>
-      <c r="D341" s="175"/>
-      <c r="E341" s="175"/>
-      <c r="F341" s="175"/>
-      <c r="G341" s="175"/>
-      <c r="H341" s="175"/>
-      <c r="I341" s="175"/>
-      <c r="J341" s="175"/>
-      <c r="K341" s="175"/>
-      <c r="L341" s="175"/>
+      <c r="C341" s="268"/>
+      <c r="D341" s="268"/>
+      <c r="E341" s="268"/>
+      <c r="F341" s="268"/>
+      <c r="G341" s="268"/>
+      <c r="H341" s="268"/>
+      <c r="I341" s="268"/>
+      <c r="J341" s="268"/>
+      <c r="K341" s="268"/>
+      <c r="L341" s="268"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8069,12 +8069,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="172" t="s">
+      <c r="B345" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="172"/>
-      <c r="D345" s="172"/>
-      <c r="E345" s="172"/>
+      <c r="C345" s="189"/>
+      <c r="D345" s="189"/>
+      <c r="E345" s="189"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8097,12 +8097,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="172" t="s">
+      <c r="B347" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="172"/>
-      <c r="D347" s="172"/>
-      <c r="E347" s="172"/>
+      <c r="C347" s="189"/>
+      <c r="D347" s="189"/>
+      <c r="E347" s="189"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8127,13 +8127,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="172" t="s">
+      <c r="B349" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="172"/>
-      <c r="D349" s="172"/>
-      <c r="E349" s="172"/>
-      <c r="F349" s="174"/>
+      <c r="C349" s="189"/>
+      <c r="D349" s="189"/>
+      <c r="E349" s="189"/>
+      <c r="F349" s="164"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8156,13 +8156,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="172" t="s">
+      <c r="B351" s="189" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="172"/>
-      <c r="D351" s="172"/>
-      <c r="E351" s="172"/>
-      <c r="F351" s="174"/>
+      <c r="C351" s="189"/>
+      <c r="D351" s="189"/>
+      <c r="E351" s="189"/>
+      <c r="F351" s="164"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8185,13 +8185,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="172" t="s">
+      <c r="B353" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="172"/>
-      <c r="D353" s="172"/>
-      <c r="E353" s="172"/>
-      <c r="F353" s="174"/>
+      <c r="C353" s="189"/>
+      <c r="D353" s="189"/>
+      <c r="E353" s="189"/>
+      <c r="F353" s="164"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8263,83 +8263,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="176" t="s">
+      <c r="B358" s="179" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="177"/>
-      <c r="D358" s="177"/>
-      <c r="E358" s="177"/>
-      <c r="F358" s="177"/>
-      <c r="G358" s="177"/>
-      <c r="H358" s="177"/>
-      <c r="I358" s="177"/>
-      <c r="J358" s="177"/>
-      <c r="K358" s="177"/>
-      <c r="L358" s="178"/>
+      <c r="C358" s="180"/>
+      <c r="D358" s="180"/>
+      <c r="E358" s="180"/>
+      <c r="F358" s="180"/>
+      <c r="G358" s="180"/>
+      <c r="H358" s="180"/>
+      <c r="I358" s="180"/>
+      <c r="J358" s="180"/>
+      <c r="K358" s="180"/>
+      <c r="L358" s="181"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="179"/>
-      <c r="C359" s="180"/>
-      <c r="D359" s="180"/>
-      <c r="E359" s="180"/>
-      <c r="F359" s="180"/>
-      <c r="G359" s="180"/>
-      <c r="H359" s="180"/>
-      <c r="I359" s="180"/>
-      <c r="J359" s="180"/>
-      <c r="K359" s="180"/>
-      <c r="L359" s="181"/>
+      <c r="B359" s="182"/>
+      <c r="C359" s="183"/>
+      <c r="D359" s="183"/>
+      <c r="E359" s="183"/>
+      <c r="F359" s="183"/>
+      <c r="G359" s="183"/>
+      <c r="H359" s="183"/>
+      <c r="I359" s="183"/>
+      <c r="J359" s="183"/>
+      <c r="K359" s="183"/>
+      <c r="L359" s="184"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="179"/>
-      <c r="C360" s="180"/>
-      <c r="D360" s="180"/>
-      <c r="E360" s="180"/>
-      <c r="F360" s="180"/>
-      <c r="G360" s="180"/>
-      <c r="H360" s="180"/>
-      <c r="I360" s="180"/>
-      <c r="J360" s="180"/>
-      <c r="K360" s="180"/>
-      <c r="L360" s="181"/>
+      <c r="B360" s="182"/>
+      <c r="C360" s="183"/>
+      <c r="D360" s="183"/>
+      <c r="E360" s="183"/>
+      <c r="F360" s="183"/>
+      <c r="G360" s="183"/>
+      <c r="H360" s="183"/>
+      <c r="I360" s="183"/>
+      <c r="J360" s="183"/>
+      <c r="K360" s="183"/>
+      <c r="L360" s="184"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="179"/>
-      <c r="C361" s="180"/>
-      <c r="D361" s="180"/>
-      <c r="E361" s="180"/>
-      <c r="F361" s="180"/>
-      <c r="G361" s="180"/>
-      <c r="H361" s="180"/>
-      <c r="I361" s="180"/>
-      <c r="J361" s="180"/>
-      <c r="K361" s="180"/>
-      <c r="L361" s="181"/>
+      <c r="B361" s="182"/>
+      <c r="C361" s="183"/>
+      <c r="D361" s="183"/>
+      <c r="E361" s="183"/>
+      <c r="F361" s="183"/>
+      <c r="G361" s="183"/>
+      <c r="H361" s="183"/>
+      <c r="I361" s="183"/>
+      <c r="J361" s="183"/>
+      <c r="K361" s="183"/>
+      <c r="L361" s="184"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="182"/>
-      <c r="C362" s="183"/>
-      <c r="D362" s="183"/>
-      <c r="E362" s="183"/>
-      <c r="F362" s="183"/>
-      <c r="G362" s="183"/>
-      <c r="H362" s="183"/>
-      <c r="I362" s="183"/>
-      <c r="J362" s="183"/>
-      <c r="K362" s="183"/>
-      <c r="L362" s="184"/>
+      <c r="B362" s="185"/>
+      <c r="C362" s="186"/>
+      <c r="D362" s="186"/>
+      <c r="E362" s="186"/>
+      <c r="F362" s="186"/>
+      <c r="G362" s="186"/>
+      <c r="H362" s="186"/>
+      <c r="I362" s="186"/>
+      <c r="J362" s="186"/>
+      <c r="K362" s="186"/>
+      <c r="L362" s="187"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8414,28 +8414,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="198" t="s">
+      <c r="B367" s="253" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="199"/>
-      <c r="D367" s="170" t="s">
+      <c r="C367" s="254"/>
+      <c r="D367" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="194"/>
-      <c r="F367" s="194"/>
-      <c r="G367" s="194"/>
-      <c r="H367" s="194"/>
-      <c r="I367" s="194"/>
-      <c r="J367" s="194"/>
-      <c r="K367" s="194"/>
-      <c r="L367" s="171"/>
+      <c r="E367" s="244"/>
+      <c r="F367" s="244"/>
+      <c r="G367" s="244"/>
+      <c r="H367" s="244"/>
+      <c r="I367" s="244"/>
+      <c r="J367" s="244"/>
+      <c r="K367" s="244"/>
+      <c r="L367" s="245"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="170"/>
-      <c r="C368" s="171"/>
+      <c r="B368" s="243"/>
+      <c r="C368" s="245"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8450,19 +8450,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="229" t="s">
+      <c r="B369" s="188" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="229"/>
-      <c r="D369" s="229"/>
-      <c r="E369" s="229"/>
-      <c r="F369" s="229"/>
-      <c r="G369" s="229"/>
-      <c r="H369" s="229"/>
-      <c r="I369" s="229"/>
-      <c r="J369" s="229"/>
-      <c r="K369" s="229"/>
-      <c r="L369" s="229"/>
+      <c r="C369" s="188"/>
+      <c r="D369" s="188"/>
+      <c r="E369" s="188"/>
+      <c r="F369" s="188"/>
+      <c r="G369" s="188"/>
+      <c r="H369" s="188"/>
+      <c r="I369" s="188"/>
+      <c r="J369" s="188"/>
+      <c r="K369" s="188"/>
+      <c r="L369" s="188"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8550,20 +8550,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="205" t="s">
+      <c r="C375" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="205"/>
-      <c r="E375" s="204" t="s">
+      <c r="D375" s="232"/>
+      <c r="E375" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="204"/>
-      <c r="G375" s="204"/>
-      <c r="H375" s="204" t="s">
+      <c r="F375" s="233"/>
+      <c r="G375" s="233"/>
+      <c r="H375" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="204"/>
-      <c r="J375" s="204"/>
+      <c r="I375" s="233"/>
+      <c r="J375" s="233"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8573,14 +8573,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="205"/>
-      <c r="D376" s="205"/>
-      <c r="E376" s="204"/>
-      <c r="F376" s="204"/>
-      <c r="G376" s="204"/>
-      <c r="H376" s="204"/>
-      <c r="I376" s="204"/>
-      <c r="J376" s="204"/>
+      <c r="C376" s="232"/>
+      <c r="D376" s="232"/>
+      <c r="E376" s="233"/>
+      <c r="F376" s="233"/>
+      <c r="G376" s="233"/>
+      <c r="H376" s="233"/>
+      <c r="I376" s="233"/>
+      <c r="J376" s="233"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8590,14 +8590,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="205"/>
-      <c r="D377" s="205"/>
-      <c r="E377" s="204"/>
-      <c r="F377" s="204"/>
-      <c r="G377" s="204"/>
-      <c r="H377" s="204"/>
-      <c r="I377" s="204"/>
-      <c r="J377" s="204"/>
+      <c r="C377" s="232"/>
+      <c r="D377" s="232"/>
+      <c r="E377" s="233"/>
+      <c r="F377" s="233"/>
+      <c r="G377" s="233"/>
+      <c r="H377" s="233"/>
+      <c r="I377" s="233"/>
+      <c r="J377" s="233"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8607,14 +8607,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="205"/>
-      <c r="D378" s="205"/>
-      <c r="E378" s="204"/>
-      <c r="F378" s="204"/>
-      <c r="G378" s="204"/>
-      <c r="H378" s="204"/>
-      <c r="I378" s="204"/>
-      <c r="J378" s="204"/>
+      <c r="C378" s="232"/>
+      <c r="D378" s="232"/>
+      <c r="E378" s="233"/>
+      <c r="F378" s="233"/>
+      <c r="G378" s="233"/>
+      <c r="H378" s="233"/>
+      <c r="I378" s="233"/>
+      <c r="J378" s="233"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8624,14 +8624,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="205"/>
-      <c r="D379" s="205"/>
-      <c r="E379" s="204"/>
-      <c r="F379" s="204"/>
-      <c r="G379" s="204"/>
-      <c r="H379" s="204"/>
-      <c r="I379" s="204"/>
-      <c r="J379" s="204"/>
+      <c r="C379" s="232"/>
+      <c r="D379" s="232"/>
+      <c r="E379" s="233"/>
+      <c r="F379" s="233"/>
+      <c r="G379" s="233"/>
+      <c r="H379" s="233"/>
+      <c r="I379" s="233"/>
+      <c r="J379" s="233"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8641,14 +8641,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="205"/>
-      <c r="D380" s="205"/>
-      <c r="E380" s="204"/>
-      <c r="F380" s="204"/>
-      <c r="G380" s="204"/>
-      <c r="H380" s="204"/>
-      <c r="I380" s="204"/>
-      <c r="J380" s="204"/>
+      <c r="C380" s="232"/>
+      <c r="D380" s="232"/>
+      <c r="E380" s="233"/>
+      <c r="F380" s="233"/>
+      <c r="G380" s="233"/>
+      <c r="H380" s="233"/>
+      <c r="I380" s="233"/>
+      <c r="J380" s="233"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8658,14 +8658,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="205"/>
-      <c r="D381" s="205"/>
-      <c r="E381" s="204"/>
-      <c r="F381" s="204"/>
-      <c r="G381" s="204"/>
-      <c r="H381" s="204"/>
-      <c r="I381" s="204"/>
-      <c r="J381" s="204"/>
+      <c r="C381" s="232"/>
+      <c r="D381" s="232"/>
+      <c r="E381" s="233"/>
+      <c r="F381" s="233"/>
+      <c r="G381" s="233"/>
+      <c r="H381" s="233"/>
+      <c r="I381" s="233"/>
+      <c r="J381" s="233"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8675,14 +8675,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="205"/>
-      <c r="D382" s="205"/>
-      <c r="E382" s="204"/>
-      <c r="F382" s="204"/>
-      <c r="G382" s="204"/>
-      <c r="H382" s="204"/>
-      <c r="I382" s="204"/>
-      <c r="J382" s="204"/>
+      <c r="C382" s="232"/>
+      <c r="D382" s="232"/>
+      <c r="E382" s="233"/>
+      <c r="F382" s="233"/>
+      <c r="G382" s="233"/>
+      <c r="H382" s="233"/>
+      <c r="I382" s="233"/>
+      <c r="J382" s="233"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="205" t="s">
+      <c r="C392" s="232" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="205"/>
+      <c r="D392" s="232"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8818,43 +8818,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="219" t="s">
+      <c r="B393" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="219" t="s">
+      <c r="C393" s="161" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="219" t="s">
+      <c r="D393" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="219" t="s">
+      <c r="E393" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="220" t="s">
+      <c r="F393" s="234" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="220" t="s">
+      <c r="G393" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="220" t="s">
+      <c r="H393" s="234" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="204" t="s">
+      <c r="I393" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="204"/>
+      <c r="J393" s="233"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="219"/>
-      <c r="C394" s="219"/>
-      <c r="D394" s="219"/>
-      <c r="E394" s="219"/>
-      <c r="F394" s="221"/>
-      <c r="G394" s="221"/>
-      <c r="H394" s="221"/>
+      <c r="B394" s="161"/>
+      <c r="C394" s="161"/>
+      <c r="D394" s="161"/>
+      <c r="E394" s="161"/>
+      <c r="F394" s="235"/>
+      <c r="G394" s="235"/>
+      <c r="H394" s="235"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9159,21 +9159,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="213" t="s">
+      <c r="B414" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="215"/>
-      <c r="D414" s="213" t="s">
+      <c r="C414" s="170"/>
+      <c r="D414" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="214"/>
-      <c r="F414" s="214"/>
-      <c r="G414" s="214"/>
-      <c r="H414" s="214"/>
-      <c r="I414" s="214"/>
-      <c r="J414" s="215"/>
+      <c r="E414" s="169"/>
+      <c r="F414" s="169"/>
+      <c r="G414" s="169"/>
+      <c r="H414" s="169"/>
+      <c r="I414" s="169"/>
+      <c r="J414" s="170"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="220" t="s">
+      <c r="L414" s="234" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="221"/>
+      <c r="L415" s="235"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9453,23 +9453,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="213" t="s">
+      <c r="B431" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="215"/>
-      <c r="D431" s="228" t="s">
+      <c r="C431" s="170"/>
+      <c r="D431" s="242" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="213" t="s">
+      <c r="E431" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="214"/>
-      <c r="G431" s="214"/>
-      <c r="H431" s="214"/>
-      <c r="I431" s="214"/>
-      <c r="J431" s="215"/>
+      <c r="F431" s="169"/>
+      <c r="G431" s="169"/>
+      <c r="H431" s="169"/>
+      <c r="I431" s="169"/>
+      <c r="J431" s="170"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="220" t="s">
+      <c r="L431" s="234" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="205"/>
+      <c r="D432" s="232"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="221"/>
+      <c r="L432" s="235"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9689,26 +9689,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="209" t="s">
+      <c r="B445" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="210"/>
-      <c r="D445" s="213" t="s">
+      <c r="C445" s="249"/>
+      <c r="D445" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="214"/>
-      <c r="F445" s="214"/>
-      <c r="G445" s="214"/>
-      <c r="H445" s="214"/>
-      <c r="I445" s="214"/>
-      <c r="J445" s="215"/>
+      <c r="E445" s="169"/>
+      <c r="F445" s="169"/>
+      <c r="G445" s="169"/>
+      <c r="H445" s="169"/>
+      <c r="I445" s="169"/>
+      <c r="J445" s="170"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="216"/>
+      <c r="L445" s="252"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="211"/>
-      <c r="C446" s="212"/>
+      <c r="B446" s="250"/>
+      <c r="C446" s="251"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9731,14 +9731,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="216"/>
+      <c r="L446" s="252"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="170" t="s">
+      <c r="B447" s="243" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="171"/>
+      <c r="C447" s="245"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9750,10 +9750,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="170" t="s">
+      <c r="B448" s="243" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="171"/>
+      <c r="C448" s="245"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="170" t="s">
+      <c r="B449" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="171"/>
+      <c r="C449" s="245"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9780,10 +9780,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="213" t="s">
+      <c r="B450" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="215"/>
+      <c r="C450" s="170"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10119,18 +10119,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="225" t="s">
+      <c r="C472" s="239" t="s">
         <v>339</v>
       </c>
-      <c r="D472" s="226"/>
-      <c r="E472" s="226"/>
-      <c r="F472" s="226"/>
-      <c r="G472" s="226"/>
-      <c r="H472" s="226"/>
-      <c r="I472" s="226"/>
-      <c r="J472" s="226"/>
-      <c r="K472" s="226"/>
-      <c r="L472" s="227"/>
+      <c r="D472" s="240"/>
+      <c r="E472" s="240"/>
+      <c r="F472" s="240"/>
+      <c r="G472" s="240"/>
+      <c r="H472" s="240"/>
+      <c r="I472" s="240"/>
+      <c r="J472" s="240"/>
+      <c r="K472" s="240"/>
+      <c r="L472" s="241"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10166,10 +10166,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="205" t="s">
+      <c r="C475" s="232" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="205"/>
+      <c r="D475" s="232"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10181,43 +10181,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="219" t="s">
+      <c r="B476" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="219" t="s">
+      <c r="C476" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="219" t="s">
+      <c r="D476" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="219" t="s">
+      <c r="E476" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="220" t="s">
+      <c r="F476" s="234" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="220" t="s">
+      <c r="G476" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="220" t="s">
+      <c r="H476" s="234" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="222" t="s">
+      <c r="I476" s="236" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="223"/>
-      <c r="K476" s="223"/>
-      <c r="L476" s="224"/>
+      <c r="J476" s="237"/>
+      <c r="K476" s="237"/>
+      <c r="L476" s="238"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="219"/>
-      <c r="C477" s="219"/>
-      <c r="D477" s="219"/>
-      <c r="E477" s="219"/>
-      <c r="F477" s="221"/>
-      <c r="G477" s="221"/>
-      <c r="H477" s="221"/>
+      <c r="B477" s="161"/>
+      <c r="C477" s="161"/>
+      <c r="D477" s="161"/>
+      <c r="E477" s="161"/>
+      <c r="F477" s="235"/>
+      <c r="G477" s="235"/>
+      <c r="H477" s="235"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10359,10 +10359,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="200" t="s">
+      <c r="F484" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="200"/>
+      <c r="G484" s="255"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10381,10 +10381,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="201" t="s">
+      <c r="F485" s="256" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="201"/>
+      <c r="G485" s="256"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10406,10 +10406,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="201" t="s">
+      <c r="F486" s="256" t="s">
         <v>195</v>
       </c>
-      <c r="G486" s="201"/>
+      <c r="G486" s="256"/>
       <c r="H486" s="127">
         <v>17290.75</v>
       </c>
@@ -10428,10 +10428,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="208" t="s">
+      <c r="F487" s="247" t="s">
         <v>196</v>
       </c>
-      <c r="G487" s="208"/>
+      <c r="G487" s="247"/>
       <c r="H487" s="138">
         <f>SUM(H478:H486)+0.01</f>
         <v>369853.66000000003</v>
@@ -10576,27 +10576,27 @@
     </row>
     <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="209" t="s">
+      <c r="B496" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="C496" s="210"/>
-      <c r="D496" s="213" t="s">
+      <c r="C496" s="249"/>
+      <c r="D496" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="E496" s="214"/>
-      <c r="F496" s="214"/>
-      <c r="G496" s="214"/>
-      <c r="H496" s="214"/>
-      <c r="I496" s="214"/>
-      <c r="J496" s="215"/>
+      <c r="E496" s="169"/>
+      <c r="F496" s="169"/>
+      <c r="G496" s="169"/>
+      <c r="H496" s="169"/>
+      <c r="I496" s="169"/>
+      <c r="J496" s="170"/>
       <c r="K496" s="21"/>
-      <c r="L496" s="216"/>
+      <c r="L496" s="252"/>
       <c r="M496" s="79"/>
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="211"/>
-      <c r="C497" s="212"/>
+      <c r="B497" s="250"/>
+      <c r="C497" s="251"/>
       <c r="D497" s="74">
         <v>1</v>
       </c>
@@ -10619,15 +10619,15 @@
         <v>10</v>
       </c>
       <c r="K497" s="21"/>
-      <c r="L497" s="216"/>
+      <c r="L497" s="252"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="217" t="s">
+      <c r="B498" s="226" t="s">
         <v>340</v>
       </c>
-      <c r="C498" s="218"/>
+      <c r="C498" s="228"/>
       <c r="D498" s="102"/>
       <c r="E498" s="142">
         <v>3500</v>
@@ -10649,10 +10649,10 @@
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="170" t="s">
+      <c r="B499" s="243" t="s">
         <v>178</v>
       </c>
-      <c r="C499" s="171"/>
+      <c r="C499" s="245"/>
       <c r="D499" s="81"/>
       <c r="E499" s="81"/>
       <c r="F499" s="81"/>
@@ -10666,10 +10666,10 @@
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="170" t="s">
+      <c r="B500" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="C500" s="171"/>
+      <c r="C500" s="245"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10683,9 +10683,9 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="78"/>
-      <c r="B501" s="161"/>
-      <c r="C501" s="161"/>
-      <c r="D501" s="161"/>
+      <c r="B501" s="259"/>
+      <c r="C501" s="259"/>
+      <c r="D501" s="259"/>
       <c r="E501" s="39"/>
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
@@ -11108,12 +11108,12 @@
       <c r="L528" s="79"/>
     </row>
     <row r="529" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="206" t="s">
+      <c r="A529" s="198" t="s">
         <v>246</v>
       </c>
-      <c r="B529" s="206"/>
-      <c r="C529" s="206"/>
-      <c r="D529" s="206"/>
+      <c r="B529" s="198"/>
+      <c r="C529" s="198"/>
+      <c r="D529" s="198"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="151"/>
@@ -11191,36 +11191,36 @@
       <c r="K534" s="150"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A535" s="207" t="s">
+      <c r="A535" s="246" t="s">
         <v>248</v>
       </c>
-      <c r="B535" s="207"/>
-      <c r="C535" s="207"/>
-      <c r="D535" s="207"/>
-      <c r="E535" s="207"/>
-      <c r="F535" s="207"/>
-      <c r="G535" s="207"/>
-      <c r="H535" s="207"/>
-      <c r="I535" s="207"/>
-      <c r="J535" s="207"/>
-      <c r="K535" s="207"/>
-      <c r="L535" s="207"/>
+      <c r="B535" s="246"/>
+      <c r="C535" s="246"/>
+      <c r="D535" s="246"/>
+      <c r="E535" s="246"/>
+      <c r="F535" s="246"/>
+      <c r="G535" s="246"/>
+      <c r="H535" s="246"/>
+      <c r="I535" s="246"/>
+      <c r="J535" s="246"/>
+      <c r="K535" s="246"/>
+      <c r="L535" s="246"/>
     </row>
     <row r="536" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="207" t="s">
+      <c r="A536" s="246" t="s">
         <v>271</v>
       </c>
-      <c r="B536" s="207"/>
-      <c r="C536" s="207"/>
-      <c r="D536" s="207"/>
-      <c r="E536" s="207"/>
-      <c r="F536" s="207"/>
-      <c r="G536" s="207"/>
-      <c r="H536" s="207"/>
-      <c r="I536" s="207"/>
-      <c r="J536" s="207"/>
-      <c r="K536" s="207"/>
-      <c r="L536" s="207"/>
+      <c r="B536" s="246"/>
+      <c r="C536" s="246"/>
+      <c r="D536" s="246"/>
+      <c r="E536" s="246"/>
+      <c r="F536" s="246"/>
+      <c r="G536" s="246"/>
+      <c r="H536" s="246"/>
+      <c r="I536" s="246"/>
+      <c r="J536" s="246"/>
+      <c r="K536" s="246"/>
+      <c r="L536" s="246"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537" s="79"/>
@@ -11251,20 +11251,20 @@
       <c r="K538" s="150"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="207" t="s">
+      <c r="A539" s="246" t="s">
         <v>250</v>
       </c>
-      <c r="B539" s="207"/>
-      <c r="C539" s="207"/>
-      <c r="D539" s="207"/>
-      <c r="E539" s="207"/>
-      <c r="F539" s="207"/>
-      <c r="G539" s="207"/>
-      <c r="H539" s="207"/>
-      <c r="I539" s="207"/>
-      <c r="J539" s="207"/>
-      <c r="K539" s="207"/>
-      <c r="L539" s="207"/>
+      <c r="B539" s="246"/>
+      <c r="C539" s="246"/>
+      <c r="D539" s="246"/>
+      <c r="E539" s="246"/>
+      <c r="F539" s="246"/>
+      <c r="G539" s="246"/>
+      <c r="H539" s="246"/>
+      <c r="I539" s="246"/>
+      <c r="J539" s="246"/>
+      <c r="K539" s="246"/>
+      <c r="L539" s="246"/>
     </row>
     <row r="540" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="78"/>
@@ -11280,29 +11280,111 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B501:D501"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B327:L327"/>
+    <mergeCell ref="B341:L341"/>
+    <mergeCell ref="B358:L362"/>
+    <mergeCell ref="B299:L303"/>
+    <mergeCell ref="B306:L310"/>
+    <mergeCell ref="B321:L325"/>
+    <mergeCell ref="B335:L339"/>
+    <mergeCell ref="D367:L367"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A535:L535"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A539:L539"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B496:C497"/>
+    <mergeCell ref="D496:J496"/>
+    <mergeCell ref="L496:L497"/>
+    <mergeCell ref="B498:C498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
     <mergeCell ref="B369:L369"/>
     <mergeCell ref="B349:F349"/>
     <mergeCell ref="B351:F351"/>
@@ -11327,111 +11409,29 @@
     <mergeCell ref="B200:L204"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A535:L535"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A539:L539"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B496:C497"/>
-    <mergeCell ref="D496:J496"/>
-    <mergeCell ref="L496:L497"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="B501:D501"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B327:L327"/>
-    <mergeCell ref="B341:L341"/>
-    <mergeCell ref="B358:L362"/>
-    <mergeCell ref="B299:L303"/>
-    <mergeCell ref="B306:L310"/>
-    <mergeCell ref="B321:L325"/>
-    <mergeCell ref="B335:L339"/>
-    <mergeCell ref="D367:L367"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -15,7 +15,7 @@
     <sheet name="IEP N° 54411 SR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54411 SR'!$A$2:$L$540</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54411 SR'!$A$2:$L$542</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="346">
   <si>
     <t>Nombre de la inversión (en función de las acciones, activos, nombre de la unidad productora y localización geográfica de la unidad productora)</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>INSTITUCION ADUCATIVA PRIMARIA  N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS</t>
+  </si>
+  <si>
+    <t>GASTOS GENERALES</t>
+  </si>
+  <si>
+    <t>GESTION DE PROYECTO</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1525,7 @@
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2001,18 +2007,342 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,15 +2352,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2038,15 +2359,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,303 +2366,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2638,10 +2653,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:P543"/>
+  <dimension ref="A3:P545"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:J68"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A83" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="I496" sqref="I496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2663,52 +2678,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="233" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="193"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="236"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="237" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="197"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="240"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="209" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2742,17 +2757,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="166" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="263"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2949,10 +2964,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="260" t="s">
+      <c r="D21" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="260"/>
+      <c r="E21" s="165"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2981,10 +2996,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="260" t="s">
+      <c r="D23" s="165" t="s">
         <v>331</v>
       </c>
-      <c r="E23" s="260"/>
+      <c r="E23" s="165"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3046,13 +3061,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="264" t="s">
+      <c r="F27" s="169" t="s">
         <v>337</v>
       </c>
-      <c r="G27" s="264"/>
-      <c r="H27" s="264"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="264"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3071,22 +3086,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="265" t="s">
+      <c r="G29" s="170" t="s">
         <v>332</v>
       </c>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="267"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="172"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3105,11 +3120,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="257" t="s">
+      <c r="B31" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="257"/>
-      <c r="D31" s="258"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3270,12 +3285,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="229" t="s">
+      <c r="G40" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="230"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="231"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3288,12 +3303,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="229" t="s">
+      <c r="G41" s="198" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="231"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3306,12 +3321,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="229" t="s">
+      <c r="G42" s="198" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="230"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="231"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3324,12 +3339,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="229" t="s">
+      <c r="G43" s="198" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="230"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="231"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="200"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3373,12 +3388,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="229" t="s">
+      <c r="G46" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="230"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="231"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3391,12 +3406,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="229" t="s">
+      <c r="G47" s="198" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="230"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="231"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3409,12 +3424,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="226" t="s">
+      <c r="G48" s="220" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="227"/>
-      <c r="I48" s="227"/>
-      <c r="J48" s="228"/>
+      <c r="H48" s="271"/>
+      <c r="I48" s="271"/>
+      <c r="J48" s="221"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3481,12 +3496,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="229" t="s">
+      <c r="G52" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="230"/>
-      <c r="I52" s="230"/>
-      <c r="J52" s="231"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3499,12 +3514,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="229" t="s">
+      <c r="G53" s="198" t="s">
         <v>327</v>
       </c>
-      <c r="H53" s="230"/>
-      <c r="I53" s="230"/>
-      <c r="J53" s="231"/>
+      <c r="H53" s="199"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3753,14 +3768,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="243" t="s">
+      <c r="E68" s="173" t="s">
         <v>343</v>
       </c>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
-      <c r="J68" s="245"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
+      <c r="H68" s="197"/>
+      <c r="I68" s="197"/>
+      <c r="J68" s="174"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3825,11 +3840,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="161" t="s">
+      <c r="F72" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="161"/>
-      <c r="H72" s="161"/>
+      <c r="G72" s="222"/>
+      <c r="H72" s="222"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3847,11 +3862,11 @@
         <v>330</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="162" t="s">
+      <c r="F73" s="272" t="s">
         <v>338</v>
       </c>
-      <c r="G73" s="162"/>
-      <c r="H73" s="162"/>
+      <c r="G73" s="272"/>
+      <c r="H73" s="272"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3983,10 +3998,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="233" t="s">
+      <c r="D82" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="233"/>
+      <c r="E82" s="207"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4072,17 +4087,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="166" t="s">
+      <c r="B87" s="274" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
-      <c r="F87" s="166"/>
-      <c r="G87" s="166"/>
-      <c r="H87" s="166"/>
-      <c r="I87" s="166"/>
-      <c r="J87" s="166"/>
+      <c r="C87" s="274"/>
+      <c r="D87" s="274"/>
+      <c r="E87" s="274"/>
+      <c r="F87" s="274"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="274"/>
+      <c r="I87" s="274"/>
+      <c r="J87" s="274"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4249,10 +4264,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="171" t="s">
+      <c r="E98" s="276" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="172"/>
+      <c r="F98" s="277"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4432,13 +4447,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="217" t="s">
+      <c r="B110" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="217"/>
-      <c r="D110" s="217"/>
-      <c r="E110" s="217"/>
-      <c r="F110" s="218"/>
+      <c r="C110" s="259"/>
+      <c r="D110" s="259"/>
+      <c r="E110" s="259"/>
+      <c r="F110" s="260"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4453,8 +4468,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="219"/>
-      <c r="H111" s="219"/>
+      <c r="G111" s="261"/>
+      <c r="H111" s="261"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4462,13 +4477,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="217" t="s">
+      <c r="B112" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="217"/>
-      <c r="D112" s="217"/>
-      <c r="E112" s="217"/>
-      <c r="F112" s="218"/>
+      <c r="C112" s="259"/>
+      <c r="D112" s="259"/>
+      <c r="E112" s="259"/>
+      <c r="F112" s="260"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4600,47 +4615,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="220" t="s">
+      <c r="B121" s="262" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="221"/>
-      <c r="D121" s="221"/>
-      <c r="E121" s="221"/>
-      <c r="F121" s="221"/>
-      <c r="G121" s="221"/>
-      <c r="H121" s="221"/>
-      <c r="I121" s="221"/>
-      <c r="J121" s="221"/>
-      <c r="K121" s="221"/>
-      <c r="L121" s="222"/>
+      <c r="C121" s="263"/>
+      <c r="D121" s="263"/>
+      <c r="E121" s="263"/>
+      <c r="F121" s="263"/>
+      <c r="G121" s="263"/>
+      <c r="H121" s="263"/>
+      <c r="I121" s="263"/>
+      <c r="J121" s="263"/>
+      <c r="K121" s="263"/>
+      <c r="L121" s="264"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="173"/>
-      <c r="C122" s="174"/>
-      <c r="D122" s="174"/>
-      <c r="E122" s="174"/>
-      <c r="F122" s="174"/>
-      <c r="G122" s="174"/>
-      <c r="H122" s="174"/>
-      <c r="I122" s="174"/>
-      <c r="J122" s="174"/>
-      <c r="K122" s="174"/>
-      <c r="L122" s="175"/>
+      <c r="B122" s="265"/>
+      <c r="C122" s="266"/>
+      <c r="D122" s="266"/>
+      <c r="E122" s="266"/>
+      <c r="F122" s="266"/>
+      <c r="G122" s="266"/>
+      <c r="H122" s="266"/>
+      <c r="I122" s="266"/>
+      <c r="J122" s="266"/>
+      <c r="K122" s="266"/>
+      <c r="L122" s="267"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="223"/>
-      <c r="C123" s="224"/>
-      <c r="D123" s="224"/>
-      <c r="E123" s="224"/>
-      <c r="F123" s="224"/>
-      <c r="G123" s="224"/>
-      <c r="H123" s="224"/>
-      <c r="I123" s="224"/>
-      <c r="J123" s="224"/>
-      <c r="K123" s="224"/>
-      <c r="L123" s="225"/>
+      <c r="B123" s="268"/>
+      <c r="C123" s="269"/>
+      <c r="D123" s="269"/>
+      <c r="E123" s="269"/>
+      <c r="F123" s="269"/>
+      <c r="G123" s="269"/>
+      <c r="H123" s="269"/>
+      <c r="I123" s="269"/>
+      <c r="J123" s="269"/>
+      <c r="K123" s="269"/>
+      <c r="L123" s="270"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4674,19 +4689,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="210" t="s">
+      <c r="B126" s="252" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="211"/>
-      <c r="D126" s="211"/>
-      <c r="E126" s="211"/>
-      <c r="F126" s="211"/>
-      <c r="G126" s="211"/>
-      <c r="H126" s="211"/>
-      <c r="I126" s="211"/>
-      <c r="J126" s="211"/>
-      <c r="K126" s="211"/>
-      <c r="L126" s="212"/>
+      <c r="C126" s="253"/>
+      <c r="D126" s="253"/>
+      <c r="E126" s="253"/>
+      <c r="F126" s="253"/>
+      <c r="G126" s="253"/>
+      <c r="H126" s="253"/>
+      <c r="I126" s="253"/>
+      <c r="J126" s="253"/>
+      <c r="K126" s="253"/>
+      <c r="L126" s="254"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4720,19 +4735,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="213" t="s">
+      <c r="B129" s="255" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="214"/>
-      <c r="D129" s="214"/>
-      <c r="E129" s="214"/>
-      <c r="F129" s="214"/>
-      <c r="G129" s="214"/>
-      <c r="H129" s="214"/>
-      <c r="I129" s="214"/>
-      <c r="J129" s="214"/>
-      <c r="K129" s="214"/>
-      <c r="L129" s="215"/>
+      <c r="C129" s="256"/>
+      <c r="D129" s="256"/>
+      <c r="E129" s="256"/>
+      <c r="F129" s="256"/>
+      <c r="G129" s="256"/>
+      <c r="H129" s="256"/>
+      <c r="I129" s="256"/>
+      <c r="J129" s="256"/>
+      <c r="K129" s="256"/>
+      <c r="L129" s="257"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4931,19 +4946,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="216" t="s">
+      <c r="B143" s="258" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="216"/>
-      <c r="D143" s="216"/>
-      <c r="E143" s="216"/>
-      <c r="F143" s="216"/>
-      <c r="G143" s="216"/>
-      <c r="H143" s="216"/>
-      <c r="I143" s="216"/>
-      <c r="J143" s="216"/>
-      <c r="K143" s="216"/>
-      <c r="L143" s="216"/>
+      <c r="C143" s="258"/>
+      <c r="D143" s="258"/>
+      <c r="E143" s="258"/>
+      <c r="F143" s="258"/>
+      <c r="G143" s="258"/>
+      <c r="H143" s="258"/>
+      <c r="I143" s="258"/>
+      <c r="J143" s="258"/>
+      <c r="K143" s="258"/>
+      <c r="L143" s="258"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4961,11 +4976,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="163" t="s">
+      <c r="B145" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="163"/>
-      <c r="D145" s="163"/>
+      <c r="C145" s="176"/>
+      <c r="D145" s="176"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4989,11 +5004,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="163" t="s">
+      <c r="B147" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="163"/>
-      <c r="D147" s="163"/>
+      <c r="C147" s="176"/>
+      <c r="D147" s="176"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5017,11 +5032,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="163" t="s">
+      <c r="B149" s="176" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="163"/>
-      <c r="D149" s="163"/>
+      <c r="C149" s="176"/>
+      <c r="D149" s="176"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5043,12 +5058,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="163" t="s">
+      <c r="B151" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="163"/>
-      <c r="D151" s="163"/>
-      <c r="E151" s="163"/>
+      <c r="C151" s="176"/>
+      <c r="D151" s="176"/>
+      <c r="E151" s="176"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5071,13 +5086,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="163" t="s">
+      <c r="B153" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="163"/>
-      <c r="D153" s="163"/>
-      <c r="E153" s="163"/>
-      <c r="F153" s="164"/>
+      <c r="C153" s="176"/>
+      <c r="D153" s="176"/>
+      <c r="E153" s="176"/>
+      <c r="F153" s="177"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5205,19 +5220,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="176" t="s">
+      <c r="B162" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="177"/>
-      <c r="D162" s="177"/>
-      <c r="E162" s="177"/>
-      <c r="F162" s="177"/>
-      <c r="G162" s="177"/>
-      <c r="H162" s="177"/>
-      <c r="I162" s="177"/>
-      <c r="J162" s="177"/>
-      <c r="K162" s="177"/>
-      <c r="L162" s="178"/>
+      <c r="C162" s="279"/>
+      <c r="D162" s="279"/>
+      <c r="E162" s="279"/>
+      <c r="F162" s="279"/>
+      <c r="G162" s="279"/>
+      <c r="H162" s="279"/>
+      <c r="I162" s="279"/>
+      <c r="J162" s="279"/>
+      <c r="K162" s="279"/>
+      <c r="L162" s="280"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5435,12 +5450,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="163" t="s">
+      <c r="B179" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="163"/>
-      <c r="D179" s="163"/>
-      <c r="E179" s="163"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
+      <c r="E179" s="176"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5467,13 +5482,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="163" t="s">
+      <c r="B181" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="163"/>
-      <c r="D181" s="163"/>
-      <c r="E181" s="163"/>
-      <c r="F181" s="164"/>
+      <c r="C181" s="176"/>
+      <c r="D181" s="176"/>
+      <c r="E181" s="176"/>
+      <c r="F181" s="177"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5527,13 +5542,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="163" t="s">
+      <c r="B185" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="163"/>
-      <c r="D185" s="163"/>
-      <c r="E185" s="163"/>
-      <c r="F185" s="164"/>
+      <c r="C185" s="176"/>
+      <c r="D185" s="176"/>
+      <c r="E185" s="176"/>
+      <c r="F185" s="177"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5974,49 +5989,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="201" t="s">
+      <c r="B214" s="243" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="202"/>
-      <c r="D214" s="202"/>
-      <c r="E214" s="202"/>
-      <c r="F214" s="202"/>
-      <c r="G214" s="202"/>
-      <c r="H214" s="202"/>
-      <c r="I214" s="202"/>
-      <c r="J214" s="202"/>
-      <c r="K214" s="202"/>
-      <c r="L214" s="203"/>
+      <c r="C214" s="244"/>
+      <c r="D214" s="244"/>
+      <c r="E214" s="244"/>
+      <c r="F214" s="244"/>
+      <c r="G214" s="244"/>
+      <c r="H214" s="244"/>
+      <c r="I214" s="244"/>
+      <c r="J214" s="244"/>
+      <c r="K214" s="244"/>
+      <c r="L214" s="245"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="204"/>
-      <c r="C215" s="205"/>
-      <c r="D215" s="205"/>
-      <c r="E215" s="205"/>
-      <c r="F215" s="205"/>
-      <c r="G215" s="205"/>
-      <c r="H215" s="205"/>
-      <c r="I215" s="205"/>
-      <c r="J215" s="205"/>
-      <c r="K215" s="205"/>
-      <c r="L215" s="206"/>
+      <c r="B215" s="246"/>
+      <c r="C215" s="247"/>
+      <c r="D215" s="247"/>
+      <c r="E215" s="247"/>
+      <c r="F215" s="247"/>
+      <c r="G215" s="247"/>
+      <c r="H215" s="247"/>
+      <c r="I215" s="247"/>
+      <c r="J215" s="247"/>
+      <c r="K215" s="247"/>
+      <c r="L215" s="248"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="207"/>
-      <c r="C216" s="208"/>
-      <c r="D216" s="208"/>
-      <c r="E216" s="208"/>
-      <c r="F216" s="208"/>
-      <c r="G216" s="208"/>
-      <c r="H216" s="208"/>
-      <c r="I216" s="208"/>
-      <c r="J216" s="208"/>
-      <c r="K216" s="208"/>
-      <c r="L216" s="209"/>
+      <c r="B216" s="249"/>
+      <c r="C216" s="250"/>
+      <c r="D216" s="250"/>
+      <c r="E216" s="250"/>
+      <c r="F216" s="250"/>
+      <c r="G216" s="250"/>
+      <c r="H216" s="250"/>
+      <c r="I216" s="250"/>
+      <c r="J216" s="250"/>
+      <c r="K216" s="250"/>
+      <c r="L216" s="251"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6051,10 +6066,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="163" t="s">
+      <c r="B219" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="163"/>
+      <c r="C219" s="176"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6179,19 +6194,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="173" t="s">
+      <c r="B227" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="174"/>
-      <c r="D227" s="174"/>
-      <c r="E227" s="174"/>
-      <c r="F227" s="174"/>
-      <c r="G227" s="174"/>
-      <c r="H227" s="174"/>
-      <c r="I227" s="174"/>
-      <c r="J227" s="174"/>
-      <c r="K227" s="174"/>
-      <c r="L227" s="175"/>
+      <c r="C227" s="266"/>
+      <c r="D227" s="266"/>
+      <c r="E227" s="266"/>
+      <c r="F227" s="266"/>
+      <c r="G227" s="266"/>
+      <c r="H227" s="266"/>
+      <c r="I227" s="266"/>
+      <c r="J227" s="266"/>
+      <c r="K227" s="266"/>
+      <c r="L227" s="267"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6300,51 +6315,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="269" t="s">
+      <c r="B235" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="270"/>
-      <c r="D235" s="270"/>
-      <c r="E235" s="270"/>
-      <c r="F235" s="270"/>
-      <c r="G235" s="270"/>
-      <c r="H235" s="270"/>
-      <c r="I235" s="270"/>
-      <c r="J235" s="270"/>
-      <c r="K235" s="270"/>
-      <c r="L235" s="271"/>
+      <c r="C235" s="189"/>
+      <c r="D235" s="189"/>
+      <c r="E235" s="189"/>
+      <c r="F235" s="189"/>
+      <c r="G235" s="189"/>
+      <c r="H235" s="189"/>
+      <c r="I235" s="189"/>
+      <c r="J235" s="189"/>
+      <c r="K235" s="189"/>
+      <c r="L235" s="190"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="272"/>
-      <c r="C236" s="273"/>
-      <c r="D236" s="273"/>
-      <c r="E236" s="273"/>
-      <c r="F236" s="273"/>
-      <c r="G236" s="273"/>
-      <c r="H236" s="273"/>
-      <c r="I236" s="273"/>
-      <c r="J236" s="273"/>
-      <c r="K236" s="273"/>
-      <c r="L236" s="274"/>
+      <c r="B236" s="191"/>
+      <c r="C236" s="192"/>
+      <c r="D236" s="192"/>
+      <c r="E236" s="192"/>
+      <c r="F236" s="192"/>
+      <c r="G236" s="192"/>
+      <c r="H236" s="192"/>
+      <c r="I236" s="192"/>
+      <c r="J236" s="192"/>
+      <c r="K236" s="192"/>
+      <c r="L236" s="193"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="275"/>
-      <c r="C237" s="276"/>
-      <c r="D237" s="276"/>
-      <c r="E237" s="276"/>
-      <c r="F237" s="276"/>
-      <c r="G237" s="276"/>
-      <c r="H237" s="276"/>
-      <c r="I237" s="276"/>
-      <c r="J237" s="276"/>
-      <c r="K237" s="276"/>
-      <c r="L237" s="277"/>
+      <c r="B237" s="194"/>
+      <c r="C237" s="195"/>
+      <c r="D237" s="195"/>
+      <c r="E237" s="195"/>
+      <c r="F237" s="195"/>
+      <c r="G237" s="195"/>
+      <c r="H237" s="195"/>
+      <c r="I237" s="195"/>
+      <c r="J237" s="195"/>
+      <c r="K237" s="195"/>
+      <c r="L237" s="196"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6459,35 +6474,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="166" t="s">
+      <c r="B245" s="274" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="166"/>
-      <c r="D245" s="166"/>
-      <c r="E245" s="166"/>
-      <c r="F245" s="166"/>
-      <c r="G245" s="166"/>
-      <c r="H245" s="166"/>
-      <c r="I245" s="166"/>
-      <c r="J245" s="166"/>
-      <c r="K245" s="166"/>
-      <c r="L245" s="166"/>
+      <c r="C245" s="274"/>
+      <c r="D245" s="274"/>
+      <c r="E245" s="274"/>
+      <c r="F245" s="274"/>
+      <c r="G245" s="274"/>
+      <c r="H245" s="274"/>
+      <c r="I245" s="274"/>
+      <c r="J245" s="274"/>
+      <c r="K245" s="274"/>
+      <c r="L245" s="274"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="166" t="s">
+      <c r="B246" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="166"/>
-      <c r="D246" s="166"/>
-      <c r="E246" s="166"/>
-      <c r="F246" s="166"/>
-      <c r="G246" s="166"/>
-      <c r="H246" s="166"/>
-      <c r="I246" s="166"/>
-      <c r="J246" s="166"/>
-      <c r="K246" s="166"/>
-      <c r="L246" s="166"/>
+      <c r="C246" s="274"/>
+      <c r="D246" s="274"/>
+      <c r="E246" s="274"/>
+      <c r="F246" s="274"/>
+      <c r="G246" s="274"/>
+      <c r="H246" s="274"/>
+      <c r="I246" s="274"/>
+      <c r="J246" s="274"/>
+      <c r="K246" s="274"/>
+      <c r="L246" s="274"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6825,28 +6840,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="161" t="s">
+      <c r="B268" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="161"/>
-      <c r="D268" s="168" t="s">
+      <c r="C268" s="222"/>
+      <c r="D268" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="169"/>
-      <c r="F268" s="169"/>
-      <c r="G268" s="169"/>
-      <c r="H268" s="169"/>
-      <c r="I268" s="169"/>
-      <c r="J268" s="169"/>
-      <c r="K268" s="169"/>
-      <c r="L268" s="170"/>
+      <c r="E268" s="217"/>
+      <c r="F268" s="217"/>
+      <c r="G268" s="217"/>
+      <c r="H268" s="217"/>
+      <c r="I268" s="217"/>
+      <c r="J268" s="217"/>
+      <c r="K268" s="217"/>
+      <c r="L268" s="218"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="165"/>
-      <c r="C269" s="165"/>
+      <c r="B269" s="273"/>
+      <c r="C269" s="273"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6861,8 +6876,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="165"/>
-      <c r="C270" s="165"/>
+      <c r="B270" s="273"/>
+      <c r="C270" s="273"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6877,8 +6892,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="165"/>
-      <c r="C271" s="165"/>
+      <c r="B271" s="273"/>
+      <c r="C271" s="273"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6893,8 +6908,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="165"/>
-      <c r="C272" s="165"/>
+      <c r="B272" s="273"/>
+      <c r="C272" s="273"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6959,83 +6974,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="167" t="s">
+      <c r="B276" s="275" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="167"/>
-      <c r="D276" s="167"/>
-      <c r="E276" s="167"/>
-      <c r="F276" s="167"/>
-      <c r="G276" s="167"/>
-      <c r="H276" s="167"/>
-      <c r="I276" s="167"/>
-      <c r="J276" s="167"/>
-      <c r="K276" s="167"/>
-      <c r="L276" s="167"/>
+      <c r="C276" s="275"/>
+      <c r="D276" s="275"/>
+      <c r="E276" s="275"/>
+      <c r="F276" s="275"/>
+      <c r="G276" s="275"/>
+      <c r="H276" s="275"/>
+      <c r="I276" s="275"/>
+      <c r="J276" s="275"/>
+      <c r="K276" s="275"/>
+      <c r="L276" s="275"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="167"/>
-      <c r="C277" s="167"/>
-      <c r="D277" s="167"/>
-      <c r="E277" s="167"/>
-      <c r="F277" s="167"/>
-      <c r="G277" s="167"/>
-      <c r="H277" s="167"/>
-      <c r="I277" s="167"/>
-      <c r="J277" s="167"/>
-      <c r="K277" s="167"/>
-      <c r="L277" s="167"/>
+      <c r="B277" s="275"/>
+      <c r="C277" s="275"/>
+      <c r="D277" s="275"/>
+      <c r="E277" s="275"/>
+      <c r="F277" s="275"/>
+      <c r="G277" s="275"/>
+      <c r="H277" s="275"/>
+      <c r="I277" s="275"/>
+      <c r="J277" s="275"/>
+      <c r="K277" s="275"/>
+      <c r="L277" s="275"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="167"/>
-      <c r="C278" s="167"/>
-      <c r="D278" s="167"/>
-      <c r="E278" s="167"/>
-      <c r="F278" s="167"/>
-      <c r="G278" s="167"/>
-      <c r="H278" s="167"/>
-      <c r="I278" s="167"/>
-      <c r="J278" s="167"/>
-      <c r="K278" s="167"/>
-      <c r="L278" s="167"/>
+      <c r="B278" s="275"/>
+      <c r="C278" s="275"/>
+      <c r="D278" s="275"/>
+      <c r="E278" s="275"/>
+      <c r="F278" s="275"/>
+      <c r="G278" s="275"/>
+      <c r="H278" s="275"/>
+      <c r="I278" s="275"/>
+      <c r="J278" s="275"/>
+      <c r="K278" s="275"/>
+      <c r="L278" s="275"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="167"/>
-      <c r="C279" s="167"/>
-      <c r="D279" s="167"/>
-      <c r="E279" s="167"/>
-      <c r="F279" s="167"/>
-      <c r="G279" s="167"/>
-      <c r="H279" s="167"/>
-      <c r="I279" s="167"/>
-      <c r="J279" s="167"/>
-      <c r="K279" s="167"/>
-      <c r="L279" s="167"/>
+      <c r="B279" s="275"/>
+      <c r="C279" s="275"/>
+      <c r="D279" s="275"/>
+      <c r="E279" s="275"/>
+      <c r="F279" s="275"/>
+      <c r="G279" s="275"/>
+      <c r="H279" s="275"/>
+      <c r="I279" s="275"/>
+      <c r="J279" s="275"/>
+      <c r="K279" s="275"/>
+      <c r="L279" s="275"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="167"/>
-      <c r="C280" s="167"/>
-      <c r="D280" s="167"/>
-      <c r="E280" s="167"/>
-      <c r="F280" s="167"/>
-      <c r="G280" s="167"/>
-      <c r="H280" s="167"/>
-      <c r="I280" s="167"/>
-      <c r="J280" s="167"/>
-      <c r="K280" s="167"/>
-      <c r="L280" s="167"/>
+      <c r="B280" s="275"/>
+      <c r="C280" s="275"/>
+      <c r="D280" s="275"/>
+      <c r="E280" s="275"/>
+      <c r="F280" s="275"/>
+      <c r="G280" s="275"/>
+      <c r="H280" s="275"/>
+      <c r="I280" s="275"/>
+      <c r="J280" s="275"/>
+      <c r="K280" s="275"/>
+      <c r="L280" s="275"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7091,12 +7106,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="163" t="s">
+      <c r="B284" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="163"/>
-      <c r="D284" s="163"/>
-      <c r="E284" s="164"/>
+      <c r="C284" s="176"/>
+      <c r="D284" s="176"/>
+      <c r="E284" s="177"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7107,10 +7122,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="163"/>
-      <c r="C285" s="163"/>
-      <c r="D285" s="163"/>
-      <c r="E285" s="163"/>
+      <c r="B285" s="176"/>
+      <c r="C285" s="176"/>
+      <c r="D285" s="176"/>
+      <c r="E285" s="176"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7121,12 +7136,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="163" t="s">
+      <c r="B286" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="163"/>
-      <c r="D286" s="163"/>
-      <c r="E286" s="164"/>
+      <c r="C286" s="176"/>
+      <c r="D286" s="176"/>
+      <c r="E286" s="177"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7139,10 +7154,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="163"/>
-      <c r="C287" s="163"/>
-      <c r="D287" s="163"/>
-      <c r="E287" s="163"/>
+      <c r="B287" s="176"/>
+      <c r="C287" s="176"/>
+      <c r="D287" s="176"/>
+      <c r="E287" s="176"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7153,12 +7168,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="163" t="s">
+      <c r="B288" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="163"/>
-      <c r="D288" s="163"/>
-      <c r="E288" s="164"/>
+      <c r="C288" s="176"/>
+      <c r="D288" s="176"/>
+      <c r="E288" s="177"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7183,12 +7198,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="163" t="s">
+      <c r="B290" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="163"/>
-      <c r="D290" s="163"/>
-      <c r="E290" s="164"/>
+      <c r="C290" s="176"/>
+      <c r="D290" s="176"/>
+      <c r="E290" s="177"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7213,12 +7228,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="163" t="s">
+      <c r="B292" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="163"/>
-      <c r="D292" s="163"/>
-      <c r="E292" s="164"/>
+      <c r="C292" s="176"/>
+      <c r="D292" s="176"/>
+      <c r="E292" s="177"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7789,19 +7804,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="268" t="s">
+      <c r="B327" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="268"/>
-      <c r="D327" s="268"/>
-      <c r="E327" s="268"/>
-      <c r="F327" s="268"/>
-      <c r="G327" s="268"/>
-      <c r="H327" s="268"/>
-      <c r="I327" s="268"/>
-      <c r="J327" s="268"/>
-      <c r="K327" s="268"/>
-      <c r="L327" s="268"/>
+      <c r="C327" s="178"/>
+      <c r="D327" s="178"/>
+      <c r="E327" s="178"/>
+      <c r="F327" s="178"/>
+      <c r="G327" s="178"/>
+      <c r="H327" s="178"/>
+      <c r="I327" s="178"/>
+      <c r="J327" s="178"/>
+      <c r="K327" s="178"/>
+      <c r="L327" s="178"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7916,79 +7931,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="269" t="s">
+      <c r="B335" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="270"/>
-      <c r="D335" s="270"/>
-      <c r="E335" s="270"/>
-      <c r="F335" s="270"/>
-      <c r="G335" s="270"/>
-      <c r="H335" s="270"/>
-      <c r="I335" s="270"/>
-      <c r="J335" s="270"/>
-      <c r="K335" s="270"/>
-      <c r="L335" s="271"/>
+      <c r="C335" s="189"/>
+      <c r="D335" s="189"/>
+      <c r="E335" s="189"/>
+      <c r="F335" s="189"/>
+      <c r="G335" s="189"/>
+      <c r="H335" s="189"/>
+      <c r="I335" s="189"/>
+      <c r="J335" s="189"/>
+      <c r="K335" s="189"/>
+      <c r="L335" s="190"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="272"/>
-      <c r="C336" s="273"/>
-      <c r="D336" s="273"/>
-      <c r="E336" s="273"/>
-      <c r="F336" s="273"/>
-      <c r="G336" s="273"/>
-      <c r="H336" s="273"/>
-      <c r="I336" s="273"/>
-      <c r="J336" s="273"/>
-      <c r="K336" s="273"/>
-      <c r="L336" s="274"/>
+      <c r="B336" s="191"/>
+      <c r="C336" s="192"/>
+      <c r="D336" s="192"/>
+      <c r="E336" s="192"/>
+      <c r="F336" s="192"/>
+      <c r="G336" s="192"/>
+      <c r="H336" s="192"/>
+      <c r="I336" s="192"/>
+      <c r="J336" s="192"/>
+      <c r="K336" s="192"/>
+      <c r="L336" s="193"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="272"/>
-      <c r="C337" s="273"/>
-      <c r="D337" s="273"/>
-      <c r="E337" s="273"/>
-      <c r="F337" s="273"/>
-      <c r="G337" s="273"/>
-      <c r="H337" s="273"/>
-      <c r="I337" s="273"/>
-      <c r="J337" s="273"/>
-      <c r="K337" s="273"/>
-      <c r="L337" s="274"/>
+      <c r="B337" s="191"/>
+      <c r="C337" s="192"/>
+      <c r="D337" s="192"/>
+      <c r="E337" s="192"/>
+      <c r="F337" s="192"/>
+      <c r="G337" s="192"/>
+      <c r="H337" s="192"/>
+      <c r="I337" s="192"/>
+      <c r="J337" s="192"/>
+      <c r="K337" s="192"/>
+      <c r="L337" s="193"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="272"/>
-      <c r="C338" s="273"/>
-      <c r="D338" s="273"/>
-      <c r="E338" s="273"/>
-      <c r="F338" s="273"/>
-      <c r="G338" s="273"/>
-      <c r="H338" s="273"/>
-      <c r="I338" s="273"/>
-      <c r="J338" s="273"/>
-      <c r="K338" s="273"/>
-      <c r="L338" s="274"/>
+      <c r="B338" s="191"/>
+      <c r="C338" s="192"/>
+      <c r="D338" s="192"/>
+      <c r="E338" s="192"/>
+      <c r="F338" s="192"/>
+      <c r="G338" s="192"/>
+      <c r="H338" s="192"/>
+      <c r="I338" s="192"/>
+      <c r="J338" s="192"/>
+      <c r="K338" s="192"/>
+      <c r="L338" s="193"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="275"/>
-      <c r="C339" s="276"/>
-      <c r="D339" s="276"/>
-      <c r="E339" s="276"/>
-      <c r="F339" s="276"/>
-      <c r="G339" s="276"/>
-      <c r="H339" s="276"/>
-      <c r="I339" s="276"/>
-      <c r="J339" s="276"/>
-      <c r="K339" s="276"/>
-      <c r="L339" s="277"/>
+      <c r="B339" s="194"/>
+      <c r="C339" s="195"/>
+      <c r="D339" s="195"/>
+      <c r="E339" s="195"/>
+      <c r="F339" s="195"/>
+      <c r="G339" s="195"/>
+      <c r="H339" s="195"/>
+      <c r="I339" s="195"/>
+      <c r="J339" s="195"/>
+      <c r="K339" s="195"/>
+      <c r="L339" s="196"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8008,19 +8023,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="268" t="s">
+      <c r="B341" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="268"/>
-      <c r="D341" s="268"/>
-      <c r="E341" s="268"/>
-      <c r="F341" s="268"/>
-      <c r="G341" s="268"/>
-      <c r="H341" s="268"/>
-      <c r="I341" s="268"/>
-      <c r="J341" s="268"/>
-      <c r="K341" s="268"/>
-      <c r="L341" s="268"/>
+      <c r="C341" s="178"/>
+      <c r="D341" s="178"/>
+      <c r="E341" s="178"/>
+      <c r="F341" s="178"/>
+      <c r="G341" s="178"/>
+      <c r="H341" s="178"/>
+      <c r="I341" s="178"/>
+      <c r="J341" s="178"/>
+      <c r="K341" s="178"/>
+      <c r="L341" s="178"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8069,12 +8084,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="189" t="s">
+      <c r="B345" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="189"/>
-      <c r="D345" s="189"/>
-      <c r="E345" s="189"/>
+      <c r="C345" s="175"/>
+      <c r="D345" s="175"/>
+      <c r="E345" s="175"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8097,12 +8112,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="189" t="s">
+      <c r="B347" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="189"/>
-      <c r="D347" s="189"/>
-      <c r="E347" s="189"/>
+      <c r="C347" s="175"/>
+      <c r="D347" s="175"/>
+      <c r="E347" s="175"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8127,13 +8142,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="189" t="s">
+      <c r="B349" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="189"/>
-      <c r="D349" s="189"/>
-      <c r="E349" s="189"/>
-      <c r="F349" s="164"/>
+      <c r="C349" s="175"/>
+      <c r="D349" s="175"/>
+      <c r="E349" s="175"/>
+      <c r="F349" s="177"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8156,13 +8171,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="189" t="s">
+      <c r="B351" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="189"/>
-      <c r="D351" s="189"/>
-      <c r="E351" s="189"/>
-      <c r="F351" s="164"/>
+      <c r="C351" s="175"/>
+      <c r="D351" s="175"/>
+      <c r="E351" s="175"/>
+      <c r="F351" s="177"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8185,13 +8200,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="189" t="s">
+      <c r="B353" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="189"/>
-      <c r="D353" s="189"/>
-      <c r="E353" s="189"/>
-      <c r="F353" s="164"/>
+      <c r="C353" s="175"/>
+      <c r="D353" s="175"/>
+      <c r="E353" s="175"/>
+      <c r="F353" s="177"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8414,28 +8429,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="253" t="s">
+      <c r="B367" s="201" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="254"/>
-      <c r="D367" s="243" t="s">
+      <c r="C367" s="202"/>
+      <c r="D367" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="244"/>
-      <c r="F367" s="244"/>
-      <c r="G367" s="244"/>
-      <c r="H367" s="244"/>
-      <c r="I367" s="244"/>
-      <c r="J367" s="244"/>
-      <c r="K367" s="244"/>
-      <c r="L367" s="245"/>
+      <c r="E367" s="197"/>
+      <c r="F367" s="197"/>
+      <c r="G367" s="197"/>
+      <c r="H367" s="197"/>
+      <c r="I367" s="197"/>
+      <c r="J367" s="197"/>
+      <c r="K367" s="197"/>
+      <c r="L367" s="174"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="243"/>
-      <c r="C368" s="245"/>
+      <c r="B368" s="173"/>
+      <c r="C368" s="174"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8450,19 +8465,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="188" t="s">
+      <c r="B369" s="232" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="188"/>
-      <c r="D369" s="188"/>
-      <c r="E369" s="188"/>
-      <c r="F369" s="188"/>
-      <c r="G369" s="188"/>
-      <c r="H369" s="188"/>
-      <c r="I369" s="188"/>
-      <c r="J369" s="188"/>
-      <c r="K369" s="188"/>
-      <c r="L369" s="188"/>
+      <c r="C369" s="232"/>
+      <c r="D369" s="232"/>
+      <c r="E369" s="232"/>
+      <c r="F369" s="232"/>
+      <c r="G369" s="232"/>
+      <c r="H369" s="232"/>
+      <c r="I369" s="232"/>
+      <c r="J369" s="232"/>
+      <c r="K369" s="232"/>
+      <c r="L369" s="232"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8550,20 +8565,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="232" t="s">
+      <c r="C375" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="232"/>
-      <c r="E375" s="233" t="s">
+      <c r="D375" s="208"/>
+      <c r="E375" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="233"/>
-      <c r="G375" s="233"/>
-      <c r="H375" s="233" t="s">
+      <c r="F375" s="207"/>
+      <c r="G375" s="207"/>
+      <c r="H375" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="233"/>
-      <c r="J375" s="233"/>
+      <c r="I375" s="207"/>
+      <c r="J375" s="207"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8573,14 +8588,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="232"/>
-      <c r="D376" s="232"/>
-      <c r="E376" s="233"/>
-      <c r="F376" s="233"/>
-      <c r="G376" s="233"/>
-      <c r="H376" s="233"/>
-      <c r="I376" s="233"/>
-      <c r="J376" s="233"/>
+      <c r="C376" s="208"/>
+      <c r="D376" s="208"/>
+      <c r="E376" s="207"/>
+      <c r="F376" s="207"/>
+      <c r="G376" s="207"/>
+      <c r="H376" s="207"/>
+      <c r="I376" s="207"/>
+      <c r="J376" s="207"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8590,14 +8605,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="232"/>
-      <c r="D377" s="232"/>
-      <c r="E377" s="233"/>
-      <c r="F377" s="233"/>
-      <c r="G377" s="233"/>
-      <c r="H377" s="233"/>
-      <c r="I377" s="233"/>
-      <c r="J377" s="233"/>
+      <c r="C377" s="208"/>
+      <c r="D377" s="208"/>
+      <c r="E377" s="207"/>
+      <c r="F377" s="207"/>
+      <c r="G377" s="207"/>
+      <c r="H377" s="207"/>
+      <c r="I377" s="207"/>
+      <c r="J377" s="207"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8607,14 +8622,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="232"/>
-      <c r="D378" s="232"/>
-      <c r="E378" s="233"/>
-      <c r="F378" s="233"/>
-      <c r="G378" s="233"/>
-      <c r="H378" s="233"/>
-      <c r="I378" s="233"/>
-      <c r="J378" s="233"/>
+      <c r="C378" s="208"/>
+      <c r="D378" s="208"/>
+      <c r="E378" s="207"/>
+      <c r="F378" s="207"/>
+      <c r="G378" s="207"/>
+      <c r="H378" s="207"/>
+      <c r="I378" s="207"/>
+      <c r="J378" s="207"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8624,14 +8639,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="232"/>
-      <c r="D379" s="232"/>
-      <c r="E379" s="233"/>
-      <c r="F379" s="233"/>
-      <c r="G379" s="233"/>
-      <c r="H379" s="233"/>
-      <c r="I379" s="233"/>
-      <c r="J379" s="233"/>
+      <c r="C379" s="208"/>
+      <c r="D379" s="208"/>
+      <c r="E379" s="207"/>
+      <c r="F379" s="207"/>
+      <c r="G379" s="207"/>
+      <c r="H379" s="207"/>
+      <c r="I379" s="207"/>
+      <c r="J379" s="207"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8641,14 +8656,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="232"/>
-      <c r="D380" s="232"/>
-      <c r="E380" s="233"/>
-      <c r="F380" s="233"/>
-      <c r="G380" s="233"/>
-      <c r="H380" s="233"/>
-      <c r="I380" s="233"/>
-      <c r="J380" s="233"/>
+      <c r="C380" s="208"/>
+      <c r="D380" s="208"/>
+      <c r="E380" s="207"/>
+      <c r="F380" s="207"/>
+      <c r="G380" s="207"/>
+      <c r="H380" s="207"/>
+      <c r="I380" s="207"/>
+      <c r="J380" s="207"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8658,14 +8673,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="232"/>
-      <c r="D381" s="232"/>
-      <c r="E381" s="233"/>
-      <c r="F381" s="233"/>
-      <c r="G381" s="233"/>
-      <c r="H381" s="233"/>
-      <c r="I381" s="233"/>
-      <c r="J381" s="233"/>
+      <c r="C381" s="208"/>
+      <c r="D381" s="208"/>
+      <c r="E381" s="207"/>
+      <c r="F381" s="207"/>
+      <c r="G381" s="207"/>
+      <c r="H381" s="207"/>
+      <c r="I381" s="207"/>
+      <c r="J381" s="207"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8675,14 +8690,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="232"/>
-      <c r="D382" s="232"/>
-      <c r="E382" s="233"/>
-      <c r="F382" s="233"/>
-      <c r="G382" s="233"/>
-      <c r="H382" s="233"/>
-      <c r="I382" s="233"/>
-      <c r="J382" s="233"/>
+      <c r="C382" s="208"/>
+      <c r="D382" s="208"/>
+      <c r="E382" s="207"/>
+      <c r="F382" s="207"/>
+      <c r="G382" s="207"/>
+      <c r="H382" s="207"/>
+      <c r="I382" s="207"/>
+      <c r="J382" s="207"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8807,10 +8822,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="232" t="s">
+      <c r="C392" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="232"/>
+      <c r="D392" s="208"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8818,43 +8833,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="161" t="s">
+      <c r="B393" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="161" t="s">
+      <c r="C393" s="222" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="161" t="s">
+      <c r="D393" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="161" t="s">
+      <c r="E393" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="234" t="s">
+      <c r="F393" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="234" t="s">
+      <c r="G393" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="234" t="s">
+      <c r="H393" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="233" t="s">
+      <c r="I393" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="233"/>
+      <c r="J393" s="207"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="161"/>
-      <c r="C394" s="161"/>
-      <c r="D394" s="161"/>
-      <c r="E394" s="161"/>
-      <c r="F394" s="235"/>
-      <c r="G394" s="235"/>
-      <c r="H394" s="235"/>
+      <c r="B394" s="222"/>
+      <c r="C394" s="222"/>
+      <c r="D394" s="222"/>
+      <c r="E394" s="222"/>
+      <c r="F394" s="224"/>
+      <c r="G394" s="224"/>
+      <c r="H394" s="224"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9159,21 +9174,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="168" t="s">
+      <c r="B414" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="170"/>
-      <c r="D414" s="168" t="s">
+      <c r="C414" s="218"/>
+      <c r="D414" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="169"/>
-      <c r="F414" s="169"/>
-      <c r="G414" s="169"/>
-      <c r="H414" s="169"/>
-      <c r="I414" s="169"/>
-      <c r="J414" s="170"/>
+      <c r="E414" s="217"/>
+      <c r="F414" s="217"/>
+      <c r="G414" s="217"/>
+      <c r="H414" s="217"/>
+      <c r="I414" s="217"/>
+      <c r="J414" s="218"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="234" t="s">
+      <c r="L414" s="223" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9207,7 +9222,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="235"/>
+      <c r="L415" s="224"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9453,23 +9468,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="168" t="s">
+      <c r="B431" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="170"/>
-      <c r="D431" s="242" t="s">
+      <c r="C431" s="218"/>
+      <c r="D431" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="168" t="s">
+      <c r="E431" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="169"/>
-      <c r="G431" s="169"/>
-      <c r="H431" s="169"/>
-      <c r="I431" s="169"/>
-      <c r="J431" s="170"/>
+      <c r="F431" s="217"/>
+      <c r="G431" s="217"/>
+      <c r="H431" s="217"/>
+      <c r="I431" s="217"/>
+      <c r="J431" s="218"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="234" t="s">
+      <c r="L431" s="223" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9481,7 +9496,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="232"/>
+      <c r="D432" s="208"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9501,7 +9516,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="235"/>
+      <c r="L432" s="224"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9689,26 +9704,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="248" t="s">
+      <c r="B445" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="249"/>
-      <c r="D445" s="168" t="s">
+      <c r="C445" s="213"/>
+      <c r="D445" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="169"/>
-      <c r="F445" s="169"/>
-      <c r="G445" s="169"/>
-      <c r="H445" s="169"/>
-      <c r="I445" s="169"/>
-      <c r="J445" s="170"/>
+      <c r="E445" s="217"/>
+      <c r="F445" s="217"/>
+      <c r="G445" s="217"/>
+      <c r="H445" s="217"/>
+      <c r="I445" s="217"/>
+      <c r="J445" s="218"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="252"/>
+      <c r="L445" s="219"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="250"/>
-      <c r="C446" s="251"/>
+      <c r="B446" s="214"/>
+      <c r="C446" s="215"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9731,14 +9746,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="252"/>
+      <c r="L446" s="219"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="243" t="s">
+      <c r="B447" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="245"/>
+      <c r="C447" s="174"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9750,10 +9765,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="243" t="s">
+      <c r="B448" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="245"/>
+      <c r="C448" s="174"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9765,10 +9780,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="243" t="s">
+      <c r="B449" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="245"/>
+      <c r="C449" s="174"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9780,10 +9795,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="168" t="s">
+      <c r="B450" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="170"/>
+      <c r="C450" s="218"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10119,18 +10134,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="239" t="s">
+      <c r="C472" s="228" t="s">
         <v>339</v>
       </c>
-      <c r="D472" s="240"/>
-      <c r="E472" s="240"/>
-      <c r="F472" s="240"/>
-      <c r="G472" s="240"/>
-      <c r="H472" s="240"/>
-      <c r="I472" s="240"/>
-      <c r="J472" s="240"/>
-      <c r="K472" s="240"/>
-      <c r="L472" s="241"/>
+      <c r="D472" s="229"/>
+      <c r="E472" s="229"/>
+      <c r="F472" s="229"/>
+      <c r="G472" s="229"/>
+      <c r="H472" s="229"/>
+      <c r="I472" s="229"/>
+      <c r="J472" s="229"/>
+      <c r="K472" s="229"/>
+      <c r="L472" s="230"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10166,10 +10181,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="232" t="s">
+      <c r="C475" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="232"/>
+      <c r="D475" s="208"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10181,43 +10196,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="161" t="s">
+      <c r="B476" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="161" t="s">
+      <c r="C476" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="161" t="s">
+      <c r="D476" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="161" t="s">
+      <c r="E476" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="234" t="s">
+      <c r="F476" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="234" t="s">
+      <c r="G476" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="234" t="s">
+      <c r="H476" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="236" t="s">
+      <c r="I476" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="237"/>
-      <c r="K476" s="237"/>
-      <c r="L476" s="238"/>
+      <c r="J476" s="226"/>
+      <c r="K476" s="226"/>
+      <c r="L476" s="227"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="161"/>
-      <c r="C477" s="161"/>
-      <c r="D477" s="161"/>
-      <c r="E477" s="161"/>
-      <c r="F477" s="235"/>
-      <c r="G477" s="235"/>
-      <c r="H477" s="235"/>
+      <c r="B477" s="222"/>
+      <c r="C477" s="222"/>
+      <c r="D477" s="222"/>
+      <c r="E477" s="222"/>
+      <c r="F477" s="224"/>
+      <c r="G477" s="224"/>
+      <c r="H477" s="224"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10251,21 +10266,21 @@
         <v>622.46</v>
       </c>
       <c r="H478" s="127">
-        <v>317601.40000000002</v>
+        <v>152424.6</v>
       </c>
       <c r="J478" s="140">
         <f>N478/2</f>
-        <v>158800.70000000001</v>
+        <v>76212.3</v>
       </c>
       <c r="K478" s="140">
         <f>+H478/2</f>
-        <v>158800.70000000001</v>
+        <v>76212.3</v>
       </c>
       <c r="L478" s="140"/>
       <c r="M478" s="79"/>
       <c r="N478" s="139">
         <f>H478</f>
-        <v>317601.40000000002</v>
+        <v>152424.6</v>
       </c>
     </row>
     <row r="479" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10354,26 +10369,21 @@
       <c r="M483" s="79"/>
     </row>
     <row r="484" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="78"/>
+      <c r="A484" s="161"/>
       <c r="B484" s="39"/>
-      <c r="C484" s="79"/>
-      <c r="D484" s="79"/>
+      <c r="C484" s="162"/>
+      <c r="D484" s="39"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="255" t="s">
-        <v>277</v>
-      </c>
-      <c r="G484" s="255"/>
-      <c r="H484" s="127">
-        <v>10000</v>
-      </c>
-      <c r="I484" s="127">
-        <f>+H484</f>
-        <v>10000</v>
-      </c>
+      <c r="F484" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="G484" s="102"/>
+      <c r="H484" s="127"/>
+      <c r="I484" s="102"/>
       <c r="J484" s="102"/>
       <c r="K484" s="102"/>
       <c r="L484" s="102"/>
-      <c r="M484" s="79"/>
+      <c r="M484" s="162"/>
     </row>
     <row r="485" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="78"/>
@@ -10381,22 +10391,19 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="256" t="s">
-        <v>278</v>
-      </c>
-      <c r="G485" s="256"/>
+      <c r="F485" s="203" t="s">
+        <v>277</v>
+      </c>
+      <c r="G485" s="203"/>
       <c r="H485" s="127">
-        <v>24961.5</v>
-      </c>
-      <c r="I485" s="102"/>
-      <c r="J485" s="102">
-        <f>+H485/2</f>
-        <v>12480.75</v>
-      </c>
-      <c r="K485" s="102">
-        <f>+H485/2</f>
-        <v>12480.75</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="I485" s="127">
+        <f>+H485</f>
+        <v>10000</v>
+      </c>
+      <c r="J485" s="102"/>
+      <c r="K485" s="102"/>
       <c r="L485" s="102"/>
       <c r="M485" s="79"/>
     </row>
@@ -10406,41 +10413,41 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="256" t="s">
-        <v>195</v>
-      </c>
-      <c r="G486" s="256"/>
+      <c r="F486" s="204" t="s">
+        <v>278</v>
+      </c>
+      <c r="G486" s="204"/>
       <c r="H486" s="127">
-        <v>17290.75</v>
+        <v>24961.5</v>
       </c>
       <c r="I486" s="102"/>
-      <c r="J486" s="102"/>
-      <c r="K486" s="102"/>
-      <c r="L486" s="127">
-        <f>+H486</f>
-        <v>17290.75</v>
-      </c>
+      <c r="J486" s="102">
+        <f>+H486/2</f>
+        <v>12480.75</v>
+      </c>
+      <c r="K486" s="102">
+        <f>+H486/2</f>
+        <v>12480.75</v>
+      </c>
+      <c r="L486" s="102"/>
       <c r="M486" s="79"/>
     </row>
     <row r="487" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="78"/>
+      <c r="A487" s="161"/>
       <c r="B487" s="39"/>
-      <c r="C487" s="79"/>
-      <c r="D487" s="79"/>
+      <c r="C487" s="162"/>
+      <c r="D487" s="162"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="247" t="s">
-        <v>196</v>
-      </c>
-      <c r="G487" s="247"/>
-      <c r="H487" s="138">
-        <f>SUM(H478:H486)+0.01</f>
-        <v>369853.66000000003</v>
-      </c>
+      <c r="F487" s="163" t="s">
+        <v>345</v>
+      </c>
+      <c r="G487" s="163"/>
+      <c r="H487" s="127"/>
       <c r="I487" s="102"/>
       <c r="J487" s="102"/>
       <c r="K487" s="102"/>
       <c r="L487" s="102"/>
-      <c r="M487" s="79"/>
+      <c r="M487" s="162"/>
     </row>
     <row r="488" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="78"/>
@@ -10448,13 +10455,20 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="12"/>
-      <c r="G488" s="12"/>
-      <c r="H488" s="79"/>
-      <c r="I488" s="79"/>
-      <c r="J488" s="79"/>
-      <c r="K488" s="151"/>
-      <c r="L488" s="79"/>
+      <c r="F488" s="204" t="s">
+        <v>195</v>
+      </c>
+      <c r="G488" s="204"/>
+      <c r="H488" s="127">
+        <v>17290.75</v>
+      </c>
+      <c r="I488" s="102"/>
+      <c r="J488" s="102"/>
+      <c r="K488" s="102"/>
+      <c r="L488" s="127">
+        <f>+H488</f>
+        <v>17290.75</v>
+      </c>
       <c r="M488" s="79"/>
     </row>
     <row r="489" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10463,27 +10477,28 @@
       <c r="C489" s="79"/>
       <c r="D489" s="79"/>
       <c r="E489" s="39"/>
-      <c r="F489" s="12"/>
-      <c r="G489" s="12"/>
-      <c r="H489" s="160"/>
-      <c r="I489" s="79"/>
-      <c r="J489" s="79"/>
-      <c r="K489" s="151"/>
-      <c r="L489" s="79"/>
+      <c r="F489" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="G489" s="211"/>
+      <c r="H489" s="138">
+        <f>SUM(H478:H488)+0.01</f>
+        <v>204676.86000000002</v>
+      </c>
+      <c r="I489" s="102"/>
+      <c r="J489" s="102"/>
+      <c r="K489" s="102"/>
+      <c r="L489" s="102"/>
       <c r="M489" s="79"/>
     </row>
     <row r="490" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B490" s="20" t="s">
-        <v>216</v>
-      </c>
+      <c r="A490" s="78"/>
+      <c r="B490" s="39"/>
       <c r="C490" s="79"/>
       <c r="D490" s="79"/>
-      <c r="E490" s="79"/>
-      <c r="F490" s="79"/>
-      <c r="G490" s="79"/>
+      <c r="E490" s="39"/>
+      <c r="F490" s="12"/>
+      <c r="G490" s="12"/>
       <c r="H490" s="79"/>
       <c r="I490" s="79"/>
       <c r="J490" s="79"/>
@@ -10492,14 +10507,14 @@
       <c r="M490" s="79"/>
     </row>
     <row r="491" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="19"/>
-      <c r="B491" s="79"/>
-      <c r="C491" s="32"/>
-      <c r="D491" s="32"/>
-      <c r="E491" s="79"/>
-      <c r="F491" s="79"/>
-      <c r="G491" s="79"/>
-      <c r="H491" s="79"/>
+      <c r="A491" s="78"/>
+      <c r="B491" s="39"/>
+      <c r="C491" s="79"/>
+      <c r="D491" s="79"/>
+      <c r="E491" s="39"/>
+      <c r="F491" s="12"/>
+      <c r="G491" s="12"/>
+      <c r="H491" s="160"/>
       <c r="I491" s="79"/>
       <c r="J491" s="79"/>
       <c r="K491" s="151"/>
@@ -10507,17 +10522,17 @@
       <c r="M491" s="79"/>
     </row>
     <row r="492" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="19"/>
-      <c r="B492" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C492" s="78"/>
+      <c r="A492" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B492" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C492" s="79"/>
       <c r="D492" s="79"/>
       <c r="E492" s="79"/>
-      <c r="F492" s="119" t="s">
-        <v>341</v>
-      </c>
-      <c r="G492" s="78"/>
+      <c r="F492" s="79"/>
+      <c r="G492" s="79"/>
       <c r="H492" s="79"/>
       <c r="I492" s="79"/>
       <c r="J492" s="79"/>
@@ -10527,12 +10542,12 @@
     </row>
     <row r="493" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="19"/>
-      <c r="B493" s="78"/>
-      <c r="C493" s="78"/>
-      <c r="D493" s="79"/>
+      <c r="B493" s="79"/>
+      <c r="C493" s="32"/>
+      <c r="D493" s="32"/>
       <c r="E493" s="79"/>
-      <c r="F493" s="78"/>
-      <c r="G493" s="78"/>
+      <c r="F493" s="79"/>
+      <c r="G493" s="79"/>
       <c r="H493" s="79"/>
       <c r="I493" s="79"/>
       <c r="J493" s="79"/>
@@ -10543,13 +10558,13 @@
     <row r="494" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="19"/>
       <c r="B494" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C494" s="78"/>
       <c r="D494" s="79"/>
       <c r="E494" s="79"/>
-      <c r="F494" s="120">
-        <v>10</v>
+      <c r="F494" s="119" t="s">
+        <v>341</v>
       </c>
       <c r="G494" s="78"/>
       <c r="H494" s="79"/>
@@ -10561,12 +10576,12 @@
     </row>
     <row r="495" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="19"/>
-      <c r="B495" s="79"/>
-      <c r="C495" s="32"/>
-      <c r="D495" s="32"/>
+      <c r="B495" s="78"/>
+      <c r="C495" s="78"/>
+      <c r="D495" s="79"/>
       <c r="E495" s="79"/>
-      <c r="F495" s="79"/>
-      <c r="G495" s="79"/>
+      <c r="F495" s="78"/>
+      <c r="G495" s="78"/>
       <c r="H495" s="79"/>
       <c r="I495" s="79"/>
       <c r="J495" s="79"/>
@@ -10576,153 +10591,153 @@
     </row>
     <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="248" t="s">
-        <v>59</v>
-      </c>
-      <c r="C496" s="249"/>
-      <c r="D496" s="168" t="s">
-        <v>204</v>
-      </c>
-      <c r="E496" s="169"/>
-      <c r="F496" s="169"/>
-      <c r="G496" s="169"/>
-      <c r="H496" s="169"/>
-      <c r="I496" s="169"/>
-      <c r="J496" s="170"/>
-      <c r="K496" s="21"/>
-      <c r="L496" s="252"/>
+      <c r="B496" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C496" s="78"/>
+      <c r="D496" s="79"/>
+      <c r="E496" s="79"/>
+      <c r="F496" s="120">
+        <v>10</v>
+      </c>
+      <c r="G496" s="78"/>
+      <c r="H496" s="79"/>
+      <c r="I496" s="79"/>
+      <c r="J496" s="79"/>
+      <c r="K496" s="151"/>
+      <c r="L496" s="79"/>
       <c r="M496" s="79"/>
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="250"/>
-      <c r="C497" s="251"/>
-      <c r="D497" s="74">
-        <v>1</v>
-      </c>
-      <c r="E497" s="74">
-        <v>2</v>
-      </c>
-      <c r="F497" s="74">
-        <v>3</v>
-      </c>
-      <c r="G497" s="74">
-        <v>4</v>
-      </c>
-      <c r="H497" s="74">
-        <v>5</v>
-      </c>
-      <c r="I497" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="J497" s="74">
-        <v>10</v>
-      </c>
-      <c r="K497" s="21"/>
-      <c r="L497" s="252"/>
+      <c r="B497" s="79"/>
+      <c r="C497" s="32"/>
+      <c r="D497" s="32"/>
+      <c r="E497" s="79"/>
+      <c r="F497" s="79"/>
+      <c r="G497" s="79"/>
+      <c r="H497" s="79"/>
+      <c r="I497" s="79"/>
+      <c r="J497" s="79"/>
+      <c r="K497" s="151"/>
+      <c r="L497" s="79"/>
       <c r="M497" s="79"/>
     </row>
-    <row r="498" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="226" t="s">
-        <v>340</v>
-      </c>
-      <c r="C498" s="228"/>
-      <c r="D498" s="102"/>
-      <c r="E498" s="142">
-        <v>3500</v>
-      </c>
-      <c r="F498" s="102"/>
-      <c r="G498" s="142">
-        <v>3500</v>
-      </c>
-      <c r="H498" s="102"/>
-      <c r="I498" s="142">
-        <v>3500</v>
-      </c>
-      <c r="J498" s="142">
-        <v>3500</v>
-      </c>
-      <c r="K498" s="159"/>
-      <c r="L498" s="39"/>
+      <c r="B498" s="212" t="s">
+        <v>59</v>
+      </c>
+      <c r="C498" s="213"/>
+      <c r="D498" s="216" t="s">
+        <v>204</v>
+      </c>
+      <c r="E498" s="217"/>
+      <c r="F498" s="217"/>
+      <c r="G498" s="217"/>
+      <c r="H498" s="217"/>
+      <c r="I498" s="217"/>
+      <c r="J498" s="218"/>
+      <c r="K498" s="21"/>
+      <c r="L498" s="219"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="243" t="s">
+      <c r="B499" s="214"/>
+      <c r="C499" s="215"/>
+      <c r="D499" s="74">
+        <v>1</v>
+      </c>
+      <c r="E499" s="74">
+        <v>2</v>
+      </c>
+      <c r="F499" s="74">
+        <v>3</v>
+      </c>
+      <c r="G499" s="74">
+        <v>4</v>
+      </c>
+      <c r="H499" s="74">
+        <v>5</v>
+      </c>
+      <c r="I499" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C499" s="245"/>
-      <c r="D499" s="81"/>
-      <c r="E499" s="81"/>
-      <c r="F499" s="81"/>
-      <c r="G499" s="81"/>
-      <c r="H499" s="81"/>
-      <c r="I499" s="102"/>
-      <c r="J499" s="102"/>
-      <c r="K499" s="151"/>
-      <c r="L499" s="39"/>
+      <c r="J499" s="74">
+        <v>10</v>
+      </c>
+      <c r="K499" s="21"/>
+      <c r="L499" s="219"/>
       <c r="M499" s="79"/>
     </row>
-    <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="243" t="s">
-        <v>220</v>
-      </c>
-      <c r="C500" s="245"/>
-      <c r="D500" s="81"/>
-      <c r="E500" s="81"/>
-      <c r="F500" s="81"/>
-      <c r="G500" s="81"/>
-      <c r="H500" s="81"/>
-      <c r="I500" s="102"/>
-      <c r="J500" s="102"/>
-      <c r="K500" s="151"/>
+      <c r="B500" s="220" t="s">
+        <v>340</v>
+      </c>
+      <c r="C500" s="221"/>
+      <c r="D500" s="102"/>
+      <c r="E500" s="142">
+        <v>3500</v>
+      </c>
+      <c r="F500" s="102"/>
+      <c r="G500" s="142">
+        <v>3500</v>
+      </c>
+      <c r="H500" s="102"/>
+      <c r="I500" s="142">
+        <v>3500</v>
+      </c>
+      <c r="J500" s="142">
+        <v>3500</v>
+      </c>
+      <c r="K500" s="159"/>
       <c r="L500" s="39"/>
       <c r="M500" s="79"/>
     </row>
-    <row r="501" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="78"/>
-      <c r="B501" s="259"/>
-      <c r="C501" s="259"/>
-      <c r="D501" s="259"/>
-      <c r="E501" s="39"/>
-      <c r="F501" s="12"/>
-      <c r="G501" s="12"/>
-      <c r="H501" s="79"/>
-      <c r="I501" s="79"/>
-      <c r="J501" s="79"/>
+    <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="19"/>
+      <c r="B501" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="C501" s="174"/>
+      <c r="D501" s="81"/>
+      <c r="E501" s="81"/>
+      <c r="F501" s="81"/>
+      <c r="G501" s="81"/>
+      <c r="H501" s="81"/>
+      <c r="I501" s="102"/>
+      <c r="J501" s="102"/>
       <c r="K501" s="151"/>
-      <c r="L501" s="79"/>
+      <c r="L501" s="39"/>
       <c r="M501" s="79"/>
     </row>
     <row r="502" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="78"/>
-      <c r="B502" s="39"/>
-      <c r="C502" s="79"/>
-      <c r="D502" s="79"/>
-      <c r="E502" s="39"/>
-      <c r="F502" s="79"/>
-      <c r="G502" s="79"/>
-      <c r="H502" s="79"/>
-      <c r="I502" s="79"/>
-      <c r="J502" s="79"/>
+      <c r="A502" s="19"/>
+      <c r="B502" s="173" t="s">
+        <v>220</v>
+      </c>
+      <c r="C502" s="174"/>
+      <c r="D502" s="81"/>
+      <c r="E502" s="81"/>
+      <c r="F502" s="81"/>
+      <c r="G502" s="81"/>
+      <c r="H502" s="81"/>
+      <c r="I502" s="102"/>
+      <c r="J502" s="102"/>
       <c r="K502" s="151"/>
-      <c r="L502" s="79"/>
+      <c r="L502" s="39"/>
       <c r="M502" s="79"/>
     </row>
-    <row r="503" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B503" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C503" s="123"/>
-      <c r="D503" s="24"/>
-      <c r="E503" s="24"/>
-      <c r="F503" s="79"/>
-      <c r="G503" s="79"/>
+    <row r="503" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="78"/>
+      <c r="B503" s="164"/>
+      <c r="C503" s="164"/>
+      <c r="D503" s="164"/>
+      <c r="E503" s="39"/>
+      <c r="F503" s="12"/>
+      <c r="G503" s="12"/>
       <c r="H503" s="79"/>
       <c r="I503" s="79"/>
       <c r="J503" s="79"/>
@@ -10731,11 +10746,11 @@
       <c r="M503" s="79"/>
     </row>
     <row r="504" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="19"/>
-      <c r="B504" s="78"/>
+      <c r="A504" s="78"/>
+      <c r="B504" s="39"/>
       <c r="C504" s="79"/>
-      <c r="D504" s="78"/>
-      <c r="E504" s="78"/>
+      <c r="D504" s="79"/>
+      <c r="E504" s="39"/>
       <c r="F504" s="79"/>
       <c r="G504" s="79"/>
       <c r="H504" s="79"/>
@@ -10746,15 +10761,15 @@
       <c r="M504" s="79"/>
     </row>
     <row r="505" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="19"/>
-      <c r="B505" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C505" s="48"/>
-      <c r="D505" s="48"/>
-      <c r="E505" s="45" t="s">
-        <v>224</v>
-      </c>
+      <c r="A505" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B505" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C505" s="123"/>
+      <c r="D505" s="24"/>
+      <c r="E505" s="24"/>
       <c r="F505" s="79"/>
       <c r="G505" s="79"/>
       <c r="H505" s="79"/>
@@ -10766,14 +10781,10 @@
     </row>
     <row r="506" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="19"/>
-      <c r="B506" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C506" s="50"/>
-      <c r="D506" s="50"/>
-      <c r="E506" s="51" t="s">
-        <v>306</v>
-      </c>
+      <c r="B506" s="78"/>
+      <c r="C506" s="79"/>
+      <c r="D506" s="78"/>
+      <c r="E506" s="78"/>
       <c r="F506" s="79"/>
       <c r="G506" s="79"/>
       <c r="H506" s="79"/>
@@ -10785,12 +10796,14 @@
     </row>
     <row r="507" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="19"/>
-      <c r="B507" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="C507" s="79"/>
-      <c r="D507" s="79"/>
-      <c r="E507" s="53"/>
+      <c r="B507" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C507" s="48"/>
+      <c r="D507" s="48"/>
+      <c r="E507" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="F507" s="79"/>
       <c r="G507" s="79"/>
       <c r="H507" s="79"/>
@@ -10802,12 +10815,14 @@
     </row>
     <row r="508" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="19"/>
-      <c r="B508" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="C508" s="79"/>
-      <c r="D508" s="79"/>
-      <c r="E508" s="53"/>
+      <c r="B508" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C508" s="50"/>
+      <c r="D508" s="50"/>
+      <c r="E508" s="51" t="s">
+        <v>306</v>
+      </c>
       <c r="F508" s="79"/>
       <c r="G508" s="79"/>
       <c r="H508" s="79"/>
@@ -10819,12 +10834,12 @@
     </row>
     <row r="509" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="19"/>
-      <c r="B509" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C509" s="55"/>
-      <c r="D509" s="55"/>
-      <c r="E509" s="56"/>
+      <c r="B509" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C509" s="79"/>
+      <c r="D509" s="79"/>
+      <c r="E509" s="53"/>
       <c r="F509" s="79"/>
       <c r="G509" s="79"/>
       <c r="H509" s="79"/>
@@ -10836,10 +10851,12 @@
     </row>
     <row r="510" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="19"/>
-      <c r="B510" s="79"/>
-      <c r="C510" s="32"/>
-      <c r="D510" s="32"/>
-      <c r="E510" s="79"/>
+      <c r="B510" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="C510" s="79"/>
+      <c r="D510" s="79"/>
+      <c r="E510" s="53"/>
       <c r="F510" s="79"/>
       <c r="G510" s="79"/>
       <c r="H510" s="79"/>
@@ -10850,15 +10867,13 @@
       <c r="M510" s="79"/>
     </row>
     <row r="511" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B511" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C511" s="123"/>
-      <c r="D511" s="24"/>
-      <c r="E511" s="24"/>
+      <c r="A511" s="19"/>
+      <c r="B511" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C511" s="55"/>
+      <c r="D511" s="55"/>
+      <c r="E511" s="56"/>
       <c r="F511" s="79"/>
       <c r="G511" s="79"/>
       <c r="H511" s="79"/>
@@ -10870,10 +10885,10 @@
     </row>
     <row r="512" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="19"/>
-      <c r="B512" s="78"/>
-      <c r="C512" s="79"/>
-      <c r="D512" s="78"/>
-      <c r="E512" s="78"/>
+      <c r="B512" s="79"/>
+      <c r="C512" s="32"/>
+      <c r="D512" s="32"/>
+      <c r="E512" s="79"/>
       <c r="F512" s="79"/>
       <c r="G512" s="79"/>
       <c r="H512" s="79"/>
@@ -10884,15 +10899,15 @@
       <c r="M512" s="79"/>
     </row>
     <row r="513" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="19"/>
-      <c r="B513" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C513" s="48"/>
-      <c r="D513" s="48"/>
-      <c r="E513" s="45" t="s">
-        <v>224</v>
-      </c>
+      <c r="A513" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B513" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C513" s="123"/>
+      <c r="D513" s="24"/>
+      <c r="E513" s="24"/>
       <c r="F513" s="79"/>
       <c r="G513" s="79"/>
       <c r="H513" s="79"/>
@@ -10904,14 +10919,10 @@
     </row>
     <row r="514" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="19"/>
-      <c r="B514" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="C514" s="50"/>
-      <c r="D514" s="50"/>
-      <c r="E514" s="51" t="s">
-        <v>306</v>
-      </c>
+      <c r="B514" s="78"/>
+      <c r="C514" s="79"/>
+      <c r="D514" s="78"/>
+      <c r="E514" s="78"/>
       <c r="F514" s="79"/>
       <c r="G514" s="79"/>
       <c r="H514" s="79"/>
@@ -10923,12 +10934,14 @@
     </row>
     <row r="515" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="19"/>
-      <c r="B515" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="C515" s="79"/>
-      <c r="D515" s="79"/>
-      <c r="E515" s="53"/>
+      <c r="B515" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C515" s="48"/>
+      <c r="D515" s="48"/>
+      <c r="E515" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="F515" s="79"/>
       <c r="G515" s="79"/>
       <c r="H515" s="79"/>
@@ -10940,12 +10953,14 @@
     </row>
     <row r="516" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="19"/>
-      <c r="B516" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C516" s="79"/>
-      <c r="D516" s="79"/>
-      <c r="E516" s="53"/>
+      <c r="B516" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C516" s="50"/>
+      <c r="D516" s="50"/>
+      <c r="E516" s="51" t="s">
+        <v>306</v>
+      </c>
       <c r="F516" s="79"/>
       <c r="G516" s="79"/>
       <c r="H516" s="79"/>
@@ -10958,7 +10973,7 @@
     <row r="517" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="19"/>
       <c r="B517" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C517" s="79"/>
       <c r="D517" s="79"/>
@@ -10974,14 +10989,12 @@
     </row>
     <row r="518" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="19"/>
-      <c r="B518" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C518" s="55"/>
-      <c r="D518" s="55"/>
-      <c r="E518" s="56" t="s">
-        <v>306</v>
-      </c>
+      <c r="B518" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C518" s="79"/>
+      <c r="D518" s="79"/>
+      <c r="E518" s="53"/>
       <c r="F518" s="79"/>
       <c r="G518" s="79"/>
       <c r="H518" s="79"/>
@@ -10992,47 +11005,53 @@
       <c r="M518" s="79"/>
     </row>
     <row r="519" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="18"/>
-      <c r="B519" s="59"/>
-      <c r="E519" s="59"/>
+      <c r="A519" s="19"/>
+      <c r="B519" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C519" s="79"/>
+      <c r="D519" s="79"/>
+      <c r="E519" s="53"/>
+      <c r="F519" s="79"/>
+      <c r="G519" s="79"/>
+      <c r="H519" s="79"/>
+      <c r="I519" s="79"/>
+      <c r="J519" s="79"/>
+      <c r="K519" s="151"/>
+      <c r="L519" s="79"/>
       <c r="M519" s="79"/>
     </row>
     <row r="520" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="18"/>
-      <c r="B520" s="59"/>
-      <c r="E520" s="59"/>
-    </row>
-    <row r="521" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="19"/>
+      <c r="B520" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C520" s="55"/>
+      <c r="D520" s="55"/>
+      <c r="E520" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F520" s="79"/>
+      <c r="G520" s="79"/>
+      <c r="H520" s="79"/>
+      <c r="I520" s="79"/>
+      <c r="J520" s="79"/>
+      <c r="K520" s="151"/>
+      <c r="L520" s="79"/>
+      <c r="M520" s="79"/>
+    </row>
+    <row r="521" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="18"/>
-      <c r="B521" s="18"/>
-      <c r="C521" s="18"/>
-      <c r="D521" s="18"/>
-      <c r="E521" s="18"/>
-      <c r="F521" s="18"/>
-      <c r="G521" s="18"/>
-      <c r="H521" s="18"/>
-      <c r="I521" s="79"/>
-      <c r="J521" s="79"/>
-      <c r="K521" s="151"/>
-      <c r="L521" s="79"/>
+      <c r="B521" s="59"/>
+      <c r="E521" s="59"/>
+      <c r="M521" s="79"/>
     </row>
     <row r="522" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B522" s="125"/>
-      <c r="C522" s="125"/>
-      <c r="D522" s="125"/>
-      <c r="E522" s="125"/>
-      <c r="F522" s="125"/>
-      <c r="G522" s="125"/>
-      <c r="H522" s="125"/>
-      <c r="I522" s="126"/>
-      <c r="J522" s="126"/>
-      <c r="K522" s="126"/>
-      <c r="L522" s="126"/>
-    </row>
-    <row r="523" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="18"/>
+      <c r="B522" s="59"/>
+      <c r="E522" s="59"/>
+    </row>
+    <row r="523" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="18"/>
       <c r="B523" s="18"/>
       <c r="C523" s="18"/>
@@ -11047,18 +11066,20 @@
       <c r="L523" s="79"/>
     </row>
     <row r="524" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="18"/>
-      <c r="B524" s="18"/>
-      <c r="C524" s="18"/>
-      <c r="D524" s="18"/>
-      <c r="E524" s="18"/>
-      <c r="F524" s="18"/>
-      <c r="G524" s="18"/>
-      <c r="H524" s="18"/>
-      <c r="I524" s="79"/>
-      <c r="J524" s="79"/>
-      <c r="K524" s="151"/>
-      <c r="L524" s="79"/>
+      <c r="A524" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B524" s="125"/>
+      <c r="C524" s="125"/>
+      <c r="D524" s="125"/>
+      <c r="E524" s="125"/>
+      <c r="F524" s="125"/>
+      <c r="G524" s="125"/>
+      <c r="H524" s="125"/>
+      <c r="I524" s="126"/>
+      <c r="J524" s="126"/>
+      <c r="K524" s="126"/>
+      <c r="L524" s="126"/>
     </row>
     <row r="525" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="18"/>
@@ -11076,6 +11097,7 @@
     </row>
     <row r="526" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="18"/>
+      <c r="B526" s="18"/>
       <c r="C526" s="18"/>
       <c r="D526" s="18"/>
       <c r="E526" s="18"/>
@@ -11089,67 +11111,66 @@
     </row>
     <row r="527" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="18"/>
-      <c r="C527" s="128"/>
-      <c r="D527" s="128"/>
-      <c r="E527" s="128"/>
-      <c r="F527" s="128"/>
-      <c r="G527" s="128"/>
-      <c r="H527" s="128"/>
+      <c r="B527" s="18"/>
+      <c r="C527" s="18"/>
+      <c r="D527" s="18"/>
+      <c r="E527" s="18"/>
+      <c r="F527" s="18"/>
+      <c r="G527" s="18"/>
+      <c r="H527" s="18"/>
       <c r="I527" s="79"/>
       <c r="J527" s="79"/>
       <c r="K527" s="151"/>
       <c r="L527" s="79"/>
     </row>
     <row r="528" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="18"/>
       <c r="C528" s="18"/>
+      <c r="D528" s="18"/>
+      <c r="E528" s="18"/>
+      <c r="F528" s="18"/>
+      <c r="G528" s="18"/>
+      <c r="H528" s="18"/>
       <c r="I528" s="79"/>
       <c r="J528" s="79"/>
       <c r="K528" s="151"/>
       <c r="L528" s="79"/>
     </row>
     <row r="529" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="198" t="s">
-        <v>246</v>
-      </c>
-      <c r="B529" s="198"/>
-      <c r="C529" s="198"/>
-      <c r="D529" s="198"/>
+      <c r="A529" s="18"/>
+      <c r="C529" s="128"/>
+      <c r="D529" s="128"/>
+      <c r="E529" s="128"/>
+      <c r="F529" s="128"/>
+      <c r="G529" s="128"/>
+      <c r="H529" s="128"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="151"/>
       <c r="L529" s="79"/>
     </row>
     <row r="530" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="18"/>
-      <c r="B530" s="18"/>
       <c r="C530" s="18"/>
-      <c r="D530" s="18"/>
-      <c r="E530" s="18"/>
-      <c r="F530" s="18"/>
-      <c r="G530" s="18"/>
-      <c r="H530" s="18"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
       <c r="K530" s="151"/>
       <c r="L530" s="79"/>
     </row>
     <row r="531" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="18"/>
-      <c r="B531" s="18"/>
-      <c r="C531" s="18"/>
-      <c r="D531" s="18"/>
-      <c r="E531" s="18"/>
-      <c r="F531" s="18"/>
-      <c r="G531" s="18"/>
-      <c r="H531" s="18"/>
+      <c r="A531" s="209" t="s">
+        <v>246</v>
+      </c>
+      <c r="B531" s="209"/>
+      <c r="C531" s="209"/>
+      <c r="D531" s="209"/>
       <c r="I531" s="79"/>
       <c r="J531" s="79"/>
       <c r="K531" s="151"/>
       <c r="L531" s="79"/>
     </row>
     <row r="532" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="128"/>
-      <c r="B532" s="128"/>
+      <c r="A532" s="18"/>
+      <c r="B532" s="18"/>
       <c r="C532" s="18"/>
       <c r="D532" s="18"/>
       <c r="E532" s="18"/>
@@ -11162,229 +11183,175 @@
       <c r="L532" s="79"/>
     </row>
     <row r="533" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="23" t="s">
+      <c r="A533" s="18"/>
+      <c r="B533" s="18"/>
+      <c r="C533" s="18"/>
+      <c r="D533" s="18"/>
+      <c r="E533" s="18"/>
+      <c r="F533" s="18"/>
+      <c r="G533" s="18"/>
+      <c r="H533" s="18"/>
+      <c r="I533" s="79"/>
+      <c r="J533" s="79"/>
+      <c r="K533" s="151"/>
+      <c r="L533" s="79"/>
+    </row>
+    <row r="534" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="128"/>
+      <c r="B534" s="128"/>
+      <c r="C534" s="18"/>
+      <c r="D534" s="18"/>
+      <c r="E534" s="18"/>
+      <c r="F534" s="18"/>
+      <c r="G534" s="18"/>
+      <c r="H534" s="18"/>
+      <c r="I534" s="79"/>
+      <c r="J534" s="79"/>
+      <c r="K534" s="151"/>
+      <c r="L534" s="79"/>
+    </row>
+    <row r="535" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="B533" s="78"/>
-      <c r="C533" s="78"/>
-      <c r="D533" s="78"/>
-      <c r="E533" s="78"/>
-      <c r="F533" s="78"/>
-      <c r="G533" s="78"/>
-      <c r="H533" s="78"/>
-      <c r="I533" s="78"/>
-      <c r="J533" s="78"/>
-      <c r="K533" s="150"/>
-      <c r="L533" s="18"/>
-    </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A534" s="79"/>
-      <c r="B534" s="78"/>
-      <c r="C534" s="78"/>
-      <c r="D534" s="78"/>
-      <c r="E534" s="78"/>
-      <c r="F534" s="78"/>
-      <c r="G534" s="78"/>
-      <c r="H534" s="78"/>
-      <c r="I534" s="78"/>
-      <c r="J534" s="78"/>
-      <c r="K534" s="150"/>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A535" s="246" t="s">
+      <c r="B535" s="78"/>
+      <c r="C535" s="78"/>
+      <c r="D535" s="78"/>
+      <c r="E535" s="78"/>
+      <c r="F535" s="78"/>
+      <c r="G535" s="78"/>
+      <c r="H535" s="78"/>
+      <c r="I535" s="78"/>
+      <c r="J535" s="78"/>
+      <c r="K535" s="150"/>
+      <c r="L535" s="18"/>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A536" s="79"/>
+      <c r="B536" s="78"/>
+      <c r="C536" s="78"/>
+      <c r="D536" s="78"/>
+      <c r="E536" s="78"/>
+      <c r="F536" s="78"/>
+      <c r="G536" s="78"/>
+      <c r="H536" s="78"/>
+      <c r="I536" s="78"/>
+      <c r="J536" s="78"/>
+      <c r="K536" s="150"/>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A537" s="210" t="s">
         <v>248</v>
       </c>
-      <c r="B535" s="246"/>
-      <c r="C535" s="246"/>
-      <c r="D535" s="246"/>
-      <c r="E535" s="246"/>
-      <c r="F535" s="246"/>
-      <c r="G535" s="246"/>
-      <c r="H535" s="246"/>
-      <c r="I535" s="246"/>
-      <c r="J535" s="246"/>
-      <c r="K535" s="246"/>
-      <c r="L535" s="246"/>
-    </row>
-    <row r="536" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="246" t="s">
+      <c r="B537" s="210"/>
+      <c r="C537" s="210"/>
+      <c r="D537" s="210"/>
+      <c r="E537" s="210"/>
+      <c r="F537" s="210"/>
+      <c r="G537" s="210"/>
+      <c r="H537" s="210"/>
+      <c r="I537" s="210"/>
+      <c r="J537" s="210"/>
+      <c r="K537" s="210"/>
+      <c r="L537" s="210"/>
+    </row>
+    <row r="538" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="B536" s="246"/>
-      <c r="C536" s="246"/>
-      <c r="D536" s="246"/>
-      <c r="E536" s="246"/>
-      <c r="F536" s="246"/>
-      <c r="G536" s="246"/>
-      <c r="H536" s="246"/>
-      <c r="I536" s="246"/>
-      <c r="J536" s="246"/>
-      <c r="K536" s="246"/>
-      <c r="L536" s="246"/>
-    </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A537" s="79"/>
-      <c r="B537" s="78"/>
-      <c r="C537" s="78"/>
-      <c r="D537" s="78"/>
-      <c r="E537" s="78"/>
-      <c r="F537" s="78"/>
-      <c r="G537" s="78"/>
-      <c r="H537" s="78"/>
-      <c r="I537" s="78"/>
-      <c r="J537" s="78"/>
-      <c r="K537" s="150"/>
-    </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A538" s="23" t="s">
+      <c r="B538" s="210"/>
+      <c r="C538" s="210"/>
+      <c r="D538" s="210"/>
+      <c r="E538" s="210"/>
+      <c r="F538" s="210"/>
+      <c r="G538" s="210"/>
+      <c r="H538" s="210"/>
+      <c r="I538" s="210"/>
+      <c r="J538" s="210"/>
+      <c r="K538" s="210"/>
+      <c r="L538" s="210"/>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A539" s="79"/>
+      <c r="B539" s="78"/>
+      <c r="C539" s="78"/>
+      <c r="D539" s="78"/>
+      <c r="E539" s="78"/>
+      <c r="F539" s="78"/>
+      <c r="G539" s="78"/>
+      <c r="H539" s="78"/>
+      <c r="I539" s="78"/>
+      <c r="J539" s="78"/>
+      <c r="K539" s="150"/>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A540" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B538" s="78"/>
-      <c r="C538" s="78"/>
-      <c r="D538" s="78"/>
-      <c r="E538" s="78"/>
-      <c r="F538" s="78"/>
-      <c r="G538" s="78"/>
-      <c r="H538" s="78"/>
-      <c r="I538" s="78"/>
-      <c r="J538" s="78"/>
-      <c r="K538" s="150"/>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="246" t="s">
+      <c r="B540" s="78"/>
+      <c r="C540" s="78"/>
+      <c r="D540" s="78"/>
+      <c r="E540" s="78"/>
+      <c r="F540" s="78"/>
+      <c r="G540" s="78"/>
+      <c r="H540" s="78"/>
+      <c r="I540" s="78"/>
+      <c r="J540" s="78"/>
+      <c r="K540" s="150"/>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A541" s="210" t="s">
         <v>250</v>
       </c>
-      <c r="B539" s="246"/>
-      <c r="C539" s="246"/>
-      <c r="D539" s="246"/>
-      <c r="E539" s="246"/>
-      <c r="F539" s="246"/>
-      <c r="G539" s="246"/>
-      <c r="H539" s="246"/>
-      <c r="I539" s="246"/>
-      <c r="J539" s="246"/>
-      <c r="K539" s="246"/>
-      <c r="L539" s="246"/>
-    </row>
-    <row r="540" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="78"/>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A541" s="78"/>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B541" s="210"/>
+      <c r="C541" s="210"/>
+      <c r="D541" s="210"/>
+      <c r="E541" s="210"/>
+      <c r="F541" s="210"/>
+      <c r="G541" s="210"/>
+      <c r="H541" s="210"/>
+      <c r="I541" s="210"/>
+      <c r="J541" s="210"/>
+      <c r="K541" s="210"/>
+      <c r="L541" s="210"/>
+    </row>
+    <row r="542" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="78"/>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A543" s="78"/>
     </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A544" s="78"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="78"/>
+    </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B501:D501"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B327:L327"/>
-    <mergeCell ref="B341:L341"/>
-    <mergeCell ref="B358:L362"/>
-    <mergeCell ref="B299:L303"/>
-    <mergeCell ref="B306:L310"/>
-    <mergeCell ref="B321:L325"/>
-    <mergeCell ref="B335:L339"/>
-    <mergeCell ref="D367:L367"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="B235:L237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A535:L535"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A539:L539"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B496:C497"/>
-    <mergeCell ref="D496:J496"/>
-    <mergeCell ref="L496:L497"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
     <mergeCell ref="B369:L369"/>
     <mergeCell ref="B349:F349"/>
     <mergeCell ref="B351:F351"/>
@@ -11409,29 +11376,111 @@
     <mergeCell ref="B200:L204"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A537:L537"/>
+    <mergeCell ref="A538:L538"/>
+    <mergeCell ref="A541:L541"/>
+    <mergeCell ref="F489:G489"/>
+    <mergeCell ref="B498:C499"/>
+    <mergeCell ref="D498:J498"/>
+    <mergeCell ref="L498:L499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="B503:D503"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B327:L327"/>
+    <mergeCell ref="B341:L341"/>
+    <mergeCell ref="B358:L362"/>
+    <mergeCell ref="B299:L303"/>
+    <mergeCell ref="B306:L310"/>
+    <mergeCell ref="B321:L325"/>
+    <mergeCell ref="B335:L339"/>
+    <mergeCell ref="D367:L367"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B235:L237"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
@@ -11441,7 +11490,7 @@
     <brk id="36" max="11" man="1"/>
     <brk id="59" max="10" man="1"/>
     <brk id="468" max="10" man="1"/>
-    <brk id="502" max="11" man="1"/>
+    <brk id="504" max="11" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -2016,6 +2016,300 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2043,52 +2337,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2114,258 +2366,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2655,8 +2655,8 @@
   </sheetPr>
   <dimension ref="A3:P545"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A83" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I496" sqref="I496"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A86" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H487" sqref="H487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2678,52 +2678,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="193" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="236"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="196"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="197" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="200"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="241"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2757,17 +2757,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="264" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="266"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2964,10 +2964,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="263" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="165"/>
+      <c r="E21" s="263"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2996,10 +2996,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="263" t="s">
         <v>331</v>
       </c>
-      <c r="E23" s="165"/>
+      <c r="E23" s="263"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3061,13 +3061,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="169" t="s">
+      <c r="F27" s="267" t="s">
         <v>337</v>
       </c>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
+      <c r="G27" s="267"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="267"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3086,22 +3086,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="242" t="s">
+      <c r="B29" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="170" t="s">
+      <c r="G29" s="268" t="s">
         <v>332</v>
       </c>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="172"/>
+      <c r="H29" s="269"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="269"/>
+      <c r="L29" s="270"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3120,11 +3120,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="261"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3285,12 +3285,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="198" t="s">
+      <c r="G40" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="199"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
+      <c r="H40" s="233"/>
+      <c r="I40" s="233"/>
+      <c r="J40" s="234"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3303,12 +3303,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="198" t="s">
+      <c r="G41" s="232" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="199"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
+      <c r="H41" s="233"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="234"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="232" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="H42" s="233"/>
+      <c r="I42" s="233"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3339,12 +3339,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="198" t="s">
+      <c r="G43" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
+      <c r="H43" s="233"/>
+      <c r="I43" s="233"/>
+      <c r="J43" s="234"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3388,12 +3388,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="198" t="s">
+      <c r="G46" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200"/>
+      <c r="H46" s="233"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3406,12 +3406,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="198" t="s">
+      <c r="G47" s="232" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="199"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="H47" s="233"/>
+      <c r="I47" s="233"/>
+      <c r="J47" s="234"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3424,12 +3424,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="220" t="s">
+      <c r="G48" s="229" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="271"/>
-      <c r="I48" s="271"/>
-      <c r="J48" s="221"/>
+      <c r="H48" s="230"/>
+      <c r="I48" s="230"/>
+      <c r="J48" s="231"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3496,12 +3496,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="198" t="s">
+      <c r="G52" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3514,12 +3514,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="198" t="s">
+      <c r="G53" s="232" t="s">
         <v>327</v>
       </c>
-      <c r="H53" s="199"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
+      <c r="H53" s="233"/>
+      <c r="I53" s="233"/>
+      <c r="J53" s="234"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3768,14 +3768,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="173" t="s">
+      <c r="E68" s="246" t="s">
         <v>343</v>
       </c>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
-      <c r="H68" s="197"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="174"/>
+      <c r="F68" s="247"/>
+      <c r="G68" s="247"/>
+      <c r="H68" s="247"/>
+      <c r="I68" s="247"/>
+      <c r="J68" s="248"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3840,11 +3840,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="222" t="s">
+      <c r="F72" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="222"/>
-      <c r="H72" s="222"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3862,11 +3862,11 @@
         <v>330</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="272" t="s">
+      <c r="F73" s="165" t="s">
         <v>338</v>
       </c>
-      <c r="G73" s="272"/>
-      <c r="H73" s="272"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3998,10 +3998,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="207" t="s">
+      <c r="D82" s="236" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="207"/>
+      <c r="E82" s="236"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4087,17 +4087,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="274" t="s">
+      <c r="B87" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="274"/>
-      <c r="D87" s="274"/>
-      <c r="E87" s="274"/>
-      <c r="F87" s="274"/>
-      <c r="G87" s="274"/>
-      <c r="H87" s="274"/>
-      <c r="I87" s="274"/>
-      <c r="J87" s="274"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
+      <c r="F87" s="169"/>
+      <c r="G87" s="169"/>
+      <c r="H87" s="169"/>
+      <c r="I87" s="169"/>
+      <c r="J87" s="169"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4264,10 +4264,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="276" t="s">
+      <c r="E98" s="174" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="277"/>
+      <c r="F98" s="175"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4447,13 +4447,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="259" t="s">
+      <c r="B110" s="220" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="259"/>
-      <c r="D110" s="259"/>
-      <c r="E110" s="259"/>
-      <c r="F110" s="260"/>
+      <c r="C110" s="220"/>
+      <c r="D110" s="220"/>
+      <c r="E110" s="220"/>
+      <c r="F110" s="221"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4468,8 +4468,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="261"/>
-      <c r="H111" s="261"/>
+      <c r="G111" s="222"/>
+      <c r="H111" s="222"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4477,13 +4477,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="259" t="s">
+      <c r="B112" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="259"/>
-      <c r="D112" s="259"/>
-      <c r="E112" s="259"/>
-      <c r="F112" s="260"/>
+      <c r="C112" s="220"/>
+      <c r="D112" s="220"/>
+      <c r="E112" s="220"/>
+      <c r="F112" s="221"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="262" t="s">
+      <c r="B121" s="223" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="263"/>
-      <c r="D121" s="263"/>
-      <c r="E121" s="263"/>
-      <c r="F121" s="263"/>
-      <c r="G121" s="263"/>
-      <c r="H121" s="263"/>
-      <c r="I121" s="263"/>
-      <c r="J121" s="263"/>
-      <c r="K121" s="263"/>
-      <c r="L121" s="264"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="224"/>
+      <c r="F121" s="224"/>
+      <c r="G121" s="224"/>
+      <c r="H121" s="224"/>
+      <c r="I121" s="224"/>
+      <c r="J121" s="224"/>
+      <c r="K121" s="224"/>
+      <c r="L121" s="225"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="265"/>
-      <c r="C122" s="266"/>
-      <c r="D122" s="266"/>
-      <c r="E122" s="266"/>
-      <c r="F122" s="266"/>
-      <c r="G122" s="266"/>
-      <c r="H122" s="266"/>
-      <c r="I122" s="266"/>
-      <c r="J122" s="266"/>
-      <c r="K122" s="266"/>
-      <c r="L122" s="267"/>
+      <c r="B122" s="176"/>
+      <c r="C122" s="177"/>
+      <c r="D122" s="177"/>
+      <c r="E122" s="177"/>
+      <c r="F122" s="177"/>
+      <c r="G122" s="177"/>
+      <c r="H122" s="177"/>
+      <c r="I122" s="177"/>
+      <c r="J122" s="177"/>
+      <c r="K122" s="177"/>
+      <c r="L122" s="178"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="268"/>
-      <c r="C123" s="269"/>
-      <c r="D123" s="269"/>
-      <c r="E123" s="269"/>
-      <c r="F123" s="269"/>
-      <c r="G123" s="269"/>
-      <c r="H123" s="269"/>
-      <c r="I123" s="269"/>
-      <c r="J123" s="269"/>
-      <c r="K123" s="269"/>
-      <c r="L123" s="270"/>
+      <c r="B123" s="226"/>
+      <c r="C123" s="227"/>
+      <c r="D123" s="227"/>
+      <c r="E123" s="227"/>
+      <c r="F123" s="227"/>
+      <c r="G123" s="227"/>
+      <c r="H123" s="227"/>
+      <c r="I123" s="227"/>
+      <c r="J123" s="227"/>
+      <c r="K123" s="227"/>
+      <c r="L123" s="228"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4689,19 +4689,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="252" t="s">
+      <c r="B126" s="213" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="253"/>
-      <c r="D126" s="253"/>
-      <c r="E126" s="253"/>
-      <c r="F126" s="253"/>
-      <c r="G126" s="253"/>
-      <c r="H126" s="253"/>
-      <c r="I126" s="253"/>
-      <c r="J126" s="253"/>
-      <c r="K126" s="253"/>
-      <c r="L126" s="254"/>
+      <c r="C126" s="214"/>
+      <c r="D126" s="214"/>
+      <c r="E126" s="214"/>
+      <c r="F126" s="214"/>
+      <c r="G126" s="214"/>
+      <c r="H126" s="214"/>
+      <c r="I126" s="214"/>
+      <c r="J126" s="214"/>
+      <c r="K126" s="214"/>
+      <c r="L126" s="215"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4735,19 +4735,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="255" t="s">
+      <c r="B129" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="256"/>
-      <c r="D129" s="256"/>
-      <c r="E129" s="256"/>
-      <c r="F129" s="256"/>
-      <c r="G129" s="256"/>
-      <c r="H129" s="256"/>
-      <c r="I129" s="256"/>
-      <c r="J129" s="256"/>
-      <c r="K129" s="256"/>
-      <c r="L129" s="257"/>
+      <c r="C129" s="217"/>
+      <c r="D129" s="217"/>
+      <c r="E129" s="217"/>
+      <c r="F129" s="217"/>
+      <c r="G129" s="217"/>
+      <c r="H129" s="217"/>
+      <c r="I129" s="217"/>
+      <c r="J129" s="217"/>
+      <c r="K129" s="217"/>
+      <c r="L129" s="218"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4946,19 +4946,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="258" t="s">
+      <c r="B143" s="219" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="258"/>
-      <c r="D143" s="258"/>
-      <c r="E143" s="258"/>
-      <c r="F143" s="258"/>
-      <c r="G143" s="258"/>
-      <c r="H143" s="258"/>
-      <c r="I143" s="258"/>
-      <c r="J143" s="258"/>
-      <c r="K143" s="258"/>
-      <c r="L143" s="258"/>
+      <c r="C143" s="219"/>
+      <c r="D143" s="219"/>
+      <c r="E143" s="219"/>
+      <c r="F143" s="219"/>
+      <c r="G143" s="219"/>
+      <c r="H143" s="219"/>
+      <c r="I143" s="219"/>
+      <c r="J143" s="219"/>
+      <c r="K143" s="219"/>
+      <c r="L143" s="219"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4976,11 +4976,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="176" t="s">
+      <c r="B145" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="176"/>
-      <c r="D145" s="176"/>
+      <c r="C145" s="166"/>
+      <c r="D145" s="166"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -5004,11 +5004,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="176" t="s">
+      <c r="B147" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="176"/>
-      <c r="D147" s="176"/>
+      <c r="C147" s="166"/>
+      <c r="D147" s="166"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5032,11 +5032,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="176" t="s">
+      <c r="B149" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="176"/>
-      <c r="D149" s="176"/>
+      <c r="C149" s="166"/>
+      <c r="D149" s="166"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5058,12 +5058,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="176" t="s">
+      <c r="B151" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="176"/>
-      <c r="D151" s="176"/>
-      <c r="E151" s="176"/>
+      <c r="C151" s="166"/>
+      <c r="D151" s="166"/>
+      <c r="E151" s="166"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5086,13 +5086,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="176" t="s">
+      <c r="B153" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="176"/>
-      <c r="D153" s="176"/>
-      <c r="E153" s="176"/>
-      <c r="F153" s="177"/>
+      <c r="C153" s="166"/>
+      <c r="D153" s="166"/>
+      <c r="E153" s="166"/>
+      <c r="F153" s="167"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5220,19 +5220,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="278" t="s">
+      <c r="B162" s="179" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="279"/>
-      <c r="D162" s="279"/>
-      <c r="E162" s="279"/>
-      <c r="F162" s="279"/>
-      <c r="G162" s="279"/>
-      <c r="H162" s="279"/>
-      <c r="I162" s="279"/>
-      <c r="J162" s="279"/>
-      <c r="K162" s="279"/>
-      <c r="L162" s="280"/>
+      <c r="C162" s="180"/>
+      <c r="D162" s="180"/>
+      <c r="E162" s="180"/>
+      <c r="F162" s="180"/>
+      <c r="G162" s="180"/>
+      <c r="H162" s="180"/>
+      <c r="I162" s="180"/>
+      <c r="J162" s="180"/>
+      <c r="K162" s="180"/>
+      <c r="L162" s="181"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5450,12 +5450,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="176" t="s">
+      <c r="B179" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="176"/>
-      <c r="D179" s="176"/>
-      <c r="E179" s="176"/>
+      <c r="C179" s="166"/>
+      <c r="D179" s="166"/>
+      <c r="E179" s="166"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5482,13 +5482,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="176" t="s">
+      <c r="B181" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="176"/>
-      <c r="D181" s="176"/>
-      <c r="E181" s="176"/>
-      <c r="F181" s="177"/>
+      <c r="C181" s="166"/>
+      <c r="D181" s="166"/>
+      <c r="E181" s="166"/>
+      <c r="F181" s="167"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5542,13 +5542,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="176" t="s">
+      <c r="B185" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="176"/>
-      <c r="D185" s="176"/>
-      <c r="E185" s="176"/>
-      <c r="F185" s="177"/>
+      <c r="C185" s="166"/>
+      <c r="D185" s="166"/>
+      <c r="E185" s="166"/>
+      <c r="F185" s="167"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5661,79 +5661,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="179" t="s">
+      <c r="B193" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="180"/>
-      <c r="D193" s="180"/>
-      <c r="E193" s="180"/>
-      <c r="F193" s="180"/>
-      <c r="G193" s="180"/>
-      <c r="H193" s="180"/>
-      <c r="I193" s="180"/>
-      <c r="J193" s="180"/>
-      <c r="K193" s="180"/>
-      <c r="L193" s="181"/>
+      <c r="C193" s="183"/>
+      <c r="D193" s="183"/>
+      <c r="E193" s="183"/>
+      <c r="F193" s="183"/>
+      <c r="G193" s="183"/>
+      <c r="H193" s="183"/>
+      <c r="I193" s="183"/>
+      <c r="J193" s="183"/>
+      <c r="K193" s="183"/>
+      <c r="L193" s="184"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="182"/>
-      <c r="C194" s="183"/>
-      <c r="D194" s="183"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
-      <c r="I194" s="183"/>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183"/>
-      <c r="L194" s="184"/>
+      <c r="B194" s="185"/>
+      <c r="C194" s="186"/>
+      <c r="D194" s="186"/>
+      <c r="E194" s="186"/>
+      <c r="F194" s="186"/>
+      <c r="G194" s="186"/>
+      <c r="H194" s="186"/>
+      <c r="I194" s="186"/>
+      <c r="J194" s="186"/>
+      <c r="K194" s="186"/>
+      <c r="L194" s="187"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="182"/>
-      <c r="C195" s="183"/>
-      <c r="D195" s="183"/>
-      <c r="E195" s="183"/>
-      <c r="F195" s="183"/>
-      <c r="G195" s="183"/>
-      <c r="H195" s="183"/>
-      <c r="I195" s="183"/>
-      <c r="J195" s="183"/>
-      <c r="K195" s="183"/>
-      <c r="L195" s="184"/>
+      <c r="B195" s="185"/>
+      <c r="C195" s="186"/>
+      <c r="D195" s="186"/>
+      <c r="E195" s="186"/>
+      <c r="F195" s="186"/>
+      <c r="G195" s="186"/>
+      <c r="H195" s="186"/>
+      <c r="I195" s="186"/>
+      <c r="J195" s="186"/>
+      <c r="K195" s="186"/>
+      <c r="L195" s="187"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="182"/>
-      <c r="C196" s="183"/>
-      <c r="D196" s="183"/>
-      <c r="E196" s="183"/>
-      <c r="F196" s="183"/>
-      <c r="G196" s="183"/>
-      <c r="H196" s="183"/>
-      <c r="I196" s="183"/>
-      <c r="J196" s="183"/>
-      <c r="K196" s="183"/>
-      <c r="L196" s="184"/>
+      <c r="B196" s="185"/>
+      <c r="C196" s="186"/>
+      <c r="D196" s="186"/>
+      <c r="E196" s="186"/>
+      <c r="F196" s="186"/>
+      <c r="G196" s="186"/>
+      <c r="H196" s="186"/>
+      <c r="I196" s="186"/>
+      <c r="J196" s="186"/>
+      <c r="K196" s="186"/>
+      <c r="L196" s="187"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="185"/>
-      <c r="C197" s="186"/>
-      <c r="D197" s="186"/>
-      <c r="E197" s="186"/>
-      <c r="F197" s="186"/>
-      <c r="G197" s="186"/>
-      <c r="H197" s="186"/>
-      <c r="I197" s="186"/>
-      <c r="J197" s="186"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="187"/>
+      <c r="B197" s="188"/>
+      <c r="C197" s="189"/>
+      <c r="D197" s="189"/>
+      <c r="E197" s="189"/>
+      <c r="F197" s="189"/>
+      <c r="G197" s="189"/>
+      <c r="H197" s="189"/>
+      <c r="I197" s="189"/>
+      <c r="J197" s="189"/>
+      <c r="K197" s="189"/>
+      <c r="L197" s="190"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5770,79 +5770,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="179" t="s">
+      <c r="B200" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="180"/>
-      <c r="D200" s="180"/>
-      <c r="E200" s="180"/>
-      <c r="F200" s="180"/>
-      <c r="G200" s="180"/>
-      <c r="H200" s="180"/>
-      <c r="I200" s="180"/>
-      <c r="J200" s="180"/>
-      <c r="K200" s="180"/>
-      <c r="L200" s="181"/>
+      <c r="C200" s="183"/>
+      <c r="D200" s="183"/>
+      <c r="E200" s="183"/>
+      <c r="F200" s="183"/>
+      <c r="G200" s="183"/>
+      <c r="H200" s="183"/>
+      <c r="I200" s="183"/>
+      <c r="J200" s="183"/>
+      <c r="K200" s="183"/>
+      <c r="L200" s="184"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="182"/>
-      <c r="C201" s="183"/>
-      <c r="D201" s="183"/>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="184"/>
+      <c r="B201" s="185"/>
+      <c r="C201" s="186"/>
+      <c r="D201" s="186"/>
+      <c r="E201" s="186"/>
+      <c r="F201" s="186"/>
+      <c r="G201" s="186"/>
+      <c r="H201" s="186"/>
+      <c r="I201" s="186"/>
+      <c r="J201" s="186"/>
+      <c r="K201" s="186"/>
+      <c r="L201" s="187"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="182"/>
-      <c r="C202" s="183"/>
-      <c r="D202" s="183"/>
-      <c r="E202" s="183"/>
-      <c r="F202" s="183"/>
-      <c r="G202" s="183"/>
-      <c r="H202" s="183"/>
-      <c r="I202" s="183"/>
-      <c r="J202" s="183"/>
-      <c r="K202" s="183"/>
-      <c r="L202" s="184"/>
+      <c r="B202" s="185"/>
+      <c r="C202" s="186"/>
+      <c r="D202" s="186"/>
+      <c r="E202" s="186"/>
+      <c r="F202" s="186"/>
+      <c r="G202" s="186"/>
+      <c r="H202" s="186"/>
+      <c r="I202" s="186"/>
+      <c r="J202" s="186"/>
+      <c r="K202" s="186"/>
+      <c r="L202" s="187"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="182"/>
-      <c r="C203" s="183"/>
-      <c r="D203" s="183"/>
-      <c r="E203" s="183"/>
-      <c r="F203" s="183"/>
-      <c r="G203" s="183"/>
-      <c r="H203" s="183"/>
-      <c r="I203" s="183"/>
-      <c r="J203" s="183"/>
-      <c r="K203" s="183"/>
-      <c r="L203" s="184"/>
+      <c r="B203" s="185"/>
+      <c r="C203" s="186"/>
+      <c r="D203" s="186"/>
+      <c r="E203" s="186"/>
+      <c r="F203" s="186"/>
+      <c r="G203" s="186"/>
+      <c r="H203" s="186"/>
+      <c r="I203" s="186"/>
+      <c r="J203" s="186"/>
+      <c r="K203" s="186"/>
+      <c r="L203" s="187"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="185"/>
-      <c r="C204" s="186"/>
-      <c r="D204" s="186"/>
-      <c r="E204" s="186"/>
-      <c r="F204" s="186"/>
-      <c r="G204" s="186"/>
-      <c r="H204" s="186"/>
-      <c r="I204" s="186"/>
-      <c r="J204" s="186"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="187"/>
+      <c r="B204" s="188"/>
+      <c r="C204" s="189"/>
+      <c r="D204" s="189"/>
+      <c r="E204" s="189"/>
+      <c r="F204" s="189"/>
+      <c r="G204" s="189"/>
+      <c r="H204" s="189"/>
+      <c r="I204" s="189"/>
+      <c r="J204" s="189"/>
+      <c r="K204" s="189"/>
+      <c r="L204" s="190"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5989,49 +5989,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="243" t="s">
+      <c r="B214" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="244"/>
-      <c r="D214" s="244"/>
-      <c r="E214" s="244"/>
-      <c r="F214" s="244"/>
-      <c r="G214" s="244"/>
-      <c r="H214" s="244"/>
-      <c r="I214" s="244"/>
-      <c r="J214" s="244"/>
-      <c r="K214" s="244"/>
-      <c r="L214" s="245"/>
+      <c r="C214" s="205"/>
+      <c r="D214" s="205"/>
+      <c r="E214" s="205"/>
+      <c r="F214" s="205"/>
+      <c r="G214" s="205"/>
+      <c r="H214" s="205"/>
+      <c r="I214" s="205"/>
+      <c r="J214" s="205"/>
+      <c r="K214" s="205"/>
+      <c r="L214" s="206"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="246"/>
-      <c r="C215" s="247"/>
-      <c r="D215" s="247"/>
-      <c r="E215" s="247"/>
-      <c r="F215" s="247"/>
-      <c r="G215" s="247"/>
-      <c r="H215" s="247"/>
-      <c r="I215" s="247"/>
-      <c r="J215" s="247"/>
-      <c r="K215" s="247"/>
-      <c r="L215" s="248"/>
+      <c r="B215" s="207"/>
+      <c r="C215" s="208"/>
+      <c r="D215" s="208"/>
+      <c r="E215" s="208"/>
+      <c r="F215" s="208"/>
+      <c r="G215" s="208"/>
+      <c r="H215" s="208"/>
+      <c r="I215" s="208"/>
+      <c r="J215" s="208"/>
+      <c r="K215" s="208"/>
+      <c r="L215" s="209"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="249"/>
-      <c r="C216" s="250"/>
-      <c r="D216" s="250"/>
-      <c r="E216" s="250"/>
-      <c r="F216" s="250"/>
-      <c r="G216" s="250"/>
-      <c r="H216" s="250"/>
-      <c r="I216" s="250"/>
-      <c r="J216" s="250"/>
-      <c r="K216" s="250"/>
-      <c r="L216" s="251"/>
+      <c r="B216" s="210"/>
+      <c r="C216" s="211"/>
+      <c r="D216" s="211"/>
+      <c r="E216" s="211"/>
+      <c r="F216" s="211"/>
+      <c r="G216" s="211"/>
+      <c r="H216" s="211"/>
+      <c r="I216" s="211"/>
+      <c r="J216" s="211"/>
+      <c r="K216" s="211"/>
+      <c r="L216" s="212"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6066,10 +6066,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="176" t="s">
+      <c r="B219" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="176"/>
+      <c r="C219" s="166"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6194,19 +6194,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="265" t="s">
+      <c r="B227" s="176" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="266"/>
-      <c r="D227" s="266"/>
-      <c r="E227" s="266"/>
-      <c r="F227" s="266"/>
-      <c r="G227" s="266"/>
-      <c r="H227" s="266"/>
-      <c r="I227" s="266"/>
-      <c r="J227" s="266"/>
-      <c r="K227" s="266"/>
-      <c r="L227" s="267"/>
+      <c r="C227" s="177"/>
+      <c r="D227" s="177"/>
+      <c r="E227" s="177"/>
+      <c r="F227" s="177"/>
+      <c r="G227" s="177"/>
+      <c r="H227" s="177"/>
+      <c r="I227" s="177"/>
+      <c r="J227" s="177"/>
+      <c r="K227" s="177"/>
+      <c r="L227" s="178"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6315,51 +6315,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="188" t="s">
+      <c r="B235" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="189"/>
-      <c r="D235" s="189"/>
-      <c r="E235" s="189"/>
-      <c r="F235" s="189"/>
-      <c r="G235" s="189"/>
-      <c r="H235" s="189"/>
-      <c r="I235" s="189"/>
-      <c r="J235" s="189"/>
-      <c r="K235" s="189"/>
-      <c r="L235" s="190"/>
+      <c r="C235" s="273"/>
+      <c r="D235" s="273"/>
+      <c r="E235" s="273"/>
+      <c r="F235" s="273"/>
+      <c r="G235" s="273"/>
+      <c r="H235" s="273"/>
+      <c r="I235" s="273"/>
+      <c r="J235" s="273"/>
+      <c r="K235" s="273"/>
+      <c r="L235" s="274"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="191"/>
-      <c r="C236" s="192"/>
-      <c r="D236" s="192"/>
-      <c r="E236" s="192"/>
-      <c r="F236" s="192"/>
-      <c r="G236" s="192"/>
-      <c r="H236" s="192"/>
-      <c r="I236" s="192"/>
-      <c r="J236" s="192"/>
-      <c r="K236" s="192"/>
-      <c r="L236" s="193"/>
+      <c r="B236" s="275"/>
+      <c r="C236" s="276"/>
+      <c r="D236" s="276"/>
+      <c r="E236" s="276"/>
+      <c r="F236" s="276"/>
+      <c r="G236" s="276"/>
+      <c r="H236" s="276"/>
+      <c r="I236" s="276"/>
+      <c r="J236" s="276"/>
+      <c r="K236" s="276"/>
+      <c r="L236" s="277"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="194"/>
-      <c r="C237" s="195"/>
-      <c r="D237" s="195"/>
-      <c r="E237" s="195"/>
-      <c r="F237" s="195"/>
-      <c r="G237" s="195"/>
-      <c r="H237" s="195"/>
-      <c r="I237" s="195"/>
-      <c r="J237" s="195"/>
-      <c r="K237" s="195"/>
-      <c r="L237" s="196"/>
+      <c r="B237" s="278"/>
+      <c r="C237" s="279"/>
+      <c r="D237" s="279"/>
+      <c r="E237" s="279"/>
+      <c r="F237" s="279"/>
+      <c r="G237" s="279"/>
+      <c r="H237" s="279"/>
+      <c r="I237" s="279"/>
+      <c r="J237" s="279"/>
+      <c r="K237" s="279"/>
+      <c r="L237" s="280"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6474,35 +6474,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="274" t="s">
+      <c r="B245" s="169" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="274"/>
-      <c r="D245" s="274"/>
-      <c r="E245" s="274"/>
-      <c r="F245" s="274"/>
-      <c r="G245" s="274"/>
-      <c r="H245" s="274"/>
-      <c r="I245" s="274"/>
-      <c r="J245" s="274"/>
-      <c r="K245" s="274"/>
-      <c r="L245" s="274"/>
+      <c r="C245" s="169"/>
+      <c r="D245" s="169"/>
+      <c r="E245" s="169"/>
+      <c r="F245" s="169"/>
+      <c r="G245" s="169"/>
+      <c r="H245" s="169"/>
+      <c r="I245" s="169"/>
+      <c r="J245" s="169"/>
+      <c r="K245" s="169"/>
+      <c r="L245" s="169"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="274" t="s">
+      <c r="B246" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="274"/>
-      <c r="D246" s="274"/>
-      <c r="E246" s="274"/>
-      <c r="F246" s="274"/>
-      <c r="G246" s="274"/>
-      <c r="H246" s="274"/>
-      <c r="I246" s="274"/>
-      <c r="J246" s="274"/>
-      <c r="K246" s="274"/>
-      <c r="L246" s="274"/>
+      <c r="C246" s="169"/>
+      <c r="D246" s="169"/>
+      <c r="E246" s="169"/>
+      <c r="F246" s="169"/>
+      <c r="G246" s="169"/>
+      <c r="H246" s="169"/>
+      <c r="I246" s="169"/>
+      <c r="J246" s="169"/>
+      <c r="K246" s="169"/>
+      <c r="L246" s="169"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6708,83 +6708,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="179" t="s">
+      <c r="B260" s="182" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="180"/>
-      <c r="D260" s="180"/>
-      <c r="E260" s="180"/>
-      <c r="F260" s="180"/>
-      <c r="G260" s="180"/>
-      <c r="H260" s="180"/>
-      <c r="I260" s="180"/>
-      <c r="J260" s="180"/>
-      <c r="K260" s="180"/>
-      <c r="L260" s="181"/>
+      <c r="C260" s="183"/>
+      <c r="D260" s="183"/>
+      <c r="E260" s="183"/>
+      <c r="F260" s="183"/>
+      <c r="G260" s="183"/>
+      <c r="H260" s="183"/>
+      <c r="I260" s="183"/>
+      <c r="J260" s="183"/>
+      <c r="K260" s="183"/>
+      <c r="L260" s="184"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="182"/>
-      <c r="C261" s="183"/>
-      <c r="D261" s="183"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="183"/>
-      <c r="H261" s="183"/>
-      <c r="I261" s="183"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
-      <c r="L261" s="184"/>
+      <c r="B261" s="185"/>
+      <c r="C261" s="186"/>
+      <c r="D261" s="186"/>
+      <c r="E261" s="186"/>
+      <c r="F261" s="186"/>
+      <c r="G261" s="186"/>
+      <c r="H261" s="186"/>
+      <c r="I261" s="186"/>
+      <c r="J261" s="186"/>
+      <c r="K261" s="186"/>
+      <c r="L261" s="187"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="182"/>
-      <c r="C262" s="183"/>
-      <c r="D262" s="183"/>
-      <c r="E262" s="183"/>
-      <c r="F262" s="183"/>
-      <c r="G262" s="183"/>
-      <c r="H262" s="183"/>
-      <c r="I262" s="183"/>
-      <c r="J262" s="183"/>
-      <c r="K262" s="183"/>
-      <c r="L262" s="184"/>
+      <c r="B262" s="185"/>
+      <c r="C262" s="186"/>
+      <c r="D262" s="186"/>
+      <c r="E262" s="186"/>
+      <c r="F262" s="186"/>
+      <c r="G262" s="186"/>
+      <c r="H262" s="186"/>
+      <c r="I262" s="186"/>
+      <c r="J262" s="186"/>
+      <c r="K262" s="186"/>
+      <c r="L262" s="187"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="182"/>
-      <c r="C263" s="183"/>
-      <c r="D263" s="183"/>
-      <c r="E263" s="183"/>
-      <c r="F263" s="183"/>
-      <c r="G263" s="183"/>
-      <c r="H263" s="183"/>
-      <c r="I263" s="183"/>
-      <c r="J263" s="183"/>
-      <c r="K263" s="183"/>
-      <c r="L263" s="184"/>
+      <c r="B263" s="185"/>
+      <c r="C263" s="186"/>
+      <c r="D263" s="186"/>
+      <c r="E263" s="186"/>
+      <c r="F263" s="186"/>
+      <c r="G263" s="186"/>
+      <c r="H263" s="186"/>
+      <c r="I263" s="186"/>
+      <c r="J263" s="186"/>
+      <c r="K263" s="186"/>
+      <c r="L263" s="187"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="185"/>
-      <c r="C264" s="186"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
-      <c r="F264" s="186"/>
-      <c r="G264" s="186"/>
-      <c r="H264" s="186"/>
-      <c r="I264" s="186"/>
-      <c r="J264" s="186"/>
-      <c r="K264" s="186"/>
-      <c r="L264" s="187"/>
+      <c r="B264" s="188"/>
+      <c r="C264" s="189"/>
+      <c r="D264" s="189"/>
+      <c r="E264" s="189"/>
+      <c r="F264" s="189"/>
+      <c r="G264" s="189"/>
+      <c r="H264" s="189"/>
+      <c r="I264" s="189"/>
+      <c r="J264" s="189"/>
+      <c r="K264" s="189"/>
+      <c r="L264" s="190"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6840,28 +6840,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="222" t="s">
+      <c r="B268" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="222"/>
-      <c r="D268" s="216" t="s">
+      <c r="C268" s="164"/>
+      <c r="D268" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="217"/>
-      <c r="F268" s="217"/>
-      <c r="G268" s="217"/>
-      <c r="H268" s="217"/>
-      <c r="I268" s="217"/>
-      <c r="J268" s="217"/>
-      <c r="K268" s="217"/>
-      <c r="L268" s="218"/>
+      <c r="E268" s="172"/>
+      <c r="F268" s="172"/>
+      <c r="G268" s="172"/>
+      <c r="H268" s="172"/>
+      <c r="I268" s="172"/>
+      <c r="J268" s="172"/>
+      <c r="K268" s="172"/>
+      <c r="L268" s="173"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="273"/>
-      <c r="C269" s="273"/>
+      <c r="B269" s="168"/>
+      <c r="C269" s="168"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6876,8 +6876,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="273"/>
-      <c r="C270" s="273"/>
+      <c r="B270" s="168"/>
+      <c r="C270" s="168"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6892,8 +6892,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="273"/>
-      <c r="C271" s="273"/>
+      <c r="B271" s="168"/>
+      <c r="C271" s="168"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6908,8 +6908,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="273"/>
-      <c r="C272" s="273"/>
+      <c r="B272" s="168"/>
+      <c r="C272" s="168"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6974,83 +6974,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="275" t="s">
+      <c r="B276" s="170" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="275"/>
-      <c r="D276" s="275"/>
-      <c r="E276" s="275"/>
-      <c r="F276" s="275"/>
-      <c r="G276" s="275"/>
-      <c r="H276" s="275"/>
-      <c r="I276" s="275"/>
-      <c r="J276" s="275"/>
-      <c r="K276" s="275"/>
-      <c r="L276" s="275"/>
+      <c r="C276" s="170"/>
+      <c r="D276" s="170"/>
+      <c r="E276" s="170"/>
+      <c r="F276" s="170"/>
+      <c r="G276" s="170"/>
+      <c r="H276" s="170"/>
+      <c r="I276" s="170"/>
+      <c r="J276" s="170"/>
+      <c r="K276" s="170"/>
+      <c r="L276" s="170"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="275"/>
-      <c r="C277" s="275"/>
-      <c r="D277" s="275"/>
-      <c r="E277" s="275"/>
-      <c r="F277" s="275"/>
-      <c r="G277" s="275"/>
-      <c r="H277" s="275"/>
-      <c r="I277" s="275"/>
-      <c r="J277" s="275"/>
-      <c r="K277" s="275"/>
-      <c r="L277" s="275"/>
+      <c r="B277" s="170"/>
+      <c r="C277" s="170"/>
+      <c r="D277" s="170"/>
+      <c r="E277" s="170"/>
+      <c r="F277" s="170"/>
+      <c r="G277" s="170"/>
+      <c r="H277" s="170"/>
+      <c r="I277" s="170"/>
+      <c r="J277" s="170"/>
+      <c r="K277" s="170"/>
+      <c r="L277" s="170"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="275"/>
-      <c r="C278" s="275"/>
-      <c r="D278" s="275"/>
-      <c r="E278" s="275"/>
-      <c r="F278" s="275"/>
-      <c r="G278" s="275"/>
-      <c r="H278" s="275"/>
-      <c r="I278" s="275"/>
-      <c r="J278" s="275"/>
-      <c r="K278" s="275"/>
-      <c r="L278" s="275"/>
+      <c r="B278" s="170"/>
+      <c r="C278" s="170"/>
+      <c r="D278" s="170"/>
+      <c r="E278" s="170"/>
+      <c r="F278" s="170"/>
+      <c r="G278" s="170"/>
+      <c r="H278" s="170"/>
+      <c r="I278" s="170"/>
+      <c r="J278" s="170"/>
+      <c r="K278" s="170"/>
+      <c r="L278" s="170"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="275"/>
-      <c r="C279" s="275"/>
-      <c r="D279" s="275"/>
-      <c r="E279" s="275"/>
-      <c r="F279" s="275"/>
-      <c r="G279" s="275"/>
-      <c r="H279" s="275"/>
-      <c r="I279" s="275"/>
-      <c r="J279" s="275"/>
-      <c r="K279" s="275"/>
-      <c r="L279" s="275"/>
+      <c r="B279" s="170"/>
+      <c r="C279" s="170"/>
+      <c r="D279" s="170"/>
+      <c r="E279" s="170"/>
+      <c r="F279" s="170"/>
+      <c r="G279" s="170"/>
+      <c r="H279" s="170"/>
+      <c r="I279" s="170"/>
+      <c r="J279" s="170"/>
+      <c r="K279" s="170"/>
+      <c r="L279" s="170"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="275"/>
-      <c r="C280" s="275"/>
-      <c r="D280" s="275"/>
-      <c r="E280" s="275"/>
-      <c r="F280" s="275"/>
-      <c r="G280" s="275"/>
-      <c r="H280" s="275"/>
-      <c r="I280" s="275"/>
-      <c r="J280" s="275"/>
-      <c r="K280" s="275"/>
-      <c r="L280" s="275"/>
+      <c r="B280" s="170"/>
+      <c r="C280" s="170"/>
+      <c r="D280" s="170"/>
+      <c r="E280" s="170"/>
+      <c r="F280" s="170"/>
+      <c r="G280" s="170"/>
+      <c r="H280" s="170"/>
+      <c r="I280" s="170"/>
+      <c r="J280" s="170"/>
+      <c r="K280" s="170"/>
+      <c r="L280" s="170"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7106,12 +7106,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="176" t="s">
+      <c r="B284" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="176"/>
-      <c r="D284" s="176"/>
-      <c r="E284" s="177"/>
+      <c r="C284" s="166"/>
+      <c r="D284" s="166"/>
+      <c r="E284" s="167"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7122,10 +7122,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="176"/>
-      <c r="C285" s="176"/>
-      <c r="D285" s="176"/>
-      <c r="E285" s="176"/>
+      <c r="B285" s="166"/>
+      <c r="C285" s="166"/>
+      <c r="D285" s="166"/>
+      <c r="E285" s="166"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7136,12 +7136,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="176" t="s">
+      <c r="B286" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="176"/>
-      <c r="D286" s="176"/>
-      <c r="E286" s="177"/>
+      <c r="C286" s="166"/>
+      <c r="D286" s="166"/>
+      <c r="E286" s="167"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7154,10 +7154,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="176"/>
-      <c r="C287" s="176"/>
-      <c r="D287" s="176"/>
-      <c r="E287" s="176"/>
+      <c r="B287" s="166"/>
+      <c r="C287" s="166"/>
+      <c r="D287" s="166"/>
+      <c r="E287" s="166"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7168,12 +7168,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="176" t="s">
+      <c r="B288" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="176"/>
-      <c r="D288" s="176"/>
-      <c r="E288" s="177"/>
+      <c r="C288" s="166"/>
+      <c r="D288" s="166"/>
+      <c r="E288" s="167"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7198,12 +7198,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="176" t="s">
+      <c r="B290" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="176"/>
-      <c r="D290" s="176"/>
-      <c r="E290" s="177"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
+      <c r="E290" s="167"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7228,12 +7228,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="176" t="s">
+      <c r="B292" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="176"/>
-      <c r="D292" s="176"/>
-      <c r="E292" s="177"/>
+      <c r="C292" s="166"/>
+      <c r="D292" s="166"/>
+      <c r="E292" s="167"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7336,82 +7336,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="179" t="s">
+      <c r="B299" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="180"/>
-      <c r="D299" s="180"/>
-      <c r="E299" s="180"/>
-      <c r="F299" s="180"/>
-      <c r="G299" s="180"/>
-      <c r="H299" s="180"/>
-      <c r="I299" s="180"/>
-      <c r="J299" s="180"/>
-      <c r="K299" s="180"/>
-      <c r="L299" s="181"/>
+      <c r="C299" s="183"/>
+      <c r="D299" s="183"/>
+      <c r="E299" s="183"/>
+      <c r="F299" s="183"/>
+      <c r="G299" s="183"/>
+      <c r="H299" s="183"/>
+      <c r="I299" s="183"/>
+      <c r="J299" s="183"/>
+      <c r="K299" s="183"/>
+      <c r="L299" s="184"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="182"/>
-      <c r="C300" s="183"/>
-      <c r="D300" s="183"/>
-      <c r="E300" s="183"/>
-      <c r="F300" s="183"/>
-      <c r="G300" s="183"/>
-      <c r="H300" s="183"/>
-      <c r="I300" s="183"/>
-      <c r="J300" s="183"/>
-      <c r="K300" s="183"/>
-      <c r="L300" s="184"/>
+      <c r="B300" s="185"/>
+      <c r="C300" s="186"/>
+      <c r="D300" s="186"/>
+      <c r="E300" s="186"/>
+      <c r="F300" s="186"/>
+      <c r="G300" s="186"/>
+      <c r="H300" s="186"/>
+      <c r="I300" s="186"/>
+      <c r="J300" s="186"/>
+      <c r="K300" s="186"/>
+      <c r="L300" s="187"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="182"/>
-      <c r="C301" s="183"/>
-      <c r="D301" s="183"/>
-      <c r="E301" s="183"/>
-      <c r="F301" s="183"/>
-      <c r="G301" s="183"/>
-      <c r="H301" s="183"/>
-      <c r="I301" s="183"/>
-      <c r="J301" s="183"/>
-      <c r="K301" s="183"/>
-      <c r="L301" s="184"/>
+      <c r="B301" s="185"/>
+      <c r="C301" s="186"/>
+      <c r="D301" s="186"/>
+      <c r="E301" s="186"/>
+      <c r="F301" s="186"/>
+      <c r="G301" s="186"/>
+      <c r="H301" s="186"/>
+      <c r="I301" s="186"/>
+      <c r="J301" s="186"/>
+      <c r="K301" s="186"/>
+      <c r="L301" s="187"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="182"/>
-      <c r="C302" s="183"/>
-      <c r="D302" s="183"/>
-      <c r="E302" s="183"/>
-      <c r="F302" s="183"/>
-      <c r="G302" s="183"/>
-      <c r="H302" s="183"/>
-      <c r="I302" s="183"/>
-      <c r="J302" s="183"/>
-      <c r="K302" s="183"/>
-      <c r="L302" s="184"/>
+      <c r="B302" s="185"/>
+      <c r="C302" s="186"/>
+      <c r="D302" s="186"/>
+      <c r="E302" s="186"/>
+      <c r="F302" s="186"/>
+      <c r="G302" s="186"/>
+      <c r="H302" s="186"/>
+      <c r="I302" s="186"/>
+      <c r="J302" s="186"/>
+      <c r="K302" s="186"/>
+      <c r="L302" s="187"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="185"/>
-      <c r="C303" s="186"/>
-      <c r="D303" s="186"/>
-      <c r="E303" s="186"/>
-      <c r="F303" s="186"/>
-      <c r="G303" s="186"/>
-      <c r="H303" s="186"/>
-      <c r="I303" s="186"/>
-      <c r="J303" s="186"/>
-      <c r="K303" s="186"/>
-      <c r="L303" s="187"/>
+      <c r="B303" s="188"/>
+      <c r="C303" s="189"/>
+      <c r="D303" s="189"/>
+      <c r="E303" s="189"/>
+      <c r="F303" s="189"/>
+      <c r="G303" s="189"/>
+      <c r="H303" s="189"/>
+      <c r="I303" s="189"/>
+      <c r="J303" s="189"/>
+      <c r="K303" s="189"/>
+      <c r="L303" s="190"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7450,83 +7450,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="179" t="s">
+      <c r="B306" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="180"/>
-      <c r="D306" s="180"/>
-      <c r="E306" s="180"/>
-      <c r="F306" s="180"/>
-      <c r="G306" s="180"/>
-      <c r="H306" s="180"/>
-      <c r="I306" s="180"/>
-      <c r="J306" s="180"/>
-      <c r="K306" s="180"/>
-      <c r="L306" s="181"/>
+      <c r="C306" s="183"/>
+      <c r="D306" s="183"/>
+      <c r="E306" s="183"/>
+      <c r="F306" s="183"/>
+      <c r="G306" s="183"/>
+      <c r="H306" s="183"/>
+      <c r="I306" s="183"/>
+      <c r="J306" s="183"/>
+      <c r="K306" s="183"/>
+      <c r="L306" s="184"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="182"/>
-      <c r="C307" s="183"/>
-      <c r="D307" s="183"/>
-      <c r="E307" s="183"/>
-      <c r="F307" s="183"/>
-      <c r="G307" s="183"/>
-      <c r="H307" s="183"/>
-      <c r="I307" s="183"/>
-      <c r="J307" s="183"/>
-      <c r="K307" s="183"/>
-      <c r="L307" s="184"/>
+      <c r="B307" s="185"/>
+      <c r="C307" s="186"/>
+      <c r="D307" s="186"/>
+      <c r="E307" s="186"/>
+      <c r="F307" s="186"/>
+      <c r="G307" s="186"/>
+      <c r="H307" s="186"/>
+      <c r="I307" s="186"/>
+      <c r="J307" s="186"/>
+      <c r="K307" s="186"/>
+      <c r="L307" s="187"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="182"/>
-      <c r="C308" s="183"/>
-      <c r="D308" s="183"/>
-      <c r="E308" s="183"/>
-      <c r="F308" s="183"/>
-      <c r="G308" s="183"/>
-      <c r="H308" s="183"/>
-      <c r="I308" s="183"/>
-      <c r="J308" s="183"/>
-      <c r="K308" s="183"/>
-      <c r="L308" s="184"/>
+      <c r="B308" s="185"/>
+      <c r="C308" s="186"/>
+      <c r="D308" s="186"/>
+      <c r="E308" s="186"/>
+      <c r="F308" s="186"/>
+      <c r="G308" s="186"/>
+      <c r="H308" s="186"/>
+      <c r="I308" s="186"/>
+      <c r="J308" s="186"/>
+      <c r="K308" s="186"/>
+      <c r="L308" s="187"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="182"/>
-      <c r="C309" s="183"/>
-      <c r="D309" s="183"/>
-      <c r="E309" s="183"/>
-      <c r="F309" s="183"/>
-      <c r="G309" s="183"/>
-      <c r="H309" s="183"/>
-      <c r="I309" s="183"/>
-      <c r="J309" s="183"/>
-      <c r="K309" s="183"/>
-      <c r="L309" s="184"/>
+      <c r="B309" s="185"/>
+      <c r="C309" s="186"/>
+      <c r="D309" s="186"/>
+      <c r="E309" s="186"/>
+      <c r="F309" s="186"/>
+      <c r="G309" s="186"/>
+      <c r="H309" s="186"/>
+      <c r="I309" s="186"/>
+      <c r="J309" s="186"/>
+      <c r="K309" s="186"/>
+      <c r="L309" s="187"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="185"/>
-      <c r="C310" s="186"/>
-      <c r="D310" s="186"/>
-      <c r="E310" s="186"/>
-      <c r="F310" s="186"/>
-      <c r="G310" s="186"/>
-      <c r="H310" s="186"/>
-      <c r="I310" s="186"/>
-      <c r="J310" s="186"/>
-      <c r="K310" s="186"/>
-      <c r="L310" s="187"/>
+      <c r="B310" s="188"/>
+      <c r="C310" s="189"/>
+      <c r="D310" s="189"/>
+      <c r="E310" s="189"/>
+      <c r="F310" s="189"/>
+      <c r="G310" s="189"/>
+      <c r="H310" s="189"/>
+      <c r="I310" s="189"/>
+      <c r="J310" s="189"/>
+      <c r="K310" s="189"/>
+      <c r="L310" s="190"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7706,83 +7706,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="179" t="s">
+      <c r="B321" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="180"/>
-      <c r="D321" s="180"/>
-      <c r="E321" s="180"/>
-      <c r="F321" s="180"/>
-      <c r="G321" s="180"/>
-      <c r="H321" s="180"/>
-      <c r="I321" s="180"/>
-      <c r="J321" s="180"/>
-      <c r="K321" s="180"/>
-      <c r="L321" s="181"/>
+      <c r="C321" s="183"/>
+      <c r="D321" s="183"/>
+      <c r="E321" s="183"/>
+      <c r="F321" s="183"/>
+      <c r="G321" s="183"/>
+      <c r="H321" s="183"/>
+      <c r="I321" s="183"/>
+      <c r="J321" s="183"/>
+      <c r="K321" s="183"/>
+      <c r="L321" s="184"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="182"/>
-      <c r="C322" s="183"/>
-      <c r="D322" s="183"/>
-      <c r="E322" s="183"/>
-      <c r="F322" s="183"/>
-      <c r="G322" s="183"/>
-      <c r="H322" s="183"/>
-      <c r="I322" s="183"/>
-      <c r="J322" s="183"/>
-      <c r="K322" s="183"/>
-      <c r="L322" s="184"/>
+      <c r="B322" s="185"/>
+      <c r="C322" s="186"/>
+      <c r="D322" s="186"/>
+      <c r="E322" s="186"/>
+      <c r="F322" s="186"/>
+      <c r="G322" s="186"/>
+      <c r="H322" s="186"/>
+      <c r="I322" s="186"/>
+      <c r="J322" s="186"/>
+      <c r="K322" s="186"/>
+      <c r="L322" s="187"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="182"/>
-      <c r="C323" s="183"/>
-      <c r="D323" s="183"/>
-      <c r="E323" s="183"/>
-      <c r="F323" s="183"/>
-      <c r="G323" s="183"/>
-      <c r="H323" s="183"/>
-      <c r="I323" s="183"/>
-      <c r="J323" s="183"/>
-      <c r="K323" s="183"/>
-      <c r="L323" s="184"/>
+      <c r="B323" s="185"/>
+      <c r="C323" s="186"/>
+      <c r="D323" s="186"/>
+      <c r="E323" s="186"/>
+      <c r="F323" s="186"/>
+      <c r="G323" s="186"/>
+      <c r="H323" s="186"/>
+      <c r="I323" s="186"/>
+      <c r="J323" s="186"/>
+      <c r="K323" s="186"/>
+      <c r="L323" s="187"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="182"/>
-      <c r="C324" s="183"/>
-      <c r="D324" s="183"/>
-      <c r="E324" s="183"/>
-      <c r="F324" s="183"/>
-      <c r="G324" s="183"/>
-      <c r="H324" s="183"/>
-      <c r="I324" s="183"/>
-      <c r="J324" s="183"/>
-      <c r="K324" s="183"/>
-      <c r="L324" s="184"/>
+      <c r="B324" s="185"/>
+      <c r="C324" s="186"/>
+      <c r="D324" s="186"/>
+      <c r="E324" s="186"/>
+      <c r="F324" s="186"/>
+      <c r="G324" s="186"/>
+      <c r="H324" s="186"/>
+      <c r="I324" s="186"/>
+      <c r="J324" s="186"/>
+      <c r="K324" s="186"/>
+      <c r="L324" s="187"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="185"/>
-      <c r="C325" s="186"/>
-      <c r="D325" s="186"/>
-      <c r="E325" s="186"/>
-      <c r="F325" s="186"/>
-      <c r="G325" s="186"/>
-      <c r="H325" s="186"/>
-      <c r="I325" s="186"/>
-      <c r="J325" s="186"/>
-      <c r="K325" s="186"/>
-      <c r="L325" s="187"/>
+      <c r="B325" s="188"/>
+      <c r="C325" s="189"/>
+      <c r="D325" s="189"/>
+      <c r="E325" s="189"/>
+      <c r="F325" s="189"/>
+      <c r="G325" s="189"/>
+      <c r="H325" s="189"/>
+      <c r="I325" s="189"/>
+      <c r="J325" s="189"/>
+      <c r="K325" s="189"/>
+      <c r="L325" s="190"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7804,19 +7804,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="178" t="s">
+      <c r="B327" s="271" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="178"/>
-      <c r="D327" s="178"/>
-      <c r="E327" s="178"/>
-      <c r="F327" s="178"/>
-      <c r="G327" s="178"/>
-      <c r="H327" s="178"/>
-      <c r="I327" s="178"/>
-      <c r="J327" s="178"/>
-      <c r="K327" s="178"/>
-      <c r="L327" s="178"/>
+      <c r="C327" s="271"/>
+      <c r="D327" s="271"/>
+      <c r="E327" s="271"/>
+      <c r="F327" s="271"/>
+      <c r="G327" s="271"/>
+      <c r="H327" s="271"/>
+      <c r="I327" s="271"/>
+      <c r="J327" s="271"/>
+      <c r="K327" s="271"/>
+      <c r="L327" s="271"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7931,79 +7931,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="188" t="s">
+      <c r="B335" s="272" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="189"/>
-      <c r="D335" s="189"/>
-      <c r="E335" s="189"/>
-      <c r="F335" s="189"/>
-      <c r="G335" s="189"/>
-      <c r="H335" s="189"/>
-      <c r="I335" s="189"/>
-      <c r="J335" s="189"/>
-      <c r="K335" s="189"/>
-      <c r="L335" s="190"/>
+      <c r="C335" s="273"/>
+      <c r="D335" s="273"/>
+      <c r="E335" s="273"/>
+      <c r="F335" s="273"/>
+      <c r="G335" s="273"/>
+      <c r="H335" s="273"/>
+      <c r="I335" s="273"/>
+      <c r="J335" s="273"/>
+      <c r="K335" s="273"/>
+      <c r="L335" s="274"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="191"/>
-      <c r="C336" s="192"/>
-      <c r="D336" s="192"/>
-      <c r="E336" s="192"/>
-      <c r="F336" s="192"/>
-      <c r="G336" s="192"/>
-      <c r="H336" s="192"/>
-      <c r="I336" s="192"/>
-      <c r="J336" s="192"/>
-      <c r="K336" s="192"/>
-      <c r="L336" s="193"/>
+      <c r="B336" s="275"/>
+      <c r="C336" s="276"/>
+      <c r="D336" s="276"/>
+      <c r="E336" s="276"/>
+      <c r="F336" s="276"/>
+      <c r="G336" s="276"/>
+      <c r="H336" s="276"/>
+      <c r="I336" s="276"/>
+      <c r="J336" s="276"/>
+      <c r="K336" s="276"/>
+      <c r="L336" s="277"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="191"/>
-      <c r="C337" s="192"/>
-      <c r="D337" s="192"/>
-      <c r="E337" s="192"/>
-      <c r="F337" s="192"/>
-      <c r="G337" s="192"/>
-      <c r="H337" s="192"/>
-      <c r="I337" s="192"/>
-      <c r="J337" s="192"/>
-      <c r="K337" s="192"/>
-      <c r="L337" s="193"/>
+      <c r="B337" s="275"/>
+      <c r="C337" s="276"/>
+      <c r="D337" s="276"/>
+      <c r="E337" s="276"/>
+      <c r="F337" s="276"/>
+      <c r="G337" s="276"/>
+      <c r="H337" s="276"/>
+      <c r="I337" s="276"/>
+      <c r="J337" s="276"/>
+      <c r="K337" s="276"/>
+      <c r="L337" s="277"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="191"/>
-      <c r="C338" s="192"/>
-      <c r="D338" s="192"/>
-      <c r="E338" s="192"/>
-      <c r="F338" s="192"/>
-      <c r="G338" s="192"/>
-      <c r="H338" s="192"/>
-      <c r="I338" s="192"/>
-      <c r="J338" s="192"/>
-      <c r="K338" s="192"/>
-      <c r="L338" s="193"/>
+      <c r="B338" s="275"/>
+      <c r="C338" s="276"/>
+      <c r="D338" s="276"/>
+      <c r="E338" s="276"/>
+      <c r="F338" s="276"/>
+      <c r="G338" s="276"/>
+      <c r="H338" s="276"/>
+      <c r="I338" s="276"/>
+      <c r="J338" s="276"/>
+      <c r="K338" s="276"/>
+      <c r="L338" s="277"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="194"/>
-      <c r="C339" s="195"/>
-      <c r="D339" s="195"/>
-      <c r="E339" s="195"/>
-      <c r="F339" s="195"/>
-      <c r="G339" s="195"/>
-      <c r="H339" s="195"/>
-      <c r="I339" s="195"/>
-      <c r="J339" s="195"/>
-      <c r="K339" s="195"/>
-      <c r="L339" s="196"/>
+      <c r="B339" s="278"/>
+      <c r="C339" s="279"/>
+      <c r="D339" s="279"/>
+      <c r="E339" s="279"/>
+      <c r="F339" s="279"/>
+      <c r="G339" s="279"/>
+      <c r="H339" s="279"/>
+      <c r="I339" s="279"/>
+      <c r="J339" s="279"/>
+      <c r="K339" s="279"/>
+      <c r="L339" s="280"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8023,19 +8023,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="178" t="s">
+      <c r="B341" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="178"/>
-      <c r="D341" s="178"/>
-      <c r="E341" s="178"/>
-      <c r="F341" s="178"/>
-      <c r="G341" s="178"/>
-      <c r="H341" s="178"/>
-      <c r="I341" s="178"/>
-      <c r="J341" s="178"/>
-      <c r="K341" s="178"/>
-      <c r="L341" s="178"/>
+      <c r="C341" s="271"/>
+      <c r="D341" s="271"/>
+      <c r="E341" s="271"/>
+      <c r="F341" s="271"/>
+      <c r="G341" s="271"/>
+      <c r="H341" s="271"/>
+      <c r="I341" s="271"/>
+      <c r="J341" s="271"/>
+      <c r="K341" s="271"/>
+      <c r="L341" s="271"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8084,12 +8084,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="175" t="s">
+      <c r="B345" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="175"/>
-      <c r="D345" s="175"/>
-      <c r="E345" s="175"/>
+      <c r="C345" s="192"/>
+      <c r="D345" s="192"/>
+      <c r="E345" s="192"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8112,12 +8112,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="175" t="s">
+      <c r="B347" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="175"/>
-      <c r="D347" s="175"/>
-      <c r="E347" s="175"/>
+      <c r="C347" s="192"/>
+      <c r="D347" s="192"/>
+      <c r="E347" s="192"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8142,13 +8142,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="175" t="s">
+      <c r="B349" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="175"/>
-      <c r="D349" s="175"/>
-      <c r="E349" s="175"/>
-      <c r="F349" s="177"/>
+      <c r="C349" s="192"/>
+      <c r="D349" s="192"/>
+      <c r="E349" s="192"/>
+      <c r="F349" s="167"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8171,13 +8171,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="175" t="s">
+      <c r="B351" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="175"/>
-      <c r="D351" s="175"/>
-      <c r="E351" s="175"/>
-      <c r="F351" s="177"/>
+      <c r="C351" s="192"/>
+      <c r="D351" s="192"/>
+      <c r="E351" s="192"/>
+      <c r="F351" s="167"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8200,13 +8200,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="175" t="s">
+      <c r="B353" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="175"/>
-      <c r="D353" s="175"/>
-      <c r="E353" s="175"/>
-      <c r="F353" s="177"/>
+      <c r="C353" s="192"/>
+      <c r="D353" s="192"/>
+      <c r="E353" s="192"/>
+      <c r="F353" s="167"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8278,83 +8278,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="179" t="s">
+      <c r="B358" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="180"/>
-      <c r="D358" s="180"/>
-      <c r="E358" s="180"/>
-      <c r="F358" s="180"/>
-      <c r="G358" s="180"/>
-      <c r="H358" s="180"/>
-      <c r="I358" s="180"/>
-      <c r="J358" s="180"/>
-      <c r="K358" s="180"/>
-      <c r="L358" s="181"/>
+      <c r="C358" s="183"/>
+      <c r="D358" s="183"/>
+      <c r="E358" s="183"/>
+      <c r="F358" s="183"/>
+      <c r="G358" s="183"/>
+      <c r="H358" s="183"/>
+      <c r="I358" s="183"/>
+      <c r="J358" s="183"/>
+      <c r="K358" s="183"/>
+      <c r="L358" s="184"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="182"/>
-      <c r="C359" s="183"/>
-      <c r="D359" s="183"/>
-      <c r="E359" s="183"/>
-      <c r="F359" s="183"/>
-      <c r="G359" s="183"/>
-      <c r="H359" s="183"/>
-      <c r="I359" s="183"/>
-      <c r="J359" s="183"/>
-      <c r="K359" s="183"/>
-      <c r="L359" s="184"/>
+      <c r="B359" s="185"/>
+      <c r="C359" s="186"/>
+      <c r="D359" s="186"/>
+      <c r="E359" s="186"/>
+      <c r="F359" s="186"/>
+      <c r="G359" s="186"/>
+      <c r="H359" s="186"/>
+      <c r="I359" s="186"/>
+      <c r="J359" s="186"/>
+      <c r="K359" s="186"/>
+      <c r="L359" s="187"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="182"/>
-      <c r="C360" s="183"/>
-      <c r="D360" s="183"/>
-      <c r="E360" s="183"/>
-      <c r="F360" s="183"/>
-      <c r="G360" s="183"/>
-      <c r="H360" s="183"/>
-      <c r="I360" s="183"/>
-      <c r="J360" s="183"/>
-      <c r="K360" s="183"/>
-      <c r="L360" s="184"/>
+      <c r="B360" s="185"/>
+      <c r="C360" s="186"/>
+      <c r="D360" s="186"/>
+      <c r="E360" s="186"/>
+      <c r="F360" s="186"/>
+      <c r="G360" s="186"/>
+      <c r="H360" s="186"/>
+      <c r="I360" s="186"/>
+      <c r="J360" s="186"/>
+      <c r="K360" s="186"/>
+      <c r="L360" s="187"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="182"/>
-      <c r="C361" s="183"/>
-      <c r="D361" s="183"/>
-      <c r="E361" s="183"/>
-      <c r="F361" s="183"/>
-      <c r="G361" s="183"/>
-      <c r="H361" s="183"/>
-      <c r="I361" s="183"/>
-      <c r="J361" s="183"/>
-      <c r="K361" s="183"/>
-      <c r="L361" s="184"/>
+      <c r="B361" s="185"/>
+      <c r="C361" s="186"/>
+      <c r="D361" s="186"/>
+      <c r="E361" s="186"/>
+      <c r="F361" s="186"/>
+      <c r="G361" s="186"/>
+      <c r="H361" s="186"/>
+      <c r="I361" s="186"/>
+      <c r="J361" s="186"/>
+      <c r="K361" s="186"/>
+      <c r="L361" s="187"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="185"/>
-      <c r="C362" s="186"/>
-      <c r="D362" s="186"/>
-      <c r="E362" s="186"/>
-      <c r="F362" s="186"/>
-      <c r="G362" s="186"/>
-      <c r="H362" s="186"/>
-      <c r="I362" s="186"/>
-      <c r="J362" s="186"/>
-      <c r="K362" s="186"/>
-      <c r="L362" s="187"/>
+      <c r="B362" s="188"/>
+      <c r="C362" s="189"/>
+      <c r="D362" s="189"/>
+      <c r="E362" s="189"/>
+      <c r="F362" s="189"/>
+      <c r="G362" s="189"/>
+      <c r="H362" s="189"/>
+      <c r="I362" s="189"/>
+      <c r="J362" s="189"/>
+      <c r="K362" s="189"/>
+      <c r="L362" s="190"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8429,28 +8429,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="201" t="s">
+      <c r="B367" s="256" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="202"/>
-      <c r="D367" s="173" t="s">
+      <c r="C367" s="257"/>
+      <c r="D367" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="197"/>
-      <c r="F367" s="197"/>
-      <c r="G367" s="197"/>
-      <c r="H367" s="197"/>
-      <c r="I367" s="197"/>
-      <c r="J367" s="197"/>
-      <c r="K367" s="197"/>
-      <c r="L367" s="174"/>
+      <c r="E367" s="247"/>
+      <c r="F367" s="247"/>
+      <c r="G367" s="247"/>
+      <c r="H367" s="247"/>
+      <c r="I367" s="247"/>
+      <c r="J367" s="247"/>
+      <c r="K367" s="247"/>
+      <c r="L367" s="248"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="173"/>
-      <c r="C368" s="174"/>
+      <c r="B368" s="246"/>
+      <c r="C368" s="248"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8465,19 +8465,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="232" t="s">
+      <c r="B369" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="232"/>
-      <c r="D369" s="232"/>
-      <c r="E369" s="232"/>
-      <c r="F369" s="232"/>
-      <c r="G369" s="232"/>
-      <c r="H369" s="232"/>
-      <c r="I369" s="232"/>
-      <c r="J369" s="232"/>
-      <c r="K369" s="232"/>
-      <c r="L369" s="232"/>
+      <c r="C369" s="191"/>
+      <c r="D369" s="191"/>
+      <c r="E369" s="191"/>
+      <c r="F369" s="191"/>
+      <c r="G369" s="191"/>
+      <c r="H369" s="191"/>
+      <c r="I369" s="191"/>
+      <c r="J369" s="191"/>
+      <c r="K369" s="191"/>
+      <c r="L369" s="191"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8565,20 +8565,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="208" t="s">
+      <c r="C375" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="208"/>
-      <c r="E375" s="207" t="s">
+      <c r="D375" s="235"/>
+      <c r="E375" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="207"/>
-      <c r="G375" s="207"/>
-      <c r="H375" s="207" t="s">
+      <c r="F375" s="236"/>
+      <c r="G375" s="236"/>
+      <c r="H375" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="207"/>
-      <c r="J375" s="207"/>
+      <c r="I375" s="236"/>
+      <c r="J375" s="236"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8588,14 +8588,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="208"/>
-      <c r="D376" s="208"/>
-      <c r="E376" s="207"/>
-      <c r="F376" s="207"/>
-      <c r="G376" s="207"/>
-      <c r="H376" s="207"/>
-      <c r="I376" s="207"/>
-      <c r="J376" s="207"/>
+      <c r="C376" s="235"/>
+      <c r="D376" s="235"/>
+      <c r="E376" s="236"/>
+      <c r="F376" s="236"/>
+      <c r="G376" s="236"/>
+      <c r="H376" s="236"/>
+      <c r="I376" s="236"/>
+      <c r="J376" s="236"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8605,14 +8605,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="208"/>
-      <c r="D377" s="208"/>
-      <c r="E377" s="207"/>
-      <c r="F377" s="207"/>
-      <c r="G377" s="207"/>
-      <c r="H377" s="207"/>
-      <c r="I377" s="207"/>
-      <c r="J377" s="207"/>
+      <c r="C377" s="235"/>
+      <c r="D377" s="235"/>
+      <c r="E377" s="236"/>
+      <c r="F377" s="236"/>
+      <c r="G377" s="236"/>
+      <c r="H377" s="236"/>
+      <c r="I377" s="236"/>
+      <c r="J377" s="236"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8622,14 +8622,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="208"/>
-      <c r="D378" s="208"/>
-      <c r="E378" s="207"/>
-      <c r="F378" s="207"/>
-      <c r="G378" s="207"/>
-      <c r="H378" s="207"/>
-      <c r="I378" s="207"/>
-      <c r="J378" s="207"/>
+      <c r="C378" s="235"/>
+      <c r="D378" s="235"/>
+      <c r="E378" s="236"/>
+      <c r="F378" s="236"/>
+      <c r="G378" s="236"/>
+      <c r="H378" s="236"/>
+      <c r="I378" s="236"/>
+      <c r="J378" s="236"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8639,14 +8639,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="208"/>
-      <c r="D379" s="208"/>
-      <c r="E379" s="207"/>
-      <c r="F379" s="207"/>
-      <c r="G379" s="207"/>
-      <c r="H379" s="207"/>
-      <c r="I379" s="207"/>
-      <c r="J379" s="207"/>
+      <c r="C379" s="235"/>
+      <c r="D379" s="235"/>
+      <c r="E379" s="236"/>
+      <c r="F379" s="236"/>
+      <c r="G379" s="236"/>
+      <c r="H379" s="236"/>
+      <c r="I379" s="236"/>
+      <c r="J379" s="236"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8656,14 +8656,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="208"/>
-      <c r="D380" s="208"/>
-      <c r="E380" s="207"/>
-      <c r="F380" s="207"/>
-      <c r="G380" s="207"/>
-      <c r="H380" s="207"/>
-      <c r="I380" s="207"/>
-      <c r="J380" s="207"/>
+      <c r="C380" s="235"/>
+      <c r="D380" s="235"/>
+      <c r="E380" s="236"/>
+      <c r="F380" s="236"/>
+      <c r="G380" s="236"/>
+      <c r="H380" s="236"/>
+      <c r="I380" s="236"/>
+      <c r="J380" s="236"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8673,14 +8673,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="208"/>
-      <c r="D381" s="208"/>
-      <c r="E381" s="207"/>
-      <c r="F381" s="207"/>
-      <c r="G381" s="207"/>
-      <c r="H381" s="207"/>
-      <c r="I381" s="207"/>
-      <c r="J381" s="207"/>
+      <c r="C381" s="235"/>
+      <c r="D381" s="235"/>
+      <c r="E381" s="236"/>
+      <c r="F381" s="236"/>
+      <c r="G381" s="236"/>
+      <c r="H381" s="236"/>
+      <c r="I381" s="236"/>
+      <c r="J381" s="236"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8690,14 +8690,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="208"/>
-      <c r="D382" s="208"/>
-      <c r="E382" s="207"/>
-      <c r="F382" s="207"/>
-      <c r="G382" s="207"/>
-      <c r="H382" s="207"/>
-      <c r="I382" s="207"/>
-      <c r="J382" s="207"/>
+      <c r="C382" s="235"/>
+      <c r="D382" s="235"/>
+      <c r="E382" s="236"/>
+      <c r="F382" s="236"/>
+      <c r="G382" s="236"/>
+      <c r="H382" s="236"/>
+      <c r="I382" s="236"/>
+      <c r="J382" s="236"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8822,10 +8822,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="208" t="s">
+      <c r="C392" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="208"/>
+      <c r="D392" s="235"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8833,43 +8833,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="222" t="s">
+      <c r="B393" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="222" t="s">
+      <c r="C393" s="164" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="222" t="s">
+      <c r="D393" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="222" t="s">
+      <c r="E393" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="223" t="s">
+      <c r="F393" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="223" t="s">
+      <c r="G393" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="223" t="s">
+      <c r="H393" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="207" t="s">
+      <c r="I393" s="236" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="207"/>
+      <c r="J393" s="236"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="222"/>
-      <c r="C394" s="222"/>
-      <c r="D394" s="222"/>
-      <c r="E394" s="222"/>
-      <c r="F394" s="224"/>
-      <c r="G394" s="224"/>
-      <c r="H394" s="224"/>
+      <c r="B394" s="164"/>
+      <c r="C394" s="164"/>
+      <c r="D394" s="164"/>
+      <c r="E394" s="164"/>
+      <c r="F394" s="238"/>
+      <c r="G394" s="238"/>
+      <c r="H394" s="238"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9174,21 +9174,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="216" t="s">
+      <c r="B414" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="218"/>
-      <c r="D414" s="216" t="s">
+      <c r="C414" s="173"/>
+      <c r="D414" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="217"/>
-      <c r="F414" s="217"/>
-      <c r="G414" s="217"/>
-      <c r="H414" s="217"/>
-      <c r="I414" s="217"/>
-      <c r="J414" s="218"/>
+      <c r="E414" s="172"/>
+      <c r="F414" s="172"/>
+      <c r="G414" s="172"/>
+      <c r="H414" s="172"/>
+      <c r="I414" s="172"/>
+      <c r="J414" s="173"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="223" t="s">
+      <c r="L414" s="237" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9222,7 +9222,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="224"/>
+      <c r="L415" s="238"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9468,23 +9468,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="216" t="s">
+      <c r="B431" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="218"/>
-      <c r="D431" s="231" t="s">
+      <c r="C431" s="173"/>
+      <c r="D431" s="245" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="216" t="s">
+      <c r="E431" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="217"/>
-      <c r="G431" s="217"/>
-      <c r="H431" s="217"/>
-      <c r="I431" s="217"/>
-      <c r="J431" s="218"/>
+      <c r="F431" s="172"/>
+      <c r="G431" s="172"/>
+      <c r="H431" s="172"/>
+      <c r="I431" s="172"/>
+      <c r="J431" s="173"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="223" t="s">
+      <c r="L431" s="237" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="208"/>
+      <c r="D432" s="235"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="224"/>
+      <c r="L432" s="238"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9704,26 +9704,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="212" t="s">
+      <c r="B445" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="213"/>
-      <c r="D445" s="216" t="s">
+      <c r="C445" s="252"/>
+      <c r="D445" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="217"/>
-      <c r="F445" s="217"/>
-      <c r="G445" s="217"/>
-      <c r="H445" s="217"/>
-      <c r="I445" s="217"/>
-      <c r="J445" s="218"/>
+      <c r="E445" s="172"/>
+      <c r="F445" s="172"/>
+      <c r="G445" s="172"/>
+      <c r="H445" s="172"/>
+      <c r="I445" s="172"/>
+      <c r="J445" s="173"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="219"/>
+      <c r="L445" s="255"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="214"/>
-      <c r="C446" s="215"/>
+      <c r="B446" s="253"/>
+      <c r="C446" s="254"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9746,14 +9746,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="219"/>
+      <c r="L446" s="255"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="173" t="s">
+      <c r="B447" s="246" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="174"/>
+      <c r="C447" s="248"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="173" t="s">
+      <c r="B448" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="174"/>
+      <c r="C448" s="248"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9780,10 +9780,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="173" t="s">
+      <c r="B449" s="246" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="174"/>
+      <c r="C449" s="248"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9795,10 +9795,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="216" t="s">
+      <c r="B450" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="218"/>
+      <c r="C450" s="173"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10134,18 +10134,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="228" t="s">
+      <c r="C472" s="242" t="s">
         <v>339</v>
       </c>
-      <c r="D472" s="229"/>
-      <c r="E472" s="229"/>
-      <c r="F472" s="229"/>
-      <c r="G472" s="229"/>
-      <c r="H472" s="229"/>
-      <c r="I472" s="229"/>
-      <c r="J472" s="229"/>
-      <c r="K472" s="229"/>
-      <c r="L472" s="230"/>
+      <c r="D472" s="243"/>
+      <c r="E472" s="243"/>
+      <c r="F472" s="243"/>
+      <c r="G472" s="243"/>
+      <c r="H472" s="243"/>
+      <c r="I472" s="243"/>
+      <c r="J472" s="243"/>
+      <c r="K472" s="243"/>
+      <c r="L472" s="244"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10181,10 +10181,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="208" t="s">
+      <c r="C475" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="208"/>
+      <c r="D475" s="235"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10196,43 +10196,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="222" t="s">
+      <c r="B476" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="222" t="s">
+      <c r="C476" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="222" t="s">
+      <c r="D476" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="222" t="s">
+      <c r="E476" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="223" t="s">
+      <c r="F476" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="223" t="s">
+      <c r="G476" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="223" t="s">
+      <c r="H476" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="225" t="s">
+      <c r="I476" s="239" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="226"/>
-      <c r="K476" s="226"/>
-      <c r="L476" s="227"/>
+      <c r="J476" s="240"/>
+      <c r="K476" s="240"/>
+      <c r="L476" s="241"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="222"/>
-      <c r="C477" s="222"/>
-      <c r="D477" s="222"/>
-      <c r="E477" s="222"/>
-      <c r="F477" s="224"/>
-      <c r="G477" s="224"/>
-      <c r="H477" s="224"/>
+      <c r="B477" s="164"/>
+      <c r="C477" s="164"/>
+      <c r="D477" s="164"/>
+      <c r="E477" s="164"/>
+      <c r="F477" s="238"/>
+      <c r="G477" s="238"/>
+      <c r="H477" s="238"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10378,7 +10378,9 @@
         <v>344</v>
       </c>
       <c r="G484" s="102"/>
-      <c r="H484" s="127"/>
+      <c r="H484" s="127">
+        <v>63017.78</v>
+      </c>
       <c r="I484" s="102"/>
       <c r="J484" s="102"/>
       <c r="K484" s="102"/>
@@ -10391,10 +10393,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="203" t="s">
+      <c r="F485" s="258" t="s">
         <v>277</v>
       </c>
-      <c r="G485" s="203"/>
+      <c r="G485" s="258"/>
       <c r="H485" s="127">
         <v>10000</v>
       </c>
@@ -10413,10 +10415,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="204" t="s">
+      <c r="F486" s="259" t="s">
         <v>278</v>
       </c>
-      <c r="G486" s="204"/>
+      <c r="G486" s="259"/>
       <c r="H486" s="127">
         <v>24961.5</v>
       </c>
@@ -10442,7 +10444,9 @@
         <v>345</v>
       </c>
       <c r="G487" s="163"/>
-      <c r="H487" s="127"/>
+      <c r="H487" s="127">
+        <v>15464.06</v>
+      </c>
       <c r="I487" s="102"/>
       <c r="J487" s="102"/>
       <c r="K487" s="102"/>
@@ -10455,10 +10459,10 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="204" t="s">
+      <c r="F488" s="259" t="s">
         <v>195</v>
       </c>
-      <c r="G488" s="204"/>
+      <c r="G488" s="259"/>
       <c r="H488" s="127">
         <v>17290.75</v>
       </c>
@@ -10477,13 +10481,13 @@
       <c r="C489" s="79"/>
       <c r="D489" s="79"/>
       <c r="E489" s="39"/>
-      <c r="F489" s="211" t="s">
+      <c r="F489" s="250" t="s">
         <v>196</v>
       </c>
-      <c r="G489" s="211"/>
+      <c r="G489" s="250"/>
       <c r="H489" s="138">
         <f>SUM(H478:H488)+0.01</f>
-        <v>204676.86000000002</v>
+        <v>283158.7</v>
       </c>
       <c r="I489" s="102"/>
       <c r="J489" s="102"/>
@@ -10625,27 +10629,27 @@
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="212" t="s">
+      <c r="B498" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="C498" s="213"/>
-      <c r="D498" s="216" t="s">
+      <c r="C498" s="252"/>
+      <c r="D498" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E498" s="217"/>
-      <c r="F498" s="217"/>
-      <c r="G498" s="217"/>
-      <c r="H498" s="217"/>
-      <c r="I498" s="217"/>
-      <c r="J498" s="218"/>
+      <c r="E498" s="172"/>
+      <c r="F498" s="172"/>
+      <c r="G498" s="172"/>
+      <c r="H498" s="172"/>
+      <c r="I498" s="172"/>
+      <c r="J498" s="173"/>
       <c r="K498" s="21"/>
-      <c r="L498" s="219"/>
+      <c r="L498" s="255"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="214"/>
-      <c r="C499" s="215"/>
+      <c r="B499" s="253"/>
+      <c r="C499" s="254"/>
       <c r="D499" s="74">
         <v>1</v>
       </c>
@@ -10668,15 +10672,15 @@
         <v>10</v>
       </c>
       <c r="K499" s="21"/>
-      <c r="L499" s="219"/>
+      <c r="L499" s="255"/>
       <c r="M499" s="79"/>
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="220" t="s">
+      <c r="B500" s="229" t="s">
         <v>340</v>
       </c>
-      <c r="C500" s="221"/>
+      <c r="C500" s="231"/>
       <c r="D500" s="102"/>
       <c r="E500" s="142">
         <v>3500</v>
@@ -10698,10 +10702,10 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
-      <c r="B501" s="173" t="s">
+      <c r="B501" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="C501" s="174"/>
+      <c r="C501" s="248"/>
       <c r="D501" s="81"/>
       <c r="E501" s="81"/>
       <c r="F501" s="81"/>
@@ -10715,10 +10719,10 @@
     </row>
     <row r="502" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="19"/>
-      <c r="B502" s="173" t="s">
+      <c r="B502" s="246" t="s">
         <v>220</v>
       </c>
-      <c r="C502" s="174"/>
+      <c r="C502" s="248"/>
       <c r="D502" s="81"/>
       <c r="E502" s="81"/>
       <c r="F502" s="81"/>
@@ -10732,9 +10736,9 @@
     </row>
     <row r="503" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="78"/>
-      <c r="B503" s="164"/>
-      <c r="C503" s="164"/>
-      <c r="D503" s="164"/>
+      <c r="B503" s="262"/>
+      <c r="C503" s="262"/>
+      <c r="D503" s="262"/>
       <c r="E503" s="39"/>
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
@@ -11157,12 +11161,12 @@
       <c r="L530" s="79"/>
     </row>
     <row r="531" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="209" t="s">
+      <c r="A531" s="201" t="s">
         <v>246</v>
       </c>
-      <c r="B531" s="209"/>
-      <c r="C531" s="209"/>
-      <c r="D531" s="209"/>
+      <c r="B531" s="201"/>
+      <c r="C531" s="201"/>
+      <c r="D531" s="201"/>
       <c r="I531" s="79"/>
       <c r="J531" s="79"/>
       <c r="K531" s="151"/>
@@ -11240,36 +11244,36 @@
       <c r="K536" s="150"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A537" s="210" t="s">
+      <c r="A537" s="249" t="s">
         <v>248</v>
       </c>
-      <c r="B537" s="210"/>
-      <c r="C537" s="210"/>
-      <c r="D537" s="210"/>
-      <c r="E537" s="210"/>
-      <c r="F537" s="210"/>
-      <c r="G537" s="210"/>
-      <c r="H537" s="210"/>
-      <c r="I537" s="210"/>
-      <c r="J537" s="210"/>
-      <c r="K537" s="210"/>
-      <c r="L537" s="210"/>
+      <c r="B537" s="249"/>
+      <c r="C537" s="249"/>
+      <c r="D537" s="249"/>
+      <c r="E537" s="249"/>
+      <c r="F537" s="249"/>
+      <c r="G537" s="249"/>
+      <c r="H537" s="249"/>
+      <c r="I537" s="249"/>
+      <c r="J537" s="249"/>
+      <c r="K537" s="249"/>
+      <c r="L537" s="249"/>
     </row>
     <row r="538" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="210" t="s">
+      <c r="A538" s="249" t="s">
         <v>271</v>
       </c>
-      <c r="B538" s="210"/>
-      <c r="C538" s="210"/>
-      <c r="D538" s="210"/>
-      <c r="E538" s="210"/>
-      <c r="F538" s="210"/>
-      <c r="G538" s="210"/>
-      <c r="H538" s="210"/>
-      <c r="I538" s="210"/>
-      <c r="J538" s="210"/>
-      <c r="K538" s="210"/>
-      <c r="L538" s="210"/>
+      <c r="B538" s="249"/>
+      <c r="C538" s="249"/>
+      <c r="D538" s="249"/>
+      <c r="E538" s="249"/>
+      <c r="F538" s="249"/>
+      <c r="G538" s="249"/>
+      <c r="H538" s="249"/>
+      <c r="I538" s="249"/>
+      <c r="J538" s="249"/>
+      <c r="K538" s="249"/>
+      <c r="L538" s="249"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A539" s="79"/>
@@ -11300,20 +11304,20 @@
       <c r="K540" s="150"/>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A541" s="210" t="s">
+      <c r="A541" s="249" t="s">
         <v>250</v>
       </c>
-      <c r="B541" s="210"/>
-      <c r="C541" s="210"/>
-      <c r="D541" s="210"/>
-      <c r="E541" s="210"/>
-      <c r="F541" s="210"/>
-      <c r="G541" s="210"/>
-      <c r="H541" s="210"/>
-      <c r="I541" s="210"/>
-      <c r="J541" s="210"/>
-      <c r="K541" s="210"/>
-      <c r="L541" s="210"/>
+      <c r="B541" s="249"/>
+      <c r="C541" s="249"/>
+      <c r="D541" s="249"/>
+      <c r="E541" s="249"/>
+      <c r="F541" s="249"/>
+      <c r="G541" s="249"/>
+      <c r="H541" s="249"/>
+      <c r="I541" s="249"/>
+      <c r="J541" s="249"/>
+      <c r="K541" s="249"/>
+      <c r="L541" s="249"/>
     </row>
     <row r="542" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="78"/>
@@ -11329,29 +11333,111 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B503:D503"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B327:L327"/>
+    <mergeCell ref="B341:L341"/>
+    <mergeCell ref="B358:L362"/>
+    <mergeCell ref="B299:L303"/>
+    <mergeCell ref="B306:L310"/>
+    <mergeCell ref="B321:L325"/>
+    <mergeCell ref="B335:L339"/>
+    <mergeCell ref="D367:L367"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A537:L537"/>
+    <mergeCell ref="A538:L538"/>
+    <mergeCell ref="A541:L541"/>
+    <mergeCell ref="F489:G489"/>
+    <mergeCell ref="B498:C499"/>
+    <mergeCell ref="D498:J498"/>
+    <mergeCell ref="L498:L499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
     <mergeCell ref="B369:L369"/>
     <mergeCell ref="B349:F349"/>
     <mergeCell ref="B351:F351"/>
@@ -11376,115 +11462,33 @@
     <mergeCell ref="B200:L204"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B502:C502"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A537:L537"/>
-    <mergeCell ref="A538:L538"/>
-    <mergeCell ref="A541:L541"/>
-    <mergeCell ref="F489:G489"/>
-    <mergeCell ref="B498:C499"/>
-    <mergeCell ref="D498:J498"/>
-    <mergeCell ref="L498:L499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="B503:D503"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B327:L327"/>
-    <mergeCell ref="B341:L341"/>
-    <mergeCell ref="B358:L362"/>
-    <mergeCell ref="B299:L303"/>
-    <mergeCell ref="B306:L310"/>
-    <mergeCell ref="B321:L325"/>
-    <mergeCell ref="B335:L339"/>
-    <mergeCell ref="D367:L367"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="36" max="11" man="1"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0006\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CD19C-3783-42BA-AA53-6F0795178B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16680"/>
+    <workbookView xWindow="2304" yWindow="600" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54411 SR" sheetId="1" r:id="rId1"/>
@@ -17,16 +18,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54411 SR'!$A$2:$L$542</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1031,15 +1026,9 @@
     <t>OFICINA  DE FORMULACIÓN Y EVALUACIÓN DE INVERSIONES</t>
   </si>
   <si>
-    <t>SUB GERENCIA DE INFRAESTRUCTURA</t>
-  </si>
-  <si>
     <t>GOBIERNO REGIONAL DE APURIMAC SEDE CENTRAL</t>
   </si>
   <si>
-    <t>BALTAZAR LANTARON NUÑEZ</t>
-  </si>
-  <si>
     <t>GRAU</t>
   </si>
   <si>
@@ -1061,9 +1050,6 @@
     <t>047 SEDE CENTRAL</t>
   </si>
   <si>
-    <t>0200253</t>
-  </si>
-  <si>
     <t>SERVICIO DE EDUCACIÓN PRIMARIA</t>
   </si>
   <si>
@@ -1082,21 +1068,30 @@
     <t>"OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR Y FORMACION DE LA IEP N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
   <si>
-    <t>INSTITUCION ADUCATIVA PRIMARIA  N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS</t>
-  </si>
-  <si>
     <t>GASTOS GENERALES</t>
   </si>
   <si>
     <t>GESTION DE PROYECTO</t>
+  </si>
+  <si>
+    <t>GERENCIA REGIONAL DE INFRAESTRUCTURA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL AZURIN SOLIS</t>
+  </si>
+  <si>
+    <t>INSTITUCION EDUCATIVA PRIMARIA  N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS</t>
+  </si>
+  <si>
+    <t>0200220</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1944,7 +1939,7 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2016,18 +2011,333 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2037,15 +2347,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2053,15 +2354,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2069,309 +2361,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2649,14 +2644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:P545"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A86" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H487" sqref="H487"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2678,52 +2673,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="233" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="196"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="236"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="237" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="240"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="209" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2757,17 +2752,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="264" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
+      <c r="B8" s="166" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2964,10 +2959,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="263" t="s">
+      <c r="D21" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="263"/>
+      <c r="E21" s="165"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2996,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="263" t="s">
-        <v>331</v>
-      </c>
-      <c r="E23" s="263"/>
+      <c r="D23" s="165" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="165"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3061,13 +3056,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="267" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" s="267"/>
-      <c r="H27" s="267"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="267"/>
+      <c r="F27" s="169" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3086,22 +3081,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="268" t="s">
-        <v>332</v>
-      </c>
-      <c r="H29" s="269"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="270"/>
+      <c r="G29" s="170" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="172"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3120,11 +3115,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="260" t="s">
+      <c r="B31" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="261"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3135,7 +3130,7 @@
         <v>17</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I31" s="129" t="s">
         <v>18</v>
@@ -3173,7 +3168,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="144">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
@@ -3285,12 +3280,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="232" t="s">
+      <c r="G40" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="233"/>
-      <c r="I40" s="233"/>
-      <c r="J40" s="234"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3303,12 +3298,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="232" t="s">
+      <c r="G41" s="198" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="233"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="234"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3321,12 +3316,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="232" t="s">
+      <c r="G42" s="198" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="233"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="234"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3339,12 +3334,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="232" t="s">
+      <c r="G43" s="198" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="233"/>
-      <c r="I43" s="233"/>
-      <c r="J43" s="234"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="200"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3388,12 +3383,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="232" t="s">
+      <c r="G46" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="233"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3406,12 +3401,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="232" t="s">
+      <c r="G47" s="198" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="233"/>
-      <c r="I47" s="233"/>
-      <c r="J47" s="234"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3424,12 +3419,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="229" t="s">
+      <c r="G48" s="220" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="230"/>
-      <c r="I48" s="230"/>
-      <c r="J48" s="231"/>
+      <c r="H48" s="271"/>
+      <c r="I48" s="271"/>
+      <c r="J48" s="221"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3443,7 +3438,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="131" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H49" s="132"/>
       <c r="I49" s="132"/>
@@ -3496,12 +3491,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="234"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3514,12 +3509,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="232" t="s">
-        <v>327</v>
-      </c>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="234"/>
+      <c r="G53" s="198" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" s="199"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3533,7 +3528,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="131" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="132"/>
@@ -3555,7 +3550,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="131" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H55" s="132"/>
       <c r="I55" s="132"/>
@@ -3609,7 +3604,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="131" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H58" s="132"/>
       <c r="I58" s="132"/>
@@ -3705,7 +3700,7 @@
       <c r="C64" s="89"/>
       <c r="D64" s="89"/>
       <c r="E64" s="130" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89"/>
@@ -3768,14 +3763,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="246" t="s">
-        <v>343</v>
-      </c>
-      <c r="F68" s="247"/>
-      <c r="G68" s="247"/>
-      <c r="H68" s="247"/>
-      <c r="I68" s="247"/>
-      <c r="J68" s="248"/>
+      <c r="E68" s="173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
+      <c r="H68" s="197"/>
+      <c r="I68" s="197"/>
+      <c r="J68" s="174"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3840,11 +3835,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="164" t="s">
+      <c r="F72" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="164"/>
-      <c r="H72" s="164"/>
+      <c r="G72" s="222"/>
+      <c r="H72" s="222"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3856,17 +3851,17 @@
         <v>313</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="165" t="s">
-        <v>338</v>
-      </c>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
+      <c r="F73" s="272" t="s">
+        <v>335</v>
+      </c>
+      <c r="G73" s="272"/>
+      <c r="H73" s="272"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3998,10 +3993,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="236" t="s">
+      <c r="D82" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="236"/>
+      <c r="E82" s="207"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4087,17 +4082,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="169" t="s">
+      <c r="B87" s="274" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
-      <c r="F87" s="169"/>
-      <c r="G87" s="169"/>
-      <c r="H87" s="169"/>
-      <c r="I87" s="169"/>
-      <c r="J87" s="169"/>
+      <c r="C87" s="274"/>
+      <c r="D87" s="274"/>
+      <c r="E87" s="274"/>
+      <c r="F87" s="274"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="274"/>
+      <c r="I87" s="274"/>
+      <c r="J87" s="274"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4264,10 +4259,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="174" t="s">
+      <c r="E98" s="276" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="175"/>
+      <c r="F98" s="277"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4447,13 +4442,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="220" t="s">
+      <c r="B110" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="220"/>
-      <c r="D110" s="220"/>
-      <c r="E110" s="220"/>
-      <c r="F110" s="221"/>
+      <c r="C110" s="259"/>
+      <c r="D110" s="259"/>
+      <c r="E110" s="259"/>
+      <c r="F110" s="260"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4468,8 +4463,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="222"/>
-      <c r="H111" s="222"/>
+      <c r="G111" s="261"/>
+      <c r="H111" s="261"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4477,13 +4472,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="220" t="s">
+      <c r="B112" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="220"/>
-      <c r="D112" s="220"/>
-      <c r="E112" s="220"/>
-      <c r="F112" s="221"/>
+      <c r="C112" s="259"/>
+      <c r="D112" s="259"/>
+      <c r="E112" s="259"/>
+      <c r="F112" s="260"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4615,47 +4610,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="223" t="s">
+      <c r="B121" s="262" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="224"/>
-      <c r="D121" s="224"/>
-      <c r="E121" s="224"/>
-      <c r="F121" s="224"/>
-      <c r="G121" s="224"/>
-      <c r="H121" s="224"/>
-      <c r="I121" s="224"/>
-      <c r="J121" s="224"/>
-      <c r="K121" s="224"/>
-      <c r="L121" s="225"/>
+      <c r="C121" s="263"/>
+      <c r="D121" s="263"/>
+      <c r="E121" s="263"/>
+      <c r="F121" s="263"/>
+      <c r="G121" s="263"/>
+      <c r="H121" s="263"/>
+      <c r="I121" s="263"/>
+      <c r="J121" s="263"/>
+      <c r="K121" s="263"/>
+      <c r="L121" s="264"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="176"/>
-      <c r="C122" s="177"/>
-      <c r="D122" s="177"/>
-      <c r="E122" s="177"/>
-      <c r="F122" s="177"/>
-      <c r="G122" s="177"/>
-      <c r="H122" s="177"/>
-      <c r="I122" s="177"/>
-      <c r="J122" s="177"/>
-      <c r="K122" s="177"/>
-      <c r="L122" s="178"/>
+      <c r="B122" s="265"/>
+      <c r="C122" s="266"/>
+      <c r="D122" s="266"/>
+      <c r="E122" s="266"/>
+      <c r="F122" s="266"/>
+      <c r="G122" s="266"/>
+      <c r="H122" s="266"/>
+      <c r="I122" s="266"/>
+      <c r="J122" s="266"/>
+      <c r="K122" s="266"/>
+      <c r="L122" s="267"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="226"/>
-      <c r="C123" s="227"/>
-      <c r="D123" s="227"/>
-      <c r="E123" s="227"/>
-      <c r="F123" s="227"/>
-      <c r="G123" s="227"/>
-      <c r="H123" s="227"/>
-      <c r="I123" s="227"/>
-      <c r="J123" s="227"/>
-      <c r="K123" s="227"/>
-      <c r="L123" s="228"/>
+      <c r="B123" s="268"/>
+      <c r="C123" s="269"/>
+      <c r="D123" s="269"/>
+      <c r="E123" s="269"/>
+      <c r="F123" s="269"/>
+      <c r="G123" s="269"/>
+      <c r="H123" s="269"/>
+      <c r="I123" s="269"/>
+      <c r="J123" s="269"/>
+      <c r="K123" s="269"/>
+      <c r="L123" s="270"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4689,19 +4684,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="213" t="s">
+      <c r="B126" s="252" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="214"/>
-      <c r="D126" s="214"/>
-      <c r="E126" s="214"/>
-      <c r="F126" s="214"/>
-      <c r="G126" s="214"/>
-      <c r="H126" s="214"/>
-      <c r="I126" s="214"/>
-      <c r="J126" s="214"/>
-      <c r="K126" s="214"/>
-      <c r="L126" s="215"/>
+      <c r="C126" s="253"/>
+      <c r="D126" s="253"/>
+      <c r="E126" s="253"/>
+      <c r="F126" s="253"/>
+      <c r="G126" s="253"/>
+      <c r="H126" s="253"/>
+      <c r="I126" s="253"/>
+      <c r="J126" s="253"/>
+      <c r="K126" s="253"/>
+      <c r="L126" s="254"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4735,19 +4730,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="216" t="s">
+      <c r="B129" s="255" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="217"/>
-      <c r="D129" s="217"/>
-      <c r="E129" s="217"/>
-      <c r="F129" s="217"/>
-      <c r="G129" s="217"/>
-      <c r="H129" s="217"/>
-      <c r="I129" s="217"/>
-      <c r="J129" s="217"/>
-      <c r="K129" s="217"/>
-      <c r="L129" s="218"/>
+      <c r="C129" s="256"/>
+      <c r="D129" s="256"/>
+      <c r="E129" s="256"/>
+      <c r="F129" s="256"/>
+      <c r="G129" s="256"/>
+      <c r="H129" s="256"/>
+      <c r="I129" s="256"/>
+      <c r="J129" s="256"/>
+      <c r="K129" s="256"/>
+      <c r="L129" s="257"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4946,19 +4941,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="219" t="s">
+      <c r="B143" s="258" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="219"/>
-      <c r="D143" s="219"/>
-      <c r="E143" s="219"/>
-      <c r="F143" s="219"/>
-      <c r="G143" s="219"/>
-      <c r="H143" s="219"/>
-      <c r="I143" s="219"/>
-      <c r="J143" s="219"/>
-      <c r="K143" s="219"/>
-      <c r="L143" s="219"/>
+      <c r="C143" s="258"/>
+      <c r="D143" s="258"/>
+      <c r="E143" s="258"/>
+      <c r="F143" s="258"/>
+      <c r="G143" s="258"/>
+      <c r="H143" s="258"/>
+      <c r="I143" s="258"/>
+      <c r="J143" s="258"/>
+      <c r="K143" s="258"/>
+      <c r="L143" s="258"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4976,11 +4971,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="166" t="s">
+      <c r="B145" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="166"/>
-      <c r="D145" s="166"/>
+      <c r="C145" s="176"/>
+      <c r="D145" s="176"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -5004,11 +4999,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="166" t="s">
+      <c r="B147" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="166"/>
-      <c r="D147" s="166"/>
+      <c r="C147" s="176"/>
+      <c r="D147" s="176"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5032,11 +5027,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="166" t="s">
+      <c r="B149" s="176" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="166"/>
-      <c r="D149" s="166"/>
+      <c r="C149" s="176"/>
+      <c r="D149" s="176"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5058,12 +5053,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="166" t="s">
+      <c r="B151" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="166"/>
-      <c r="D151" s="166"/>
-      <c r="E151" s="166"/>
+      <c r="C151" s="176"/>
+      <c r="D151" s="176"/>
+      <c r="E151" s="176"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5086,13 +5081,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="166" t="s">
+      <c r="B153" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="166"/>
-      <c r="D153" s="166"/>
-      <c r="E153" s="166"/>
-      <c r="F153" s="167"/>
+      <c r="C153" s="176"/>
+      <c r="D153" s="176"/>
+      <c r="E153" s="176"/>
+      <c r="F153" s="177"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5220,19 +5215,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="179" t="s">
+      <c r="B162" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="180"/>
-      <c r="D162" s="180"/>
-      <c r="E162" s="180"/>
-      <c r="F162" s="180"/>
-      <c r="G162" s="180"/>
-      <c r="H162" s="180"/>
-      <c r="I162" s="180"/>
-      <c r="J162" s="180"/>
-      <c r="K162" s="180"/>
-      <c r="L162" s="181"/>
+      <c r="C162" s="279"/>
+      <c r="D162" s="279"/>
+      <c r="E162" s="279"/>
+      <c r="F162" s="279"/>
+      <c r="G162" s="279"/>
+      <c r="H162" s="279"/>
+      <c r="I162" s="279"/>
+      <c r="J162" s="279"/>
+      <c r="K162" s="279"/>
+      <c r="L162" s="280"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5450,12 +5445,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="166" t="s">
+      <c r="B179" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="166"/>
-      <c r="D179" s="166"/>
-      <c r="E179" s="166"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
+      <c r="E179" s="176"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5482,13 +5477,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="166" t="s">
+      <c r="B181" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="166"/>
-      <c r="D181" s="166"/>
-      <c r="E181" s="166"/>
-      <c r="F181" s="167"/>
+      <c r="C181" s="176"/>
+      <c r="D181" s="176"/>
+      <c r="E181" s="176"/>
+      <c r="F181" s="177"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5542,13 +5537,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="166" t="s">
+      <c r="B185" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="166"/>
-      <c r="D185" s="166"/>
-      <c r="E185" s="166"/>
-      <c r="F185" s="167"/>
+      <c r="C185" s="176"/>
+      <c r="D185" s="176"/>
+      <c r="E185" s="176"/>
+      <c r="F185" s="177"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5661,79 +5656,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="182" t="s">
+      <c r="B193" s="179" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="183"/>
-      <c r="D193" s="183"/>
-      <c r="E193" s="183"/>
-      <c r="F193" s="183"/>
-      <c r="G193" s="183"/>
-      <c r="H193" s="183"/>
-      <c r="I193" s="183"/>
-      <c r="J193" s="183"/>
-      <c r="K193" s="183"/>
-      <c r="L193" s="184"/>
+      <c r="C193" s="180"/>
+      <c r="D193" s="180"/>
+      <c r="E193" s="180"/>
+      <c r="F193" s="180"/>
+      <c r="G193" s="180"/>
+      <c r="H193" s="180"/>
+      <c r="I193" s="180"/>
+      <c r="J193" s="180"/>
+      <c r="K193" s="180"/>
+      <c r="L193" s="181"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="185"/>
-      <c r="C194" s="186"/>
-      <c r="D194" s="186"/>
-      <c r="E194" s="186"/>
-      <c r="F194" s="186"/>
-      <c r="G194" s="186"/>
-      <c r="H194" s="186"/>
-      <c r="I194" s="186"/>
-      <c r="J194" s="186"/>
-      <c r="K194" s="186"/>
-      <c r="L194" s="187"/>
+      <c r="B194" s="182"/>
+      <c r="C194" s="183"/>
+      <c r="D194" s="183"/>
+      <c r="E194" s="183"/>
+      <c r="F194" s="183"/>
+      <c r="G194" s="183"/>
+      <c r="H194" s="183"/>
+      <c r="I194" s="183"/>
+      <c r="J194" s="183"/>
+      <c r="K194" s="183"/>
+      <c r="L194" s="184"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="185"/>
-      <c r="C195" s="186"/>
-      <c r="D195" s="186"/>
-      <c r="E195" s="186"/>
-      <c r="F195" s="186"/>
-      <c r="G195" s="186"/>
-      <c r="H195" s="186"/>
-      <c r="I195" s="186"/>
-      <c r="J195" s="186"/>
-      <c r="K195" s="186"/>
-      <c r="L195" s="187"/>
+      <c r="B195" s="182"/>
+      <c r="C195" s="183"/>
+      <c r="D195" s="183"/>
+      <c r="E195" s="183"/>
+      <c r="F195" s="183"/>
+      <c r="G195" s="183"/>
+      <c r="H195" s="183"/>
+      <c r="I195" s="183"/>
+      <c r="J195" s="183"/>
+      <c r="K195" s="183"/>
+      <c r="L195" s="184"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="185"/>
-      <c r="C196" s="186"/>
-      <c r="D196" s="186"/>
-      <c r="E196" s="186"/>
-      <c r="F196" s="186"/>
-      <c r="G196" s="186"/>
-      <c r="H196" s="186"/>
-      <c r="I196" s="186"/>
-      <c r="J196" s="186"/>
-      <c r="K196" s="186"/>
-      <c r="L196" s="187"/>
+      <c r="B196" s="182"/>
+      <c r="C196" s="183"/>
+      <c r="D196" s="183"/>
+      <c r="E196" s="183"/>
+      <c r="F196" s="183"/>
+      <c r="G196" s="183"/>
+      <c r="H196" s="183"/>
+      <c r="I196" s="183"/>
+      <c r="J196" s="183"/>
+      <c r="K196" s="183"/>
+      <c r="L196" s="184"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="188"/>
-      <c r="C197" s="189"/>
-      <c r="D197" s="189"/>
-      <c r="E197" s="189"/>
-      <c r="F197" s="189"/>
-      <c r="G197" s="189"/>
-      <c r="H197" s="189"/>
-      <c r="I197" s="189"/>
-      <c r="J197" s="189"/>
-      <c r="K197" s="189"/>
-      <c r="L197" s="190"/>
+      <c r="B197" s="185"/>
+      <c r="C197" s="186"/>
+      <c r="D197" s="186"/>
+      <c r="E197" s="186"/>
+      <c r="F197" s="186"/>
+      <c r="G197" s="186"/>
+      <c r="H197" s="186"/>
+      <c r="I197" s="186"/>
+      <c r="J197" s="186"/>
+      <c r="K197" s="186"/>
+      <c r="L197" s="187"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5770,79 +5765,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="182" t="s">
+      <c r="B200" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="183"/>
-      <c r="D200" s="183"/>
-      <c r="E200" s="183"/>
-      <c r="F200" s="183"/>
-      <c r="G200" s="183"/>
-      <c r="H200" s="183"/>
-      <c r="I200" s="183"/>
-      <c r="J200" s="183"/>
-      <c r="K200" s="183"/>
-      <c r="L200" s="184"/>
+      <c r="C200" s="180"/>
+      <c r="D200" s="180"/>
+      <c r="E200" s="180"/>
+      <c r="F200" s="180"/>
+      <c r="G200" s="180"/>
+      <c r="H200" s="180"/>
+      <c r="I200" s="180"/>
+      <c r="J200" s="180"/>
+      <c r="K200" s="180"/>
+      <c r="L200" s="181"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="185"/>
-      <c r="C201" s="186"/>
-      <c r="D201" s="186"/>
-      <c r="E201" s="186"/>
-      <c r="F201" s="186"/>
-      <c r="G201" s="186"/>
-      <c r="H201" s="186"/>
-      <c r="I201" s="186"/>
-      <c r="J201" s="186"/>
-      <c r="K201" s="186"/>
-      <c r="L201" s="187"/>
+      <c r="B201" s="182"/>
+      <c r="C201" s="183"/>
+      <c r="D201" s="183"/>
+      <c r="E201" s="183"/>
+      <c r="F201" s="183"/>
+      <c r="G201" s="183"/>
+      <c r="H201" s="183"/>
+      <c r="I201" s="183"/>
+      <c r="J201" s="183"/>
+      <c r="K201" s="183"/>
+      <c r="L201" s="184"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="185"/>
-      <c r="C202" s="186"/>
-      <c r="D202" s="186"/>
-      <c r="E202" s="186"/>
-      <c r="F202" s="186"/>
-      <c r="G202" s="186"/>
-      <c r="H202" s="186"/>
-      <c r="I202" s="186"/>
-      <c r="J202" s="186"/>
-      <c r="K202" s="186"/>
-      <c r="L202" s="187"/>
+      <c r="B202" s="182"/>
+      <c r="C202" s="183"/>
+      <c r="D202" s="183"/>
+      <c r="E202" s="183"/>
+      <c r="F202" s="183"/>
+      <c r="G202" s="183"/>
+      <c r="H202" s="183"/>
+      <c r="I202" s="183"/>
+      <c r="J202" s="183"/>
+      <c r="K202" s="183"/>
+      <c r="L202" s="184"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="185"/>
-      <c r="C203" s="186"/>
-      <c r="D203" s="186"/>
-      <c r="E203" s="186"/>
-      <c r="F203" s="186"/>
-      <c r="G203" s="186"/>
-      <c r="H203" s="186"/>
-      <c r="I203" s="186"/>
-      <c r="J203" s="186"/>
-      <c r="K203" s="186"/>
-      <c r="L203" s="187"/>
+      <c r="B203" s="182"/>
+      <c r="C203" s="183"/>
+      <c r="D203" s="183"/>
+      <c r="E203" s="183"/>
+      <c r="F203" s="183"/>
+      <c r="G203" s="183"/>
+      <c r="H203" s="183"/>
+      <c r="I203" s="183"/>
+      <c r="J203" s="183"/>
+      <c r="K203" s="183"/>
+      <c r="L203" s="184"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="188"/>
-      <c r="C204" s="189"/>
-      <c r="D204" s="189"/>
-      <c r="E204" s="189"/>
-      <c r="F204" s="189"/>
-      <c r="G204" s="189"/>
-      <c r="H204" s="189"/>
-      <c r="I204" s="189"/>
-      <c r="J204" s="189"/>
-      <c r="K204" s="189"/>
-      <c r="L204" s="190"/>
+      <c r="B204" s="185"/>
+      <c r="C204" s="186"/>
+      <c r="D204" s="186"/>
+      <c r="E204" s="186"/>
+      <c r="F204" s="186"/>
+      <c r="G204" s="186"/>
+      <c r="H204" s="186"/>
+      <c r="I204" s="186"/>
+      <c r="J204" s="186"/>
+      <c r="K204" s="186"/>
+      <c r="L204" s="187"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5989,49 +5984,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="204" t="s">
+      <c r="B214" s="243" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="205"/>
-      <c r="D214" s="205"/>
-      <c r="E214" s="205"/>
-      <c r="F214" s="205"/>
-      <c r="G214" s="205"/>
-      <c r="H214" s="205"/>
-      <c r="I214" s="205"/>
-      <c r="J214" s="205"/>
-      <c r="K214" s="205"/>
-      <c r="L214" s="206"/>
+      <c r="C214" s="244"/>
+      <c r="D214" s="244"/>
+      <c r="E214" s="244"/>
+      <c r="F214" s="244"/>
+      <c r="G214" s="244"/>
+      <c r="H214" s="244"/>
+      <c r="I214" s="244"/>
+      <c r="J214" s="244"/>
+      <c r="K214" s="244"/>
+      <c r="L214" s="245"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="207"/>
-      <c r="C215" s="208"/>
-      <c r="D215" s="208"/>
-      <c r="E215" s="208"/>
-      <c r="F215" s="208"/>
-      <c r="G215" s="208"/>
-      <c r="H215" s="208"/>
-      <c r="I215" s="208"/>
-      <c r="J215" s="208"/>
-      <c r="K215" s="208"/>
-      <c r="L215" s="209"/>
+      <c r="B215" s="246"/>
+      <c r="C215" s="247"/>
+      <c r="D215" s="247"/>
+      <c r="E215" s="247"/>
+      <c r="F215" s="247"/>
+      <c r="G215" s="247"/>
+      <c r="H215" s="247"/>
+      <c r="I215" s="247"/>
+      <c r="J215" s="247"/>
+      <c r="K215" s="247"/>
+      <c r="L215" s="248"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="210"/>
-      <c r="C216" s="211"/>
-      <c r="D216" s="211"/>
-      <c r="E216" s="211"/>
-      <c r="F216" s="211"/>
-      <c r="G216" s="211"/>
-      <c r="H216" s="211"/>
-      <c r="I216" s="211"/>
-      <c r="J216" s="211"/>
-      <c r="K216" s="211"/>
-      <c r="L216" s="212"/>
+      <c r="B216" s="249"/>
+      <c r="C216" s="250"/>
+      <c r="D216" s="250"/>
+      <c r="E216" s="250"/>
+      <c r="F216" s="250"/>
+      <c r="G216" s="250"/>
+      <c r="H216" s="250"/>
+      <c r="I216" s="250"/>
+      <c r="J216" s="250"/>
+      <c r="K216" s="250"/>
+      <c r="L216" s="251"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6066,10 +6061,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="166" t="s">
+      <c r="B219" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="166"/>
+      <c r="C219" s="176"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6194,19 +6189,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="176" t="s">
+      <c r="B227" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="177"/>
-      <c r="D227" s="177"/>
-      <c r="E227" s="177"/>
-      <c r="F227" s="177"/>
-      <c r="G227" s="177"/>
-      <c r="H227" s="177"/>
-      <c r="I227" s="177"/>
-      <c r="J227" s="177"/>
-      <c r="K227" s="177"/>
-      <c r="L227" s="178"/>
+      <c r="C227" s="266"/>
+      <c r="D227" s="266"/>
+      <c r="E227" s="266"/>
+      <c r="F227" s="266"/>
+      <c r="G227" s="266"/>
+      <c r="H227" s="266"/>
+      <c r="I227" s="266"/>
+      <c r="J227" s="266"/>
+      <c r="K227" s="266"/>
+      <c r="L227" s="267"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6315,51 +6310,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="272" t="s">
+      <c r="B235" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="273"/>
-      <c r="D235" s="273"/>
-      <c r="E235" s="273"/>
-      <c r="F235" s="273"/>
-      <c r="G235" s="273"/>
-      <c r="H235" s="273"/>
-      <c r="I235" s="273"/>
-      <c r="J235" s="273"/>
-      <c r="K235" s="273"/>
-      <c r="L235" s="274"/>
+      <c r="C235" s="189"/>
+      <c r="D235" s="189"/>
+      <c r="E235" s="189"/>
+      <c r="F235" s="189"/>
+      <c r="G235" s="189"/>
+      <c r="H235" s="189"/>
+      <c r="I235" s="189"/>
+      <c r="J235" s="189"/>
+      <c r="K235" s="189"/>
+      <c r="L235" s="190"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="275"/>
-      <c r="C236" s="276"/>
-      <c r="D236" s="276"/>
-      <c r="E236" s="276"/>
-      <c r="F236" s="276"/>
-      <c r="G236" s="276"/>
-      <c r="H236" s="276"/>
-      <c r="I236" s="276"/>
-      <c r="J236" s="276"/>
-      <c r="K236" s="276"/>
-      <c r="L236" s="277"/>
+      <c r="B236" s="191"/>
+      <c r="C236" s="192"/>
+      <c r="D236" s="192"/>
+      <c r="E236" s="192"/>
+      <c r="F236" s="192"/>
+      <c r="G236" s="192"/>
+      <c r="H236" s="192"/>
+      <c r="I236" s="192"/>
+      <c r="J236" s="192"/>
+      <c r="K236" s="192"/>
+      <c r="L236" s="193"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="278"/>
-      <c r="C237" s="279"/>
-      <c r="D237" s="279"/>
-      <c r="E237" s="279"/>
-      <c r="F237" s="279"/>
-      <c r="G237" s="279"/>
-      <c r="H237" s="279"/>
-      <c r="I237" s="279"/>
-      <c r="J237" s="279"/>
-      <c r="K237" s="279"/>
-      <c r="L237" s="280"/>
+      <c r="B237" s="194"/>
+      <c r="C237" s="195"/>
+      <c r="D237" s="195"/>
+      <c r="E237" s="195"/>
+      <c r="F237" s="195"/>
+      <c r="G237" s="195"/>
+      <c r="H237" s="195"/>
+      <c r="I237" s="195"/>
+      <c r="J237" s="195"/>
+      <c r="K237" s="195"/>
+      <c r="L237" s="196"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6474,35 +6469,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="169" t="s">
+      <c r="B245" s="274" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="169"/>
-      <c r="D245" s="169"/>
-      <c r="E245" s="169"/>
-      <c r="F245" s="169"/>
-      <c r="G245" s="169"/>
-      <c r="H245" s="169"/>
-      <c r="I245" s="169"/>
-      <c r="J245" s="169"/>
-      <c r="K245" s="169"/>
-      <c r="L245" s="169"/>
+      <c r="C245" s="274"/>
+      <c r="D245" s="274"/>
+      <c r="E245" s="274"/>
+      <c r="F245" s="274"/>
+      <c r="G245" s="274"/>
+      <c r="H245" s="274"/>
+      <c r="I245" s="274"/>
+      <c r="J245" s="274"/>
+      <c r="K245" s="274"/>
+      <c r="L245" s="274"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="169" t="s">
+      <c r="B246" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="169"/>
-      <c r="D246" s="169"/>
-      <c r="E246" s="169"/>
-      <c r="F246" s="169"/>
-      <c r="G246" s="169"/>
-      <c r="H246" s="169"/>
-      <c r="I246" s="169"/>
-      <c r="J246" s="169"/>
-      <c r="K246" s="169"/>
-      <c r="L246" s="169"/>
+      <c r="C246" s="274"/>
+      <c r="D246" s="274"/>
+      <c r="E246" s="274"/>
+      <c r="F246" s="274"/>
+      <c r="G246" s="274"/>
+      <c r="H246" s="274"/>
+      <c r="I246" s="274"/>
+      <c r="J246" s="274"/>
+      <c r="K246" s="274"/>
+      <c r="L246" s="274"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6708,83 +6703,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="182" t="s">
+      <c r="B260" s="179" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="183"/>
-      <c r="D260" s="183"/>
-      <c r="E260" s="183"/>
-      <c r="F260" s="183"/>
-      <c r="G260" s="183"/>
-      <c r="H260" s="183"/>
-      <c r="I260" s="183"/>
-      <c r="J260" s="183"/>
-      <c r="K260" s="183"/>
-      <c r="L260" s="184"/>
+      <c r="C260" s="180"/>
+      <c r="D260" s="180"/>
+      <c r="E260" s="180"/>
+      <c r="F260" s="180"/>
+      <c r="G260" s="180"/>
+      <c r="H260" s="180"/>
+      <c r="I260" s="180"/>
+      <c r="J260" s="180"/>
+      <c r="K260" s="180"/>
+      <c r="L260" s="181"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="185"/>
-      <c r="C261" s="186"/>
-      <c r="D261" s="186"/>
-      <c r="E261" s="186"/>
-      <c r="F261" s="186"/>
-      <c r="G261" s="186"/>
-      <c r="H261" s="186"/>
-      <c r="I261" s="186"/>
-      <c r="J261" s="186"/>
-      <c r="K261" s="186"/>
-      <c r="L261" s="187"/>
+      <c r="B261" s="182"/>
+      <c r="C261" s="183"/>
+      <c r="D261" s="183"/>
+      <c r="E261" s="183"/>
+      <c r="F261" s="183"/>
+      <c r="G261" s="183"/>
+      <c r="H261" s="183"/>
+      <c r="I261" s="183"/>
+      <c r="J261" s="183"/>
+      <c r="K261" s="183"/>
+      <c r="L261" s="184"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="185"/>
-      <c r="C262" s="186"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
-      <c r="F262" s="186"/>
-      <c r="G262" s="186"/>
-      <c r="H262" s="186"/>
-      <c r="I262" s="186"/>
-      <c r="J262" s="186"/>
-      <c r="K262" s="186"/>
-      <c r="L262" s="187"/>
+      <c r="B262" s="182"/>
+      <c r="C262" s="183"/>
+      <c r="D262" s="183"/>
+      <c r="E262" s="183"/>
+      <c r="F262" s="183"/>
+      <c r="G262" s="183"/>
+      <c r="H262" s="183"/>
+      <c r="I262" s="183"/>
+      <c r="J262" s="183"/>
+      <c r="K262" s="183"/>
+      <c r="L262" s="184"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="185"/>
-      <c r="C263" s="186"/>
-      <c r="D263" s="186"/>
-      <c r="E263" s="186"/>
-      <c r="F263" s="186"/>
-      <c r="G263" s="186"/>
-      <c r="H263" s="186"/>
-      <c r="I263" s="186"/>
-      <c r="J263" s="186"/>
-      <c r="K263" s="186"/>
-      <c r="L263" s="187"/>
+      <c r="B263" s="182"/>
+      <c r="C263" s="183"/>
+      <c r="D263" s="183"/>
+      <c r="E263" s="183"/>
+      <c r="F263" s="183"/>
+      <c r="G263" s="183"/>
+      <c r="H263" s="183"/>
+      <c r="I263" s="183"/>
+      <c r="J263" s="183"/>
+      <c r="K263" s="183"/>
+      <c r="L263" s="184"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="188"/>
-      <c r="C264" s="189"/>
-      <c r="D264" s="189"/>
-      <c r="E264" s="189"/>
-      <c r="F264" s="189"/>
-      <c r="G264" s="189"/>
-      <c r="H264" s="189"/>
-      <c r="I264" s="189"/>
-      <c r="J264" s="189"/>
-      <c r="K264" s="189"/>
-      <c r="L264" s="190"/>
+      <c r="B264" s="185"/>
+      <c r="C264" s="186"/>
+      <c r="D264" s="186"/>
+      <c r="E264" s="186"/>
+      <c r="F264" s="186"/>
+      <c r="G264" s="186"/>
+      <c r="H264" s="186"/>
+      <c r="I264" s="186"/>
+      <c r="J264" s="186"/>
+      <c r="K264" s="186"/>
+      <c r="L264" s="187"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6840,28 +6835,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="164" t="s">
+      <c r="B268" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="164"/>
-      <c r="D268" s="171" t="s">
+      <c r="C268" s="222"/>
+      <c r="D268" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="172"/>
-      <c r="F268" s="172"/>
-      <c r="G268" s="172"/>
-      <c r="H268" s="172"/>
-      <c r="I268" s="172"/>
-      <c r="J268" s="172"/>
-      <c r="K268" s="172"/>
-      <c r="L268" s="173"/>
+      <c r="E268" s="217"/>
+      <c r="F268" s="217"/>
+      <c r="G268" s="217"/>
+      <c r="H268" s="217"/>
+      <c r="I268" s="217"/>
+      <c r="J268" s="217"/>
+      <c r="K268" s="217"/>
+      <c r="L268" s="218"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="168"/>
-      <c r="C269" s="168"/>
+      <c r="B269" s="273"/>
+      <c r="C269" s="273"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6876,8 +6871,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="168"/>
-      <c r="C270" s="168"/>
+      <c r="B270" s="273"/>
+      <c r="C270" s="273"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6892,8 +6887,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="168"/>
-      <c r="C271" s="168"/>
+      <c r="B271" s="273"/>
+      <c r="C271" s="273"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6908,8 +6903,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="168"/>
-      <c r="C272" s="168"/>
+      <c r="B272" s="273"/>
+      <c r="C272" s="273"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6974,83 +6969,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="170" t="s">
+      <c r="B276" s="275" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="170"/>
-      <c r="D276" s="170"/>
-      <c r="E276" s="170"/>
-      <c r="F276" s="170"/>
-      <c r="G276" s="170"/>
-      <c r="H276" s="170"/>
-      <c r="I276" s="170"/>
-      <c r="J276" s="170"/>
-      <c r="K276" s="170"/>
-      <c r="L276" s="170"/>
+      <c r="C276" s="275"/>
+      <c r="D276" s="275"/>
+      <c r="E276" s="275"/>
+      <c r="F276" s="275"/>
+      <c r="G276" s="275"/>
+      <c r="H276" s="275"/>
+      <c r="I276" s="275"/>
+      <c r="J276" s="275"/>
+      <c r="K276" s="275"/>
+      <c r="L276" s="275"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="170"/>
-      <c r="C277" s="170"/>
-      <c r="D277" s="170"/>
-      <c r="E277" s="170"/>
-      <c r="F277" s="170"/>
-      <c r="G277" s="170"/>
-      <c r="H277" s="170"/>
-      <c r="I277" s="170"/>
-      <c r="J277" s="170"/>
-      <c r="K277" s="170"/>
-      <c r="L277" s="170"/>
+      <c r="B277" s="275"/>
+      <c r="C277" s="275"/>
+      <c r="D277" s="275"/>
+      <c r="E277" s="275"/>
+      <c r="F277" s="275"/>
+      <c r="G277" s="275"/>
+      <c r="H277" s="275"/>
+      <c r="I277" s="275"/>
+      <c r="J277" s="275"/>
+      <c r="K277" s="275"/>
+      <c r="L277" s="275"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="170"/>
-      <c r="C278" s="170"/>
-      <c r="D278" s="170"/>
-      <c r="E278" s="170"/>
-      <c r="F278" s="170"/>
-      <c r="G278" s="170"/>
-      <c r="H278" s="170"/>
-      <c r="I278" s="170"/>
-      <c r="J278" s="170"/>
-      <c r="K278" s="170"/>
-      <c r="L278" s="170"/>
+      <c r="B278" s="275"/>
+      <c r="C278" s="275"/>
+      <c r="D278" s="275"/>
+      <c r="E278" s="275"/>
+      <c r="F278" s="275"/>
+      <c r="G278" s="275"/>
+      <c r="H278" s="275"/>
+      <c r="I278" s="275"/>
+      <c r="J278" s="275"/>
+      <c r="K278" s="275"/>
+      <c r="L278" s="275"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="170"/>
-      <c r="C279" s="170"/>
-      <c r="D279" s="170"/>
-      <c r="E279" s="170"/>
-      <c r="F279" s="170"/>
-      <c r="G279" s="170"/>
-      <c r="H279" s="170"/>
-      <c r="I279" s="170"/>
-      <c r="J279" s="170"/>
-      <c r="K279" s="170"/>
-      <c r="L279" s="170"/>
+      <c r="B279" s="275"/>
+      <c r="C279" s="275"/>
+      <c r="D279" s="275"/>
+      <c r="E279" s="275"/>
+      <c r="F279" s="275"/>
+      <c r="G279" s="275"/>
+      <c r="H279" s="275"/>
+      <c r="I279" s="275"/>
+      <c r="J279" s="275"/>
+      <c r="K279" s="275"/>
+      <c r="L279" s="275"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="170"/>
-      <c r="C280" s="170"/>
-      <c r="D280" s="170"/>
-      <c r="E280" s="170"/>
-      <c r="F280" s="170"/>
-      <c r="G280" s="170"/>
-      <c r="H280" s="170"/>
-      <c r="I280" s="170"/>
-      <c r="J280" s="170"/>
-      <c r="K280" s="170"/>
-      <c r="L280" s="170"/>
+      <c r="B280" s="275"/>
+      <c r="C280" s="275"/>
+      <c r="D280" s="275"/>
+      <c r="E280" s="275"/>
+      <c r="F280" s="275"/>
+      <c r="G280" s="275"/>
+      <c r="H280" s="275"/>
+      <c r="I280" s="275"/>
+      <c r="J280" s="275"/>
+      <c r="K280" s="275"/>
+      <c r="L280" s="275"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7106,12 +7101,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="166" t="s">
+      <c r="B284" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="166"/>
-      <c r="D284" s="166"/>
-      <c r="E284" s="167"/>
+      <c r="C284" s="176"/>
+      <c r="D284" s="176"/>
+      <c r="E284" s="177"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7122,10 +7117,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="166"/>
-      <c r="C285" s="166"/>
-      <c r="D285" s="166"/>
-      <c r="E285" s="166"/>
+      <c r="B285" s="176"/>
+      <c r="C285" s="176"/>
+      <c r="D285" s="176"/>
+      <c r="E285" s="176"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7136,12 +7131,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="166" t="s">
+      <c r="B286" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="166"/>
-      <c r="D286" s="166"/>
-      <c r="E286" s="167"/>
+      <c r="C286" s="176"/>
+      <c r="D286" s="176"/>
+      <c r="E286" s="177"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7154,10 +7149,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="166"/>
-      <c r="C287" s="166"/>
-      <c r="D287" s="166"/>
-      <c r="E287" s="166"/>
+      <c r="B287" s="176"/>
+      <c r="C287" s="176"/>
+      <c r="D287" s="176"/>
+      <c r="E287" s="176"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7168,12 +7163,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="166" t="s">
+      <c r="B288" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="166"/>
-      <c r="D288" s="166"/>
-      <c r="E288" s="167"/>
+      <c r="C288" s="176"/>
+      <c r="D288" s="176"/>
+      <c r="E288" s="177"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7198,12 +7193,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="166" t="s">
+      <c r="B290" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="166"/>
-      <c r="D290" s="166"/>
-      <c r="E290" s="167"/>
+      <c r="C290" s="176"/>
+      <c r="D290" s="176"/>
+      <c r="E290" s="177"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7228,12 +7223,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="166" t="s">
+      <c r="B292" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="166"/>
-      <c r="D292" s="166"/>
-      <c r="E292" s="167"/>
+      <c r="C292" s="176"/>
+      <c r="D292" s="176"/>
+      <c r="E292" s="177"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7336,82 +7331,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="182" t="s">
+      <c r="B299" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="183"/>
-      <c r="D299" s="183"/>
-      <c r="E299" s="183"/>
-      <c r="F299" s="183"/>
-      <c r="G299" s="183"/>
-      <c r="H299" s="183"/>
-      <c r="I299" s="183"/>
-      <c r="J299" s="183"/>
-      <c r="K299" s="183"/>
-      <c r="L299" s="184"/>
+      <c r="C299" s="180"/>
+      <c r="D299" s="180"/>
+      <c r="E299" s="180"/>
+      <c r="F299" s="180"/>
+      <c r="G299" s="180"/>
+      <c r="H299" s="180"/>
+      <c r="I299" s="180"/>
+      <c r="J299" s="180"/>
+      <c r="K299" s="180"/>
+      <c r="L299" s="181"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="185"/>
-      <c r="C300" s="186"/>
-      <c r="D300" s="186"/>
-      <c r="E300" s="186"/>
-      <c r="F300" s="186"/>
-      <c r="G300" s="186"/>
-      <c r="H300" s="186"/>
-      <c r="I300" s="186"/>
-      <c r="J300" s="186"/>
-      <c r="K300" s="186"/>
-      <c r="L300" s="187"/>
+      <c r="B300" s="182"/>
+      <c r="C300" s="183"/>
+      <c r="D300" s="183"/>
+      <c r="E300" s="183"/>
+      <c r="F300" s="183"/>
+      <c r="G300" s="183"/>
+      <c r="H300" s="183"/>
+      <c r="I300" s="183"/>
+      <c r="J300" s="183"/>
+      <c r="K300" s="183"/>
+      <c r="L300" s="184"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="185"/>
-      <c r="C301" s="186"/>
-      <c r="D301" s="186"/>
-      <c r="E301" s="186"/>
-      <c r="F301" s="186"/>
-      <c r="G301" s="186"/>
-      <c r="H301" s="186"/>
-      <c r="I301" s="186"/>
-      <c r="J301" s="186"/>
-      <c r="K301" s="186"/>
-      <c r="L301" s="187"/>
+      <c r="B301" s="182"/>
+      <c r="C301" s="183"/>
+      <c r="D301" s="183"/>
+      <c r="E301" s="183"/>
+      <c r="F301" s="183"/>
+      <c r="G301" s="183"/>
+      <c r="H301" s="183"/>
+      <c r="I301" s="183"/>
+      <c r="J301" s="183"/>
+      <c r="K301" s="183"/>
+      <c r="L301" s="184"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="185"/>
-      <c r="C302" s="186"/>
-      <c r="D302" s="186"/>
-      <c r="E302" s="186"/>
-      <c r="F302" s="186"/>
-      <c r="G302" s="186"/>
-      <c r="H302" s="186"/>
-      <c r="I302" s="186"/>
-      <c r="J302" s="186"/>
-      <c r="K302" s="186"/>
-      <c r="L302" s="187"/>
+      <c r="B302" s="182"/>
+      <c r="C302" s="183"/>
+      <c r="D302" s="183"/>
+      <c r="E302" s="183"/>
+      <c r="F302" s="183"/>
+      <c r="G302" s="183"/>
+      <c r="H302" s="183"/>
+      <c r="I302" s="183"/>
+      <c r="J302" s="183"/>
+      <c r="K302" s="183"/>
+      <c r="L302" s="184"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="188"/>
-      <c r="C303" s="189"/>
-      <c r="D303" s="189"/>
-      <c r="E303" s="189"/>
-      <c r="F303" s="189"/>
-      <c r="G303" s="189"/>
-      <c r="H303" s="189"/>
-      <c r="I303" s="189"/>
-      <c r="J303" s="189"/>
-      <c r="K303" s="189"/>
-      <c r="L303" s="190"/>
+      <c r="B303" s="185"/>
+      <c r="C303" s="186"/>
+      <c r="D303" s="186"/>
+      <c r="E303" s="186"/>
+      <c r="F303" s="186"/>
+      <c r="G303" s="186"/>
+      <c r="H303" s="186"/>
+      <c r="I303" s="186"/>
+      <c r="J303" s="186"/>
+      <c r="K303" s="186"/>
+      <c r="L303" s="187"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7450,83 +7445,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="182" t="s">
+      <c r="B306" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="183"/>
-      <c r="D306" s="183"/>
-      <c r="E306" s="183"/>
-      <c r="F306" s="183"/>
-      <c r="G306" s="183"/>
-      <c r="H306" s="183"/>
-      <c r="I306" s="183"/>
-      <c r="J306" s="183"/>
-      <c r="K306" s="183"/>
-      <c r="L306" s="184"/>
+      <c r="C306" s="180"/>
+      <c r="D306" s="180"/>
+      <c r="E306" s="180"/>
+      <c r="F306" s="180"/>
+      <c r="G306" s="180"/>
+      <c r="H306" s="180"/>
+      <c r="I306" s="180"/>
+      <c r="J306" s="180"/>
+      <c r="K306" s="180"/>
+      <c r="L306" s="181"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="185"/>
-      <c r="C307" s="186"/>
-      <c r="D307" s="186"/>
-      <c r="E307" s="186"/>
-      <c r="F307" s="186"/>
-      <c r="G307" s="186"/>
-      <c r="H307" s="186"/>
-      <c r="I307" s="186"/>
-      <c r="J307" s="186"/>
-      <c r="K307" s="186"/>
-      <c r="L307" s="187"/>
+      <c r="B307" s="182"/>
+      <c r="C307" s="183"/>
+      <c r="D307" s="183"/>
+      <c r="E307" s="183"/>
+      <c r="F307" s="183"/>
+      <c r="G307" s="183"/>
+      <c r="H307" s="183"/>
+      <c r="I307" s="183"/>
+      <c r="J307" s="183"/>
+      <c r="K307" s="183"/>
+      <c r="L307" s="184"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="185"/>
-      <c r="C308" s="186"/>
-      <c r="D308" s="186"/>
-      <c r="E308" s="186"/>
-      <c r="F308" s="186"/>
-      <c r="G308" s="186"/>
-      <c r="H308" s="186"/>
-      <c r="I308" s="186"/>
-      <c r="J308" s="186"/>
-      <c r="K308" s="186"/>
-      <c r="L308" s="187"/>
+      <c r="B308" s="182"/>
+      <c r="C308" s="183"/>
+      <c r="D308" s="183"/>
+      <c r="E308" s="183"/>
+      <c r="F308" s="183"/>
+      <c r="G308" s="183"/>
+      <c r="H308" s="183"/>
+      <c r="I308" s="183"/>
+      <c r="J308" s="183"/>
+      <c r="K308" s="183"/>
+      <c r="L308" s="184"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="185"/>
-      <c r="C309" s="186"/>
-      <c r="D309" s="186"/>
-      <c r="E309" s="186"/>
-      <c r="F309" s="186"/>
-      <c r="G309" s="186"/>
-      <c r="H309" s="186"/>
-      <c r="I309" s="186"/>
-      <c r="J309" s="186"/>
-      <c r="K309" s="186"/>
-      <c r="L309" s="187"/>
+      <c r="B309" s="182"/>
+      <c r="C309" s="183"/>
+      <c r="D309" s="183"/>
+      <c r="E309" s="183"/>
+      <c r="F309" s="183"/>
+      <c r="G309" s="183"/>
+      <c r="H309" s="183"/>
+      <c r="I309" s="183"/>
+      <c r="J309" s="183"/>
+      <c r="K309" s="183"/>
+      <c r="L309" s="184"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="188"/>
-      <c r="C310" s="189"/>
-      <c r="D310" s="189"/>
-      <c r="E310" s="189"/>
-      <c r="F310" s="189"/>
-      <c r="G310" s="189"/>
-      <c r="H310" s="189"/>
-      <c r="I310" s="189"/>
-      <c r="J310" s="189"/>
-      <c r="K310" s="189"/>
-      <c r="L310" s="190"/>
+      <c r="B310" s="185"/>
+      <c r="C310" s="186"/>
+      <c r="D310" s="186"/>
+      <c r="E310" s="186"/>
+      <c r="F310" s="186"/>
+      <c r="G310" s="186"/>
+      <c r="H310" s="186"/>
+      <c r="I310" s="186"/>
+      <c r="J310" s="186"/>
+      <c r="K310" s="186"/>
+      <c r="L310" s="187"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7706,83 +7701,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="182" t="s">
+      <c r="B321" s="179" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="183"/>
-      <c r="D321" s="183"/>
-      <c r="E321" s="183"/>
-      <c r="F321" s="183"/>
-      <c r="G321" s="183"/>
-      <c r="H321" s="183"/>
-      <c r="I321" s="183"/>
-      <c r="J321" s="183"/>
-      <c r="K321" s="183"/>
-      <c r="L321" s="184"/>
+      <c r="C321" s="180"/>
+      <c r="D321" s="180"/>
+      <c r="E321" s="180"/>
+      <c r="F321" s="180"/>
+      <c r="G321" s="180"/>
+      <c r="H321" s="180"/>
+      <c r="I321" s="180"/>
+      <c r="J321" s="180"/>
+      <c r="K321" s="180"/>
+      <c r="L321" s="181"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="185"/>
-      <c r="C322" s="186"/>
-      <c r="D322" s="186"/>
-      <c r="E322" s="186"/>
-      <c r="F322" s="186"/>
-      <c r="G322" s="186"/>
-      <c r="H322" s="186"/>
-      <c r="I322" s="186"/>
-      <c r="J322" s="186"/>
-      <c r="K322" s="186"/>
-      <c r="L322" s="187"/>
+      <c r="B322" s="182"/>
+      <c r="C322" s="183"/>
+      <c r="D322" s="183"/>
+      <c r="E322" s="183"/>
+      <c r="F322" s="183"/>
+      <c r="G322" s="183"/>
+      <c r="H322" s="183"/>
+      <c r="I322" s="183"/>
+      <c r="J322" s="183"/>
+      <c r="K322" s="183"/>
+      <c r="L322" s="184"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="185"/>
-      <c r="C323" s="186"/>
-      <c r="D323" s="186"/>
-      <c r="E323" s="186"/>
-      <c r="F323" s="186"/>
-      <c r="G323" s="186"/>
-      <c r="H323" s="186"/>
-      <c r="I323" s="186"/>
-      <c r="J323" s="186"/>
-      <c r="K323" s="186"/>
-      <c r="L323" s="187"/>
+      <c r="B323" s="182"/>
+      <c r="C323" s="183"/>
+      <c r="D323" s="183"/>
+      <c r="E323" s="183"/>
+      <c r="F323" s="183"/>
+      <c r="G323" s="183"/>
+      <c r="H323" s="183"/>
+      <c r="I323" s="183"/>
+      <c r="J323" s="183"/>
+      <c r="K323" s="183"/>
+      <c r="L323" s="184"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="185"/>
-      <c r="C324" s="186"/>
-      <c r="D324" s="186"/>
-      <c r="E324" s="186"/>
-      <c r="F324" s="186"/>
-      <c r="G324" s="186"/>
-      <c r="H324" s="186"/>
-      <c r="I324" s="186"/>
-      <c r="J324" s="186"/>
-      <c r="K324" s="186"/>
-      <c r="L324" s="187"/>
+      <c r="B324" s="182"/>
+      <c r="C324" s="183"/>
+      <c r="D324" s="183"/>
+      <c r="E324" s="183"/>
+      <c r="F324" s="183"/>
+      <c r="G324" s="183"/>
+      <c r="H324" s="183"/>
+      <c r="I324" s="183"/>
+      <c r="J324" s="183"/>
+      <c r="K324" s="183"/>
+      <c r="L324" s="184"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="188"/>
-      <c r="C325" s="189"/>
-      <c r="D325" s="189"/>
-      <c r="E325" s="189"/>
-      <c r="F325" s="189"/>
-      <c r="G325" s="189"/>
-      <c r="H325" s="189"/>
-      <c r="I325" s="189"/>
-      <c r="J325" s="189"/>
-      <c r="K325" s="189"/>
-      <c r="L325" s="190"/>
+      <c r="B325" s="185"/>
+      <c r="C325" s="186"/>
+      <c r="D325" s="186"/>
+      <c r="E325" s="186"/>
+      <c r="F325" s="186"/>
+      <c r="G325" s="186"/>
+      <c r="H325" s="186"/>
+      <c r="I325" s="186"/>
+      <c r="J325" s="186"/>
+      <c r="K325" s="186"/>
+      <c r="L325" s="187"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7804,19 +7799,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="271" t="s">
+      <c r="B327" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="271"/>
-      <c r="D327" s="271"/>
-      <c r="E327" s="271"/>
-      <c r="F327" s="271"/>
-      <c r="G327" s="271"/>
-      <c r="H327" s="271"/>
-      <c r="I327" s="271"/>
-      <c r="J327" s="271"/>
-      <c r="K327" s="271"/>
-      <c r="L327" s="271"/>
+      <c r="C327" s="178"/>
+      <c r="D327" s="178"/>
+      <c r="E327" s="178"/>
+      <c r="F327" s="178"/>
+      <c r="G327" s="178"/>
+      <c r="H327" s="178"/>
+      <c r="I327" s="178"/>
+      <c r="J327" s="178"/>
+      <c r="K327" s="178"/>
+      <c r="L327" s="178"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7931,79 +7926,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="272" t="s">
+      <c r="B335" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="273"/>
-      <c r="D335" s="273"/>
-      <c r="E335" s="273"/>
-      <c r="F335" s="273"/>
-      <c r="G335" s="273"/>
-      <c r="H335" s="273"/>
-      <c r="I335" s="273"/>
-      <c r="J335" s="273"/>
-      <c r="K335" s="273"/>
-      <c r="L335" s="274"/>
+      <c r="C335" s="189"/>
+      <c r="D335" s="189"/>
+      <c r="E335" s="189"/>
+      <c r="F335" s="189"/>
+      <c r="G335" s="189"/>
+      <c r="H335" s="189"/>
+      <c r="I335" s="189"/>
+      <c r="J335" s="189"/>
+      <c r="K335" s="189"/>
+      <c r="L335" s="190"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="275"/>
-      <c r="C336" s="276"/>
-      <c r="D336" s="276"/>
-      <c r="E336" s="276"/>
-      <c r="F336" s="276"/>
-      <c r="G336" s="276"/>
-      <c r="H336" s="276"/>
-      <c r="I336" s="276"/>
-      <c r="J336" s="276"/>
-      <c r="K336" s="276"/>
-      <c r="L336" s="277"/>
+      <c r="B336" s="191"/>
+      <c r="C336" s="192"/>
+      <c r="D336" s="192"/>
+      <c r="E336" s="192"/>
+      <c r="F336" s="192"/>
+      <c r="G336" s="192"/>
+      <c r="H336" s="192"/>
+      <c r="I336" s="192"/>
+      <c r="J336" s="192"/>
+      <c r="K336" s="192"/>
+      <c r="L336" s="193"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="275"/>
-      <c r="C337" s="276"/>
-      <c r="D337" s="276"/>
-      <c r="E337" s="276"/>
-      <c r="F337" s="276"/>
-      <c r="G337" s="276"/>
-      <c r="H337" s="276"/>
-      <c r="I337" s="276"/>
-      <c r="J337" s="276"/>
-      <c r="K337" s="276"/>
-      <c r="L337" s="277"/>
+      <c r="B337" s="191"/>
+      <c r="C337" s="192"/>
+      <c r="D337" s="192"/>
+      <c r="E337" s="192"/>
+      <c r="F337" s="192"/>
+      <c r="G337" s="192"/>
+      <c r="H337" s="192"/>
+      <c r="I337" s="192"/>
+      <c r="J337" s="192"/>
+      <c r="K337" s="192"/>
+      <c r="L337" s="193"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="275"/>
-      <c r="C338" s="276"/>
-      <c r="D338" s="276"/>
-      <c r="E338" s="276"/>
-      <c r="F338" s="276"/>
-      <c r="G338" s="276"/>
-      <c r="H338" s="276"/>
-      <c r="I338" s="276"/>
-      <c r="J338" s="276"/>
-      <c r="K338" s="276"/>
-      <c r="L338" s="277"/>
+      <c r="B338" s="191"/>
+      <c r="C338" s="192"/>
+      <c r="D338" s="192"/>
+      <c r="E338" s="192"/>
+      <c r="F338" s="192"/>
+      <c r="G338" s="192"/>
+      <c r="H338" s="192"/>
+      <c r="I338" s="192"/>
+      <c r="J338" s="192"/>
+      <c r="K338" s="192"/>
+      <c r="L338" s="193"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="278"/>
-      <c r="C339" s="279"/>
-      <c r="D339" s="279"/>
-      <c r="E339" s="279"/>
-      <c r="F339" s="279"/>
-      <c r="G339" s="279"/>
-      <c r="H339" s="279"/>
-      <c r="I339" s="279"/>
-      <c r="J339" s="279"/>
-      <c r="K339" s="279"/>
-      <c r="L339" s="280"/>
+      <c r="B339" s="194"/>
+      <c r="C339" s="195"/>
+      <c r="D339" s="195"/>
+      <c r="E339" s="195"/>
+      <c r="F339" s="195"/>
+      <c r="G339" s="195"/>
+      <c r="H339" s="195"/>
+      <c r="I339" s="195"/>
+      <c r="J339" s="195"/>
+      <c r="K339" s="195"/>
+      <c r="L339" s="196"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8023,19 +8018,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="271" t="s">
+      <c r="B341" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="271"/>
-      <c r="D341" s="271"/>
-      <c r="E341" s="271"/>
-      <c r="F341" s="271"/>
-      <c r="G341" s="271"/>
-      <c r="H341" s="271"/>
-      <c r="I341" s="271"/>
-      <c r="J341" s="271"/>
-      <c r="K341" s="271"/>
-      <c r="L341" s="271"/>
+      <c r="C341" s="178"/>
+      <c r="D341" s="178"/>
+      <c r="E341" s="178"/>
+      <c r="F341" s="178"/>
+      <c r="G341" s="178"/>
+      <c r="H341" s="178"/>
+      <c r="I341" s="178"/>
+      <c r="J341" s="178"/>
+      <c r="K341" s="178"/>
+      <c r="L341" s="178"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8084,12 +8079,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="192" t="s">
+      <c r="B345" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="192"/>
-      <c r="D345" s="192"/>
-      <c r="E345" s="192"/>
+      <c r="C345" s="175"/>
+      <c r="D345" s="175"/>
+      <c r="E345" s="175"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8112,12 +8107,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="192" t="s">
+      <c r="B347" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="192"/>
-      <c r="D347" s="192"/>
-      <c r="E347" s="192"/>
+      <c r="C347" s="175"/>
+      <c r="D347" s="175"/>
+      <c r="E347" s="175"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8142,13 +8137,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="192" t="s">
+      <c r="B349" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="192"/>
-      <c r="D349" s="192"/>
-      <c r="E349" s="192"/>
-      <c r="F349" s="167"/>
+      <c r="C349" s="175"/>
+      <c r="D349" s="175"/>
+      <c r="E349" s="175"/>
+      <c r="F349" s="177"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8171,13 +8166,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="192" t="s">
+      <c r="B351" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="192"/>
-      <c r="D351" s="192"/>
-      <c r="E351" s="192"/>
-      <c r="F351" s="167"/>
+      <c r="C351" s="175"/>
+      <c r="D351" s="175"/>
+      <c r="E351" s="175"/>
+      <c r="F351" s="177"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8200,13 +8195,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="192" t="s">
+      <c r="B353" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="192"/>
-      <c r="D353" s="192"/>
-      <c r="E353" s="192"/>
-      <c r="F353" s="167"/>
+      <c r="C353" s="175"/>
+      <c r="D353" s="175"/>
+      <c r="E353" s="175"/>
+      <c r="F353" s="177"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8278,83 +8273,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="182" t="s">
+      <c r="B358" s="179" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="183"/>
-      <c r="D358" s="183"/>
-      <c r="E358" s="183"/>
-      <c r="F358" s="183"/>
-      <c r="G358" s="183"/>
-      <c r="H358" s="183"/>
-      <c r="I358" s="183"/>
-      <c r="J358" s="183"/>
-      <c r="K358" s="183"/>
-      <c r="L358" s="184"/>
+      <c r="C358" s="180"/>
+      <c r="D358" s="180"/>
+      <c r="E358" s="180"/>
+      <c r="F358" s="180"/>
+      <c r="G358" s="180"/>
+      <c r="H358" s="180"/>
+      <c r="I358" s="180"/>
+      <c r="J358" s="180"/>
+      <c r="K358" s="180"/>
+      <c r="L358" s="181"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="185"/>
-      <c r="C359" s="186"/>
-      <c r="D359" s="186"/>
-      <c r="E359" s="186"/>
-      <c r="F359" s="186"/>
-      <c r="G359" s="186"/>
-      <c r="H359" s="186"/>
-      <c r="I359" s="186"/>
-      <c r="J359" s="186"/>
-      <c r="K359" s="186"/>
-      <c r="L359" s="187"/>
+      <c r="B359" s="182"/>
+      <c r="C359" s="183"/>
+      <c r="D359" s="183"/>
+      <c r="E359" s="183"/>
+      <c r="F359" s="183"/>
+      <c r="G359" s="183"/>
+      <c r="H359" s="183"/>
+      <c r="I359" s="183"/>
+      <c r="J359" s="183"/>
+      <c r="K359" s="183"/>
+      <c r="L359" s="184"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="185"/>
-      <c r="C360" s="186"/>
-      <c r="D360" s="186"/>
-      <c r="E360" s="186"/>
-      <c r="F360" s="186"/>
-      <c r="G360" s="186"/>
-      <c r="H360" s="186"/>
-      <c r="I360" s="186"/>
-      <c r="J360" s="186"/>
-      <c r="K360" s="186"/>
-      <c r="L360" s="187"/>
+      <c r="B360" s="182"/>
+      <c r="C360" s="183"/>
+      <c r="D360" s="183"/>
+      <c r="E360" s="183"/>
+      <c r="F360" s="183"/>
+      <c r="G360" s="183"/>
+      <c r="H360" s="183"/>
+      <c r="I360" s="183"/>
+      <c r="J360" s="183"/>
+      <c r="K360" s="183"/>
+      <c r="L360" s="184"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="185"/>
-      <c r="C361" s="186"/>
-      <c r="D361" s="186"/>
-      <c r="E361" s="186"/>
-      <c r="F361" s="186"/>
-      <c r="G361" s="186"/>
-      <c r="H361" s="186"/>
-      <c r="I361" s="186"/>
-      <c r="J361" s="186"/>
-      <c r="K361" s="186"/>
-      <c r="L361" s="187"/>
+      <c r="B361" s="182"/>
+      <c r="C361" s="183"/>
+      <c r="D361" s="183"/>
+      <c r="E361" s="183"/>
+      <c r="F361" s="183"/>
+      <c r="G361" s="183"/>
+      <c r="H361" s="183"/>
+      <c r="I361" s="183"/>
+      <c r="J361" s="183"/>
+      <c r="K361" s="183"/>
+      <c r="L361" s="184"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="188"/>
-      <c r="C362" s="189"/>
-      <c r="D362" s="189"/>
-      <c r="E362" s="189"/>
-      <c r="F362" s="189"/>
-      <c r="G362" s="189"/>
-      <c r="H362" s="189"/>
-      <c r="I362" s="189"/>
-      <c r="J362" s="189"/>
-      <c r="K362" s="189"/>
-      <c r="L362" s="190"/>
+      <c r="B362" s="185"/>
+      <c r="C362" s="186"/>
+      <c r="D362" s="186"/>
+      <c r="E362" s="186"/>
+      <c r="F362" s="186"/>
+      <c r="G362" s="186"/>
+      <c r="H362" s="186"/>
+      <c r="I362" s="186"/>
+      <c r="J362" s="186"/>
+      <c r="K362" s="186"/>
+      <c r="L362" s="187"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8429,28 +8424,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="256" t="s">
+      <c r="B367" s="201" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="257"/>
-      <c r="D367" s="246" t="s">
+      <c r="C367" s="202"/>
+      <c r="D367" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="247"/>
-      <c r="F367" s="247"/>
-      <c r="G367" s="247"/>
-      <c r="H367" s="247"/>
-      <c r="I367" s="247"/>
-      <c r="J367" s="247"/>
-      <c r="K367" s="247"/>
-      <c r="L367" s="248"/>
+      <c r="E367" s="197"/>
+      <c r="F367" s="197"/>
+      <c r="G367" s="197"/>
+      <c r="H367" s="197"/>
+      <c r="I367" s="197"/>
+      <c r="J367" s="197"/>
+      <c r="K367" s="197"/>
+      <c r="L367" s="174"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="246"/>
-      <c r="C368" s="248"/>
+      <c r="B368" s="173"/>
+      <c r="C368" s="174"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8465,19 +8460,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="191" t="s">
+      <c r="B369" s="232" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="191"/>
-      <c r="D369" s="191"/>
-      <c r="E369" s="191"/>
-      <c r="F369" s="191"/>
-      <c r="G369" s="191"/>
-      <c r="H369" s="191"/>
-      <c r="I369" s="191"/>
-      <c r="J369" s="191"/>
-      <c r="K369" s="191"/>
-      <c r="L369" s="191"/>
+      <c r="C369" s="232"/>
+      <c r="D369" s="232"/>
+      <c r="E369" s="232"/>
+      <c r="F369" s="232"/>
+      <c r="G369" s="232"/>
+      <c r="H369" s="232"/>
+      <c r="I369" s="232"/>
+      <c r="J369" s="232"/>
+      <c r="K369" s="232"/>
+      <c r="L369" s="232"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8565,20 +8560,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="235" t="s">
+      <c r="C375" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="235"/>
-      <c r="E375" s="236" t="s">
+      <c r="D375" s="208"/>
+      <c r="E375" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="236"/>
-      <c r="G375" s="236"/>
-      <c r="H375" s="236" t="s">
+      <c r="F375" s="207"/>
+      <c r="G375" s="207"/>
+      <c r="H375" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="236"/>
-      <c r="J375" s="236"/>
+      <c r="I375" s="207"/>
+      <c r="J375" s="207"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8588,14 +8583,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="235"/>
-      <c r="D376" s="235"/>
-      <c r="E376" s="236"/>
-      <c r="F376" s="236"/>
-      <c r="G376" s="236"/>
-      <c r="H376" s="236"/>
-      <c r="I376" s="236"/>
-      <c r="J376" s="236"/>
+      <c r="C376" s="208"/>
+      <c r="D376" s="208"/>
+      <c r="E376" s="207"/>
+      <c r="F376" s="207"/>
+      <c r="G376" s="207"/>
+      <c r="H376" s="207"/>
+      <c r="I376" s="207"/>
+      <c r="J376" s="207"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8605,14 +8600,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="235"/>
-      <c r="D377" s="235"/>
-      <c r="E377" s="236"/>
-      <c r="F377" s="236"/>
-      <c r="G377" s="236"/>
-      <c r="H377" s="236"/>
-      <c r="I377" s="236"/>
-      <c r="J377" s="236"/>
+      <c r="C377" s="208"/>
+      <c r="D377" s="208"/>
+      <c r="E377" s="207"/>
+      <c r="F377" s="207"/>
+      <c r="G377" s="207"/>
+      <c r="H377" s="207"/>
+      <c r="I377" s="207"/>
+      <c r="J377" s="207"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8622,14 +8617,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="235"/>
-      <c r="D378" s="235"/>
-      <c r="E378" s="236"/>
-      <c r="F378" s="236"/>
-      <c r="G378" s="236"/>
-      <c r="H378" s="236"/>
-      <c r="I378" s="236"/>
-      <c r="J378" s="236"/>
+      <c r="C378" s="208"/>
+      <c r="D378" s="208"/>
+      <c r="E378" s="207"/>
+      <c r="F378" s="207"/>
+      <c r="G378" s="207"/>
+      <c r="H378" s="207"/>
+      <c r="I378" s="207"/>
+      <c r="J378" s="207"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8639,14 +8634,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="235"/>
-      <c r="D379" s="235"/>
-      <c r="E379" s="236"/>
-      <c r="F379" s="236"/>
-      <c r="G379" s="236"/>
-      <c r="H379" s="236"/>
-      <c r="I379" s="236"/>
-      <c r="J379" s="236"/>
+      <c r="C379" s="208"/>
+      <c r="D379" s="208"/>
+      <c r="E379" s="207"/>
+      <c r="F379" s="207"/>
+      <c r="G379" s="207"/>
+      <c r="H379" s="207"/>
+      <c r="I379" s="207"/>
+      <c r="J379" s="207"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8656,14 +8651,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="235"/>
-      <c r="D380" s="235"/>
-      <c r="E380" s="236"/>
-      <c r="F380" s="236"/>
-      <c r="G380" s="236"/>
-      <c r="H380" s="236"/>
-      <c r="I380" s="236"/>
-      <c r="J380" s="236"/>
+      <c r="C380" s="208"/>
+      <c r="D380" s="208"/>
+      <c r="E380" s="207"/>
+      <c r="F380" s="207"/>
+      <c r="G380" s="207"/>
+      <c r="H380" s="207"/>
+      <c r="I380" s="207"/>
+      <c r="J380" s="207"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8673,14 +8668,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="235"/>
-      <c r="D381" s="235"/>
-      <c r="E381" s="236"/>
-      <c r="F381" s="236"/>
-      <c r="G381" s="236"/>
-      <c r="H381" s="236"/>
-      <c r="I381" s="236"/>
-      <c r="J381" s="236"/>
+      <c r="C381" s="208"/>
+      <c r="D381" s="208"/>
+      <c r="E381" s="207"/>
+      <c r="F381" s="207"/>
+      <c r="G381" s="207"/>
+      <c r="H381" s="207"/>
+      <c r="I381" s="207"/>
+      <c r="J381" s="207"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8690,14 +8685,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="235"/>
-      <c r="D382" s="235"/>
-      <c r="E382" s="236"/>
-      <c r="F382" s="236"/>
-      <c r="G382" s="236"/>
-      <c r="H382" s="236"/>
-      <c r="I382" s="236"/>
-      <c r="J382" s="236"/>
+      <c r="C382" s="208"/>
+      <c r="D382" s="208"/>
+      <c r="E382" s="207"/>
+      <c r="F382" s="207"/>
+      <c r="G382" s="207"/>
+      <c r="H382" s="207"/>
+      <c r="I382" s="207"/>
+      <c r="J382" s="207"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8822,10 +8817,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="235" t="s">
+      <c r="C392" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="235"/>
+      <c r="D392" s="208"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8833,43 +8828,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="164" t="s">
+      <c r="B393" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="164" t="s">
+      <c r="C393" s="222" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="164" t="s">
+      <c r="D393" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="164" t="s">
+      <c r="E393" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="237" t="s">
+      <c r="F393" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="237" t="s">
+      <c r="G393" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="237" t="s">
+      <c r="H393" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="236" t="s">
+      <c r="I393" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="236"/>
+      <c r="J393" s="207"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="164"/>
-      <c r="C394" s="164"/>
-      <c r="D394" s="164"/>
-      <c r="E394" s="164"/>
-      <c r="F394" s="238"/>
-      <c r="G394" s="238"/>
-      <c r="H394" s="238"/>
+      <c r="B394" s="222"/>
+      <c r="C394" s="222"/>
+      <c r="D394" s="222"/>
+      <c r="E394" s="222"/>
+      <c r="F394" s="224"/>
+      <c r="G394" s="224"/>
+      <c r="H394" s="224"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9174,21 +9169,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="171" t="s">
+      <c r="B414" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="173"/>
-      <c r="D414" s="171" t="s">
+      <c r="C414" s="218"/>
+      <c r="D414" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="172"/>
-      <c r="F414" s="172"/>
-      <c r="G414" s="172"/>
-      <c r="H414" s="172"/>
-      <c r="I414" s="172"/>
-      <c r="J414" s="173"/>
+      <c r="E414" s="217"/>
+      <c r="F414" s="217"/>
+      <c r="G414" s="217"/>
+      <c r="H414" s="217"/>
+      <c r="I414" s="217"/>
+      <c r="J414" s="218"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="237" t="s">
+      <c r="L414" s="223" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9222,7 +9217,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="238"/>
+      <c r="L415" s="224"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9468,23 +9463,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="171" t="s">
+      <c r="B431" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="173"/>
-      <c r="D431" s="245" t="s">
+      <c r="C431" s="218"/>
+      <c r="D431" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="171" t="s">
+      <c r="E431" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="172"/>
-      <c r="G431" s="172"/>
-      <c r="H431" s="172"/>
-      <c r="I431" s="172"/>
-      <c r="J431" s="173"/>
+      <c r="F431" s="217"/>
+      <c r="G431" s="217"/>
+      <c r="H431" s="217"/>
+      <c r="I431" s="217"/>
+      <c r="J431" s="218"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="237" t="s">
+      <c r="L431" s="223" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9496,7 +9491,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="235"/>
+      <c r="D432" s="208"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9516,7 +9511,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="238"/>
+      <c r="L432" s="224"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9704,26 +9699,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="251" t="s">
+      <c r="B445" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="252"/>
-      <c r="D445" s="171" t="s">
+      <c r="C445" s="213"/>
+      <c r="D445" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="172"/>
-      <c r="F445" s="172"/>
-      <c r="G445" s="172"/>
-      <c r="H445" s="172"/>
-      <c r="I445" s="172"/>
-      <c r="J445" s="173"/>
+      <c r="E445" s="217"/>
+      <c r="F445" s="217"/>
+      <c r="G445" s="217"/>
+      <c r="H445" s="217"/>
+      <c r="I445" s="217"/>
+      <c r="J445" s="218"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="255"/>
+      <c r="L445" s="219"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="253"/>
-      <c r="C446" s="254"/>
+      <c r="B446" s="214"/>
+      <c r="C446" s="215"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9746,14 +9741,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="255"/>
+      <c r="L446" s="219"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="246" t="s">
+      <c r="B447" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="248"/>
+      <c r="C447" s="174"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9765,10 +9760,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="246" t="s">
+      <c r="B448" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="248"/>
+      <c r="C448" s="174"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9780,10 +9775,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="246" t="s">
+      <c r="B449" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="248"/>
+      <c r="C449" s="174"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9795,10 +9790,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="171" t="s">
+      <c r="B450" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="173"/>
+      <c r="C450" s="218"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10134,18 +10129,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="242" t="s">
-        <v>339</v>
-      </c>
-      <c r="D472" s="243"/>
-      <c r="E472" s="243"/>
-      <c r="F472" s="243"/>
-      <c r="G472" s="243"/>
-      <c r="H472" s="243"/>
-      <c r="I472" s="243"/>
-      <c r="J472" s="243"/>
-      <c r="K472" s="243"/>
-      <c r="L472" s="244"/>
+      <c r="C472" s="228" t="s">
+        <v>336</v>
+      </c>
+      <c r="D472" s="229"/>
+      <c r="E472" s="229"/>
+      <c r="F472" s="229"/>
+      <c r="G472" s="229"/>
+      <c r="H472" s="229"/>
+      <c r="I472" s="229"/>
+      <c r="J472" s="229"/>
+      <c r="K472" s="229"/>
+      <c r="L472" s="230"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10181,10 +10176,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="235" t="s">
+      <c r="C475" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="235"/>
+      <c r="D475" s="208"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10196,43 +10191,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="164" t="s">
+      <c r="B476" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="164" t="s">
+      <c r="C476" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="164" t="s">
+      <c r="D476" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="164" t="s">
+      <c r="E476" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="237" t="s">
+      <c r="F476" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="237" t="s">
+      <c r="G476" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="237" t="s">
+      <c r="H476" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="239" t="s">
+      <c r="I476" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="240"/>
-      <c r="K476" s="240"/>
-      <c r="L476" s="241"/>
+      <c r="J476" s="226"/>
+      <c r="K476" s="226"/>
+      <c r="L476" s="227"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="164"/>
-      <c r="C477" s="164"/>
-      <c r="D477" s="164"/>
-      <c r="E477" s="164"/>
-      <c r="F477" s="238"/>
-      <c r="G477" s="238"/>
-      <c r="H477" s="238"/>
+      <c r="B477" s="222"/>
+      <c r="C477" s="222"/>
+      <c r="D477" s="222"/>
+      <c r="E477" s="222"/>
+      <c r="F477" s="224"/>
+      <c r="G477" s="224"/>
+      <c r="H477" s="224"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10375,7 +10370,7 @@
       <c r="D484" s="39"/>
       <c r="E484" s="39"/>
       <c r="F484" s="102" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G484" s="102"/>
       <c r="H484" s="127">
@@ -10393,10 +10388,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="258" t="s">
+      <c r="F485" s="203" t="s">
         <v>277</v>
       </c>
-      <c r="G485" s="258"/>
+      <c r="G485" s="203"/>
       <c r="H485" s="127">
         <v>10000</v>
       </c>
@@ -10415,10 +10410,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="259" t="s">
+      <c r="F486" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="G486" s="259"/>
+      <c r="G486" s="204"/>
       <c r="H486" s="127">
         <v>24961.5</v>
       </c>
@@ -10441,7 +10436,7 @@
       <c r="D487" s="162"/>
       <c r="E487" s="39"/>
       <c r="F487" s="163" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G487" s="163"/>
       <c r="H487" s="127">
@@ -10459,10 +10454,10 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="259" t="s">
+      <c r="F488" s="204" t="s">
         <v>195</v>
       </c>
-      <c r="G488" s="259"/>
+      <c r="G488" s="204"/>
       <c r="H488" s="127">
         <v>17290.75</v>
       </c>
@@ -10481,10 +10476,10 @@
       <c r="C489" s="79"/>
       <c r="D489" s="79"/>
       <c r="E489" s="39"/>
-      <c r="F489" s="250" t="s">
+      <c r="F489" s="211" t="s">
         <v>196</v>
       </c>
-      <c r="G489" s="250"/>
+      <c r="G489" s="211"/>
       <c r="H489" s="138">
         <f>SUM(H478:H488)+0.01</f>
         <v>283158.7</v>
@@ -10568,7 +10563,7 @@
       <c r="D494" s="79"/>
       <c r="E494" s="79"/>
       <c r="F494" s="119" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G494" s="78"/>
       <c r="H494" s="79"/>
@@ -10629,27 +10624,27 @@
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="251" t="s">
+      <c r="B498" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="C498" s="252"/>
-      <c r="D498" s="171" t="s">
+      <c r="C498" s="213"/>
+      <c r="D498" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E498" s="172"/>
-      <c r="F498" s="172"/>
-      <c r="G498" s="172"/>
-      <c r="H498" s="172"/>
-      <c r="I498" s="172"/>
-      <c r="J498" s="173"/>
+      <c r="E498" s="217"/>
+      <c r="F498" s="217"/>
+      <c r="G498" s="217"/>
+      <c r="H498" s="217"/>
+      <c r="I498" s="217"/>
+      <c r="J498" s="218"/>
       <c r="K498" s="21"/>
-      <c r="L498" s="255"/>
+      <c r="L498" s="219"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="253"/>
-      <c r="C499" s="254"/>
+      <c r="B499" s="214"/>
+      <c r="C499" s="215"/>
       <c r="D499" s="74">
         <v>1</v>
       </c>
@@ -10672,15 +10667,15 @@
         <v>10</v>
       </c>
       <c r="K499" s="21"/>
-      <c r="L499" s="255"/>
+      <c r="L499" s="219"/>
       <c r="M499" s="79"/>
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="229" t="s">
-        <v>340</v>
-      </c>
-      <c r="C500" s="231"/>
+      <c r="B500" s="220" t="s">
+        <v>337</v>
+      </c>
+      <c r="C500" s="221"/>
       <c r="D500" s="102"/>
       <c r="E500" s="142">
         <v>3500</v>
@@ -10702,10 +10697,10 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
-      <c r="B501" s="246" t="s">
+      <c r="B501" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C501" s="248"/>
+      <c r="C501" s="174"/>
       <c r="D501" s="81"/>
       <c r="E501" s="81"/>
       <c r="F501" s="81"/>
@@ -10719,10 +10714,10 @@
     </row>
     <row r="502" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="19"/>
-      <c r="B502" s="246" t="s">
+      <c r="B502" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C502" s="248"/>
+      <c r="C502" s="174"/>
       <c r="D502" s="81"/>
       <c r="E502" s="81"/>
       <c r="F502" s="81"/>
@@ -10736,9 +10731,9 @@
     </row>
     <row r="503" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="78"/>
-      <c r="B503" s="262"/>
-      <c r="C503" s="262"/>
-      <c r="D503" s="262"/>
+      <c r="B503" s="164"/>
+      <c r="C503" s="164"/>
+      <c r="D503" s="164"/>
       <c r="E503" s="39"/>
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
@@ -11161,12 +11156,12 @@
       <c r="L530" s="79"/>
     </row>
     <row r="531" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="201" t="s">
+      <c r="A531" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="B531" s="201"/>
-      <c r="C531" s="201"/>
-      <c r="D531" s="201"/>
+      <c r="B531" s="209"/>
+      <c r="C531" s="209"/>
+      <c r="D531" s="209"/>
       <c r="I531" s="79"/>
       <c r="J531" s="79"/>
       <c r="K531" s="151"/>
@@ -11244,36 +11239,36 @@
       <c r="K536" s="150"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A537" s="249" t="s">
+      <c r="A537" s="210" t="s">
         <v>248</v>
       </c>
-      <c r="B537" s="249"/>
-      <c r="C537" s="249"/>
-      <c r="D537" s="249"/>
-      <c r="E537" s="249"/>
-      <c r="F537" s="249"/>
-      <c r="G537" s="249"/>
-      <c r="H537" s="249"/>
-      <c r="I537" s="249"/>
-      <c r="J537" s="249"/>
-      <c r="K537" s="249"/>
-      <c r="L537" s="249"/>
+      <c r="B537" s="210"/>
+      <c r="C537" s="210"/>
+      <c r="D537" s="210"/>
+      <c r="E537" s="210"/>
+      <c r="F537" s="210"/>
+      <c r="G537" s="210"/>
+      <c r="H537" s="210"/>
+      <c r="I537" s="210"/>
+      <c r="J537" s="210"/>
+      <c r="K537" s="210"/>
+      <c r="L537" s="210"/>
     </row>
     <row r="538" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="249" t="s">
+      <c r="A538" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="B538" s="249"/>
-      <c r="C538" s="249"/>
-      <c r="D538" s="249"/>
-      <c r="E538" s="249"/>
-      <c r="F538" s="249"/>
-      <c r="G538" s="249"/>
-      <c r="H538" s="249"/>
-      <c r="I538" s="249"/>
-      <c r="J538" s="249"/>
-      <c r="K538" s="249"/>
-      <c r="L538" s="249"/>
+      <c r="B538" s="210"/>
+      <c r="C538" s="210"/>
+      <c r="D538" s="210"/>
+      <c r="E538" s="210"/>
+      <c r="F538" s="210"/>
+      <c r="G538" s="210"/>
+      <c r="H538" s="210"/>
+      <c r="I538" s="210"/>
+      <c r="J538" s="210"/>
+      <c r="K538" s="210"/>
+      <c r="L538" s="210"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A539" s="79"/>
@@ -11304,20 +11299,20 @@
       <c r="K540" s="150"/>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A541" s="249" t="s">
+      <c r="A541" s="210" t="s">
         <v>250</v>
       </c>
-      <c r="B541" s="249"/>
-      <c r="C541" s="249"/>
-      <c r="D541" s="249"/>
-      <c r="E541" s="249"/>
-      <c r="F541" s="249"/>
-      <c r="G541" s="249"/>
-      <c r="H541" s="249"/>
-      <c r="I541" s="249"/>
-      <c r="J541" s="249"/>
-      <c r="K541" s="249"/>
-      <c r="L541" s="249"/>
+      <c r="B541" s="210"/>
+      <c r="C541" s="210"/>
+      <c r="D541" s="210"/>
+      <c r="E541" s="210"/>
+      <c r="F541" s="210"/>
+      <c r="G541" s="210"/>
+      <c r="H541" s="210"/>
+      <c r="I541" s="210"/>
+      <c r="J541" s="210"/>
+      <c r="K541" s="210"/>
+      <c r="L541" s="210"/>
     </row>
     <row r="542" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="78"/>
@@ -11333,6 +11328,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B369:L369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:L216"/>
+    <mergeCell ref="B126:L126"/>
+    <mergeCell ref="B129:L129"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:L123"/>
+    <mergeCell ref="B193:L197"/>
+    <mergeCell ref="B200:L204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A537:L537"/>
+    <mergeCell ref="A538:L538"/>
+    <mergeCell ref="A541:L541"/>
+    <mergeCell ref="F489:G489"/>
+    <mergeCell ref="B498:C499"/>
+    <mergeCell ref="D498:J498"/>
+    <mergeCell ref="L498:L499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="B503:D503"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -11357,138 +11480,10 @@
     <mergeCell ref="D367:L367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:L237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B502:C502"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A537:L537"/>
-    <mergeCell ref="A538:L538"/>
-    <mergeCell ref="A541:L541"/>
-    <mergeCell ref="F489:G489"/>
-    <mergeCell ref="B498:C499"/>
-    <mergeCell ref="D498:J498"/>
-    <mergeCell ref="L498:L499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:L369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:L216"/>
-    <mergeCell ref="B126:L126"/>
-    <mergeCell ref="B129:L129"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:L123"/>
-    <mergeCell ref="B193:L197"/>
-    <mergeCell ref="B200:L204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="36" max="11" man="1"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CD19C-3783-42BA-AA53-6F0795178B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691DC94C-0764-4F43-8D1B-8317C8C2C2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="600" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="600" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IEP N° 54411 SR" sheetId="1" r:id="rId1"/>
+    <sheet name="IEP N° 54408 Ayrihuanca" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54411 SR'!$A$2:$L$542</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54408 Ayrihuanca'!$A$2:$L$541</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1032,9 +1032,6 @@
     <t>GRAU</t>
   </si>
   <si>
-    <t>SANTA ROSA</t>
-  </si>
-  <si>
     <t>0104 EDUCACIÓN PRIMARIA</t>
   </si>
   <si>
@@ -1053,9 +1050,6 @@
     <t>SERVICIO DE EDUCACIÓN PRIMARIA</t>
   </si>
   <si>
-    <t>N:-8435637.54;  E:-733100.07 ALTITUD 3550 msnm</t>
-  </si>
-  <si>
     <t>OOPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA I.E.  INTEGRADO ANDRES AVELINO CACERES (IEP N° 54411) – SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU - REGION APURIMAC</t>
   </si>
   <si>
@@ -1068,9 +1062,6 @@
     <t>"OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR Y FORMACION DE LA IEP N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
   <si>
-    <t>GASTOS GENERALES</t>
-  </si>
-  <si>
     <t>GESTION DE PROYECTO</t>
   </si>
   <si>
@@ -1084,6 +1075,15 @@
   </si>
   <si>
     <t>0200220</t>
+  </si>
+  <si>
+    <t>MICAELA BASTIDAS</t>
+  </si>
+  <si>
+    <t>AYRIHUANCA</t>
+  </si>
+  <si>
+    <t>N:-8438267.47mS;  E:-757197.69 mE ALTITUD 34814 msnm</t>
   </si>
 </sst>
 </file>
@@ -2011,6 +2011,300 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2038,52 +2332,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2109,258 +2361,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2648,10 +2648,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:P545"/>
+  <dimension ref="A3:P544"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A487" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="J478" sqref="J478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2673,52 +2673,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="193" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="236"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="196"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="197" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="200"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="241"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2752,17 +2752,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="166" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="B8" s="264" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="266"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2959,10 +2959,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="263" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="165"/>
+      <c r="E21" s="263"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="165" t="s">
-        <v>329</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="263" t="s">
+        <v>328</v>
+      </c>
+      <c r="E23" s="263"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3056,13 +3056,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="169" t="s">
-        <v>334</v>
-      </c>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
+      <c r="F27" s="267" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="267"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="267"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3081,22 +3081,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="242" t="s">
+      <c r="B29" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="170" t="s">
-        <v>330</v>
-      </c>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="172"/>
+      <c r="G29" s="268" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="269"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="269"/>
+      <c r="L29" s="270"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3115,11 +3115,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="261"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>17</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I31" s="129" t="s">
         <v>18</v>
@@ -3280,12 +3280,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="198" t="s">
+      <c r="G40" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="199"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
+      <c r="H40" s="233"/>
+      <c r="I40" s="233"/>
+      <c r="J40" s="234"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3298,12 +3298,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="198" t="s">
+      <c r="G41" s="232" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="199"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
+      <c r="H41" s="233"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="234"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3316,12 +3316,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="232" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="H42" s="233"/>
+      <c r="I42" s="233"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3334,12 +3334,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="198" t="s">
+      <c r="G43" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
+      <c r="H43" s="233"/>
+      <c r="I43" s="233"/>
+      <c r="J43" s="234"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3383,12 +3383,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="198" t="s">
+      <c r="G46" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200"/>
+      <c r="H46" s="233"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="198" t="s">
+      <c r="G47" s="232" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="199"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="H47" s="233"/>
+      <c r="I47" s="233"/>
+      <c r="J47" s="234"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3419,12 +3419,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="220" t="s">
+      <c r="G48" s="229" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="271"/>
-      <c r="I48" s="271"/>
-      <c r="J48" s="221"/>
+      <c r="H48" s="230"/>
+      <c r="I48" s="230"/>
+      <c r="J48" s="231"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3438,7 +3438,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="131" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H49" s="132"/>
       <c r="I49" s="132"/>
@@ -3491,12 +3491,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="198" t="s">
+      <c r="G52" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3509,12 +3509,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="198" t="s">
+      <c r="G53" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="199"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
+      <c r="H53" s="233"/>
+      <c r="I53" s="233"/>
+      <c r="J53" s="234"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3528,7 +3528,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="131" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="132"/>
@@ -3550,7 +3550,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="131" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H55" s="132"/>
       <c r="I55" s="132"/>
@@ -3604,7 +3604,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="131" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H58" s="132"/>
       <c r="I58" s="132"/>
@@ -3700,7 +3700,7 @@
       <c r="C64" s="89"/>
       <c r="D64" s="89"/>
       <c r="E64" s="130" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89"/>
@@ -3763,14 +3763,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="173" t="s">
-        <v>344</v>
-      </c>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
-      <c r="H68" s="197"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="174"/>
+      <c r="E68" s="246" t="s">
+        <v>341</v>
+      </c>
+      <c r="F68" s="247"/>
+      <c r="G68" s="247"/>
+      <c r="H68" s="247"/>
+      <c r="I68" s="247"/>
+      <c r="J68" s="248"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3835,11 +3835,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="222" t="s">
+      <c r="F72" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="222"/>
-      <c r="H72" s="222"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3854,14 +3854,16 @@
         <v>327</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="272" t="s">
-        <v>335</v>
-      </c>
-      <c r="G73" s="272"/>
-      <c r="H73" s="272"/>
+        <v>343</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F73" s="165" t="s">
+        <v>345</v>
+      </c>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3993,10 +3995,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="207" t="s">
+      <c r="D82" s="236" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="207"/>
+      <c r="E82" s="236"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4082,17 +4084,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="274" t="s">
+      <c r="B87" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="274"/>
-      <c r="D87" s="274"/>
-      <c r="E87" s="274"/>
-      <c r="F87" s="274"/>
-      <c r="G87" s="274"/>
-      <c r="H87" s="274"/>
-      <c r="I87" s="274"/>
-      <c r="J87" s="274"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
+      <c r="F87" s="169"/>
+      <c r="G87" s="169"/>
+      <c r="H87" s="169"/>
+      <c r="I87" s="169"/>
+      <c r="J87" s="169"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4259,10 +4261,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="276" t="s">
+      <c r="E98" s="174" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="277"/>
+      <c r="F98" s="175"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4442,13 +4444,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="259" t="s">
+      <c r="B110" s="220" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="259"/>
-      <c r="D110" s="259"/>
-      <c r="E110" s="259"/>
-      <c r="F110" s="260"/>
+      <c r="C110" s="220"/>
+      <c r="D110" s="220"/>
+      <c r="E110" s="220"/>
+      <c r="F110" s="221"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4463,8 +4465,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="261"/>
-      <c r="H111" s="261"/>
+      <c r="G111" s="222"/>
+      <c r="H111" s="222"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4472,13 +4474,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="259" t="s">
+      <c r="B112" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="259"/>
-      <c r="D112" s="259"/>
-      <c r="E112" s="259"/>
-      <c r="F112" s="260"/>
+      <c r="C112" s="220"/>
+      <c r="D112" s="220"/>
+      <c r="E112" s="220"/>
+      <c r="F112" s="221"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4610,47 +4612,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="262" t="s">
+      <c r="B121" s="223" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="263"/>
-      <c r="D121" s="263"/>
-      <c r="E121" s="263"/>
-      <c r="F121" s="263"/>
-      <c r="G121" s="263"/>
-      <c r="H121" s="263"/>
-      <c r="I121" s="263"/>
-      <c r="J121" s="263"/>
-      <c r="K121" s="263"/>
-      <c r="L121" s="264"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="224"/>
+      <c r="F121" s="224"/>
+      <c r="G121" s="224"/>
+      <c r="H121" s="224"/>
+      <c r="I121" s="224"/>
+      <c r="J121" s="224"/>
+      <c r="K121" s="224"/>
+      <c r="L121" s="225"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="265"/>
-      <c r="C122" s="266"/>
-      <c r="D122" s="266"/>
-      <c r="E122" s="266"/>
-      <c r="F122" s="266"/>
-      <c r="G122" s="266"/>
-      <c r="H122" s="266"/>
-      <c r="I122" s="266"/>
-      <c r="J122" s="266"/>
-      <c r="K122" s="266"/>
-      <c r="L122" s="267"/>
+      <c r="B122" s="176"/>
+      <c r="C122" s="177"/>
+      <c r="D122" s="177"/>
+      <c r="E122" s="177"/>
+      <c r="F122" s="177"/>
+      <c r="G122" s="177"/>
+      <c r="H122" s="177"/>
+      <c r="I122" s="177"/>
+      <c r="J122" s="177"/>
+      <c r="K122" s="177"/>
+      <c r="L122" s="178"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="268"/>
-      <c r="C123" s="269"/>
-      <c r="D123" s="269"/>
-      <c r="E123" s="269"/>
-      <c r="F123" s="269"/>
-      <c r="G123" s="269"/>
-      <c r="H123" s="269"/>
-      <c r="I123" s="269"/>
-      <c r="J123" s="269"/>
-      <c r="K123" s="269"/>
-      <c r="L123" s="270"/>
+      <c r="B123" s="226"/>
+      <c r="C123" s="227"/>
+      <c r="D123" s="227"/>
+      <c r="E123" s="227"/>
+      <c r="F123" s="227"/>
+      <c r="G123" s="227"/>
+      <c r="H123" s="227"/>
+      <c r="I123" s="227"/>
+      <c r="J123" s="227"/>
+      <c r="K123" s="227"/>
+      <c r="L123" s="228"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4684,19 +4686,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="252" t="s">
+      <c r="B126" s="213" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="253"/>
-      <c r="D126" s="253"/>
-      <c r="E126" s="253"/>
-      <c r="F126" s="253"/>
-      <c r="G126" s="253"/>
-      <c r="H126" s="253"/>
-      <c r="I126" s="253"/>
-      <c r="J126" s="253"/>
-      <c r="K126" s="253"/>
-      <c r="L126" s="254"/>
+      <c r="C126" s="214"/>
+      <c r="D126" s="214"/>
+      <c r="E126" s="214"/>
+      <c r="F126" s="214"/>
+      <c r="G126" s="214"/>
+      <c r="H126" s="214"/>
+      <c r="I126" s="214"/>
+      <c r="J126" s="214"/>
+      <c r="K126" s="214"/>
+      <c r="L126" s="215"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4730,19 +4732,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="255" t="s">
+      <c r="B129" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="256"/>
-      <c r="D129" s="256"/>
-      <c r="E129" s="256"/>
-      <c r="F129" s="256"/>
-      <c r="G129" s="256"/>
-      <c r="H129" s="256"/>
-      <c r="I129" s="256"/>
-      <c r="J129" s="256"/>
-      <c r="K129" s="256"/>
-      <c r="L129" s="257"/>
+      <c r="C129" s="217"/>
+      <c r="D129" s="217"/>
+      <c r="E129" s="217"/>
+      <c r="F129" s="217"/>
+      <c r="G129" s="217"/>
+      <c r="H129" s="217"/>
+      <c r="I129" s="217"/>
+      <c r="J129" s="217"/>
+      <c r="K129" s="217"/>
+      <c r="L129" s="218"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4941,19 +4943,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="258" t="s">
+      <c r="B143" s="219" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="258"/>
-      <c r="D143" s="258"/>
-      <c r="E143" s="258"/>
-      <c r="F143" s="258"/>
-      <c r="G143" s="258"/>
-      <c r="H143" s="258"/>
-      <c r="I143" s="258"/>
-      <c r="J143" s="258"/>
-      <c r="K143" s="258"/>
-      <c r="L143" s="258"/>
+      <c r="C143" s="219"/>
+      <c r="D143" s="219"/>
+      <c r="E143" s="219"/>
+      <c r="F143" s="219"/>
+      <c r="G143" s="219"/>
+      <c r="H143" s="219"/>
+      <c r="I143" s="219"/>
+      <c r="J143" s="219"/>
+      <c r="K143" s="219"/>
+      <c r="L143" s="219"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4971,11 +4973,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="176" t="s">
+      <c r="B145" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="176"/>
-      <c r="D145" s="176"/>
+      <c r="C145" s="166"/>
+      <c r="D145" s="166"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4999,11 +5001,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="176" t="s">
+      <c r="B147" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="176"/>
-      <c r="D147" s="176"/>
+      <c r="C147" s="166"/>
+      <c r="D147" s="166"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5027,11 +5029,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="176" t="s">
+      <c r="B149" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="176"/>
-      <c r="D149" s="176"/>
+      <c r="C149" s="166"/>
+      <c r="D149" s="166"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5053,12 +5055,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="176" t="s">
+      <c r="B151" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="176"/>
-      <c r="D151" s="176"/>
-      <c r="E151" s="176"/>
+      <c r="C151" s="166"/>
+      <c r="D151" s="166"/>
+      <c r="E151" s="166"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5081,13 +5083,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="176" t="s">
+      <c r="B153" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="176"/>
-      <c r="D153" s="176"/>
-      <c r="E153" s="176"/>
-      <c r="F153" s="177"/>
+      <c r="C153" s="166"/>
+      <c r="D153" s="166"/>
+      <c r="E153" s="166"/>
+      <c r="F153" s="167"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5215,19 +5217,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="278" t="s">
+      <c r="B162" s="179" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="279"/>
-      <c r="D162" s="279"/>
-      <c r="E162" s="279"/>
-      <c r="F162" s="279"/>
-      <c r="G162" s="279"/>
-      <c r="H162" s="279"/>
-      <c r="I162" s="279"/>
-      <c r="J162" s="279"/>
-      <c r="K162" s="279"/>
-      <c r="L162" s="280"/>
+      <c r="C162" s="180"/>
+      <c r="D162" s="180"/>
+      <c r="E162" s="180"/>
+      <c r="F162" s="180"/>
+      <c r="G162" s="180"/>
+      <c r="H162" s="180"/>
+      <c r="I162" s="180"/>
+      <c r="J162" s="180"/>
+      <c r="K162" s="180"/>
+      <c r="L162" s="181"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5445,12 +5447,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="176" t="s">
+      <c r="B179" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="176"/>
-      <c r="D179" s="176"/>
-      <c r="E179" s="176"/>
+      <c r="C179" s="166"/>
+      <c r="D179" s="166"/>
+      <c r="E179" s="166"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5477,13 +5479,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="176" t="s">
+      <c r="B181" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="176"/>
-      <c r="D181" s="176"/>
-      <c r="E181" s="176"/>
-      <c r="F181" s="177"/>
+      <c r="C181" s="166"/>
+      <c r="D181" s="166"/>
+      <c r="E181" s="166"/>
+      <c r="F181" s="167"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5537,13 +5539,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="176" t="s">
+      <c r="B185" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="176"/>
-      <c r="D185" s="176"/>
-      <c r="E185" s="176"/>
-      <c r="F185" s="177"/>
+      <c r="C185" s="166"/>
+      <c r="D185" s="166"/>
+      <c r="E185" s="166"/>
+      <c r="F185" s="167"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5656,79 +5658,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="179" t="s">
+      <c r="B193" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="180"/>
-      <c r="D193" s="180"/>
-      <c r="E193" s="180"/>
-      <c r="F193" s="180"/>
-      <c r="G193" s="180"/>
-      <c r="H193" s="180"/>
-      <c r="I193" s="180"/>
-      <c r="J193" s="180"/>
-      <c r="K193" s="180"/>
-      <c r="L193" s="181"/>
+      <c r="C193" s="183"/>
+      <c r="D193" s="183"/>
+      <c r="E193" s="183"/>
+      <c r="F193" s="183"/>
+      <c r="G193" s="183"/>
+      <c r="H193" s="183"/>
+      <c r="I193" s="183"/>
+      <c r="J193" s="183"/>
+      <c r="K193" s="183"/>
+      <c r="L193" s="184"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="182"/>
-      <c r="C194" s="183"/>
-      <c r="D194" s="183"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
-      <c r="I194" s="183"/>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183"/>
-      <c r="L194" s="184"/>
+      <c r="B194" s="185"/>
+      <c r="C194" s="186"/>
+      <c r="D194" s="186"/>
+      <c r="E194" s="186"/>
+      <c r="F194" s="186"/>
+      <c r="G194" s="186"/>
+      <c r="H194" s="186"/>
+      <c r="I194" s="186"/>
+      <c r="J194" s="186"/>
+      <c r="K194" s="186"/>
+      <c r="L194" s="187"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="182"/>
-      <c r="C195" s="183"/>
-      <c r="D195" s="183"/>
-      <c r="E195" s="183"/>
-      <c r="F195" s="183"/>
-      <c r="G195" s="183"/>
-      <c r="H195" s="183"/>
-      <c r="I195" s="183"/>
-      <c r="J195" s="183"/>
-      <c r="K195" s="183"/>
-      <c r="L195" s="184"/>
+      <c r="B195" s="185"/>
+      <c r="C195" s="186"/>
+      <c r="D195" s="186"/>
+      <c r="E195" s="186"/>
+      <c r="F195" s="186"/>
+      <c r="G195" s="186"/>
+      <c r="H195" s="186"/>
+      <c r="I195" s="186"/>
+      <c r="J195" s="186"/>
+      <c r="K195" s="186"/>
+      <c r="L195" s="187"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="182"/>
-      <c r="C196" s="183"/>
-      <c r="D196" s="183"/>
-      <c r="E196" s="183"/>
-      <c r="F196" s="183"/>
-      <c r="G196" s="183"/>
-      <c r="H196" s="183"/>
-      <c r="I196" s="183"/>
-      <c r="J196" s="183"/>
-      <c r="K196" s="183"/>
-      <c r="L196" s="184"/>
+      <c r="B196" s="185"/>
+      <c r="C196" s="186"/>
+      <c r="D196" s="186"/>
+      <c r="E196" s="186"/>
+      <c r="F196" s="186"/>
+      <c r="G196" s="186"/>
+      <c r="H196" s="186"/>
+      <c r="I196" s="186"/>
+      <c r="J196" s="186"/>
+      <c r="K196" s="186"/>
+      <c r="L196" s="187"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="185"/>
-      <c r="C197" s="186"/>
-      <c r="D197" s="186"/>
-      <c r="E197" s="186"/>
-      <c r="F197" s="186"/>
-      <c r="G197" s="186"/>
-      <c r="H197" s="186"/>
-      <c r="I197" s="186"/>
-      <c r="J197" s="186"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="187"/>
+      <c r="B197" s="188"/>
+      <c r="C197" s="189"/>
+      <c r="D197" s="189"/>
+      <c r="E197" s="189"/>
+      <c r="F197" s="189"/>
+      <c r="G197" s="189"/>
+      <c r="H197" s="189"/>
+      <c r="I197" s="189"/>
+      <c r="J197" s="189"/>
+      <c r="K197" s="189"/>
+      <c r="L197" s="190"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5765,79 +5767,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="179" t="s">
+      <c r="B200" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="180"/>
-      <c r="D200" s="180"/>
-      <c r="E200" s="180"/>
-      <c r="F200" s="180"/>
-      <c r="G200" s="180"/>
-      <c r="H200" s="180"/>
-      <c r="I200" s="180"/>
-      <c r="J200" s="180"/>
-      <c r="K200" s="180"/>
-      <c r="L200" s="181"/>
+      <c r="C200" s="183"/>
+      <c r="D200" s="183"/>
+      <c r="E200" s="183"/>
+      <c r="F200" s="183"/>
+      <c r="G200" s="183"/>
+      <c r="H200" s="183"/>
+      <c r="I200" s="183"/>
+      <c r="J200" s="183"/>
+      <c r="K200" s="183"/>
+      <c r="L200" s="184"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="182"/>
-      <c r="C201" s="183"/>
-      <c r="D201" s="183"/>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="184"/>
+      <c r="B201" s="185"/>
+      <c r="C201" s="186"/>
+      <c r="D201" s="186"/>
+      <c r="E201" s="186"/>
+      <c r="F201" s="186"/>
+      <c r="G201" s="186"/>
+      <c r="H201" s="186"/>
+      <c r="I201" s="186"/>
+      <c r="J201" s="186"/>
+      <c r="K201" s="186"/>
+      <c r="L201" s="187"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="182"/>
-      <c r="C202" s="183"/>
-      <c r="D202" s="183"/>
-      <c r="E202" s="183"/>
-      <c r="F202" s="183"/>
-      <c r="G202" s="183"/>
-      <c r="H202" s="183"/>
-      <c r="I202" s="183"/>
-      <c r="J202" s="183"/>
-      <c r="K202" s="183"/>
-      <c r="L202" s="184"/>
+      <c r="B202" s="185"/>
+      <c r="C202" s="186"/>
+      <c r="D202" s="186"/>
+      <c r="E202" s="186"/>
+      <c r="F202" s="186"/>
+      <c r="G202" s="186"/>
+      <c r="H202" s="186"/>
+      <c r="I202" s="186"/>
+      <c r="J202" s="186"/>
+      <c r="K202" s="186"/>
+      <c r="L202" s="187"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="182"/>
-      <c r="C203" s="183"/>
-      <c r="D203" s="183"/>
-      <c r="E203" s="183"/>
-      <c r="F203" s="183"/>
-      <c r="G203" s="183"/>
-      <c r="H203" s="183"/>
-      <c r="I203" s="183"/>
-      <c r="J203" s="183"/>
-      <c r="K203" s="183"/>
-      <c r="L203" s="184"/>
+      <c r="B203" s="185"/>
+      <c r="C203" s="186"/>
+      <c r="D203" s="186"/>
+      <c r="E203" s="186"/>
+      <c r="F203" s="186"/>
+      <c r="G203" s="186"/>
+      <c r="H203" s="186"/>
+      <c r="I203" s="186"/>
+      <c r="J203" s="186"/>
+      <c r="K203" s="186"/>
+      <c r="L203" s="187"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="185"/>
-      <c r="C204" s="186"/>
-      <c r="D204" s="186"/>
-      <c r="E204" s="186"/>
-      <c r="F204" s="186"/>
-      <c r="G204" s="186"/>
-      <c r="H204" s="186"/>
-      <c r="I204" s="186"/>
-      <c r="J204" s="186"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="187"/>
+      <c r="B204" s="188"/>
+      <c r="C204" s="189"/>
+      <c r="D204" s="189"/>
+      <c r="E204" s="189"/>
+      <c r="F204" s="189"/>
+      <c r="G204" s="189"/>
+      <c r="H204" s="189"/>
+      <c r="I204" s="189"/>
+      <c r="J204" s="189"/>
+      <c r="K204" s="189"/>
+      <c r="L204" s="190"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5984,49 +5986,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="243" t="s">
+      <c r="B214" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="244"/>
-      <c r="D214" s="244"/>
-      <c r="E214" s="244"/>
-      <c r="F214" s="244"/>
-      <c r="G214" s="244"/>
-      <c r="H214" s="244"/>
-      <c r="I214" s="244"/>
-      <c r="J214" s="244"/>
-      <c r="K214" s="244"/>
-      <c r="L214" s="245"/>
+      <c r="C214" s="205"/>
+      <c r="D214" s="205"/>
+      <c r="E214" s="205"/>
+      <c r="F214" s="205"/>
+      <c r="G214" s="205"/>
+      <c r="H214" s="205"/>
+      <c r="I214" s="205"/>
+      <c r="J214" s="205"/>
+      <c r="K214" s="205"/>
+      <c r="L214" s="206"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="246"/>
-      <c r="C215" s="247"/>
-      <c r="D215" s="247"/>
-      <c r="E215" s="247"/>
-      <c r="F215" s="247"/>
-      <c r="G215" s="247"/>
-      <c r="H215" s="247"/>
-      <c r="I215" s="247"/>
-      <c r="J215" s="247"/>
-      <c r="K215" s="247"/>
-      <c r="L215" s="248"/>
+      <c r="B215" s="207"/>
+      <c r="C215" s="208"/>
+      <c r="D215" s="208"/>
+      <c r="E215" s="208"/>
+      <c r="F215" s="208"/>
+      <c r="G215" s="208"/>
+      <c r="H215" s="208"/>
+      <c r="I215" s="208"/>
+      <c r="J215" s="208"/>
+      <c r="K215" s="208"/>
+      <c r="L215" s="209"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="249"/>
-      <c r="C216" s="250"/>
-      <c r="D216" s="250"/>
-      <c r="E216" s="250"/>
-      <c r="F216" s="250"/>
-      <c r="G216" s="250"/>
-      <c r="H216" s="250"/>
-      <c r="I216" s="250"/>
-      <c r="J216" s="250"/>
-      <c r="K216" s="250"/>
-      <c r="L216" s="251"/>
+      <c r="B216" s="210"/>
+      <c r="C216" s="211"/>
+      <c r="D216" s="211"/>
+      <c r="E216" s="211"/>
+      <c r="F216" s="211"/>
+      <c r="G216" s="211"/>
+      <c r="H216" s="211"/>
+      <c r="I216" s="211"/>
+      <c r="J216" s="211"/>
+      <c r="K216" s="211"/>
+      <c r="L216" s="212"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6061,10 +6063,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="176" t="s">
+      <c r="B219" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="176"/>
+      <c r="C219" s="166"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6189,19 +6191,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="265" t="s">
+      <c r="B227" s="176" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="266"/>
-      <c r="D227" s="266"/>
-      <c r="E227" s="266"/>
-      <c r="F227" s="266"/>
-      <c r="G227" s="266"/>
-      <c r="H227" s="266"/>
-      <c r="I227" s="266"/>
-      <c r="J227" s="266"/>
-      <c r="K227" s="266"/>
-      <c r="L227" s="267"/>
+      <c r="C227" s="177"/>
+      <c r="D227" s="177"/>
+      <c r="E227" s="177"/>
+      <c r="F227" s="177"/>
+      <c r="G227" s="177"/>
+      <c r="H227" s="177"/>
+      <c r="I227" s="177"/>
+      <c r="J227" s="177"/>
+      <c r="K227" s="177"/>
+      <c r="L227" s="178"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6310,51 +6312,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="188" t="s">
+      <c r="B235" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="189"/>
-      <c r="D235" s="189"/>
-      <c r="E235" s="189"/>
-      <c r="F235" s="189"/>
-      <c r="G235" s="189"/>
-      <c r="H235" s="189"/>
-      <c r="I235" s="189"/>
-      <c r="J235" s="189"/>
-      <c r="K235" s="189"/>
-      <c r="L235" s="190"/>
+      <c r="C235" s="273"/>
+      <c r="D235" s="273"/>
+      <c r="E235" s="273"/>
+      <c r="F235" s="273"/>
+      <c r="G235" s="273"/>
+      <c r="H235" s="273"/>
+      <c r="I235" s="273"/>
+      <c r="J235" s="273"/>
+      <c r="K235" s="273"/>
+      <c r="L235" s="274"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="191"/>
-      <c r="C236" s="192"/>
-      <c r="D236" s="192"/>
-      <c r="E236" s="192"/>
-      <c r="F236" s="192"/>
-      <c r="G236" s="192"/>
-      <c r="H236" s="192"/>
-      <c r="I236" s="192"/>
-      <c r="J236" s="192"/>
-      <c r="K236" s="192"/>
-      <c r="L236" s="193"/>
+      <c r="B236" s="275"/>
+      <c r="C236" s="276"/>
+      <c r="D236" s="276"/>
+      <c r="E236" s="276"/>
+      <c r="F236" s="276"/>
+      <c r="G236" s="276"/>
+      <c r="H236" s="276"/>
+      <c r="I236" s="276"/>
+      <c r="J236" s="276"/>
+      <c r="K236" s="276"/>
+      <c r="L236" s="277"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="194"/>
-      <c r="C237" s="195"/>
-      <c r="D237" s="195"/>
-      <c r="E237" s="195"/>
-      <c r="F237" s="195"/>
-      <c r="G237" s="195"/>
-      <c r="H237" s="195"/>
-      <c r="I237" s="195"/>
-      <c r="J237" s="195"/>
-      <c r="K237" s="195"/>
-      <c r="L237" s="196"/>
+      <c r="B237" s="278"/>
+      <c r="C237" s="279"/>
+      <c r="D237" s="279"/>
+      <c r="E237" s="279"/>
+      <c r="F237" s="279"/>
+      <c r="G237" s="279"/>
+      <c r="H237" s="279"/>
+      <c r="I237" s="279"/>
+      <c r="J237" s="279"/>
+      <c r="K237" s="279"/>
+      <c r="L237" s="280"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6469,35 +6471,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="274" t="s">
+      <c r="B245" s="169" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="274"/>
-      <c r="D245" s="274"/>
-      <c r="E245" s="274"/>
-      <c r="F245" s="274"/>
-      <c r="G245" s="274"/>
-      <c r="H245" s="274"/>
-      <c r="I245" s="274"/>
-      <c r="J245" s="274"/>
-      <c r="K245" s="274"/>
-      <c r="L245" s="274"/>
+      <c r="C245" s="169"/>
+      <c r="D245" s="169"/>
+      <c r="E245" s="169"/>
+      <c r="F245" s="169"/>
+      <c r="G245" s="169"/>
+      <c r="H245" s="169"/>
+      <c r="I245" s="169"/>
+      <c r="J245" s="169"/>
+      <c r="K245" s="169"/>
+      <c r="L245" s="169"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="274" t="s">
+      <c r="B246" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="274"/>
-      <c r="D246" s="274"/>
-      <c r="E246" s="274"/>
-      <c r="F246" s="274"/>
-      <c r="G246" s="274"/>
-      <c r="H246" s="274"/>
-      <c r="I246" s="274"/>
-      <c r="J246" s="274"/>
-      <c r="K246" s="274"/>
-      <c r="L246" s="274"/>
+      <c r="C246" s="169"/>
+      <c r="D246" s="169"/>
+      <c r="E246" s="169"/>
+      <c r="F246" s="169"/>
+      <c r="G246" s="169"/>
+      <c r="H246" s="169"/>
+      <c r="I246" s="169"/>
+      <c r="J246" s="169"/>
+      <c r="K246" s="169"/>
+      <c r="L246" s="169"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6703,83 +6705,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="179" t="s">
+      <c r="B260" s="182" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="180"/>
-      <c r="D260" s="180"/>
-      <c r="E260" s="180"/>
-      <c r="F260" s="180"/>
-      <c r="G260" s="180"/>
-      <c r="H260" s="180"/>
-      <c r="I260" s="180"/>
-      <c r="J260" s="180"/>
-      <c r="K260" s="180"/>
-      <c r="L260" s="181"/>
+      <c r="C260" s="183"/>
+      <c r="D260" s="183"/>
+      <c r="E260" s="183"/>
+      <c r="F260" s="183"/>
+      <c r="G260" s="183"/>
+      <c r="H260" s="183"/>
+      <c r="I260" s="183"/>
+      <c r="J260" s="183"/>
+      <c r="K260" s="183"/>
+      <c r="L260" s="184"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="182"/>
-      <c r="C261" s="183"/>
-      <c r="D261" s="183"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="183"/>
-      <c r="H261" s="183"/>
-      <c r="I261" s="183"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
-      <c r="L261" s="184"/>
+      <c r="B261" s="185"/>
+      <c r="C261" s="186"/>
+      <c r="D261" s="186"/>
+      <c r="E261" s="186"/>
+      <c r="F261" s="186"/>
+      <c r="G261" s="186"/>
+      <c r="H261" s="186"/>
+      <c r="I261" s="186"/>
+      <c r="J261" s="186"/>
+      <c r="K261" s="186"/>
+      <c r="L261" s="187"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="182"/>
-      <c r="C262" s="183"/>
-      <c r="D262" s="183"/>
-      <c r="E262" s="183"/>
-      <c r="F262" s="183"/>
-      <c r="G262" s="183"/>
-      <c r="H262" s="183"/>
-      <c r="I262" s="183"/>
-      <c r="J262" s="183"/>
-      <c r="K262" s="183"/>
-      <c r="L262" s="184"/>
+      <c r="B262" s="185"/>
+      <c r="C262" s="186"/>
+      <c r="D262" s="186"/>
+      <c r="E262" s="186"/>
+      <c r="F262" s="186"/>
+      <c r="G262" s="186"/>
+      <c r="H262" s="186"/>
+      <c r="I262" s="186"/>
+      <c r="J262" s="186"/>
+      <c r="K262" s="186"/>
+      <c r="L262" s="187"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="182"/>
-      <c r="C263" s="183"/>
-      <c r="D263" s="183"/>
-      <c r="E263" s="183"/>
-      <c r="F263" s="183"/>
-      <c r="G263" s="183"/>
-      <c r="H263" s="183"/>
-      <c r="I263" s="183"/>
-      <c r="J263" s="183"/>
-      <c r="K263" s="183"/>
-      <c r="L263" s="184"/>
+      <c r="B263" s="185"/>
+      <c r="C263" s="186"/>
+      <c r="D263" s="186"/>
+      <c r="E263" s="186"/>
+      <c r="F263" s="186"/>
+      <c r="G263" s="186"/>
+      <c r="H263" s="186"/>
+      <c r="I263" s="186"/>
+      <c r="J263" s="186"/>
+      <c r="K263" s="186"/>
+      <c r="L263" s="187"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="185"/>
-      <c r="C264" s="186"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
-      <c r="F264" s="186"/>
-      <c r="G264" s="186"/>
-      <c r="H264" s="186"/>
-      <c r="I264" s="186"/>
-      <c r="J264" s="186"/>
-      <c r="K264" s="186"/>
-      <c r="L264" s="187"/>
+      <c r="B264" s="188"/>
+      <c r="C264" s="189"/>
+      <c r="D264" s="189"/>
+      <c r="E264" s="189"/>
+      <c r="F264" s="189"/>
+      <c r="G264" s="189"/>
+      <c r="H264" s="189"/>
+      <c r="I264" s="189"/>
+      <c r="J264" s="189"/>
+      <c r="K264" s="189"/>
+      <c r="L264" s="190"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6835,28 +6837,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="222" t="s">
+      <c r="B268" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="222"/>
-      <c r="D268" s="216" t="s">
+      <c r="C268" s="164"/>
+      <c r="D268" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="217"/>
-      <c r="F268" s="217"/>
-      <c r="G268" s="217"/>
-      <c r="H268" s="217"/>
-      <c r="I268" s="217"/>
-      <c r="J268" s="217"/>
-      <c r="K268" s="217"/>
-      <c r="L268" s="218"/>
+      <c r="E268" s="172"/>
+      <c r="F268" s="172"/>
+      <c r="G268" s="172"/>
+      <c r="H268" s="172"/>
+      <c r="I268" s="172"/>
+      <c r="J268" s="172"/>
+      <c r="K268" s="172"/>
+      <c r="L268" s="173"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="273"/>
-      <c r="C269" s="273"/>
+      <c r="B269" s="168"/>
+      <c r="C269" s="168"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6871,8 +6873,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="273"/>
-      <c r="C270" s="273"/>
+      <c r="B270" s="168"/>
+      <c r="C270" s="168"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6887,8 +6889,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="273"/>
-      <c r="C271" s="273"/>
+      <c r="B271" s="168"/>
+      <c r="C271" s="168"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6903,8 +6905,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="273"/>
-      <c r="C272" s="273"/>
+      <c r="B272" s="168"/>
+      <c r="C272" s="168"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6969,83 +6971,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="275" t="s">
+      <c r="B276" s="170" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="275"/>
-      <c r="D276" s="275"/>
-      <c r="E276" s="275"/>
-      <c r="F276" s="275"/>
-      <c r="G276" s="275"/>
-      <c r="H276" s="275"/>
-      <c r="I276" s="275"/>
-      <c r="J276" s="275"/>
-      <c r="K276" s="275"/>
-      <c r="L276" s="275"/>
+      <c r="C276" s="170"/>
+      <c r="D276" s="170"/>
+      <c r="E276" s="170"/>
+      <c r="F276" s="170"/>
+      <c r="G276" s="170"/>
+      <c r="H276" s="170"/>
+      <c r="I276" s="170"/>
+      <c r="J276" s="170"/>
+      <c r="K276" s="170"/>
+      <c r="L276" s="170"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="275"/>
-      <c r="C277" s="275"/>
-      <c r="D277" s="275"/>
-      <c r="E277" s="275"/>
-      <c r="F277" s="275"/>
-      <c r="G277" s="275"/>
-      <c r="H277" s="275"/>
-      <c r="I277" s="275"/>
-      <c r="J277" s="275"/>
-      <c r="K277" s="275"/>
-      <c r="L277" s="275"/>
+      <c r="B277" s="170"/>
+      <c r="C277" s="170"/>
+      <c r="D277" s="170"/>
+      <c r="E277" s="170"/>
+      <c r="F277" s="170"/>
+      <c r="G277" s="170"/>
+      <c r="H277" s="170"/>
+      <c r="I277" s="170"/>
+      <c r="J277" s="170"/>
+      <c r="K277" s="170"/>
+      <c r="L277" s="170"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="275"/>
-      <c r="C278" s="275"/>
-      <c r="D278" s="275"/>
-      <c r="E278" s="275"/>
-      <c r="F278" s="275"/>
-      <c r="G278" s="275"/>
-      <c r="H278" s="275"/>
-      <c r="I278" s="275"/>
-      <c r="J278" s="275"/>
-      <c r="K278" s="275"/>
-      <c r="L278" s="275"/>
+      <c r="B278" s="170"/>
+      <c r="C278" s="170"/>
+      <c r="D278" s="170"/>
+      <c r="E278" s="170"/>
+      <c r="F278" s="170"/>
+      <c r="G278" s="170"/>
+      <c r="H278" s="170"/>
+      <c r="I278" s="170"/>
+      <c r="J278" s="170"/>
+      <c r="K278" s="170"/>
+      <c r="L278" s="170"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="275"/>
-      <c r="C279" s="275"/>
-      <c r="D279" s="275"/>
-      <c r="E279" s="275"/>
-      <c r="F279" s="275"/>
-      <c r="G279" s="275"/>
-      <c r="H279" s="275"/>
-      <c r="I279" s="275"/>
-      <c r="J279" s="275"/>
-      <c r="K279" s="275"/>
-      <c r="L279" s="275"/>
+      <c r="B279" s="170"/>
+      <c r="C279" s="170"/>
+      <c r="D279" s="170"/>
+      <c r="E279" s="170"/>
+      <c r="F279" s="170"/>
+      <c r="G279" s="170"/>
+      <c r="H279" s="170"/>
+      <c r="I279" s="170"/>
+      <c r="J279" s="170"/>
+      <c r="K279" s="170"/>
+      <c r="L279" s="170"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="275"/>
-      <c r="C280" s="275"/>
-      <c r="D280" s="275"/>
-      <c r="E280" s="275"/>
-      <c r="F280" s="275"/>
-      <c r="G280" s="275"/>
-      <c r="H280" s="275"/>
-      <c r="I280" s="275"/>
-      <c r="J280" s="275"/>
-      <c r="K280" s="275"/>
-      <c r="L280" s="275"/>
+      <c r="B280" s="170"/>
+      <c r="C280" s="170"/>
+      <c r="D280" s="170"/>
+      <c r="E280" s="170"/>
+      <c r="F280" s="170"/>
+      <c r="G280" s="170"/>
+      <c r="H280" s="170"/>
+      <c r="I280" s="170"/>
+      <c r="J280" s="170"/>
+      <c r="K280" s="170"/>
+      <c r="L280" s="170"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7101,12 +7103,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="176" t="s">
+      <c r="B284" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="176"/>
-      <c r="D284" s="176"/>
-      <c r="E284" s="177"/>
+      <c r="C284" s="166"/>
+      <c r="D284" s="166"/>
+      <c r="E284" s="167"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7117,10 +7119,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="176"/>
-      <c r="C285" s="176"/>
-      <c r="D285" s="176"/>
-      <c r="E285" s="176"/>
+      <c r="B285" s="166"/>
+      <c r="C285" s="166"/>
+      <c r="D285" s="166"/>
+      <c r="E285" s="166"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7131,12 +7133,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="176" t="s">
+      <c r="B286" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="176"/>
-      <c r="D286" s="176"/>
-      <c r="E286" s="177"/>
+      <c r="C286" s="166"/>
+      <c r="D286" s="166"/>
+      <c r="E286" s="167"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7149,10 +7151,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="176"/>
-      <c r="C287" s="176"/>
-      <c r="D287" s="176"/>
-      <c r="E287" s="176"/>
+      <c r="B287" s="166"/>
+      <c r="C287" s="166"/>
+      <c r="D287" s="166"/>
+      <c r="E287" s="166"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7163,12 +7165,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="176" t="s">
+      <c r="B288" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="176"/>
-      <c r="D288" s="176"/>
-      <c r="E288" s="177"/>
+      <c r="C288" s="166"/>
+      <c r="D288" s="166"/>
+      <c r="E288" s="167"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7193,12 +7195,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="176" t="s">
+      <c r="B290" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="176"/>
-      <c r="D290" s="176"/>
-      <c r="E290" s="177"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
+      <c r="E290" s="167"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7223,12 +7225,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="176" t="s">
+      <c r="B292" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="176"/>
-      <c r="D292" s="176"/>
-      <c r="E292" s="177"/>
+      <c r="C292" s="166"/>
+      <c r="D292" s="166"/>
+      <c r="E292" s="167"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7331,82 +7333,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="179" t="s">
+      <c r="B299" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="180"/>
-      <c r="D299" s="180"/>
-      <c r="E299" s="180"/>
-      <c r="F299" s="180"/>
-      <c r="G299" s="180"/>
-      <c r="H299" s="180"/>
-      <c r="I299" s="180"/>
-      <c r="J299" s="180"/>
-      <c r="K299" s="180"/>
-      <c r="L299" s="181"/>
+      <c r="C299" s="183"/>
+      <c r="D299" s="183"/>
+      <c r="E299" s="183"/>
+      <c r="F299" s="183"/>
+      <c r="G299" s="183"/>
+      <c r="H299" s="183"/>
+      <c r="I299" s="183"/>
+      <c r="J299" s="183"/>
+      <c r="K299" s="183"/>
+      <c r="L299" s="184"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="182"/>
-      <c r="C300" s="183"/>
-      <c r="D300" s="183"/>
-      <c r="E300" s="183"/>
-      <c r="F300" s="183"/>
-      <c r="G300" s="183"/>
-      <c r="H300" s="183"/>
-      <c r="I300" s="183"/>
-      <c r="J300" s="183"/>
-      <c r="K300" s="183"/>
-      <c r="L300" s="184"/>
+      <c r="B300" s="185"/>
+      <c r="C300" s="186"/>
+      <c r="D300" s="186"/>
+      <c r="E300" s="186"/>
+      <c r="F300" s="186"/>
+      <c r="G300" s="186"/>
+      <c r="H300" s="186"/>
+      <c r="I300" s="186"/>
+      <c r="J300" s="186"/>
+      <c r="K300" s="186"/>
+      <c r="L300" s="187"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="182"/>
-      <c r="C301" s="183"/>
-      <c r="D301" s="183"/>
-      <c r="E301" s="183"/>
-      <c r="F301" s="183"/>
-      <c r="G301" s="183"/>
-      <c r="H301" s="183"/>
-      <c r="I301" s="183"/>
-      <c r="J301" s="183"/>
-      <c r="K301" s="183"/>
-      <c r="L301" s="184"/>
+      <c r="B301" s="185"/>
+      <c r="C301" s="186"/>
+      <c r="D301" s="186"/>
+      <c r="E301" s="186"/>
+      <c r="F301" s="186"/>
+      <c r="G301" s="186"/>
+      <c r="H301" s="186"/>
+      <c r="I301" s="186"/>
+      <c r="J301" s="186"/>
+      <c r="K301" s="186"/>
+      <c r="L301" s="187"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="182"/>
-      <c r="C302" s="183"/>
-      <c r="D302" s="183"/>
-      <c r="E302" s="183"/>
-      <c r="F302" s="183"/>
-      <c r="G302" s="183"/>
-      <c r="H302" s="183"/>
-      <c r="I302" s="183"/>
-      <c r="J302" s="183"/>
-      <c r="K302" s="183"/>
-      <c r="L302" s="184"/>
+      <c r="B302" s="185"/>
+      <c r="C302" s="186"/>
+      <c r="D302" s="186"/>
+      <c r="E302" s="186"/>
+      <c r="F302" s="186"/>
+      <c r="G302" s="186"/>
+      <c r="H302" s="186"/>
+      <c r="I302" s="186"/>
+      <c r="J302" s="186"/>
+      <c r="K302" s="186"/>
+      <c r="L302" s="187"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="185"/>
-      <c r="C303" s="186"/>
-      <c r="D303" s="186"/>
-      <c r="E303" s="186"/>
-      <c r="F303" s="186"/>
-      <c r="G303" s="186"/>
-      <c r="H303" s="186"/>
-      <c r="I303" s="186"/>
-      <c r="J303" s="186"/>
-      <c r="K303" s="186"/>
-      <c r="L303" s="187"/>
+      <c r="B303" s="188"/>
+      <c r="C303" s="189"/>
+      <c r="D303" s="189"/>
+      <c r="E303" s="189"/>
+      <c r="F303" s="189"/>
+      <c r="G303" s="189"/>
+      <c r="H303" s="189"/>
+      <c r="I303" s="189"/>
+      <c r="J303" s="189"/>
+      <c r="K303" s="189"/>
+      <c r="L303" s="190"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7445,83 +7447,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="179" t="s">
+      <c r="B306" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="180"/>
-      <c r="D306" s="180"/>
-      <c r="E306" s="180"/>
-      <c r="F306" s="180"/>
-      <c r="G306" s="180"/>
-      <c r="H306" s="180"/>
-      <c r="I306" s="180"/>
-      <c r="J306" s="180"/>
-      <c r="K306" s="180"/>
-      <c r="L306" s="181"/>
+      <c r="C306" s="183"/>
+      <c r="D306" s="183"/>
+      <c r="E306" s="183"/>
+      <c r="F306" s="183"/>
+      <c r="G306" s="183"/>
+      <c r="H306" s="183"/>
+      <c r="I306" s="183"/>
+      <c r="J306" s="183"/>
+      <c r="K306" s="183"/>
+      <c r="L306" s="184"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="182"/>
-      <c r="C307" s="183"/>
-      <c r="D307" s="183"/>
-      <c r="E307" s="183"/>
-      <c r="F307" s="183"/>
-      <c r="G307" s="183"/>
-      <c r="H307" s="183"/>
-      <c r="I307" s="183"/>
-      <c r="J307" s="183"/>
-      <c r="K307" s="183"/>
-      <c r="L307" s="184"/>
+      <c r="B307" s="185"/>
+      <c r="C307" s="186"/>
+      <c r="D307" s="186"/>
+      <c r="E307" s="186"/>
+      <c r="F307" s="186"/>
+      <c r="G307" s="186"/>
+      <c r="H307" s="186"/>
+      <c r="I307" s="186"/>
+      <c r="J307" s="186"/>
+      <c r="K307" s="186"/>
+      <c r="L307" s="187"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="182"/>
-      <c r="C308" s="183"/>
-      <c r="D308" s="183"/>
-      <c r="E308" s="183"/>
-      <c r="F308" s="183"/>
-      <c r="G308" s="183"/>
-      <c r="H308" s="183"/>
-      <c r="I308" s="183"/>
-      <c r="J308" s="183"/>
-      <c r="K308" s="183"/>
-      <c r="L308" s="184"/>
+      <c r="B308" s="185"/>
+      <c r="C308" s="186"/>
+      <c r="D308" s="186"/>
+      <c r="E308" s="186"/>
+      <c r="F308" s="186"/>
+      <c r="G308" s="186"/>
+      <c r="H308" s="186"/>
+      <c r="I308" s="186"/>
+      <c r="J308" s="186"/>
+      <c r="K308" s="186"/>
+      <c r="L308" s="187"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="182"/>
-      <c r="C309" s="183"/>
-      <c r="D309" s="183"/>
-      <c r="E309" s="183"/>
-      <c r="F309" s="183"/>
-      <c r="G309" s="183"/>
-      <c r="H309" s="183"/>
-      <c r="I309" s="183"/>
-      <c r="J309" s="183"/>
-      <c r="K309" s="183"/>
-      <c r="L309" s="184"/>
+      <c r="B309" s="185"/>
+      <c r="C309" s="186"/>
+      <c r="D309" s="186"/>
+      <c r="E309" s="186"/>
+      <c r="F309" s="186"/>
+      <c r="G309" s="186"/>
+      <c r="H309" s="186"/>
+      <c r="I309" s="186"/>
+      <c r="J309" s="186"/>
+      <c r="K309" s="186"/>
+      <c r="L309" s="187"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="185"/>
-      <c r="C310" s="186"/>
-      <c r="D310" s="186"/>
-      <c r="E310" s="186"/>
-      <c r="F310" s="186"/>
-      <c r="G310" s="186"/>
-      <c r="H310" s="186"/>
-      <c r="I310" s="186"/>
-      <c r="J310" s="186"/>
-      <c r="K310" s="186"/>
-      <c r="L310" s="187"/>
+      <c r="B310" s="188"/>
+      <c r="C310" s="189"/>
+      <c r="D310" s="189"/>
+      <c r="E310" s="189"/>
+      <c r="F310" s="189"/>
+      <c r="G310" s="189"/>
+      <c r="H310" s="189"/>
+      <c r="I310" s="189"/>
+      <c r="J310" s="189"/>
+      <c r="K310" s="189"/>
+      <c r="L310" s="190"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7701,83 +7703,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="179" t="s">
+      <c r="B321" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="180"/>
-      <c r="D321" s="180"/>
-      <c r="E321" s="180"/>
-      <c r="F321" s="180"/>
-      <c r="G321" s="180"/>
-      <c r="H321" s="180"/>
-      <c r="I321" s="180"/>
-      <c r="J321" s="180"/>
-      <c r="K321" s="180"/>
-      <c r="L321" s="181"/>
+      <c r="C321" s="183"/>
+      <c r="D321" s="183"/>
+      <c r="E321" s="183"/>
+      <c r="F321" s="183"/>
+      <c r="G321" s="183"/>
+      <c r="H321" s="183"/>
+      <c r="I321" s="183"/>
+      <c r="J321" s="183"/>
+      <c r="K321" s="183"/>
+      <c r="L321" s="184"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="182"/>
-      <c r="C322" s="183"/>
-      <c r="D322" s="183"/>
-      <c r="E322" s="183"/>
-      <c r="F322" s="183"/>
-      <c r="G322" s="183"/>
-      <c r="H322" s="183"/>
-      <c r="I322" s="183"/>
-      <c r="J322" s="183"/>
-      <c r="K322" s="183"/>
-      <c r="L322" s="184"/>
+      <c r="B322" s="185"/>
+      <c r="C322" s="186"/>
+      <c r="D322" s="186"/>
+      <c r="E322" s="186"/>
+      <c r="F322" s="186"/>
+      <c r="G322" s="186"/>
+      <c r="H322" s="186"/>
+      <c r="I322" s="186"/>
+      <c r="J322" s="186"/>
+      <c r="K322" s="186"/>
+      <c r="L322" s="187"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="182"/>
-      <c r="C323" s="183"/>
-      <c r="D323" s="183"/>
-      <c r="E323" s="183"/>
-      <c r="F323" s="183"/>
-      <c r="G323" s="183"/>
-      <c r="H323" s="183"/>
-      <c r="I323" s="183"/>
-      <c r="J323" s="183"/>
-      <c r="K323" s="183"/>
-      <c r="L323" s="184"/>
+      <c r="B323" s="185"/>
+      <c r="C323" s="186"/>
+      <c r="D323" s="186"/>
+      <c r="E323" s="186"/>
+      <c r="F323" s="186"/>
+      <c r="G323" s="186"/>
+      <c r="H323" s="186"/>
+      <c r="I323" s="186"/>
+      <c r="J323" s="186"/>
+      <c r="K323" s="186"/>
+      <c r="L323" s="187"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="182"/>
-      <c r="C324" s="183"/>
-      <c r="D324" s="183"/>
-      <c r="E324" s="183"/>
-      <c r="F324" s="183"/>
-      <c r="G324" s="183"/>
-      <c r="H324" s="183"/>
-      <c r="I324" s="183"/>
-      <c r="J324" s="183"/>
-      <c r="K324" s="183"/>
-      <c r="L324" s="184"/>
+      <c r="B324" s="185"/>
+      <c r="C324" s="186"/>
+      <c r="D324" s="186"/>
+      <c r="E324" s="186"/>
+      <c r="F324" s="186"/>
+      <c r="G324" s="186"/>
+      <c r="H324" s="186"/>
+      <c r="I324" s="186"/>
+      <c r="J324" s="186"/>
+      <c r="K324" s="186"/>
+      <c r="L324" s="187"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="185"/>
-      <c r="C325" s="186"/>
-      <c r="D325" s="186"/>
-      <c r="E325" s="186"/>
-      <c r="F325" s="186"/>
-      <c r="G325" s="186"/>
-      <c r="H325" s="186"/>
-      <c r="I325" s="186"/>
-      <c r="J325" s="186"/>
-      <c r="K325" s="186"/>
-      <c r="L325" s="187"/>
+      <c r="B325" s="188"/>
+      <c r="C325" s="189"/>
+      <c r="D325" s="189"/>
+      <c r="E325" s="189"/>
+      <c r="F325" s="189"/>
+      <c r="G325" s="189"/>
+      <c r="H325" s="189"/>
+      <c r="I325" s="189"/>
+      <c r="J325" s="189"/>
+      <c r="K325" s="189"/>
+      <c r="L325" s="190"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7799,19 +7801,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="178" t="s">
+      <c r="B327" s="271" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="178"/>
-      <c r="D327" s="178"/>
-      <c r="E327" s="178"/>
-      <c r="F327" s="178"/>
-      <c r="G327" s="178"/>
-      <c r="H327" s="178"/>
-      <c r="I327" s="178"/>
-      <c r="J327" s="178"/>
-      <c r="K327" s="178"/>
-      <c r="L327" s="178"/>
+      <c r="C327" s="271"/>
+      <c r="D327" s="271"/>
+      <c r="E327" s="271"/>
+      <c r="F327" s="271"/>
+      <c r="G327" s="271"/>
+      <c r="H327" s="271"/>
+      <c r="I327" s="271"/>
+      <c r="J327" s="271"/>
+      <c r="K327" s="271"/>
+      <c r="L327" s="271"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7926,79 +7928,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="188" t="s">
+      <c r="B335" s="272" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="189"/>
-      <c r="D335" s="189"/>
-      <c r="E335" s="189"/>
-      <c r="F335" s="189"/>
-      <c r="G335" s="189"/>
-      <c r="H335" s="189"/>
-      <c r="I335" s="189"/>
-      <c r="J335" s="189"/>
-      <c r="K335" s="189"/>
-      <c r="L335" s="190"/>
+      <c r="C335" s="273"/>
+      <c r="D335" s="273"/>
+      <c r="E335" s="273"/>
+      <c r="F335" s="273"/>
+      <c r="G335" s="273"/>
+      <c r="H335" s="273"/>
+      <c r="I335" s="273"/>
+      <c r="J335" s="273"/>
+      <c r="K335" s="273"/>
+      <c r="L335" s="274"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="191"/>
-      <c r="C336" s="192"/>
-      <c r="D336" s="192"/>
-      <c r="E336" s="192"/>
-      <c r="F336" s="192"/>
-      <c r="G336" s="192"/>
-      <c r="H336" s="192"/>
-      <c r="I336" s="192"/>
-      <c r="J336" s="192"/>
-      <c r="K336" s="192"/>
-      <c r="L336" s="193"/>
+      <c r="B336" s="275"/>
+      <c r="C336" s="276"/>
+      <c r="D336" s="276"/>
+      <c r="E336" s="276"/>
+      <c r="F336" s="276"/>
+      <c r="G336" s="276"/>
+      <c r="H336" s="276"/>
+      <c r="I336" s="276"/>
+      <c r="J336" s="276"/>
+      <c r="K336" s="276"/>
+      <c r="L336" s="277"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="191"/>
-      <c r="C337" s="192"/>
-      <c r="D337" s="192"/>
-      <c r="E337" s="192"/>
-      <c r="F337" s="192"/>
-      <c r="G337" s="192"/>
-      <c r="H337" s="192"/>
-      <c r="I337" s="192"/>
-      <c r="J337" s="192"/>
-      <c r="K337" s="192"/>
-      <c r="L337" s="193"/>
+      <c r="B337" s="275"/>
+      <c r="C337" s="276"/>
+      <c r="D337" s="276"/>
+      <c r="E337" s="276"/>
+      <c r="F337" s="276"/>
+      <c r="G337" s="276"/>
+      <c r="H337" s="276"/>
+      <c r="I337" s="276"/>
+      <c r="J337" s="276"/>
+      <c r="K337" s="276"/>
+      <c r="L337" s="277"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="191"/>
-      <c r="C338" s="192"/>
-      <c r="D338" s="192"/>
-      <c r="E338" s="192"/>
-      <c r="F338" s="192"/>
-      <c r="G338" s="192"/>
-      <c r="H338" s="192"/>
-      <c r="I338" s="192"/>
-      <c r="J338" s="192"/>
-      <c r="K338" s="192"/>
-      <c r="L338" s="193"/>
+      <c r="B338" s="275"/>
+      <c r="C338" s="276"/>
+      <c r="D338" s="276"/>
+      <c r="E338" s="276"/>
+      <c r="F338" s="276"/>
+      <c r="G338" s="276"/>
+      <c r="H338" s="276"/>
+      <c r="I338" s="276"/>
+      <c r="J338" s="276"/>
+      <c r="K338" s="276"/>
+      <c r="L338" s="277"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="194"/>
-      <c r="C339" s="195"/>
-      <c r="D339" s="195"/>
-      <c r="E339" s="195"/>
-      <c r="F339" s="195"/>
-      <c r="G339" s="195"/>
-      <c r="H339" s="195"/>
-      <c r="I339" s="195"/>
-      <c r="J339" s="195"/>
-      <c r="K339" s="195"/>
-      <c r="L339" s="196"/>
+      <c r="B339" s="278"/>
+      <c r="C339" s="279"/>
+      <c r="D339" s="279"/>
+      <c r="E339" s="279"/>
+      <c r="F339" s="279"/>
+      <c r="G339" s="279"/>
+      <c r="H339" s="279"/>
+      <c r="I339" s="279"/>
+      <c r="J339" s="279"/>
+      <c r="K339" s="279"/>
+      <c r="L339" s="280"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8018,19 +8020,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="178" t="s">
+      <c r="B341" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="178"/>
-      <c r="D341" s="178"/>
-      <c r="E341" s="178"/>
-      <c r="F341" s="178"/>
-      <c r="G341" s="178"/>
-      <c r="H341" s="178"/>
-      <c r="I341" s="178"/>
-      <c r="J341" s="178"/>
-      <c r="K341" s="178"/>
-      <c r="L341" s="178"/>
+      <c r="C341" s="271"/>
+      <c r="D341" s="271"/>
+      <c r="E341" s="271"/>
+      <c r="F341" s="271"/>
+      <c r="G341" s="271"/>
+      <c r="H341" s="271"/>
+      <c r="I341" s="271"/>
+      <c r="J341" s="271"/>
+      <c r="K341" s="271"/>
+      <c r="L341" s="271"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8079,12 +8081,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="175" t="s">
+      <c r="B345" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="175"/>
-      <c r="D345" s="175"/>
-      <c r="E345" s="175"/>
+      <c r="C345" s="192"/>
+      <c r="D345" s="192"/>
+      <c r="E345" s="192"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8107,12 +8109,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="175" t="s">
+      <c r="B347" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="175"/>
-      <c r="D347" s="175"/>
-      <c r="E347" s="175"/>
+      <c r="C347" s="192"/>
+      <c r="D347" s="192"/>
+      <c r="E347" s="192"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8137,13 +8139,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="175" t="s">
+      <c r="B349" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="175"/>
-      <c r="D349" s="175"/>
-      <c r="E349" s="175"/>
-      <c r="F349" s="177"/>
+      <c r="C349" s="192"/>
+      <c r="D349" s="192"/>
+      <c r="E349" s="192"/>
+      <c r="F349" s="167"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8166,13 +8168,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="175" t="s">
+      <c r="B351" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="175"/>
-      <c r="D351" s="175"/>
-      <c r="E351" s="175"/>
-      <c r="F351" s="177"/>
+      <c r="C351" s="192"/>
+      <c r="D351" s="192"/>
+      <c r="E351" s="192"/>
+      <c r="F351" s="167"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8195,13 +8197,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="175" t="s">
+      <c r="B353" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="175"/>
-      <c r="D353" s="175"/>
-      <c r="E353" s="175"/>
-      <c r="F353" s="177"/>
+      <c r="C353" s="192"/>
+      <c r="D353" s="192"/>
+      <c r="E353" s="192"/>
+      <c r="F353" s="167"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8273,83 +8275,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="179" t="s">
+      <c r="B358" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="180"/>
-      <c r="D358" s="180"/>
-      <c r="E358" s="180"/>
-      <c r="F358" s="180"/>
-      <c r="G358" s="180"/>
-      <c r="H358" s="180"/>
-      <c r="I358" s="180"/>
-      <c r="J358" s="180"/>
-      <c r="K358" s="180"/>
-      <c r="L358" s="181"/>
+      <c r="C358" s="183"/>
+      <c r="D358" s="183"/>
+      <c r="E358" s="183"/>
+      <c r="F358" s="183"/>
+      <c r="G358" s="183"/>
+      <c r="H358" s="183"/>
+      <c r="I358" s="183"/>
+      <c r="J358" s="183"/>
+      <c r="K358" s="183"/>
+      <c r="L358" s="184"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="182"/>
-      <c r="C359" s="183"/>
-      <c r="D359" s="183"/>
-      <c r="E359" s="183"/>
-      <c r="F359" s="183"/>
-      <c r="G359" s="183"/>
-      <c r="H359" s="183"/>
-      <c r="I359" s="183"/>
-      <c r="J359" s="183"/>
-      <c r="K359" s="183"/>
-      <c r="L359" s="184"/>
+      <c r="B359" s="185"/>
+      <c r="C359" s="186"/>
+      <c r="D359" s="186"/>
+      <c r="E359" s="186"/>
+      <c r="F359" s="186"/>
+      <c r="G359" s="186"/>
+      <c r="H359" s="186"/>
+      <c r="I359" s="186"/>
+      <c r="J359" s="186"/>
+      <c r="K359" s="186"/>
+      <c r="L359" s="187"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="182"/>
-      <c r="C360" s="183"/>
-      <c r="D360" s="183"/>
-      <c r="E360" s="183"/>
-      <c r="F360" s="183"/>
-      <c r="G360" s="183"/>
-      <c r="H360" s="183"/>
-      <c r="I360" s="183"/>
-      <c r="J360" s="183"/>
-      <c r="K360" s="183"/>
-      <c r="L360" s="184"/>
+      <c r="B360" s="185"/>
+      <c r="C360" s="186"/>
+      <c r="D360" s="186"/>
+      <c r="E360" s="186"/>
+      <c r="F360" s="186"/>
+      <c r="G360" s="186"/>
+      <c r="H360" s="186"/>
+      <c r="I360" s="186"/>
+      <c r="J360" s="186"/>
+      <c r="K360" s="186"/>
+      <c r="L360" s="187"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="182"/>
-      <c r="C361" s="183"/>
-      <c r="D361" s="183"/>
-      <c r="E361" s="183"/>
-      <c r="F361" s="183"/>
-      <c r="G361" s="183"/>
-      <c r="H361" s="183"/>
-      <c r="I361" s="183"/>
-      <c r="J361" s="183"/>
-      <c r="K361" s="183"/>
-      <c r="L361" s="184"/>
+      <c r="B361" s="185"/>
+      <c r="C361" s="186"/>
+      <c r="D361" s="186"/>
+      <c r="E361" s="186"/>
+      <c r="F361" s="186"/>
+      <c r="G361" s="186"/>
+      <c r="H361" s="186"/>
+      <c r="I361" s="186"/>
+      <c r="J361" s="186"/>
+      <c r="K361" s="186"/>
+      <c r="L361" s="187"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="185"/>
-      <c r="C362" s="186"/>
-      <c r="D362" s="186"/>
-      <c r="E362" s="186"/>
-      <c r="F362" s="186"/>
-      <c r="G362" s="186"/>
-      <c r="H362" s="186"/>
-      <c r="I362" s="186"/>
-      <c r="J362" s="186"/>
-      <c r="K362" s="186"/>
-      <c r="L362" s="187"/>
+      <c r="B362" s="188"/>
+      <c r="C362" s="189"/>
+      <c r="D362" s="189"/>
+      <c r="E362" s="189"/>
+      <c r="F362" s="189"/>
+      <c r="G362" s="189"/>
+      <c r="H362" s="189"/>
+      <c r="I362" s="189"/>
+      <c r="J362" s="189"/>
+      <c r="K362" s="189"/>
+      <c r="L362" s="190"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8424,28 +8426,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="201" t="s">
+      <c r="B367" s="256" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="202"/>
-      <c r="D367" s="173" t="s">
+      <c r="C367" s="257"/>
+      <c r="D367" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="197"/>
-      <c r="F367" s="197"/>
-      <c r="G367" s="197"/>
-      <c r="H367" s="197"/>
-      <c r="I367" s="197"/>
-      <c r="J367" s="197"/>
-      <c r="K367" s="197"/>
-      <c r="L367" s="174"/>
+      <c r="E367" s="247"/>
+      <c r="F367" s="247"/>
+      <c r="G367" s="247"/>
+      <c r="H367" s="247"/>
+      <c r="I367" s="247"/>
+      <c r="J367" s="247"/>
+      <c r="K367" s="247"/>
+      <c r="L367" s="248"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="173"/>
-      <c r="C368" s="174"/>
+      <c r="B368" s="246"/>
+      <c r="C368" s="248"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8460,19 +8462,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="232" t="s">
+      <c r="B369" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="232"/>
-      <c r="D369" s="232"/>
-      <c r="E369" s="232"/>
-      <c r="F369" s="232"/>
-      <c r="G369" s="232"/>
-      <c r="H369" s="232"/>
-      <c r="I369" s="232"/>
-      <c r="J369" s="232"/>
-      <c r="K369" s="232"/>
-      <c r="L369" s="232"/>
+      <c r="C369" s="191"/>
+      <c r="D369" s="191"/>
+      <c r="E369" s="191"/>
+      <c r="F369" s="191"/>
+      <c r="G369" s="191"/>
+      <c r="H369" s="191"/>
+      <c r="I369" s="191"/>
+      <c r="J369" s="191"/>
+      <c r="K369" s="191"/>
+      <c r="L369" s="191"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8560,20 +8562,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="208" t="s">
+      <c r="C375" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="208"/>
-      <c r="E375" s="207" t="s">
+      <c r="D375" s="235"/>
+      <c r="E375" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="207"/>
-      <c r="G375" s="207"/>
-      <c r="H375" s="207" t="s">
+      <c r="F375" s="236"/>
+      <c r="G375" s="236"/>
+      <c r="H375" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="207"/>
-      <c r="J375" s="207"/>
+      <c r="I375" s="236"/>
+      <c r="J375" s="236"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8583,14 +8585,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="208"/>
-      <c r="D376" s="208"/>
-      <c r="E376" s="207"/>
-      <c r="F376" s="207"/>
-      <c r="G376" s="207"/>
-      <c r="H376" s="207"/>
-      <c r="I376" s="207"/>
-      <c r="J376" s="207"/>
+      <c r="C376" s="235"/>
+      <c r="D376" s="235"/>
+      <c r="E376" s="236"/>
+      <c r="F376" s="236"/>
+      <c r="G376" s="236"/>
+      <c r="H376" s="236"/>
+      <c r="I376" s="236"/>
+      <c r="J376" s="236"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8600,14 +8602,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="208"/>
-      <c r="D377" s="208"/>
-      <c r="E377" s="207"/>
-      <c r="F377" s="207"/>
-      <c r="G377" s="207"/>
-      <c r="H377" s="207"/>
-      <c r="I377" s="207"/>
-      <c r="J377" s="207"/>
+      <c r="C377" s="235"/>
+      <c r="D377" s="235"/>
+      <c r="E377" s="236"/>
+      <c r="F377" s="236"/>
+      <c r="G377" s="236"/>
+      <c r="H377" s="236"/>
+      <c r="I377" s="236"/>
+      <c r="J377" s="236"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8617,14 +8619,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="208"/>
-      <c r="D378" s="208"/>
-      <c r="E378" s="207"/>
-      <c r="F378" s="207"/>
-      <c r="G378" s="207"/>
-      <c r="H378" s="207"/>
-      <c r="I378" s="207"/>
-      <c r="J378" s="207"/>
+      <c r="C378" s="235"/>
+      <c r="D378" s="235"/>
+      <c r="E378" s="236"/>
+      <c r="F378" s="236"/>
+      <c r="G378" s="236"/>
+      <c r="H378" s="236"/>
+      <c r="I378" s="236"/>
+      <c r="J378" s="236"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8634,14 +8636,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="208"/>
-      <c r="D379" s="208"/>
-      <c r="E379" s="207"/>
-      <c r="F379" s="207"/>
-      <c r="G379" s="207"/>
-      <c r="H379" s="207"/>
-      <c r="I379" s="207"/>
-      <c r="J379" s="207"/>
+      <c r="C379" s="235"/>
+      <c r="D379" s="235"/>
+      <c r="E379" s="236"/>
+      <c r="F379" s="236"/>
+      <c r="G379" s="236"/>
+      <c r="H379" s="236"/>
+      <c r="I379" s="236"/>
+      <c r="J379" s="236"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8651,14 +8653,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="208"/>
-      <c r="D380" s="208"/>
-      <c r="E380" s="207"/>
-      <c r="F380" s="207"/>
-      <c r="G380" s="207"/>
-      <c r="H380" s="207"/>
-      <c r="I380" s="207"/>
-      <c r="J380" s="207"/>
+      <c r="C380" s="235"/>
+      <c r="D380" s="235"/>
+      <c r="E380" s="236"/>
+      <c r="F380" s="236"/>
+      <c r="G380" s="236"/>
+      <c r="H380" s="236"/>
+      <c r="I380" s="236"/>
+      <c r="J380" s="236"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8668,14 +8670,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="208"/>
-      <c r="D381" s="208"/>
-      <c r="E381" s="207"/>
-      <c r="F381" s="207"/>
-      <c r="G381" s="207"/>
-      <c r="H381" s="207"/>
-      <c r="I381" s="207"/>
-      <c r="J381" s="207"/>
+      <c r="C381" s="235"/>
+      <c r="D381" s="235"/>
+      <c r="E381" s="236"/>
+      <c r="F381" s="236"/>
+      <c r="G381" s="236"/>
+      <c r="H381" s="236"/>
+      <c r="I381" s="236"/>
+      <c r="J381" s="236"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8685,14 +8687,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="208"/>
-      <c r="D382" s="208"/>
-      <c r="E382" s="207"/>
-      <c r="F382" s="207"/>
-      <c r="G382" s="207"/>
-      <c r="H382" s="207"/>
-      <c r="I382" s="207"/>
-      <c r="J382" s="207"/>
+      <c r="C382" s="235"/>
+      <c r="D382" s="235"/>
+      <c r="E382" s="236"/>
+      <c r="F382" s="236"/>
+      <c r="G382" s="236"/>
+      <c r="H382" s="236"/>
+      <c r="I382" s="236"/>
+      <c r="J382" s="236"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8817,10 +8819,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="208" t="s">
+      <c r="C392" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="208"/>
+      <c r="D392" s="235"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8828,43 +8830,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="222" t="s">
+      <c r="B393" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="222" t="s">
+      <c r="C393" s="164" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="222" t="s">
+      <c r="D393" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="222" t="s">
+      <c r="E393" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="223" t="s">
+      <c r="F393" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="223" t="s">
+      <c r="G393" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="223" t="s">
+      <c r="H393" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="207" t="s">
+      <c r="I393" s="236" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="207"/>
+      <c r="J393" s="236"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="222"/>
-      <c r="C394" s="222"/>
-      <c r="D394" s="222"/>
-      <c r="E394" s="222"/>
-      <c r="F394" s="224"/>
-      <c r="G394" s="224"/>
-      <c r="H394" s="224"/>
+      <c r="B394" s="164"/>
+      <c r="C394" s="164"/>
+      <c r="D394" s="164"/>
+      <c r="E394" s="164"/>
+      <c r="F394" s="238"/>
+      <c r="G394" s="238"/>
+      <c r="H394" s="238"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9169,21 +9171,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="216" t="s">
+      <c r="B414" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="218"/>
-      <c r="D414" s="216" t="s">
+      <c r="C414" s="173"/>
+      <c r="D414" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="217"/>
-      <c r="F414" s="217"/>
-      <c r="G414" s="217"/>
-      <c r="H414" s="217"/>
-      <c r="I414" s="217"/>
-      <c r="J414" s="218"/>
+      <c r="E414" s="172"/>
+      <c r="F414" s="172"/>
+      <c r="G414" s="172"/>
+      <c r="H414" s="172"/>
+      <c r="I414" s="172"/>
+      <c r="J414" s="173"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="223" t="s">
+      <c r="L414" s="237" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9217,7 +9219,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="224"/>
+      <c r="L415" s="238"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9463,23 +9465,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="216" t="s">
+      <c r="B431" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="218"/>
-      <c r="D431" s="231" t="s">
+      <c r="C431" s="173"/>
+      <c r="D431" s="245" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="216" t="s">
+      <c r="E431" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="217"/>
-      <c r="G431" s="217"/>
-      <c r="H431" s="217"/>
-      <c r="I431" s="217"/>
-      <c r="J431" s="218"/>
+      <c r="F431" s="172"/>
+      <c r="G431" s="172"/>
+      <c r="H431" s="172"/>
+      <c r="I431" s="172"/>
+      <c r="J431" s="173"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="223" t="s">
+      <c r="L431" s="237" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9491,7 +9493,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="208"/>
+      <c r="D432" s="235"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9511,7 +9513,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="224"/>
+      <c r="L432" s="238"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9699,26 +9701,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="212" t="s">
+      <c r="B445" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="213"/>
-      <c r="D445" s="216" t="s">
+      <c r="C445" s="252"/>
+      <c r="D445" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="217"/>
-      <c r="F445" s="217"/>
-      <c r="G445" s="217"/>
-      <c r="H445" s="217"/>
-      <c r="I445" s="217"/>
-      <c r="J445" s="218"/>
+      <c r="E445" s="172"/>
+      <c r="F445" s="172"/>
+      <c r="G445" s="172"/>
+      <c r="H445" s="172"/>
+      <c r="I445" s="172"/>
+      <c r="J445" s="173"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="219"/>
+      <c r="L445" s="255"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="214"/>
-      <c r="C446" s="215"/>
+      <c r="B446" s="253"/>
+      <c r="C446" s="254"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9741,14 +9743,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="219"/>
+      <c r="L446" s="255"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="173" t="s">
+      <c r="B447" s="246" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="174"/>
+      <c r="C447" s="248"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9760,10 +9762,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="173" t="s">
+      <c r="B448" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="174"/>
+      <c r="C448" s="248"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9775,10 +9777,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="173" t="s">
+      <c r="B449" s="246" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="174"/>
+      <c r="C449" s="248"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9790,10 +9792,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="216" t="s">
+      <c r="B450" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="218"/>
+      <c r="C450" s="173"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10129,18 +10131,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="228" t="s">
-        <v>336</v>
-      </c>
-      <c r="D472" s="229"/>
-      <c r="E472" s="229"/>
-      <c r="F472" s="229"/>
-      <c r="G472" s="229"/>
-      <c r="H472" s="229"/>
-      <c r="I472" s="229"/>
-      <c r="J472" s="229"/>
-      <c r="K472" s="229"/>
-      <c r="L472" s="230"/>
+      <c r="C472" s="242" t="s">
+        <v>334</v>
+      </c>
+      <c r="D472" s="243"/>
+      <c r="E472" s="243"/>
+      <c r="F472" s="243"/>
+      <c r="G472" s="243"/>
+      <c r="H472" s="243"/>
+      <c r="I472" s="243"/>
+      <c r="J472" s="243"/>
+      <c r="K472" s="243"/>
+      <c r="L472" s="244"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10176,10 +10178,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="208" t="s">
+      <c r="C475" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="208"/>
+      <c r="D475" s="235"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10191,43 +10193,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="222" t="s">
+      <c r="B476" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="222" t="s">
+      <c r="C476" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="222" t="s">
+      <c r="D476" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="222" t="s">
+      <c r="E476" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="223" t="s">
+      <c r="F476" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="223" t="s">
+      <c r="G476" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="223" t="s">
+      <c r="H476" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="225" t="s">
+      <c r="I476" s="239" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="226"/>
-      <c r="K476" s="226"/>
-      <c r="L476" s="227"/>
+      <c r="J476" s="240"/>
+      <c r="K476" s="240"/>
+      <c r="L476" s="241"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="222"/>
-      <c r="C477" s="222"/>
-      <c r="D477" s="222"/>
-      <c r="E477" s="222"/>
-      <c r="F477" s="224"/>
-      <c r="G477" s="224"/>
-      <c r="H477" s="224"/>
+      <c r="B477" s="164"/>
+      <c r="C477" s="164"/>
+      <c r="D477" s="164"/>
+      <c r="E477" s="164"/>
+      <c r="F477" s="238"/>
+      <c r="G477" s="238"/>
+      <c r="H477" s="238"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10258,24 +10260,25 @@
         <v>318</v>
       </c>
       <c r="G478" s="143">
-        <v>622.46</v>
+        <v>268.70999999999998</v>
       </c>
       <c r="H478" s="127">
-        <v>152424.6</v>
+        <f>152424.6+63017.78</f>
+        <v>215442.38</v>
       </c>
       <c r="J478" s="140">
         <f>N478/2</f>
-        <v>76212.3</v>
+        <v>107721.19</v>
       </c>
       <c r="K478" s="140">
         <f>+H478/2</f>
-        <v>76212.3</v>
+        <v>107721.19</v>
       </c>
       <c r="L478" s="140"/>
       <c r="M478" s="79"/>
       <c r="N478" s="139">
         <f>H478</f>
-        <v>152424.6</v>
+        <v>215442.38</v>
       </c>
     </row>
     <row r="479" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10364,23 +10367,26 @@
       <c r="M483" s="79"/>
     </row>
     <row r="484" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="161"/>
+      <c r="A484" s="78"/>
       <c r="B484" s="39"/>
-      <c r="C484" s="162"/>
-      <c r="D484" s="39"/>
+      <c r="C484" s="79"/>
+      <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="G484" s="102"/>
+      <c r="F484" s="258" t="s">
+        <v>277</v>
+      </c>
+      <c r="G484" s="258"/>
       <c r="H484" s="127">
-        <v>63017.78</v>
-      </c>
-      <c r="I484" s="102"/>
+        <v>10000</v>
+      </c>
+      <c r="I484" s="127">
+        <f>+H484</f>
+        <v>10000</v>
+      </c>
       <c r="J484" s="102"/>
       <c r="K484" s="102"/>
       <c r="L484" s="102"/>
-      <c r="M484" s="162"/>
+      <c r="M484" s="79"/>
     </row>
     <row r="485" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="78"/>
@@ -10388,65 +10394,65 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="203" t="s">
-        <v>277</v>
-      </c>
-      <c r="G485" s="203"/>
+      <c r="F485" s="259" t="s">
+        <v>278</v>
+      </c>
+      <c r="G485" s="259"/>
       <c r="H485" s="127">
-        <v>10000</v>
-      </c>
-      <c r="I485" s="127">
-        <f>+H485</f>
-        <v>10000</v>
-      </c>
-      <c r="J485" s="102"/>
-      <c r="K485" s="102"/>
+        <v>24961.5</v>
+      </c>
+      <c r="I485" s="102"/>
+      <c r="J485" s="102">
+        <f>+H485/2</f>
+        <v>12480.75</v>
+      </c>
+      <c r="K485" s="102">
+        <f>+H485/2</f>
+        <v>12480.75</v>
+      </c>
       <c r="L485" s="102"/>
       <c r="M485" s="79"/>
     </row>
     <row r="486" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="78"/>
+      <c r="A486" s="161"/>
       <c r="B486" s="39"/>
-      <c r="C486" s="79"/>
-      <c r="D486" s="79"/>
+      <c r="C486" s="162"/>
+      <c r="D486" s="162"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="204" t="s">
-        <v>278</v>
-      </c>
-      <c r="G486" s="204"/>
+      <c r="F486" s="163" t="s">
+        <v>338</v>
+      </c>
+      <c r="G486" s="163"/>
       <c r="H486" s="127">
-        <v>24961.5</v>
+        <v>15464.06</v>
       </c>
       <c r="I486" s="102"/>
-      <c r="J486" s="102">
-        <f>+H486/2</f>
-        <v>12480.75</v>
-      </c>
-      <c r="K486" s="102">
-        <f>+H486/2</f>
-        <v>12480.75</v>
-      </c>
+      <c r="J486" s="102"/>
+      <c r="K486" s="102"/>
       <c r="L486" s="102"/>
-      <c r="M486" s="79"/>
+      <c r="M486" s="162"/>
     </row>
     <row r="487" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="161"/>
+      <c r="A487" s="78"/>
       <c r="B487" s="39"/>
-      <c r="C487" s="162"/>
-      <c r="D487" s="162"/>
+      <c r="C487" s="79"/>
+      <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="163" t="s">
-        <v>341</v>
-      </c>
-      <c r="G487" s="163"/>
+      <c r="F487" s="259" t="s">
+        <v>195</v>
+      </c>
+      <c r="G487" s="259"/>
       <c r="H487" s="127">
-        <v>15464.06</v>
+        <v>17290.75</v>
       </c>
       <c r="I487" s="102"/>
       <c r="J487" s="102"/>
       <c r="K487" s="102"/>
-      <c r="L487" s="102"/>
-      <c r="M487" s="162"/>
+      <c r="L487" s="127">
+        <f>+H487</f>
+        <v>17290.75</v>
+      </c>
+      <c r="M487" s="79"/>
     </row>
     <row r="488" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="78"/>
@@ -10454,20 +10460,18 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="G488" s="204"/>
-      <c r="H488" s="127">
-        <v>17290.75</v>
+      <c r="F488" s="250" t="s">
+        <v>196</v>
+      </c>
+      <c r="G488" s="250"/>
+      <c r="H488" s="138">
+        <f>SUM(H478:H487)+0.01</f>
+        <v>283158.7</v>
       </c>
       <c r="I488" s="102"/>
       <c r="J488" s="102"/>
       <c r="K488" s="102"/>
-      <c r="L488" s="127">
-        <f>+H488</f>
-        <v>17290.75</v>
-      </c>
+      <c r="L488" s="102"/>
       <c r="M488" s="79"/>
     </row>
     <row r="489" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10476,18 +10480,13 @@
       <c r="C489" s="79"/>
       <c r="D489" s="79"/>
       <c r="E489" s="39"/>
-      <c r="F489" s="211" t="s">
-        <v>196</v>
-      </c>
-      <c r="G489" s="211"/>
-      <c r="H489" s="138">
-        <f>SUM(H478:H488)+0.01</f>
-        <v>283158.7</v>
-      </c>
-      <c r="I489" s="102"/>
-      <c r="J489" s="102"/>
-      <c r="K489" s="102"/>
-      <c r="L489" s="102"/>
+      <c r="F489" s="12"/>
+      <c r="G489" s="12"/>
+      <c r="H489" s="79"/>
+      <c r="I489" s="79"/>
+      <c r="J489" s="79"/>
+      <c r="K489" s="151"/>
+      <c r="L489" s="79"/>
       <c r="M489" s="79"/>
     </row>
     <row r="490" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10498,7 +10497,7 @@
       <c r="E490" s="39"/>
       <c r="F490" s="12"/>
       <c r="G490" s="12"/>
-      <c r="H490" s="79"/>
+      <c r="H490" s="160"/>
       <c r="I490" s="79"/>
       <c r="J490" s="79"/>
       <c r="K490" s="151"/>
@@ -10506,14 +10505,18 @@
       <c r="M490" s="79"/>
     </row>
     <row r="491" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="78"/>
-      <c r="B491" s="39"/>
+      <c r="A491" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B491" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="C491" s="79"/>
       <c r="D491" s="79"/>
-      <c r="E491" s="39"/>
-      <c r="F491" s="12"/>
-      <c r="G491" s="12"/>
-      <c r="H491" s="160"/>
+      <c r="E491" s="79"/>
+      <c r="F491" s="79"/>
+      <c r="G491" s="79"/>
+      <c r="H491" s="79"/>
       <c r="I491" s="79"/>
       <c r="J491" s="79"/>
       <c r="K491" s="151"/>
@@ -10521,14 +10524,10 @@
       <c r="M491" s="79"/>
     </row>
     <row r="492" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B492" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C492" s="79"/>
-      <c r="D492" s="79"/>
+      <c r="A492" s="19"/>
+      <c r="B492" s="79"/>
+      <c r="C492" s="32"/>
+      <c r="D492" s="32"/>
       <c r="E492" s="79"/>
       <c r="F492" s="79"/>
       <c r="G492" s="79"/>
@@ -10541,12 +10540,16 @@
     </row>
     <row r="493" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="19"/>
-      <c r="B493" s="79"/>
-      <c r="C493" s="32"/>
-      <c r="D493" s="32"/>
+      <c r="B493" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C493" s="78"/>
+      <c r="D493" s="79"/>
       <c r="E493" s="79"/>
-      <c r="F493" s="79"/>
-      <c r="G493" s="79"/>
+      <c r="F493" s="119" t="s">
+        <v>336</v>
+      </c>
+      <c r="G493" s="78"/>
       <c r="H493" s="79"/>
       <c r="I493" s="79"/>
       <c r="J493" s="79"/>
@@ -10556,15 +10559,11 @@
     </row>
     <row r="494" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="19"/>
-      <c r="B494" s="32" t="s">
-        <v>275</v>
-      </c>
+      <c r="B494" s="78"/>
       <c r="C494" s="78"/>
       <c r="D494" s="79"/>
       <c r="E494" s="79"/>
-      <c r="F494" s="119" t="s">
-        <v>338</v>
-      </c>
+      <c r="F494" s="78"/>
       <c r="G494" s="78"/>
       <c r="H494" s="79"/>
       <c r="I494" s="79"/>
@@ -10575,11 +10574,15 @@
     </row>
     <row r="495" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="19"/>
-      <c r="B495" s="78"/>
+      <c r="B495" s="32" t="s">
+        <v>276</v>
+      </c>
       <c r="C495" s="78"/>
       <c r="D495" s="79"/>
       <c r="E495" s="79"/>
-      <c r="F495" s="78"/>
+      <c r="F495" s="120">
+        <v>10</v>
+      </c>
       <c r="G495" s="78"/>
       <c r="H495" s="79"/>
       <c r="I495" s="79"/>
@@ -10590,16 +10593,12 @@
     </row>
     <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C496" s="78"/>
-      <c r="D496" s="79"/>
+      <c r="B496" s="79"/>
+      <c r="C496" s="32"/>
+      <c r="D496" s="32"/>
       <c r="E496" s="79"/>
-      <c r="F496" s="120">
-        <v>10</v>
-      </c>
-      <c r="G496" s="78"/>
+      <c r="F496" s="79"/>
+      <c r="G496" s="79"/>
       <c r="H496" s="79"/>
       <c r="I496" s="79"/>
       <c r="J496" s="79"/>
@@ -10609,98 +10608,100 @@
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="79"/>
-      <c r="C497" s="32"/>
-      <c r="D497" s="32"/>
-      <c r="E497" s="79"/>
-      <c r="F497" s="79"/>
-      <c r="G497" s="79"/>
-      <c r="H497" s="79"/>
-      <c r="I497" s="79"/>
-      <c r="J497" s="79"/>
-      <c r="K497" s="151"/>
-      <c r="L497" s="79"/>
+      <c r="B497" s="251" t="s">
+        <v>59</v>
+      </c>
+      <c r="C497" s="252"/>
+      <c r="D497" s="171" t="s">
+        <v>204</v>
+      </c>
+      <c r="E497" s="172"/>
+      <c r="F497" s="172"/>
+      <c r="G497" s="172"/>
+      <c r="H497" s="172"/>
+      <c r="I497" s="172"/>
+      <c r="J497" s="173"/>
+      <c r="K497" s="21"/>
+      <c r="L497" s="255"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="212" t="s">
-        <v>59</v>
-      </c>
-      <c r="C498" s="213"/>
-      <c r="D498" s="216" t="s">
-        <v>204</v>
-      </c>
-      <c r="E498" s="217"/>
-      <c r="F498" s="217"/>
-      <c r="G498" s="217"/>
-      <c r="H498" s="217"/>
-      <c r="I498" s="217"/>
-      <c r="J498" s="218"/>
+      <c r="B498" s="253"/>
+      <c r="C498" s="254"/>
+      <c r="D498" s="74">
+        <v>1</v>
+      </c>
+      <c r="E498" s="74">
+        <v>2</v>
+      </c>
+      <c r="F498" s="74">
+        <v>3</v>
+      </c>
+      <c r="G498" s="74">
+        <v>4</v>
+      </c>
+      <c r="H498" s="74">
+        <v>5</v>
+      </c>
+      <c r="I498" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="J498" s="74">
+        <v>10</v>
+      </c>
       <c r="K498" s="21"/>
-      <c r="L498" s="219"/>
+      <c r="L498" s="255"/>
       <c r="M498" s="79"/>
     </row>
-    <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="214"/>
-      <c r="C499" s="215"/>
-      <c r="D499" s="74">
-        <v>1</v>
-      </c>
-      <c r="E499" s="74">
-        <v>2</v>
-      </c>
-      <c r="F499" s="74">
-        <v>3</v>
-      </c>
-      <c r="G499" s="74">
-        <v>4</v>
-      </c>
-      <c r="H499" s="74">
-        <v>5</v>
-      </c>
-      <c r="I499" s="74" t="s">
+      <c r="B499" s="229" t="s">
+        <v>335</v>
+      </c>
+      <c r="C499" s="231"/>
+      <c r="D499" s="102"/>
+      <c r="E499" s="142">
+        <v>3500</v>
+      </c>
+      <c r="F499" s="102"/>
+      <c r="G499" s="142">
+        <v>3500</v>
+      </c>
+      <c r="H499" s="102"/>
+      <c r="I499" s="142">
+        <v>3500</v>
+      </c>
+      <c r="J499" s="142">
+        <v>3500</v>
+      </c>
+      <c r="K499" s="159"/>
+      <c r="L499" s="39"/>
+      <c r="M499" s="79"/>
+    </row>
+    <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="19"/>
+      <c r="B500" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="J499" s="74">
-        <v>10</v>
-      </c>
-      <c r="K499" s="21"/>
-      <c r="L499" s="219"/>
-      <c r="M499" s="79"/>
-    </row>
-    <row r="500" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="19"/>
-      <c r="B500" s="220" t="s">
-        <v>337</v>
-      </c>
-      <c r="C500" s="221"/>
-      <c r="D500" s="102"/>
-      <c r="E500" s="142">
-        <v>3500</v>
-      </c>
-      <c r="F500" s="102"/>
-      <c r="G500" s="142">
-        <v>3500</v>
-      </c>
-      <c r="H500" s="102"/>
-      <c r="I500" s="142">
-        <v>3500</v>
-      </c>
-      <c r="J500" s="142">
-        <v>3500</v>
-      </c>
-      <c r="K500" s="159"/>
+      <c r="C500" s="248"/>
+      <c r="D500" s="81"/>
+      <c r="E500" s="81"/>
+      <c r="F500" s="81"/>
+      <c r="G500" s="81"/>
+      <c r="H500" s="81"/>
+      <c r="I500" s="102"/>
+      <c r="J500" s="102"/>
+      <c r="K500" s="151"/>
       <c r="L500" s="39"/>
       <c r="M500" s="79"/>
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
-      <c r="B501" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="C501" s="174"/>
+      <c r="B501" s="246" t="s">
+        <v>220</v>
+      </c>
+      <c r="C501" s="248"/>
       <c r="D501" s="81"/>
       <c r="E501" s="81"/>
       <c r="F501" s="81"/>
@@ -10712,31 +10713,29 @@
       <c r="L501" s="39"/>
       <c r="M501" s="79"/>
     </row>
-    <row r="502" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="19"/>
-      <c r="B502" s="173" t="s">
-        <v>220</v>
-      </c>
-      <c r="C502" s="174"/>
-      <c r="D502" s="81"/>
-      <c r="E502" s="81"/>
-      <c r="F502" s="81"/>
-      <c r="G502" s="81"/>
-      <c r="H502" s="81"/>
-      <c r="I502" s="102"/>
-      <c r="J502" s="102"/>
+    <row r="502" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="78"/>
+      <c r="B502" s="262"/>
+      <c r="C502" s="262"/>
+      <c r="D502" s="262"/>
+      <c r="E502" s="39"/>
+      <c r="F502" s="12"/>
+      <c r="G502" s="12"/>
+      <c r="H502" s="79"/>
+      <c r="I502" s="79"/>
+      <c r="J502" s="79"/>
       <c r="K502" s="151"/>
-      <c r="L502" s="39"/>
+      <c r="L502" s="79"/>
       <c r="M502" s="79"/>
     </row>
-    <row r="503" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="78"/>
-      <c r="B503" s="164"/>
-      <c r="C503" s="164"/>
-      <c r="D503" s="164"/>
+      <c r="B503" s="39"/>
+      <c r="C503" s="79"/>
+      <c r="D503" s="79"/>
       <c r="E503" s="39"/>
-      <c r="F503" s="12"/>
-      <c r="G503" s="12"/>
+      <c r="F503" s="79"/>
+      <c r="G503" s="79"/>
       <c r="H503" s="79"/>
       <c r="I503" s="79"/>
       <c r="J503" s="79"/>
@@ -10745,11 +10744,15 @@
       <c r="M503" s="79"/>
     </row>
     <row r="504" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="78"/>
-      <c r="B504" s="39"/>
-      <c r="C504" s="79"/>
-      <c r="D504" s="79"/>
-      <c r="E504" s="39"/>
+      <c r="A504" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C504" s="123"/>
+      <c r="D504" s="24"/>
+      <c r="E504" s="24"/>
       <c r="F504" s="79"/>
       <c r="G504" s="79"/>
       <c r="H504" s="79"/>
@@ -10760,15 +10763,11 @@
       <c r="M504" s="79"/>
     </row>
     <row r="505" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B505" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C505" s="123"/>
-      <c r="D505" s="24"/>
-      <c r="E505" s="24"/>
+      <c r="A505" s="19"/>
+      <c r="B505" s="78"/>
+      <c r="C505" s="79"/>
+      <c r="D505" s="78"/>
+      <c r="E505" s="78"/>
       <c r="F505" s="79"/>
       <c r="G505" s="79"/>
       <c r="H505" s="79"/>
@@ -10780,10 +10779,14 @@
     </row>
     <row r="506" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="19"/>
-      <c r="B506" s="78"/>
-      <c r="C506" s="79"/>
-      <c r="D506" s="78"/>
-      <c r="E506" s="78"/>
+      <c r="B506" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C506" s="48"/>
+      <c r="D506" s="48"/>
+      <c r="E506" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="F506" s="79"/>
       <c r="G506" s="79"/>
       <c r="H506" s="79"/>
@@ -10795,13 +10798,13 @@
     </row>
     <row r="507" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="19"/>
-      <c r="B507" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C507" s="48"/>
-      <c r="D507" s="48"/>
-      <c r="E507" s="45" t="s">
-        <v>224</v>
+      <c r="B507" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C507" s="50"/>
+      <c r="D507" s="50"/>
+      <c r="E507" s="51" t="s">
+        <v>306</v>
       </c>
       <c r="F507" s="79"/>
       <c r="G507" s="79"/>
@@ -10814,14 +10817,12 @@
     </row>
     <row r="508" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="19"/>
-      <c r="B508" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C508" s="50"/>
-      <c r="D508" s="50"/>
-      <c r="E508" s="51" t="s">
-        <v>306</v>
-      </c>
+      <c r="B508" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C508" s="79"/>
+      <c r="D508" s="79"/>
+      <c r="E508" s="53"/>
       <c r="F508" s="79"/>
       <c r="G508" s="79"/>
       <c r="H508" s="79"/>
@@ -10834,7 +10835,7 @@
     <row r="509" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="19"/>
       <c r="B509" s="52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C509" s="79"/>
       <c r="D509" s="79"/>
@@ -10850,12 +10851,12 @@
     </row>
     <row r="510" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="19"/>
-      <c r="B510" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="C510" s="79"/>
-      <c r="D510" s="79"/>
-      <c r="E510" s="53"/>
+      <c r="B510" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C510" s="55"/>
+      <c r="D510" s="55"/>
+      <c r="E510" s="56"/>
       <c r="F510" s="79"/>
       <c r="G510" s="79"/>
       <c r="H510" s="79"/>
@@ -10867,12 +10868,10 @@
     </row>
     <row r="511" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="19"/>
-      <c r="B511" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C511" s="55"/>
-      <c r="D511" s="55"/>
-      <c r="E511" s="56"/>
+      <c r="B511" s="79"/>
+      <c r="C511" s="32"/>
+      <c r="D511" s="32"/>
+      <c r="E511" s="79"/>
       <c r="F511" s="79"/>
       <c r="G511" s="79"/>
       <c r="H511" s="79"/>
@@ -10883,11 +10882,15 @@
       <c r="M511" s="79"/>
     </row>
     <row r="512" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="19"/>
-      <c r="B512" s="79"/>
-      <c r="C512" s="32"/>
-      <c r="D512" s="32"/>
-      <c r="E512" s="79"/>
+      <c r="A512" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C512" s="123"/>
+      <c r="D512" s="24"/>
+      <c r="E512" s="24"/>
       <c r="F512" s="79"/>
       <c r="G512" s="79"/>
       <c r="H512" s="79"/>
@@ -10898,15 +10901,11 @@
       <c r="M512" s="79"/>
     </row>
     <row r="513" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B513" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C513" s="123"/>
-      <c r="D513" s="24"/>
-      <c r="E513" s="24"/>
+      <c r="A513" s="19"/>
+      <c r="B513" s="78"/>
+      <c r="C513" s="79"/>
+      <c r="D513" s="78"/>
+      <c r="E513" s="78"/>
       <c r="F513" s="79"/>
       <c r="G513" s="79"/>
       <c r="H513" s="79"/>
@@ -10918,10 +10917,14 @@
     </row>
     <row r="514" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="19"/>
-      <c r="B514" s="78"/>
-      <c r="C514" s="79"/>
-      <c r="D514" s="78"/>
-      <c r="E514" s="78"/>
+      <c r="B514" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C514" s="48"/>
+      <c r="D514" s="48"/>
+      <c r="E514" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="F514" s="79"/>
       <c r="G514" s="79"/>
       <c r="H514" s="79"/>
@@ -10933,13 +10936,13 @@
     </row>
     <row r="515" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="19"/>
-      <c r="B515" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C515" s="48"/>
-      <c r="D515" s="48"/>
-      <c r="E515" s="45" t="s">
-        <v>224</v>
+      <c r="B515" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C515" s="50"/>
+      <c r="D515" s="50"/>
+      <c r="E515" s="51" t="s">
+        <v>306</v>
       </c>
       <c r="F515" s="79"/>
       <c r="G515" s="79"/>
@@ -10952,14 +10955,12 @@
     </row>
     <row r="516" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="19"/>
-      <c r="B516" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="C516" s="50"/>
-      <c r="D516" s="50"/>
-      <c r="E516" s="51" t="s">
-        <v>306</v>
-      </c>
+      <c r="B516" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C516" s="79"/>
+      <c r="D516" s="79"/>
+      <c r="E516" s="53"/>
       <c r="F516" s="79"/>
       <c r="G516" s="79"/>
       <c r="H516" s="79"/>
@@ -10972,7 +10973,7 @@
     <row r="517" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="19"/>
       <c r="B517" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C517" s="79"/>
       <c r="D517" s="79"/>
@@ -10989,7 +10990,7 @@
     <row r="518" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="19"/>
       <c r="B518" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C518" s="79"/>
       <c r="D518" s="79"/>
@@ -11005,12 +11006,14 @@
     </row>
     <row r="519" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="19"/>
-      <c r="B519" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C519" s="79"/>
-      <c r="D519" s="79"/>
-      <c r="E519" s="53"/>
+      <c r="B519" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C519" s="55"/>
+      <c r="D519" s="55"/>
+      <c r="E519" s="56" t="s">
+        <v>306</v>
+      </c>
       <c r="F519" s="79"/>
       <c r="G519" s="79"/>
       <c r="H519" s="79"/>
@@ -11021,64 +11024,59 @@
       <c r="M519" s="79"/>
     </row>
     <row r="520" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="19"/>
-      <c r="B520" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C520" s="55"/>
-      <c r="D520" s="55"/>
-      <c r="E520" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="F520" s="79"/>
-      <c r="G520" s="79"/>
-      <c r="H520" s="79"/>
-      <c r="I520" s="79"/>
-      <c r="J520" s="79"/>
-      <c r="K520" s="151"/>
-      <c r="L520" s="79"/>
+      <c r="A520" s="18"/>
+      <c r="B520" s="59"/>
+      <c r="E520" s="59"/>
       <c r="M520" s="79"/>
     </row>
     <row r="521" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="18"/>
       <c r="B521" s="59"/>
       <c r="E521" s="59"/>
-      <c r="M521" s="79"/>
-    </row>
-    <row r="522" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="522" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="18"/>
-      <c r="B522" s="59"/>
-      <c r="E522" s="59"/>
-    </row>
-    <row r="523" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="18"/>
-      <c r="B523" s="18"/>
-      <c r="C523" s="18"/>
-      <c r="D523" s="18"/>
-      <c r="E523" s="18"/>
-      <c r="F523" s="18"/>
-      <c r="G523" s="18"/>
-      <c r="H523" s="18"/>
-      <c r="I523" s="79"/>
-      <c r="J523" s="79"/>
-      <c r="K523" s="151"/>
-      <c r="L523" s="79"/>
+      <c r="B522" s="18"/>
+      <c r="C522" s="18"/>
+      <c r="D522" s="18"/>
+      <c r="E522" s="18"/>
+      <c r="F522" s="18"/>
+      <c r="G522" s="18"/>
+      <c r="H522" s="18"/>
+      <c r="I522" s="79"/>
+      <c r="J522" s="79"/>
+      <c r="K522" s="151"/>
+      <c r="L522" s="79"/>
+    </row>
+    <row r="523" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B523" s="125"/>
+      <c r="C523" s="125"/>
+      <c r="D523" s="125"/>
+      <c r="E523" s="125"/>
+      <c r="F523" s="125"/>
+      <c r="G523" s="125"/>
+      <c r="H523" s="125"/>
+      <c r="I523" s="126"/>
+      <c r="J523" s="126"/>
+      <c r="K523" s="126"/>
+      <c r="L523" s="126"/>
     </row>
     <row r="524" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B524" s="125"/>
-      <c r="C524" s="125"/>
-      <c r="D524" s="125"/>
-      <c r="E524" s="125"/>
-      <c r="F524" s="125"/>
-      <c r="G524" s="125"/>
-      <c r="H524" s="125"/>
-      <c r="I524" s="126"/>
-      <c r="J524" s="126"/>
-      <c r="K524" s="126"/>
-      <c r="L524" s="126"/>
+      <c r="A524" s="18"/>
+      <c r="B524" s="18"/>
+      <c r="C524" s="18"/>
+      <c r="D524" s="18"/>
+      <c r="E524" s="18"/>
+      <c r="F524" s="18"/>
+      <c r="G524" s="18"/>
+      <c r="H524" s="18"/>
+      <c r="I524" s="79"/>
+      <c r="J524" s="79"/>
+      <c r="K524" s="151"/>
+      <c r="L524" s="79"/>
     </row>
     <row r="525" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="18"/>
@@ -11110,7 +11108,6 @@
     </row>
     <row r="527" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="18"/>
-      <c r="B527" s="18"/>
       <c r="C527" s="18"/>
       <c r="D527" s="18"/>
       <c r="E527" s="18"/>
@@ -11124,44 +11121,45 @@
     </row>
     <row r="528" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="18"/>
-      <c r="C528" s="18"/>
-      <c r="D528" s="18"/>
-      <c r="E528" s="18"/>
-      <c r="F528" s="18"/>
-      <c r="G528" s="18"/>
-      <c r="H528" s="18"/>
+      <c r="C528" s="128"/>
+      <c r="D528" s="128"/>
+      <c r="E528" s="128"/>
+      <c r="F528" s="128"/>
+      <c r="G528" s="128"/>
+      <c r="H528" s="128"/>
       <c r="I528" s="79"/>
       <c r="J528" s="79"/>
       <c r="K528" s="151"/>
       <c r="L528" s="79"/>
     </row>
     <row r="529" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="18"/>
-      <c r="C529" s="128"/>
-      <c r="D529" s="128"/>
-      <c r="E529" s="128"/>
-      <c r="F529" s="128"/>
-      <c r="G529" s="128"/>
-      <c r="H529" s="128"/>
+      <c r="C529" s="18"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="151"/>
       <c r="L529" s="79"/>
     </row>
     <row r="530" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C530" s="18"/>
+      <c r="A530" s="201" t="s">
+        <v>246</v>
+      </c>
+      <c r="B530" s="201"/>
+      <c r="C530" s="201"/>
+      <c r="D530" s="201"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
       <c r="K530" s="151"/>
       <c r="L530" s="79"/>
     </row>
     <row r="531" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="209" t="s">
-        <v>246</v>
-      </c>
-      <c r="B531" s="209"/>
-      <c r="C531" s="209"/>
-      <c r="D531" s="209"/>
+      <c r="A531" s="18"/>
+      <c r="B531" s="18"/>
+      <c r="C531" s="18"/>
+      <c r="D531" s="18"/>
+      <c r="E531" s="18"/>
+      <c r="F531" s="18"/>
+      <c r="G531" s="18"/>
+      <c r="H531" s="18"/>
       <c r="I531" s="79"/>
       <c r="J531" s="79"/>
       <c r="K531" s="151"/>
@@ -11182,8 +11180,8 @@
       <c r="L532" s="79"/>
     </row>
     <row r="533" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="18"/>
-      <c r="B533" s="18"/>
+      <c r="A533" s="128"/>
+      <c r="B533" s="128"/>
       <c r="C533" s="18"/>
       <c r="D533" s="18"/>
       <c r="E533" s="18"/>
@@ -11196,23 +11194,23 @@
       <c r="L533" s="79"/>
     </row>
     <row r="534" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="128"/>
-      <c r="B534" s="128"/>
-      <c r="C534" s="18"/>
-      <c r="D534" s="18"/>
-      <c r="E534" s="18"/>
-      <c r="F534" s="18"/>
-      <c r="G534" s="18"/>
-      <c r="H534" s="18"/>
-      <c r="I534" s="79"/>
-      <c r="J534" s="79"/>
-      <c r="K534" s="151"/>
-      <c r="L534" s="79"/>
-    </row>
-    <row r="535" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="23" t="s">
+      <c r="A534" s="23" t="s">
         <v>247</v>
       </c>
+      <c r="B534" s="78"/>
+      <c r="C534" s="78"/>
+      <c r="D534" s="78"/>
+      <c r="E534" s="78"/>
+      <c r="F534" s="78"/>
+      <c r="G534" s="78"/>
+      <c r="H534" s="78"/>
+      <c r="I534" s="78"/>
+      <c r="J534" s="78"/>
+      <c r="K534" s="150"/>
+      <c r="L534" s="18"/>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A535" s="79"/>
       <c r="B535" s="78"/>
       <c r="C535" s="78"/>
       <c r="D535" s="78"/>
@@ -11223,55 +11221,56 @@
       <c r="I535" s="78"/>
       <c r="J535" s="78"/>
       <c r="K535" s="150"/>
-      <c r="L535" s="18"/>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A536" s="79"/>
-      <c r="B536" s="78"/>
-      <c r="C536" s="78"/>
-      <c r="D536" s="78"/>
-      <c r="E536" s="78"/>
-      <c r="F536" s="78"/>
-      <c r="G536" s="78"/>
-      <c r="H536" s="78"/>
-      <c r="I536" s="78"/>
-      <c r="J536" s="78"/>
-      <c r="K536" s="150"/>
-    </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A537" s="210" t="s">
+      <c r="A536" s="249" t="s">
         <v>248</v>
       </c>
-      <c r="B537" s="210"/>
-      <c r="C537" s="210"/>
-      <c r="D537" s="210"/>
-      <c r="E537" s="210"/>
-      <c r="F537" s="210"/>
-      <c r="G537" s="210"/>
-      <c r="H537" s="210"/>
-      <c r="I537" s="210"/>
-      <c r="J537" s="210"/>
-      <c r="K537" s="210"/>
-      <c r="L537" s="210"/>
-    </row>
-    <row r="538" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="210" t="s">
+      <c r="B536" s="249"/>
+      <c r="C536" s="249"/>
+      <c r="D536" s="249"/>
+      <c r="E536" s="249"/>
+      <c r="F536" s="249"/>
+      <c r="G536" s="249"/>
+      <c r="H536" s="249"/>
+      <c r="I536" s="249"/>
+      <c r="J536" s="249"/>
+      <c r="K536" s="249"/>
+      <c r="L536" s="249"/>
+    </row>
+    <row r="537" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="249" t="s">
         <v>271</v>
       </c>
-      <c r="B538" s="210"/>
-      <c r="C538" s="210"/>
-      <c r="D538" s="210"/>
-      <c r="E538" s="210"/>
-      <c r="F538" s="210"/>
-      <c r="G538" s="210"/>
-      <c r="H538" s="210"/>
-      <c r="I538" s="210"/>
-      <c r="J538" s="210"/>
-      <c r="K538" s="210"/>
-      <c r="L538" s="210"/>
+      <c r="B537" s="249"/>
+      <c r="C537" s="249"/>
+      <c r="D537" s="249"/>
+      <c r="E537" s="249"/>
+      <c r="F537" s="249"/>
+      <c r="G537" s="249"/>
+      <c r="H537" s="249"/>
+      <c r="I537" s="249"/>
+      <c r="J537" s="249"/>
+      <c r="K537" s="249"/>
+      <c r="L537" s="249"/>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A538" s="79"/>
+      <c r="B538" s="78"/>
+      <c r="C538" s="78"/>
+      <c r="D538" s="78"/>
+      <c r="E538" s="78"/>
+      <c r="F538" s="78"/>
+      <c r="G538" s="78"/>
+      <c r="H538" s="78"/>
+      <c r="I538" s="78"/>
+      <c r="J538" s="78"/>
+      <c r="K538" s="150"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="79"/>
+      <c r="A539" s="23" t="s">
+        <v>249</v>
+      </c>
       <c r="B539" s="78"/>
       <c r="C539" s="78"/>
       <c r="D539" s="78"/>
@@ -11284,37 +11283,25 @@
       <c r="K539" s="150"/>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A540" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B540" s="78"/>
-      <c r="C540" s="78"/>
-      <c r="D540" s="78"/>
-      <c r="E540" s="78"/>
-      <c r="F540" s="78"/>
-      <c r="G540" s="78"/>
-      <c r="H540" s="78"/>
-      <c r="I540" s="78"/>
-      <c r="J540" s="78"/>
-      <c r="K540" s="150"/>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A541" s="210" t="s">
+      <c r="A540" s="249" t="s">
         <v>250</v>
       </c>
-      <c r="B541" s="210"/>
-      <c r="C541" s="210"/>
-      <c r="D541" s="210"/>
-      <c r="E541" s="210"/>
-      <c r="F541" s="210"/>
-      <c r="G541" s="210"/>
-      <c r="H541" s="210"/>
-      <c r="I541" s="210"/>
-      <c r="J541" s="210"/>
-      <c r="K541" s="210"/>
-      <c r="L541" s="210"/>
-    </row>
-    <row r="542" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="249"/>
+      <c r="C540" s="249"/>
+      <c r="D540" s="249"/>
+      <c r="E540" s="249"/>
+      <c r="F540" s="249"/>
+      <c r="G540" s="249"/>
+      <c r="H540" s="249"/>
+      <c r="I540" s="249"/>
+      <c r="J540" s="249"/>
+      <c r="K540" s="249"/>
+      <c r="L540" s="249"/>
+    </row>
+    <row r="541" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="78"/>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A542" s="78"/>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.3">
@@ -11323,34 +11310,113 @@
     <row r="544" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A544" s="78"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A545" s="78"/>
-    </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B502:D502"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B327:L327"/>
+    <mergeCell ref="B341:L341"/>
+    <mergeCell ref="B358:L362"/>
+    <mergeCell ref="B299:L303"/>
+    <mergeCell ref="B306:L310"/>
+    <mergeCell ref="B321:L325"/>
+    <mergeCell ref="B335:L339"/>
+    <mergeCell ref="D367:L367"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A537:L537"/>
+    <mergeCell ref="A540:L540"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B497:C498"/>
+    <mergeCell ref="D497:J497"/>
+    <mergeCell ref="L497:L498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
     <mergeCell ref="B369:L369"/>
     <mergeCell ref="B349:F349"/>
     <mergeCell ref="B351:F351"/>
@@ -11375,111 +11441,29 @@
     <mergeCell ref="B200:L204"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B502:C502"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A537:L537"/>
-    <mergeCell ref="A538:L538"/>
-    <mergeCell ref="A541:L541"/>
-    <mergeCell ref="F489:G489"/>
-    <mergeCell ref="B498:C499"/>
-    <mergeCell ref="D498:J498"/>
-    <mergeCell ref="L498:L499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="B503:D503"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B327:L327"/>
-    <mergeCell ref="B341:L341"/>
-    <mergeCell ref="B358:L362"/>
-    <mergeCell ref="B299:L303"/>
-    <mergeCell ref="B306:L310"/>
-    <mergeCell ref="B321:L325"/>
-    <mergeCell ref="B335:L339"/>
-    <mergeCell ref="D367:L367"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
@@ -11489,7 +11473,7 @@
     <brk id="36" max="11" man="1"/>
     <brk id="59" max="10" man="1"/>
     <brk id="468" max="10" man="1"/>
-    <brk id="504" max="11" man="1"/>
+    <brk id="503" max="11" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691DC94C-0764-4F43-8D1B-8317C8C2C2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76E33FC-F3F1-4A5D-B22E-C52F79B8888A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="600" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54408 Ayrihuanca" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="345">
   <si>
     <t>Nombre de la inversión (en función de las acciones, activos, nombre de la unidad productora y localización geográfica de la unidad productora)</t>
   </si>
@@ -1048,9 +1048,6 @@
   </si>
   <si>
     <t>SERVICIO DE EDUCACIÓN PRIMARIA</t>
-  </si>
-  <si>
-    <t>OOPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA I.E.  INTEGRADO ANDRES AVELINO CACERES (IEP N° 54411) – SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU - REGION APURIMAC</t>
   </si>
   <si>
     <t>PINTADO Y REFACCIÓN DE ESTRUCTURA METALICA</t>
@@ -2011,18 +2008,333 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2032,15 +2344,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2048,15 +2351,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,303 +2358,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2650,8 +2647,8 @@
   </sheetPr>
   <dimension ref="A3:P544"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A487" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="J478" sqref="J478"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B68" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F476" sqref="F476:F477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2673,52 +2670,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="233" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="196"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="236"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="237" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="240"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="209" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2752,17 +2749,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="264" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
+      <c r="B8" s="166" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2959,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="263" t="s">
+      <c r="D21" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="263"/>
+      <c r="E21" s="165"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2991,10 +2988,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="263" t="s">
+      <c r="D23" s="165" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="263"/>
+      <c r="E23" s="165"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3056,13 +3053,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="267" t="s">
+      <c r="F27" s="169" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="267"/>
-      <c r="H27" s="267"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="267"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3081,22 +3078,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="268" t="s">
+      <c r="G29" s="170" t="s">
         <v>329</v>
       </c>
-      <c r="H29" s="269"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="270"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="172"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3115,11 +3112,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="260" t="s">
+      <c r="B31" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="261"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3280,12 +3277,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="232" t="s">
+      <c r="G40" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="233"/>
-      <c r="I40" s="233"/>
-      <c r="J40" s="234"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3298,12 +3295,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="232" t="s">
+      <c r="G41" s="198" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="233"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="234"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3316,12 +3313,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="232" t="s">
+      <c r="G42" s="198" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="233"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="234"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3334,12 +3331,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="232" t="s">
+      <c r="G43" s="198" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="233"/>
-      <c r="I43" s="233"/>
-      <c r="J43" s="234"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="200"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3383,12 +3380,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="232" t="s">
+      <c r="G46" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="233"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3401,12 +3398,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="232" t="s">
+      <c r="G47" s="198" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="233"/>
-      <c r="I47" s="233"/>
-      <c r="J47" s="234"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3419,12 +3416,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="229" t="s">
+      <c r="G48" s="220" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="230"/>
-      <c r="I48" s="230"/>
-      <c r="J48" s="231"/>
+      <c r="H48" s="271"/>
+      <c r="I48" s="271"/>
+      <c r="J48" s="221"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3491,12 +3488,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="234"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3509,12 +3506,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="232" t="s">
+      <c r="G53" s="198" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="234"/>
+      <c r="H53" s="199"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3528,7 +3525,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="132"/>
@@ -3550,7 +3547,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H55" s="132"/>
       <c r="I55" s="132"/>
@@ -3700,7 +3697,7 @@
       <c r="C64" s="89"/>
       <c r="D64" s="89"/>
       <c r="E64" s="130" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89"/>
@@ -3763,14 +3760,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="246" t="s">
-        <v>341</v>
-      </c>
-      <c r="F68" s="247"/>
-      <c r="G68" s="247"/>
-      <c r="H68" s="247"/>
-      <c r="I68" s="247"/>
-      <c r="J68" s="248"/>
+      <c r="E68" s="173" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
+      <c r="H68" s="197"/>
+      <c r="I68" s="197"/>
+      <c r="J68" s="174"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3835,11 +3832,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="164" t="s">
+      <c r="F72" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="164"/>
-      <c r="H72" s="164"/>
+      <c r="G72" s="222"/>
+      <c r="H72" s="222"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3854,16 +3851,16 @@
         <v>327</v>
       </c>
       <c r="D73" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="F73" s="272" t="s">
         <v>344</v>
       </c>
-      <c r="F73" s="165" t="s">
-        <v>345</v>
-      </c>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
+      <c r="G73" s="272"/>
+      <c r="H73" s="272"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3995,10 +3992,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="236" t="s">
+      <c r="D82" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="236"/>
+      <c r="E82" s="207"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4084,17 +4081,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="169" t="s">
+      <c r="B87" s="274" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
-      <c r="F87" s="169"/>
-      <c r="G87" s="169"/>
-      <c r="H87" s="169"/>
-      <c r="I87" s="169"/>
-      <c r="J87" s="169"/>
+      <c r="C87" s="274"/>
+      <c r="D87" s="274"/>
+      <c r="E87" s="274"/>
+      <c r="F87" s="274"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="274"/>
+      <c r="I87" s="274"/>
+      <c r="J87" s="274"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4261,10 +4258,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="174" t="s">
+      <c r="E98" s="276" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="175"/>
+      <c r="F98" s="277"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4444,13 +4441,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="220" t="s">
+      <c r="B110" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="220"/>
-      <c r="D110" s="220"/>
-      <c r="E110" s="220"/>
-      <c r="F110" s="221"/>
+      <c r="C110" s="259"/>
+      <c r="D110" s="259"/>
+      <c r="E110" s="259"/>
+      <c r="F110" s="260"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4465,8 +4462,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="222"/>
-      <c r="H111" s="222"/>
+      <c r="G111" s="261"/>
+      <c r="H111" s="261"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4474,13 +4471,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="220" t="s">
+      <c r="B112" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="220"/>
-      <c r="D112" s="220"/>
-      <c r="E112" s="220"/>
-      <c r="F112" s="221"/>
+      <c r="C112" s="259"/>
+      <c r="D112" s="259"/>
+      <c r="E112" s="259"/>
+      <c r="F112" s="260"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4612,47 +4609,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="223" t="s">
+      <c r="B121" s="262" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="224"/>
-      <c r="D121" s="224"/>
-      <c r="E121" s="224"/>
-      <c r="F121" s="224"/>
-      <c r="G121" s="224"/>
-      <c r="H121" s="224"/>
-      <c r="I121" s="224"/>
-      <c r="J121" s="224"/>
-      <c r="K121" s="224"/>
-      <c r="L121" s="225"/>
+      <c r="C121" s="263"/>
+      <c r="D121" s="263"/>
+      <c r="E121" s="263"/>
+      <c r="F121" s="263"/>
+      <c r="G121" s="263"/>
+      <c r="H121" s="263"/>
+      <c r="I121" s="263"/>
+      <c r="J121" s="263"/>
+      <c r="K121" s="263"/>
+      <c r="L121" s="264"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="176"/>
-      <c r="C122" s="177"/>
-      <c r="D122" s="177"/>
-      <c r="E122" s="177"/>
-      <c r="F122" s="177"/>
-      <c r="G122" s="177"/>
-      <c r="H122" s="177"/>
-      <c r="I122" s="177"/>
-      <c r="J122" s="177"/>
-      <c r="K122" s="177"/>
-      <c r="L122" s="178"/>
+      <c r="B122" s="265"/>
+      <c r="C122" s="266"/>
+      <c r="D122" s="266"/>
+      <c r="E122" s="266"/>
+      <c r="F122" s="266"/>
+      <c r="G122" s="266"/>
+      <c r="H122" s="266"/>
+      <c r="I122" s="266"/>
+      <c r="J122" s="266"/>
+      <c r="K122" s="266"/>
+      <c r="L122" s="267"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="226"/>
-      <c r="C123" s="227"/>
-      <c r="D123" s="227"/>
-      <c r="E123" s="227"/>
-      <c r="F123" s="227"/>
-      <c r="G123" s="227"/>
-      <c r="H123" s="227"/>
-      <c r="I123" s="227"/>
-      <c r="J123" s="227"/>
-      <c r="K123" s="227"/>
-      <c r="L123" s="228"/>
+      <c r="B123" s="268"/>
+      <c r="C123" s="269"/>
+      <c r="D123" s="269"/>
+      <c r="E123" s="269"/>
+      <c r="F123" s="269"/>
+      <c r="G123" s="269"/>
+      <c r="H123" s="269"/>
+      <c r="I123" s="269"/>
+      <c r="J123" s="269"/>
+      <c r="K123" s="269"/>
+      <c r="L123" s="270"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4686,19 +4683,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="213" t="s">
+      <c r="B126" s="252" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="214"/>
-      <c r="D126" s="214"/>
-      <c r="E126" s="214"/>
-      <c r="F126" s="214"/>
-      <c r="G126" s="214"/>
-      <c r="H126" s="214"/>
-      <c r="I126" s="214"/>
-      <c r="J126" s="214"/>
-      <c r="K126" s="214"/>
-      <c r="L126" s="215"/>
+      <c r="C126" s="253"/>
+      <c r="D126" s="253"/>
+      <c r="E126" s="253"/>
+      <c r="F126" s="253"/>
+      <c r="G126" s="253"/>
+      <c r="H126" s="253"/>
+      <c r="I126" s="253"/>
+      <c r="J126" s="253"/>
+      <c r="K126" s="253"/>
+      <c r="L126" s="254"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4732,19 +4729,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="216" t="s">
+      <c r="B129" s="255" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="217"/>
-      <c r="D129" s="217"/>
-      <c r="E129" s="217"/>
-      <c r="F129" s="217"/>
-      <c r="G129" s="217"/>
-      <c r="H129" s="217"/>
-      <c r="I129" s="217"/>
-      <c r="J129" s="217"/>
-      <c r="K129" s="217"/>
-      <c r="L129" s="218"/>
+      <c r="C129" s="256"/>
+      <c r="D129" s="256"/>
+      <c r="E129" s="256"/>
+      <c r="F129" s="256"/>
+      <c r="G129" s="256"/>
+      <c r="H129" s="256"/>
+      <c r="I129" s="256"/>
+      <c r="J129" s="256"/>
+      <c r="K129" s="256"/>
+      <c r="L129" s="257"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4943,19 +4940,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="219" t="s">
+      <c r="B143" s="258" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="219"/>
-      <c r="D143" s="219"/>
-      <c r="E143" s="219"/>
-      <c r="F143" s="219"/>
-      <c r="G143" s="219"/>
-      <c r="H143" s="219"/>
-      <c r="I143" s="219"/>
-      <c r="J143" s="219"/>
-      <c r="K143" s="219"/>
-      <c r="L143" s="219"/>
+      <c r="C143" s="258"/>
+      <c r="D143" s="258"/>
+      <c r="E143" s="258"/>
+      <c r="F143" s="258"/>
+      <c r="G143" s="258"/>
+      <c r="H143" s="258"/>
+      <c r="I143" s="258"/>
+      <c r="J143" s="258"/>
+      <c r="K143" s="258"/>
+      <c r="L143" s="258"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4973,11 +4970,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="166" t="s">
+      <c r="B145" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="166"/>
-      <c r="D145" s="166"/>
+      <c r="C145" s="176"/>
+      <c r="D145" s="176"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -5001,11 +4998,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="166" t="s">
+      <c r="B147" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="166"/>
-      <c r="D147" s="166"/>
+      <c r="C147" s="176"/>
+      <c r="D147" s="176"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5029,11 +5026,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="166" t="s">
+      <c r="B149" s="176" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="166"/>
-      <c r="D149" s="166"/>
+      <c r="C149" s="176"/>
+      <c r="D149" s="176"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5055,12 +5052,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="166" t="s">
+      <c r="B151" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="166"/>
-      <c r="D151" s="166"/>
-      <c r="E151" s="166"/>
+      <c r="C151" s="176"/>
+      <c r="D151" s="176"/>
+      <c r="E151" s="176"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5083,13 +5080,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="166" t="s">
+      <c r="B153" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="166"/>
-      <c r="D153" s="166"/>
-      <c r="E153" s="166"/>
-      <c r="F153" s="167"/>
+      <c r="C153" s="176"/>
+      <c r="D153" s="176"/>
+      <c r="E153" s="176"/>
+      <c r="F153" s="177"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5217,19 +5214,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="179" t="s">
+      <c r="B162" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="180"/>
-      <c r="D162" s="180"/>
-      <c r="E162" s="180"/>
-      <c r="F162" s="180"/>
-      <c r="G162" s="180"/>
-      <c r="H162" s="180"/>
-      <c r="I162" s="180"/>
-      <c r="J162" s="180"/>
-      <c r="K162" s="180"/>
-      <c r="L162" s="181"/>
+      <c r="C162" s="279"/>
+      <c r="D162" s="279"/>
+      <c r="E162" s="279"/>
+      <c r="F162" s="279"/>
+      <c r="G162" s="279"/>
+      <c r="H162" s="279"/>
+      <c r="I162" s="279"/>
+      <c r="J162" s="279"/>
+      <c r="K162" s="279"/>
+      <c r="L162" s="280"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5447,12 +5444,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="166" t="s">
+      <c r="B179" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="166"/>
-      <c r="D179" s="166"/>
-      <c r="E179" s="166"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
+      <c r="E179" s="176"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5479,13 +5476,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="166" t="s">
+      <c r="B181" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="166"/>
-      <c r="D181" s="166"/>
-      <c r="E181" s="166"/>
-      <c r="F181" s="167"/>
+      <c r="C181" s="176"/>
+      <c r="D181" s="176"/>
+      <c r="E181" s="176"/>
+      <c r="F181" s="177"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5539,13 +5536,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="166" t="s">
+      <c r="B185" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="166"/>
-      <c r="D185" s="166"/>
-      <c r="E185" s="166"/>
-      <c r="F185" s="167"/>
+      <c r="C185" s="176"/>
+      <c r="D185" s="176"/>
+      <c r="E185" s="176"/>
+      <c r="F185" s="177"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5658,79 +5655,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="182" t="s">
+      <c r="B193" s="179" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="183"/>
-      <c r="D193" s="183"/>
-      <c r="E193" s="183"/>
-      <c r="F193" s="183"/>
-      <c r="G193" s="183"/>
-      <c r="H193" s="183"/>
-      <c r="I193" s="183"/>
-      <c r="J193" s="183"/>
-      <c r="K193" s="183"/>
-      <c r="L193" s="184"/>
+      <c r="C193" s="180"/>
+      <c r="D193" s="180"/>
+      <c r="E193" s="180"/>
+      <c r="F193" s="180"/>
+      <c r="G193" s="180"/>
+      <c r="H193" s="180"/>
+      <c r="I193" s="180"/>
+      <c r="J193" s="180"/>
+      <c r="K193" s="180"/>
+      <c r="L193" s="181"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="185"/>
-      <c r="C194" s="186"/>
-      <c r="D194" s="186"/>
-      <c r="E194" s="186"/>
-      <c r="F194" s="186"/>
-      <c r="G194" s="186"/>
-      <c r="H194" s="186"/>
-      <c r="I194" s="186"/>
-      <c r="J194" s="186"/>
-      <c r="K194" s="186"/>
-      <c r="L194" s="187"/>
+      <c r="B194" s="182"/>
+      <c r="C194" s="183"/>
+      <c r="D194" s="183"/>
+      <c r="E194" s="183"/>
+      <c r="F194" s="183"/>
+      <c r="G194" s="183"/>
+      <c r="H194" s="183"/>
+      <c r="I194" s="183"/>
+      <c r="J194" s="183"/>
+      <c r="K194" s="183"/>
+      <c r="L194" s="184"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="185"/>
-      <c r="C195" s="186"/>
-      <c r="D195" s="186"/>
-      <c r="E195" s="186"/>
-      <c r="F195" s="186"/>
-      <c r="G195" s="186"/>
-      <c r="H195" s="186"/>
-      <c r="I195" s="186"/>
-      <c r="J195" s="186"/>
-      <c r="K195" s="186"/>
-      <c r="L195" s="187"/>
+      <c r="B195" s="182"/>
+      <c r="C195" s="183"/>
+      <c r="D195" s="183"/>
+      <c r="E195" s="183"/>
+      <c r="F195" s="183"/>
+      <c r="G195" s="183"/>
+      <c r="H195" s="183"/>
+      <c r="I195" s="183"/>
+      <c r="J195" s="183"/>
+      <c r="K195" s="183"/>
+      <c r="L195" s="184"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="185"/>
-      <c r="C196" s="186"/>
-      <c r="D196" s="186"/>
-      <c r="E196" s="186"/>
-      <c r="F196" s="186"/>
-      <c r="G196" s="186"/>
-      <c r="H196" s="186"/>
-      <c r="I196" s="186"/>
-      <c r="J196" s="186"/>
-      <c r="K196" s="186"/>
-      <c r="L196" s="187"/>
+      <c r="B196" s="182"/>
+      <c r="C196" s="183"/>
+      <c r="D196" s="183"/>
+      <c r="E196" s="183"/>
+      <c r="F196" s="183"/>
+      <c r="G196" s="183"/>
+      <c r="H196" s="183"/>
+      <c r="I196" s="183"/>
+      <c r="J196" s="183"/>
+      <c r="K196" s="183"/>
+      <c r="L196" s="184"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="188"/>
-      <c r="C197" s="189"/>
-      <c r="D197" s="189"/>
-      <c r="E197" s="189"/>
-      <c r="F197" s="189"/>
-      <c r="G197" s="189"/>
-      <c r="H197" s="189"/>
-      <c r="I197" s="189"/>
-      <c r="J197" s="189"/>
-      <c r="K197" s="189"/>
-      <c r="L197" s="190"/>
+      <c r="B197" s="185"/>
+      <c r="C197" s="186"/>
+      <c r="D197" s="186"/>
+      <c r="E197" s="186"/>
+      <c r="F197" s="186"/>
+      <c r="G197" s="186"/>
+      <c r="H197" s="186"/>
+      <c r="I197" s="186"/>
+      <c r="J197" s="186"/>
+      <c r="K197" s="186"/>
+      <c r="L197" s="187"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5767,79 +5764,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="182" t="s">
+      <c r="B200" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="183"/>
-      <c r="D200" s="183"/>
-      <c r="E200" s="183"/>
-      <c r="F200" s="183"/>
-      <c r="G200" s="183"/>
-      <c r="H200" s="183"/>
-      <c r="I200" s="183"/>
-      <c r="J200" s="183"/>
-      <c r="K200" s="183"/>
-      <c r="L200" s="184"/>
+      <c r="C200" s="180"/>
+      <c r="D200" s="180"/>
+      <c r="E200" s="180"/>
+      <c r="F200" s="180"/>
+      <c r="G200" s="180"/>
+      <c r="H200" s="180"/>
+      <c r="I200" s="180"/>
+      <c r="J200" s="180"/>
+      <c r="K200" s="180"/>
+      <c r="L200" s="181"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="185"/>
-      <c r="C201" s="186"/>
-      <c r="D201" s="186"/>
-      <c r="E201" s="186"/>
-      <c r="F201" s="186"/>
-      <c r="G201" s="186"/>
-      <c r="H201" s="186"/>
-      <c r="I201" s="186"/>
-      <c r="J201" s="186"/>
-      <c r="K201" s="186"/>
-      <c r="L201" s="187"/>
+      <c r="B201" s="182"/>
+      <c r="C201" s="183"/>
+      <c r="D201" s="183"/>
+      <c r="E201" s="183"/>
+      <c r="F201" s="183"/>
+      <c r="G201" s="183"/>
+      <c r="H201" s="183"/>
+      <c r="I201" s="183"/>
+      <c r="J201" s="183"/>
+      <c r="K201" s="183"/>
+      <c r="L201" s="184"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="185"/>
-      <c r="C202" s="186"/>
-      <c r="D202" s="186"/>
-      <c r="E202" s="186"/>
-      <c r="F202" s="186"/>
-      <c r="G202" s="186"/>
-      <c r="H202" s="186"/>
-      <c r="I202" s="186"/>
-      <c r="J202" s="186"/>
-      <c r="K202" s="186"/>
-      <c r="L202" s="187"/>
+      <c r="B202" s="182"/>
+      <c r="C202" s="183"/>
+      <c r="D202" s="183"/>
+      <c r="E202" s="183"/>
+      <c r="F202" s="183"/>
+      <c r="G202" s="183"/>
+      <c r="H202" s="183"/>
+      <c r="I202" s="183"/>
+      <c r="J202" s="183"/>
+      <c r="K202" s="183"/>
+      <c r="L202" s="184"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="185"/>
-      <c r="C203" s="186"/>
-      <c r="D203" s="186"/>
-      <c r="E203" s="186"/>
-      <c r="F203" s="186"/>
-      <c r="G203" s="186"/>
-      <c r="H203" s="186"/>
-      <c r="I203" s="186"/>
-      <c r="J203" s="186"/>
-      <c r="K203" s="186"/>
-      <c r="L203" s="187"/>
+      <c r="B203" s="182"/>
+      <c r="C203" s="183"/>
+      <c r="D203" s="183"/>
+      <c r="E203" s="183"/>
+      <c r="F203" s="183"/>
+      <c r="G203" s="183"/>
+      <c r="H203" s="183"/>
+      <c r="I203" s="183"/>
+      <c r="J203" s="183"/>
+      <c r="K203" s="183"/>
+      <c r="L203" s="184"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="188"/>
-      <c r="C204" s="189"/>
-      <c r="D204" s="189"/>
-      <c r="E204" s="189"/>
-      <c r="F204" s="189"/>
-      <c r="G204" s="189"/>
-      <c r="H204" s="189"/>
-      <c r="I204" s="189"/>
-      <c r="J204" s="189"/>
-      <c r="K204" s="189"/>
-      <c r="L204" s="190"/>
+      <c r="B204" s="185"/>
+      <c r="C204" s="186"/>
+      <c r="D204" s="186"/>
+      <c r="E204" s="186"/>
+      <c r="F204" s="186"/>
+      <c r="G204" s="186"/>
+      <c r="H204" s="186"/>
+      <c r="I204" s="186"/>
+      <c r="J204" s="186"/>
+      <c r="K204" s="186"/>
+      <c r="L204" s="187"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5986,49 +5983,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="204" t="s">
+      <c r="B214" s="243" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="205"/>
-      <c r="D214" s="205"/>
-      <c r="E214" s="205"/>
-      <c r="F214" s="205"/>
-      <c r="G214" s="205"/>
-      <c r="H214" s="205"/>
-      <c r="I214" s="205"/>
-      <c r="J214" s="205"/>
-      <c r="K214" s="205"/>
-      <c r="L214" s="206"/>
+      <c r="C214" s="244"/>
+      <c r="D214" s="244"/>
+      <c r="E214" s="244"/>
+      <c r="F214" s="244"/>
+      <c r="G214" s="244"/>
+      <c r="H214" s="244"/>
+      <c r="I214" s="244"/>
+      <c r="J214" s="244"/>
+      <c r="K214" s="244"/>
+      <c r="L214" s="245"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="207"/>
-      <c r="C215" s="208"/>
-      <c r="D215" s="208"/>
-      <c r="E215" s="208"/>
-      <c r="F215" s="208"/>
-      <c r="G215" s="208"/>
-      <c r="H215" s="208"/>
-      <c r="I215" s="208"/>
-      <c r="J215" s="208"/>
-      <c r="K215" s="208"/>
-      <c r="L215" s="209"/>
+      <c r="B215" s="246"/>
+      <c r="C215" s="247"/>
+      <c r="D215" s="247"/>
+      <c r="E215" s="247"/>
+      <c r="F215" s="247"/>
+      <c r="G215" s="247"/>
+      <c r="H215" s="247"/>
+      <c r="I215" s="247"/>
+      <c r="J215" s="247"/>
+      <c r="K215" s="247"/>
+      <c r="L215" s="248"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="210"/>
-      <c r="C216" s="211"/>
-      <c r="D216" s="211"/>
-      <c r="E216" s="211"/>
-      <c r="F216" s="211"/>
-      <c r="G216" s="211"/>
-      <c r="H216" s="211"/>
-      <c r="I216" s="211"/>
-      <c r="J216" s="211"/>
-      <c r="K216" s="211"/>
-      <c r="L216" s="212"/>
+      <c r="B216" s="249"/>
+      <c r="C216" s="250"/>
+      <c r="D216" s="250"/>
+      <c r="E216" s="250"/>
+      <c r="F216" s="250"/>
+      <c r="G216" s="250"/>
+      <c r="H216" s="250"/>
+      <c r="I216" s="250"/>
+      <c r="J216" s="250"/>
+      <c r="K216" s="250"/>
+      <c r="L216" s="251"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6063,10 +6060,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="166" t="s">
+      <c r="B219" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="166"/>
+      <c r="C219" s="176"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6191,19 +6188,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="176" t="s">
+      <c r="B227" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="177"/>
-      <c r="D227" s="177"/>
-      <c r="E227" s="177"/>
-      <c r="F227" s="177"/>
-      <c r="G227" s="177"/>
-      <c r="H227" s="177"/>
-      <c r="I227" s="177"/>
-      <c r="J227" s="177"/>
-      <c r="K227" s="177"/>
-      <c r="L227" s="178"/>
+      <c r="C227" s="266"/>
+      <c r="D227" s="266"/>
+      <c r="E227" s="266"/>
+      <c r="F227" s="266"/>
+      <c r="G227" s="266"/>
+      <c r="H227" s="266"/>
+      <c r="I227" s="266"/>
+      <c r="J227" s="266"/>
+      <c r="K227" s="266"/>
+      <c r="L227" s="267"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6312,51 +6309,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="272" t="s">
+      <c r="B235" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="273"/>
-      <c r="D235" s="273"/>
-      <c r="E235" s="273"/>
-      <c r="F235" s="273"/>
-      <c r="G235" s="273"/>
-      <c r="H235" s="273"/>
-      <c r="I235" s="273"/>
-      <c r="J235" s="273"/>
-      <c r="K235" s="273"/>
-      <c r="L235" s="274"/>
+      <c r="C235" s="189"/>
+      <c r="D235" s="189"/>
+      <c r="E235" s="189"/>
+      <c r="F235" s="189"/>
+      <c r="G235" s="189"/>
+      <c r="H235" s="189"/>
+      <c r="I235" s="189"/>
+      <c r="J235" s="189"/>
+      <c r="K235" s="189"/>
+      <c r="L235" s="190"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="275"/>
-      <c r="C236" s="276"/>
-      <c r="D236" s="276"/>
-      <c r="E236" s="276"/>
-      <c r="F236" s="276"/>
-      <c r="G236" s="276"/>
-      <c r="H236" s="276"/>
-      <c r="I236" s="276"/>
-      <c r="J236" s="276"/>
-      <c r="K236" s="276"/>
-      <c r="L236" s="277"/>
+      <c r="B236" s="191"/>
+      <c r="C236" s="192"/>
+      <c r="D236" s="192"/>
+      <c r="E236" s="192"/>
+      <c r="F236" s="192"/>
+      <c r="G236" s="192"/>
+      <c r="H236" s="192"/>
+      <c r="I236" s="192"/>
+      <c r="J236" s="192"/>
+      <c r="K236" s="192"/>
+      <c r="L236" s="193"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="278"/>
-      <c r="C237" s="279"/>
-      <c r="D237" s="279"/>
-      <c r="E237" s="279"/>
-      <c r="F237" s="279"/>
-      <c r="G237" s="279"/>
-      <c r="H237" s="279"/>
-      <c r="I237" s="279"/>
-      <c r="J237" s="279"/>
-      <c r="K237" s="279"/>
-      <c r="L237" s="280"/>
+      <c r="B237" s="194"/>
+      <c r="C237" s="195"/>
+      <c r="D237" s="195"/>
+      <c r="E237" s="195"/>
+      <c r="F237" s="195"/>
+      <c r="G237" s="195"/>
+      <c r="H237" s="195"/>
+      <c r="I237" s="195"/>
+      <c r="J237" s="195"/>
+      <c r="K237" s="195"/>
+      <c r="L237" s="196"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6471,35 +6468,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="169" t="s">
+      <c r="B245" s="274" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="169"/>
-      <c r="D245" s="169"/>
-      <c r="E245" s="169"/>
-      <c r="F245" s="169"/>
-      <c r="G245" s="169"/>
-      <c r="H245" s="169"/>
-      <c r="I245" s="169"/>
-      <c r="J245" s="169"/>
-      <c r="K245" s="169"/>
-      <c r="L245" s="169"/>
+      <c r="C245" s="274"/>
+      <c r="D245" s="274"/>
+      <c r="E245" s="274"/>
+      <c r="F245" s="274"/>
+      <c r="G245" s="274"/>
+      <c r="H245" s="274"/>
+      <c r="I245" s="274"/>
+      <c r="J245" s="274"/>
+      <c r="K245" s="274"/>
+      <c r="L245" s="274"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="169" t="s">
+      <c r="B246" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="169"/>
-      <c r="D246" s="169"/>
-      <c r="E246" s="169"/>
-      <c r="F246" s="169"/>
-      <c r="G246" s="169"/>
-      <c r="H246" s="169"/>
-      <c r="I246" s="169"/>
-      <c r="J246" s="169"/>
-      <c r="K246" s="169"/>
-      <c r="L246" s="169"/>
+      <c r="C246" s="274"/>
+      <c r="D246" s="274"/>
+      <c r="E246" s="274"/>
+      <c r="F246" s="274"/>
+      <c r="G246" s="274"/>
+      <c r="H246" s="274"/>
+      <c r="I246" s="274"/>
+      <c r="J246" s="274"/>
+      <c r="K246" s="274"/>
+      <c r="L246" s="274"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6705,83 +6702,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="182" t="s">
+      <c r="B260" s="179" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="183"/>
-      <c r="D260" s="183"/>
-      <c r="E260" s="183"/>
-      <c r="F260" s="183"/>
-      <c r="G260" s="183"/>
-      <c r="H260" s="183"/>
-      <c r="I260" s="183"/>
-      <c r="J260" s="183"/>
-      <c r="K260" s="183"/>
-      <c r="L260" s="184"/>
+      <c r="C260" s="180"/>
+      <c r="D260" s="180"/>
+      <c r="E260" s="180"/>
+      <c r="F260" s="180"/>
+      <c r="G260" s="180"/>
+      <c r="H260" s="180"/>
+      <c r="I260" s="180"/>
+      <c r="J260" s="180"/>
+      <c r="K260" s="180"/>
+      <c r="L260" s="181"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="185"/>
-      <c r="C261" s="186"/>
-      <c r="D261" s="186"/>
-      <c r="E261" s="186"/>
-      <c r="F261" s="186"/>
-      <c r="G261" s="186"/>
-      <c r="H261" s="186"/>
-      <c r="I261" s="186"/>
-      <c r="J261" s="186"/>
-      <c r="K261" s="186"/>
-      <c r="L261" s="187"/>
+      <c r="B261" s="182"/>
+      <c r="C261" s="183"/>
+      <c r="D261" s="183"/>
+      <c r="E261" s="183"/>
+      <c r="F261" s="183"/>
+      <c r="G261" s="183"/>
+      <c r="H261" s="183"/>
+      <c r="I261" s="183"/>
+      <c r="J261" s="183"/>
+      <c r="K261" s="183"/>
+      <c r="L261" s="184"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="185"/>
-      <c r="C262" s="186"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
-      <c r="F262" s="186"/>
-      <c r="G262" s="186"/>
-      <c r="H262" s="186"/>
-      <c r="I262" s="186"/>
-      <c r="J262" s="186"/>
-      <c r="K262" s="186"/>
-      <c r="L262" s="187"/>
+      <c r="B262" s="182"/>
+      <c r="C262" s="183"/>
+      <c r="D262" s="183"/>
+      <c r="E262" s="183"/>
+      <c r="F262" s="183"/>
+      <c r="G262" s="183"/>
+      <c r="H262" s="183"/>
+      <c r="I262" s="183"/>
+      <c r="J262" s="183"/>
+      <c r="K262" s="183"/>
+      <c r="L262" s="184"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="185"/>
-      <c r="C263" s="186"/>
-      <c r="D263" s="186"/>
-      <c r="E263" s="186"/>
-      <c r="F263" s="186"/>
-      <c r="G263" s="186"/>
-      <c r="H263" s="186"/>
-      <c r="I263" s="186"/>
-      <c r="J263" s="186"/>
-      <c r="K263" s="186"/>
-      <c r="L263" s="187"/>
+      <c r="B263" s="182"/>
+      <c r="C263" s="183"/>
+      <c r="D263" s="183"/>
+      <c r="E263" s="183"/>
+      <c r="F263" s="183"/>
+      <c r="G263" s="183"/>
+      <c r="H263" s="183"/>
+      <c r="I263" s="183"/>
+      <c r="J263" s="183"/>
+      <c r="K263" s="183"/>
+      <c r="L263" s="184"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="188"/>
-      <c r="C264" s="189"/>
-      <c r="D264" s="189"/>
-      <c r="E264" s="189"/>
-      <c r="F264" s="189"/>
-      <c r="G264" s="189"/>
-      <c r="H264" s="189"/>
-      <c r="I264" s="189"/>
-      <c r="J264" s="189"/>
-      <c r="K264" s="189"/>
-      <c r="L264" s="190"/>
+      <c r="B264" s="185"/>
+      <c r="C264" s="186"/>
+      <c r="D264" s="186"/>
+      <c r="E264" s="186"/>
+      <c r="F264" s="186"/>
+      <c r="G264" s="186"/>
+      <c r="H264" s="186"/>
+      <c r="I264" s="186"/>
+      <c r="J264" s="186"/>
+      <c r="K264" s="186"/>
+      <c r="L264" s="187"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6837,28 +6834,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="164" t="s">
+      <c r="B268" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="164"/>
-      <c r="D268" s="171" t="s">
+      <c r="C268" s="222"/>
+      <c r="D268" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="172"/>
-      <c r="F268" s="172"/>
-      <c r="G268" s="172"/>
-      <c r="H268" s="172"/>
-      <c r="I268" s="172"/>
-      <c r="J268" s="172"/>
-      <c r="K268" s="172"/>
-      <c r="L268" s="173"/>
+      <c r="E268" s="217"/>
+      <c r="F268" s="217"/>
+      <c r="G268" s="217"/>
+      <c r="H268" s="217"/>
+      <c r="I268" s="217"/>
+      <c r="J268" s="217"/>
+      <c r="K268" s="217"/>
+      <c r="L268" s="218"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="168"/>
-      <c r="C269" s="168"/>
+      <c r="B269" s="273"/>
+      <c r="C269" s="273"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6873,8 +6870,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="168"/>
-      <c r="C270" s="168"/>
+      <c r="B270" s="273"/>
+      <c r="C270" s="273"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6889,8 +6886,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="168"/>
-      <c r="C271" s="168"/>
+      <c r="B271" s="273"/>
+      <c r="C271" s="273"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6905,8 +6902,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="168"/>
-      <c r="C272" s="168"/>
+      <c r="B272" s="273"/>
+      <c r="C272" s="273"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6971,83 +6968,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="170" t="s">
+      <c r="B276" s="275" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="170"/>
-      <c r="D276" s="170"/>
-      <c r="E276" s="170"/>
-      <c r="F276" s="170"/>
-      <c r="G276" s="170"/>
-      <c r="H276" s="170"/>
-      <c r="I276" s="170"/>
-      <c r="J276" s="170"/>
-      <c r="K276" s="170"/>
-      <c r="L276" s="170"/>
+      <c r="C276" s="275"/>
+      <c r="D276" s="275"/>
+      <c r="E276" s="275"/>
+      <c r="F276" s="275"/>
+      <c r="G276" s="275"/>
+      <c r="H276" s="275"/>
+      <c r="I276" s="275"/>
+      <c r="J276" s="275"/>
+      <c r="K276" s="275"/>
+      <c r="L276" s="275"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="170"/>
-      <c r="C277" s="170"/>
-      <c r="D277" s="170"/>
-      <c r="E277" s="170"/>
-      <c r="F277" s="170"/>
-      <c r="G277" s="170"/>
-      <c r="H277" s="170"/>
-      <c r="I277" s="170"/>
-      <c r="J277" s="170"/>
-      <c r="K277" s="170"/>
-      <c r="L277" s="170"/>
+      <c r="B277" s="275"/>
+      <c r="C277" s="275"/>
+      <c r="D277" s="275"/>
+      <c r="E277" s="275"/>
+      <c r="F277" s="275"/>
+      <c r="G277" s="275"/>
+      <c r="H277" s="275"/>
+      <c r="I277" s="275"/>
+      <c r="J277" s="275"/>
+      <c r="K277" s="275"/>
+      <c r="L277" s="275"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="170"/>
-      <c r="C278" s="170"/>
-      <c r="D278" s="170"/>
-      <c r="E278" s="170"/>
-      <c r="F278" s="170"/>
-      <c r="G278" s="170"/>
-      <c r="H278" s="170"/>
-      <c r="I278" s="170"/>
-      <c r="J278" s="170"/>
-      <c r="K278" s="170"/>
-      <c r="L278" s="170"/>
+      <c r="B278" s="275"/>
+      <c r="C278" s="275"/>
+      <c r="D278" s="275"/>
+      <c r="E278" s="275"/>
+      <c r="F278" s="275"/>
+      <c r="G278" s="275"/>
+      <c r="H278" s="275"/>
+      <c r="I278" s="275"/>
+      <c r="J278" s="275"/>
+      <c r="K278" s="275"/>
+      <c r="L278" s="275"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="170"/>
-      <c r="C279" s="170"/>
-      <c r="D279" s="170"/>
-      <c r="E279" s="170"/>
-      <c r="F279" s="170"/>
-      <c r="G279" s="170"/>
-      <c r="H279" s="170"/>
-      <c r="I279" s="170"/>
-      <c r="J279" s="170"/>
-      <c r="K279" s="170"/>
-      <c r="L279" s="170"/>
+      <c r="B279" s="275"/>
+      <c r="C279" s="275"/>
+      <c r="D279" s="275"/>
+      <c r="E279" s="275"/>
+      <c r="F279" s="275"/>
+      <c r="G279" s="275"/>
+      <c r="H279" s="275"/>
+      <c r="I279" s="275"/>
+      <c r="J279" s="275"/>
+      <c r="K279" s="275"/>
+      <c r="L279" s="275"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="170"/>
-      <c r="C280" s="170"/>
-      <c r="D280" s="170"/>
-      <c r="E280" s="170"/>
-      <c r="F280" s="170"/>
-      <c r="G280" s="170"/>
-      <c r="H280" s="170"/>
-      <c r="I280" s="170"/>
-      <c r="J280" s="170"/>
-      <c r="K280" s="170"/>
-      <c r="L280" s="170"/>
+      <c r="B280" s="275"/>
+      <c r="C280" s="275"/>
+      <c r="D280" s="275"/>
+      <c r="E280" s="275"/>
+      <c r="F280" s="275"/>
+      <c r="G280" s="275"/>
+      <c r="H280" s="275"/>
+      <c r="I280" s="275"/>
+      <c r="J280" s="275"/>
+      <c r="K280" s="275"/>
+      <c r="L280" s="275"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7103,12 +7100,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="166" t="s">
+      <c r="B284" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="166"/>
-      <c r="D284" s="166"/>
-      <c r="E284" s="167"/>
+      <c r="C284" s="176"/>
+      <c r="D284" s="176"/>
+      <c r="E284" s="177"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7119,10 +7116,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="166"/>
-      <c r="C285" s="166"/>
-      <c r="D285" s="166"/>
-      <c r="E285" s="166"/>
+      <c r="B285" s="176"/>
+      <c r="C285" s="176"/>
+      <c r="D285" s="176"/>
+      <c r="E285" s="176"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7133,12 +7130,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="166" t="s">
+      <c r="B286" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="166"/>
-      <c r="D286" s="166"/>
-      <c r="E286" s="167"/>
+      <c r="C286" s="176"/>
+      <c r="D286" s="176"/>
+      <c r="E286" s="177"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7151,10 +7148,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="166"/>
-      <c r="C287" s="166"/>
-      <c r="D287" s="166"/>
-      <c r="E287" s="166"/>
+      <c r="B287" s="176"/>
+      <c r="C287" s="176"/>
+      <c r="D287" s="176"/>
+      <c r="E287" s="176"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7165,12 +7162,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="166" t="s">
+      <c r="B288" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="166"/>
-      <c r="D288" s="166"/>
-      <c r="E288" s="167"/>
+      <c r="C288" s="176"/>
+      <c r="D288" s="176"/>
+      <c r="E288" s="177"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7195,12 +7192,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="166" t="s">
+      <c r="B290" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="166"/>
-      <c r="D290" s="166"/>
-      <c r="E290" s="167"/>
+      <c r="C290" s="176"/>
+      <c r="D290" s="176"/>
+      <c r="E290" s="177"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7225,12 +7222,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="166" t="s">
+      <c r="B292" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="166"/>
-      <c r="D292" s="166"/>
-      <c r="E292" s="167"/>
+      <c r="C292" s="176"/>
+      <c r="D292" s="176"/>
+      <c r="E292" s="177"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7333,82 +7330,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="182" t="s">
+      <c r="B299" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="183"/>
-      <c r="D299" s="183"/>
-      <c r="E299" s="183"/>
-      <c r="F299" s="183"/>
-      <c r="G299" s="183"/>
-      <c r="H299" s="183"/>
-      <c r="I299" s="183"/>
-      <c r="J299" s="183"/>
-      <c r="K299" s="183"/>
-      <c r="L299" s="184"/>
+      <c r="C299" s="180"/>
+      <c r="D299" s="180"/>
+      <c r="E299" s="180"/>
+      <c r="F299" s="180"/>
+      <c r="G299" s="180"/>
+      <c r="H299" s="180"/>
+      <c r="I299" s="180"/>
+      <c r="J299" s="180"/>
+      <c r="K299" s="180"/>
+      <c r="L299" s="181"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="185"/>
-      <c r="C300" s="186"/>
-      <c r="D300" s="186"/>
-      <c r="E300" s="186"/>
-      <c r="F300" s="186"/>
-      <c r="G300" s="186"/>
-      <c r="H300" s="186"/>
-      <c r="I300" s="186"/>
-      <c r="J300" s="186"/>
-      <c r="K300" s="186"/>
-      <c r="L300" s="187"/>
+      <c r="B300" s="182"/>
+      <c r="C300" s="183"/>
+      <c r="D300" s="183"/>
+      <c r="E300" s="183"/>
+      <c r="F300" s="183"/>
+      <c r="G300" s="183"/>
+      <c r="H300" s="183"/>
+      <c r="I300" s="183"/>
+      <c r="J300" s="183"/>
+      <c r="K300" s="183"/>
+      <c r="L300" s="184"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="185"/>
-      <c r="C301" s="186"/>
-      <c r="D301" s="186"/>
-      <c r="E301" s="186"/>
-      <c r="F301" s="186"/>
-      <c r="G301" s="186"/>
-      <c r="H301" s="186"/>
-      <c r="I301" s="186"/>
-      <c r="J301" s="186"/>
-      <c r="K301" s="186"/>
-      <c r="L301" s="187"/>
+      <c r="B301" s="182"/>
+      <c r="C301" s="183"/>
+      <c r="D301" s="183"/>
+      <c r="E301" s="183"/>
+      <c r="F301" s="183"/>
+      <c r="G301" s="183"/>
+      <c r="H301" s="183"/>
+      <c r="I301" s="183"/>
+      <c r="J301" s="183"/>
+      <c r="K301" s="183"/>
+      <c r="L301" s="184"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="185"/>
-      <c r="C302" s="186"/>
-      <c r="D302" s="186"/>
-      <c r="E302" s="186"/>
-      <c r="F302" s="186"/>
-      <c r="G302" s="186"/>
-      <c r="H302" s="186"/>
-      <c r="I302" s="186"/>
-      <c r="J302" s="186"/>
-      <c r="K302" s="186"/>
-      <c r="L302" s="187"/>
+      <c r="B302" s="182"/>
+      <c r="C302" s="183"/>
+      <c r="D302" s="183"/>
+      <c r="E302" s="183"/>
+      <c r="F302" s="183"/>
+      <c r="G302" s="183"/>
+      <c r="H302" s="183"/>
+      <c r="I302" s="183"/>
+      <c r="J302" s="183"/>
+      <c r="K302" s="183"/>
+      <c r="L302" s="184"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="188"/>
-      <c r="C303" s="189"/>
-      <c r="D303" s="189"/>
-      <c r="E303" s="189"/>
-      <c r="F303" s="189"/>
-      <c r="G303" s="189"/>
-      <c r="H303" s="189"/>
-      <c r="I303" s="189"/>
-      <c r="J303" s="189"/>
-      <c r="K303" s="189"/>
-      <c r="L303" s="190"/>
+      <c r="B303" s="185"/>
+      <c r="C303" s="186"/>
+      <c r="D303" s="186"/>
+      <c r="E303" s="186"/>
+      <c r="F303" s="186"/>
+      <c r="G303" s="186"/>
+      <c r="H303" s="186"/>
+      <c r="I303" s="186"/>
+      <c r="J303" s="186"/>
+      <c r="K303" s="186"/>
+      <c r="L303" s="187"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7447,83 +7444,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="182" t="s">
+      <c r="B306" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="183"/>
-      <c r="D306" s="183"/>
-      <c r="E306" s="183"/>
-      <c r="F306" s="183"/>
-      <c r="G306" s="183"/>
-      <c r="H306" s="183"/>
-      <c r="I306" s="183"/>
-      <c r="J306" s="183"/>
-      <c r="K306" s="183"/>
-      <c r="L306" s="184"/>
+      <c r="C306" s="180"/>
+      <c r="D306" s="180"/>
+      <c r="E306" s="180"/>
+      <c r="F306" s="180"/>
+      <c r="G306" s="180"/>
+      <c r="H306" s="180"/>
+      <c r="I306" s="180"/>
+      <c r="J306" s="180"/>
+      <c r="K306" s="180"/>
+      <c r="L306" s="181"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="185"/>
-      <c r="C307" s="186"/>
-      <c r="D307" s="186"/>
-      <c r="E307" s="186"/>
-      <c r="F307" s="186"/>
-      <c r="G307" s="186"/>
-      <c r="H307" s="186"/>
-      <c r="I307" s="186"/>
-      <c r="J307" s="186"/>
-      <c r="K307" s="186"/>
-      <c r="L307" s="187"/>
+      <c r="B307" s="182"/>
+      <c r="C307" s="183"/>
+      <c r="D307" s="183"/>
+      <c r="E307" s="183"/>
+      <c r="F307" s="183"/>
+      <c r="G307" s="183"/>
+      <c r="H307" s="183"/>
+      <c r="I307" s="183"/>
+      <c r="J307" s="183"/>
+      <c r="K307" s="183"/>
+      <c r="L307" s="184"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="185"/>
-      <c r="C308" s="186"/>
-      <c r="D308" s="186"/>
-      <c r="E308" s="186"/>
-      <c r="F308" s="186"/>
-      <c r="G308" s="186"/>
-      <c r="H308" s="186"/>
-      <c r="I308" s="186"/>
-      <c r="J308" s="186"/>
-      <c r="K308" s="186"/>
-      <c r="L308" s="187"/>
+      <c r="B308" s="182"/>
+      <c r="C308" s="183"/>
+      <c r="D308" s="183"/>
+      <c r="E308" s="183"/>
+      <c r="F308" s="183"/>
+      <c r="G308" s="183"/>
+      <c r="H308" s="183"/>
+      <c r="I308" s="183"/>
+      <c r="J308" s="183"/>
+      <c r="K308" s="183"/>
+      <c r="L308" s="184"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="185"/>
-      <c r="C309" s="186"/>
-      <c r="D309" s="186"/>
-      <c r="E309" s="186"/>
-      <c r="F309" s="186"/>
-      <c r="G309" s="186"/>
-      <c r="H309" s="186"/>
-      <c r="I309" s="186"/>
-      <c r="J309" s="186"/>
-      <c r="K309" s="186"/>
-      <c r="L309" s="187"/>
+      <c r="B309" s="182"/>
+      <c r="C309" s="183"/>
+      <c r="D309" s="183"/>
+      <c r="E309" s="183"/>
+      <c r="F309" s="183"/>
+      <c r="G309" s="183"/>
+      <c r="H309" s="183"/>
+      <c r="I309" s="183"/>
+      <c r="J309" s="183"/>
+      <c r="K309" s="183"/>
+      <c r="L309" s="184"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="188"/>
-      <c r="C310" s="189"/>
-      <c r="D310" s="189"/>
-      <c r="E310" s="189"/>
-      <c r="F310" s="189"/>
-      <c r="G310" s="189"/>
-      <c r="H310" s="189"/>
-      <c r="I310" s="189"/>
-      <c r="J310" s="189"/>
-      <c r="K310" s="189"/>
-      <c r="L310" s="190"/>
+      <c r="B310" s="185"/>
+      <c r="C310" s="186"/>
+      <c r="D310" s="186"/>
+      <c r="E310" s="186"/>
+      <c r="F310" s="186"/>
+      <c r="G310" s="186"/>
+      <c r="H310" s="186"/>
+      <c r="I310" s="186"/>
+      <c r="J310" s="186"/>
+      <c r="K310" s="186"/>
+      <c r="L310" s="187"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7703,83 +7700,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="182" t="s">
+      <c r="B321" s="179" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="183"/>
-      <c r="D321" s="183"/>
-      <c r="E321" s="183"/>
-      <c r="F321" s="183"/>
-      <c r="G321" s="183"/>
-      <c r="H321" s="183"/>
-      <c r="I321" s="183"/>
-      <c r="J321" s="183"/>
-      <c r="K321" s="183"/>
-      <c r="L321" s="184"/>
+      <c r="C321" s="180"/>
+      <c r="D321" s="180"/>
+      <c r="E321" s="180"/>
+      <c r="F321" s="180"/>
+      <c r="G321" s="180"/>
+      <c r="H321" s="180"/>
+      <c r="I321" s="180"/>
+      <c r="J321" s="180"/>
+      <c r="K321" s="180"/>
+      <c r="L321" s="181"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="185"/>
-      <c r="C322" s="186"/>
-      <c r="D322" s="186"/>
-      <c r="E322" s="186"/>
-      <c r="F322" s="186"/>
-      <c r="G322" s="186"/>
-      <c r="H322" s="186"/>
-      <c r="I322" s="186"/>
-      <c r="J322" s="186"/>
-      <c r="K322" s="186"/>
-      <c r="L322" s="187"/>
+      <c r="B322" s="182"/>
+      <c r="C322" s="183"/>
+      <c r="D322" s="183"/>
+      <c r="E322" s="183"/>
+      <c r="F322" s="183"/>
+      <c r="G322" s="183"/>
+      <c r="H322" s="183"/>
+      <c r="I322" s="183"/>
+      <c r="J322" s="183"/>
+      <c r="K322" s="183"/>
+      <c r="L322" s="184"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="185"/>
-      <c r="C323" s="186"/>
-      <c r="D323" s="186"/>
-      <c r="E323" s="186"/>
-      <c r="F323" s="186"/>
-      <c r="G323" s="186"/>
-      <c r="H323" s="186"/>
-      <c r="I323" s="186"/>
-      <c r="J323" s="186"/>
-      <c r="K323" s="186"/>
-      <c r="L323" s="187"/>
+      <c r="B323" s="182"/>
+      <c r="C323" s="183"/>
+      <c r="D323" s="183"/>
+      <c r="E323" s="183"/>
+      <c r="F323" s="183"/>
+      <c r="G323" s="183"/>
+      <c r="H323" s="183"/>
+      <c r="I323" s="183"/>
+      <c r="J323" s="183"/>
+      <c r="K323" s="183"/>
+      <c r="L323" s="184"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="185"/>
-      <c r="C324" s="186"/>
-      <c r="D324" s="186"/>
-      <c r="E324" s="186"/>
-      <c r="F324" s="186"/>
-      <c r="G324" s="186"/>
-      <c r="H324" s="186"/>
-      <c r="I324" s="186"/>
-      <c r="J324" s="186"/>
-      <c r="K324" s="186"/>
-      <c r="L324" s="187"/>
+      <c r="B324" s="182"/>
+      <c r="C324" s="183"/>
+      <c r="D324" s="183"/>
+      <c r="E324" s="183"/>
+      <c r="F324" s="183"/>
+      <c r="G324" s="183"/>
+      <c r="H324" s="183"/>
+      <c r="I324" s="183"/>
+      <c r="J324" s="183"/>
+      <c r="K324" s="183"/>
+      <c r="L324" s="184"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="188"/>
-      <c r="C325" s="189"/>
-      <c r="D325" s="189"/>
-      <c r="E325" s="189"/>
-      <c r="F325" s="189"/>
-      <c r="G325" s="189"/>
-      <c r="H325" s="189"/>
-      <c r="I325" s="189"/>
-      <c r="J325" s="189"/>
-      <c r="K325" s="189"/>
-      <c r="L325" s="190"/>
+      <c r="B325" s="185"/>
+      <c r="C325" s="186"/>
+      <c r="D325" s="186"/>
+      <c r="E325" s="186"/>
+      <c r="F325" s="186"/>
+      <c r="G325" s="186"/>
+      <c r="H325" s="186"/>
+      <c r="I325" s="186"/>
+      <c r="J325" s="186"/>
+      <c r="K325" s="186"/>
+      <c r="L325" s="187"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7801,19 +7798,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="271" t="s">
+      <c r="B327" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="271"/>
-      <c r="D327" s="271"/>
-      <c r="E327" s="271"/>
-      <c r="F327" s="271"/>
-      <c r="G327" s="271"/>
-      <c r="H327" s="271"/>
-      <c r="I327" s="271"/>
-      <c r="J327" s="271"/>
-      <c r="K327" s="271"/>
-      <c r="L327" s="271"/>
+      <c r="C327" s="178"/>
+      <c r="D327" s="178"/>
+      <c r="E327" s="178"/>
+      <c r="F327" s="178"/>
+      <c r="G327" s="178"/>
+      <c r="H327" s="178"/>
+      <c r="I327" s="178"/>
+      <c r="J327" s="178"/>
+      <c r="K327" s="178"/>
+      <c r="L327" s="178"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7928,79 +7925,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="272" t="s">
+      <c r="B335" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="273"/>
-      <c r="D335" s="273"/>
-      <c r="E335" s="273"/>
-      <c r="F335" s="273"/>
-      <c r="G335" s="273"/>
-      <c r="H335" s="273"/>
-      <c r="I335" s="273"/>
-      <c r="J335" s="273"/>
-      <c r="K335" s="273"/>
-      <c r="L335" s="274"/>
+      <c r="C335" s="189"/>
+      <c r="D335" s="189"/>
+      <c r="E335" s="189"/>
+      <c r="F335" s="189"/>
+      <c r="G335" s="189"/>
+      <c r="H335" s="189"/>
+      <c r="I335" s="189"/>
+      <c r="J335" s="189"/>
+      <c r="K335" s="189"/>
+      <c r="L335" s="190"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="275"/>
-      <c r="C336" s="276"/>
-      <c r="D336" s="276"/>
-      <c r="E336" s="276"/>
-      <c r="F336" s="276"/>
-      <c r="G336" s="276"/>
-      <c r="H336" s="276"/>
-      <c r="I336" s="276"/>
-      <c r="J336" s="276"/>
-      <c r="K336" s="276"/>
-      <c r="L336" s="277"/>
+      <c r="B336" s="191"/>
+      <c r="C336" s="192"/>
+      <c r="D336" s="192"/>
+      <c r="E336" s="192"/>
+      <c r="F336" s="192"/>
+      <c r="G336" s="192"/>
+      <c r="H336" s="192"/>
+      <c r="I336" s="192"/>
+      <c r="J336" s="192"/>
+      <c r="K336" s="192"/>
+      <c r="L336" s="193"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="275"/>
-      <c r="C337" s="276"/>
-      <c r="D337" s="276"/>
-      <c r="E337" s="276"/>
-      <c r="F337" s="276"/>
-      <c r="G337" s="276"/>
-      <c r="H337" s="276"/>
-      <c r="I337" s="276"/>
-      <c r="J337" s="276"/>
-      <c r="K337" s="276"/>
-      <c r="L337" s="277"/>
+      <c r="B337" s="191"/>
+      <c r="C337" s="192"/>
+      <c r="D337" s="192"/>
+      <c r="E337" s="192"/>
+      <c r="F337" s="192"/>
+      <c r="G337" s="192"/>
+      <c r="H337" s="192"/>
+      <c r="I337" s="192"/>
+      <c r="J337" s="192"/>
+      <c r="K337" s="192"/>
+      <c r="L337" s="193"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="275"/>
-      <c r="C338" s="276"/>
-      <c r="D338" s="276"/>
-      <c r="E338" s="276"/>
-      <c r="F338" s="276"/>
-      <c r="G338" s="276"/>
-      <c r="H338" s="276"/>
-      <c r="I338" s="276"/>
-      <c r="J338" s="276"/>
-      <c r="K338" s="276"/>
-      <c r="L338" s="277"/>
+      <c r="B338" s="191"/>
+      <c r="C338" s="192"/>
+      <c r="D338" s="192"/>
+      <c r="E338" s="192"/>
+      <c r="F338" s="192"/>
+      <c r="G338" s="192"/>
+      <c r="H338" s="192"/>
+      <c r="I338" s="192"/>
+      <c r="J338" s="192"/>
+      <c r="K338" s="192"/>
+      <c r="L338" s="193"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="278"/>
-      <c r="C339" s="279"/>
-      <c r="D339" s="279"/>
-      <c r="E339" s="279"/>
-      <c r="F339" s="279"/>
-      <c r="G339" s="279"/>
-      <c r="H339" s="279"/>
-      <c r="I339" s="279"/>
-      <c r="J339" s="279"/>
-      <c r="K339" s="279"/>
-      <c r="L339" s="280"/>
+      <c r="B339" s="194"/>
+      <c r="C339" s="195"/>
+      <c r="D339" s="195"/>
+      <c r="E339" s="195"/>
+      <c r="F339" s="195"/>
+      <c r="G339" s="195"/>
+      <c r="H339" s="195"/>
+      <c r="I339" s="195"/>
+      <c r="J339" s="195"/>
+      <c r="K339" s="195"/>
+      <c r="L339" s="196"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8020,19 +8017,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="271" t="s">
+      <c r="B341" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="271"/>
-      <c r="D341" s="271"/>
-      <c r="E341" s="271"/>
-      <c r="F341" s="271"/>
-      <c r="G341" s="271"/>
-      <c r="H341" s="271"/>
-      <c r="I341" s="271"/>
-      <c r="J341" s="271"/>
-      <c r="K341" s="271"/>
-      <c r="L341" s="271"/>
+      <c r="C341" s="178"/>
+      <c r="D341" s="178"/>
+      <c r="E341" s="178"/>
+      <c r="F341" s="178"/>
+      <c r="G341" s="178"/>
+      <c r="H341" s="178"/>
+      <c r="I341" s="178"/>
+      <c r="J341" s="178"/>
+      <c r="K341" s="178"/>
+      <c r="L341" s="178"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8081,12 +8078,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="192" t="s">
+      <c r="B345" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="192"/>
-      <c r="D345" s="192"/>
-      <c r="E345" s="192"/>
+      <c r="C345" s="175"/>
+      <c r="D345" s="175"/>
+      <c r="E345" s="175"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8109,12 +8106,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="192" t="s">
+      <c r="B347" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="192"/>
-      <c r="D347" s="192"/>
-      <c r="E347" s="192"/>
+      <c r="C347" s="175"/>
+      <c r="D347" s="175"/>
+      <c r="E347" s="175"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8139,13 +8136,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="192" t="s">
+      <c r="B349" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="192"/>
-      <c r="D349" s="192"/>
-      <c r="E349" s="192"/>
-      <c r="F349" s="167"/>
+      <c r="C349" s="175"/>
+      <c r="D349" s="175"/>
+      <c r="E349" s="175"/>
+      <c r="F349" s="177"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8168,13 +8165,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="192" t="s">
+      <c r="B351" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="192"/>
-      <c r="D351" s="192"/>
-      <c r="E351" s="192"/>
-      <c r="F351" s="167"/>
+      <c r="C351" s="175"/>
+      <c r="D351" s="175"/>
+      <c r="E351" s="175"/>
+      <c r="F351" s="177"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8197,13 +8194,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="192" t="s">
+      <c r="B353" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="192"/>
-      <c r="D353" s="192"/>
-      <c r="E353" s="192"/>
-      <c r="F353" s="167"/>
+      <c r="C353" s="175"/>
+      <c r="D353" s="175"/>
+      <c r="E353" s="175"/>
+      <c r="F353" s="177"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8275,83 +8272,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="182" t="s">
+      <c r="B358" s="179" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="183"/>
-      <c r="D358" s="183"/>
-      <c r="E358" s="183"/>
-      <c r="F358" s="183"/>
-      <c r="G358" s="183"/>
-      <c r="H358" s="183"/>
-      <c r="I358" s="183"/>
-      <c r="J358" s="183"/>
-      <c r="K358" s="183"/>
-      <c r="L358" s="184"/>
+      <c r="C358" s="180"/>
+      <c r="D358" s="180"/>
+      <c r="E358" s="180"/>
+      <c r="F358" s="180"/>
+      <c r="G358" s="180"/>
+      <c r="H358" s="180"/>
+      <c r="I358" s="180"/>
+      <c r="J358" s="180"/>
+      <c r="K358" s="180"/>
+      <c r="L358" s="181"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="185"/>
-      <c r="C359" s="186"/>
-      <c r="D359" s="186"/>
-      <c r="E359" s="186"/>
-      <c r="F359" s="186"/>
-      <c r="G359" s="186"/>
-      <c r="H359" s="186"/>
-      <c r="I359" s="186"/>
-      <c r="J359" s="186"/>
-      <c r="K359" s="186"/>
-      <c r="L359" s="187"/>
+      <c r="B359" s="182"/>
+      <c r="C359" s="183"/>
+      <c r="D359" s="183"/>
+      <c r="E359" s="183"/>
+      <c r="F359" s="183"/>
+      <c r="G359" s="183"/>
+      <c r="H359" s="183"/>
+      <c r="I359" s="183"/>
+      <c r="J359" s="183"/>
+      <c r="K359" s="183"/>
+      <c r="L359" s="184"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="185"/>
-      <c r="C360" s="186"/>
-      <c r="D360" s="186"/>
-      <c r="E360" s="186"/>
-      <c r="F360" s="186"/>
-      <c r="G360" s="186"/>
-      <c r="H360" s="186"/>
-      <c r="I360" s="186"/>
-      <c r="J360" s="186"/>
-      <c r="K360" s="186"/>
-      <c r="L360" s="187"/>
+      <c r="B360" s="182"/>
+      <c r="C360" s="183"/>
+      <c r="D360" s="183"/>
+      <c r="E360" s="183"/>
+      <c r="F360" s="183"/>
+      <c r="G360" s="183"/>
+      <c r="H360" s="183"/>
+      <c r="I360" s="183"/>
+      <c r="J360" s="183"/>
+      <c r="K360" s="183"/>
+      <c r="L360" s="184"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="185"/>
-      <c r="C361" s="186"/>
-      <c r="D361" s="186"/>
-      <c r="E361" s="186"/>
-      <c r="F361" s="186"/>
-      <c r="G361" s="186"/>
-      <c r="H361" s="186"/>
-      <c r="I361" s="186"/>
-      <c r="J361" s="186"/>
-      <c r="K361" s="186"/>
-      <c r="L361" s="187"/>
+      <c r="B361" s="182"/>
+      <c r="C361" s="183"/>
+      <c r="D361" s="183"/>
+      <c r="E361" s="183"/>
+      <c r="F361" s="183"/>
+      <c r="G361" s="183"/>
+      <c r="H361" s="183"/>
+      <c r="I361" s="183"/>
+      <c r="J361" s="183"/>
+      <c r="K361" s="183"/>
+      <c r="L361" s="184"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="188"/>
-      <c r="C362" s="189"/>
-      <c r="D362" s="189"/>
-      <c r="E362" s="189"/>
-      <c r="F362" s="189"/>
-      <c r="G362" s="189"/>
-      <c r="H362" s="189"/>
-      <c r="I362" s="189"/>
-      <c r="J362" s="189"/>
-      <c r="K362" s="189"/>
-      <c r="L362" s="190"/>
+      <c r="B362" s="185"/>
+      <c r="C362" s="186"/>
+      <c r="D362" s="186"/>
+      <c r="E362" s="186"/>
+      <c r="F362" s="186"/>
+      <c r="G362" s="186"/>
+      <c r="H362" s="186"/>
+      <c r="I362" s="186"/>
+      <c r="J362" s="186"/>
+      <c r="K362" s="186"/>
+      <c r="L362" s="187"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8426,28 +8423,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="256" t="s">
+      <c r="B367" s="201" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="257"/>
-      <c r="D367" s="246" t="s">
+      <c r="C367" s="202"/>
+      <c r="D367" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="247"/>
-      <c r="F367" s="247"/>
-      <c r="G367" s="247"/>
-      <c r="H367" s="247"/>
-      <c r="I367" s="247"/>
-      <c r="J367" s="247"/>
-      <c r="K367" s="247"/>
-      <c r="L367" s="248"/>
+      <c r="E367" s="197"/>
+      <c r="F367" s="197"/>
+      <c r="G367" s="197"/>
+      <c r="H367" s="197"/>
+      <c r="I367" s="197"/>
+      <c r="J367" s="197"/>
+      <c r="K367" s="197"/>
+      <c r="L367" s="174"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="246"/>
-      <c r="C368" s="248"/>
+      <c r="B368" s="173"/>
+      <c r="C368" s="174"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8462,19 +8459,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="191" t="s">
+      <c r="B369" s="232" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="191"/>
-      <c r="D369" s="191"/>
-      <c r="E369" s="191"/>
-      <c r="F369" s="191"/>
-      <c r="G369" s="191"/>
-      <c r="H369" s="191"/>
-      <c r="I369" s="191"/>
-      <c r="J369" s="191"/>
-      <c r="K369" s="191"/>
-      <c r="L369" s="191"/>
+      <c r="C369" s="232"/>
+      <c r="D369" s="232"/>
+      <c r="E369" s="232"/>
+      <c r="F369" s="232"/>
+      <c r="G369" s="232"/>
+      <c r="H369" s="232"/>
+      <c r="I369" s="232"/>
+      <c r="J369" s="232"/>
+      <c r="K369" s="232"/>
+      <c r="L369" s="232"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8562,20 +8559,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="235" t="s">
+      <c r="C375" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="235"/>
-      <c r="E375" s="236" t="s">
+      <c r="D375" s="208"/>
+      <c r="E375" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="236"/>
-      <c r="G375" s="236"/>
-      <c r="H375" s="236" t="s">
+      <c r="F375" s="207"/>
+      <c r="G375" s="207"/>
+      <c r="H375" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="236"/>
-      <c r="J375" s="236"/>
+      <c r="I375" s="207"/>
+      <c r="J375" s="207"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8585,14 +8582,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="235"/>
-      <c r="D376" s="235"/>
-      <c r="E376" s="236"/>
-      <c r="F376" s="236"/>
-      <c r="G376" s="236"/>
-      <c r="H376" s="236"/>
-      <c r="I376" s="236"/>
-      <c r="J376" s="236"/>
+      <c r="C376" s="208"/>
+      <c r="D376" s="208"/>
+      <c r="E376" s="207"/>
+      <c r="F376" s="207"/>
+      <c r="G376" s="207"/>
+      <c r="H376" s="207"/>
+      <c r="I376" s="207"/>
+      <c r="J376" s="207"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8602,14 +8599,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="235"/>
-      <c r="D377" s="235"/>
-      <c r="E377" s="236"/>
-      <c r="F377" s="236"/>
-      <c r="G377" s="236"/>
-      <c r="H377" s="236"/>
-      <c r="I377" s="236"/>
-      <c r="J377" s="236"/>
+      <c r="C377" s="208"/>
+      <c r="D377" s="208"/>
+      <c r="E377" s="207"/>
+      <c r="F377" s="207"/>
+      <c r="G377" s="207"/>
+      <c r="H377" s="207"/>
+      <c r="I377" s="207"/>
+      <c r="J377" s="207"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8619,14 +8616,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="235"/>
-      <c r="D378" s="235"/>
-      <c r="E378" s="236"/>
-      <c r="F378" s="236"/>
-      <c r="G378" s="236"/>
-      <c r="H378" s="236"/>
-      <c r="I378" s="236"/>
-      <c r="J378" s="236"/>
+      <c r="C378" s="208"/>
+      <c r="D378" s="208"/>
+      <c r="E378" s="207"/>
+      <c r="F378" s="207"/>
+      <c r="G378" s="207"/>
+      <c r="H378" s="207"/>
+      <c r="I378" s="207"/>
+      <c r="J378" s="207"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8636,14 +8633,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="235"/>
-      <c r="D379" s="235"/>
-      <c r="E379" s="236"/>
-      <c r="F379" s="236"/>
-      <c r="G379" s="236"/>
-      <c r="H379" s="236"/>
-      <c r="I379" s="236"/>
-      <c r="J379" s="236"/>
+      <c r="C379" s="208"/>
+      <c r="D379" s="208"/>
+      <c r="E379" s="207"/>
+      <c r="F379" s="207"/>
+      <c r="G379" s="207"/>
+      <c r="H379" s="207"/>
+      <c r="I379" s="207"/>
+      <c r="J379" s="207"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8653,14 +8650,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="235"/>
-      <c r="D380" s="235"/>
-      <c r="E380" s="236"/>
-      <c r="F380" s="236"/>
-      <c r="G380" s="236"/>
-      <c r="H380" s="236"/>
-      <c r="I380" s="236"/>
-      <c r="J380" s="236"/>
+      <c r="C380" s="208"/>
+      <c r="D380" s="208"/>
+      <c r="E380" s="207"/>
+      <c r="F380" s="207"/>
+      <c r="G380" s="207"/>
+      <c r="H380" s="207"/>
+      <c r="I380" s="207"/>
+      <c r="J380" s="207"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8670,14 +8667,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="235"/>
-      <c r="D381" s="235"/>
-      <c r="E381" s="236"/>
-      <c r="F381" s="236"/>
-      <c r="G381" s="236"/>
-      <c r="H381" s="236"/>
-      <c r="I381" s="236"/>
-      <c r="J381" s="236"/>
+      <c r="C381" s="208"/>
+      <c r="D381" s="208"/>
+      <c r="E381" s="207"/>
+      <c r="F381" s="207"/>
+      <c r="G381" s="207"/>
+      <c r="H381" s="207"/>
+      <c r="I381" s="207"/>
+      <c r="J381" s="207"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8687,14 +8684,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="235"/>
-      <c r="D382" s="235"/>
-      <c r="E382" s="236"/>
-      <c r="F382" s="236"/>
-      <c r="G382" s="236"/>
-      <c r="H382" s="236"/>
-      <c r="I382" s="236"/>
-      <c r="J382" s="236"/>
+      <c r="C382" s="208"/>
+      <c r="D382" s="208"/>
+      <c r="E382" s="207"/>
+      <c r="F382" s="207"/>
+      <c r="G382" s="207"/>
+      <c r="H382" s="207"/>
+      <c r="I382" s="207"/>
+      <c r="J382" s="207"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8819,10 +8816,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="235" t="s">
+      <c r="C392" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="235"/>
+      <c r="D392" s="208"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8830,43 +8827,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="164" t="s">
+      <c r="B393" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="164" t="s">
+      <c r="C393" s="222" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="164" t="s">
+      <c r="D393" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="164" t="s">
+      <c r="E393" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="237" t="s">
+      <c r="F393" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="237" t="s">
+      <c r="G393" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="237" t="s">
+      <c r="H393" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="236" t="s">
+      <c r="I393" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="236"/>
+      <c r="J393" s="207"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="164"/>
-      <c r="C394" s="164"/>
-      <c r="D394" s="164"/>
-      <c r="E394" s="164"/>
-      <c r="F394" s="238"/>
-      <c r="G394" s="238"/>
-      <c r="H394" s="238"/>
+      <c r="B394" s="222"/>
+      <c r="C394" s="222"/>
+      <c r="D394" s="222"/>
+      <c r="E394" s="222"/>
+      <c r="F394" s="224"/>
+      <c r="G394" s="224"/>
+      <c r="H394" s="224"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9171,21 +9168,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="171" t="s">
+      <c r="B414" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="173"/>
-      <c r="D414" s="171" t="s">
+      <c r="C414" s="218"/>
+      <c r="D414" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="172"/>
-      <c r="F414" s="172"/>
-      <c r="G414" s="172"/>
-      <c r="H414" s="172"/>
-      <c r="I414" s="172"/>
-      <c r="J414" s="173"/>
+      <c r="E414" s="217"/>
+      <c r="F414" s="217"/>
+      <c r="G414" s="217"/>
+      <c r="H414" s="217"/>
+      <c r="I414" s="217"/>
+      <c r="J414" s="218"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="237" t="s">
+      <c r="L414" s="223" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9219,7 +9216,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="238"/>
+      <c r="L415" s="224"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9465,23 +9462,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="171" t="s">
+      <c r="B431" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="173"/>
-      <c r="D431" s="245" t="s">
+      <c r="C431" s="218"/>
+      <c r="D431" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="171" t="s">
+      <c r="E431" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="172"/>
-      <c r="G431" s="172"/>
-      <c r="H431" s="172"/>
-      <c r="I431" s="172"/>
-      <c r="J431" s="173"/>
+      <c r="F431" s="217"/>
+      <c r="G431" s="217"/>
+      <c r="H431" s="217"/>
+      <c r="I431" s="217"/>
+      <c r="J431" s="218"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="237" t="s">
+      <c r="L431" s="223" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9493,7 +9490,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="235"/>
+      <c r="D432" s="208"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9513,7 +9510,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="238"/>
+      <c r="L432" s="224"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9701,26 +9698,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="251" t="s">
+      <c r="B445" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="252"/>
-      <c r="D445" s="171" t="s">
+      <c r="C445" s="213"/>
+      <c r="D445" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="172"/>
-      <c r="F445" s="172"/>
-      <c r="G445" s="172"/>
-      <c r="H445" s="172"/>
-      <c r="I445" s="172"/>
-      <c r="J445" s="173"/>
+      <c r="E445" s="217"/>
+      <c r="F445" s="217"/>
+      <c r="G445" s="217"/>
+      <c r="H445" s="217"/>
+      <c r="I445" s="217"/>
+      <c r="J445" s="218"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="255"/>
+      <c r="L445" s="219"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="253"/>
-      <c r="C446" s="254"/>
+      <c r="B446" s="214"/>
+      <c r="C446" s="215"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9743,14 +9740,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="255"/>
+      <c r="L446" s="219"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="246" t="s">
+      <c r="B447" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="248"/>
+      <c r="C447" s="174"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9762,10 +9759,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="246" t="s">
+      <c r="B448" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="248"/>
+      <c r="C448" s="174"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9777,10 +9774,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="246" t="s">
+      <c r="B449" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="248"/>
+      <c r="C449" s="174"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9792,10 +9789,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="171" t="s">
+      <c r="B450" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="173"/>
+      <c r="C450" s="218"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10131,18 +10128,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="242" t="s">
-        <v>334</v>
-      </c>
-      <c r="D472" s="243"/>
-      <c r="E472" s="243"/>
-      <c r="F472" s="243"/>
-      <c r="G472" s="243"/>
-      <c r="H472" s="243"/>
-      <c r="I472" s="243"/>
-      <c r="J472" s="243"/>
-      <c r="K472" s="243"/>
-      <c r="L472" s="244"/>
+      <c r="C472" s="228" t="s">
+        <v>336</v>
+      </c>
+      <c r="D472" s="229"/>
+      <c r="E472" s="229"/>
+      <c r="F472" s="229"/>
+      <c r="G472" s="229"/>
+      <c r="H472" s="229"/>
+      <c r="I472" s="229"/>
+      <c r="J472" s="229"/>
+      <c r="K472" s="229"/>
+      <c r="L472" s="230"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10178,10 +10175,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="235" t="s">
+      <c r="C475" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="235"/>
+      <c r="D475" s="208"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10193,43 +10190,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="164" t="s">
+      <c r="B476" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="164" t="s">
+      <c r="C476" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="164" t="s">
+      <c r="D476" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="164" t="s">
+      <c r="E476" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="237" t="s">
+      <c r="F476" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="237" t="s">
+      <c r="G476" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="237" t="s">
+      <c r="H476" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="239" t="s">
+      <c r="I476" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="240"/>
-      <c r="K476" s="240"/>
-      <c r="L476" s="241"/>
+      <c r="J476" s="226"/>
+      <c r="K476" s="226"/>
+      <c r="L476" s="227"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="164"/>
-      <c r="C477" s="164"/>
-      <c r="D477" s="164"/>
-      <c r="E477" s="164"/>
-      <c r="F477" s="238"/>
-      <c r="G477" s="238"/>
-      <c r="H477" s="238"/>
+      <c r="B477" s="222"/>
+      <c r="C477" s="222"/>
+      <c r="D477" s="222"/>
+      <c r="E477" s="222"/>
+      <c r="F477" s="224"/>
+      <c r="G477" s="224"/>
+      <c r="H477" s="224"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10372,10 +10369,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="258" t="s">
+      <c r="F484" s="203" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="258"/>
+      <c r="G484" s="203"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10394,10 +10391,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="259" t="s">
+      <c r="F485" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="259"/>
+      <c r="G485" s="204"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10420,7 +10417,7 @@
       <c r="D486" s="162"/>
       <c r="E486" s="39"/>
       <c r="F486" s="163" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G486" s="163"/>
       <c r="H486" s="127">
@@ -10438,10 +10435,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="259" t="s">
+      <c r="F487" s="204" t="s">
         <v>195</v>
       </c>
-      <c r="G487" s="259"/>
+      <c r="G487" s="204"/>
       <c r="H487" s="127">
         <v>17290.75</v>
       </c>
@@ -10460,10 +10457,10 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="250" t="s">
+      <c r="F488" s="211" t="s">
         <v>196</v>
       </c>
-      <c r="G488" s="250"/>
+      <c r="G488" s="211"/>
       <c r="H488" s="138">
         <f>SUM(H478:H487)+0.01</f>
         <v>283158.7</v>
@@ -10547,7 +10544,7 @@
       <c r="D493" s="79"/>
       <c r="E493" s="79"/>
       <c r="F493" s="119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G493" s="78"/>
       <c r="H493" s="79"/>
@@ -10608,27 +10605,27 @@
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="251" t="s">
+      <c r="B497" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="C497" s="252"/>
-      <c r="D497" s="171" t="s">
+      <c r="C497" s="213"/>
+      <c r="D497" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E497" s="172"/>
-      <c r="F497" s="172"/>
-      <c r="G497" s="172"/>
-      <c r="H497" s="172"/>
-      <c r="I497" s="172"/>
-      <c r="J497" s="173"/>
+      <c r="E497" s="217"/>
+      <c r="F497" s="217"/>
+      <c r="G497" s="217"/>
+      <c r="H497" s="217"/>
+      <c r="I497" s="217"/>
+      <c r="J497" s="218"/>
       <c r="K497" s="21"/>
-      <c r="L497" s="255"/>
+      <c r="L497" s="219"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="253"/>
-      <c r="C498" s="254"/>
+      <c r="B498" s="214"/>
+      <c r="C498" s="215"/>
       <c r="D498" s="74">
         <v>1</v>
       </c>
@@ -10651,15 +10648,15 @@
         <v>10</v>
       </c>
       <c r="K498" s="21"/>
-      <c r="L498" s="255"/>
+      <c r="L498" s="219"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="C499" s="231"/>
+      <c r="B499" s="220" t="s">
+        <v>334</v>
+      </c>
+      <c r="C499" s="221"/>
       <c r="D499" s="102"/>
       <c r="E499" s="142">
         <v>3500</v>
@@ -10681,10 +10678,10 @@
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="246" t="s">
+      <c r="B500" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C500" s="248"/>
+      <c r="C500" s="174"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10698,10 +10695,10 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
-      <c r="B501" s="246" t="s">
+      <c r="B501" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C501" s="248"/>
+      <c r="C501" s="174"/>
       <c r="D501" s="81"/>
       <c r="E501" s="81"/>
       <c r="F501" s="81"/>
@@ -10715,9 +10712,9 @@
     </row>
     <row r="502" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="78"/>
-      <c r="B502" s="262"/>
-      <c r="C502" s="262"/>
-      <c r="D502" s="262"/>
+      <c r="B502" s="164"/>
+      <c r="C502" s="164"/>
+      <c r="D502" s="164"/>
       <c r="E502" s="39"/>
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
@@ -11140,12 +11137,12 @@
       <c r="L529" s="79"/>
     </row>
     <row r="530" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="201" t="s">
+      <c r="A530" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="B530" s="201"/>
-      <c r="C530" s="201"/>
-      <c r="D530" s="201"/>
+      <c r="B530" s="209"/>
+      <c r="C530" s="209"/>
+      <c r="D530" s="209"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
       <c r="K530" s="151"/>
@@ -11223,36 +11220,36 @@
       <c r="K535" s="150"/>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A536" s="249" t="s">
+      <c r="A536" s="210" t="s">
         <v>248</v>
       </c>
-      <c r="B536" s="249"/>
-      <c r="C536" s="249"/>
-      <c r="D536" s="249"/>
-      <c r="E536" s="249"/>
-      <c r="F536" s="249"/>
-      <c r="G536" s="249"/>
-      <c r="H536" s="249"/>
-      <c r="I536" s="249"/>
-      <c r="J536" s="249"/>
-      <c r="K536" s="249"/>
-      <c r="L536" s="249"/>
+      <c r="B536" s="210"/>
+      <c r="C536" s="210"/>
+      <c r="D536" s="210"/>
+      <c r="E536" s="210"/>
+      <c r="F536" s="210"/>
+      <c r="G536" s="210"/>
+      <c r="H536" s="210"/>
+      <c r="I536" s="210"/>
+      <c r="J536" s="210"/>
+      <c r="K536" s="210"/>
+      <c r="L536" s="210"/>
     </row>
     <row r="537" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="249" t="s">
+      <c r="A537" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="B537" s="249"/>
-      <c r="C537" s="249"/>
-      <c r="D537" s="249"/>
-      <c r="E537" s="249"/>
-      <c r="F537" s="249"/>
-      <c r="G537" s="249"/>
-      <c r="H537" s="249"/>
-      <c r="I537" s="249"/>
-      <c r="J537" s="249"/>
-      <c r="K537" s="249"/>
-      <c r="L537" s="249"/>
+      <c r="B537" s="210"/>
+      <c r="C537" s="210"/>
+      <c r="D537" s="210"/>
+      <c r="E537" s="210"/>
+      <c r="F537" s="210"/>
+      <c r="G537" s="210"/>
+      <c r="H537" s="210"/>
+      <c r="I537" s="210"/>
+      <c r="J537" s="210"/>
+      <c r="K537" s="210"/>
+      <c r="L537" s="210"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A538" s="79"/>
@@ -11283,20 +11280,20 @@
       <c r="K539" s="150"/>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A540" s="249" t="s">
+      <c r="A540" s="210" t="s">
         <v>250</v>
       </c>
-      <c r="B540" s="249"/>
-      <c r="C540" s="249"/>
-      <c r="D540" s="249"/>
-      <c r="E540" s="249"/>
-      <c r="F540" s="249"/>
-      <c r="G540" s="249"/>
-      <c r="H540" s="249"/>
-      <c r="I540" s="249"/>
-      <c r="J540" s="249"/>
-      <c r="K540" s="249"/>
-      <c r="L540" s="249"/>
+      <c r="B540" s="210"/>
+      <c r="C540" s="210"/>
+      <c r="D540" s="210"/>
+      <c r="E540" s="210"/>
+      <c r="F540" s="210"/>
+      <c r="G540" s="210"/>
+      <c r="H540" s="210"/>
+      <c r="I540" s="210"/>
+      <c r="J540" s="210"/>
+      <c r="K540" s="210"/>
+      <c r="L540" s="210"/>
     </row>
     <row r="541" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="78"/>
@@ -11312,6 +11309,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B369:L369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:L216"/>
+    <mergeCell ref="B126:L126"/>
+    <mergeCell ref="B129:L129"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:L123"/>
+    <mergeCell ref="B193:L197"/>
+    <mergeCell ref="B200:L204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A537:L537"/>
+    <mergeCell ref="A540:L540"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B497:C498"/>
+    <mergeCell ref="D497:J497"/>
+    <mergeCell ref="L497:L498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="B502:D502"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -11336,134 +11461,6 @@
     <mergeCell ref="D367:L367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:L237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A537:L537"/>
-    <mergeCell ref="A540:L540"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B497:C498"/>
-    <mergeCell ref="D497:J497"/>
-    <mergeCell ref="L497:L498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:L369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:L216"/>
-    <mergeCell ref="B126:L126"/>
-    <mergeCell ref="B129:L129"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:L123"/>
-    <mergeCell ref="B193:L197"/>
-    <mergeCell ref="B200:L204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76E33FC-F3F1-4A5D-B22E-C52F79B8888A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8BF81-C297-4797-8EFB-02C0037FFEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2008,6 +2008,300 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2035,52 +2329,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2106,258 +2358,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2647,8 +2647,8 @@
   </sheetPr>
   <dimension ref="A3:P544"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B68" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F476" sqref="F476:F477"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B50" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I532" sqref="I532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2670,52 +2670,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="193" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="236"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="196"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="197" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="200"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="241"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2749,17 +2749,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="264" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="266"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="263" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="165"/>
+      <c r="E21" s="263"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2988,10 +2988,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="165"/>
+      <c r="E23" s="263"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3053,13 +3053,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="169" t="s">
+      <c r="F27" s="267" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
+      <c r="G27" s="267"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="267"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3078,22 +3078,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="242" t="s">
+      <c r="B29" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="170" t="s">
+      <c r="G29" s="268" t="s">
         <v>329</v>
       </c>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="172"/>
+      <c r="H29" s="269"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="269"/>
+      <c r="L29" s="270"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3112,11 +3112,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="261"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3277,12 +3277,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="198" t="s">
+      <c r="G40" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="199"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
+      <c r="H40" s="233"/>
+      <c r="I40" s="233"/>
+      <c r="J40" s="234"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3295,12 +3295,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="198" t="s">
+      <c r="G41" s="232" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="199"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
+      <c r="H41" s="233"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="234"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="232" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="H42" s="233"/>
+      <c r="I42" s="233"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="198" t="s">
+      <c r="G43" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
+      <c r="H43" s="233"/>
+      <c r="I43" s="233"/>
+      <c r="J43" s="234"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3380,12 +3380,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="198" t="s">
+      <c r="G46" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200"/>
+      <c r="H46" s="233"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3398,12 +3398,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="198" t="s">
+      <c r="G47" s="232" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="199"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="H47" s="233"/>
+      <c r="I47" s="233"/>
+      <c r="J47" s="234"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3416,12 +3416,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="220" t="s">
+      <c r="G48" s="229" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="271"/>
-      <c r="I48" s="271"/>
-      <c r="J48" s="221"/>
+      <c r="H48" s="230"/>
+      <c r="I48" s="230"/>
+      <c r="J48" s="231"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3488,12 +3488,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="198" t="s">
+      <c r="G52" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3506,12 +3506,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="198" t="s">
+      <c r="G53" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="199"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
+      <c r="H53" s="233"/>
+      <c r="I53" s="233"/>
+      <c r="J53" s="234"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3760,14 +3760,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="173" t="s">
+      <c r="E68" s="246" t="s">
         <v>340</v>
       </c>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
-      <c r="H68" s="197"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="174"/>
+      <c r="F68" s="247"/>
+      <c r="G68" s="247"/>
+      <c r="H68" s="247"/>
+      <c r="I68" s="247"/>
+      <c r="J68" s="248"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3832,11 +3832,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="222" t="s">
+      <c r="F72" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="222"/>
-      <c r="H72" s="222"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3856,11 +3856,11 @@
       <c r="E73" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="F73" s="272" t="s">
+      <c r="F73" s="165" t="s">
         <v>344</v>
       </c>
-      <c r="G73" s="272"/>
-      <c r="H73" s="272"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3992,10 +3992,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="207" t="s">
+      <c r="D82" s="236" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="207"/>
+      <c r="E82" s="236"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4081,17 +4081,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="274" t="s">
+      <c r="B87" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="274"/>
-      <c r="D87" s="274"/>
-      <c r="E87" s="274"/>
-      <c r="F87" s="274"/>
-      <c r="G87" s="274"/>
-      <c r="H87" s="274"/>
-      <c r="I87" s="274"/>
-      <c r="J87" s="274"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
+      <c r="F87" s="169"/>
+      <c r="G87" s="169"/>
+      <c r="H87" s="169"/>
+      <c r="I87" s="169"/>
+      <c r="J87" s="169"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4258,10 +4258,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="276" t="s">
+      <c r="E98" s="174" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="277"/>
+      <c r="F98" s="175"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4441,13 +4441,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="259" t="s">
+      <c r="B110" s="220" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="259"/>
-      <c r="D110" s="259"/>
-      <c r="E110" s="259"/>
-      <c r="F110" s="260"/>
+      <c r="C110" s="220"/>
+      <c r="D110" s="220"/>
+      <c r="E110" s="220"/>
+      <c r="F110" s="221"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4462,8 +4462,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="261"/>
-      <c r="H111" s="261"/>
+      <c r="G111" s="222"/>
+      <c r="H111" s="222"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4471,13 +4471,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="259" t="s">
+      <c r="B112" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="259"/>
-      <c r="D112" s="259"/>
-      <c r="E112" s="259"/>
-      <c r="F112" s="260"/>
+      <c r="C112" s="220"/>
+      <c r="D112" s="220"/>
+      <c r="E112" s="220"/>
+      <c r="F112" s="221"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4609,47 +4609,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="262" t="s">
+      <c r="B121" s="223" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="263"/>
-      <c r="D121" s="263"/>
-      <c r="E121" s="263"/>
-      <c r="F121" s="263"/>
-      <c r="G121" s="263"/>
-      <c r="H121" s="263"/>
-      <c r="I121" s="263"/>
-      <c r="J121" s="263"/>
-      <c r="K121" s="263"/>
-      <c r="L121" s="264"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="224"/>
+      <c r="F121" s="224"/>
+      <c r="G121" s="224"/>
+      <c r="H121" s="224"/>
+      <c r="I121" s="224"/>
+      <c r="J121" s="224"/>
+      <c r="K121" s="224"/>
+      <c r="L121" s="225"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="265"/>
-      <c r="C122" s="266"/>
-      <c r="D122" s="266"/>
-      <c r="E122" s="266"/>
-      <c r="F122" s="266"/>
-      <c r="G122" s="266"/>
-      <c r="H122" s="266"/>
-      <c r="I122" s="266"/>
-      <c r="J122" s="266"/>
-      <c r="K122" s="266"/>
-      <c r="L122" s="267"/>
+      <c r="B122" s="176"/>
+      <c r="C122" s="177"/>
+      <c r="D122" s="177"/>
+      <c r="E122" s="177"/>
+      <c r="F122" s="177"/>
+      <c r="G122" s="177"/>
+      <c r="H122" s="177"/>
+      <c r="I122" s="177"/>
+      <c r="J122" s="177"/>
+      <c r="K122" s="177"/>
+      <c r="L122" s="178"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="268"/>
-      <c r="C123" s="269"/>
-      <c r="D123" s="269"/>
-      <c r="E123" s="269"/>
-      <c r="F123" s="269"/>
-      <c r="G123" s="269"/>
-      <c r="H123" s="269"/>
-      <c r="I123" s="269"/>
-      <c r="J123" s="269"/>
-      <c r="K123" s="269"/>
-      <c r="L123" s="270"/>
+      <c r="B123" s="226"/>
+      <c r="C123" s="227"/>
+      <c r="D123" s="227"/>
+      <c r="E123" s="227"/>
+      <c r="F123" s="227"/>
+      <c r="G123" s="227"/>
+      <c r="H123" s="227"/>
+      <c r="I123" s="227"/>
+      <c r="J123" s="227"/>
+      <c r="K123" s="227"/>
+      <c r="L123" s="228"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4683,19 +4683,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="252" t="s">
+      <c r="B126" s="213" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="253"/>
-      <c r="D126" s="253"/>
-      <c r="E126" s="253"/>
-      <c r="F126" s="253"/>
-      <c r="G126" s="253"/>
-      <c r="H126" s="253"/>
-      <c r="I126" s="253"/>
-      <c r="J126" s="253"/>
-      <c r="K126" s="253"/>
-      <c r="L126" s="254"/>
+      <c r="C126" s="214"/>
+      <c r="D126" s="214"/>
+      <c r="E126" s="214"/>
+      <c r="F126" s="214"/>
+      <c r="G126" s="214"/>
+      <c r="H126" s="214"/>
+      <c r="I126" s="214"/>
+      <c r="J126" s="214"/>
+      <c r="K126" s="214"/>
+      <c r="L126" s="215"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4729,19 +4729,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="255" t="s">
+      <c r="B129" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="256"/>
-      <c r="D129" s="256"/>
-      <c r="E129" s="256"/>
-      <c r="F129" s="256"/>
-      <c r="G129" s="256"/>
-      <c r="H129" s="256"/>
-      <c r="I129" s="256"/>
-      <c r="J129" s="256"/>
-      <c r="K129" s="256"/>
-      <c r="L129" s="257"/>
+      <c r="C129" s="217"/>
+      <c r="D129" s="217"/>
+      <c r="E129" s="217"/>
+      <c r="F129" s="217"/>
+      <c r="G129" s="217"/>
+      <c r="H129" s="217"/>
+      <c r="I129" s="217"/>
+      <c r="J129" s="217"/>
+      <c r="K129" s="217"/>
+      <c r="L129" s="218"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4940,19 +4940,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="258" t="s">
+      <c r="B143" s="219" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="258"/>
-      <c r="D143" s="258"/>
-      <c r="E143" s="258"/>
-      <c r="F143" s="258"/>
-      <c r="G143" s="258"/>
-      <c r="H143" s="258"/>
-      <c r="I143" s="258"/>
-      <c r="J143" s="258"/>
-      <c r="K143" s="258"/>
-      <c r="L143" s="258"/>
+      <c r="C143" s="219"/>
+      <c r="D143" s="219"/>
+      <c r="E143" s="219"/>
+      <c r="F143" s="219"/>
+      <c r="G143" s="219"/>
+      <c r="H143" s="219"/>
+      <c r="I143" s="219"/>
+      <c r="J143" s="219"/>
+      <c r="K143" s="219"/>
+      <c r="L143" s="219"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4970,11 +4970,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="176" t="s">
+      <c r="B145" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="176"/>
-      <c r="D145" s="176"/>
+      <c r="C145" s="166"/>
+      <c r="D145" s="166"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4998,11 +4998,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="176" t="s">
+      <c r="B147" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="176"/>
-      <c r="D147" s="176"/>
+      <c r="C147" s="166"/>
+      <c r="D147" s="166"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5026,11 +5026,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="176" t="s">
+      <c r="B149" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="176"/>
-      <c r="D149" s="176"/>
+      <c r="C149" s="166"/>
+      <c r="D149" s="166"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5052,12 +5052,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="176" t="s">
+      <c r="B151" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="176"/>
-      <c r="D151" s="176"/>
-      <c r="E151" s="176"/>
+      <c r="C151" s="166"/>
+      <c r="D151" s="166"/>
+      <c r="E151" s="166"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="176" t="s">
+      <c r="B153" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="176"/>
-      <c r="D153" s="176"/>
-      <c r="E153" s="176"/>
-      <c r="F153" s="177"/>
+      <c r="C153" s="166"/>
+      <c r="D153" s="166"/>
+      <c r="E153" s="166"/>
+      <c r="F153" s="167"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5214,19 +5214,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="278" t="s">
+      <c r="B162" s="179" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="279"/>
-      <c r="D162" s="279"/>
-      <c r="E162" s="279"/>
-      <c r="F162" s="279"/>
-      <c r="G162" s="279"/>
-      <c r="H162" s="279"/>
-      <c r="I162" s="279"/>
-      <c r="J162" s="279"/>
-      <c r="K162" s="279"/>
-      <c r="L162" s="280"/>
+      <c r="C162" s="180"/>
+      <c r="D162" s="180"/>
+      <c r="E162" s="180"/>
+      <c r="F162" s="180"/>
+      <c r="G162" s="180"/>
+      <c r="H162" s="180"/>
+      <c r="I162" s="180"/>
+      <c r="J162" s="180"/>
+      <c r="K162" s="180"/>
+      <c r="L162" s="181"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5444,12 +5444,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="176" t="s">
+      <c r="B179" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="176"/>
-      <c r="D179" s="176"/>
-      <c r="E179" s="176"/>
+      <c r="C179" s="166"/>
+      <c r="D179" s="166"/>
+      <c r="E179" s="166"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5476,13 +5476,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="176" t="s">
+      <c r="B181" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="176"/>
-      <c r="D181" s="176"/>
-      <c r="E181" s="176"/>
-      <c r="F181" s="177"/>
+      <c r="C181" s="166"/>
+      <c r="D181" s="166"/>
+      <c r="E181" s="166"/>
+      <c r="F181" s="167"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5536,13 +5536,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="176" t="s">
+      <c r="B185" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="176"/>
-      <c r="D185" s="176"/>
-      <c r="E185" s="176"/>
-      <c r="F185" s="177"/>
+      <c r="C185" s="166"/>
+      <c r="D185" s="166"/>
+      <c r="E185" s="166"/>
+      <c r="F185" s="167"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5655,79 +5655,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="179" t="s">
+      <c r="B193" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="180"/>
-      <c r="D193" s="180"/>
-      <c r="E193" s="180"/>
-      <c r="F193" s="180"/>
-      <c r="G193" s="180"/>
-      <c r="H193" s="180"/>
-      <c r="I193" s="180"/>
-      <c r="J193" s="180"/>
-      <c r="K193" s="180"/>
-      <c r="L193" s="181"/>
+      <c r="C193" s="183"/>
+      <c r="D193" s="183"/>
+      <c r="E193" s="183"/>
+      <c r="F193" s="183"/>
+      <c r="G193" s="183"/>
+      <c r="H193" s="183"/>
+      <c r="I193" s="183"/>
+      <c r="J193" s="183"/>
+      <c r="K193" s="183"/>
+      <c r="L193" s="184"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="182"/>
-      <c r="C194" s="183"/>
-      <c r="D194" s="183"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
-      <c r="I194" s="183"/>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183"/>
-      <c r="L194" s="184"/>
+      <c r="B194" s="185"/>
+      <c r="C194" s="186"/>
+      <c r="D194" s="186"/>
+      <c r="E194" s="186"/>
+      <c r="F194" s="186"/>
+      <c r="G194" s="186"/>
+      <c r="H194" s="186"/>
+      <c r="I194" s="186"/>
+      <c r="J194" s="186"/>
+      <c r="K194" s="186"/>
+      <c r="L194" s="187"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="182"/>
-      <c r="C195" s="183"/>
-      <c r="D195" s="183"/>
-      <c r="E195" s="183"/>
-      <c r="F195" s="183"/>
-      <c r="G195" s="183"/>
-      <c r="H195" s="183"/>
-      <c r="I195" s="183"/>
-      <c r="J195" s="183"/>
-      <c r="K195" s="183"/>
-      <c r="L195" s="184"/>
+      <c r="B195" s="185"/>
+      <c r="C195" s="186"/>
+      <c r="D195" s="186"/>
+      <c r="E195" s="186"/>
+      <c r="F195" s="186"/>
+      <c r="G195" s="186"/>
+      <c r="H195" s="186"/>
+      <c r="I195" s="186"/>
+      <c r="J195" s="186"/>
+      <c r="K195" s="186"/>
+      <c r="L195" s="187"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="182"/>
-      <c r="C196" s="183"/>
-      <c r="D196" s="183"/>
-      <c r="E196" s="183"/>
-      <c r="F196" s="183"/>
-      <c r="G196" s="183"/>
-      <c r="H196" s="183"/>
-      <c r="I196" s="183"/>
-      <c r="J196" s="183"/>
-      <c r="K196" s="183"/>
-      <c r="L196" s="184"/>
+      <c r="B196" s="185"/>
+      <c r="C196" s="186"/>
+      <c r="D196" s="186"/>
+      <c r="E196" s="186"/>
+      <c r="F196" s="186"/>
+      <c r="G196" s="186"/>
+      <c r="H196" s="186"/>
+      <c r="I196" s="186"/>
+      <c r="J196" s="186"/>
+      <c r="K196" s="186"/>
+      <c r="L196" s="187"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="185"/>
-      <c r="C197" s="186"/>
-      <c r="D197" s="186"/>
-      <c r="E197" s="186"/>
-      <c r="F197" s="186"/>
-      <c r="G197" s="186"/>
-      <c r="H197" s="186"/>
-      <c r="I197" s="186"/>
-      <c r="J197" s="186"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="187"/>
+      <c r="B197" s="188"/>
+      <c r="C197" s="189"/>
+      <c r="D197" s="189"/>
+      <c r="E197" s="189"/>
+      <c r="F197" s="189"/>
+      <c r="G197" s="189"/>
+      <c r="H197" s="189"/>
+      <c r="I197" s="189"/>
+      <c r="J197" s="189"/>
+      <c r="K197" s="189"/>
+      <c r="L197" s="190"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5764,79 +5764,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="179" t="s">
+      <c r="B200" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="180"/>
-      <c r="D200" s="180"/>
-      <c r="E200" s="180"/>
-      <c r="F200" s="180"/>
-      <c r="G200" s="180"/>
-      <c r="H200" s="180"/>
-      <c r="I200" s="180"/>
-      <c r="J200" s="180"/>
-      <c r="K200" s="180"/>
-      <c r="L200" s="181"/>
+      <c r="C200" s="183"/>
+      <c r="D200" s="183"/>
+      <c r="E200" s="183"/>
+      <c r="F200" s="183"/>
+      <c r="G200" s="183"/>
+      <c r="H200" s="183"/>
+      <c r="I200" s="183"/>
+      <c r="J200" s="183"/>
+      <c r="K200" s="183"/>
+      <c r="L200" s="184"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="182"/>
-      <c r="C201" s="183"/>
-      <c r="D201" s="183"/>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="184"/>
+      <c r="B201" s="185"/>
+      <c r="C201" s="186"/>
+      <c r="D201" s="186"/>
+      <c r="E201" s="186"/>
+      <c r="F201" s="186"/>
+      <c r="G201" s="186"/>
+      <c r="H201" s="186"/>
+      <c r="I201" s="186"/>
+      <c r="J201" s="186"/>
+      <c r="K201" s="186"/>
+      <c r="L201" s="187"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="182"/>
-      <c r="C202" s="183"/>
-      <c r="D202" s="183"/>
-      <c r="E202" s="183"/>
-      <c r="F202" s="183"/>
-      <c r="G202" s="183"/>
-      <c r="H202" s="183"/>
-      <c r="I202" s="183"/>
-      <c r="J202" s="183"/>
-      <c r="K202" s="183"/>
-      <c r="L202" s="184"/>
+      <c r="B202" s="185"/>
+      <c r="C202" s="186"/>
+      <c r="D202" s="186"/>
+      <c r="E202" s="186"/>
+      <c r="F202" s="186"/>
+      <c r="G202" s="186"/>
+      <c r="H202" s="186"/>
+      <c r="I202" s="186"/>
+      <c r="J202" s="186"/>
+      <c r="K202" s="186"/>
+      <c r="L202" s="187"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="182"/>
-      <c r="C203" s="183"/>
-      <c r="D203" s="183"/>
-      <c r="E203" s="183"/>
-      <c r="F203" s="183"/>
-      <c r="G203" s="183"/>
-      <c r="H203" s="183"/>
-      <c r="I203" s="183"/>
-      <c r="J203" s="183"/>
-      <c r="K203" s="183"/>
-      <c r="L203" s="184"/>
+      <c r="B203" s="185"/>
+      <c r="C203" s="186"/>
+      <c r="D203" s="186"/>
+      <c r="E203" s="186"/>
+      <c r="F203" s="186"/>
+      <c r="G203" s="186"/>
+      <c r="H203" s="186"/>
+      <c r="I203" s="186"/>
+      <c r="J203" s="186"/>
+      <c r="K203" s="186"/>
+      <c r="L203" s="187"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="185"/>
-      <c r="C204" s="186"/>
-      <c r="D204" s="186"/>
-      <c r="E204" s="186"/>
-      <c r="F204" s="186"/>
-      <c r="G204" s="186"/>
-      <c r="H204" s="186"/>
-      <c r="I204" s="186"/>
-      <c r="J204" s="186"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="187"/>
+      <c r="B204" s="188"/>
+      <c r="C204" s="189"/>
+      <c r="D204" s="189"/>
+      <c r="E204" s="189"/>
+      <c r="F204" s="189"/>
+      <c r="G204" s="189"/>
+      <c r="H204" s="189"/>
+      <c r="I204" s="189"/>
+      <c r="J204" s="189"/>
+      <c r="K204" s="189"/>
+      <c r="L204" s="190"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5983,49 +5983,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="243" t="s">
+      <c r="B214" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="244"/>
-      <c r="D214" s="244"/>
-      <c r="E214" s="244"/>
-      <c r="F214" s="244"/>
-      <c r="G214" s="244"/>
-      <c r="H214" s="244"/>
-      <c r="I214" s="244"/>
-      <c r="J214" s="244"/>
-      <c r="K214" s="244"/>
-      <c r="L214" s="245"/>
+      <c r="C214" s="205"/>
+      <c r="D214" s="205"/>
+      <c r="E214" s="205"/>
+      <c r="F214" s="205"/>
+      <c r="G214" s="205"/>
+      <c r="H214" s="205"/>
+      <c r="I214" s="205"/>
+      <c r="J214" s="205"/>
+      <c r="K214" s="205"/>
+      <c r="L214" s="206"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="246"/>
-      <c r="C215" s="247"/>
-      <c r="D215" s="247"/>
-      <c r="E215" s="247"/>
-      <c r="F215" s="247"/>
-      <c r="G215" s="247"/>
-      <c r="H215" s="247"/>
-      <c r="I215" s="247"/>
-      <c r="J215" s="247"/>
-      <c r="K215" s="247"/>
-      <c r="L215" s="248"/>
+      <c r="B215" s="207"/>
+      <c r="C215" s="208"/>
+      <c r="D215" s="208"/>
+      <c r="E215" s="208"/>
+      <c r="F215" s="208"/>
+      <c r="G215" s="208"/>
+      <c r="H215" s="208"/>
+      <c r="I215" s="208"/>
+      <c r="J215" s="208"/>
+      <c r="K215" s="208"/>
+      <c r="L215" s="209"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="249"/>
-      <c r="C216" s="250"/>
-      <c r="D216" s="250"/>
-      <c r="E216" s="250"/>
-      <c r="F216" s="250"/>
-      <c r="G216" s="250"/>
-      <c r="H216" s="250"/>
-      <c r="I216" s="250"/>
-      <c r="J216" s="250"/>
-      <c r="K216" s="250"/>
-      <c r="L216" s="251"/>
+      <c r="B216" s="210"/>
+      <c r="C216" s="211"/>
+      <c r="D216" s="211"/>
+      <c r="E216" s="211"/>
+      <c r="F216" s="211"/>
+      <c r="G216" s="211"/>
+      <c r="H216" s="211"/>
+      <c r="I216" s="211"/>
+      <c r="J216" s="211"/>
+      <c r="K216" s="211"/>
+      <c r="L216" s="212"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6060,10 +6060,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="176" t="s">
+      <c r="B219" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="176"/>
+      <c r="C219" s="166"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6188,19 +6188,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="265" t="s">
+      <c r="B227" s="176" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="266"/>
-      <c r="D227" s="266"/>
-      <c r="E227" s="266"/>
-      <c r="F227" s="266"/>
-      <c r="G227" s="266"/>
-      <c r="H227" s="266"/>
-      <c r="I227" s="266"/>
-      <c r="J227" s="266"/>
-      <c r="K227" s="266"/>
-      <c r="L227" s="267"/>
+      <c r="C227" s="177"/>
+      <c r="D227" s="177"/>
+      <c r="E227" s="177"/>
+      <c r="F227" s="177"/>
+      <c r="G227" s="177"/>
+      <c r="H227" s="177"/>
+      <c r="I227" s="177"/>
+      <c r="J227" s="177"/>
+      <c r="K227" s="177"/>
+      <c r="L227" s="178"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6309,51 +6309,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="188" t="s">
+      <c r="B235" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="189"/>
-      <c r="D235" s="189"/>
-      <c r="E235" s="189"/>
-      <c r="F235" s="189"/>
-      <c r="G235" s="189"/>
-      <c r="H235" s="189"/>
-      <c r="I235" s="189"/>
-      <c r="J235" s="189"/>
-      <c r="K235" s="189"/>
-      <c r="L235" s="190"/>
+      <c r="C235" s="273"/>
+      <c r="D235" s="273"/>
+      <c r="E235" s="273"/>
+      <c r="F235" s="273"/>
+      <c r="G235" s="273"/>
+      <c r="H235" s="273"/>
+      <c r="I235" s="273"/>
+      <c r="J235" s="273"/>
+      <c r="K235" s="273"/>
+      <c r="L235" s="274"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="191"/>
-      <c r="C236" s="192"/>
-      <c r="D236" s="192"/>
-      <c r="E236" s="192"/>
-      <c r="F236" s="192"/>
-      <c r="G236" s="192"/>
-      <c r="H236" s="192"/>
-      <c r="I236" s="192"/>
-      <c r="J236" s="192"/>
-      <c r="K236" s="192"/>
-      <c r="L236" s="193"/>
+      <c r="B236" s="275"/>
+      <c r="C236" s="276"/>
+      <c r="D236" s="276"/>
+      <c r="E236" s="276"/>
+      <c r="F236" s="276"/>
+      <c r="G236" s="276"/>
+      <c r="H236" s="276"/>
+      <c r="I236" s="276"/>
+      <c r="J236" s="276"/>
+      <c r="K236" s="276"/>
+      <c r="L236" s="277"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="194"/>
-      <c r="C237" s="195"/>
-      <c r="D237" s="195"/>
-      <c r="E237" s="195"/>
-      <c r="F237" s="195"/>
-      <c r="G237" s="195"/>
-      <c r="H237" s="195"/>
-      <c r="I237" s="195"/>
-      <c r="J237" s="195"/>
-      <c r="K237" s="195"/>
-      <c r="L237" s="196"/>
+      <c r="B237" s="278"/>
+      <c r="C237" s="279"/>
+      <c r="D237" s="279"/>
+      <c r="E237" s="279"/>
+      <c r="F237" s="279"/>
+      <c r="G237" s="279"/>
+      <c r="H237" s="279"/>
+      <c r="I237" s="279"/>
+      <c r="J237" s="279"/>
+      <c r="K237" s="279"/>
+      <c r="L237" s="280"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6468,35 +6468,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="274" t="s">
+      <c r="B245" s="169" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="274"/>
-      <c r="D245" s="274"/>
-      <c r="E245" s="274"/>
-      <c r="F245" s="274"/>
-      <c r="G245" s="274"/>
-      <c r="H245" s="274"/>
-      <c r="I245" s="274"/>
-      <c r="J245" s="274"/>
-      <c r="K245" s="274"/>
-      <c r="L245" s="274"/>
+      <c r="C245" s="169"/>
+      <c r="D245" s="169"/>
+      <c r="E245" s="169"/>
+      <c r="F245" s="169"/>
+      <c r="G245" s="169"/>
+      <c r="H245" s="169"/>
+      <c r="I245" s="169"/>
+      <c r="J245" s="169"/>
+      <c r="K245" s="169"/>
+      <c r="L245" s="169"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="274" t="s">
+      <c r="B246" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="274"/>
-      <c r="D246" s="274"/>
-      <c r="E246" s="274"/>
-      <c r="F246" s="274"/>
-      <c r="G246" s="274"/>
-      <c r="H246" s="274"/>
-      <c r="I246" s="274"/>
-      <c r="J246" s="274"/>
-      <c r="K246" s="274"/>
-      <c r="L246" s="274"/>
+      <c r="C246" s="169"/>
+      <c r="D246" s="169"/>
+      <c r="E246" s="169"/>
+      <c r="F246" s="169"/>
+      <c r="G246" s="169"/>
+      <c r="H246" s="169"/>
+      <c r="I246" s="169"/>
+      <c r="J246" s="169"/>
+      <c r="K246" s="169"/>
+      <c r="L246" s="169"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6702,83 +6702,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="179" t="s">
+      <c r="B260" s="182" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="180"/>
-      <c r="D260" s="180"/>
-      <c r="E260" s="180"/>
-      <c r="F260" s="180"/>
-      <c r="G260" s="180"/>
-      <c r="H260" s="180"/>
-      <c r="I260" s="180"/>
-      <c r="J260" s="180"/>
-      <c r="K260" s="180"/>
-      <c r="L260" s="181"/>
+      <c r="C260" s="183"/>
+      <c r="D260" s="183"/>
+      <c r="E260" s="183"/>
+      <c r="F260" s="183"/>
+      <c r="G260" s="183"/>
+      <c r="H260" s="183"/>
+      <c r="I260" s="183"/>
+      <c r="J260" s="183"/>
+      <c r="K260" s="183"/>
+      <c r="L260" s="184"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="182"/>
-      <c r="C261" s="183"/>
-      <c r="D261" s="183"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="183"/>
-      <c r="H261" s="183"/>
-      <c r="I261" s="183"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
-      <c r="L261" s="184"/>
+      <c r="B261" s="185"/>
+      <c r="C261" s="186"/>
+      <c r="D261" s="186"/>
+      <c r="E261" s="186"/>
+      <c r="F261" s="186"/>
+      <c r="G261" s="186"/>
+      <c r="H261" s="186"/>
+      <c r="I261" s="186"/>
+      <c r="J261" s="186"/>
+      <c r="K261" s="186"/>
+      <c r="L261" s="187"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="182"/>
-      <c r="C262" s="183"/>
-      <c r="D262" s="183"/>
-      <c r="E262" s="183"/>
-      <c r="F262" s="183"/>
-      <c r="G262" s="183"/>
-      <c r="H262" s="183"/>
-      <c r="I262" s="183"/>
-      <c r="J262" s="183"/>
-      <c r="K262" s="183"/>
-      <c r="L262" s="184"/>
+      <c r="B262" s="185"/>
+      <c r="C262" s="186"/>
+      <c r="D262" s="186"/>
+      <c r="E262" s="186"/>
+      <c r="F262" s="186"/>
+      <c r="G262" s="186"/>
+      <c r="H262" s="186"/>
+      <c r="I262" s="186"/>
+      <c r="J262" s="186"/>
+      <c r="K262" s="186"/>
+      <c r="L262" s="187"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="182"/>
-      <c r="C263" s="183"/>
-      <c r="D263" s="183"/>
-      <c r="E263" s="183"/>
-      <c r="F263" s="183"/>
-      <c r="G263" s="183"/>
-      <c r="H263" s="183"/>
-      <c r="I263" s="183"/>
-      <c r="J263" s="183"/>
-      <c r="K263" s="183"/>
-      <c r="L263" s="184"/>
+      <c r="B263" s="185"/>
+      <c r="C263" s="186"/>
+      <c r="D263" s="186"/>
+      <c r="E263" s="186"/>
+      <c r="F263" s="186"/>
+      <c r="G263" s="186"/>
+      <c r="H263" s="186"/>
+      <c r="I263" s="186"/>
+      <c r="J263" s="186"/>
+      <c r="K263" s="186"/>
+      <c r="L263" s="187"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="185"/>
-      <c r="C264" s="186"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
-      <c r="F264" s="186"/>
-      <c r="G264" s="186"/>
-      <c r="H264" s="186"/>
-      <c r="I264" s="186"/>
-      <c r="J264" s="186"/>
-      <c r="K264" s="186"/>
-      <c r="L264" s="187"/>
+      <c r="B264" s="188"/>
+      <c r="C264" s="189"/>
+      <c r="D264" s="189"/>
+      <c r="E264" s="189"/>
+      <c r="F264" s="189"/>
+      <c r="G264" s="189"/>
+      <c r="H264" s="189"/>
+      <c r="I264" s="189"/>
+      <c r="J264" s="189"/>
+      <c r="K264" s="189"/>
+      <c r="L264" s="190"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6834,28 +6834,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="222" t="s">
+      <c r="B268" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="222"/>
-      <c r="D268" s="216" t="s">
+      <c r="C268" s="164"/>
+      <c r="D268" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="217"/>
-      <c r="F268" s="217"/>
-      <c r="G268" s="217"/>
-      <c r="H268" s="217"/>
-      <c r="I268" s="217"/>
-      <c r="J268" s="217"/>
-      <c r="K268" s="217"/>
-      <c r="L268" s="218"/>
+      <c r="E268" s="172"/>
+      <c r="F268" s="172"/>
+      <c r="G268" s="172"/>
+      <c r="H268" s="172"/>
+      <c r="I268" s="172"/>
+      <c r="J268" s="172"/>
+      <c r="K268" s="172"/>
+      <c r="L268" s="173"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="273"/>
-      <c r="C269" s="273"/>
+      <c r="B269" s="168"/>
+      <c r="C269" s="168"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6870,8 +6870,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="273"/>
-      <c r="C270" s="273"/>
+      <c r="B270" s="168"/>
+      <c r="C270" s="168"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6886,8 +6886,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="273"/>
-      <c r="C271" s="273"/>
+      <c r="B271" s="168"/>
+      <c r="C271" s="168"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6902,8 +6902,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="273"/>
-      <c r="C272" s="273"/>
+      <c r="B272" s="168"/>
+      <c r="C272" s="168"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6968,83 +6968,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="275" t="s">
+      <c r="B276" s="170" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="275"/>
-      <c r="D276" s="275"/>
-      <c r="E276" s="275"/>
-      <c r="F276" s="275"/>
-      <c r="G276" s="275"/>
-      <c r="H276" s="275"/>
-      <c r="I276" s="275"/>
-      <c r="J276" s="275"/>
-      <c r="K276" s="275"/>
-      <c r="L276" s="275"/>
+      <c r="C276" s="170"/>
+      <c r="D276" s="170"/>
+      <c r="E276" s="170"/>
+      <c r="F276" s="170"/>
+      <c r="G276" s="170"/>
+      <c r="H276" s="170"/>
+      <c r="I276" s="170"/>
+      <c r="J276" s="170"/>
+      <c r="K276" s="170"/>
+      <c r="L276" s="170"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="275"/>
-      <c r="C277" s="275"/>
-      <c r="D277" s="275"/>
-      <c r="E277" s="275"/>
-      <c r="F277" s="275"/>
-      <c r="G277" s="275"/>
-      <c r="H277" s="275"/>
-      <c r="I277" s="275"/>
-      <c r="J277" s="275"/>
-      <c r="K277" s="275"/>
-      <c r="L277" s="275"/>
+      <c r="B277" s="170"/>
+      <c r="C277" s="170"/>
+      <c r="D277" s="170"/>
+      <c r="E277" s="170"/>
+      <c r="F277" s="170"/>
+      <c r="G277" s="170"/>
+      <c r="H277" s="170"/>
+      <c r="I277" s="170"/>
+      <c r="J277" s="170"/>
+      <c r="K277" s="170"/>
+      <c r="L277" s="170"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="275"/>
-      <c r="C278" s="275"/>
-      <c r="D278" s="275"/>
-      <c r="E278" s="275"/>
-      <c r="F278" s="275"/>
-      <c r="G278" s="275"/>
-      <c r="H278" s="275"/>
-      <c r="I278" s="275"/>
-      <c r="J278" s="275"/>
-      <c r="K278" s="275"/>
-      <c r="L278" s="275"/>
+      <c r="B278" s="170"/>
+      <c r="C278" s="170"/>
+      <c r="D278" s="170"/>
+      <c r="E278" s="170"/>
+      <c r="F278" s="170"/>
+      <c r="G278" s="170"/>
+      <c r="H278" s="170"/>
+      <c r="I278" s="170"/>
+      <c r="J278" s="170"/>
+      <c r="K278" s="170"/>
+      <c r="L278" s="170"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="275"/>
-      <c r="C279" s="275"/>
-      <c r="D279" s="275"/>
-      <c r="E279" s="275"/>
-      <c r="F279" s="275"/>
-      <c r="G279" s="275"/>
-      <c r="H279" s="275"/>
-      <c r="I279" s="275"/>
-      <c r="J279" s="275"/>
-      <c r="K279" s="275"/>
-      <c r="L279" s="275"/>
+      <c r="B279" s="170"/>
+      <c r="C279" s="170"/>
+      <c r="D279" s="170"/>
+      <c r="E279" s="170"/>
+      <c r="F279" s="170"/>
+      <c r="G279" s="170"/>
+      <c r="H279" s="170"/>
+      <c r="I279" s="170"/>
+      <c r="J279" s="170"/>
+      <c r="K279" s="170"/>
+      <c r="L279" s="170"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="275"/>
-      <c r="C280" s="275"/>
-      <c r="D280" s="275"/>
-      <c r="E280" s="275"/>
-      <c r="F280" s="275"/>
-      <c r="G280" s="275"/>
-      <c r="H280" s="275"/>
-      <c r="I280" s="275"/>
-      <c r="J280" s="275"/>
-      <c r="K280" s="275"/>
-      <c r="L280" s="275"/>
+      <c r="B280" s="170"/>
+      <c r="C280" s="170"/>
+      <c r="D280" s="170"/>
+      <c r="E280" s="170"/>
+      <c r="F280" s="170"/>
+      <c r="G280" s="170"/>
+      <c r="H280" s="170"/>
+      <c r="I280" s="170"/>
+      <c r="J280" s="170"/>
+      <c r="K280" s="170"/>
+      <c r="L280" s="170"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7100,12 +7100,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="176" t="s">
+      <c r="B284" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="176"/>
-      <c r="D284" s="176"/>
-      <c r="E284" s="177"/>
+      <c r="C284" s="166"/>
+      <c r="D284" s="166"/>
+      <c r="E284" s="167"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7116,10 +7116,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="176"/>
-      <c r="C285" s="176"/>
-      <c r="D285" s="176"/>
-      <c r="E285" s="176"/>
+      <c r="B285" s="166"/>
+      <c r="C285" s="166"/>
+      <c r="D285" s="166"/>
+      <c r="E285" s="166"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7130,12 +7130,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="176" t="s">
+      <c r="B286" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="176"/>
-      <c r="D286" s="176"/>
-      <c r="E286" s="177"/>
+      <c r="C286" s="166"/>
+      <c r="D286" s="166"/>
+      <c r="E286" s="167"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7148,10 +7148,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="176"/>
-      <c r="C287" s="176"/>
-      <c r="D287" s="176"/>
-      <c r="E287" s="176"/>
+      <c r="B287" s="166"/>
+      <c r="C287" s="166"/>
+      <c r="D287" s="166"/>
+      <c r="E287" s="166"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7162,12 +7162,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="176" t="s">
+      <c r="B288" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="176"/>
-      <c r="D288" s="176"/>
-      <c r="E288" s="177"/>
+      <c r="C288" s="166"/>
+      <c r="D288" s="166"/>
+      <c r="E288" s="167"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7192,12 +7192,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="176" t="s">
+      <c r="B290" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="176"/>
-      <c r="D290" s="176"/>
-      <c r="E290" s="177"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
+      <c r="E290" s="167"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7222,12 +7222,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="176" t="s">
+      <c r="B292" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="176"/>
-      <c r="D292" s="176"/>
-      <c r="E292" s="177"/>
+      <c r="C292" s="166"/>
+      <c r="D292" s="166"/>
+      <c r="E292" s="167"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7330,82 +7330,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="179" t="s">
+      <c r="B299" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="180"/>
-      <c r="D299" s="180"/>
-      <c r="E299" s="180"/>
-      <c r="F299" s="180"/>
-      <c r="G299" s="180"/>
-      <c r="H299" s="180"/>
-      <c r="I299" s="180"/>
-      <c r="J299" s="180"/>
-      <c r="K299" s="180"/>
-      <c r="L299" s="181"/>
+      <c r="C299" s="183"/>
+      <c r="D299" s="183"/>
+      <c r="E299" s="183"/>
+      <c r="F299" s="183"/>
+      <c r="G299" s="183"/>
+      <c r="H299" s="183"/>
+      <c r="I299" s="183"/>
+      <c r="J299" s="183"/>
+      <c r="K299" s="183"/>
+      <c r="L299" s="184"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="182"/>
-      <c r="C300" s="183"/>
-      <c r="D300" s="183"/>
-      <c r="E300" s="183"/>
-      <c r="F300" s="183"/>
-      <c r="G300" s="183"/>
-      <c r="H300" s="183"/>
-      <c r="I300" s="183"/>
-      <c r="J300" s="183"/>
-      <c r="K300" s="183"/>
-      <c r="L300" s="184"/>
+      <c r="B300" s="185"/>
+      <c r="C300" s="186"/>
+      <c r="D300" s="186"/>
+      <c r="E300" s="186"/>
+      <c r="F300" s="186"/>
+      <c r="G300" s="186"/>
+      <c r="H300" s="186"/>
+      <c r="I300" s="186"/>
+      <c r="J300" s="186"/>
+      <c r="K300" s="186"/>
+      <c r="L300" s="187"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="182"/>
-      <c r="C301" s="183"/>
-      <c r="D301" s="183"/>
-      <c r="E301" s="183"/>
-      <c r="F301" s="183"/>
-      <c r="G301" s="183"/>
-      <c r="H301" s="183"/>
-      <c r="I301" s="183"/>
-      <c r="J301" s="183"/>
-      <c r="K301" s="183"/>
-      <c r="L301" s="184"/>
+      <c r="B301" s="185"/>
+      <c r="C301" s="186"/>
+      <c r="D301" s="186"/>
+      <c r="E301" s="186"/>
+      <c r="F301" s="186"/>
+      <c r="G301" s="186"/>
+      <c r="H301" s="186"/>
+      <c r="I301" s="186"/>
+      <c r="J301" s="186"/>
+      <c r="K301" s="186"/>
+      <c r="L301" s="187"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="182"/>
-      <c r="C302" s="183"/>
-      <c r="D302" s="183"/>
-      <c r="E302" s="183"/>
-      <c r="F302" s="183"/>
-      <c r="G302" s="183"/>
-      <c r="H302" s="183"/>
-      <c r="I302" s="183"/>
-      <c r="J302" s="183"/>
-      <c r="K302" s="183"/>
-      <c r="L302" s="184"/>
+      <c r="B302" s="185"/>
+      <c r="C302" s="186"/>
+      <c r="D302" s="186"/>
+      <c r="E302" s="186"/>
+      <c r="F302" s="186"/>
+      <c r="G302" s="186"/>
+      <c r="H302" s="186"/>
+      <c r="I302" s="186"/>
+      <c r="J302" s="186"/>
+      <c r="K302" s="186"/>
+      <c r="L302" s="187"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="185"/>
-      <c r="C303" s="186"/>
-      <c r="D303" s="186"/>
-      <c r="E303" s="186"/>
-      <c r="F303" s="186"/>
-      <c r="G303" s="186"/>
-      <c r="H303" s="186"/>
-      <c r="I303" s="186"/>
-      <c r="J303" s="186"/>
-      <c r="K303" s="186"/>
-      <c r="L303" s="187"/>
+      <c r="B303" s="188"/>
+      <c r="C303" s="189"/>
+      <c r="D303" s="189"/>
+      <c r="E303" s="189"/>
+      <c r="F303" s="189"/>
+      <c r="G303" s="189"/>
+      <c r="H303" s="189"/>
+      <c r="I303" s="189"/>
+      <c r="J303" s="189"/>
+      <c r="K303" s="189"/>
+      <c r="L303" s="190"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7444,83 +7444,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="179" t="s">
+      <c r="B306" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="180"/>
-      <c r="D306" s="180"/>
-      <c r="E306" s="180"/>
-      <c r="F306" s="180"/>
-      <c r="G306" s="180"/>
-      <c r="H306" s="180"/>
-      <c r="I306" s="180"/>
-      <c r="J306" s="180"/>
-      <c r="K306" s="180"/>
-      <c r="L306" s="181"/>
+      <c r="C306" s="183"/>
+      <c r="D306" s="183"/>
+      <c r="E306" s="183"/>
+      <c r="F306" s="183"/>
+      <c r="G306" s="183"/>
+      <c r="H306" s="183"/>
+      <c r="I306" s="183"/>
+      <c r="J306" s="183"/>
+      <c r="K306" s="183"/>
+      <c r="L306" s="184"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="182"/>
-      <c r="C307" s="183"/>
-      <c r="D307" s="183"/>
-      <c r="E307" s="183"/>
-      <c r="F307" s="183"/>
-      <c r="G307" s="183"/>
-      <c r="H307" s="183"/>
-      <c r="I307" s="183"/>
-      <c r="J307" s="183"/>
-      <c r="K307" s="183"/>
-      <c r="L307" s="184"/>
+      <c r="B307" s="185"/>
+      <c r="C307" s="186"/>
+      <c r="D307" s="186"/>
+      <c r="E307" s="186"/>
+      <c r="F307" s="186"/>
+      <c r="G307" s="186"/>
+      <c r="H307" s="186"/>
+      <c r="I307" s="186"/>
+      <c r="J307" s="186"/>
+      <c r="K307" s="186"/>
+      <c r="L307" s="187"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="182"/>
-      <c r="C308" s="183"/>
-      <c r="D308" s="183"/>
-      <c r="E308" s="183"/>
-      <c r="F308" s="183"/>
-      <c r="G308" s="183"/>
-      <c r="H308" s="183"/>
-      <c r="I308" s="183"/>
-      <c r="J308" s="183"/>
-      <c r="K308" s="183"/>
-      <c r="L308" s="184"/>
+      <c r="B308" s="185"/>
+      <c r="C308" s="186"/>
+      <c r="D308" s="186"/>
+      <c r="E308" s="186"/>
+      <c r="F308" s="186"/>
+      <c r="G308" s="186"/>
+      <c r="H308" s="186"/>
+      <c r="I308" s="186"/>
+      <c r="J308" s="186"/>
+      <c r="K308" s="186"/>
+      <c r="L308" s="187"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="182"/>
-      <c r="C309" s="183"/>
-      <c r="D309" s="183"/>
-      <c r="E309" s="183"/>
-      <c r="F309" s="183"/>
-      <c r="G309" s="183"/>
-      <c r="H309" s="183"/>
-      <c r="I309" s="183"/>
-      <c r="J309" s="183"/>
-      <c r="K309" s="183"/>
-      <c r="L309" s="184"/>
+      <c r="B309" s="185"/>
+      <c r="C309" s="186"/>
+      <c r="D309" s="186"/>
+      <c r="E309" s="186"/>
+      <c r="F309" s="186"/>
+      <c r="G309" s="186"/>
+      <c r="H309" s="186"/>
+      <c r="I309" s="186"/>
+      <c r="J309" s="186"/>
+      <c r="K309" s="186"/>
+      <c r="L309" s="187"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="185"/>
-      <c r="C310" s="186"/>
-      <c r="D310" s="186"/>
-      <c r="E310" s="186"/>
-      <c r="F310" s="186"/>
-      <c r="G310" s="186"/>
-      <c r="H310" s="186"/>
-      <c r="I310" s="186"/>
-      <c r="J310" s="186"/>
-      <c r="K310" s="186"/>
-      <c r="L310" s="187"/>
+      <c r="B310" s="188"/>
+      <c r="C310" s="189"/>
+      <c r="D310" s="189"/>
+      <c r="E310" s="189"/>
+      <c r="F310" s="189"/>
+      <c r="G310" s="189"/>
+      <c r="H310" s="189"/>
+      <c r="I310" s="189"/>
+      <c r="J310" s="189"/>
+      <c r="K310" s="189"/>
+      <c r="L310" s="190"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7700,83 +7700,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="179" t="s">
+      <c r="B321" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="180"/>
-      <c r="D321" s="180"/>
-      <c r="E321" s="180"/>
-      <c r="F321" s="180"/>
-      <c r="G321" s="180"/>
-      <c r="H321" s="180"/>
-      <c r="I321" s="180"/>
-      <c r="J321" s="180"/>
-      <c r="K321" s="180"/>
-      <c r="L321" s="181"/>
+      <c r="C321" s="183"/>
+      <c r="D321" s="183"/>
+      <c r="E321" s="183"/>
+      <c r="F321" s="183"/>
+      <c r="G321" s="183"/>
+      <c r="H321" s="183"/>
+      <c r="I321" s="183"/>
+      <c r="J321" s="183"/>
+      <c r="K321" s="183"/>
+      <c r="L321" s="184"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="182"/>
-      <c r="C322" s="183"/>
-      <c r="D322" s="183"/>
-      <c r="E322" s="183"/>
-      <c r="F322" s="183"/>
-      <c r="G322" s="183"/>
-      <c r="H322" s="183"/>
-      <c r="I322" s="183"/>
-      <c r="J322" s="183"/>
-      <c r="K322" s="183"/>
-      <c r="L322" s="184"/>
+      <c r="B322" s="185"/>
+      <c r="C322" s="186"/>
+      <c r="D322" s="186"/>
+      <c r="E322" s="186"/>
+      <c r="F322" s="186"/>
+      <c r="G322" s="186"/>
+      <c r="H322" s="186"/>
+      <c r="I322" s="186"/>
+      <c r="J322" s="186"/>
+      <c r="K322" s="186"/>
+      <c r="L322" s="187"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="182"/>
-      <c r="C323" s="183"/>
-      <c r="D323" s="183"/>
-      <c r="E323" s="183"/>
-      <c r="F323" s="183"/>
-      <c r="G323" s="183"/>
-      <c r="H323" s="183"/>
-      <c r="I323" s="183"/>
-      <c r="J323" s="183"/>
-      <c r="K323" s="183"/>
-      <c r="L323" s="184"/>
+      <c r="B323" s="185"/>
+      <c r="C323" s="186"/>
+      <c r="D323" s="186"/>
+      <c r="E323" s="186"/>
+      <c r="F323" s="186"/>
+      <c r="G323" s="186"/>
+      <c r="H323" s="186"/>
+      <c r="I323" s="186"/>
+      <c r="J323" s="186"/>
+      <c r="K323" s="186"/>
+      <c r="L323" s="187"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="182"/>
-      <c r="C324" s="183"/>
-      <c r="D324" s="183"/>
-      <c r="E324" s="183"/>
-      <c r="F324" s="183"/>
-      <c r="G324" s="183"/>
-      <c r="H324" s="183"/>
-      <c r="I324" s="183"/>
-      <c r="J324" s="183"/>
-      <c r="K324" s="183"/>
-      <c r="L324" s="184"/>
+      <c r="B324" s="185"/>
+      <c r="C324" s="186"/>
+      <c r="D324" s="186"/>
+      <c r="E324" s="186"/>
+      <c r="F324" s="186"/>
+      <c r="G324" s="186"/>
+      <c r="H324" s="186"/>
+      <c r="I324" s="186"/>
+      <c r="J324" s="186"/>
+      <c r="K324" s="186"/>
+      <c r="L324" s="187"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="185"/>
-      <c r="C325" s="186"/>
-      <c r="D325" s="186"/>
-      <c r="E325" s="186"/>
-      <c r="F325" s="186"/>
-      <c r="G325" s="186"/>
-      <c r="H325" s="186"/>
-      <c r="I325" s="186"/>
-      <c r="J325" s="186"/>
-      <c r="K325" s="186"/>
-      <c r="L325" s="187"/>
+      <c r="B325" s="188"/>
+      <c r="C325" s="189"/>
+      <c r="D325" s="189"/>
+      <c r="E325" s="189"/>
+      <c r="F325" s="189"/>
+      <c r="G325" s="189"/>
+      <c r="H325" s="189"/>
+      <c r="I325" s="189"/>
+      <c r="J325" s="189"/>
+      <c r="K325" s="189"/>
+      <c r="L325" s="190"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7798,19 +7798,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="178" t="s">
+      <c r="B327" s="271" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="178"/>
-      <c r="D327" s="178"/>
-      <c r="E327" s="178"/>
-      <c r="F327" s="178"/>
-      <c r="G327" s="178"/>
-      <c r="H327" s="178"/>
-      <c r="I327" s="178"/>
-      <c r="J327" s="178"/>
-      <c r="K327" s="178"/>
-      <c r="L327" s="178"/>
+      <c r="C327" s="271"/>
+      <c r="D327" s="271"/>
+      <c r="E327" s="271"/>
+      <c r="F327" s="271"/>
+      <c r="G327" s="271"/>
+      <c r="H327" s="271"/>
+      <c r="I327" s="271"/>
+      <c r="J327" s="271"/>
+      <c r="K327" s="271"/>
+      <c r="L327" s="271"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7925,79 +7925,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="188" t="s">
+      <c r="B335" s="272" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="189"/>
-      <c r="D335" s="189"/>
-      <c r="E335" s="189"/>
-      <c r="F335" s="189"/>
-      <c r="G335" s="189"/>
-      <c r="H335" s="189"/>
-      <c r="I335" s="189"/>
-      <c r="J335" s="189"/>
-      <c r="K335" s="189"/>
-      <c r="L335" s="190"/>
+      <c r="C335" s="273"/>
+      <c r="D335" s="273"/>
+      <c r="E335" s="273"/>
+      <c r="F335" s="273"/>
+      <c r="G335" s="273"/>
+      <c r="H335" s="273"/>
+      <c r="I335" s="273"/>
+      <c r="J335" s="273"/>
+      <c r="K335" s="273"/>
+      <c r="L335" s="274"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="191"/>
-      <c r="C336" s="192"/>
-      <c r="D336" s="192"/>
-      <c r="E336" s="192"/>
-      <c r="F336" s="192"/>
-      <c r="G336" s="192"/>
-      <c r="H336" s="192"/>
-      <c r="I336" s="192"/>
-      <c r="J336" s="192"/>
-      <c r="K336" s="192"/>
-      <c r="L336" s="193"/>
+      <c r="B336" s="275"/>
+      <c r="C336" s="276"/>
+      <c r="D336" s="276"/>
+      <c r="E336" s="276"/>
+      <c r="F336" s="276"/>
+      <c r="G336" s="276"/>
+      <c r="H336" s="276"/>
+      <c r="I336" s="276"/>
+      <c r="J336" s="276"/>
+      <c r="K336" s="276"/>
+      <c r="L336" s="277"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="191"/>
-      <c r="C337" s="192"/>
-      <c r="D337" s="192"/>
-      <c r="E337" s="192"/>
-      <c r="F337" s="192"/>
-      <c r="G337" s="192"/>
-      <c r="H337" s="192"/>
-      <c r="I337" s="192"/>
-      <c r="J337" s="192"/>
-      <c r="K337" s="192"/>
-      <c r="L337" s="193"/>
+      <c r="B337" s="275"/>
+      <c r="C337" s="276"/>
+      <c r="D337" s="276"/>
+      <c r="E337" s="276"/>
+      <c r="F337" s="276"/>
+      <c r="G337" s="276"/>
+      <c r="H337" s="276"/>
+      <c r="I337" s="276"/>
+      <c r="J337" s="276"/>
+      <c r="K337" s="276"/>
+      <c r="L337" s="277"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="191"/>
-      <c r="C338" s="192"/>
-      <c r="D338" s="192"/>
-      <c r="E338" s="192"/>
-      <c r="F338" s="192"/>
-      <c r="G338" s="192"/>
-      <c r="H338" s="192"/>
-      <c r="I338" s="192"/>
-      <c r="J338" s="192"/>
-      <c r="K338" s="192"/>
-      <c r="L338" s="193"/>
+      <c r="B338" s="275"/>
+      <c r="C338" s="276"/>
+      <c r="D338" s="276"/>
+      <c r="E338" s="276"/>
+      <c r="F338" s="276"/>
+      <c r="G338" s="276"/>
+      <c r="H338" s="276"/>
+      <c r="I338" s="276"/>
+      <c r="J338" s="276"/>
+      <c r="K338" s="276"/>
+      <c r="L338" s="277"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="194"/>
-      <c r="C339" s="195"/>
-      <c r="D339" s="195"/>
-      <c r="E339" s="195"/>
-      <c r="F339" s="195"/>
-      <c r="G339" s="195"/>
-      <c r="H339" s="195"/>
-      <c r="I339" s="195"/>
-      <c r="J339" s="195"/>
-      <c r="K339" s="195"/>
-      <c r="L339" s="196"/>
+      <c r="B339" s="278"/>
+      <c r="C339" s="279"/>
+      <c r="D339" s="279"/>
+      <c r="E339" s="279"/>
+      <c r="F339" s="279"/>
+      <c r="G339" s="279"/>
+      <c r="H339" s="279"/>
+      <c r="I339" s="279"/>
+      <c r="J339" s="279"/>
+      <c r="K339" s="279"/>
+      <c r="L339" s="280"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8017,19 +8017,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="178" t="s">
+      <c r="B341" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="178"/>
-      <c r="D341" s="178"/>
-      <c r="E341" s="178"/>
-      <c r="F341" s="178"/>
-      <c r="G341" s="178"/>
-      <c r="H341" s="178"/>
-      <c r="I341" s="178"/>
-      <c r="J341" s="178"/>
-      <c r="K341" s="178"/>
-      <c r="L341" s="178"/>
+      <c r="C341" s="271"/>
+      <c r="D341" s="271"/>
+      <c r="E341" s="271"/>
+      <c r="F341" s="271"/>
+      <c r="G341" s="271"/>
+      <c r="H341" s="271"/>
+      <c r="I341" s="271"/>
+      <c r="J341" s="271"/>
+      <c r="K341" s="271"/>
+      <c r="L341" s="271"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8078,12 +8078,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="175" t="s">
+      <c r="B345" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="175"/>
-      <c r="D345" s="175"/>
-      <c r="E345" s="175"/>
+      <c r="C345" s="192"/>
+      <c r="D345" s="192"/>
+      <c r="E345" s="192"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8106,12 +8106,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="175" t="s">
+      <c r="B347" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="175"/>
-      <c r="D347" s="175"/>
-      <c r="E347" s="175"/>
+      <c r="C347" s="192"/>
+      <c r="D347" s="192"/>
+      <c r="E347" s="192"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8136,13 +8136,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="175" t="s">
+      <c r="B349" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="175"/>
-      <c r="D349" s="175"/>
-      <c r="E349" s="175"/>
-      <c r="F349" s="177"/>
+      <c r="C349" s="192"/>
+      <c r="D349" s="192"/>
+      <c r="E349" s="192"/>
+      <c r="F349" s="167"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8165,13 +8165,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="175" t="s">
+      <c r="B351" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="175"/>
-      <c r="D351" s="175"/>
-      <c r="E351" s="175"/>
-      <c r="F351" s="177"/>
+      <c r="C351" s="192"/>
+      <c r="D351" s="192"/>
+      <c r="E351" s="192"/>
+      <c r="F351" s="167"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8194,13 +8194,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="175" t="s">
+      <c r="B353" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="175"/>
-      <c r="D353" s="175"/>
-      <c r="E353" s="175"/>
-      <c r="F353" s="177"/>
+      <c r="C353" s="192"/>
+      <c r="D353" s="192"/>
+      <c r="E353" s="192"/>
+      <c r="F353" s="167"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8272,83 +8272,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="179" t="s">
+      <c r="B358" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="180"/>
-      <c r="D358" s="180"/>
-      <c r="E358" s="180"/>
-      <c r="F358" s="180"/>
-      <c r="G358" s="180"/>
-      <c r="H358" s="180"/>
-      <c r="I358" s="180"/>
-      <c r="J358" s="180"/>
-      <c r="K358" s="180"/>
-      <c r="L358" s="181"/>
+      <c r="C358" s="183"/>
+      <c r="D358" s="183"/>
+      <c r="E358" s="183"/>
+      <c r="F358" s="183"/>
+      <c r="G358" s="183"/>
+      <c r="H358" s="183"/>
+      <c r="I358" s="183"/>
+      <c r="J358" s="183"/>
+      <c r="K358" s="183"/>
+      <c r="L358" s="184"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="182"/>
-      <c r="C359" s="183"/>
-      <c r="D359" s="183"/>
-      <c r="E359" s="183"/>
-      <c r="F359" s="183"/>
-      <c r="G359" s="183"/>
-      <c r="H359" s="183"/>
-      <c r="I359" s="183"/>
-      <c r="J359" s="183"/>
-      <c r="K359" s="183"/>
-      <c r="L359" s="184"/>
+      <c r="B359" s="185"/>
+      <c r="C359" s="186"/>
+      <c r="D359" s="186"/>
+      <c r="E359" s="186"/>
+      <c r="F359" s="186"/>
+      <c r="G359" s="186"/>
+      <c r="H359" s="186"/>
+      <c r="I359" s="186"/>
+      <c r="J359" s="186"/>
+      <c r="K359" s="186"/>
+      <c r="L359" s="187"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="182"/>
-      <c r="C360" s="183"/>
-      <c r="D360" s="183"/>
-      <c r="E360" s="183"/>
-      <c r="F360" s="183"/>
-      <c r="G360" s="183"/>
-      <c r="H360" s="183"/>
-      <c r="I360" s="183"/>
-      <c r="J360" s="183"/>
-      <c r="K360" s="183"/>
-      <c r="L360" s="184"/>
+      <c r="B360" s="185"/>
+      <c r="C360" s="186"/>
+      <c r="D360" s="186"/>
+      <c r="E360" s="186"/>
+      <c r="F360" s="186"/>
+      <c r="G360" s="186"/>
+      <c r="H360" s="186"/>
+      <c r="I360" s="186"/>
+      <c r="J360" s="186"/>
+      <c r="K360" s="186"/>
+      <c r="L360" s="187"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="182"/>
-      <c r="C361" s="183"/>
-      <c r="D361" s="183"/>
-      <c r="E361" s="183"/>
-      <c r="F361" s="183"/>
-      <c r="G361" s="183"/>
-      <c r="H361" s="183"/>
-      <c r="I361" s="183"/>
-      <c r="J361" s="183"/>
-      <c r="K361" s="183"/>
-      <c r="L361" s="184"/>
+      <c r="B361" s="185"/>
+      <c r="C361" s="186"/>
+      <c r="D361" s="186"/>
+      <c r="E361" s="186"/>
+      <c r="F361" s="186"/>
+      <c r="G361" s="186"/>
+      <c r="H361" s="186"/>
+      <c r="I361" s="186"/>
+      <c r="J361" s="186"/>
+      <c r="K361" s="186"/>
+      <c r="L361" s="187"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="185"/>
-      <c r="C362" s="186"/>
-      <c r="D362" s="186"/>
-      <c r="E362" s="186"/>
-      <c r="F362" s="186"/>
-      <c r="G362" s="186"/>
-      <c r="H362" s="186"/>
-      <c r="I362" s="186"/>
-      <c r="J362" s="186"/>
-      <c r="K362" s="186"/>
-      <c r="L362" s="187"/>
+      <c r="B362" s="188"/>
+      <c r="C362" s="189"/>
+      <c r="D362" s="189"/>
+      <c r="E362" s="189"/>
+      <c r="F362" s="189"/>
+      <c r="G362" s="189"/>
+      <c r="H362" s="189"/>
+      <c r="I362" s="189"/>
+      <c r="J362" s="189"/>
+      <c r="K362" s="189"/>
+      <c r="L362" s="190"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8423,28 +8423,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="201" t="s">
+      <c r="B367" s="256" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="202"/>
-      <c r="D367" s="173" t="s">
+      <c r="C367" s="257"/>
+      <c r="D367" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="197"/>
-      <c r="F367" s="197"/>
-      <c r="G367" s="197"/>
-      <c r="H367" s="197"/>
-      <c r="I367" s="197"/>
-      <c r="J367" s="197"/>
-      <c r="K367" s="197"/>
-      <c r="L367" s="174"/>
+      <c r="E367" s="247"/>
+      <c r="F367" s="247"/>
+      <c r="G367" s="247"/>
+      <c r="H367" s="247"/>
+      <c r="I367" s="247"/>
+      <c r="J367" s="247"/>
+      <c r="K367" s="247"/>
+      <c r="L367" s="248"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="173"/>
-      <c r="C368" s="174"/>
+      <c r="B368" s="246"/>
+      <c r="C368" s="248"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8459,19 +8459,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="232" t="s">
+      <c r="B369" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="232"/>
-      <c r="D369" s="232"/>
-      <c r="E369" s="232"/>
-      <c r="F369" s="232"/>
-      <c r="G369" s="232"/>
-      <c r="H369" s="232"/>
-      <c r="I369" s="232"/>
-      <c r="J369" s="232"/>
-      <c r="K369" s="232"/>
-      <c r="L369" s="232"/>
+      <c r="C369" s="191"/>
+      <c r="D369" s="191"/>
+      <c r="E369" s="191"/>
+      <c r="F369" s="191"/>
+      <c r="G369" s="191"/>
+      <c r="H369" s="191"/>
+      <c r="I369" s="191"/>
+      <c r="J369" s="191"/>
+      <c r="K369" s="191"/>
+      <c r="L369" s="191"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8559,20 +8559,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="208" t="s">
+      <c r="C375" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="208"/>
-      <c r="E375" s="207" t="s">
+      <c r="D375" s="235"/>
+      <c r="E375" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="207"/>
-      <c r="G375" s="207"/>
-      <c r="H375" s="207" t="s">
+      <c r="F375" s="236"/>
+      <c r="G375" s="236"/>
+      <c r="H375" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="207"/>
-      <c r="J375" s="207"/>
+      <c r="I375" s="236"/>
+      <c r="J375" s="236"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8582,14 +8582,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="208"/>
-      <c r="D376" s="208"/>
-      <c r="E376" s="207"/>
-      <c r="F376" s="207"/>
-      <c r="G376" s="207"/>
-      <c r="H376" s="207"/>
-      <c r="I376" s="207"/>
-      <c r="J376" s="207"/>
+      <c r="C376" s="235"/>
+      <c r="D376" s="235"/>
+      <c r="E376" s="236"/>
+      <c r="F376" s="236"/>
+      <c r="G376" s="236"/>
+      <c r="H376" s="236"/>
+      <c r="I376" s="236"/>
+      <c r="J376" s="236"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8599,14 +8599,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="208"/>
-      <c r="D377" s="208"/>
-      <c r="E377" s="207"/>
-      <c r="F377" s="207"/>
-      <c r="G377" s="207"/>
-      <c r="H377" s="207"/>
-      <c r="I377" s="207"/>
-      <c r="J377" s="207"/>
+      <c r="C377" s="235"/>
+      <c r="D377" s="235"/>
+      <c r="E377" s="236"/>
+      <c r="F377" s="236"/>
+      <c r="G377" s="236"/>
+      <c r="H377" s="236"/>
+      <c r="I377" s="236"/>
+      <c r="J377" s="236"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8616,14 +8616,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="208"/>
-      <c r="D378" s="208"/>
-      <c r="E378" s="207"/>
-      <c r="F378" s="207"/>
-      <c r="G378" s="207"/>
-      <c r="H378" s="207"/>
-      <c r="I378" s="207"/>
-      <c r="J378" s="207"/>
+      <c r="C378" s="235"/>
+      <c r="D378" s="235"/>
+      <c r="E378" s="236"/>
+      <c r="F378" s="236"/>
+      <c r="G378" s="236"/>
+      <c r="H378" s="236"/>
+      <c r="I378" s="236"/>
+      <c r="J378" s="236"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8633,14 +8633,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="208"/>
-      <c r="D379" s="208"/>
-      <c r="E379" s="207"/>
-      <c r="F379" s="207"/>
-      <c r="G379" s="207"/>
-      <c r="H379" s="207"/>
-      <c r="I379" s="207"/>
-      <c r="J379" s="207"/>
+      <c r="C379" s="235"/>
+      <c r="D379" s="235"/>
+      <c r="E379" s="236"/>
+      <c r="F379" s="236"/>
+      <c r="G379" s="236"/>
+      <c r="H379" s="236"/>
+      <c r="I379" s="236"/>
+      <c r="J379" s="236"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8650,14 +8650,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="208"/>
-      <c r="D380" s="208"/>
-      <c r="E380" s="207"/>
-      <c r="F380" s="207"/>
-      <c r="G380" s="207"/>
-      <c r="H380" s="207"/>
-      <c r="I380" s="207"/>
-      <c r="J380" s="207"/>
+      <c r="C380" s="235"/>
+      <c r="D380" s="235"/>
+      <c r="E380" s="236"/>
+      <c r="F380" s="236"/>
+      <c r="G380" s="236"/>
+      <c r="H380" s="236"/>
+      <c r="I380" s="236"/>
+      <c r="J380" s="236"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8667,14 +8667,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="208"/>
-      <c r="D381" s="208"/>
-      <c r="E381" s="207"/>
-      <c r="F381" s="207"/>
-      <c r="G381" s="207"/>
-      <c r="H381" s="207"/>
-      <c r="I381" s="207"/>
-      <c r="J381" s="207"/>
+      <c r="C381" s="235"/>
+      <c r="D381" s="235"/>
+      <c r="E381" s="236"/>
+      <c r="F381" s="236"/>
+      <c r="G381" s="236"/>
+      <c r="H381" s="236"/>
+      <c r="I381" s="236"/>
+      <c r="J381" s="236"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8684,14 +8684,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="208"/>
-      <c r="D382" s="208"/>
-      <c r="E382" s="207"/>
-      <c r="F382" s="207"/>
-      <c r="G382" s="207"/>
-      <c r="H382" s="207"/>
-      <c r="I382" s="207"/>
-      <c r="J382" s="207"/>
+      <c r="C382" s="235"/>
+      <c r="D382" s="235"/>
+      <c r="E382" s="236"/>
+      <c r="F382" s="236"/>
+      <c r="G382" s="236"/>
+      <c r="H382" s="236"/>
+      <c r="I382" s="236"/>
+      <c r="J382" s="236"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8816,10 +8816,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="208" t="s">
+      <c r="C392" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="208"/>
+      <c r="D392" s="235"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8827,43 +8827,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="222" t="s">
+      <c r="B393" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="222" t="s">
+      <c r="C393" s="164" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="222" t="s">
+      <c r="D393" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="222" t="s">
+      <c r="E393" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="223" t="s">
+      <c r="F393" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="223" t="s">
+      <c r="G393" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="223" t="s">
+      <c r="H393" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="207" t="s">
+      <c r="I393" s="236" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="207"/>
+      <c r="J393" s="236"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="222"/>
-      <c r="C394" s="222"/>
-      <c r="D394" s="222"/>
-      <c r="E394" s="222"/>
-      <c r="F394" s="224"/>
-      <c r="G394" s="224"/>
-      <c r="H394" s="224"/>
+      <c r="B394" s="164"/>
+      <c r="C394" s="164"/>
+      <c r="D394" s="164"/>
+      <c r="E394" s="164"/>
+      <c r="F394" s="238"/>
+      <c r="G394" s="238"/>
+      <c r="H394" s="238"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9168,21 +9168,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="216" t="s">
+      <c r="B414" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="218"/>
-      <c r="D414" s="216" t="s">
+      <c r="C414" s="173"/>
+      <c r="D414" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="217"/>
-      <c r="F414" s="217"/>
-      <c r="G414" s="217"/>
-      <c r="H414" s="217"/>
-      <c r="I414" s="217"/>
-      <c r="J414" s="218"/>
+      <c r="E414" s="172"/>
+      <c r="F414" s="172"/>
+      <c r="G414" s="172"/>
+      <c r="H414" s="172"/>
+      <c r="I414" s="172"/>
+      <c r="J414" s="173"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="223" t="s">
+      <c r="L414" s="237" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="224"/>
+      <c r="L415" s="238"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9462,23 +9462,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="216" t="s">
+      <c r="B431" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="218"/>
-      <c r="D431" s="231" t="s">
+      <c r="C431" s="173"/>
+      <c r="D431" s="245" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="216" t="s">
+      <c r="E431" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="217"/>
-      <c r="G431" s="217"/>
-      <c r="H431" s="217"/>
-      <c r="I431" s="217"/>
-      <c r="J431" s="218"/>
+      <c r="F431" s="172"/>
+      <c r="G431" s="172"/>
+      <c r="H431" s="172"/>
+      <c r="I431" s="172"/>
+      <c r="J431" s="173"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="223" t="s">
+      <c r="L431" s="237" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="208"/>
+      <c r="D432" s="235"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="224"/>
+      <c r="L432" s="238"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9698,26 +9698,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="212" t="s">
+      <c r="B445" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="213"/>
-      <c r="D445" s="216" t="s">
+      <c r="C445" s="252"/>
+      <c r="D445" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="217"/>
-      <c r="F445" s="217"/>
-      <c r="G445" s="217"/>
-      <c r="H445" s="217"/>
-      <c r="I445" s="217"/>
-      <c r="J445" s="218"/>
+      <c r="E445" s="172"/>
+      <c r="F445" s="172"/>
+      <c r="G445" s="172"/>
+      <c r="H445" s="172"/>
+      <c r="I445" s="172"/>
+      <c r="J445" s="173"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="219"/>
+      <c r="L445" s="255"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="214"/>
-      <c r="C446" s="215"/>
+      <c r="B446" s="253"/>
+      <c r="C446" s="254"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9740,14 +9740,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="219"/>
+      <c r="L446" s="255"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="173" t="s">
+      <c r="B447" s="246" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="174"/>
+      <c r="C447" s="248"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9759,10 +9759,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="173" t="s">
+      <c r="B448" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="174"/>
+      <c r="C448" s="248"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9774,10 +9774,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="173" t="s">
+      <c r="B449" s="246" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="174"/>
+      <c r="C449" s="248"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="216" t="s">
+      <c r="B450" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="218"/>
+      <c r="C450" s="173"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10128,18 +10128,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="228" t="s">
+      <c r="C472" s="242" t="s">
         <v>336</v>
       </c>
-      <c r="D472" s="229"/>
-      <c r="E472" s="229"/>
-      <c r="F472" s="229"/>
-      <c r="G472" s="229"/>
-      <c r="H472" s="229"/>
-      <c r="I472" s="229"/>
-      <c r="J472" s="229"/>
-      <c r="K472" s="229"/>
-      <c r="L472" s="230"/>
+      <c r="D472" s="243"/>
+      <c r="E472" s="243"/>
+      <c r="F472" s="243"/>
+      <c r="G472" s="243"/>
+      <c r="H472" s="243"/>
+      <c r="I472" s="243"/>
+      <c r="J472" s="243"/>
+      <c r="K472" s="243"/>
+      <c r="L472" s="244"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10175,10 +10175,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="208" t="s">
+      <c r="C475" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="208"/>
+      <c r="D475" s="235"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10190,43 +10190,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="222" t="s">
+      <c r="B476" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="222" t="s">
+      <c r="C476" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="222" t="s">
+      <c r="D476" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="222" t="s">
+      <c r="E476" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="223" t="s">
+      <c r="F476" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="223" t="s">
+      <c r="G476" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="223" t="s">
+      <c r="H476" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="225" t="s">
+      <c r="I476" s="239" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="226"/>
-      <c r="K476" s="226"/>
-      <c r="L476" s="227"/>
+      <c r="J476" s="240"/>
+      <c r="K476" s="240"/>
+      <c r="L476" s="241"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="222"/>
-      <c r="C477" s="222"/>
-      <c r="D477" s="222"/>
-      <c r="E477" s="222"/>
-      <c r="F477" s="224"/>
-      <c r="G477" s="224"/>
-      <c r="H477" s="224"/>
+      <c r="B477" s="164"/>
+      <c r="C477" s="164"/>
+      <c r="D477" s="164"/>
+      <c r="E477" s="164"/>
+      <c r="F477" s="238"/>
+      <c r="G477" s="238"/>
+      <c r="H477" s="238"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10369,10 +10369,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="203" t="s">
+      <c r="F484" s="258" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="203"/>
+      <c r="G484" s="258"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10391,10 +10391,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="204" t="s">
+      <c r="F485" s="259" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="204"/>
+      <c r="G485" s="259"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10435,10 +10435,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="204" t="s">
+      <c r="F487" s="259" t="s">
         <v>195</v>
       </c>
-      <c r="G487" s="204"/>
+      <c r="G487" s="259"/>
       <c r="H487" s="127">
         <v>17290.75</v>
       </c>
@@ -10457,10 +10457,10 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="211" t="s">
+      <c r="F488" s="250" t="s">
         <v>196</v>
       </c>
-      <c r="G488" s="211"/>
+      <c r="G488" s="250"/>
       <c r="H488" s="138">
         <f>SUM(H478:H487)+0.01</f>
         <v>283158.7</v>
@@ -10605,27 +10605,27 @@
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="212" t="s">
+      <c r="B497" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="C497" s="213"/>
-      <c r="D497" s="216" t="s">
+      <c r="C497" s="252"/>
+      <c r="D497" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E497" s="217"/>
-      <c r="F497" s="217"/>
-      <c r="G497" s="217"/>
-      <c r="H497" s="217"/>
-      <c r="I497" s="217"/>
-      <c r="J497" s="218"/>
+      <c r="E497" s="172"/>
+      <c r="F497" s="172"/>
+      <c r="G497" s="172"/>
+      <c r="H497" s="172"/>
+      <c r="I497" s="172"/>
+      <c r="J497" s="173"/>
       <c r="K497" s="21"/>
-      <c r="L497" s="219"/>
+      <c r="L497" s="255"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="214"/>
-      <c r="C498" s="215"/>
+      <c r="B498" s="253"/>
+      <c r="C498" s="254"/>
       <c r="D498" s="74">
         <v>1</v>
       </c>
@@ -10648,15 +10648,15 @@
         <v>10</v>
       </c>
       <c r="K498" s="21"/>
-      <c r="L498" s="219"/>
+      <c r="L498" s="255"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="220" t="s">
+      <c r="B499" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="C499" s="221"/>
+      <c r="C499" s="231"/>
       <c r="D499" s="102"/>
       <c r="E499" s="142">
         <v>3500</v>
@@ -10678,10 +10678,10 @@
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="173" t="s">
+      <c r="B500" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="C500" s="174"/>
+      <c r="C500" s="248"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10695,10 +10695,10 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
-      <c r="B501" s="173" t="s">
+      <c r="B501" s="246" t="s">
         <v>220</v>
       </c>
-      <c r="C501" s="174"/>
+      <c r="C501" s="248"/>
       <c r="D501" s="81"/>
       <c r="E501" s="81"/>
       <c r="F501" s="81"/>
@@ -10712,9 +10712,9 @@
     </row>
     <row r="502" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="78"/>
-      <c r="B502" s="164"/>
-      <c r="C502" s="164"/>
-      <c r="D502" s="164"/>
+      <c r="B502" s="262"/>
+      <c r="C502" s="262"/>
+      <c r="D502" s="262"/>
       <c r="E502" s="39"/>
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
@@ -11137,12 +11137,12 @@
       <c r="L529" s="79"/>
     </row>
     <row r="530" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="209" t="s">
+      <c r="A530" s="201" t="s">
         <v>246</v>
       </c>
-      <c r="B530" s="209"/>
-      <c r="C530" s="209"/>
-      <c r="D530" s="209"/>
+      <c r="B530" s="201"/>
+      <c r="C530" s="201"/>
+      <c r="D530" s="201"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
       <c r="K530" s="151"/>
@@ -11220,36 +11220,36 @@
       <c r="K535" s="150"/>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A536" s="210" t="s">
+      <c r="A536" s="249" t="s">
         <v>248</v>
       </c>
-      <c r="B536" s="210"/>
-      <c r="C536" s="210"/>
-      <c r="D536" s="210"/>
-      <c r="E536" s="210"/>
-      <c r="F536" s="210"/>
-      <c r="G536" s="210"/>
-      <c r="H536" s="210"/>
-      <c r="I536" s="210"/>
-      <c r="J536" s="210"/>
-      <c r="K536" s="210"/>
-      <c r="L536" s="210"/>
+      <c r="B536" s="249"/>
+      <c r="C536" s="249"/>
+      <c r="D536" s="249"/>
+      <c r="E536" s="249"/>
+      <c r="F536" s="249"/>
+      <c r="G536" s="249"/>
+      <c r="H536" s="249"/>
+      <c r="I536" s="249"/>
+      <c r="J536" s="249"/>
+      <c r="K536" s="249"/>
+      <c r="L536" s="249"/>
     </row>
     <row r="537" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="210" t="s">
+      <c r="A537" s="249" t="s">
         <v>271</v>
       </c>
-      <c r="B537" s="210"/>
-      <c r="C537" s="210"/>
-      <c r="D537" s="210"/>
-      <c r="E537" s="210"/>
-      <c r="F537" s="210"/>
-      <c r="G537" s="210"/>
-      <c r="H537" s="210"/>
-      <c r="I537" s="210"/>
-      <c r="J537" s="210"/>
-      <c r="K537" s="210"/>
-      <c r="L537" s="210"/>
+      <c r="B537" s="249"/>
+      <c r="C537" s="249"/>
+      <c r="D537" s="249"/>
+      <c r="E537" s="249"/>
+      <c r="F537" s="249"/>
+      <c r="G537" s="249"/>
+      <c r="H537" s="249"/>
+      <c r="I537" s="249"/>
+      <c r="J537" s="249"/>
+      <c r="K537" s="249"/>
+      <c r="L537" s="249"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A538" s="79"/>
@@ -11280,20 +11280,20 @@
       <c r="K539" s="150"/>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A540" s="210" t="s">
+      <c r="A540" s="249" t="s">
         <v>250</v>
       </c>
-      <c r="B540" s="210"/>
-      <c r="C540" s="210"/>
-      <c r="D540" s="210"/>
-      <c r="E540" s="210"/>
-      <c r="F540" s="210"/>
-      <c r="G540" s="210"/>
-      <c r="H540" s="210"/>
-      <c r="I540" s="210"/>
-      <c r="J540" s="210"/>
-      <c r="K540" s="210"/>
-      <c r="L540" s="210"/>
+      <c r="B540" s="249"/>
+      <c r="C540" s="249"/>
+      <c r="D540" s="249"/>
+      <c r="E540" s="249"/>
+      <c r="F540" s="249"/>
+      <c r="G540" s="249"/>
+      <c r="H540" s="249"/>
+      <c r="I540" s="249"/>
+      <c r="J540" s="249"/>
+      <c r="K540" s="249"/>
+      <c r="L540" s="249"/>
     </row>
     <row r="541" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="78"/>
@@ -11309,29 +11309,111 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B502:D502"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B327:L327"/>
+    <mergeCell ref="B341:L341"/>
+    <mergeCell ref="B358:L362"/>
+    <mergeCell ref="B299:L303"/>
+    <mergeCell ref="B306:L310"/>
+    <mergeCell ref="B321:L325"/>
+    <mergeCell ref="B335:L339"/>
+    <mergeCell ref="D367:L367"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A537:L537"/>
+    <mergeCell ref="A540:L540"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B497:C498"/>
+    <mergeCell ref="D497:J497"/>
+    <mergeCell ref="L497:L498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
     <mergeCell ref="B369:L369"/>
     <mergeCell ref="B349:F349"/>
     <mergeCell ref="B351:F351"/>
@@ -11356,111 +11438,29 @@
     <mergeCell ref="B200:L204"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A537:L537"/>
-    <mergeCell ref="A540:L540"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B497:C498"/>
-    <mergeCell ref="D497:J497"/>
-    <mergeCell ref="L497:L498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="B502:D502"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B327:L327"/>
-    <mergeCell ref="B341:L341"/>
-    <mergeCell ref="B358:L362"/>
-    <mergeCell ref="B299:L303"/>
-    <mergeCell ref="B306:L310"/>
-    <mergeCell ref="B321:L325"/>
-    <mergeCell ref="B335:L339"/>
-    <mergeCell ref="D367:L367"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8BF81-C297-4797-8EFB-02C0037FFEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C204A45-D4C4-478E-8A71-6CD5B129B65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54408 Ayrihuanca" sheetId="1" r:id="rId1"/>
@@ -2008,18 +2008,333 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2029,15 +2344,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2045,15 +2351,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2061,303 +2358,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2647,8 +2647,8 @@
   </sheetPr>
   <dimension ref="A3:P544"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B50" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I532" sqref="I532"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E71" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H478" sqref="H478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2670,52 +2670,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="233" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="196"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="236"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="237" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="240"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="209" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2749,17 +2749,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="166" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="263" t="s">
+      <c r="D21" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="263"/>
+      <c r="E21" s="165"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2988,10 +2988,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="263" t="s">
+      <c r="D23" s="165" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="263"/>
+      <c r="E23" s="165"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3053,13 +3053,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="267" t="s">
+      <c r="F27" s="169" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="267"/>
-      <c r="H27" s="267"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="267"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3078,22 +3078,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="268" t="s">
+      <c r="G29" s="170" t="s">
         <v>329</v>
       </c>
-      <c r="H29" s="269"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="270"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="172"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3112,11 +3112,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="260" t="s">
+      <c r="B31" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="261"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3277,12 +3277,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="232" t="s">
+      <c r="G40" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="233"/>
-      <c r="I40" s="233"/>
-      <c r="J40" s="234"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3295,12 +3295,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="232" t="s">
+      <c r="G41" s="198" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="233"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="234"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="232" t="s">
+      <c r="G42" s="198" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="233"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="234"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="232" t="s">
+      <c r="G43" s="198" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="233"/>
-      <c r="I43" s="233"/>
-      <c r="J43" s="234"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="200"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3380,12 +3380,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="232" t="s">
+      <c r="G46" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="233"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3398,12 +3398,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="232" t="s">
+      <c r="G47" s="198" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="233"/>
-      <c r="I47" s="233"/>
-      <c r="J47" s="234"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3416,12 +3416,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="229" t="s">
+      <c r="G48" s="220" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="230"/>
-      <c r="I48" s="230"/>
-      <c r="J48" s="231"/>
+      <c r="H48" s="271"/>
+      <c r="I48" s="271"/>
+      <c r="J48" s="221"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3488,12 +3488,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="234"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3506,12 +3506,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="232" t="s">
+      <c r="G53" s="198" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="234"/>
+      <c r="H53" s="199"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3760,14 +3760,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="246" t="s">
+      <c r="E68" s="173" t="s">
         <v>340</v>
       </c>
-      <c r="F68" s="247"/>
-      <c r="G68" s="247"/>
-      <c r="H68" s="247"/>
-      <c r="I68" s="247"/>
-      <c r="J68" s="248"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
+      <c r="H68" s="197"/>
+      <c r="I68" s="197"/>
+      <c r="J68" s="174"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3832,11 +3832,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="164" t="s">
+      <c r="F72" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="164"/>
-      <c r="H72" s="164"/>
+      <c r="G72" s="222"/>
+      <c r="H72" s="222"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3856,11 +3856,11 @@
       <c r="E73" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="F73" s="165" t="s">
+      <c r="F73" s="272" t="s">
         <v>344</v>
       </c>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
+      <c r="G73" s="272"/>
+      <c r="H73" s="272"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3992,10 +3992,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="236" t="s">
+      <c r="D82" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="236"/>
+      <c r="E82" s="207"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4081,17 +4081,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="169" t="s">
+      <c r="B87" s="274" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
-      <c r="F87" s="169"/>
-      <c r="G87" s="169"/>
-      <c r="H87" s="169"/>
-      <c r="I87" s="169"/>
-      <c r="J87" s="169"/>
+      <c r="C87" s="274"/>
+      <c r="D87" s="274"/>
+      <c r="E87" s="274"/>
+      <c r="F87" s="274"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="274"/>
+      <c r="I87" s="274"/>
+      <c r="J87" s="274"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4258,10 +4258,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="174" t="s">
+      <c r="E98" s="276" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="175"/>
+      <c r="F98" s="277"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4441,13 +4441,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="220" t="s">
+      <c r="B110" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="220"/>
-      <c r="D110" s="220"/>
-      <c r="E110" s="220"/>
-      <c r="F110" s="221"/>
+      <c r="C110" s="259"/>
+      <c r="D110" s="259"/>
+      <c r="E110" s="259"/>
+      <c r="F110" s="260"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4462,8 +4462,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="222"/>
-      <c r="H111" s="222"/>
+      <c r="G111" s="261"/>
+      <c r="H111" s="261"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4471,13 +4471,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="220" t="s">
+      <c r="B112" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="220"/>
-      <c r="D112" s="220"/>
-      <c r="E112" s="220"/>
-      <c r="F112" s="221"/>
+      <c r="C112" s="259"/>
+      <c r="D112" s="259"/>
+      <c r="E112" s="259"/>
+      <c r="F112" s="260"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4609,47 +4609,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="223" t="s">
+      <c r="B121" s="262" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="224"/>
-      <c r="D121" s="224"/>
-      <c r="E121" s="224"/>
-      <c r="F121" s="224"/>
-      <c r="G121" s="224"/>
-      <c r="H121" s="224"/>
-      <c r="I121" s="224"/>
-      <c r="J121" s="224"/>
-      <c r="K121" s="224"/>
-      <c r="L121" s="225"/>
+      <c r="C121" s="263"/>
+      <c r="D121" s="263"/>
+      <c r="E121" s="263"/>
+      <c r="F121" s="263"/>
+      <c r="G121" s="263"/>
+      <c r="H121" s="263"/>
+      <c r="I121" s="263"/>
+      <c r="J121" s="263"/>
+      <c r="K121" s="263"/>
+      <c r="L121" s="264"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="176"/>
-      <c r="C122" s="177"/>
-      <c r="D122" s="177"/>
-      <c r="E122" s="177"/>
-      <c r="F122" s="177"/>
-      <c r="G122" s="177"/>
-      <c r="H122" s="177"/>
-      <c r="I122" s="177"/>
-      <c r="J122" s="177"/>
-      <c r="K122" s="177"/>
-      <c r="L122" s="178"/>
+      <c r="B122" s="265"/>
+      <c r="C122" s="266"/>
+      <c r="D122" s="266"/>
+      <c r="E122" s="266"/>
+      <c r="F122" s="266"/>
+      <c r="G122" s="266"/>
+      <c r="H122" s="266"/>
+      <c r="I122" s="266"/>
+      <c r="J122" s="266"/>
+      <c r="K122" s="266"/>
+      <c r="L122" s="267"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="226"/>
-      <c r="C123" s="227"/>
-      <c r="D123" s="227"/>
-      <c r="E123" s="227"/>
-      <c r="F123" s="227"/>
-      <c r="G123" s="227"/>
-      <c r="H123" s="227"/>
-      <c r="I123" s="227"/>
-      <c r="J123" s="227"/>
-      <c r="K123" s="227"/>
-      <c r="L123" s="228"/>
+      <c r="B123" s="268"/>
+      <c r="C123" s="269"/>
+      <c r="D123" s="269"/>
+      <c r="E123" s="269"/>
+      <c r="F123" s="269"/>
+      <c r="G123" s="269"/>
+      <c r="H123" s="269"/>
+      <c r="I123" s="269"/>
+      <c r="J123" s="269"/>
+      <c r="K123" s="269"/>
+      <c r="L123" s="270"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4683,19 +4683,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="213" t="s">
+      <c r="B126" s="252" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="214"/>
-      <c r="D126" s="214"/>
-      <c r="E126" s="214"/>
-      <c r="F126" s="214"/>
-      <c r="G126" s="214"/>
-      <c r="H126" s="214"/>
-      <c r="I126" s="214"/>
-      <c r="J126" s="214"/>
-      <c r="K126" s="214"/>
-      <c r="L126" s="215"/>
+      <c r="C126" s="253"/>
+      <c r="D126" s="253"/>
+      <c r="E126" s="253"/>
+      <c r="F126" s="253"/>
+      <c r="G126" s="253"/>
+      <c r="H126" s="253"/>
+      <c r="I126" s="253"/>
+      <c r="J126" s="253"/>
+      <c r="K126" s="253"/>
+      <c r="L126" s="254"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4729,19 +4729,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="216" t="s">
+      <c r="B129" s="255" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="217"/>
-      <c r="D129" s="217"/>
-      <c r="E129" s="217"/>
-      <c r="F129" s="217"/>
-      <c r="G129" s="217"/>
-      <c r="H129" s="217"/>
-      <c r="I129" s="217"/>
-      <c r="J129" s="217"/>
-      <c r="K129" s="217"/>
-      <c r="L129" s="218"/>
+      <c r="C129" s="256"/>
+      <c r="D129" s="256"/>
+      <c r="E129" s="256"/>
+      <c r="F129" s="256"/>
+      <c r="G129" s="256"/>
+      <c r="H129" s="256"/>
+      <c r="I129" s="256"/>
+      <c r="J129" s="256"/>
+      <c r="K129" s="256"/>
+      <c r="L129" s="257"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4940,19 +4940,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="219" t="s">
+      <c r="B143" s="258" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="219"/>
-      <c r="D143" s="219"/>
-      <c r="E143" s="219"/>
-      <c r="F143" s="219"/>
-      <c r="G143" s="219"/>
-      <c r="H143" s="219"/>
-      <c r="I143" s="219"/>
-      <c r="J143" s="219"/>
-      <c r="K143" s="219"/>
-      <c r="L143" s="219"/>
+      <c r="C143" s="258"/>
+      <c r="D143" s="258"/>
+      <c r="E143" s="258"/>
+      <c r="F143" s="258"/>
+      <c r="G143" s="258"/>
+      <c r="H143" s="258"/>
+      <c r="I143" s="258"/>
+      <c r="J143" s="258"/>
+      <c r="K143" s="258"/>
+      <c r="L143" s="258"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4970,11 +4970,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="166" t="s">
+      <c r="B145" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="166"/>
-      <c r="D145" s="166"/>
+      <c r="C145" s="176"/>
+      <c r="D145" s="176"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4998,11 +4998,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="166" t="s">
+      <c r="B147" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="166"/>
-      <c r="D147" s="166"/>
+      <c r="C147" s="176"/>
+      <c r="D147" s="176"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5026,11 +5026,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="166" t="s">
+      <c r="B149" s="176" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="166"/>
-      <c r="D149" s="166"/>
+      <c r="C149" s="176"/>
+      <c r="D149" s="176"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5052,12 +5052,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="166" t="s">
+      <c r="B151" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="166"/>
-      <c r="D151" s="166"/>
-      <c r="E151" s="166"/>
+      <c r="C151" s="176"/>
+      <c r="D151" s="176"/>
+      <c r="E151" s="176"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="166" t="s">
+      <c r="B153" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="166"/>
-      <c r="D153" s="166"/>
-      <c r="E153" s="166"/>
-      <c r="F153" s="167"/>
+      <c r="C153" s="176"/>
+      <c r="D153" s="176"/>
+      <c r="E153" s="176"/>
+      <c r="F153" s="177"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5214,19 +5214,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="179" t="s">
+      <c r="B162" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="180"/>
-      <c r="D162" s="180"/>
-      <c r="E162" s="180"/>
-      <c r="F162" s="180"/>
-      <c r="G162" s="180"/>
-      <c r="H162" s="180"/>
-      <c r="I162" s="180"/>
-      <c r="J162" s="180"/>
-      <c r="K162" s="180"/>
-      <c r="L162" s="181"/>
+      <c r="C162" s="279"/>
+      <c r="D162" s="279"/>
+      <c r="E162" s="279"/>
+      <c r="F162" s="279"/>
+      <c r="G162" s="279"/>
+      <c r="H162" s="279"/>
+      <c r="I162" s="279"/>
+      <c r="J162" s="279"/>
+      <c r="K162" s="279"/>
+      <c r="L162" s="280"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5444,12 +5444,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="166" t="s">
+      <c r="B179" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="166"/>
-      <c r="D179" s="166"/>
-      <c r="E179" s="166"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
+      <c r="E179" s="176"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5476,13 +5476,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="166" t="s">
+      <c r="B181" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="166"/>
-      <c r="D181" s="166"/>
-      <c r="E181" s="166"/>
-      <c r="F181" s="167"/>
+      <c r="C181" s="176"/>
+      <c r="D181" s="176"/>
+      <c r="E181" s="176"/>
+      <c r="F181" s="177"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5536,13 +5536,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="166" t="s">
+      <c r="B185" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="166"/>
-      <c r="D185" s="166"/>
-      <c r="E185" s="166"/>
-      <c r="F185" s="167"/>
+      <c r="C185" s="176"/>
+      <c r="D185" s="176"/>
+      <c r="E185" s="176"/>
+      <c r="F185" s="177"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5655,79 +5655,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="182" t="s">
+      <c r="B193" s="179" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="183"/>
-      <c r="D193" s="183"/>
-      <c r="E193" s="183"/>
-      <c r="F193" s="183"/>
-      <c r="G193" s="183"/>
-      <c r="H193" s="183"/>
-      <c r="I193" s="183"/>
-      <c r="J193" s="183"/>
-      <c r="K193" s="183"/>
-      <c r="L193" s="184"/>
+      <c r="C193" s="180"/>
+      <c r="D193" s="180"/>
+      <c r="E193" s="180"/>
+      <c r="F193" s="180"/>
+      <c r="G193" s="180"/>
+      <c r="H193" s="180"/>
+      <c r="I193" s="180"/>
+      <c r="J193" s="180"/>
+      <c r="K193" s="180"/>
+      <c r="L193" s="181"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="185"/>
-      <c r="C194" s="186"/>
-      <c r="D194" s="186"/>
-      <c r="E194" s="186"/>
-      <c r="F194" s="186"/>
-      <c r="G194" s="186"/>
-      <c r="H194" s="186"/>
-      <c r="I194" s="186"/>
-      <c r="J194" s="186"/>
-      <c r="K194" s="186"/>
-      <c r="L194" s="187"/>
+      <c r="B194" s="182"/>
+      <c r="C194" s="183"/>
+      <c r="D194" s="183"/>
+      <c r="E194" s="183"/>
+      <c r="F194" s="183"/>
+      <c r="G194" s="183"/>
+      <c r="H194" s="183"/>
+      <c r="I194" s="183"/>
+      <c r="J194" s="183"/>
+      <c r="K194" s="183"/>
+      <c r="L194" s="184"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="185"/>
-      <c r="C195" s="186"/>
-      <c r="D195" s="186"/>
-      <c r="E195" s="186"/>
-      <c r="F195" s="186"/>
-      <c r="G195" s="186"/>
-      <c r="H195" s="186"/>
-      <c r="I195" s="186"/>
-      <c r="J195" s="186"/>
-      <c r="K195" s="186"/>
-      <c r="L195" s="187"/>
+      <c r="B195" s="182"/>
+      <c r="C195" s="183"/>
+      <c r="D195" s="183"/>
+      <c r="E195" s="183"/>
+      <c r="F195" s="183"/>
+      <c r="G195" s="183"/>
+      <c r="H195" s="183"/>
+      <c r="I195" s="183"/>
+      <c r="J195" s="183"/>
+      <c r="K195" s="183"/>
+      <c r="L195" s="184"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="185"/>
-      <c r="C196" s="186"/>
-      <c r="D196" s="186"/>
-      <c r="E196" s="186"/>
-      <c r="F196" s="186"/>
-      <c r="G196" s="186"/>
-      <c r="H196" s="186"/>
-      <c r="I196" s="186"/>
-      <c r="J196" s="186"/>
-      <c r="K196" s="186"/>
-      <c r="L196" s="187"/>
+      <c r="B196" s="182"/>
+      <c r="C196" s="183"/>
+      <c r="D196" s="183"/>
+      <c r="E196" s="183"/>
+      <c r="F196" s="183"/>
+      <c r="G196" s="183"/>
+      <c r="H196" s="183"/>
+      <c r="I196" s="183"/>
+      <c r="J196" s="183"/>
+      <c r="K196" s="183"/>
+      <c r="L196" s="184"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="188"/>
-      <c r="C197" s="189"/>
-      <c r="D197" s="189"/>
-      <c r="E197" s="189"/>
-      <c r="F197" s="189"/>
-      <c r="G197" s="189"/>
-      <c r="H197" s="189"/>
-      <c r="I197" s="189"/>
-      <c r="J197" s="189"/>
-      <c r="K197" s="189"/>
-      <c r="L197" s="190"/>
+      <c r="B197" s="185"/>
+      <c r="C197" s="186"/>
+      <c r="D197" s="186"/>
+      <c r="E197" s="186"/>
+      <c r="F197" s="186"/>
+      <c r="G197" s="186"/>
+      <c r="H197" s="186"/>
+      <c r="I197" s="186"/>
+      <c r="J197" s="186"/>
+      <c r="K197" s="186"/>
+      <c r="L197" s="187"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5764,79 +5764,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="182" t="s">
+      <c r="B200" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="183"/>
-      <c r="D200" s="183"/>
-      <c r="E200" s="183"/>
-      <c r="F200" s="183"/>
-      <c r="G200" s="183"/>
-      <c r="H200" s="183"/>
-      <c r="I200" s="183"/>
-      <c r="J200" s="183"/>
-      <c r="K200" s="183"/>
-      <c r="L200" s="184"/>
+      <c r="C200" s="180"/>
+      <c r="D200" s="180"/>
+      <c r="E200" s="180"/>
+      <c r="F200" s="180"/>
+      <c r="G200" s="180"/>
+      <c r="H200" s="180"/>
+      <c r="I200" s="180"/>
+      <c r="J200" s="180"/>
+      <c r="K200" s="180"/>
+      <c r="L200" s="181"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="185"/>
-      <c r="C201" s="186"/>
-      <c r="D201" s="186"/>
-      <c r="E201" s="186"/>
-      <c r="F201" s="186"/>
-      <c r="G201" s="186"/>
-      <c r="H201" s="186"/>
-      <c r="I201" s="186"/>
-      <c r="J201" s="186"/>
-      <c r="K201" s="186"/>
-      <c r="L201" s="187"/>
+      <c r="B201" s="182"/>
+      <c r="C201" s="183"/>
+      <c r="D201" s="183"/>
+      <c r="E201" s="183"/>
+      <c r="F201" s="183"/>
+      <c r="G201" s="183"/>
+      <c r="H201" s="183"/>
+      <c r="I201" s="183"/>
+      <c r="J201" s="183"/>
+      <c r="K201" s="183"/>
+      <c r="L201" s="184"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="185"/>
-      <c r="C202" s="186"/>
-      <c r="D202" s="186"/>
-      <c r="E202" s="186"/>
-      <c r="F202" s="186"/>
-      <c r="G202" s="186"/>
-      <c r="H202" s="186"/>
-      <c r="I202" s="186"/>
-      <c r="J202" s="186"/>
-      <c r="K202" s="186"/>
-      <c r="L202" s="187"/>
+      <c r="B202" s="182"/>
+      <c r="C202" s="183"/>
+      <c r="D202" s="183"/>
+      <c r="E202" s="183"/>
+      <c r="F202" s="183"/>
+      <c r="G202" s="183"/>
+      <c r="H202" s="183"/>
+      <c r="I202" s="183"/>
+      <c r="J202" s="183"/>
+      <c r="K202" s="183"/>
+      <c r="L202" s="184"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="185"/>
-      <c r="C203" s="186"/>
-      <c r="D203" s="186"/>
-      <c r="E203" s="186"/>
-      <c r="F203" s="186"/>
-      <c r="G203" s="186"/>
-      <c r="H203" s="186"/>
-      <c r="I203" s="186"/>
-      <c r="J203" s="186"/>
-      <c r="K203" s="186"/>
-      <c r="L203" s="187"/>
+      <c r="B203" s="182"/>
+      <c r="C203" s="183"/>
+      <c r="D203" s="183"/>
+      <c r="E203" s="183"/>
+      <c r="F203" s="183"/>
+      <c r="G203" s="183"/>
+      <c r="H203" s="183"/>
+      <c r="I203" s="183"/>
+      <c r="J203" s="183"/>
+      <c r="K203" s="183"/>
+      <c r="L203" s="184"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="188"/>
-      <c r="C204" s="189"/>
-      <c r="D204" s="189"/>
-      <c r="E204" s="189"/>
-      <c r="F204" s="189"/>
-      <c r="G204" s="189"/>
-      <c r="H204" s="189"/>
-      <c r="I204" s="189"/>
-      <c r="J204" s="189"/>
-      <c r="K204" s="189"/>
-      <c r="L204" s="190"/>
+      <c r="B204" s="185"/>
+      <c r="C204" s="186"/>
+      <c r="D204" s="186"/>
+      <c r="E204" s="186"/>
+      <c r="F204" s="186"/>
+      <c r="G204" s="186"/>
+      <c r="H204" s="186"/>
+      <c r="I204" s="186"/>
+      <c r="J204" s="186"/>
+      <c r="K204" s="186"/>
+      <c r="L204" s="187"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5983,49 +5983,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="204" t="s">
+      <c r="B214" s="243" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="205"/>
-      <c r="D214" s="205"/>
-      <c r="E214" s="205"/>
-      <c r="F214" s="205"/>
-      <c r="G214" s="205"/>
-      <c r="H214" s="205"/>
-      <c r="I214" s="205"/>
-      <c r="J214" s="205"/>
-      <c r="K214" s="205"/>
-      <c r="L214" s="206"/>
+      <c r="C214" s="244"/>
+      <c r="D214" s="244"/>
+      <c r="E214" s="244"/>
+      <c r="F214" s="244"/>
+      <c r="G214" s="244"/>
+      <c r="H214" s="244"/>
+      <c r="I214" s="244"/>
+      <c r="J214" s="244"/>
+      <c r="K214" s="244"/>
+      <c r="L214" s="245"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="207"/>
-      <c r="C215" s="208"/>
-      <c r="D215" s="208"/>
-      <c r="E215" s="208"/>
-      <c r="F215" s="208"/>
-      <c r="G215" s="208"/>
-      <c r="H215" s="208"/>
-      <c r="I215" s="208"/>
-      <c r="J215" s="208"/>
-      <c r="K215" s="208"/>
-      <c r="L215" s="209"/>
+      <c r="B215" s="246"/>
+      <c r="C215" s="247"/>
+      <c r="D215" s="247"/>
+      <c r="E215" s="247"/>
+      <c r="F215" s="247"/>
+      <c r="G215" s="247"/>
+      <c r="H215" s="247"/>
+      <c r="I215" s="247"/>
+      <c r="J215" s="247"/>
+      <c r="K215" s="247"/>
+      <c r="L215" s="248"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="210"/>
-      <c r="C216" s="211"/>
-      <c r="D216" s="211"/>
-      <c r="E216" s="211"/>
-      <c r="F216" s="211"/>
-      <c r="G216" s="211"/>
-      <c r="H216" s="211"/>
-      <c r="I216" s="211"/>
-      <c r="J216" s="211"/>
-      <c r="K216" s="211"/>
-      <c r="L216" s="212"/>
+      <c r="B216" s="249"/>
+      <c r="C216" s="250"/>
+      <c r="D216" s="250"/>
+      <c r="E216" s="250"/>
+      <c r="F216" s="250"/>
+      <c r="G216" s="250"/>
+      <c r="H216" s="250"/>
+      <c r="I216" s="250"/>
+      <c r="J216" s="250"/>
+      <c r="K216" s="250"/>
+      <c r="L216" s="251"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6060,10 +6060,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="166" t="s">
+      <c r="B219" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="166"/>
+      <c r="C219" s="176"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6188,19 +6188,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="176" t="s">
+      <c r="B227" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="177"/>
-      <c r="D227" s="177"/>
-      <c r="E227" s="177"/>
-      <c r="F227" s="177"/>
-      <c r="G227" s="177"/>
-      <c r="H227" s="177"/>
-      <c r="I227" s="177"/>
-      <c r="J227" s="177"/>
-      <c r="K227" s="177"/>
-      <c r="L227" s="178"/>
+      <c r="C227" s="266"/>
+      <c r="D227" s="266"/>
+      <c r="E227" s="266"/>
+      <c r="F227" s="266"/>
+      <c r="G227" s="266"/>
+      <c r="H227" s="266"/>
+      <c r="I227" s="266"/>
+      <c r="J227" s="266"/>
+      <c r="K227" s="266"/>
+      <c r="L227" s="267"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6309,51 +6309,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="272" t="s">
+      <c r="B235" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="273"/>
-      <c r="D235" s="273"/>
-      <c r="E235" s="273"/>
-      <c r="F235" s="273"/>
-      <c r="G235" s="273"/>
-      <c r="H235" s="273"/>
-      <c r="I235" s="273"/>
-      <c r="J235" s="273"/>
-      <c r="K235" s="273"/>
-      <c r="L235" s="274"/>
+      <c r="C235" s="189"/>
+      <c r="D235" s="189"/>
+      <c r="E235" s="189"/>
+      <c r="F235" s="189"/>
+      <c r="G235" s="189"/>
+      <c r="H235" s="189"/>
+      <c r="I235" s="189"/>
+      <c r="J235" s="189"/>
+      <c r="K235" s="189"/>
+      <c r="L235" s="190"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="275"/>
-      <c r="C236" s="276"/>
-      <c r="D236" s="276"/>
-      <c r="E236" s="276"/>
-      <c r="F236" s="276"/>
-      <c r="G236" s="276"/>
-      <c r="H236" s="276"/>
-      <c r="I236" s="276"/>
-      <c r="J236" s="276"/>
-      <c r="K236" s="276"/>
-      <c r="L236" s="277"/>
+      <c r="B236" s="191"/>
+      <c r="C236" s="192"/>
+      <c r="D236" s="192"/>
+      <c r="E236" s="192"/>
+      <c r="F236" s="192"/>
+      <c r="G236" s="192"/>
+      <c r="H236" s="192"/>
+      <c r="I236" s="192"/>
+      <c r="J236" s="192"/>
+      <c r="K236" s="192"/>
+      <c r="L236" s="193"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="278"/>
-      <c r="C237" s="279"/>
-      <c r="D237" s="279"/>
-      <c r="E237" s="279"/>
-      <c r="F237" s="279"/>
-      <c r="G237" s="279"/>
-      <c r="H237" s="279"/>
-      <c r="I237" s="279"/>
-      <c r="J237" s="279"/>
-      <c r="K237" s="279"/>
-      <c r="L237" s="280"/>
+      <c r="B237" s="194"/>
+      <c r="C237" s="195"/>
+      <c r="D237" s="195"/>
+      <c r="E237" s="195"/>
+      <c r="F237" s="195"/>
+      <c r="G237" s="195"/>
+      <c r="H237" s="195"/>
+      <c r="I237" s="195"/>
+      <c r="J237" s="195"/>
+      <c r="K237" s="195"/>
+      <c r="L237" s="196"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6468,35 +6468,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="169" t="s">
+      <c r="B245" s="274" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="169"/>
-      <c r="D245" s="169"/>
-      <c r="E245" s="169"/>
-      <c r="F245" s="169"/>
-      <c r="G245" s="169"/>
-      <c r="H245" s="169"/>
-      <c r="I245" s="169"/>
-      <c r="J245" s="169"/>
-      <c r="K245" s="169"/>
-      <c r="L245" s="169"/>
+      <c r="C245" s="274"/>
+      <c r="D245" s="274"/>
+      <c r="E245" s="274"/>
+      <c r="F245" s="274"/>
+      <c r="G245" s="274"/>
+      <c r="H245" s="274"/>
+      <c r="I245" s="274"/>
+      <c r="J245" s="274"/>
+      <c r="K245" s="274"/>
+      <c r="L245" s="274"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="169" t="s">
+      <c r="B246" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="169"/>
-      <c r="D246" s="169"/>
-      <c r="E246" s="169"/>
-      <c r="F246" s="169"/>
-      <c r="G246" s="169"/>
-      <c r="H246" s="169"/>
-      <c r="I246" s="169"/>
-      <c r="J246" s="169"/>
-      <c r="K246" s="169"/>
-      <c r="L246" s="169"/>
+      <c r="C246" s="274"/>
+      <c r="D246" s="274"/>
+      <c r="E246" s="274"/>
+      <c r="F246" s="274"/>
+      <c r="G246" s="274"/>
+      <c r="H246" s="274"/>
+      <c r="I246" s="274"/>
+      <c r="J246" s="274"/>
+      <c r="K246" s="274"/>
+      <c r="L246" s="274"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6702,83 +6702,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="182" t="s">
+      <c r="B260" s="179" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="183"/>
-      <c r="D260" s="183"/>
-      <c r="E260" s="183"/>
-      <c r="F260" s="183"/>
-      <c r="G260" s="183"/>
-      <c r="H260" s="183"/>
-      <c r="I260" s="183"/>
-      <c r="J260" s="183"/>
-      <c r="K260" s="183"/>
-      <c r="L260" s="184"/>
+      <c r="C260" s="180"/>
+      <c r="D260" s="180"/>
+      <c r="E260" s="180"/>
+      <c r="F260" s="180"/>
+      <c r="G260" s="180"/>
+      <c r="H260" s="180"/>
+      <c r="I260" s="180"/>
+      <c r="J260" s="180"/>
+      <c r="K260" s="180"/>
+      <c r="L260" s="181"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="185"/>
-      <c r="C261" s="186"/>
-      <c r="D261" s="186"/>
-      <c r="E261" s="186"/>
-      <c r="F261" s="186"/>
-      <c r="G261" s="186"/>
-      <c r="H261" s="186"/>
-      <c r="I261" s="186"/>
-      <c r="J261" s="186"/>
-      <c r="K261" s="186"/>
-      <c r="L261" s="187"/>
+      <c r="B261" s="182"/>
+      <c r="C261" s="183"/>
+      <c r="D261" s="183"/>
+      <c r="E261" s="183"/>
+      <c r="F261" s="183"/>
+      <c r="G261" s="183"/>
+      <c r="H261" s="183"/>
+      <c r="I261" s="183"/>
+      <c r="J261" s="183"/>
+      <c r="K261" s="183"/>
+      <c r="L261" s="184"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="185"/>
-      <c r="C262" s="186"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
-      <c r="F262" s="186"/>
-      <c r="G262" s="186"/>
-      <c r="H262" s="186"/>
-      <c r="I262" s="186"/>
-      <c r="J262" s="186"/>
-      <c r="K262" s="186"/>
-      <c r="L262" s="187"/>
+      <c r="B262" s="182"/>
+      <c r="C262" s="183"/>
+      <c r="D262" s="183"/>
+      <c r="E262" s="183"/>
+      <c r="F262" s="183"/>
+      <c r="G262" s="183"/>
+      <c r="H262" s="183"/>
+      <c r="I262" s="183"/>
+      <c r="J262" s="183"/>
+      <c r="K262" s="183"/>
+      <c r="L262" s="184"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="185"/>
-      <c r="C263" s="186"/>
-      <c r="D263" s="186"/>
-      <c r="E263" s="186"/>
-      <c r="F263" s="186"/>
-      <c r="G263" s="186"/>
-      <c r="H263" s="186"/>
-      <c r="I263" s="186"/>
-      <c r="J263" s="186"/>
-      <c r="K263" s="186"/>
-      <c r="L263" s="187"/>
+      <c r="B263" s="182"/>
+      <c r="C263" s="183"/>
+      <c r="D263" s="183"/>
+      <c r="E263" s="183"/>
+      <c r="F263" s="183"/>
+      <c r="G263" s="183"/>
+      <c r="H263" s="183"/>
+      <c r="I263" s="183"/>
+      <c r="J263" s="183"/>
+      <c r="K263" s="183"/>
+      <c r="L263" s="184"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="188"/>
-      <c r="C264" s="189"/>
-      <c r="D264" s="189"/>
-      <c r="E264" s="189"/>
-      <c r="F264" s="189"/>
-      <c r="G264" s="189"/>
-      <c r="H264" s="189"/>
-      <c r="I264" s="189"/>
-      <c r="J264" s="189"/>
-      <c r="K264" s="189"/>
-      <c r="L264" s="190"/>
+      <c r="B264" s="185"/>
+      <c r="C264" s="186"/>
+      <c r="D264" s="186"/>
+      <c r="E264" s="186"/>
+      <c r="F264" s="186"/>
+      <c r="G264" s="186"/>
+      <c r="H264" s="186"/>
+      <c r="I264" s="186"/>
+      <c r="J264" s="186"/>
+      <c r="K264" s="186"/>
+      <c r="L264" s="187"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6834,28 +6834,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="164" t="s">
+      <c r="B268" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="164"/>
-      <c r="D268" s="171" t="s">
+      <c r="C268" s="222"/>
+      <c r="D268" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="172"/>
-      <c r="F268" s="172"/>
-      <c r="G268" s="172"/>
-      <c r="H268" s="172"/>
-      <c r="I268" s="172"/>
-      <c r="J268" s="172"/>
-      <c r="K268" s="172"/>
-      <c r="L268" s="173"/>
+      <c r="E268" s="217"/>
+      <c r="F268" s="217"/>
+      <c r="G268" s="217"/>
+      <c r="H268" s="217"/>
+      <c r="I268" s="217"/>
+      <c r="J268" s="217"/>
+      <c r="K268" s="217"/>
+      <c r="L268" s="218"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="168"/>
-      <c r="C269" s="168"/>
+      <c r="B269" s="273"/>
+      <c r="C269" s="273"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6870,8 +6870,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="168"/>
-      <c r="C270" s="168"/>
+      <c r="B270" s="273"/>
+      <c r="C270" s="273"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6886,8 +6886,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="168"/>
-      <c r="C271" s="168"/>
+      <c r="B271" s="273"/>
+      <c r="C271" s="273"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6902,8 +6902,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="168"/>
-      <c r="C272" s="168"/>
+      <c r="B272" s="273"/>
+      <c r="C272" s="273"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6968,83 +6968,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="170" t="s">
+      <c r="B276" s="275" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="170"/>
-      <c r="D276" s="170"/>
-      <c r="E276" s="170"/>
-      <c r="F276" s="170"/>
-      <c r="G276" s="170"/>
-      <c r="H276" s="170"/>
-      <c r="I276" s="170"/>
-      <c r="J276" s="170"/>
-      <c r="K276" s="170"/>
-      <c r="L276" s="170"/>
+      <c r="C276" s="275"/>
+      <c r="D276" s="275"/>
+      <c r="E276" s="275"/>
+      <c r="F276" s="275"/>
+      <c r="G276" s="275"/>
+      <c r="H276" s="275"/>
+      <c r="I276" s="275"/>
+      <c r="J276" s="275"/>
+      <c r="K276" s="275"/>
+      <c r="L276" s="275"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="170"/>
-      <c r="C277" s="170"/>
-      <c r="D277" s="170"/>
-      <c r="E277" s="170"/>
-      <c r="F277" s="170"/>
-      <c r="G277" s="170"/>
-      <c r="H277" s="170"/>
-      <c r="I277" s="170"/>
-      <c r="J277" s="170"/>
-      <c r="K277" s="170"/>
-      <c r="L277" s="170"/>
+      <c r="B277" s="275"/>
+      <c r="C277" s="275"/>
+      <c r="D277" s="275"/>
+      <c r="E277" s="275"/>
+      <c r="F277" s="275"/>
+      <c r="G277" s="275"/>
+      <c r="H277" s="275"/>
+      <c r="I277" s="275"/>
+      <c r="J277" s="275"/>
+      <c r="K277" s="275"/>
+      <c r="L277" s="275"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="170"/>
-      <c r="C278" s="170"/>
-      <c r="D278" s="170"/>
-      <c r="E278" s="170"/>
-      <c r="F278" s="170"/>
-      <c r="G278" s="170"/>
-      <c r="H278" s="170"/>
-      <c r="I278" s="170"/>
-      <c r="J278" s="170"/>
-      <c r="K278" s="170"/>
-      <c r="L278" s="170"/>
+      <c r="B278" s="275"/>
+      <c r="C278" s="275"/>
+      <c r="D278" s="275"/>
+      <c r="E278" s="275"/>
+      <c r="F278" s="275"/>
+      <c r="G278" s="275"/>
+      <c r="H278" s="275"/>
+      <c r="I278" s="275"/>
+      <c r="J278" s="275"/>
+      <c r="K278" s="275"/>
+      <c r="L278" s="275"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="170"/>
-      <c r="C279" s="170"/>
-      <c r="D279" s="170"/>
-      <c r="E279" s="170"/>
-      <c r="F279" s="170"/>
-      <c r="G279" s="170"/>
-      <c r="H279" s="170"/>
-      <c r="I279" s="170"/>
-      <c r="J279" s="170"/>
-      <c r="K279" s="170"/>
-      <c r="L279" s="170"/>
+      <c r="B279" s="275"/>
+      <c r="C279" s="275"/>
+      <c r="D279" s="275"/>
+      <c r="E279" s="275"/>
+      <c r="F279" s="275"/>
+      <c r="G279" s="275"/>
+      <c r="H279" s="275"/>
+      <c r="I279" s="275"/>
+      <c r="J279" s="275"/>
+      <c r="K279" s="275"/>
+      <c r="L279" s="275"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="170"/>
-      <c r="C280" s="170"/>
-      <c r="D280" s="170"/>
-      <c r="E280" s="170"/>
-      <c r="F280" s="170"/>
-      <c r="G280" s="170"/>
-      <c r="H280" s="170"/>
-      <c r="I280" s="170"/>
-      <c r="J280" s="170"/>
-      <c r="K280" s="170"/>
-      <c r="L280" s="170"/>
+      <c r="B280" s="275"/>
+      <c r="C280" s="275"/>
+      <c r="D280" s="275"/>
+      <c r="E280" s="275"/>
+      <c r="F280" s="275"/>
+      <c r="G280" s="275"/>
+      <c r="H280" s="275"/>
+      <c r="I280" s="275"/>
+      <c r="J280" s="275"/>
+      <c r="K280" s="275"/>
+      <c r="L280" s="275"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7100,12 +7100,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="166" t="s">
+      <c r="B284" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="166"/>
-      <c r="D284" s="166"/>
-      <c r="E284" s="167"/>
+      <c r="C284" s="176"/>
+      <c r="D284" s="176"/>
+      <c r="E284" s="177"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7116,10 +7116,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="166"/>
-      <c r="C285" s="166"/>
-      <c r="D285" s="166"/>
-      <c r="E285" s="166"/>
+      <c r="B285" s="176"/>
+      <c r="C285" s="176"/>
+      <c r="D285" s="176"/>
+      <c r="E285" s="176"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7130,12 +7130,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="166" t="s">
+      <c r="B286" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="166"/>
-      <c r="D286" s="166"/>
-      <c r="E286" s="167"/>
+      <c r="C286" s="176"/>
+      <c r="D286" s="176"/>
+      <c r="E286" s="177"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7148,10 +7148,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="166"/>
-      <c r="C287" s="166"/>
-      <c r="D287" s="166"/>
-      <c r="E287" s="166"/>
+      <c r="B287" s="176"/>
+      <c r="C287" s="176"/>
+      <c r="D287" s="176"/>
+      <c r="E287" s="176"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7162,12 +7162,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="166" t="s">
+      <c r="B288" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="166"/>
-      <c r="D288" s="166"/>
-      <c r="E288" s="167"/>
+      <c r="C288" s="176"/>
+      <c r="D288" s="176"/>
+      <c r="E288" s="177"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7192,12 +7192,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="166" t="s">
+      <c r="B290" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="166"/>
-      <c r="D290" s="166"/>
-      <c r="E290" s="167"/>
+      <c r="C290" s="176"/>
+      <c r="D290" s="176"/>
+      <c r="E290" s="177"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7222,12 +7222,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="166" t="s">
+      <c r="B292" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="166"/>
-      <c r="D292" s="166"/>
-      <c r="E292" s="167"/>
+      <c r="C292" s="176"/>
+      <c r="D292" s="176"/>
+      <c r="E292" s="177"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7330,82 +7330,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="182" t="s">
+      <c r="B299" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="183"/>
-      <c r="D299" s="183"/>
-      <c r="E299" s="183"/>
-      <c r="F299" s="183"/>
-      <c r="G299" s="183"/>
-      <c r="H299" s="183"/>
-      <c r="I299" s="183"/>
-      <c r="J299" s="183"/>
-      <c r="K299" s="183"/>
-      <c r="L299" s="184"/>
+      <c r="C299" s="180"/>
+      <c r="D299" s="180"/>
+      <c r="E299" s="180"/>
+      <c r="F299" s="180"/>
+      <c r="G299" s="180"/>
+      <c r="H299" s="180"/>
+      <c r="I299" s="180"/>
+      <c r="J299" s="180"/>
+      <c r="K299" s="180"/>
+      <c r="L299" s="181"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="185"/>
-      <c r="C300" s="186"/>
-      <c r="D300" s="186"/>
-      <c r="E300" s="186"/>
-      <c r="F300" s="186"/>
-      <c r="G300" s="186"/>
-      <c r="H300" s="186"/>
-      <c r="I300" s="186"/>
-      <c r="J300" s="186"/>
-      <c r="K300" s="186"/>
-      <c r="L300" s="187"/>
+      <c r="B300" s="182"/>
+      <c r="C300" s="183"/>
+      <c r="D300" s="183"/>
+      <c r="E300" s="183"/>
+      <c r="F300" s="183"/>
+      <c r="G300" s="183"/>
+      <c r="H300" s="183"/>
+      <c r="I300" s="183"/>
+      <c r="J300" s="183"/>
+      <c r="K300" s="183"/>
+      <c r="L300" s="184"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="185"/>
-      <c r="C301" s="186"/>
-      <c r="D301" s="186"/>
-      <c r="E301" s="186"/>
-      <c r="F301" s="186"/>
-      <c r="G301" s="186"/>
-      <c r="H301" s="186"/>
-      <c r="I301" s="186"/>
-      <c r="J301" s="186"/>
-      <c r="K301" s="186"/>
-      <c r="L301" s="187"/>
+      <c r="B301" s="182"/>
+      <c r="C301" s="183"/>
+      <c r="D301" s="183"/>
+      <c r="E301" s="183"/>
+      <c r="F301" s="183"/>
+      <c r="G301" s="183"/>
+      <c r="H301" s="183"/>
+      <c r="I301" s="183"/>
+      <c r="J301" s="183"/>
+      <c r="K301" s="183"/>
+      <c r="L301" s="184"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="185"/>
-      <c r="C302" s="186"/>
-      <c r="D302" s="186"/>
-      <c r="E302" s="186"/>
-      <c r="F302" s="186"/>
-      <c r="G302" s="186"/>
-      <c r="H302" s="186"/>
-      <c r="I302" s="186"/>
-      <c r="J302" s="186"/>
-      <c r="K302" s="186"/>
-      <c r="L302" s="187"/>
+      <c r="B302" s="182"/>
+      <c r="C302" s="183"/>
+      <c r="D302" s="183"/>
+      <c r="E302" s="183"/>
+      <c r="F302" s="183"/>
+      <c r="G302" s="183"/>
+      <c r="H302" s="183"/>
+      <c r="I302" s="183"/>
+      <c r="J302" s="183"/>
+      <c r="K302" s="183"/>
+      <c r="L302" s="184"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="188"/>
-      <c r="C303" s="189"/>
-      <c r="D303" s="189"/>
-      <c r="E303" s="189"/>
-      <c r="F303" s="189"/>
-      <c r="G303" s="189"/>
-      <c r="H303" s="189"/>
-      <c r="I303" s="189"/>
-      <c r="J303" s="189"/>
-      <c r="K303" s="189"/>
-      <c r="L303" s="190"/>
+      <c r="B303" s="185"/>
+      <c r="C303" s="186"/>
+      <c r="D303" s="186"/>
+      <c r="E303" s="186"/>
+      <c r="F303" s="186"/>
+      <c r="G303" s="186"/>
+      <c r="H303" s="186"/>
+      <c r="I303" s="186"/>
+      <c r="J303" s="186"/>
+      <c r="K303" s="186"/>
+      <c r="L303" s="187"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7444,83 +7444,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="182" t="s">
+      <c r="B306" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="183"/>
-      <c r="D306" s="183"/>
-      <c r="E306" s="183"/>
-      <c r="F306" s="183"/>
-      <c r="G306" s="183"/>
-      <c r="H306" s="183"/>
-      <c r="I306" s="183"/>
-      <c r="J306" s="183"/>
-      <c r="K306" s="183"/>
-      <c r="L306" s="184"/>
+      <c r="C306" s="180"/>
+      <c r="D306" s="180"/>
+      <c r="E306" s="180"/>
+      <c r="F306" s="180"/>
+      <c r="G306" s="180"/>
+      <c r="H306" s="180"/>
+      <c r="I306" s="180"/>
+      <c r="J306" s="180"/>
+      <c r="K306" s="180"/>
+      <c r="L306" s="181"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="185"/>
-      <c r="C307" s="186"/>
-      <c r="D307" s="186"/>
-      <c r="E307" s="186"/>
-      <c r="F307" s="186"/>
-      <c r="G307" s="186"/>
-      <c r="H307" s="186"/>
-      <c r="I307" s="186"/>
-      <c r="J307" s="186"/>
-      <c r="K307" s="186"/>
-      <c r="L307" s="187"/>
+      <c r="B307" s="182"/>
+      <c r="C307" s="183"/>
+      <c r="D307" s="183"/>
+      <c r="E307" s="183"/>
+      <c r="F307" s="183"/>
+      <c r="G307" s="183"/>
+      <c r="H307" s="183"/>
+      <c r="I307" s="183"/>
+      <c r="J307" s="183"/>
+      <c r="K307" s="183"/>
+      <c r="L307" s="184"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="185"/>
-      <c r="C308" s="186"/>
-      <c r="D308" s="186"/>
-      <c r="E308" s="186"/>
-      <c r="F308" s="186"/>
-      <c r="G308" s="186"/>
-      <c r="H308" s="186"/>
-      <c r="I308" s="186"/>
-      <c r="J308" s="186"/>
-      <c r="K308" s="186"/>
-      <c r="L308" s="187"/>
+      <c r="B308" s="182"/>
+      <c r="C308" s="183"/>
+      <c r="D308" s="183"/>
+      <c r="E308" s="183"/>
+      <c r="F308" s="183"/>
+      <c r="G308" s="183"/>
+      <c r="H308" s="183"/>
+      <c r="I308" s="183"/>
+      <c r="J308" s="183"/>
+      <c r="K308" s="183"/>
+      <c r="L308" s="184"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="185"/>
-      <c r="C309" s="186"/>
-      <c r="D309" s="186"/>
-      <c r="E309" s="186"/>
-      <c r="F309" s="186"/>
-      <c r="G309" s="186"/>
-      <c r="H309" s="186"/>
-      <c r="I309" s="186"/>
-      <c r="J309" s="186"/>
-      <c r="K309" s="186"/>
-      <c r="L309" s="187"/>
+      <c r="B309" s="182"/>
+      <c r="C309" s="183"/>
+      <c r="D309" s="183"/>
+      <c r="E309" s="183"/>
+      <c r="F309" s="183"/>
+      <c r="G309" s="183"/>
+      <c r="H309" s="183"/>
+      <c r="I309" s="183"/>
+      <c r="J309" s="183"/>
+      <c r="K309" s="183"/>
+      <c r="L309" s="184"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="188"/>
-      <c r="C310" s="189"/>
-      <c r="D310" s="189"/>
-      <c r="E310" s="189"/>
-      <c r="F310" s="189"/>
-      <c r="G310" s="189"/>
-      <c r="H310" s="189"/>
-      <c r="I310" s="189"/>
-      <c r="J310" s="189"/>
-      <c r="K310" s="189"/>
-      <c r="L310" s="190"/>
+      <c r="B310" s="185"/>
+      <c r="C310" s="186"/>
+      <c r="D310" s="186"/>
+      <c r="E310" s="186"/>
+      <c r="F310" s="186"/>
+      <c r="G310" s="186"/>
+      <c r="H310" s="186"/>
+      <c r="I310" s="186"/>
+      <c r="J310" s="186"/>
+      <c r="K310" s="186"/>
+      <c r="L310" s="187"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7700,83 +7700,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="182" t="s">
+      <c r="B321" s="179" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="183"/>
-      <c r="D321" s="183"/>
-      <c r="E321" s="183"/>
-      <c r="F321" s="183"/>
-      <c r="G321" s="183"/>
-      <c r="H321" s="183"/>
-      <c r="I321" s="183"/>
-      <c r="J321" s="183"/>
-      <c r="K321" s="183"/>
-      <c r="L321" s="184"/>
+      <c r="C321" s="180"/>
+      <c r="D321" s="180"/>
+      <c r="E321" s="180"/>
+      <c r="F321" s="180"/>
+      <c r="G321" s="180"/>
+      <c r="H321" s="180"/>
+      <c r="I321" s="180"/>
+      <c r="J321" s="180"/>
+      <c r="K321" s="180"/>
+      <c r="L321" s="181"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="185"/>
-      <c r="C322" s="186"/>
-      <c r="D322" s="186"/>
-      <c r="E322" s="186"/>
-      <c r="F322" s="186"/>
-      <c r="G322" s="186"/>
-      <c r="H322" s="186"/>
-      <c r="I322" s="186"/>
-      <c r="J322" s="186"/>
-      <c r="K322" s="186"/>
-      <c r="L322" s="187"/>
+      <c r="B322" s="182"/>
+      <c r="C322" s="183"/>
+      <c r="D322" s="183"/>
+      <c r="E322" s="183"/>
+      <c r="F322" s="183"/>
+      <c r="G322" s="183"/>
+      <c r="H322" s="183"/>
+      <c r="I322" s="183"/>
+      <c r="J322" s="183"/>
+      <c r="K322" s="183"/>
+      <c r="L322" s="184"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="185"/>
-      <c r="C323" s="186"/>
-      <c r="D323" s="186"/>
-      <c r="E323" s="186"/>
-      <c r="F323" s="186"/>
-      <c r="G323" s="186"/>
-      <c r="H323" s="186"/>
-      <c r="I323" s="186"/>
-      <c r="J323" s="186"/>
-      <c r="K323" s="186"/>
-      <c r="L323" s="187"/>
+      <c r="B323" s="182"/>
+      <c r="C323" s="183"/>
+      <c r="D323" s="183"/>
+      <c r="E323" s="183"/>
+      <c r="F323" s="183"/>
+      <c r="G323" s="183"/>
+      <c r="H323" s="183"/>
+      <c r="I323" s="183"/>
+      <c r="J323" s="183"/>
+      <c r="K323" s="183"/>
+      <c r="L323" s="184"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="185"/>
-      <c r="C324" s="186"/>
-      <c r="D324" s="186"/>
-      <c r="E324" s="186"/>
-      <c r="F324" s="186"/>
-      <c r="G324" s="186"/>
-      <c r="H324" s="186"/>
-      <c r="I324" s="186"/>
-      <c r="J324" s="186"/>
-      <c r="K324" s="186"/>
-      <c r="L324" s="187"/>
+      <c r="B324" s="182"/>
+      <c r="C324" s="183"/>
+      <c r="D324" s="183"/>
+      <c r="E324" s="183"/>
+      <c r="F324" s="183"/>
+      <c r="G324" s="183"/>
+      <c r="H324" s="183"/>
+      <c r="I324" s="183"/>
+      <c r="J324" s="183"/>
+      <c r="K324" s="183"/>
+      <c r="L324" s="184"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="188"/>
-      <c r="C325" s="189"/>
-      <c r="D325" s="189"/>
-      <c r="E325" s="189"/>
-      <c r="F325" s="189"/>
-      <c r="G325" s="189"/>
-      <c r="H325" s="189"/>
-      <c r="I325" s="189"/>
-      <c r="J325" s="189"/>
-      <c r="K325" s="189"/>
-      <c r="L325" s="190"/>
+      <c r="B325" s="185"/>
+      <c r="C325" s="186"/>
+      <c r="D325" s="186"/>
+      <c r="E325" s="186"/>
+      <c r="F325" s="186"/>
+      <c r="G325" s="186"/>
+      <c r="H325" s="186"/>
+      <c r="I325" s="186"/>
+      <c r="J325" s="186"/>
+      <c r="K325" s="186"/>
+      <c r="L325" s="187"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7798,19 +7798,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="271" t="s">
+      <c r="B327" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="271"/>
-      <c r="D327" s="271"/>
-      <c r="E327" s="271"/>
-      <c r="F327" s="271"/>
-      <c r="G327" s="271"/>
-      <c r="H327" s="271"/>
-      <c r="I327" s="271"/>
-      <c r="J327" s="271"/>
-      <c r="K327" s="271"/>
-      <c r="L327" s="271"/>
+      <c r="C327" s="178"/>
+      <c r="D327" s="178"/>
+      <c r="E327" s="178"/>
+      <c r="F327" s="178"/>
+      <c r="G327" s="178"/>
+      <c r="H327" s="178"/>
+      <c r="I327" s="178"/>
+      <c r="J327" s="178"/>
+      <c r="K327" s="178"/>
+      <c r="L327" s="178"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7925,79 +7925,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="272" t="s">
+      <c r="B335" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="273"/>
-      <c r="D335" s="273"/>
-      <c r="E335" s="273"/>
-      <c r="F335" s="273"/>
-      <c r="G335" s="273"/>
-      <c r="H335" s="273"/>
-      <c r="I335" s="273"/>
-      <c r="J335" s="273"/>
-      <c r="K335" s="273"/>
-      <c r="L335" s="274"/>
+      <c r="C335" s="189"/>
+      <c r="D335" s="189"/>
+      <c r="E335" s="189"/>
+      <c r="F335" s="189"/>
+      <c r="G335" s="189"/>
+      <c r="H335" s="189"/>
+      <c r="I335" s="189"/>
+      <c r="J335" s="189"/>
+      <c r="K335" s="189"/>
+      <c r="L335" s="190"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="275"/>
-      <c r="C336" s="276"/>
-      <c r="D336" s="276"/>
-      <c r="E336" s="276"/>
-      <c r="F336" s="276"/>
-      <c r="G336" s="276"/>
-      <c r="H336" s="276"/>
-      <c r="I336" s="276"/>
-      <c r="J336" s="276"/>
-      <c r="K336" s="276"/>
-      <c r="L336" s="277"/>
+      <c r="B336" s="191"/>
+      <c r="C336" s="192"/>
+      <c r="D336" s="192"/>
+      <c r="E336" s="192"/>
+      <c r="F336" s="192"/>
+      <c r="G336" s="192"/>
+      <c r="H336" s="192"/>
+      <c r="I336" s="192"/>
+      <c r="J336" s="192"/>
+      <c r="K336" s="192"/>
+      <c r="L336" s="193"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="275"/>
-      <c r="C337" s="276"/>
-      <c r="D337" s="276"/>
-      <c r="E337" s="276"/>
-      <c r="F337" s="276"/>
-      <c r="G337" s="276"/>
-      <c r="H337" s="276"/>
-      <c r="I337" s="276"/>
-      <c r="J337" s="276"/>
-      <c r="K337" s="276"/>
-      <c r="L337" s="277"/>
+      <c r="B337" s="191"/>
+      <c r="C337" s="192"/>
+      <c r="D337" s="192"/>
+      <c r="E337" s="192"/>
+      <c r="F337" s="192"/>
+      <c r="G337" s="192"/>
+      <c r="H337" s="192"/>
+      <c r="I337" s="192"/>
+      <c r="J337" s="192"/>
+      <c r="K337" s="192"/>
+      <c r="L337" s="193"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="275"/>
-      <c r="C338" s="276"/>
-      <c r="D338" s="276"/>
-      <c r="E338" s="276"/>
-      <c r="F338" s="276"/>
-      <c r="G338" s="276"/>
-      <c r="H338" s="276"/>
-      <c r="I338" s="276"/>
-      <c r="J338" s="276"/>
-      <c r="K338" s="276"/>
-      <c r="L338" s="277"/>
+      <c r="B338" s="191"/>
+      <c r="C338" s="192"/>
+      <c r="D338" s="192"/>
+      <c r="E338" s="192"/>
+      <c r="F338" s="192"/>
+      <c r="G338" s="192"/>
+      <c r="H338" s="192"/>
+      <c r="I338" s="192"/>
+      <c r="J338" s="192"/>
+      <c r="K338" s="192"/>
+      <c r="L338" s="193"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="278"/>
-      <c r="C339" s="279"/>
-      <c r="D339" s="279"/>
-      <c r="E339" s="279"/>
-      <c r="F339" s="279"/>
-      <c r="G339" s="279"/>
-      <c r="H339" s="279"/>
-      <c r="I339" s="279"/>
-      <c r="J339" s="279"/>
-      <c r="K339" s="279"/>
-      <c r="L339" s="280"/>
+      <c r="B339" s="194"/>
+      <c r="C339" s="195"/>
+      <c r="D339" s="195"/>
+      <c r="E339" s="195"/>
+      <c r="F339" s="195"/>
+      <c r="G339" s="195"/>
+      <c r="H339" s="195"/>
+      <c r="I339" s="195"/>
+      <c r="J339" s="195"/>
+      <c r="K339" s="195"/>
+      <c r="L339" s="196"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8017,19 +8017,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="271" t="s">
+      <c r="B341" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="271"/>
-      <c r="D341" s="271"/>
-      <c r="E341" s="271"/>
-      <c r="F341" s="271"/>
-      <c r="G341" s="271"/>
-      <c r="H341" s="271"/>
-      <c r="I341" s="271"/>
-      <c r="J341" s="271"/>
-      <c r="K341" s="271"/>
-      <c r="L341" s="271"/>
+      <c r="C341" s="178"/>
+      <c r="D341" s="178"/>
+      <c r="E341" s="178"/>
+      <c r="F341" s="178"/>
+      <c r="G341" s="178"/>
+      <c r="H341" s="178"/>
+      <c r="I341" s="178"/>
+      <c r="J341" s="178"/>
+      <c r="K341" s="178"/>
+      <c r="L341" s="178"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8078,12 +8078,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="192" t="s">
+      <c r="B345" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="192"/>
-      <c r="D345" s="192"/>
-      <c r="E345" s="192"/>
+      <c r="C345" s="175"/>
+      <c r="D345" s="175"/>
+      <c r="E345" s="175"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8106,12 +8106,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="192" t="s">
+      <c r="B347" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="192"/>
-      <c r="D347" s="192"/>
-      <c r="E347" s="192"/>
+      <c r="C347" s="175"/>
+      <c r="D347" s="175"/>
+      <c r="E347" s="175"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8136,13 +8136,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="192" t="s">
+      <c r="B349" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="192"/>
-      <c r="D349" s="192"/>
-      <c r="E349" s="192"/>
-      <c r="F349" s="167"/>
+      <c r="C349" s="175"/>
+      <c r="D349" s="175"/>
+      <c r="E349" s="175"/>
+      <c r="F349" s="177"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8165,13 +8165,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="192" t="s">
+      <c r="B351" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="192"/>
-      <c r="D351" s="192"/>
-      <c r="E351" s="192"/>
-      <c r="F351" s="167"/>
+      <c r="C351" s="175"/>
+      <c r="D351" s="175"/>
+      <c r="E351" s="175"/>
+      <c r="F351" s="177"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8194,13 +8194,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="192" t="s">
+      <c r="B353" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="192"/>
-      <c r="D353" s="192"/>
-      <c r="E353" s="192"/>
-      <c r="F353" s="167"/>
+      <c r="C353" s="175"/>
+      <c r="D353" s="175"/>
+      <c r="E353" s="175"/>
+      <c r="F353" s="177"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8272,83 +8272,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="182" t="s">
+      <c r="B358" s="179" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="183"/>
-      <c r="D358" s="183"/>
-      <c r="E358" s="183"/>
-      <c r="F358" s="183"/>
-      <c r="G358" s="183"/>
-      <c r="H358" s="183"/>
-      <c r="I358" s="183"/>
-      <c r="J358" s="183"/>
-      <c r="K358" s="183"/>
-      <c r="L358" s="184"/>
+      <c r="C358" s="180"/>
+      <c r="D358" s="180"/>
+      <c r="E358" s="180"/>
+      <c r="F358" s="180"/>
+      <c r="G358" s="180"/>
+      <c r="H358" s="180"/>
+      <c r="I358" s="180"/>
+      <c r="J358" s="180"/>
+      <c r="K358" s="180"/>
+      <c r="L358" s="181"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="185"/>
-      <c r="C359" s="186"/>
-      <c r="D359" s="186"/>
-      <c r="E359" s="186"/>
-      <c r="F359" s="186"/>
-      <c r="G359" s="186"/>
-      <c r="H359" s="186"/>
-      <c r="I359" s="186"/>
-      <c r="J359" s="186"/>
-      <c r="K359" s="186"/>
-      <c r="L359" s="187"/>
+      <c r="B359" s="182"/>
+      <c r="C359" s="183"/>
+      <c r="D359" s="183"/>
+      <c r="E359" s="183"/>
+      <c r="F359" s="183"/>
+      <c r="G359" s="183"/>
+      <c r="H359" s="183"/>
+      <c r="I359" s="183"/>
+      <c r="J359" s="183"/>
+      <c r="K359" s="183"/>
+      <c r="L359" s="184"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="185"/>
-      <c r="C360" s="186"/>
-      <c r="D360" s="186"/>
-      <c r="E360" s="186"/>
-      <c r="F360" s="186"/>
-      <c r="G360" s="186"/>
-      <c r="H360" s="186"/>
-      <c r="I360" s="186"/>
-      <c r="J360" s="186"/>
-      <c r="K360" s="186"/>
-      <c r="L360" s="187"/>
+      <c r="B360" s="182"/>
+      <c r="C360" s="183"/>
+      <c r="D360" s="183"/>
+      <c r="E360" s="183"/>
+      <c r="F360" s="183"/>
+      <c r="G360" s="183"/>
+      <c r="H360" s="183"/>
+      <c r="I360" s="183"/>
+      <c r="J360" s="183"/>
+      <c r="K360" s="183"/>
+      <c r="L360" s="184"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="185"/>
-      <c r="C361" s="186"/>
-      <c r="D361" s="186"/>
-      <c r="E361" s="186"/>
-      <c r="F361" s="186"/>
-      <c r="G361" s="186"/>
-      <c r="H361" s="186"/>
-      <c r="I361" s="186"/>
-      <c r="J361" s="186"/>
-      <c r="K361" s="186"/>
-      <c r="L361" s="187"/>
+      <c r="B361" s="182"/>
+      <c r="C361" s="183"/>
+      <c r="D361" s="183"/>
+      <c r="E361" s="183"/>
+      <c r="F361" s="183"/>
+      <c r="G361" s="183"/>
+      <c r="H361" s="183"/>
+      <c r="I361" s="183"/>
+      <c r="J361" s="183"/>
+      <c r="K361" s="183"/>
+      <c r="L361" s="184"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="188"/>
-      <c r="C362" s="189"/>
-      <c r="D362" s="189"/>
-      <c r="E362" s="189"/>
-      <c r="F362" s="189"/>
-      <c r="G362" s="189"/>
-      <c r="H362" s="189"/>
-      <c r="I362" s="189"/>
-      <c r="J362" s="189"/>
-      <c r="K362" s="189"/>
-      <c r="L362" s="190"/>
+      <c r="B362" s="185"/>
+      <c r="C362" s="186"/>
+      <c r="D362" s="186"/>
+      <c r="E362" s="186"/>
+      <c r="F362" s="186"/>
+      <c r="G362" s="186"/>
+      <c r="H362" s="186"/>
+      <c r="I362" s="186"/>
+      <c r="J362" s="186"/>
+      <c r="K362" s="186"/>
+      <c r="L362" s="187"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8423,28 +8423,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="256" t="s">
+      <c r="B367" s="201" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="257"/>
-      <c r="D367" s="246" t="s">
+      <c r="C367" s="202"/>
+      <c r="D367" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="247"/>
-      <c r="F367" s="247"/>
-      <c r="G367" s="247"/>
-      <c r="H367" s="247"/>
-      <c r="I367" s="247"/>
-      <c r="J367" s="247"/>
-      <c r="K367" s="247"/>
-      <c r="L367" s="248"/>
+      <c r="E367" s="197"/>
+      <c r="F367" s="197"/>
+      <c r="G367" s="197"/>
+      <c r="H367" s="197"/>
+      <c r="I367" s="197"/>
+      <c r="J367" s="197"/>
+      <c r="K367" s="197"/>
+      <c r="L367" s="174"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="246"/>
-      <c r="C368" s="248"/>
+      <c r="B368" s="173"/>
+      <c r="C368" s="174"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8459,19 +8459,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="191" t="s">
+      <c r="B369" s="232" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="191"/>
-      <c r="D369" s="191"/>
-      <c r="E369" s="191"/>
-      <c r="F369" s="191"/>
-      <c r="G369" s="191"/>
-      <c r="H369" s="191"/>
-      <c r="I369" s="191"/>
-      <c r="J369" s="191"/>
-      <c r="K369" s="191"/>
-      <c r="L369" s="191"/>
+      <c r="C369" s="232"/>
+      <c r="D369" s="232"/>
+      <c r="E369" s="232"/>
+      <c r="F369" s="232"/>
+      <c r="G369" s="232"/>
+      <c r="H369" s="232"/>
+      <c r="I369" s="232"/>
+      <c r="J369" s="232"/>
+      <c r="K369" s="232"/>
+      <c r="L369" s="232"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8559,20 +8559,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="235" t="s">
+      <c r="C375" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="235"/>
-      <c r="E375" s="236" t="s">
+      <c r="D375" s="208"/>
+      <c r="E375" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="236"/>
-      <c r="G375" s="236"/>
-      <c r="H375" s="236" t="s">
+      <c r="F375" s="207"/>
+      <c r="G375" s="207"/>
+      <c r="H375" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="236"/>
-      <c r="J375" s="236"/>
+      <c r="I375" s="207"/>
+      <c r="J375" s="207"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8582,14 +8582,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="235"/>
-      <c r="D376" s="235"/>
-      <c r="E376" s="236"/>
-      <c r="F376" s="236"/>
-      <c r="G376" s="236"/>
-      <c r="H376" s="236"/>
-      <c r="I376" s="236"/>
-      <c r="J376" s="236"/>
+      <c r="C376" s="208"/>
+      <c r="D376" s="208"/>
+      <c r="E376" s="207"/>
+      <c r="F376" s="207"/>
+      <c r="G376" s="207"/>
+      <c r="H376" s="207"/>
+      <c r="I376" s="207"/>
+      <c r="J376" s="207"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8599,14 +8599,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="235"/>
-      <c r="D377" s="235"/>
-      <c r="E377" s="236"/>
-      <c r="F377" s="236"/>
-      <c r="G377" s="236"/>
-      <c r="H377" s="236"/>
-      <c r="I377" s="236"/>
-      <c r="J377" s="236"/>
+      <c r="C377" s="208"/>
+      <c r="D377" s="208"/>
+      <c r="E377" s="207"/>
+      <c r="F377" s="207"/>
+      <c r="G377" s="207"/>
+      <c r="H377" s="207"/>
+      <c r="I377" s="207"/>
+      <c r="J377" s="207"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8616,14 +8616,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="235"/>
-      <c r="D378" s="235"/>
-      <c r="E378" s="236"/>
-      <c r="F378" s="236"/>
-      <c r="G378" s="236"/>
-      <c r="H378" s="236"/>
-      <c r="I378" s="236"/>
-      <c r="J378" s="236"/>
+      <c r="C378" s="208"/>
+      <c r="D378" s="208"/>
+      <c r="E378" s="207"/>
+      <c r="F378" s="207"/>
+      <c r="G378" s="207"/>
+      <c r="H378" s="207"/>
+      <c r="I378" s="207"/>
+      <c r="J378" s="207"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8633,14 +8633,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="235"/>
-      <c r="D379" s="235"/>
-      <c r="E379" s="236"/>
-      <c r="F379" s="236"/>
-      <c r="G379" s="236"/>
-      <c r="H379" s="236"/>
-      <c r="I379" s="236"/>
-      <c r="J379" s="236"/>
+      <c r="C379" s="208"/>
+      <c r="D379" s="208"/>
+      <c r="E379" s="207"/>
+      <c r="F379" s="207"/>
+      <c r="G379" s="207"/>
+      <c r="H379" s="207"/>
+      <c r="I379" s="207"/>
+      <c r="J379" s="207"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8650,14 +8650,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="235"/>
-      <c r="D380" s="235"/>
-      <c r="E380" s="236"/>
-      <c r="F380" s="236"/>
-      <c r="G380" s="236"/>
-      <c r="H380" s="236"/>
-      <c r="I380" s="236"/>
-      <c r="J380" s="236"/>
+      <c r="C380" s="208"/>
+      <c r="D380" s="208"/>
+      <c r="E380" s="207"/>
+      <c r="F380" s="207"/>
+      <c r="G380" s="207"/>
+      <c r="H380" s="207"/>
+      <c r="I380" s="207"/>
+      <c r="J380" s="207"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8667,14 +8667,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="235"/>
-      <c r="D381" s="235"/>
-      <c r="E381" s="236"/>
-      <c r="F381" s="236"/>
-      <c r="G381" s="236"/>
-      <c r="H381" s="236"/>
-      <c r="I381" s="236"/>
-      <c r="J381" s="236"/>
+      <c r="C381" s="208"/>
+      <c r="D381" s="208"/>
+      <c r="E381" s="207"/>
+      <c r="F381" s="207"/>
+      <c r="G381" s="207"/>
+      <c r="H381" s="207"/>
+      <c r="I381" s="207"/>
+      <c r="J381" s="207"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8684,14 +8684,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="235"/>
-      <c r="D382" s="235"/>
-      <c r="E382" s="236"/>
-      <c r="F382" s="236"/>
-      <c r="G382" s="236"/>
-      <c r="H382" s="236"/>
-      <c r="I382" s="236"/>
-      <c r="J382" s="236"/>
+      <c r="C382" s="208"/>
+      <c r="D382" s="208"/>
+      <c r="E382" s="207"/>
+      <c r="F382" s="207"/>
+      <c r="G382" s="207"/>
+      <c r="H382" s="207"/>
+      <c r="I382" s="207"/>
+      <c r="J382" s="207"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8816,10 +8816,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="235" t="s">
+      <c r="C392" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="235"/>
+      <c r="D392" s="208"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8827,43 +8827,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="164" t="s">
+      <c r="B393" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="164" t="s">
+      <c r="C393" s="222" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="164" t="s">
+      <c r="D393" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="164" t="s">
+      <c r="E393" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="237" t="s">
+      <c r="F393" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="237" t="s">
+      <c r="G393" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="237" t="s">
+      <c r="H393" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="236" t="s">
+      <c r="I393" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="236"/>
+      <c r="J393" s="207"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="164"/>
-      <c r="C394" s="164"/>
-      <c r="D394" s="164"/>
-      <c r="E394" s="164"/>
-      <c r="F394" s="238"/>
-      <c r="G394" s="238"/>
-      <c r="H394" s="238"/>
+      <c r="B394" s="222"/>
+      <c r="C394" s="222"/>
+      <c r="D394" s="222"/>
+      <c r="E394" s="222"/>
+      <c r="F394" s="224"/>
+      <c r="G394" s="224"/>
+      <c r="H394" s="224"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9168,21 +9168,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="171" t="s">
+      <c r="B414" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="173"/>
-      <c r="D414" s="171" t="s">
+      <c r="C414" s="218"/>
+      <c r="D414" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="172"/>
-      <c r="F414" s="172"/>
-      <c r="G414" s="172"/>
-      <c r="H414" s="172"/>
-      <c r="I414" s="172"/>
-      <c r="J414" s="173"/>
+      <c r="E414" s="217"/>
+      <c r="F414" s="217"/>
+      <c r="G414" s="217"/>
+      <c r="H414" s="217"/>
+      <c r="I414" s="217"/>
+      <c r="J414" s="218"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="237" t="s">
+      <c r="L414" s="223" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="238"/>
+      <c r="L415" s="224"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9462,23 +9462,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="171" t="s">
+      <c r="B431" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="173"/>
-      <c r="D431" s="245" t="s">
+      <c r="C431" s="218"/>
+      <c r="D431" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="171" t="s">
+      <c r="E431" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="172"/>
-      <c r="G431" s="172"/>
-      <c r="H431" s="172"/>
-      <c r="I431" s="172"/>
-      <c r="J431" s="173"/>
+      <c r="F431" s="217"/>
+      <c r="G431" s="217"/>
+      <c r="H431" s="217"/>
+      <c r="I431" s="217"/>
+      <c r="J431" s="218"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="237" t="s">
+      <c r="L431" s="223" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="235"/>
+      <c r="D432" s="208"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="238"/>
+      <c r="L432" s="224"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9698,26 +9698,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="251" t="s">
+      <c r="B445" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="252"/>
-      <c r="D445" s="171" t="s">
+      <c r="C445" s="213"/>
+      <c r="D445" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="172"/>
-      <c r="F445" s="172"/>
-      <c r="G445" s="172"/>
-      <c r="H445" s="172"/>
-      <c r="I445" s="172"/>
-      <c r="J445" s="173"/>
+      <c r="E445" s="217"/>
+      <c r="F445" s="217"/>
+      <c r="G445" s="217"/>
+      <c r="H445" s="217"/>
+      <c r="I445" s="217"/>
+      <c r="J445" s="218"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="255"/>
+      <c r="L445" s="219"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="253"/>
-      <c r="C446" s="254"/>
+      <c r="B446" s="214"/>
+      <c r="C446" s="215"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9740,14 +9740,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="255"/>
+      <c r="L446" s="219"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="246" t="s">
+      <c r="B447" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="248"/>
+      <c r="C447" s="174"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9759,10 +9759,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="246" t="s">
+      <c r="B448" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="248"/>
+      <c r="C448" s="174"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9774,10 +9774,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="246" t="s">
+      <c r="B449" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="248"/>
+      <c r="C449" s="174"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="171" t="s">
+      <c r="B450" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="173"/>
+      <c r="C450" s="218"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10128,18 +10128,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="242" t="s">
+      <c r="C472" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="D472" s="243"/>
-      <c r="E472" s="243"/>
-      <c r="F472" s="243"/>
-      <c r="G472" s="243"/>
-      <c r="H472" s="243"/>
-      <c r="I472" s="243"/>
-      <c r="J472" s="243"/>
-      <c r="K472" s="243"/>
-      <c r="L472" s="244"/>
+      <c r="D472" s="229"/>
+      <c r="E472" s="229"/>
+      <c r="F472" s="229"/>
+      <c r="G472" s="229"/>
+      <c r="H472" s="229"/>
+      <c r="I472" s="229"/>
+      <c r="J472" s="229"/>
+      <c r="K472" s="229"/>
+      <c r="L472" s="230"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10175,10 +10175,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="235" t="s">
+      <c r="C475" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="235"/>
+      <c r="D475" s="208"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10190,43 +10190,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="164" t="s">
+      <c r="B476" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="164" t="s">
+      <c r="C476" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="164" t="s">
+      <c r="D476" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="164" t="s">
+      <c r="E476" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="237" t="s">
+      <c r="F476" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="237" t="s">
+      <c r="G476" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="237" t="s">
+      <c r="H476" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="239" t="s">
+      <c r="I476" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="240"/>
-      <c r="K476" s="240"/>
-      <c r="L476" s="241"/>
+      <c r="J476" s="226"/>
+      <c r="K476" s="226"/>
+      <c r="L476" s="227"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="164"/>
-      <c r="C477" s="164"/>
-      <c r="D477" s="164"/>
-      <c r="E477" s="164"/>
-      <c r="F477" s="238"/>
-      <c r="G477" s="238"/>
-      <c r="H477" s="238"/>
+      <c r="B477" s="222"/>
+      <c r="C477" s="222"/>
+      <c r="D477" s="222"/>
+      <c r="E477" s="222"/>
+      <c r="F477" s="224"/>
+      <c r="G477" s="224"/>
+      <c r="H477" s="224"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10260,22 +10260,22 @@
         <v>268.70999999999998</v>
       </c>
       <c r="H478" s="127">
-        <f>152424.6+63017.78</f>
-        <v>215442.38</v>
+        <f>161933.6+63017.78</f>
+        <v>224951.38</v>
       </c>
       <c r="J478" s="140">
         <f>N478/2</f>
-        <v>107721.19</v>
+        <v>112475.69</v>
       </c>
       <c r="K478" s="140">
         <f>+H478/2</f>
-        <v>107721.19</v>
+        <v>112475.69</v>
       </c>
       <c r="L478" s="140"/>
       <c r="M478" s="79"/>
       <c r="N478" s="139">
         <f>H478</f>
-        <v>215442.38</v>
+        <v>224951.38</v>
       </c>
     </row>
     <row r="479" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10369,10 +10369,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="258" t="s">
+      <c r="F484" s="203" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="258"/>
+      <c r="G484" s="203"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10391,10 +10391,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="259" t="s">
+      <c r="F485" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="259"/>
+      <c r="G485" s="204"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10435,10 +10435,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="259" t="s">
+      <c r="F487" s="204" t="s">
         <v>195</v>
       </c>
-      <c r="G487" s="259"/>
+      <c r="G487" s="204"/>
       <c r="H487" s="127">
         <v>17290.75</v>
       </c>
@@ -10457,13 +10457,13 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="250" t="s">
+      <c r="F488" s="211" t="s">
         <v>196</v>
       </c>
-      <c r="G488" s="250"/>
+      <c r="G488" s="211"/>
       <c r="H488" s="138">
         <f>SUM(H478:H487)+0.01</f>
-        <v>283158.7</v>
+        <v>292667.7</v>
       </c>
       <c r="I488" s="102"/>
       <c r="J488" s="102"/>
@@ -10605,27 +10605,27 @@
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="251" t="s">
+      <c r="B497" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="C497" s="252"/>
-      <c r="D497" s="171" t="s">
+      <c r="C497" s="213"/>
+      <c r="D497" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E497" s="172"/>
-      <c r="F497" s="172"/>
-      <c r="G497" s="172"/>
-      <c r="H497" s="172"/>
-      <c r="I497" s="172"/>
-      <c r="J497" s="173"/>
+      <c r="E497" s="217"/>
+      <c r="F497" s="217"/>
+      <c r="G497" s="217"/>
+      <c r="H497" s="217"/>
+      <c r="I497" s="217"/>
+      <c r="J497" s="218"/>
       <c r="K497" s="21"/>
-      <c r="L497" s="255"/>
+      <c r="L497" s="219"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="253"/>
-      <c r="C498" s="254"/>
+      <c r="B498" s="214"/>
+      <c r="C498" s="215"/>
       <c r="D498" s="74">
         <v>1</v>
       </c>
@@ -10648,15 +10648,15 @@
         <v>10</v>
       </c>
       <c r="K498" s="21"/>
-      <c r="L498" s="255"/>
+      <c r="L498" s="219"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="229" t="s">
+      <c r="B499" s="220" t="s">
         <v>334</v>
       </c>
-      <c r="C499" s="231"/>
+      <c r="C499" s="221"/>
       <c r="D499" s="102"/>
       <c r="E499" s="142">
         <v>3500</v>
@@ -10678,10 +10678,10 @@
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="246" t="s">
+      <c r="B500" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C500" s="248"/>
+      <c r="C500" s="174"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10695,10 +10695,10 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
-      <c r="B501" s="246" t="s">
+      <c r="B501" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C501" s="248"/>
+      <c r="C501" s="174"/>
       <c r="D501" s="81"/>
       <c r="E501" s="81"/>
       <c r="F501" s="81"/>
@@ -10712,9 +10712,9 @@
     </row>
     <row r="502" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="78"/>
-      <c r="B502" s="262"/>
-      <c r="C502" s="262"/>
-      <c r="D502" s="262"/>
+      <c r="B502" s="164"/>
+      <c r="C502" s="164"/>
+      <c r="D502" s="164"/>
       <c r="E502" s="39"/>
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
@@ -11137,12 +11137,12 @@
       <c r="L529" s="79"/>
     </row>
     <row r="530" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="201" t="s">
+      <c r="A530" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="B530" s="201"/>
-      <c r="C530" s="201"/>
-      <c r="D530" s="201"/>
+      <c r="B530" s="209"/>
+      <c r="C530" s="209"/>
+      <c r="D530" s="209"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
       <c r="K530" s="151"/>
@@ -11220,36 +11220,36 @@
       <c r="K535" s="150"/>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A536" s="249" t="s">
+      <c r="A536" s="210" t="s">
         <v>248</v>
       </c>
-      <c r="B536" s="249"/>
-      <c r="C536" s="249"/>
-      <c r="D536" s="249"/>
-      <c r="E536" s="249"/>
-      <c r="F536" s="249"/>
-      <c r="G536" s="249"/>
-      <c r="H536" s="249"/>
-      <c r="I536" s="249"/>
-      <c r="J536" s="249"/>
-      <c r="K536" s="249"/>
-      <c r="L536" s="249"/>
+      <c r="B536" s="210"/>
+      <c r="C536" s="210"/>
+      <c r="D536" s="210"/>
+      <c r="E536" s="210"/>
+      <c r="F536" s="210"/>
+      <c r="G536" s="210"/>
+      <c r="H536" s="210"/>
+      <c r="I536" s="210"/>
+      <c r="J536" s="210"/>
+      <c r="K536" s="210"/>
+      <c r="L536" s="210"/>
     </row>
     <row r="537" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="249" t="s">
+      <c r="A537" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="B537" s="249"/>
-      <c r="C537" s="249"/>
-      <c r="D537" s="249"/>
-      <c r="E537" s="249"/>
-      <c r="F537" s="249"/>
-      <c r="G537" s="249"/>
-      <c r="H537" s="249"/>
-      <c r="I537" s="249"/>
-      <c r="J537" s="249"/>
-      <c r="K537" s="249"/>
-      <c r="L537" s="249"/>
+      <c r="B537" s="210"/>
+      <c r="C537" s="210"/>
+      <c r="D537" s="210"/>
+      <c r="E537" s="210"/>
+      <c r="F537" s="210"/>
+      <c r="G537" s="210"/>
+      <c r="H537" s="210"/>
+      <c r="I537" s="210"/>
+      <c r="J537" s="210"/>
+      <c r="K537" s="210"/>
+      <c r="L537" s="210"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A538" s="79"/>
@@ -11280,20 +11280,20 @@
       <c r="K539" s="150"/>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A540" s="249" t="s">
+      <c r="A540" s="210" t="s">
         <v>250</v>
       </c>
-      <c r="B540" s="249"/>
-      <c r="C540" s="249"/>
-      <c r="D540" s="249"/>
-      <c r="E540" s="249"/>
-      <c r="F540" s="249"/>
-      <c r="G540" s="249"/>
-      <c r="H540" s="249"/>
-      <c r="I540" s="249"/>
-      <c r="J540" s="249"/>
-      <c r="K540" s="249"/>
-      <c r="L540" s="249"/>
+      <c r="B540" s="210"/>
+      <c r="C540" s="210"/>
+      <c r="D540" s="210"/>
+      <c r="E540" s="210"/>
+      <c r="F540" s="210"/>
+      <c r="G540" s="210"/>
+      <c r="H540" s="210"/>
+      <c r="I540" s="210"/>
+      <c r="J540" s="210"/>
+      <c r="K540" s="210"/>
+      <c r="L540" s="210"/>
     </row>
     <row r="541" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="78"/>
@@ -11309,6 +11309,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B369:L369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:L216"/>
+    <mergeCell ref="B126:L126"/>
+    <mergeCell ref="B129:L129"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:L123"/>
+    <mergeCell ref="B193:L197"/>
+    <mergeCell ref="B200:L204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A537:L537"/>
+    <mergeCell ref="A540:L540"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B497:C498"/>
+    <mergeCell ref="D497:J497"/>
+    <mergeCell ref="L497:L498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="B502:D502"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -11333,134 +11461,6 @@
     <mergeCell ref="D367:L367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:L237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A537:L537"/>
-    <mergeCell ref="A540:L540"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B497:C498"/>
-    <mergeCell ref="D497:J497"/>
-    <mergeCell ref="L497:L498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:L369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:L216"/>
-    <mergeCell ref="B126:L126"/>
-    <mergeCell ref="B129:L129"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:L123"/>
-    <mergeCell ref="B193:L197"/>
-    <mergeCell ref="B200:L204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C204A45-D4C4-478E-8A71-6CD5B129B65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1070D25-C528-456B-8CA2-A14EBF2052D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22308" yWindow="-456" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54408 Ayrihuanca" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54408 Ayrihuanca'!$A$2:$L$541</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54408 Ayrihuanca'!$A$2:$L$540</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="344">
   <si>
     <t>Nombre de la inversión (en función de las acciones, activos, nombre de la unidad productora y localización geográfica de la unidad productora)</t>
   </si>
@@ -1057,9 +1057,6 @@
   </si>
   <si>
     <t>"OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR Y FORMACION DE LA IEP N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
-  </si>
-  <si>
-    <t>GESTION DE PROYECTO</t>
   </si>
   <si>
     <t>GERENCIA REGIONAL DE INFRAESTRUCTURA</t>
@@ -1517,7 +1514,7 @@
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1999,15 +1996,300 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2035,52 +2317,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2106,258 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2645,10 +2633,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:P544"/>
+  <dimension ref="A3:P543"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E71" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H478" sqref="H478"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C80" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F486" sqref="G486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2670,52 +2658,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="190" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="236"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="194" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="198" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="241"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2749,17 +2737,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="261" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="263"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2956,10 +2944,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="260" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="165"/>
+      <c r="E21" s="260"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2988,10 +2976,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="260" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="165"/>
+      <c r="E23" s="260"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3053,13 +3041,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="169" t="s">
+      <c r="F27" s="264" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="264"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="264"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3078,22 +3066,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="242" t="s">
+      <c r="B29" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="170" t="s">
+      <c r="G29" s="265" t="s">
         <v>329</v>
       </c>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="172"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="266"/>
+      <c r="L29" s="267"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3112,11 +3100,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="258"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3277,12 +3265,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="198" t="s">
+      <c r="G40" s="229" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="199"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
+      <c r="H40" s="230"/>
+      <c r="I40" s="230"/>
+      <c r="J40" s="231"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3295,12 +3283,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="198" t="s">
+      <c r="G41" s="229" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="199"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="230"/>
+      <c r="J41" s="231"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3313,12 +3301,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="229" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="231"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3331,12 +3319,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="198" t="s">
+      <c r="G43" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="231"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3380,12 +3368,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="198" t="s">
+      <c r="G46" s="229" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="230"/>
+      <c r="J46" s="231"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3398,12 +3386,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="198" t="s">
+      <c r="G47" s="229" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="199"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="H47" s="230"/>
+      <c r="I47" s="230"/>
+      <c r="J47" s="231"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3416,12 +3404,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="220" t="s">
+      <c r="G48" s="226" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="271"/>
-      <c r="I48" s="271"/>
-      <c r="J48" s="221"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="227"/>
+      <c r="J48" s="228"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3488,12 +3476,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="198" t="s">
+      <c r="G52" s="229" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
+      <c r="H52" s="230"/>
+      <c r="I52" s="230"/>
+      <c r="J52" s="231"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3506,12 +3494,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="198" t="s">
+      <c r="G53" s="229" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="199"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
+      <c r="H53" s="230"/>
+      <c r="I53" s="230"/>
+      <c r="J53" s="231"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3525,7 +3513,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="131" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="132"/>
@@ -3547,7 +3535,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H55" s="132"/>
       <c r="I55" s="132"/>
@@ -3697,7 +3685,7 @@
       <c r="C64" s="89"/>
       <c r="D64" s="89"/>
       <c r="E64" s="130" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89"/>
@@ -3760,14 +3748,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="173" t="s">
-        <v>340</v>
-      </c>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
-      <c r="H68" s="197"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="174"/>
+      <c r="E68" s="243" t="s">
+        <v>339</v>
+      </c>
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244"/>
+      <c r="J68" s="245"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3832,11 +3820,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="222" t="s">
+      <c r="F72" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="222"/>
-      <c r="H72" s="222"/>
+      <c r="G72" s="161"/>
+      <c r="H72" s="161"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3851,16 +3839,16 @@
         <v>327</v>
       </c>
       <c r="D73" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="F73" s="162" t="s">
         <v>343</v>
       </c>
-      <c r="F73" s="272" t="s">
-        <v>344</v>
-      </c>
-      <c r="G73" s="272"/>
-      <c r="H73" s="272"/>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3992,10 +3980,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="207" t="s">
+      <c r="D82" s="233" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="207"/>
+      <c r="E82" s="233"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4081,17 +4069,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="274" t="s">
+      <c r="B87" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="274"/>
-      <c r="D87" s="274"/>
-      <c r="E87" s="274"/>
-      <c r="F87" s="274"/>
-      <c r="G87" s="274"/>
-      <c r="H87" s="274"/>
-      <c r="I87" s="274"/>
-      <c r="J87" s="274"/>
+      <c r="C87" s="166"/>
+      <c r="D87" s="166"/>
+      <c r="E87" s="166"/>
+      <c r="F87" s="166"/>
+      <c r="G87" s="166"/>
+      <c r="H87" s="166"/>
+      <c r="I87" s="166"/>
+      <c r="J87" s="166"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4258,10 +4246,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="276" t="s">
+      <c r="E98" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="277"/>
+      <c r="F98" s="172"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4441,13 +4429,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="259" t="s">
+      <c r="B110" s="217" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="259"/>
-      <c r="D110" s="259"/>
-      <c r="E110" s="259"/>
-      <c r="F110" s="260"/>
+      <c r="C110" s="217"/>
+      <c r="D110" s="217"/>
+      <c r="E110" s="217"/>
+      <c r="F110" s="218"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4462,8 +4450,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="261"/>
-      <c r="H111" s="261"/>
+      <c r="G111" s="219"/>
+      <c r="H111" s="219"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4471,13 +4459,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="259" t="s">
+      <c r="B112" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="259"/>
-      <c r="D112" s="259"/>
-      <c r="E112" s="259"/>
-      <c r="F112" s="260"/>
+      <c r="C112" s="217"/>
+      <c r="D112" s="217"/>
+      <c r="E112" s="217"/>
+      <c r="F112" s="218"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4609,47 +4597,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="262" t="s">
+      <c r="B121" s="220" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="263"/>
-      <c r="D121" s="263"/>
-      <c r="E121" s="263"/>
-      <c r="F121" s="263"/>
-      <c r="G121" s="263"/>
-      <c r="H121" s="263"/>
-      <c r="I121" s="263"/>
-      <c r="J121" s="263"/>
-      <c r="K121" s="263"/>
-      <c r="L121" s="264"/>
+      <c r="C121" s="221"/>
+      <c r="D121" s="221"/>
+      <c r="E121" s="221"/>
+      <c r="F121" s="221"/>
+      <c r="G121" s="221"/>
+      <c r="H121" s="221"/>
+      <c r="I121" s="221"/>
+      <c r="J121" s="221"/>
+      <c r="K121" s="221"/>
+      <c r="L121" s="222"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="265"/>
-      <c r="C122" s="266"/>
-      <c r="D122" s="266"/>
-      <c r="E122" s="266"/>
-      <c r="F122" s="266"/>
-      <c r="G122" s="266"/>
-      <c r="H122" s="266"/>
-      <c r="I122" s="266"/>
-      <c r="J122" s="266"/>
-      <c r="K122" s="266"/>
-      <c r="L122" s="267"/>
+      <c r="B122" s="173"/>
+      <c r="C122" s="174"/>
+      <c r="D122" s="174"/>
+      <c r="E122" s="174"/>
+      <c r="F122" s="174"/>
+      <c r="G122" s="174"/>
+      <c r="H122" s="174"/>
+      <c r="I122" s="174"/>
+      <c r="J122" s="174"/>
+      <c r="K122" s="174"/>
+      <c r="L122" s="175"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="268"/>
-      <c r="C123" s="269"/>
-      <c r="D123" s="269"/>
-      <c r="E123" s="269"/>
-      <c r="F123" s="269"/>
-      <c r="G123" s="269"/>
-      <c r="H123" s="269"/>
-      <c r="I123" s="269"/>
-      <c r="J123" s="269"/>
-      <c r="K123" s="269"/>
-      <c r="L123" s="270"/>
+      <c r="B123" s="223"/>
+      <c r="C123" s="224"/>
+      <c r="D123" s="224"/>
+      <c r="E123" s="224"/>
+      <c r="F123" s="224"/>
+      <c r="G123" s="224"/>
+      <c r="H123" s="224"/>
+      <c r="I123" s="224"/>
+      <c r="J123" s="224"/>
+      <c r="K123" s="224"/>
+      <c r="L123" s="225"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4683,19 +4671,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="252" t="s">
+      <c r="B126" s="210" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="253"/>
-      <c r="D126" s="253"/>
-      <c r="E126" s="253"/>
-      <c r="F126" s="253"/>
-      <c r="G126" s="253"/>
-      <c r="H126" s="253"/>
-      <c r="I126" s="253"/>
-      <c r="J126" s="253"/>
-      <c r="K126" s="253"/>
-      <c r="L126" s="254"/>
+      <c r="C126" s="211"/>
+      <c r="D126" s="211"/>
+      <c r="E126" s="211"/>
+      <c r="F126" s="211"/>
+      <c r="G126" s="211"/>
+      <c r="H126" s="211"/>
+      <c r="I126" s="211"/>
+      <c r="J126" s="211"/>
+      <c r="K126" s="211"/>
+      <c r="L126" s="212"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4729,19 +4717,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="255" t="s">
+      <c r="B129" s="213" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="256"/>
-      <c r="D129" s="256"/>
-      <c r="E129" s="256"/>
-      <c r="F129" s="256"/>
-      <c r="G129" s="256"/>
-      <c r="H129" s="256"/>
-      <c r="I129" s="256"/>
-      <c r="J129" s="256"/>
-      <c r="K129" s="256"/>
-      <c r="L129" s="257"/>
+      <c r="C129" s="214"/>
+      <c r="D129" s="214"/>
+      <c r="E129" s="214"/>
+      <c r="F129" s="214"/>
+      <c r="G129" s="214"/>
+      <c r="H129" s="214"/>
+      <c r="I129" s="214"/>
+      <c r="J129" s="214"/>
+      <c r="K129" s="214"/>
+      <c r="L129" s="215"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4940,19 +4928,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="258" t="s">
+      <c r="B143" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="258"/>
-      <c r="D143" s="258"/>
-      <c r="E143" s="258"/>
-      <c r="F143" s="258"/>
-      <c r="G143" s="258"/>
-      <c r="H143" s="258"/>
-      <c r="I143" s="258"/>
-      <c r="J143" s="258"/>
-      <c r="K143" s="258"/>
-      <c r="L143" s="258"/>
+      <c r="C143" s="216"/>
+      <c r="D143" s="216"/>
+      <c r="E143" s="216"/>
+      <c r="F143" s="216"/>
+      <c r="G143" s="216"/>
+      <c r="H143" s="216"/>
+      <c r="I143" s="216"/>
+      <c r="J143" s="216"/>
+      <c r="K143" s="216"/>
+      <c r="L143" s="216"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4970,11 +4958,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="176" t="s">
+      <c r="B145" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="176"/>
-      <c r="D145" s="176"/>
+      <c r="C145" s="163"/>
+      <c r="D145" s="163"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4998,11 +4986,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="176" t="s">
+      <c r="B147" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="176"/>
-      <c r="D147" s="176"/>
+      <c r="C147" s="163"/>
+      <c r="D147" s="163"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5026,11 +5014,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="176" t="s">
+      <c r="B149" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="176"/>
-      <c r="D149" s="176"/>
+      <c r="C149" s="163"/>
+      <c r="D149" s="163"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5052,12 +5040,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="176" t="s">
+      <c r="B151" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="176"/>
-      <c r="D151" s="176"/>
-      <c r="E151" s="176"/>
+      <c r="C151" s="163"/>
+      <c r="D151" s="163"/>
+      <c r="E151" s="163"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5080,13 +5068,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="176" t="s">
+      <c r="B153" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="176"/>
-      <c r="D153" s="176"/>
-      <c r="E153" s="176"/>
-      <c r="F153" s="177"/>
+      <c r="C153" s="163"/>
+      <c r="D153" s="163"/>
+      <c r="E153" s="163"/>
+      <c r="F153" s="164"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5214,19 +5202,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="278" t="s">
+      <c r="B162" s="176" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="279"/>
-      <c r="D162" s="279"/>
-      <c r="E162" s="279"/>
-      <c r="F162" s="279"/>
-      <c r="G162" s="279"/>
-      <c r="H162" s="279"/>
-      <c r="I162" s="279"/>
-      <c r="J162" s="279"/>
-      <c r="K162" s="279"/>
-      <c r="L162" s="280"/>
+      <c r="C162" s="177"/>
+      <c r="D162" s="177"/>
+      <c r="E162" s="177"/>
+      <c r="F162" s="177"/>
+      <c r="G162" s="177"/>
+      <c r="H162" s="177"/>
+      <c r="I162" s="177"/>
+      <c r="J162" s="177"/>
+      <c r="K162" s="177"/>
+      <c r="L162" s="178"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5444,12 +5432,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="176" t="s">
+      <c r="B179" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="176"/>
-      <c r="D179" s="176"/>
-      <c r="E179" s="176"/>
+      <c r="C179" s="163"/>
+      <c r="D179" s="163"/>
+      <c r="E179" s="163"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5476,13 +5464,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="176" t="s">
+      <c r="B181" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="176"/>
-      <c r="D181" s="176"/>
-      <c r="E181" s="176"/>
-      <c r="F181" s="177"/>
+      <c r="C181" s="163"/>
+      <c r="D181" s="163"/>
+      <c r="E181" s="163"/>
+      <c r="F181" s="164"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5536,13 +5524,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="176" t="s">
+      <c r="B185" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="176"/>
-      <c r="D185" s="176"/>
-      <c r="E185" s="176"/>
-      <c r="F185" s="177"/>
+      <c r="C185" s="163"/>
+      <c r="D185" s="163"/>
+      <c r="E185" s="163"/>
+      <c r="F185" s="164"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5983,49 +5971,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="243" t="s">
+      <c r="B214" s="201" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="244"/>
-      <c r="D214" s="244"/>
-      <c r="E214" s="244"/>
-      <c r="F214" s="244"/>
-      <c r="G214" s="244"/>
-      <c r="H214" s="244"/>
-      <c r="I214" s="244"/>
-      <c r="J214" s="244"/>
-      <c r="K214" s="244"/>
-      <c r="L214" s="245"/>
+      <c r="C214" s="202"/>
+      <c r="D214" s="202"/>
+      <c r="E214" s="202"/>
+      <c r="F214" s="202"/>
+      <c r="G214" s="202"/>
+      <c r="H214" s="202"/>
+      <c r="I214" s="202"/>
+      <c r="J214" s="202"/>
+      <c r="K214" s="202"/>
+      <c r="L214" s="203"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="246"/>
-      <c r="C215" s="247"/>
-      <c r="D215" s="247"/>
-      <c r="E215" s="247"/>
-      <c r="F215" s="247"/>
-      <c r="G215" s="247"/>
-      <c r="H215" s="247"/>
-      <c r="I215" s="247"/>
-      <c r="J215" s="247"/>
-      <c r="K215" s="247"/>
-      <c r="L215" s="248"/>
+      <c r="B215" s="204"/>
+      <c r="C215" s="205"/>
+      <c r="D215" s="205"/>
+      <c r="E215" s="205"/>
+      <c r="F215" s="205"/>
+      <c r="G215" s="205"/>
+      <c r="H215" s="205"/>
+      <c r="I215" s="205"/>
+      <c r="J215" s="205"/>
+      <c r="K215" s="205"/>
+      <c r="L215" s="206"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="249"/>
-      <c r="C216" s="250"/>
-      <c r="D216" s="250"/>
-      <c r="E216" s="250"/>
-      <c r="F216" s="250"/>
-      <c r="G216" s="250"/>
-      <c r="H216" s="250"/>
-      <c r="I216" s="250"/>
-      <c r="J216" s="250"/>
-      <c r="K216" s="250"/>
-      <c r="L216" s="251"/>
+      <c r="B216" s="207"/>
+      <c r="C216" s="208"/>
+      <c r="D216" s="208"/>
+      <c r="E216" s="208"/>
+      <c r="F216" s="208"/>
+      <c r="G216" s="208"/>
+      <c r="H216" s="208"/>
+      <c r="I216" s="208"/>
+      <c r="J216" s="208"/>
+      <c r="K216" s="208"/>
+      <c r="L216" s="209"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6060,10 +6048,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="176" t="s">
+      <c r="B219" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="176"/>
+      <c r="C219" s="163"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6188,19 +6176,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="265" t="s">
+      <c r="B227" s="173" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="266"/>
-      <c r="D227" s="266"/>
-      <c r="E227" s="266"/>
-      <c r="F227" s="266"/>
-      <c r="G227" s="266"/>
-      <c r="H227" s="266"/>
-      <c r="I227" s="266"/>
-      <c r="J227" s="266"/>
-      <c r="K227" s="266"/>
-      <c r="L227" s="267"/>
+      <c r="C227" s="174"/>
+      <c r="D227" s="174"/>
+      <c r="E227" s="174"/>
+      <c r="F227" s="174"/>
+      <c r="G227" s="174"/>
+      <c r="H227" s="174"/>
+      <c r="I227" s="174"/>
+      <c r="J227" s="174"/>
+      <c r="K227" s="174"/>
+      <c r="L227" s="175"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6309,51 +6297,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="188" t="s">
+      <c r="B235" s="269" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="189"/>
-      <c r="D235" s="189"/>
-      <c r="E235" s="189"/>
-      <c r="F235" s="189"/>
-      <c r="G235" s="189"/>
-      <c r="H235" s="189"/>
-      <c r="I235" s="189"/>
-      <c r="J235" s="189"/>
-      <c r="K235" s="189"/>
-      <c r="L235" s="190"/>
+      <c r="C235" s="270"/>
+      <c r="D235" s="270"/>
+      <c r="E235" s="270"/>
+      <c r="F235" s="270"/>
+      <c r="G235" s="270"/>
+      <c r="H235" s="270"/>
+      <c r="I235" s="270"/>
+      <c r="J235" s="270"/>
+      <c r="K235" s="270"/>
+      <c r="L235" s="271"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="191"/>
-      <c r="C236" s="192"/>
-      <c r="D236" s="192"/>
-      <c r="E236" s="192"/>
-      <c r="F236" s="192"/>
-      <c r="G236" s="192"/>
-      <c r="H236" s="192"/>
-      <c r="I236" s="192"/>
-      <c r="J236" s="192"/>
-      <c r="K236" s="192"/>
-      <c r="L236" s="193"/>
+      <c r="B236" s="272"/>
+      <c r="C236" s="273"/>
+      <c r="D236" s="273"/>
+      <c r="E236" s="273"/>
+      <c r="F236" s="273"/>
+      <c r="G236" s="273"/>
+      <c r="H236" s="273"/>
+      <c r="I236" s="273"/>
+      <c r="J236" s="273"/>
+      <c r="K236" s="273"/>
+      <c r="L236" s="274"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="194"/>
-      <c r="C237" s="195"/>
-      <c r="D237" s="195"/>
-      <c r="E237" s="195"/>
-      <c r="F237" s="195"/>
-      <c r="G237" s="195"/>
-      <c r="H237" s="195"/>
-      <c r="I237" s="195"/>
-      <c r="J237" s="195"/>
-      <c r="K237" s="195"/>
-      <c r="L237" s="196"/>
+      <c r="B237" s="275"/>
+      <c r="C237" s="276"/>
+      <c r="D237" s="276"/>
+      <c r="E237" s="276"/>
+      <c r="F237" s="276"/>
+      <c r="G237" s="276"/>
+      <c r="H237" s="276"/>
+      <c r="I237" s="276"/>
+      <c r="J237" s="276"/>
+      <c r="K237" s="276"/>
+      <c r="L237" s="277"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6468,35 +6456,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="274" t="s">
+      <c r="B245" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="274"/>
-      <c r="D245" s="274"/>
-      <c r="E245" s="274"/>
-      <c r="F245" s="274"/>
-      <c r="G245" s="274"/>
-      <c r="H245" s="274"/>
-      <c r="I245" s="274"/>
-      <c r="J245" s="274"/>
-      <c r="K245" s="274"/>
-      <c r="L245" s="274"/>
+      <c r="C245" s="166"/>
+      <c r="D245" s="166"/>
+      <c r="E245" s="166"/>
+      <c r="F245" s="166"/>
+      <c r="G245" s="166"/>
+      <c r="H245" s="166"/>
+      <c r="I245" s="166"/>
+      <c r="J245" s="166"/>
+      <c r="K245" s="166"/>
+      <c r="L245" s="166"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="274" t="s">
+      <c r="B246" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="274"/>
-      <c r="D246" s="274"/>
-      <c r="E246" s="274"/>
-      <c r="F246" s="274"/>
-      <c r="G246" s="274"/>
-      <c r="H246" s="274"/>
-      <c r="I246" s="274"/>
-      <c r="J246" s="274"/>
-      <c r="K246" s="274"/>
-      <c r="L246" s="274"/>
+      <c r="C246" s="166"/>
+      <c r="D246" s="166"/>
+      <c r="E246" s="166"/>
+      <c r="F246" s="166"/>
+      <c r="G246" s="166"/>
+      <c r="H246" s="166"/>
+      <c r="I246" s="166"/>
+      <c r="J246" s="166"/>
+      <c r="K246" s="166"/>
+      <c r="L246" s="166"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6834,28 +6822,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="222" t="s">
+      <c r="B268" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="222"/>
-      <c r="D268" s="216" t="s">
+      <c r="C268" s="161"/>
+      <c r="D268" s="168" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="217"/>
-      <c r="F268" s="217"/>
-      <c r="G268" s="217"/>
-      <c r="H268" s="217"/>
-      <c r="I268" s="217"/>
-      <c r="J268" s="217"/>
-      <c r="K268" s="217"/>
-      <c r="L268" s="218"/>
+      <c r="E268" s="169"/>
+      <c r="F268" s="169"/>
+      <c r="G268" s="169"/>
+      <c r="H268" s="169"/>
+      <c r="I268" s="169"/>
+      <c r="J268" s="169"/>
+      <c r="K268" s="169"/>
+      <c r="L268" s="170"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="273"/>
-      <c r="C269" s="273"/>
+      <c r="B269" s="165"/>
+      <c r="C269" s="165"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6870,8 +6858,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="273"/>
-      <c r="C270" s="273"/>
+      <c r="B270" s="165"/>
+      <c r="C270" s="165"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6886,8 +6874,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="273"/>
-      <c r="C271" s="273"/>
+      <c r="B271" s="165"/>
+      <c r="C271" s="165"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6902,8 +6890,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="273"/>
-      <c r="C272" s="273"/>
+      <c r="B272" s="165"/>
+      <c r="C272" s="165"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6968,83 +6956,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="275" t="s">
+      <c r="B276" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="275"/>
-      <c r="D276" s="275"/>
-      <c r="E276" s="275"/>
-      <c r="F276" s="275"/>
-      <c r="G276" s="275"/>
-      <c r="H276" s="275"/>
-      <c r="I276" s="275"/>
-      <c r="J276" s="275"/>
-      <c r="K276" s="275"/>
-      <c r="L276" s="275"/>
+      <c r="C276" s="167"/>
+      <c r="D276" s="167"/>
+      <c r="E276" s="167"/>
+      <c r="F276" s="167"/>
+      <c r="G276" s="167"/>
+      <c r="H276" s="167"/>
+      <c r="I276" s="167"/>
+      <c r="J276" s="167"/>
+      <c r="K276" s="167"/>
+      <c r="L276" s="167"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="275"/>
-      <c r="C277" s="275"/>
-      <c r="D277" s="275"/>
-      <c r="E277" s="275"/>
-      <c r="F277" s="275"/>
-      <c r="G277" s="275"/>
-      <c r="H277" s="275"/>
-      <c r="I277" s="275"/>
-      <c r="J277" s="275"/>
-      <c r="K277" s="275"/>
-      <c r="L277" s="275"/>
+      <c r="B277" s="167"/>
+      <c r="C277" s="167"/>
+      <c r="D277" s="167"/>
+      <c r="E277" s="167"/>
+      <c r="F277" s="167"/>
+      <c r="G277" s="167"/>
+      <c r="H277" s="167"/>
+      <c r="I277" s="167"/>
+      <c r="J277" s="167"/>
+      <c r="K277" s="167"/>
+      <c r="L277" s="167"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="275"/>
-      <c r="C278" s="275"/>
-      <c r="D278" s="275"/>
-      <c r="E278" s="275"/>
-      <c r="F278" s="275"/>
-      <c r="G278" s="275"/>
-      <c r="H278" s="275"/>
-      <c r="I278" s="275"/>
-      <c r="J278" s="275"/>
-      <c r="K278" s="275"/>
-      <c r="L278" s="275"/>
+      <c r="B278" s="167"/>
+      <c r="C278" s="167"/>
+      <c r="D278" s="167"/>
+      <c r="E278" s="167"/>
+      <c r="F278" s="167"/>
+      <c r="G278" s="167"/>
+      <c r="H278" s="167"/>
+      <c r="I278" s="167"/>
+      <c r="J278" s="167"/>
+      <c r="K278" s="167"/>
+      <c r="L278" s="167"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="275"/>
-      <c r="C279" s="275"/>
-      <c r="D279" s="275"/>
-      <c r="E279" s="275"/>
-      <c r="F279" s="275"/>
-      <c r="G279" s="275"/>
-      <c r="H279" s="275"/>
-      <c r="I279" s="275"/>
-      <c r="J279" s="275"/>
-      <c r="K279" s="275"/>
-      <c r="L279" s="275"/>
+      <c r="B279" s="167"/>
+      <c r="C279" s="167"/>
+      <c r="D279" s="167"/>
+      <c r="E279" s="167"/>
+      <c r="F279" s="167"/>
+      <c r="G279" s="167"/>
+      <c r="H279" s="167"/>
+      <c r="I279" s="167"/>
+      <c r="J279" s="167"/>
+      <c r="K279" s="167"/>
+      <c r="L279" s="167"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="275"/>
-      <c r="C280" s="275"/>
-      <c r="D280" s="275"/>
-      <c r="E280" s="275"/>
-      <c r="F280" s="275"/>
-      <c r="G280" s="275"/>
-      <c r="H280" s="275"/>
-      <c r="I280" s="275"/>
-      <c r="J280" s="275"/>
-      <c r="K280" s="275"/>
-      <c r="L280" s="275"/>
+      <c r="B280" s="167"/>
+      <c r="C280" s="167"/>
+      <c r="D280" s="167"/>
+      <c r="E280" s="167"/>
+      <c r="F280" s="167"/>
+      <c r="G280" s="167"/>
+      <c r="H280" s="167"/>
+      <c r="I280" s="167"/>
+      <c r="J280" s="167"/>
+      <c r="K280" s="167"/>
+      <c r="L280" s="167"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7100,12 +7088,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="176" t="s">
+      <c r="B284" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="176"/>
-      <c r="D284" s="176"/>
-      <c r="E284" s="177"/>
+      <c r="C284" s="163"/>
+      <c r="D284" s="163"/>
+      <c r="E284" s="164"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7116,10 +7104,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="176"/>
-      <c r="C285" s="176"/>
-      <c r="D285" s="176"/>
-      <c r="E285" s="176"/>
+      <c r="B285" s="163"/>
+      <c r="C285" s="163"/>
+      <c r="D285" s="163"/>
+      <c r="E285" s="163"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7130,12 +7118,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="176" t="s">
+      <c r="B286" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="176"/>
-      <c r="D286" s="176"/>
-      <c r="E286" s="177"/>
+      <c r="C286" s="163"/>
+      <c r="D286" s="163"/>
+      <c r="E286" s="164"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7148,10 +7136,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="176"/>
-      <c r="C287" s="176"/>
-      <c r="D287" s="176"/>
-      <c r="E287" s="176"/>
+      <c r="B287" s="163"/>
+      <c r="C287" s="163"/>
+      <c r="D287" s="163"/>
+      <c r="E287" s="163"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7162,12 +7150,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="176" t="s">
+      <c r="B288" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="176"/>
-      <c r="D288" s="176"/>
-      <c r="E288" s="177"/>
+      <c r="C288" s="163"/>
+      <c r="D288" s="163"/>
+      <c r="E288" s="164"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7192,12 +7180,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="176" t="s">
+      <c r="B290" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="176"/>
-      <c r="D290" s="176"/>
-      <c r="E290" s="177"/>
+      <c r="C290" s="163"/>
+      <c r="D290" s="163"/>
+      <c r="E290" s="164"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7222,12 +7210,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="176" t="s">
+      <c r="B292" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="176"/>
-      <c r="D292" s="176"/>
-      <c r="E292" s="177"/>
+      <c r="C292" s="163"/>
+      <c r="D292" s="163"/>
+      <c r="E292" s="164"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7798,19 +7786,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="178" t="s">
+      <c r="B327" s="268" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="178"/>
-      <c r="D327" s="178"/>
-      <c r="E327" s="178"/>
-      <c r="F327" s="178"/>
-      <c r="G327" s="178"/>
-      <c r="H327" s="178"/>
-      <c r="I327" s="178"/>
-      <c r="J327" s="178"/>
-      <c r="K327" s="178"/>
-      <c r="L327" s="178"/>
+      <c r="C327" s="268"/>
+      <c r="D327" s="268"/>
+      <c r="E327" s="268"/>
+      <c r="F327" s="268"/>
+      <c r="G327" s="268"/>
+      <c r="H327" s="268"/>
+      <c r="I327" s="268"/>
+      <c r="J327" s="268"/>
+      <c r="K327" s="268"/>
+      <c r="L327" s="268"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7925,79 +7913,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="188" t="s">
+      <c r="B335" s="269" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="189"/>
-      <c r="D335" s="189"/>
-      <c r="E335" s="189"/>
-      <c r="F335" s="189"/>
-      <c r="G335" s="189"/>
-      <c r="H335" s="189"/>
-      <c r="I335" s="189"/>
-      <c r="J335" s="189"/>
-      <c r="K335" s="189"/>
-      <c r="L335" s="190"/>
+      <c r="C335" s="270"/>
+      <c r="D335" s="270"/>
+      <c r="E335" s="270"/>
+      <c r="F335" s="270"/>
+      <c r="G335" s="270"/>
+      <c r="H335" s="270"/>
+      <c r="I335" s="270"/>
+      <c r="J335" s="270"/>
+      <c r="K335" s="270"/>
+      <c r="L335" s="271"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="191"/>
-      <c r="C336" s="192"/>
-      <c r="D336" s="192"/>
-      <c r="E336" s="192"/>
-      <c r="F336" s="192"/>
-      <c r="G336" s="192"/>
-      <c r="H336" s="192"/>
-      <c r="I336" s="192"/>
-      <c r="J336" s="192"/>
-      <c r="K336" s="192"/>
-      <c r="L336" s="193"/>
+      <c r="B336" s="272"/>
+      <c r="C336" s="273"/>
+      <c r="D336" s="273"/>
+      <c r="E336" s="273"/>
+      <c r="F336" s="273"/>
+      <c r="G336" s="273"/>
+      <c r="H336" s="273"/>
+      <c r="I336" s="273"/>
+      <c r="J336" s="273"/>
+      <c r="K336" s="273"/>
+      <c r="L336" s="274"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="191"/>
-      <c r="C337" s="192"/>
-      <c r="D337" s="192"/>
-      <c r="E337" s="192"/>
-      <c r="F337" s="192"/>
-      <c r="G337" s="192"/>
-      <c r="H337" s="192"/>
-      <c r="I337" s="192"/>
-      <c r="J337" s="192"/>
-      <c r="K337" s="192"/>
-      <c r="L337" s="193"/>
+      <c r="B337" s="272"/>
+      <c r="C337" s="273"/>
+      <c r="D337" s="273"/>
+      <c r="E337" s="273"/>
+      <c r="F337" s="273"/>
+      <c r="G337" s="273"/>
+      <c r="H337" s="273"/>
+      <c r="I337" s="273"/>
+      <c r="J337" s="273"/>
+      <c r="K337" s="273"/>
+      <c r="L337" s="274"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="191"/>
-      <c r="C338" s="192"/>
-      <c r="D338" s="192"/>
-      <c r="E338" s="192"/>
-      <c r="F338" s="192"/>
-      <c r="G338" s="192"/>
-      <c r="H338" s="192"/>
-      <c r="I338" s="192"/>
-      <c r="J338" s="192"/>
-      <c r="K338" s="192"/>
-      <c r="L338" s="193"/>
+      <c r="B338" s="272"/>
+      <c r="C338" s="273"/>
+      <c r="D338" s="273"/>
+      <c r="E338" s="273"/>
+      <c r="F338" s="273"/>
+      <c r="G338" s="273"/>
+      <c r="H338" s="273"/>
+      <c r="I338" s="273"/>
+      <c r="J338" s="273"/>
+      <c r="K338" s="273"/>
+      <c r="L338" s="274"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="194"/>
-      <c r="C339" s="195"/>
-      <c r="D339" s="195"/>
-      <c r="E339" s="195"/>
-      <c r="F339" s="195"/>
-      <c r="G339" s="195"/>
-      <c r="H339" s="195"/>
-      <c r="I339" s="195"/>
-      <c r="J339" s="195"/>
-      <c r="K339" s="195"/>
-      <c r="L339" s="196"/>
+      <c r="B339" s="275"/>
+      <c r="C339" s="276"/>
+      <c r="D339" s="276"/>
+      <c r="E339" s="276"/>
+      <c r="F339" s="276"/>
+      <c r="G339" s="276"/>
+      <c r="H339" s="276"/>
+      <c r="I339" s="276"/>
+      <c r="J339" s="276"/>
+      <c r="K339" s="276"/>
+      <c r="L339" s="277"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8017,19 +8005,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="178" t="s">
+      <c r="B341" s="268" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="178"/>
-      <c r="D341" s="178"/>
-      <c r="E341" s="178"/>
-      <c r="F341" s="178"/>
-      <c r="G341" s="178"/>
-      <c r="H341" s="178"/>
-      <c r="I341" s="178"/>
-      <c r="J341" s="178"/>
-      <c r="K341" s="178"/>
-      <c r="L341" s="178"/>
+      <c r="C341" s="268"/>
+      <c r="D341" s="268"/>
+      <c r="E341" s="268"/>
+      <c r="F341" s="268"/>
+      <c r="G341" s="268"/>
+      <c r="H341" s="268"/>
+      <c r="I341" s="268"/>
+      <c r="J341" s="268"/>
+      <c r="K341" s="268"/>
+      <c r="L341" s="268"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8078,12 +8066,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="175" t="s">
+      <c r="B345" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="175"/>
-      <c r="D345" s="175"/>
-      <c r="E345" s="175"/>
+      <c r="C345" s="189"/>
+      <c r="D345" s="189"/>
+      <c r="E345" s="189"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8106,12 +8094,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="175" t="s">
+      <c r="B347" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="175"/>
-      <c r="D347" s="175"/>
-      <c r="E347" s="175"/>
+      <c r="C347" s="189"/>
+      <c r="D347" s="189"/>
+      <c r="E347" s="189"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8136,13 +8124,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="175" t="s">
+      <c r="B349" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="175"/>
-      <c r="D349" s="175"/>
-      <c r="E349" s="175"/>
-      <c r="F349" s="177"/>
+      <c r="C349" s="189"/>
+      <c r="D349" s="189"/>
+      <c r="E349" s="189"/>
+      <c r="F349" s="164"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8165,13 +8153,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="175" t="s">
+      <c r="B351" s="189" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="175"/>
-      <c r="D351" s="175"/>
-      <c r="E351" s="175"/>
-      <c r="F351" s="177"/>
+      <c r="C351" s="189"/>
+      <c r="D351" s="189"/>
+      <c r="E351" s="189"/>
+      <c r="F351" s="164"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8194,13 +8182,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="175" t="s">
+      <c r="B353" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="175"/>
-      <c r="D353" s="175"/>
-      <c r="E353" s="175"/>
-      <c r="F353" s="177"/>
+      <c r="C353" s="189"/>
+      <c r="D353" s="189"/>
+      <c r="E353" s="189"/>
+      <c r="F353" s="164"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8423,28 +8411,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="201" t="s">
+      <c r="B367" s="253" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="202"/>
-      <c r="D367" s="173" t="s">
+      <c r="C367" s="254"/>
+      <c r="D367" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="197"/>
-      <c r="F367" s="197"/>
-      <c r="G367" s="197"/>
-      <c r="H367" s="197"/>
-      <c r="I367" s="197"/>
-      <c r="J367" s="197"/>
-      <c r="K367" s="197"/>
-      <c r="L367" s="174"/>
+      <c r="E367" s="244"/>
+      <c r="F367" s="244"/>
+      <c r="G367" s="244"/>
+      <c r="H367" s="244"/>
+      <c r="I367" s="244"/>
+      <c r="J367" s="244"/>
+      <c r="K367" s="244"/>
+      <c r="L367" s="245"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="173"/>
-      <c r="C368" s="174"/>
+      <c r="B368" s="243"/>
+      <c r="C368" s="245"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8459,19 +8447,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="232" t="s">
+      <c r="B369" s="188" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="232"/>
-      <c r="D369" s="232"/>
-      <c r="E369" s="232"/>
-      <c r="F369" s="232"/>
-      <c r="G369" s="232"/>
-      <c r="H369" s="232"/>
-      <c r="I369" s="232"/>
-      <c r="J369" s="232"/>
-      <c r="K369" s="232"/>
-      <c r="L369" s="232"/>
+      <c r="C369" s="188"/>
+      <c r="D369" s="188"/>
+      <c r="E369" s="188"/>
+      <c r="F369" s="188"/>
+      <c r="G369" s="188"/>
+      <c r="H369" s="188"/>
+      <c r="I369" s="188"/>
+      <c r="J369" s="188"/>
+      <c r="K369" s="188"/>
+      <c r="L369" s="188"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8559,20 +8547,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="208" t="s">
+      <c r="C375" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="208"/>
-      <c r="E375" s="207" t="s">
+      <c r="D375" s="232"/>
+      <c r="E375" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="207"/>
-      <c r="G375" s="207"/>
-      <c r="H375" s="207" t="s">
+      <c r="F375" s="233"/>
+      <c r="G375" s="233"/>
+      <c r="H375" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="207"/>
-      <c r="J375" s="207"/>
+      <c r="I375" s="233"/>
+      <c r="J375" s="233"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8582,14 +8570,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="208"/>
-      <c r="D376" s="208"/>
-      <c r="E376" s="207"/>
-      <c r="F376" s="207"/>
-      <c r="G376" s="207"/>
-      <c r="H376" s="207"/>
-      <c r="I376" s="207"/>
-      <c r="J376" s="207"/>
+      <c r="C376" s="232"/>
+      <c r="D376" s="232"/>
+      <c r="E376" s="233"/>
+      <c r="F376" s="233"/>
+      <c r="G376" s="233"/>
+      <c r="H376" s="233"/>
+      <c r="I376" s="233"/>
+      <c r="J376" s="233"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8599,14 +8587,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="208"/>
-      <c r="D377" s="208"/>
-      <c r="E377" s="207"/>
-      <c r="F377" s="207"/>
-      <c r="G377" s="207"/>
-      <c r="H377" s="207"/>
-      <c r="I377" s="207"/>
-      <c r="J377" s="207"/>
+      <c r="C377" s="232"/>
+      <c r="D377" s="232"/>
+      <c r="E377" s="233"/>
+      <c r="F377" s="233"/>
+      <c r="G377" s="233"/>
+      <c r="H377" s="233"/>
+      <c r="I377" s="233"/>
+      <c r="J377" s="233"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8616,14 +8604,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="208"/>
-      <c r="D378" s="208"/>
-      <c r="E378" s="207"/>
-      <c r="F378" s="207"/>
-      <c r="G378" s="207"/>
-      <c r="H378" s="207"/>
-      <c r="I378" s="207"/>
-      <c r="J378" s="207"/>
+      <c r="C378" s="232"/>
+      <c r="D378" s="232"/>
+      <c r="E378" s="233"/>
+      <c r="F378" s="233"/>
+      <c r="G378" s="233"/>
+      <c r="H378" s="233"/>
+      <c r="I378" s="233"/>
+      <c r="J378" s="233"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8633,14 +8621,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="208"/>
-      <c r="D379" s="208"/>
-      <c r="E379" s="207"/>
-      <c r="F379" s="207"/>
-      <c r="G379" s="207"/>
-      <c r="H379" s="207"/>
-      <c r="I379" s="207"/>
-      <c r="J379" s="207"/>
+      <c r="C379" s="232"/>
+      <c r="D379" s="232"/>
+      <c r="E379" s="233"/>
+      <c r="F379" s="233"/>
+      <c r="G379" s="233"/>
+      <c r="H379" s="233"/>
+      <c r="I379" s="233"/>
+      <c r="J379" s="233"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8650,14 +8638,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="208"/>
-      <c r="D380" s="208"/>
-      <c r="E380" s="207"/>
-      <c r="F380" s="207"/>
-      <c r="G380" s="207"/>
-      <c r="H380" s="207"/>
-      <c r="I380" s="207"/>
-      <c r="J380" s="207"/>
+      <c r="C380" s="232"/>
+      <c r="D380" s="232"/>
+      <c r="E380" s="233"/>
+      <c r="F380" s="233"/>
+      <c r="G380" s="233"/>
+      <c r="H380" s="233"/>
+      <c r="I380" s="233"/>
+      <c r="J380" s="233"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8667,14 +8655,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="208"/>
-      <c r="D381" s="208"/>
-      <c r="E381" s="207"/>
-      <c r="F381" s="207"/>
-      <c r="G381" s="207"/>
-      <c r="H381" s="207"/>
-      <c r="I381" s="207"/>
-      <c r="J381" s="207"/>
+      <c r="C381" s="232"/>
+      <c r="D381" s="232"/>
+      <c r="E381" s="233"/>
+      <c r="F381" s="233"/>
+      <c r="G381" s="233"/>
+      <c r="H381" s="233"/>
+      <c r="I381" s="233"/>
+      <c r="J381" s="233"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8684,14 +8672,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="208"/>
-      <c r="D382" s="208"/>
-      <c r="E382" s="207"/>
-      <c r="F382" s="207"/>
-      <c r="G382" s="207"/>
-      <c r="H382" s="207"/>
-      <c r="I382" s="207"/>
-      <c r="J382" s="207"/>
+      <c r="C382" s="232"/>
+      <c r="D382" s="232"/>
+      <c r="E382" s="233"/>
+      <c r="F382" s="233"/>
+      <c r="G382" s="233"/>
+      <c r="H382" s="233"/>
+      <c r="I382" s="233"/>
+      <c r="J382" s="233"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8816,10 +8804,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="208" t="s">
+      <c r="C392" s="232" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="208"/>
+      <c r="D392" s="232"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8827,43 +8815,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="222" t="s">
+      <c r="B393" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="222" t="s">
+      <c r="C393" s="161" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="222" t="s">
+      <c r="D393" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="222" t="s">
+      <c r="E393" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="223" t="s">
+      <c r="F393" s="234" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="223" t="s">
+      <c r="G393" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="223" t="s">
+      <c r="H393" s="234" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="207" t="s">
+      <c r="I393" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="207"/>
+      <c r="J393" s="233"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="222"/>
-      <c r="C394" s="222"/>
-      <c r="D394" s="222"/>
-      <c r="E394" s="222"/>
-      <c r="F394" s="224"/>
-      <c r="G394" s="224"/>
-      <c r="H394" s="224"/>
+      <c r="B394" s="161"/>
+      <c r="C394" s="161"/>
+      <c r="D394" s="161"/>
+      <c r="E394" s="161"/>
+      <c r="F394" s="235"/>
+      <c r="G394" s="235"/>
+      <c r="H394" s="235"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9168,21 +9156,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="216" t="s">
+      <c r="B414" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="218"/>
-      <c r="D414" s="216" t="s">
+      <c r="C414" s="170"/>
+      <c r="D414" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="217"/>
-      <c r="F414" s="217"/>
-      <c r="G414" s="217"/>
-      <c r="H414" s="217"/>
-      <c r="I414" s="217"/>
-      <c r="J414" s="218"/>
+      <c r="E414" s="169"/>
+      <c r="F414" s="169"/>
+      <c r="G414" s="169"/>
+      <c r="H414" s="169"/>
+      <c r="I414" s="169"/>
+      <c r="J414" s="170"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="223" t="s">
+      <c r="L414" s="234" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9216,7 +9204,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="224"/>
+      <c r="L415" s="235"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9462,23 +9450,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="216" t="s">
+      <c r="B431" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="218"/>
-      <c r="D431" s="231" t="s">
+      <c r="C431" s="170"/>
+      <c r="D431" s="242" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="216" t="s">
+      <c r="E431" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="217"/>
-      <c r="G431" s="217"/>
-      <c r="H431" s="217"/>
-      <c r="I431" s="217"/>
-      <c r="J431" s="218"/>
+      <c r="F431" s="169"/>
+      <c r="G431" s="169"/>
+      <c r="H431" s="169"/>
+      <c r="I431" s="169"/>
+      <c r="J431" s="170"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="223" t="s">
+      <c r="L431" s="234" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9490,7 +9478,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="208"/>
+      <c r="D432" s="232"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9510,7 +9498,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="224"/>
+      <c r="L432" s="235"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9698,26 +9686,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="212" t="s">
+      <c r="B445" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="213"/>
-      <c r="D445" s="216" t="s">
+      <c r="C445" s="249"/>
+      <c r="D445" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="217"/>
-      <c r="F445" s="217"/>
-      <c r="G445" s="217"/>
-      <c r="H445" s="217"/>
-      <c r="I445" s="217"/>
-      <c r="J445" s="218"/>
+      <c r="E445" s="169"/>
+      <c r="F445" s="169"/>
+      <c r="G445" s="169"/>
+      <c r="H445" s="169"/>
+      <c r="I445" s="169"/>
+      <c r="J445" s="170"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="219"/>
+      <c r="L445" s="252"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="214"/>
-      <c r="C446" s="215"/>
+      <c r="B446" s="250"/>
+      <c r="C446" s="251"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9740,14 +9728,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="219"/>
+      <c r="L446" s="252"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="173" t="s">
+      <c r="B447" s="243" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="174"/>
+      <c r="C447" s="245"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9759,10 +9747,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="173" t="s">
+      <c r="B448" s="243" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="174"/>
+      <c r="C448" s="245"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9774,10 +9762,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="173" t="s">
+      <c r="B449" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="174"/>
+      <c r="C449" s="245"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9789,10 +9777,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="216" t="s">
+      <c r="B450" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="218"/>
+      <c r="C450" s="170"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10128,18 +10116,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="228" t="s">
+      <c r="C472" s="239" t="s">
         <v>336</v>
       </c>
-      <c r="D472" s="229"/>
-      <c r="E472" s="229"/>
-      <c r="F472" s="229"/>
-      <c r="G472" s="229"/>
-      <c r="H472" s="229"/>
-      <c r="I472" s="229"/>
-      <c r="J472" s="229"/>
-      <c r="K472" s="229"/>
-      <c r="L472" s="230"/>
+      <c r="D472" s="240"/>
+      <c r="E472" s="240"/>
+      <c r="F472" s="240"/>
+      <c r="G472" s="240"/>
+      <c r="H472" s="240"/>
+      <c r="I472" s="240"/>
+      <c r="J472" s="240"/>
+      <c r="K472" s="240"/>
+      <c r="L472" s="241"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10175,10 +10163,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="208" t="s">
+      <c r="C475" s="232" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="208"/>
+      <c r="D475" s="232"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10190,43 +10178,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="222" t="s">
+      <c r="B476" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="222" t="s">
+      <c r="C476" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="222" t="s">
+      <c r="D476" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="222" t="s">
+      <c r="E476" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="223" t="s">
+      <c r="F476" s="234" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="223" t="s">
+      <c r="G476" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="223" t="s">
+      <c r="H476" s="234" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="225" t="s">
+      <c r="I476" s="236" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="226"/>
-      <c r="K476" s="226"/>
-      <c r="L476" s="227"/>
+      <c r="J476" s="237"/>
+      <c r="K476" s="237"/>
+      <c r="L476" s="238"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="222"/>
-      <c r="C477" s="222"/>
-      <c r="D477" s="222"/>
-      <c r="E477" s="222"/>
-      <c r="F477" s="224"/>
-      <c r="G477" s="224"/>
-      <c r="H477" s="224"/>
+      <c r="B477" s="161"/>
+      <c r="C477" s="161"/>
+      <c r="D477" s="161"/>
+      <c r="E477" s="161"/>
+      <c r="F477" s="235"/>
+      <c r="G477" s="235"/>
+      <c r="H477" s="235"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10260,22 +10248,22 @@
         <v>268.70999999999998</v>
       </c>
       <c r="H478" s="127">
-        <f>161933.6+63017.78</f>
-        <v>224951.38</v>
+        <f>161933.6+63017.78+15464.06</f>
+        <v>240415.44</v>
       </c>
       <c r="J478" s="140">
         <f>N478/2</f>
-        <v>112475.69</v>
+        <v>120207.72</v>
       </c>
       <c r="K478" s="140">
         <f>+H478/2</f>
-        <v>112475.69</v>
+        <v>120207.72</v>
       </c>
       <c r="L478" s="140"/>
       <c r="M478" s="79"/>
       <c r="N478" s="139">
         <f>H478</f>
-        <v>224951.38</v>
+        <v>240415.44</v>
       </c>
     </row>
     <row r="479" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10369,10 +10357,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="203" t="s">
+      <c r="F484" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="203"/>
+      <c r="G484" s="255"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10391,10 +10379,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="204" t="s">
+      <c r="F485" s="256" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="204"/>
+      <c r="G485" s="256"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10411,23 +10399,26 @@
       <c r="M485" s="79"/>
     </row>
     <row r="486" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="161"/>
+      <c r="A486" s="78"/>
       <c r="B486" s="39"/>
-      <c r="C486" s="162"/>
-      <c r="D486" s="162"/>
+      <c r="C486" s="79"/>
+      <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="163" t="s">
-        <v>337</v>
-      </c>
-      <c r="G486" s="163"/>
+      <c r="F486" s="256" t="s">
+        <v>195</v>
+      </c>
+      <c r="G486" s="256"/>
       <c r="H486" s="127">
-        <v>15464.06</v>
+        <v>17290.75</v>
       </c>
       <c r="I486" s="102"/>
       <c r="J486" s="102"/>
       <c r="K486" s="102"/>
-      <c r="L486" s="102"/>
-      <c r="M486" s="162"/>
+      <c r="L486" s="127">
+        <f>+H486</f>
+        <v>17290.75</v>
+      </c>
+      <c r="M486" s="79"/>
     </row>
     <row r="487" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="78"/>
@@ -10435,20 +10426,18 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="G487" s="204"/>
-      <c r="H487" s="127">
-        <v>17290.75</v>
+      <c r="F487" s="247" t="s">
+        <v>196</v>
+      </c>
+      <c r="G487" s="247"/>
+      <c r="H487" s="138">
+        <f>SUM(H478:H486)+0.01</f>
+        <v>292667.7</v>
       </c>
       <c r="I487" s="102"/>
       <c r="J487" s="102"/>
       <c r="K487" s="102"/>
-      <c r="L487" s="127">
-        <f>+H487</f>
-        <v>17290.75</v>
-      </c>
+      <c r="L487" s="102"/>
       <c r="M487" s="79"/>
     </row>
     <row r="488" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10457,18 +10446,13 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="211" t="s">
-        <v>196</v>
-      </c>
-      <c r="G488" s="211"/>
-      <c r="H488" s="138">
-        <f>SUM(H478:H487)+0.01</f>
-        <v>292667.7</v>
-      </c>
-      <c r="I488" s="102"/>
-      <c r="J488" s="102"/>
-      <c r="K488" s="102"/>
-      <c r="L488" s="102"/>
+      <c r="F488" s="12"/>
+      <c r="G488" s="12"/>
+      <c r="H488" s="79"/>
+      <c r="I488" s="79"/>
+      <c r="J488" s="79"/>
+      <c r="K488" s="151"/>
+      <c r="L488" s="79"/>
       <c r="M488" s="79"/>
     </row>
     <row r="489" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10479,7 +10463,7 @@
       <c r="E489" s="39"/>
       <c r="F489" s="12"/>
       <c r="G489" s="12"/>
-      <c r="H489" s="79"/>
+      <c r="H489" s="160"/>
       <c r="I489" s="79"/>
       <c r="J489" s="79"/>
       <c r="K489" s="151"/>
@@ -10487,14 +10471,18 @@
       <c r="M489" s="79"/>
     </row>
     <row r="490" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="78"/>
-      <c r="B490" s="39"/>
+      <c r="A490" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="C490" s="79"/>
       <c r="D490" s="79"/>
-      <c r="E490" s="39"/>
-      <c r="F490" s="12"/>
-      <c r="G490" s="12"/>
-      <c r="H490" s="160"/>
+      <c r="E490" s="79"/>
+      <c r="F490" s="79"/>
+      <c r="G490" s="79"/>
+      <c r="H490" s="79"/>
       <c r="I490" s="79"/>
       <c r="J490" s="79"/>
       <c r="K490" s="151"/>
@@ -10502,14 +10490,10 @@
       <c r="M490" s="79"/>
     </row>
     <row r="491" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B491" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C491" s="79"/>
-      <c r="D491" s="79"/>
+      <c r="A491" s="19"/>
+      <c r="B491" s="79"/>
+      <c r="C491" s="32"/>
+      <c r="D491" s="32"/>
       <c r="E491" s="79"/>
       <c r="F491" s="79"/>
       <c r="G491" s="79"/>
@@ -10522,12 +10506,16 @@
     </row>
     <row r="492" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="19"/>
-      <c r="B492" s="79"/>
-      <c r="C492" s="32"/>
-      <c r="D492" s="32"/>
+      <c r="B492" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C492" s="78"/>
+      <c r="D492" s="79"/>
       <c r="E492" s="79"/>
-      <c r="F492" s="79"/>
-      <c r="G492" s="79"/>
+      <c r="F492" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="G492" s="78"/>
       <c r="H492" s="79"/>
       <c r="I492" s="79"/>
       <c r="J492" s="79"/>
@@ -10537,15 +10525,11 @@
     </row>
     <row r="493" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="19"/>
-      <c r="B493" s="32" t="s">
-        <v>275</v>
-      </c>
+      <c r="B493" s="78"/>
       <c r="C493" s="78"/>
       <c r="D493" s="79"/>
       <c r="E493" s="79"/>
-      <c r="F493" s="119" t="s">
-        <v>335</v>
-      </c>
+      <c r="F493" s="78"/>
       <c r="G493" s="78"/>
       <c r="H493" s="79"/>
       <c r="I493" s="79"/>
@@ -10556,11 +10540,15 @@
     </row>
     <row r="494" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="19"/>
-      <c r="B494" s="78"/>
+      <c r="B494" s="32" t="s">
+        <v>276</v>
+      </c>
       <c r="C494" s="78"/>
       <c r="D494" s="79"/>
       <c r="E494" s="79"/>
-      <c r="F494" s="78"/>
+      <c r="F494" s="120">
+        <v>10</v>
+      </c>
       <c r="G494" s="78"/>
       <c r="H494" s="79"/>
       <c r="I494" s="79"/>
@@ -10571,16 +10559,12 @@
     </row>
     <row r="495" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="19"/>
-      <c r="B495" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C495" s="78"/>
-      <c r="D495" s="79"/>
+      <c r="B495" s="79"/>
+      <c r="C495" s="32"/>
+      <c r="D495" s="32"/>
       <c r="E495" s="79"/>
-      <c r="F495" s="120">
-        <v>10</v>
-      </c>
-      <c r="G495" s="78"/>
+      <c r="F495" s="79"/>
+      <c r="G495" s="79"/>
       <c r="H495" s="79"/>
       <c r="I495" s="79"/>
       <c r="J495" s="79"/>
@@ -10590,98 +10574,100 @@
     </row>
     <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="79"/>
-      <c r="C496" s="32"/>
-      <c r="D496" s="32"/>
-      <c r="E496" s="79"/>
-      <c r="F496" s="79"/>
-      <c r="G496" s="79"/>
-      <c r="H496" s="79"/>
-      <c r="I496" s="79"/>
-      <c r="J496" s="79"/>
-      <c r="K496" s="151"/>
-      <c r="L496" s="79"/>
+      <c r="B496" s="248" t="s">
+        <v>59</v>
+      </c>
+      <c r="C496" s="249"/>
+      <c r="D496" s="168" t="s">
+        <v>204</v>
+      </c>
+      <c r="E496" s="169"/>
+      <c r="F496" s="169"/>
+      <c r="G496" s="169"/>
+      <c r="H496" s="169"/>
+      <c r="I496" s="169"/>
+      <c r="J496" s="170"/>
+      <c r="K496" s="21"/>
+      <c r="L496" s="252"/>
       <c r="M496" s="79"/>
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="212" t="s">
-        <v>59</v>
-      </c>
-      <c r="C497" s="213"/>
-      <c r="D497" s="216" t="s">
-        <v>204</v>
-      </c>
-      <c r="E497" s="217"/>
-      <c r="F497" s="217"/>
-      <c r="G497" s="217"/>
-      <c r="H497" s="217"/>
-      <c r="I497" s="217"/>
-      <c r="J497" s="218"/>
+      <c r="B497" s="250"/>
+      <c r="C497" s="251"/>
+      <c r="D497" s="74">
+        <v>1</v>
+      </c>
+      <c r="E497" s="74">
+        <v>2</v>
+      </c>
+      <c r="F497" s="74">
+        <v>3</v>
+      </c>
+      <c r="G497" s="74">
+        <v>4</v>
+      </c>
+      <c r="H497" s="74">
+        <v>5</v>
+      </c>
+      <c r="I497" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="J497" s="74">
+        <v>10</v>
+      </c>
       <c r="K497" s="21"/>
-      <c r="L497" s="219"/>
+      <c r="L497" s="252"/>
       <c r="M497" s="79"/>
     </row>
-    <row r="498" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="214"/>
-      <c r="C498" s="215"/>
-      <c r="D498" s="74">
-        <v>1</v>
-      </c>
-      <c r="E498" s="74">
-        <v>2</v>
-      </c>
-      <c r="F498" s="74">
-        <v>3</v>
-      </c>
-      <c r="G498" s="74">
-        <v>4</v>
-      </c>
-      <c r="H498" s="74">
-        <v>5</v>
-      </c>
-      <c r="I498" s="74" t="s">
+      <c r="B498" s="226" t="s">
+        <v>334</v>
+      </c>
+      <c r="C498" s="228"/>
+      <c r="D498" s="102"/>
+      <c r="E498" s="142">
+        <v>3500</v>
+      </c>
+      <c r="F498" s="102"/>
+      <c r="G498" s="142">
+        <v>3500</v>
+      </c>
+      <c r="H498" s="102"/>
+      <c r="I498" s="142">
+        <v>3500</v>
+      </c>
+      <c r="J498" s="142">
+        <v>3500</v>
+      </c>
+      <c r="K498" s="159"/>
+      <c r="L498" s="39"/>
+      <c r="M498" s="79"/>
+    </row>
+    <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="19"/>
+      <c r="B499" s="243" t="s">
         <v>178</v>
       </c>
-      <c r="J498" s="74">
-        <v>10</v>
-      </c>
-      <c r="K498" s="21"/>
-      <c r="L498" s="219"/>
-      <c r="M498" s="79"/>
-    </row>
-    <row r="499" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="19"/>
-      <c r="B499" s="220" t="s">
-        <v>334</v>
-      </c>
-      <c r="C499" s="221"/>
-      <c r="D499" s="102"/>
-      <c r="E499" s="142">
-        <v>3500</v>
-      </c>
-      <c r="F499" s="102"/>
-      <c r="G499" s="142">
-        <v>3500</v>
-      </c>
-      <c r="H499" s="102"/>
-      <c r="I499" s="142">
-        <v>3500</v>
-      </c>
-      <c r="J499" s="142">
-        <v>3500</v>
-      </c>
-      <c r="K499" s="159"/>
+      <c r="C499" s="245"/>
+      <c r="D499" s="81"/>
+      <c r="E499" s="81"/>
+      <c r="F499" s="81"/>
+      <c r="G499" s="81"/>
+      <c r="H499" s="81"/>
+      <c r="I499" s="102"/>
+      <c r="J499" s="102"/>
+      <c r="K499" s="151"/>
       <c r="L499" s="39"/>
       <c r="M499" s="79"/>
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="C500" s="174"/>
+      <c r="B500" s="243" t="s">
+        <v>220</v>
+      </c>
+      <c r="C500" s="245"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10693,31 +10679,29 @@
       <c r="L500" s="39"/>
       <c r="M500" s="79"/>
     </row>
-    <row r="501" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="19"/>
-      <c r="B501" s="173" t="s">
-        <v>220</v>
-      </c>
-      <c r="C501" s="174"/>
-      <c r="D501" s="81"/>
-      <c r="E501" s="81"/>
-      <c r="F501" s="81"/>
-      <c r="G501" s="81"/>
-      <c r="H501" s="81"/>
-      <c r="I501" s="102"/>
-      <c r="J501" s="102"/>
+    <row r="501" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="78"/>
+      <c r="B501" s="259"/>
+      <c r="C501" s="259"/>
+      <c r="D501" s="259"/>
+      <c r="E501" s="39"/>
+      <c r="F501" s="12"/>
+      <c r="G501" s="12"/>
+      <c r="H501" s="79"/>
+      <c r="I501" s="79"/>
+      <c r="J501" s="79"/>
       <c r="K501" s="151"/>
-      <c r="L501" s="39"/>
+      <c r="L501" s="79"/>
       <c r="M501" s="79"/>
     </row>
-    <row r="502" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="78"/>
-      <c r="B502" s="164"/>
-      <c r="C502" s="164"/>
-      <c r="D502" s="164"/>
+      <c r="B502" s="39"/>
+      <c r="C502" s="79"/>
+      <c r="D502" s="79"/>
       <c r="E502" s="39"/>
-      <c r="F502" s="12"/>
-      <c r="G502" s="12"/>
+      <c r="F502" s="79"/>
+      <c r="G502" s="79"/>
       <c r="H502" s="79"/>
       <c r="I502" s="79"/>
       <c r="J502" s="79"/>
@@ -10726,11 +10710,15 @@
       <c r="M502" s="79"/>
     </row>
     <row r="503" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="78"/>
-      <c r="B503" s="39"/>
-      <c r="C503" s="79"/>
-      <c r="D503" s="79"/>
-      <c r="E503" s="39"/>
+      <c r="A503" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C503" s="123"/>
+      <c r="D503" s="24"/>
+      <c r="E503" s="24"/>
       <c r="F503" s="79"/>
       <c r="G503" s="79"/>
       <c r="H503" s="79"/>
@@ -10741,15 +10729,11 @@
       <c r="M503" s="79"/>
     </row>
     <row r="504" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B504" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C504" s="123"/>
-      <c r="D504" s="24"/>
-      <c r="E504" s="24"/>
+      <c r="A504" s="19"/>
+      <c r="B504" s="78"/>
+      <c r="C504" s="79"/>
+      <c r="D504" s="78"/>
+      <c r="E504" s="78"/>
       <c r="F504" s="79"/>
       <c r="G504" s="79"/>
       <c r="H504" s="79"/>
@@ -10761,10 +10745,14 @@
     </row>
     <row r="505" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="19"/>
-      <c r="B505" s="78"/>
-      <c r="C505" s="79"/>
-      <c r="D505" s="78"/>
-      <c r="E505" s="78"/>
+      <c r="B505" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C505" s="48"/>
+      <c r="D505" s="48"/>
+      <c r="E505" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="F505" s="79"/>
       <c r="G505" s="79"/>
       <c r="H505" s="79"/>
@@ -10776,13 +10764,13 @@
     </row>
     <row r="506" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="19"/>
-      <c r="B506" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C506" s="48"/>
-      <c r="D506" s="48"/>
-      <c r="E506" s="45" t="s">
-        <v>224</v>
+      <c r="B506" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C506" s="50"/>
+      <c r="D506" s="50"/>
+      <c r="E506" s="51" t="s">
+        <v>306</v>
       </c>
       <c r="F506" s="79"/>
       <c r="G506" s="79"/>
@@ -10795,14 +10783,12 @@
     </row>
     <row r="507" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="19"/>
-      <c r="B507" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C507" s="50"/>
-      <c r="D507" s="50"/>
-      <c r="E507" s="51" t="s">
-        <v>306</v>
-      </c>
+      <c r="B507" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C507" s="79"/>
+      <c r="D507" s="79"/>
+      <c r="E507" s="53"/>
       <c r="F507" s="79"/>
       <c r="G507" s="79"/>
       <c r="H507" s="79"/>
@@ -10815,7 +10801,7 @@
     <row r="508" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="19"/>
       <c r="B508" s="52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C508" s="79"/>
       <c r="D508" s="79"/>
@@ -10831,12 +10817,12 @@
     </row>
     <row r="509" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="19"/>
-      <c r="B509" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="C509" s="79"/>
-      <c r="D509" s="79"/>
-      <c r="E509" s="53"/>
+      <c r="B509" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C509" s="55"/>
+      <c r="D509" s="55"/>
+      <c r="E509" s="56"/>
       <c r="F509" s="79"/>
       <c r="G509" s="79"/>
       <c r="H509" s="79"/>
@@ -10848,12 +10834,10 @@
     </row>
     <row r="510" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="19"/>
-      <c r="B510" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C510" s="55"/>
-      <c r="D510" s="55"/>
-      <c r="E510" s="56"/>
+      <c r="B510" s="79"/>
+      <c r="C510" s="32"/>
+      <c r="D510" s="32"/>
+      <c r="E510" s="79"/>
       <c r="F510" s="79"/>
       <c r="G510" s="79"/>
       <c r="H510" s="79"/>
@@ -10864,11 +10848,15 @@
       <c r="M510" s="79"/>
     </row>
     <row r="511" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="19"/>
-      <c r="B511" s="79"/>
-      <c r="C511" s="32"/>
-      <c r="D511" s="32"/>
-      <c r="E511" s="79"/>
+      <c r="A511" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C511" s="123"/>
+      <c r="D511" s="24"/>
+      <c r="E511" s="24"/>
       <c r="F511" s="79"/>
       <c r="G511" s="79"/>
       <c r="H511" s="79"/>
@@ -10879,15 +10867,11 @@
       <c r="M511" s="79"/>
     </row>
     <row r="512" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B512" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C512" s="123"/>
-      <c r="D512" s="24"/>
-      <c r="E512" s="24"/>
+      <c r="A512" s="19"/>
+      <c r="B512" s="78"/>
+      <c r="C512" s="79"/>
+      <c r="D512" s="78"/>
+      <c r="E512" s="78"/>
       <c r="F512" s="79"/>
       <c r="G512" s="79"/>
       <c r="H512" s="79"/>
@@ -10899,10 +10883,14 @@
     </row>
     <row r="513" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="19"/>
-      <c r="B513" s="78"/>
-      <c r="C513" s="79"/>
-      <c r="D513" s="78"/>
-      <c r="E513" s="78"/>
+      <c r="B513" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C513" s="48"/>
+      <c r="D513" s="48"/>
+      <c r="E513" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="F513" s="79"/>
       <c r="G513" s="79"/>
       <c r="H513" s="79"/>
@@ -10914,13 +10902,13 @@
     </row>
     <row r="514" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="19"/>
-      <c r="B514" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C514" s="48"/>
-      <c r="D514" s="48"/>
-      <c r="E514" s="45" t="s">
-        <v>224</v>
+      <c r="B514" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C514" s="50"/>
+      <c r="D514" s="50"/>
+      <c r="E514" s="51" t="s">
+        <v>306</v>
       </c>
       <c r="F514" s="79"/>
       <c r="G514" s="79"/>
@@ -10933,14 +10921,12 @@
     </row>
     <row r="515" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="19"/>
-      <c r="B515" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="C515" s="50"/>
-      <c r="D515" s="50"/>
-      <c r="E515" s="51" t="s">
-        <v>306</v>
-      </c>
+      <c r="B515" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C515" s="79"/>
+      <c r="D515" s="79"/>
+      <c r="E515" s="53"/>
       <c r="F515" s="79"/>
       <c r="G515" s="79"/>
       <c r="H515" s="79"/>
@@ -10953,7 +10939,7 @@
     <row r="516" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="19"/>
       <c r="B516" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C516" s="79"/>
       <c r="D516" s="79"/>
@@ -10970,7 +10956,7 @@
     <row r="517" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="19"/>
       <c r="B517" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C517" s="79"/>
       <c r="D517" s="79"/>
@@ -10986,12 +10972,14 @@
     </row>
     <row r="518" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="19"/>
-      <c r="B518" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C518" s="79"/>
-      <c r="D518" s="79"/>
-      <c r="E518" s="53"/>
+      <c r="B518" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C518" s="55"/>
+      <c r="D518" s="55"/>
+      <c r="E518" s="56" t="s">
+        <v>306</v>
+      </c>
       <c r="F518" s="79"/>
       <c r="G518" s="79"/>
       <c r="H518" s="79"/>
@@ -11002,64 +10990,59 @@
       <c r="M518" s="79"/>
     </row>
     <row r="519" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="19"/>
-      <c r="B519" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C519" s="55"/>
-      <c r="D519" s="55"/>
-      <c r="E519" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="F519" s="79"/>
-      <c r="G519" s="79"/>
-      <c r="H519" s="79"/>
-      <c r="I519" s="79"/>
-      <c r="J519" s="79"/>
-      <c r="K519" s="151"/>
-      <c r="L519" s="79"/>
+      <c r="A519" s="18"/>
+      <c r="B519" s="59"/>
+      <c r="E519" s="59"/>
       <c r="M519" s="79"/>
     </row>
     <row r="520" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="18"/>
       <c r="B520" s="59"/>
       <c r="E520" s="59"/>
-      <c r="M520" s="79"/>
-    </row>
-    <row r="521" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="521" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="18"/>
-      <c r="B521" s="59"/>
-      <c r="E521" s="59"/>
-    </row>
-    <row r="522" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="18"/>
-      <c r="B522" s="18"/>
-      <c r="C522" s="18"/>
-      <c r="D522" s="18"/>
-      <c r="E522" s="18"/>
-      <c r="F522" s="18"/>
-      <c r="G522" s="18"/>
-      <c r="H522" s="18"/>
-      <c r="I522" s="79"/>
-      <c r="J522" s="79"/>
-      <c r="K522" s="151"/>
-      <c r="L522" s="79"/>
+      <c r="B521" s="18"/>
+      <c r="C521" s="18"/>
+      <c r="D521" s="18"/>
+      <c r="E521" s="18"/>
+      <c r="F521" s="18"/>
+      <c r="G521" s="18"/>
+      <c r="H521" s="18"/>
+      <c r="I521" s="79"/>
+      <c r="J521" s="79"/>
+      <c r="K521" s="151"/>
+      <c r="L521" s="79"/>
+    </row>
+    <row r="522" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B522" s="125"/>
+      <c r="C522" s="125"/>
+      <c r="D522" s="125"/>
+      <c r="E522" s="125"/>
+      <c r="F522" s="125"/>
+      <c r="G522" s="125"/>
+      <c r="H522" s="125"/>
+      <c r="I522" s="126"/>
+      <c r="J522" s="126"/>
+      <c r="K522" s="126"/>
+      <c r="L522" s="126"/>
     </row>
     <row r="523" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B523" s="125"/>
-      <c r="C523" s="125"/>
-      <c r="D523" s="125"/>
-      <c r="E523" s="125"/>
-      <c r="F523" s="125"/>
-      <c r="G523" s="125"/>
-      <c r="H523" s="125"/>
-      <c r="I523" s="126"/>
-      <c r="J523" s="126"/>
-      <c r="K523" s="126"/>
-      <c r="L523" s="126"/>
+      <c r="A523" s="18"/>
+      <c r="B523" s="18"/>
+      <c r="C523" s="18"/>
+      <c r="D523" s="18"/>
+      <c r="E523" s="18"/>
+      <c r="F523" s="18"/>
+      <c r="G523" s="18"/>
+      <c r="H523" s="18"/>
+      <c r="I523" s="79"/>
+      <c r="J523" s="79"/>
+      <c r="K523" s="151"/>
+      <c r="L523" s="79"/>
     </row>
     <row r="524" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="18"/>
@@ -11091,7 +11074,6 @@
     </row>
     <row r="526" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="18"/>
-      <c r="B526" s="18"/>
       <c r="C526" s="18"/>
       <c r="D526" s="18"/>
       <c r="E526" s="18"/>
@@ -11105,44 +11087,45 @@
     </row>
     <row r="527" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="18"/>
-      <c r="C527" s="18"/>
-      <c r="D527" s="18"/>
-      <c r="E527" s="18"/>
-      <c r="F527" s="18"/>
-      <c r="G527" s="18"/>
-      <c r="H527" s="18"/>
+      <c r="C527" s="128"/>
+      <c r="D527" s="128"/>
+      <c r="E527" s="128"/>
+      <c r="F527" s="128"/>
+      <c r="G527" s="128"/>
+      <c r="H527" s="128"/>
       <c r="I527" s="79"/>
       <c r="J527" s="79"/>
       <c r="K527" s="151"/>
       <c r="L527" s="79"/>
     </row>
     <row r="528" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="18"/>
-      <c r="C528" s="128"/>
-      <c r="D528" s="128"/>
-      <c r="E528" s="128"/>
-      <c r="F528" s="128"/>
-      <c r="G528" s="128"/>
-      <c r="H528" s="128"/>
+      <c r="C528" s="18"/>
       <c r="I528" s="79"/>
       <c r="J528" s="79"/>
       <c r="K528" s="151"/>
       <c r="L528" s="79"/>
     </row>
     <row r="529" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C529" s="18"/>
+      <c r="A529" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="B529" s="198"/>
+      <c r="C529" s="198"/>
+      <c r="D529" s="198"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="151"/>
       <c r="L529" s="79"/>
     </row>
     <row r="530" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="209" t="s">
-        <v>246</v>
-      </c>
-      <c r="B530" s="209"/>
-      <c r="C530" s="209"/>
-      <c r="D530" s="209"/>
+      <c r="A530" s="18"/>
+      <c r="B530" s="18"/>
+      <c r="C530" s="18"/>
+      <c r="D530" s="18"/>
+      <c r="E530" s="18"/>
+      <c r="F530" s="18"/>
+      <c r="G530" s="18"/>
+      <c r="H530" s="18"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
       <c r="K530" s="151"/>
@@ -11163,8 +11146,8 @@
       <c r="L531" s="79"/>
     </row>
     <row r="532" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="18"/>
-      <c r="B532" s="18"/>
+      <c r="A532" s="128"/>
+      <c r="B532" s="128"/>
       <c r="C532" s="18"/>
       <c r="D532" s="18"/>
       <c r="E532" s="18"/>
@@ -11177,23 +11160,23 @@
       <c r="L532" s="79"/>
     </row>
     <row r="533" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="128"/>
-      <c r="B533" s="128"/>
-      <c r="C533" s="18"/>
-      <c r="D533" s="18"/>
-      <c r="E533" s="18"/>
-      <c r="F533" s="18"/>
-      <c r="G533" s="18"/>
-      <c r="H533" s="18"/>
-      <c r="I533" s="79"/>
-      <c r="J533" s="79"/>
-      <c r="K533" s="151"/>
-      <c r="L533" s="79"/>
-    </row>
-    <row r="534" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="23" t="s">
+      <c r="A533" s="23" t="s">
         <v>247</v>
       </c>
+      <c r="B533" s="78"/>
+      <c r="C533" s="78"/>
+      <c r="D533" s="78"/>
+      <c r="E533" s="78"/>
+      <c r="F533" s="78"/>
+      <c r="G533" s="78"/>
+      <c r="H533" s="78"/>
+      <c r="I533" s="78"/>
+      <c r="J533" s="78"/>
+      <c r="K533" s="150"/>
+      <c r="L533" s="18"/>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A534" s="79"/>
       <c r="B534" s="78"/>
       <c r="C534" s="78"/>
       <c r="D534" s="78"/>
@@ -11204,55 +11187,56 @@
       <c r="I534" s="78"/>
       <c r="J534" s="78"/>
       <c r="K534" s="150"/>
-      <c r="L534" s="18"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A535" s="79"/>
-      <c r="B535" s="78"/>
-      <c r="C535" s="78"/>
-      <c r="D535" s="78"/>
-      <c r="E535" s="78"/>
-      <c r="F535" s="78"/>
-      <c r="G535" s="78"/>
-      <c r="H535" s="78"/>
-      <c r="I535" s="78"/>
-      <c r="J535" s="78"/>
-      <c r="K535" s="150"/>
-    </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A536" s="210" t="s">
+      <c r="A535" s="246" t="s">
         <v>248</v>
       </c>
-      <c r="B536" s="210"/>
-      <c r="C536" s="210"/>
-      <c r="D536" s="210"/>
-      <c r="E536" s="210"/>
-      <c r="F536" s="210"/>
-      <c r="G536" s="210"/>
-      <c r="H536" s="210"/>
-      <c r="I536" s="210"/>
-      <c r="J536" s="210"/>
-      <c r="K536" s="210"/>
-      <c r="L536" s="210"/>
-    </row>
-    <row r="537" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="210" t="s">
+      <c r="B535" s="246"/>
+      <c r="C535" s="246"/>
+      <c r="D535" s="246"/>
+      <c r="E535" s="246"/>
+      <c r="F535" s="246"/>
+      <c r="G535" s="246"/>
+      <c r="H535" s="246"/>
+      <c r="I535" s="246"/>
+      <c r="J535" s="246"/>
+      <c r="K535" s="246"/>
+      <c r="L535" s="246"/>
+    </row>
+    <row r="536" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="246" t="s">
         <v>271</v>
       </c>
-      <c r="B537" s="210"/>
-      <c r="C537" s="210"/>
-      <c r="D537" s="210"/>
-      <c r="E537" s="210"/>
-      <c r="F537" s="210"/>
-      <c r="G537" s="210"/>
-      <c r="H537" s="210"/>
-      <c r="I537" s="210"/>
-      <c r="J537" s="210"/>
-      <c r="K537" s="210"/>
-      <c r="L537" s="210"/>
+      <c r="B536" s="246"/>
+      <c r="C536" s="246"/>
+      <c r="D536" s="246"/>
+      <c r="E536" s="246"/>
+      <c r="F536" s="246"/>
+      <c r="G536" s="246"/>
+      <c r="H536" s="246"/>
+      <c r="I536" s="246"/>
+      <c r="J536" s="246"/>
+      <c r="K536" s="246"/>
+      <c r="L536" s="246"/>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A537" s="79"/>
+      <c r="B537" s="78"/>
+      <c r="C537" s="78"/>
+      <c r="D537" s="78"/>
+      <c r="E537" s="78"/>
+      <c r="F537" s="78"/>
+      <c r="G537" s="78"/>
+      <c r="H537" s="78"/>
+      <c r="I537" s="78"/>
+      <c r="J537" s="78"/>
+      <c r="K537" s="150"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A538" s="79"/>
+      <c r="A538" s="23" t="s">
+        <v>249</v>
+      </c>
       <c r="B538" s="78"/>
       <c r="C538" s="78"/>
       <c r="D538" s="78"/>
@@ -11265,37 +11249,25 @@
       <c r="K538" s="150"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B539" s="78"/>
-      <c r="C539" s="78"/>
-      <c r="D539" s="78"/>
-      <c r="E539" s="78"/>
-      <c r="F539" s="78"/>
-      <c r="G539" s="78"/>
-      <c r="H539" s="78"/>
-      <c r="I539" s="78"/>
-      <c r="J539" s="78"/>
-      <c r="K539" s="150"/>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A540" s="210" t="s">
+      <c r="A539" s="246" t="s">
         <v>250</v>
       </c>
-      <c r="B540" s="210"/>
-      <c r="C540" s="210"/>
-      <c r="D540" s="210"/>
-      <c r="E540" s="210"/>
-      <c r="F540" s="210"/>
-      <c r="G540" s="210"/>
-      <c r="H540" s="210"/>
-      <c r="I540" s="210"/>
-      <c r="J540" s="210"/>
-      <c r="K540" s="210"/>
-      <c r="L540" s="210"/>
-    </row>
-    <row r="541" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="246"/>
+      <c r="C539" s="246"/>
+      <c r="D539" s="246"/>
+      <c r="E539" s="246"/>
+      <c r="F539" s="246"/>
+      <c r="G539" s="246"/>
+      <c r="H539" s="246"/>
+      <c r="I539" s="246"/>
+      <c r="J539" s="246"/>
+      <c r="K539" s="246"/>
+      <c r="L539" s="246"/>
+    </row>
+    <row r="540" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="78"/>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A541" s="78"/>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.3">
@@ -11304,34 +11276,113 @@
     <row r="543" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A543" s="78"/>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A544" s="78"/>
-    </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B501:D501"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B327:L327"/>
+    <mergeCell ref="B341:L341"/>
+    <mergeCell ref="B358:L362"/>
+    <mergeCell ref="B299:L303"/>
+    <mergeCell ref="B306:L310"/>
+    <mergeCell ref="B321:L325"/>
+    <mergeCell ref="B335:L339"/>
+    <mergeCell ref="D367:L367"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A535:L535"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A539:L539"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B496:C497"/>
+    <mergeCell ref="D496:J496"/>
+    <mergeCell ref="L496:L497"/>
+    <mergeCell ref="B498:C498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
     <mergeCell ref="B369:L369"/>
     <mergeCell ref="B349:F349"/>
     <mergeCell ref="B351:F351"/>
@@ -11356,111 +11407,29 @@
     <mergeCell ref="B200:L204"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A537:L537"/>
-    <mergeCell ref="A540:L540"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B497:C498"/>
-    <mergeCell ref="D497:J497"/>
-    <mergeCell ref="L497:L498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="B502:D502"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B327:L327"/>
-    <mergeCell ref="B341:L341"/>
-    <mergeCell ref="B358:L362"/>
-    <mergeCell ref="B299:L303"/>
-    <mergeCell ref="B306:L310"/>
-    <mergeCell ref="B321:L325"/>
-    <mergeCell ref="B335:L339"/>
-    <mergeCell ref="D367:L367"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
@@ -11470,7 +11439,7 @@
     <brk id="36" max="11" man="1"/>
     <brk id="59" max="10" man="1"/>
     <brk id="468" max="10" man="1"/>
-    <brk id="503" max="11" man="1"/>
+    <brk id="502" max="11" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IEP AYRIHUANCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1070D25-C528-456B-8CA2-A14EBF2052D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{808B5019-BBE5-4E3D-9D46-9518860839C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22308" yWindow="-456" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54408 Ayrihuanca" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54408 Ayrihuanca'!$A$2:$L$540</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1996,18 +1997,333 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,15 +2333,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2033,15 +2340,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2049,303 +2347,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2635,8 +2636,8 @@
   </sheetPr>
   <dimension ref="A3:P543"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C80" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F486" sqref="G486"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C469" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F486" sqref="F486:G486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2658,52 +2659,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="230" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="193"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="233"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="234" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="197"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2737,17 +2738,17 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="263"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2944,10 +2945,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="260" t="s">
+      <c r="D21" s="162" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="260"/>
+      <c r="E21" s="162"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2976,10 +2977,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="260" t="s">
+      <c r="D23" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="260"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3041,13 +3042,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="264" t="s">
+      <c r="F27" s="166" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="264"/>
-      <c r="H27" s="264"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="264"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
       <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
@@ -3066,22 +3067,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="265" t="s">
+      <c r="G29" s="167" t="s">
         <v>329</v>
       </c>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="267"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="169"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3100,11 +3101,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="257" t="s">
+      <c r="B31" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="257"/>
-      <c r="D31" s="258"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3265,12 +3266,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="229" t="s">
+      <c r="G40" s="195" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="230"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="231"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3283,12 +3284,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="229" t="s">
+      <c r="G41" s="195" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="231"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3301,12 +3302,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="229" t="s">
+      <c r="G42" s="195" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="230"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="231"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3319,12 +3320,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="229" t="s">
+      <c r="G43" s="195" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="230"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="231"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3368,12 +3369,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="229" t="s">
+      <c r="G46" s="195" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="230"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="231"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3386,12 +3387,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="229" t="s">
+      <c r="G47" s="195" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="230"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="231"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="197"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3404,12 +3405,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="226" t="s">
+      <c r="G48" s="217" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="227"/>
-      <c r="I48" s="227"/>
-      <c r="J48" s="228"/>
+      <c r="H48" s="268"/>
+      <c r="I48" s="268"/>
+      <c r="J48" s="218"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3476,12 +3477,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="229" t="s">
+      <c r="G52" s="195" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="230"/>
-      <c r="I52" s="230"/>
-      <c r="J52" s="231"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="197"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3494,12 +3495,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="229" t="s">
+      <c r="G53" s="195" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="230"/>
-      <c r="I53" s="230"/>
-      <c r="J53" s="231"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="197"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3748,14 +3749,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="243" t="s">
+      <c r="E68" s="170" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
-      <c r="J68" s="245"/>
+      <c r="F68" s="194"/>
+      <c r="G68" s="194"/>
+      <c r="H68" s="194"/>
+      <c r="I68" s="194"/>
+      <c r="J68" s="171"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3820,11 +3821,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="161" t="s">
+      <c r="F72" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="161"/>
-      <c r="H72" s="161"/>
+      <c r="G72" s="219"/>
+      <c r="H72" s="219"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3844,11 +3845,11 @@
       <c r="E73" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="F73" s="162" t="s">
+      <c r="F73" s="269" t="s">
         <v>343</v>
       </c>
-      <c r="G73" s="162"/>
-      <c r="H73" s="162"/>
+      <c r="G73" s="269"/>
+      <c r="H73" s="269"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3980,10 +3981,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="233" t="s">
+      <c r="D82" s="204" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="233"/>
+      <c r="E82" s="204"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4069,17 +4070,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="166" t="s">
+      <c r="B87" s="271" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
-      <c r="F87" s="166"/>
-      <c r="G87" s="166"/>
-      <c r="H87" s="166"/>
-      <c r="I87" s="166"/>
-      <c r="J87" s="166"/>
+      <c r="C87" s="271"/>
+      <c r="D87" s="271"/>
+      <c r="E87" s="271"/>
+      <c r="F87" s="271"/>
+      <c r="G87" s="271"/>
+      <c r="H87" s="271"/>
+      <c r="I87" s="271"/>
+      <c r="J87" s="271"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4246,10 +4247,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="171" t="s">
+      <c r="E98" s="273" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="172"/>
+      <c r="F98" s="274"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4429,13 +4430,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="217" t="s">
+      <c r="B110" s="256" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="217"/>
-      <c r="D110" s="217"/>
-      <c r="E110" s="217"/>
-      <c r="F110" s="218"/>
+      <c r="C110" s="256"/>
+      <c r="D110" s="256"/>
+      <c r="E110" s="256"/>
+      <c r="F110" s="257"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4450,8 +4451,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="219"/>
-      <c r="H111" s="219"/>
+      <c r="G111" s="258"/>
+      <c r="H111" s="258"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4459,13 +4460,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="217" t="s">
+      <c r="B112" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="217"/>
-      <c r="D112" s="217"/>
-      <c r="E112" s="217"/>
-      <c r="F112" s="218"/>
+      <c r="C112" s="256"/>
+      <c r="D112" s="256"/>
+      <c r="E112" s="256"/>
+      <c r="F112" s="257"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4597,47 +4598,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="220" t="s">
+      <c r="B121" s="259" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="221"/>
-      <c r="D121" s="221"/>
-      <c r="E121" s="221"/>
-      <c r="F121" s="221"/>
-      <c r="G121" s="221"/>
-      <c r="H121" s="221"/>
-      <c r="I121" s="221"/>
-      <c r="J121" s="221"/>
-      <c r="K121" s="221"/>
-      <c r="L121" s="222"/>
+      <c r="C121" s="260"/>
+      <c r="D121" s="260"/>
+      <c r="E121" s="260"/>
+      <c r="F121" s="260"/>
+      <c r="G121" s="260"/>
+      <c r="H121" s="260"/>
+      <c r="I121" s="260"/>
+      <c r="J121" s="260"/>
+      <c r="K121" s="260"/>
+      <c r="L121" s="261"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="173"/>
-      <c r="C122" s="174"/>
-      <c r="D122" s="174"/>
-      <c r="E122" s="174"/>
-      <c r="F122" s="174"/>
-      <c r="G122" s="174"/>
-      <c r="H122" s="174"/>
-      <c r="I122" s="174"/>
-      <c r="J122" s="174"/>
-      <c r="K122" s="174"/>
-      <c r="L122" s="175"/>
+      <c r="B122" s="262"/>
+      <c r="C122" s="263"/>
+      <c r="D122" s="263"/>
+      <c r="E122" s="263"/>
+      <c r="F122" s="263"/>
+      <c r="G122" s="263"/>
+      <c r="H122" s="263"/>
+      <c r="I122" s="263"/>
+      <c r="J122" s="263"/>
+      <c r="K122" s="263"/>
+      <c r="L122" s="264"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="223"/>
-      <c r="C123" s="224"/>
-      <c r="D123" s="224"/>
-      <c r="E123" s="224"/>
-      <c r="F123" s="224"/>
-      <c r="G123" s="224"/>
-      <c r="H123" s="224"/>
-      <c r="I123" s="224"/>
-      <c r="J123" s="224"/>
-      <c r="K123" s="224"/>
-      <c r="L123" s="225"/>
+      <c r="B123" s="265"/>
+      <c r="C123" s="266"/>
+      <c r="D123" s="266"/>
+      <c r="E123" s="266"/>
+      <c r="F123" s="266"/>
+      <c r="G123" s="266"/>
+      <c r="H123" s="266"/>
+      <c r="I123" s="266"/>
+      <c r="J123" s="266"/>
+      <c r="K123" s="266"/>
+      <c r="L123" s="267"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4671,19 +4672,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="210" t="s">
+      <c r="B126" s="249" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="211"/>
-      <c r="D126" s="211"/>
-      <c r="E126" s="211"/>
-      <c r="F126" s="211"/>
-      <c r="G126" s="211"/>
-      <c r="H126" s="211"/>
-      <c r="I126" s="211"/>
-      <c r="J126" s="211"/>
-      <c r="K126" s="211"/>
-      <c r="L126" s="212"/>
+      <c r="C126" s="250"/>
+      <c r="D126" s="250"/>
+      <c r="E126" s="250"/>
+      <c r="F126" s="250"/>
+      <c r="G126" s="250"/>
+      <c r="H126" s="250"/>
+      <c r="I126" s="250"/>
+      <c r="J126" s="250"/>
+      <c r="K126" s="250"/>
+      <c r="L126" s="251"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4717,19 +4718,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="213" t="s">
+      <c r="B129" s="252" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="214"/>
-      <c r="D129" s="214"/>
-      <c r="E129" s="214"/>
-      <c r="F129" s="214"/>
-      <c r="G129" s="214"/>
-      <c r="H129" s="214"/>
-      <c r="I129" s="214"/>
-      <c r="J129" s="214"/>
-      <c r="K129" s="214"/>
-      <c r="L129" s="215"/>
+      <c r="C129" s="253"/>
+      <c r="D129" s="253"/>
+      <c r="E129" s="253"/>
+      <c r="F129" s="253"/>
+      <c r="G129" s="253"/>
+      <c r="H129" s="253"/>
+      <c r="I129" s="253"/>
+      <c r="J129" s="253"/>
+      <c r="K129" s="253"/>
+      <c r="L129" s="254"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4928,19 +4929,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="216" t="s">
+      <c r="B143" s="255" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="216"/>
-      <c r="D143" s="216"/>
-      <c r="E143" s="216"/>
-      <c r="F143" s="216"/>
-      <c r="G143" s="216"/>
-      <c r="H143" s="216"/>
-      <c r="I143" s="216"/>
-      <c r="J143" s="216"/>
-      <c r="K143" s="216"/>
-      <c r="L143" s="216"/>
+      <c r="C143" s="255"/>
+      <c r="D143" s="255"/>
+      <c r="E143" s="255"/>
+      <c r="F143" s="255"/>
+      <c r="G143" s="255"/>
+      <c r="H143" s="255"/>
+      <c r="I143" s="255"/>
+      <c r="J143" s="255"/>
+      <c r="K143" s="255"/>
+      <c r="L143" s="255"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4958,11 +4959,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="163" t="s">
+      <c r="B145" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="163"/>
-      <c r="D145" s="163"/>
+      <c r="C145" s="173"/>
+      <c r="D145" s="173"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4986,11 +4987,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="163" t="s">
+      <c r="B147" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="163"/>
-      <c r="D147" s="163"/>
+      <c r="C147" s="173"/>
+      <c r="D147" s="173"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5014,11 +5015,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="163" t="s">
+      <c r="B149" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="163"/>
-      <c r="D149" s="163"/>
+      <c r="C149" s="173"/>
+      <c r="D149" s="173"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5040,12 +5041,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="163" t="s">
+      <c r="B151" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="163"/>
-      <c r="D151" s="163"/>
-      <c r="E151" s="163"/>
+      <c r="C151" s="173"/>
+      <c r="D151" s="173"/>
+      <c r="E151" s="173"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5068,13 +5069,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="163" t="s">
+      <c r="B153" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="163"/>
-      <c r="D153" s="163"/>
-      <c r="E153" s="163"/>
-      <c r="F153" s="164"/>
+      <c r="C153" s="173"/>
+      <c r="D153" s="173"/>
+      <c r="E153" s="173"/>
+      <c r="F153" s="174"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5202,19 +5203,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="176" t="s">
+      <c r="B162" s="275" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="177"/>
-      <c r="D162" s="177"/>
-      <c r="E162" s="177"/>
-      <c r="F162" s="177"/>
-      <c r="G162" s="177"/>
-      <c r="H162" s="177"/>
-      <c r="I162" s="177"/>
-      <c r="J162" s="177"/>
-      <c r="K162" s="177"/>
-      <c r="L162" s="178"/>
+      <c r="C162" s="276"/>
+      <c r="D162" s="276"/>
+      <c r="E162" s="276"/>
+      <c r="F162" s="276"/>
+      <c r="G162" s="276"/>
+      <c r="H162" s="276"/>
+      <c r="I162" s="276"/>
+      <c r="J162" s="276"/>
+      <c r="K162" s="276"/>
+      <c r="L162" s="277"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5432,12 +5433,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="163" t="s">
+      <c r="B179" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="163"/>
-      <c r="D179" s="163"/>
-      <c r="E179" s="163"/>
+      <c r="C179" s="173"/>
+      <c r="D179" s="173"/>
+      <c r="E179" s="173"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5464,13 +5465,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="163" t="s">
+      <c r="B181" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="163"/>
-      <c r="D181" s="163"/>
-      <c r="E181" s="163"/>
-      <c r="F181" s="164"/>
+      <c r="C181" s="173"/>
+      <c r="D181" s="173"/>
+      <c r="E181" s="173"/>
+      <c r="F181" s="174"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5524,13 +5525,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="163" t="s">
+      <c r="B185" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="163"/>
-      <c r="D185" s="163"/>
-      <c r="E185" s="163"/>
-      <c r="F185" s="164"/>
+      <c r="C185" s="173"/>
+      <c r="D185" s="173"/>
+      <c r="E185" s="173"/>
+      <c r="F185" s="174"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5643,79 +5644,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="179" t="s">
+      <c r="B193" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="180"/>
-      <c r="D193" s="180"/>
-      <c r="E193" s="180"/>
-      <c r="F193" s="180"/>
-      <c r="G193" s="180"/>
-      <c r="H193" s="180"/>
-      <c r="I193" s="180"/>
-      <c r="J193" s="180"/>
-      <c r="K193" s="180"/>
-      <c r="L193" s="181"/>
+      <c r="C193" s="177"/>
+      <c r="D193" s="177"/>
+      <c r="E193" s="177"/>
+      <c r="F193" s="177"/>
+      <c r="G193" s="177"/>
+      <c r="H193" s="177"/>
+      <c r="I193" s="177"/>
+      <c r="J193" s="177"/>
+      <c r="K193" s="177"/>
+      <c r="L193" s="178"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="182"/>
-      <c r="C194" s="183"/>
-      <c r="D194" s="183"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
-      <c r="I194" s="183"/>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183"/>
-      <c r="L194" s="184"/>
+      <c r="B194" s="179"/>
+      <c r="C194" s="180"/>
+      <c r="D194" s="180"/>
+      <c r="E194" s="180"/>
+      <c r="F194" s="180"/>
+      <c r="G194" s="180"/>
+      <c r="H194" s="180"/>
+      <c r="I194" s="180"/>
+      <c r="J194" s="180"/>
+      <c r="K194" s="180"/>
+      <c r="L194" s="181"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="182"/>
-      <c r="C195" s="183"/>
-      <c r="D195" s="183"/>
-      <c r="E195" s="183"/>
-      <c r="F195" s="183"/>
-      <c r="G195" s="183"/>
-      <c r="H195" s="183"/>
-      <c r="I195" s="183"/>
-      <c r="J195" s="183"/>
-      <c r="K195" s="183"/>
-      <c r="L195" s="184"/>
+      <c r="B195" s="179"/>
+      <c r="C195" s="180"/>
+      <c r="D195" s="180"/>
+      <c r="E195" s="180"/>
+      <c r="F195" s="180"/>
+      <c r="G195" s="180"/>
+      <c r="H195" s="180"/>
+      <c r="I195" s="180"/>
+      <c r="J195" s="180"/>
+      <c r="K195" s="180"/>
+      <c r="L195" s="181"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="182"/>
-      <c r="C196" s="183"/>
-      <c r="D196" s="183"/>
-      <c r="E196" s="183"/>
-      <c r="F196" s="183"/>
-      <c r="G196" s="183"/>
-      <c r="H196" s="183"/>
-      <c r="I196" s="183"/>
-      <c r="J196" s="183"/>
-      <c r="K196" s="183"/>
-      <c r="L196" s="184"/>
+      <c r="B196" s="179"/>
+      <c r="C196" s="180"/>
+      <c r="D196" s="180"/>
+      <c r="E196" s="180"/>
+      <c r="F196" s="180"/>
+      <c r="G196" s="180"/>
+      <c r="H196" s="180"/>
+      <c r="I196" s="180"/>
+      <c r="J196" s="180"/>
+      <c r="K196" s="180"/>
+      <c r="L196" s="181"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="185"/>
-      <c r="C197" s="186"/>
-      <c r="D197" s="186"/>
-      <c r="E197" s="186"/>
-      <c r="F197" s="186"/>
-      <c r="G197" s="186"/>
-      <c r="H197" s="186"/>
-      <c r="I197" s="186"/>
-      <c r="J197" s="186"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="187"/>
+      <c r="B197" s="182"/>
+      <c r="C197" s="183"/>
+      <c r="D197" s="183"/>
+      <c r="E197" s="183"/>
+      <c r="F197" s="183"/>
+      <c r="G197" s="183"/>
+      <c r="H197" s="183"/>
+      <c r="I197" s="183"/>
+      <c r="J197" s="183"/>
+      <c r="K197" s="183"/>
+      <c r="L197" s="184"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5752,79 +5753,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="179" t="s">
+      <c r="B200" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="180"/>
-      <c r="D200" s="180"/>
-      <c r="E200" s="180"/>
-      <c r="F200" s="180"/>
-      <c r="G200" s="180"/>
-      <c r="H200" s="180"/>
-      <c r="I200" s="180"/>
-      <c r="J200" s="180"/>
-      <c r="K200" s="180"/>
-      <c r="L200" s="181"/>
+      <c r="C200" s="177"/>
+      <c r="D200" s="177"/>
+      <c r="E200" s="177"/>
+      <c r="F200" s="177"/>
+      <c r="G200" s="177"/>
+      <c r="H200" s="177"/>
+      <c r="I200" s="177"/>
+      <c r="J200" s="177"/>
+      <c r="K200" s="177"/>
+      <c r="L200" s="178"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="182"/>
-      <c r="C201" s="183"/>
-      <c r="D201" s="183"/>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="184"/>
+      <c r="B201" s="179"/>
+      <c r="C201" s="180"/>
+      <c r="D201" s="180"/>
+      <c r="E201" s="180"/>
+      <c r="F201" s="180"/>
+      <c r="G201" s="180"/>
+      <c r="H201" s="180"/>
+      <c r="I201" s="180"/>
+      <c r="J201" s="180"/>
+      <c r="K201" s="180"/>
+      <c r="L201" s="181"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="182"/>
-      <c r="C202" s="183"/>
-      <c r="D202" s="183"/>
-      <c r="E202" s="183"/>
-      <c r="F202" s="183"/>
-      <c r="G202" s="183"/>
-      <c r="H202" s="183"/>
-      <c r="I202" s="183"/>
-      <c r="J202" s="183"/>
-      <c r="K202" s="183"/>
-      <c r="L202" s="184"/>
+      <c r="B202" s="179"/>
+      <c r="C202" s="180"/>
+      <c r="D202" s="180"/>
+      <c r="E202" s="180"/>
+      <c r="F202" s="180"/>
+      <c r="G202" s="180"/>
+      <c r="H202" s="180"/>
+      <c r="I202" s="180"/>
+      <c r="J202" s="180"/>
+      <c r="K202" s="180"/>
+      <c r="L202" s="181"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="182"/>
-      <c r="C203" s="183"/>
-      <c r="D203" s="183"/>
-      <c r="E203" s="183"/>
-      <c r="F203" s="183"/>
-      <c r="G203" s="183"/>
-      <c r="H203" s="183"/>
-      <c r="I203" s="183"/>
-      <c r="J203" s="183"/>
-      <c r="K203" s="183"/>
-      <c r="L203" s="184"/>
+      <c r="B203" s="179"/>
+      <c r="C203" s="180"/>
+      <c r="D203" s="180"/>
+      <c r="E203" s="180"/>
+      <c r="F203" s="180"/>
+      <c r="G203" s="180"/>
+      <c r="H203" s="180"/>
+      <c r="I203" s="180"/>
+      <c r="J203" s="180"/>
+      <c r="K203" s="180"/>
+      <c r="L203" s="181"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="185"/>
-      <c r="C204" s="186"/>
-      <c r="D204" s="186"/>
-      <c r="E204" s="186"/>
-      <c r="F204" s="186"/>
-      <c r="G204" s="186"/>
-      <c r="H204" s="186"/>
-      <c r="I204" s="186"/>
-      <c r="J204" s="186"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="187"/>
+      <c r="B204" s="182"/>
+      <c r="C204" s="183"/>
+      <c r="D204" s="183"/>
+      <c r="E204" s="183"/>
+      <c r="F204" s="183"/>
+      <c r="G204" s="183"/>
+      <c r="H204" s="183"/>
+      <c r="I204" s="183"/>
+      <c r="J204" s="183"/>
+      <c r="K204" s="183"/>
+      <c r="L204" s="184"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5971,49 +5972,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="201" t="s">
+      <c r="B214" s="240" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="202"/>
-      <c r="D214" s="202"/>
-      <c r="E214" s="202"/>
-      <c r="F214" s="202"/>
-      <c r="G214" s="202"/>
-      <c r="H214" s="202"/>
-      <c r="I214" s="202"/>
-      <c r="J214" s="202"/>
-      <c r="K214" s="202"/>
-      <c r="L214" s="203"/>
+      <c r="C214" s="241"/>
+      <c r="D214" s="241"/>
+      <c r="E214" s="241"/>
+      <c r="F214" s="241"/>
+      <c r="G214" s="241"/>
+      <c r="H214" s="241"/>
+      <c r="I214" s="241"/>
+      <c r="J214" s="241"/>
+      <c r="K214" s="241"/>
+      <c r="L214" s="242"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="204"/>
-      <c r="C215" s="205"/>
-      <c r="D215" s="205"/>
-      <c r="E215" s="205"/>
-      <c r="F215" s="205"/>
-      <c r="G215" s="205"/>
-      <c r="H215" s="205"/>
-      <c r="I215" s="205"/>
-      <c r="J215" s="205"/>
-      <c r="K215" s="205"/>
-      <c r="L215" s="206"/>
+      <c r="B215" s="243"/>
+      <c r="C215" s="244"/>
+      <c r="D215" s="244"/>
+      <c r="E215" s="244"/>
+      <c r="F215" s="244"/>
+      <c r="G215" s="244"/>
+      <c r="H215" s="244"/>
+      <c r="I215" s="244"/>
+      <c r="J215" s="244"/>
+      <c r="K215" s="244"/>
+      <c r="L215" s="245"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="207"/>
-      <c r="C216" s="208"/>
-      <c r="D216" s="208"/>
-      <c r="E216" s="208"/>
-      <c r="F216" s="208"/>
-      <c r="G216" s="208"/>
-      <c r="H216" s="208"/>
-      <c r="I216" s="208"/>
-      <c r="J216" s="208"/>
-      <c r="K216" s="208"/>
-      <c r="L216" s="209"/>
+      <c r="B216" s="246"/>
+      <c r="C216" s="247"/>
+      <c r="D216" s="247"/>
+      <c r="E216" s="247"/>
+      <c r="F216" s="247"/>
+      <c r="G216" s="247"/>
+      <c r="H216" s="247"/>
+      <c r="I216" s="247"/>
+      <c r="J216" s="247"/>
+      <c r="K216" s="247"/>
+      <c r="L216" s="248"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6048,10 +6049,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="163" t="s">
+      <c r="B219" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="163"/>
+      <c r="C219" s="173"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6176,19 +6177,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="173" t="s">
+      <c r="B227" s="262" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="174"/>
-      <c r="D227" s="174"/>
-      <c r="E227" s="174"/>
-      <c r="F227" s="174"/>
-      <c r="G227" s="174"/>
-      <c r="H227" s="174"/>
-      <c r="I227" s="174"/>
-      <c r="J227" s="174"/>
-      <c r="K227" s="174"/>
-      <c r="L227" s="175"/>
+      <c r="C227" s="263"/>
+      <c r="D227" s="263"/>
+      <c r="E227" s="263"/>
+      <c r="F227" s="263"/>
+      <c r="G227" s="263"/>
+      <c r="H227" s="263"/>
+      <c r="I227" s="263"/>
+      <c r="J227" s="263"/>
+      <c r="K227" s="263"/>
+      <c r="L227" s="264"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6297,51 +6298,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="269" t="s">
+      <c r="B235" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="270"/>
-      <c r="D235" s="270"/>
-      <c r="E235" s="270"/>
-      <c r="F235" s="270"/>
-      <c r="G235" s="270"/>
-      <c r="H235" s="270"/>
-      <c r="I235" s="270"/>
-      <c r="J235" s="270"/>
-      <c r="K235" s="270"/>
-      <c r="L235" s="271"/>
+      <c r="C235" s="186"/>
+      <c r="D235" s="186"/>
+      <c r="E235" s="186"/>
+      <c r="F235" s="186"/>
+      <c r="G235" s="186"/>
+      <c r="H235" s="186"/>
+      <c r="I235" s="186"/>
+      <c r="J235" s="186"/>
+      <c r="K235" s="186"/>
+      <c r="L235" s="187"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="272"/>
-      <c r="C236" s="273"/>
-      <c r="D236" s="273"/>
-      <c r="E236" s="273"/>
-      <c r="F236" s="273"/>
-      <c r="G236" s="273"/>
-      <c r="H236" s="273"/>
-      <c r="I236" s="273"/>
-      <c r="J236" s="273"/>
-      <c r="K236" s="273"/>
-      <c r="L236" s="274"/>
+      <c r="B236" s="188"/>
+      <c r="C236" s="189"/>
+      <c r="D236" s="189"/>
+      <c r="E236" s="189"/>
+      <c r="F236" s="189"/>
+      <c r="G236" s="189"/>
+      <c r="H236" s="189"/>
+      <c r="I236" s="189"/>
+      <c r="J236" s="189"/>
+      <c r="K236" s="189"/>
+      <c r="L236" s="190"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="275"/>
-      <c r="C237" s="276"/>
-      <c r="D237" s="276"/>
-      <c r="E237" s="276"/>
-      <c r="F237" s="276"/>
-      <c r="G237" s="276"/>
-      <c r="H237" s="276"/>
-      <c r="I237" s="276"/>
-      <c r="J237" s="276"/>
-      <c r="K237" s="276"/>
-      <c r="L237" s="277"/>
+      <c r="B237" s="191"/>
+      <c r="C237" s="192"/>
+      <c r="D237" s="192"/>
+      <c r="E237" s="192"/>
+      <c r="F237" s="192"/>
+      <c r="G237" s="192"/>
+      <c r="H237" s="192"/>
+      <c r="I237" s="192"/>
+      <c r="J237" s="192"/>
+      <c r="K237" s="192"/>
+      <c r="L237" s="193"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6456,35 +6457,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="166" t="s">
+      <c r="B245" s="271" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="166"/>
-      <c r="D245" s="166"/>
-      <c r="E245" s="166"/>
-      <c r="F245" s="166"/>
-      <c r="G245" s="166"/>
-      <c r="H245" s="166"/>
-      <c r="I245" s="166"/>
-      <c r="J245" s="166"/>
-      <c r="K245" s="166"/>
-      <c r="L245" s="166"/>
+      <c r="C245" s="271"/>
+      <c r="D245" s="271"/>
+      <c r="E245" s="271"/>
+      <c r="F245" s="271"/>
+      <c r="G245" s="271"/>
+      <c r="H245" s="271"/>
+      <c r="I245" s="271"/>
+      <c r="J245" s="271"/>
+      <c r="K245" s="271"/>
+      <c r="L245" s="271"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="166" t="s">
+      <c r="B246" s="271" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="166"/>
-      <c r="D246" s="166"/>
-      <c r="E246" s="166"/>
-      <c r="F246" s="166"/>
-      <c r="G246" s="166"/>
-      <c r="H246" s="166"/>
-      <c r="I246" s="166"/>
-      <c r="J246" s="166"/>
-      <c r="K246" s="166"/>
-      <c r="L246" s="166"/>
+      <c r="C246" s="271"/>
+      <c r="D246" s="271"/>
+      <c r="E246" s="271"/>
+      <c r="F246" s="271"/>
+      <c r="G246" s="271"/>
+      <c r="H246" s="271"/>
+      <c r="I246" s="271"/>
+      <c r="J246" s="271"/>
+      <c r="K246" s="271"/>
+      <c r="L246" s="271"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6690,83 +6691,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="179" t="s">
+      <c r="B260" s="176" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="180"/>
-      <c r="D260" s="180"/>
-      <c r="E260" s="180"/>
-      <c r="F260" s="180"/>
-      <c r="G260" s="180"/>
-      <c r="H260" s="180"/>
-      <c r="I260" s="180"/>
-      <c r="J260" s="180"/>
-      <c r="K260" s="180"/>
-      <c r="L260" s="181"/>
+      <c r="C260" s="177"/>
+      <c r="D260" s="177"/>
+      <c r="E260" s="177"/>
+      <c r="F260" s="177"/>
+      <c r="G260" s="177"/>
+      <c r="H260" s="177"/>
+      <c r="I260" s="177"/>
+      <c r="J260" s="177"/>
+      <c r="K260" s="177"/>
+      <c r="L260" s="178"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="182"/>
-      <c r="C261" s="183"/>
-      <c r="D261" s="183"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="183"/>
-      <c r="H261" s="183"/>
-      <c r="I261" s="183"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
-      <c r="L261" s="184"/>
+      <c r="B261" s="179"/>
+      <c r="C261" s="180"/>
+      <c r="D261" s="180"/>
+      <c r="E261" s="180"/>
+      <c r="F261" s="180"/>
+      <c r="G261" s="180"/>
+      <c r="H261" s="180"/>
+      <c r="I261" s="180"/>
+      <c r="J261" s="180"/>
+      <c r="K261" s="180"/>
+      <c r="L261" s="181"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="182"/>
-      <c r="C262" s="183"/>
-      <c r="D262" s="183"/>
-      <c r="E262" s="183"/>
-      <c r="F262" s="183"/>
-      <c r="G262" s="183"/>
-      <c r="H262" s="183"/>
-      <c r="I262" s="183"/>
-      <c r="J262" s="183"/>
-      <c r="K262" s="183"/>
-      <c r="L262" s="184"/>
+      <c r="B262" s="179"/>
+      <c r="C262" s="180"/>
+      <c r="D262" s="180"/>
+      <c r="E262" s="180"/>
+      <c r="F262" s="180"/>
+      <c r="G262" s="180"/>
+      <c r="H262" s="180"/>
+      <c r="I262" s="180"/>
+      <c r="J262" s="180"/>
+      <c r="K262" s="180"/>
+      <c r="L262" s="181"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="182"/>
-      <c r="C263" s="183"/>
-      <c r="D263" s="183"/>
-      <c r="E263" s="183"/>
-      <c r="F263" s="183"/>
-      <c r="G263" s="183"/>
-      <c r="H263" s="183"/>
-      <c r="I263" s="183"/>
-      <c r="J263" s="183"/>
-      <c r="K263" s="183"/>
-      <c r="L263" s="184"/>
+      <c r="B263" s="179"/>
+      <c r="C263" s="180"/>
+      <c r="D263" s="180"/>
+      <c r="E263" s="180"/>
+      <c r="F263" s="180"/>
+      <c r="G263" s="180"/>
+      <c r="H263" s="180"/>
+      <c r="I263" s="180"/>
+      <c r="J263" s="180"/>
+      <c r="K263" s="180"/>
+      <c r="L263" s="181"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="185"/>
-      <c r="C264" s="186"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
-      <c r="F264" s="186"/>
-      <c r="G264" s="186"/>
-      <c r="H264" s="186"/>
-      <c r="I264" s="186"/>
-      <c r="J264" s="186"/>
-      <c r="K264" s="186"/>
-      <c r="L264" s="187"/>
+      <c r="B264" s="182"/>
+      <c r="C264" s="183"/>
+      <c r="D264" s="183"/>
+      <c r="E264" s="183"/>
+      <c r="F264" s="183"/>
+      <c r="G264" s="183"/>
+      <c r="H264" s="183"/>
+      <c r="I264" s="183"/>
+      <c r="J264" s="183"/>
+      <c r="K264" s="183"/>
+      <c r="L264" s="184"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6822,28 +6823,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="161" t="s">
+      <c r="B268" s="219" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="161"/>
-      <c r="D268" s="168" t="s">
+      <c r="C268" s="219"/>
+      <c r="D268" s="213" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="169"/>
-      <c r="F268" s="169"/>
-      <c r="G268" s="169"/>
-      <c r="H268" s="169"/>
-      <c r="I268" s="169"/>
-      <c r="J268" s="169"/>
-      <c r="K268" s="169"/>
-      <c r="L268" s="170"/>
+      <c r="E268" s="214"/>
+      <c r="F268" s="214"/>
+      <c r="G268" s="214"/>
+      <c r="H268" s="214"/>
+      <c r="I268" s="214"/>
+      <c r="J268" s="214"/>
+      <c r="K268" s="214"/>
+      <c r="L268" s="215"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="165"/>
-      <c r="C269" s="165"/>
+      <c r="B269" s="270"/>
+      <c r="C269" s="270"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6858,8 +6859,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="165"/>
-      <c r="C270" s="165"/>
+      <c r="B270" s="270"/>
+      <c r="C270" s="270"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6874,8 +6875,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="165"/>
-      <c r="C271" s="165"/>
+      <c r="B271" s="270"/>
+      <c r="C271" s="270"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6890,8 +6891,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="165"/>
-      <c r="C272" s="165"/>
+      <c r="B272" s="270"/>
+      <c r="C272" s="270"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6956,83 +6957,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="167" t="s">
+      <c r="B276" s="272" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="167"/>
-      <c r="D276" s="167"/>
-      <c r="E276" s="167"/>
-      <c r="F276" s="167"/>
-      <c r="G276" s="167"/>
-      <c r="H276" s="167"/>
-      <c r="I276" s="167"/>
-      <c r="J276" s="167"/>
-      <c r="K276" s="167"/>
-      <c r="L276" s="167"/>
+      <c r="C276" s="272"/>
+      <c r="D276" s="272"/>
+      <c r="E276" s="272"/>
+      <c r="F276" s="272"/>
+      <c r="G276" s="272"/>
+      <c r="H276" s="272"/>
+      <c r="I276" s="272"/>
+      <c r="J276" s="272"/>
+      <c r="K276" s="272"/>
+      <c r="L276" s="272"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="167"/>
-      <c r="C277" s="167"/>
-      <c r="D277" s="167"/>
-      <c r="E277" s="167"/>
-      <c r="F277" s="167"/>
-      <c r="G277" s="167"/>
-      <c r="H277" s="167"/>
-      <c r="I277" s="167"/>
-      <c r="J277" s="167"/>
-      <c r="K277" s="167"/>
-      <c r="L277" s="167"/>
+      <c r="B277" s="272"/>
+      <c r="C277" s="272"/>
+      <c r="D277" s="272"/>
+      <c r="E277" s="272"/>
+      <c r="F277" s="272"/>
+      <c r="G277" s="272"/>
+      <c r="H277" s="272"/>
+      <c r="I277" s="272"/>
+      <c r="J277" s="272"/>
+      <c r="K277" s="272"/>
+      <c r="L277" s="272"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="167"/>
-      <c r="C278" s="167"/>
-      <c r="D278" s="167"/>
-      <c r="E278" s="167"/>
-      <c r="F278" s="167"/>
-      <c r="G278" s="167"/>
-      <c r="H278" s="167"/>
-      <c r="I278" s="167"/>
-      <c r="J278" s="167"/>
-      <c r="K278" s="167"/>
-      <c r="L278" s="167"/>
+      <c r="B278" s="272"/>
+      <c r="C278" s="272"/>
+      <c r="D278" s="272"/>
+      <c r="E278" s="272"/>
+      <c r="F278" s="272"/>
+      <c r="G278" s="272"/>
+      <c r="H278" s="272"/>
+      <c r="I278" s="272"/>
+      <c r="J278" s="272"/>
+      <c r="K278" s="272"/>
+      <c r="L278" s="272"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="167"/>
-      <c r="C279" s="167"/>
-      <c r="D279" s="167"/>
-      <c r="E279" s="167"/>
-      <c r="F279" s="167"/>
-      <c r="G279" s="167"/>
-      <c r="H279" s="167"/>
-      <c r="I279" s="167"/>
-      <c r="J279" s="167"/>
-      <c r="K279" s="167"/>
-      <c r="L279" s="167"/>
+      <c r="B279" s="272"/>
+      <c r="C279" s="272"/>
+      <c r="D279" s="272"/>
+      <c r="E279" s="272"/>
+      <c r="F279" s="272"/>
+      <c r="G279" s="272"/>
+      <c r="H279" s="272"/>
+      <c r="I279" s="272"/>
+      <c r="J279" s="272"/>
+      <c r="K279" s="272"/>
+      <c r="L279" s="272"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="167"/>
-      <c r="C280" s="167"/>
-      <c r="D280" s="167"/>
-      <c r="E280" s="167"/>
-      <c r="F280" s="167"/>
-      <c r="G280" s="167"/>
-      <c r="H280" s="167"/>
-      <c r="I280" s="167"/>
-      <c r="J280" s="167"/>
-      <c r="K280" s="167"/>
-      <c r="L280" s="167"/>
+      <c r="B280" s="272"/>
+      <c r="C280" s="272"/>
+      <c r="D280" s="272"/>
+      <c r="E280" s="272"/>
+      <c r="F280" s="272"/>
+      <c r="G280" s="272"/>
+      <c r="H280" s="272"/>
+      <c r="I280" s="272"/>
+      <c r="J280" s="272"/>
+      <c r="K280" s="272"/>
+      <c r="L280" s="272"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7088,12 +7089,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="163" t="s">
+      <c r="B284" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="163"/>
-      <c r="D284" s="163"/>
-      <c r="E284" s="164"/>
+      <c r="C284" s="173"/>
+      <c r="D284" s="173"/>
+      <c r="E284" s="174"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7104,10 +7105,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="163"/>
-      <c r="C285" s="163"/>
-      <c r="D285" s="163"/>
-      <c r="E285" s="163"/>
+      <c r="B285" s="173"/>
+      <c r="C285" s="173"/>
+      <c r="D285" s="173"/>
+      <c r="E285" s="173"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7118,12 +7119,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="163" t="s">
+      <c r="B286" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="163"/>
-      <c r="D286" s="163"/>
-      <c r="E286" s="164"/>
+      <c r="C286" s="173"/>
+      <c r="D286" s="173"/>
+      <c r="E286" s="174"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7136,10 +7137,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="163"/>
-      <c r="C287" s="163"/>
-      <c r="D287" s="163"/>
-      <c r="E287" s="163"/>
+      <c r="B287" s="173"/>
+      <c r="C287" s="173"/>
+      <c r="D287" s="173"/>
+      <c r="E287" s="173"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7150,12 +7151,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="163" t="s">
+      <c r="B288" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="163"/>
-      <c r="D288" s="163"/>
-      <c r="E288" s="164"/>
+      <c r="C288" s="173"/>
+      <c r="D288" s="173"/>
+      <c r="E288" s="174"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7180,12 +7181,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="163" t="s">
+      <c r="B290" s="173" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="163"/>
-      <c r="D290" s="163"/>
-      <c r="E290" s="164"/>
+      <c r="C290" s="173"/>
+      <c r="D290" s="173"/>
+      <c r="E290" s="174"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7210,12 +7211,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="163" t="s">
+      <c r="B292" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="163"/>
-      <c r="D292" s="163"/>
-      <c r="E292" s="164"/>
+      <c r="C292" s="173"/>
+      <c r="D292" s="173"/>
+      <c r="E292" s="174"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7318,82 +7319,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="179" t="s">
+      <c r="B299" s="176" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="180"/>
-      <c r="D299" s="180"/>
-      <c r="E299" s="180"/>
-      <c r="F299" s="180"/>
-      <c r="G299" s="180"/>
-      <c r="H299" s="180"/>
-      <c r="I299" s="180"/>
-      <c r="J299" s="180"/>
-      <c r="K299" s="180"/>
-      <c r="L299" s="181"/>
+      <c r="C299" s="177"/>
+      <c r="D299" s="177"/>
+      <c r="E299" s="177"/>
+      <c r="F299" s="177"/>
+      <c r="G299" s="177"/>
+      <c r="H299" s="177"/>
+      <c r="I299" s="177"/>
+      <c r="J299" s="177"/>
+      <c r="K299" s="177"/>
+      <c r="L299" s="178"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="182"/>
-      <c r="C300" s="183"/>
-      <c r="D300" s="183"/>
-      <c r="E300" s="183"/>
-      <c r="F300" s="183"/>
-      <c r="G300" s="183"/>
-      <c r="H300" s="183"/>
-      <c r="I300" s="183"/>
-      <c r="J300" s="183"/>
-      <c r="K300" s="183"/>
-      <c r="L300" s="184"/>
+      <c r="B300" s="179"/>
+      <c r="C300" s="180"/>
+      <c r="D300" s="180"/>
+      <c r="E300" s="180"/>
+      <c r="F300" s="180"/>
+      <c r="G300" s="180"/>
+      <c r="H300" s="180"/>
+      <c r="I300" s="180"/>
+      <c r="J300" s="180"/>
+      <c r="K300" s="180"/>
+      <c r="L300" s="181"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="182"/>
-      <c r="C301" s="183"/>
-      <c r="D301" s="183"/>
-      <c r="E301" s="183"/>
-      <c r="F301" s="183"/>
-      <c r="G301" s="183"/>
-      <c r="H301" s="183"/>
-      <c r="I301" s="183"/>
-      <c r="J301" s="183"/>
-      <c r="K301" s="183"/>
-      <c r="L301" s="184"/>
+      <c r="B301" s="179"/>
+      <c r="C301" s="180"/>
+      <c r="D301" s="180"/>
+      <c r="E301" s="180"/>
+      <c r="F301" s="180"/>
+      <c r="G301" s="180"/>
+      <c r="H301" s="180"/>
+      <c r="I301" s="180"/>
+      <c r="J301" s="180"/>
+      <c r="K301" s="180"/>
+      <c r="L301" s="181"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="182"/>
-      <c r="C302" s="183"/>
-      <c r="D302" s="183"/>
-      <c r="E302" s="183"/>
-      <c r="F302" s="183"/>
-      <c r="G302" s="183"/>
-      <c r="H302" s="183"/>
-      <c r="I302" s="183"/>
-      <c r="J302" s="183"/>
-      <c r="K302" s="183"/>
-      <c r="L302" s="184"/>
+      <c r="B302" s="179"/>
+      <c r="C302" s="180"/>
+      <c r="D302" s="180"/>
+      <c r="E302" s="180"/>
+      <c r="F302" s="180"/>
+      <c r="G302" s="180"/>
+      <c r="H302" s="180"/>
+      <c r="I302" s="180"/>
+      <c r="J302" s="180"/>
+      <c r="K302" s="180"/>
+      <c r="L302" s="181"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="185"/>
-      <c r="C303" s="186"/>
-      <c r="D303" s="186"/>
-      <c r="E303" s="186"/>
-      <c r="F303" s="186"/>
-      <c r="G303" s="186"/>
-      <c r="H303" s="186"/>
-      <c r="I303" s="186"/>
-      <c r="J303" s="186"/>
-      <c r="K303" s="186"/>
-      <c r="L303" s="187"/>
+      <c r="B303" s="182"/>
+      <c r="C303" s="183"/>
+      <c r="D303" s="183"/>
+      <c r="E303" s="183"/>
+      <c r="F303" s="183"/>
+      <c r="G303" s="183"/>
+      <c r="H303" s="183"/>
+      <c r="I303" s="183"/>
+      <c r="J303" s="183"/>
+      <c r="K303" s="183"/>
+      <c r="L303" s="184"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7432,83 +7433,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="179" t="s">
+      <c r="B306" s="176" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="180"/>
-      <c r="D306" s="180"/>
-      <c r="E306" s="180"/>
-      <c r="F306" s="180"/>
-      <c r="G306" s="180"/>
-      <c r="H306" s="180"/>
-      <c r="I306" s="180"/>
-      <c r="J306" s="180"/>
-      <c r="K306" s="180"/>
-      <c r="L306" s="181"/>
+      <c r="C306" s="177"/>
+      <c r="D306" s="177"/>
+      <c r="E306" s="177"/>
+      <c r="F306" s="177"/>
+      <c r="G306" s="177"/>
+      <c r="H306" s="177"/>
+      <c r="I306" s="177"/>
+      <c r="J306" s="177"/>
+      <c r="K306" s="177"/>
+      <c r="L306" s="178"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="182"/>
-      <c r="C307" s="183"/>
-      <c r="D307" s="183"/>
-      <c r="E307" s="183"/>
-      <c r="F307" s="183"/>
-      <c r="G307" s="183"/>
-      <c r="H307" s="183"/>
-      <c r="I307" s="183"/>
-      <c r="J307" s="183"/>
-      <c r="K307" s="183"/>
-      <c r="L307" s="184"/>
+      <c r="B307" s="179"/>
+      <c r="C307" s="180"/>
+      <c r="D307" s="180"/>
+      <c r="E307" s="180"/>
+      <c r="F307" s="180"/>
+      <c r="G307" s="180"/>
+      <c r="H307" s="180"/>
+      <c r="I307" s="180"/>
+      <c r="J307" s="180"/>
+      <c r="K307" s="180"/>
+      <c r="L307" s="181"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="182"/>
-      <c r="C308" s="183"/>
-      <c r="D308" s="183"/>
-      <c r="E308" s="183"/>
-      <c r="F308" s="183"/>
-      <c r="G308" s="183"/>
-      <c r="H308" s="183"/>
-      <c r="I308" s="183"/>
-      <c r="J308" s="183"/>
-      <c r="K308" s="183"/>
-      <c r="L308" s="184"/>
+      <c r="B308" s="179"/>
+      <c r="C308" s="180"/>
+      <c r="D308" s="180"/>
+      <c r="E308" s="180"/>
+      <c r="F308" s="180"/>
+      <c r="G308" s="180"/>
+      <c r="H308" s="180"/>
+      <c r="I308" s="180"/>
+      <c r="J308" s="180"/>
+      <c r="K308" s="180"/>
+      <c r="L308" s="181"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="182"/>
-      <c r="C309" s="183"/>
-      <c r="D309" s="183"/>
-      <c r="E309" s="183"/>
-      <c r="F309" s="183"/>
-      <c r="G309" s="183"/>
-      <c r="H309" s="183"/>
-      <c r="I309" s="183"/>
-      <c r="J309" s="183"/>
-      <c r="K309" s="183"/>
-      <c r="L309" s="184"/>
+      <c r="B309" s="179"/>
+      <c r="C309" s="180"/>
+      <c r="D309" s="180"/>
+      <c r="E309" s="180"/>
+      <c r="F309" s="180"/>
+      <c r="G309" s="180"/>
+      <c r="H309" s="180"/>
+      <c r="I309" s="180"/>
+      <c r="J309" s="180"/>
+      <c r="K309" s="180"/>
+      <c r="L309" s="181"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="185"/>
-      <c r="C310" s="186"/>
-      <c r="D310" s="186"/>
-      <c r="E310" s="186"/>
-      <c r="F310" s="186"/>
-      <c r="G310" s="186"/>
-      <c r="H310" s="186"/>
-      <c r="I310" s="186"/>
-      <c r="J310" s="186"/>
-      <c r="K310" s="186"/>
-      <c r="L310" s="187"/>
+      <c r="B310" s="182"/>
+      <c r="C310" s="183"/>
+      <c r="D310" s="183"/>
+      <c r="E310" s="183"/>
+      <c r="F310" s="183"/>
+      <c r="G310" s="183"/>
+      <c r="H310" s="183"/>
+      <c r="I310" s="183"/>
+      <c r="J310" s="183"/>
+      <c r="K310" s="183"/>
+      <c r="L310" s="184"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7688,83 +7689,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="179" t="s">
+      <c r="B321" s="176" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="180"/>
-      <c r="D321" s="180"/>
-      <c r="E321" s="180"/>
-      <c r="F321" s="180"/>
-      <c r="G321" s="180"/>
-      <c r="H321" s="180"/>
-      <c r="I321" s="180"/>
-      <c r="J321" s="180"/>
-      <c r="K321" s="180"/>
-      <c r="L321" s="181"/>
+      <c r="C321" s="177"/>
+      <c r="D321" s="177"/>
+      <c r="E321" s="177"/>
+      <c r="F321" s="177"/>
+      <c r="G321" s="177"/>
+      <c r="H321" s="177"/>
+      <c r="I321" s="177"/>
+      <c r="J321" s="177"/>
+      <c r="K321" s="177"/>
+      <c r="L321" s="178"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="182"/>
-      <c r="C322" s="183"/>
-      <c r="D322" s="183"/>
-      <c r="E322" s="183"/>
-      <c r="F322" s="183"/>
-      <c r="G322" s="183"/>
-      <c r="H322" s="183"/>
-      <c r="I322" s="183"/>
-      <c r="J322" s="183"/>
-      <c r="K322" s="183"/>
-      <c r="L322" s="184"/>
+      <c r="B322" s="179"/>
+      <c r="C322" s="180"/>
+      <c r="D322" s="180"/>
+      <c r="E322" s="180"/>
+      <c r="F322" s="180"/>
+      <c r="G322" s="180"/>
+      <c r="H322" s="180"/>
+      <c r="I322" s="180"/>
+      <c r="J322" s="180"/>
+      <c r="K322" s="180"/>
+      <c r="L322" s="181"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="182"/>
-      <c r="C323" s="183"/>
-      <c r="D323" s="183"/>
-      <c r="E323" s="183"/>
-      <c r="F323" s="183"/>
-      <c r="G323" s="183"/>
-      <c r="H323" s="183"/>
-      <c r="I323" s="183"/>
-      <c r="J323" s="183"/>
-      <c r="K323" s="183"/>
-      <c r="L323" s="184"/>
+      <c r="B323" s="179"/>
+      <c r="C323" s="180"/>
+      <c r="D323" s="180"/>
+      <c r="E323" s="180"/>
+      <c r="F323" s="180"/>
+      <c r="G323" s="180"/>
+      <c r="H323" s="180"/>
+      <c r="I323" s="180"/>
+      <c r="J323" s="180"/>
+      <c r="K323" s="180"/>
+      <c r="L323" s="181"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="182"/>
-      <c r="C324" s="183"/>
-      <c r="D324" s="183"/>
-      <c r="E324" s="183"/>
-      <c r="F324" s="183"/>
-      <c r="G324" s="183"/>
-      <c r="H324" s="183"/>
-      <c r="I324" s="183"/>
-      <c r="J324" s="183"/>
-      <c r="K324" s="183"/>
-      <c r="L324" s="184"/>
+      <c r="B324" s="179"/>
+      <c r="C324" s="180"/>
+      <c r="D324" s="180"/>
+      <c r="E324" s="180"/>
+      <c r="F324" s="180"/>
+      <c r="G324" s="180"/>
+      <c r="H324" s="180"/>
+      <c r="I324" s="180"/>
+      <c r="J324" s="180"/>
+      <c r="K324" s="180"/>
+      <c r="L324" s="181"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="185"/>
-      <c r="C325" s="186"/>
-      <c r="D325" s="186"/>
-      <c r="E325" s="186"/>
-      <c r="F325" s="186"/>
-      <c r="G325" s="186"/>
-      <c r="H325" s="186"/>
-      <c r="I325" s="186"/>
-      <c r="J325" s="186"/>
-      <c r="K325" s="186"/>
-      <c r="L325" s="187"/>
+      <c r="B325" s="182"/>
+      <c r="C325" s="183"/>
+      <c r="D325" s="183"/>
+      <c r="E325" s="183"/>
+      <c r="F325" s="183"/>
+      <c r="G325" s="183"/>
+      <c r="H325" s="183"/>
+      <c r="I325" s="183"/>
+      <c r="J325" s="183"/>
+      <c r="K325" s="183"/>
+      <c r="L325" s="184"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7786,19 +7787,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="268" t="s">
+      <c r="B327" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="268"/>
-      <c r="D327" s="268"/>
-      <c r="E327" s="268"/>
-      <c r="F327" s="268"/>
-      <c r="G327" s="268"/>
-      <c r="H327" s="268"/>
-      <c r="I327" s="268"/>
-      <c r="J327" s="268"/>
-      <c r="K327" s="268"/>
-      <c r="L327" s="268"/>
+      <c r="C327" s="175"/>
+      <c r="D327" s="175"/>
+      <c r="E327" s="175"/>
+      <c r="F327" s="175"/>
+      <c r="G327" s="175"/>
+      <c r="H327" s="175"/>
+      <c r="I327" s="175"/>
+      <c r="J327" s="175"/>
+      <c r="K327" s="175"/>
+      <c r="L327" s="175"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7913,79 +7914,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="269" t="s">
+      <c r="B335" s="185" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="270"/>
-      <c r="D335" s="270"/>
-      <c r="E335" s="270"/>
-      <c r="F335" s="270"/>
-      <c r="G335" s="270"/>
-      <c r="H335" s="270"/>
-      <c r="I335" s="270"/>
-      <c r="J335" s="270"/>
-      <c r="K335" s="270"/>
-      <c r="L335" s="271"/>
+      <c r="C335" s="186"/>
+      <c r="D335" s="186"/>
+      <c r="E335" s="186"/>
+      <c r="F335" s="186"/>
+      <c r="G335" s="186"/>
+      <c r="H335" s="186"/>
+      <c r="I335" s="186"/>
+      <c r="J335" s="186"/>
+      <c r="K335" s="186"/>
+      <c r="L335" s="187"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="272"/>
-      <c r="C336" s="273"/>
-      <c r="D336" s="273"/>
-      <c r="E336" s="273"/>
-      <c r="F336" s="273"/>
-      <c r="G336" s="273"/>
-      <c r="H336" s="273"/>
-      <c r="I336" s="273"/>
-      <c r="J336" s="273"/>
-      <c r="K336" s="273"/>
-      <c r="L336" s="274"/>
+      <c r="B336" s="188"/>
+      <c r="C336" s="189"/>
+      <c r="D336" s="189"/>
+      <c r="E336" s="189"/>
+      <c r="F336" s="189"/>
+      <c r="G336" s="189"/>
+      <c r="H336" s="189"/>
+      <c r="I336" s="189"/>
+      <c r="J336" s="189"/>
+      <c r="K336" s="189"/>
+      <c r="L336" s="190"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="272"/>
-      <c r="C337" s="273"/>
-      <c r="D337" s="273"/>
-      <c r="E337" s="273"/>
-      <c r="F337" s="273"/>
-      <c r="G337" s="273"/>
-      <c r="H337" s="273"/>
-      <c r="I337" s="273"/>
-      <c r="J337" s="273"/>
-      <c r="K337" s="273"/>
-      <c r="L337" s="274"/>
+      <c r="B337" s="188"/>
+      <c r="C337" s="189"/>
+      <c r="D337" s="189"/>
+      <c r="E337" s="189"/>
+      <c r="F337" s="189"/>
+      <c r="G337" s="189"/>
+      <c r="H337" s="189"/>
+      <c r="I337" s="189"/>
+      <c r="J337" s="189"/>
+      <c r="K337" s="189"/>
+      <c r="L337" s="190"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="272"/>
-      <c r="C338" s="273"/>
-      <c r="D338" s="273"/>
-      <c r="E338" s="273"/>
-      <c r="F338" s="273"/>
-      <c r="G338" s="273"/>
-      <c r="H338" s="273"/>
-      <c r="I338" s="273"/>
-      <c r="J338" s="273"/>
-      <c r="K338" s="273"/>
-      <c r="L338" s="274"/>
+      <c r="B338" s="188"/>
+      <c r="C338" s="189"/>
+      <c r="D338" s="189"/>
+      <c r="E338" s="189"/>
+      <c r="F338" s="189"/>
+      <c r="G338" s="189"/>
+      <c r="H338" s="189"/>
+      <c r="I338" s="189"/>
+      <c r="J338" s="189"/>
+      <c r="K338" s="189"/>
+      <c r="L338" s="190"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="275"/>
-      <c r="C339" s="276"/>
-      <c r="D339" s="276"/>
-      <c r="E339" s="276"/>
-      <c r="F339" s="276"/>
-      <c r="G339" s="276"/>
-      <c r="H339" s="276"/>
-      <c r="I339" s="276"/>
-      <c r="J339" s="276"/>
-      <c r="K339" s="276"/>
-      <c r="L339" s="277"/>
+      <c r="B339" s="191"/>
+      <c r="C339" s="192"/>
+      <c r="D339" s="192"/>
+      <c r="E339" s="192"/>
+      <c r="F339" s="192"/>
+      <c r="G339" s="192"/>
+      <c r="H339" s="192"/>
+      <c r="I339" s="192"/>
+      <c r="J339" s="192"/>
+      <c r="K339" s="192"/>
+      <c r="L339" s="193"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8005,19 +8006,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="268" t="s">
+      <c r="B341" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="268"/>
-      <c r="D341" s="268"/>
-      <c r="E341" s="268"/>
-      <c r="F341" s="268"/>
-      <c r="G341" s="268"/>
-      <c r="H341" s="268"/>
-      <c r="I341" s="268"/>
-      <c r="J341" s="268"/>
-      <c r="K341" s="268"/>
-      <c r="L341" s="268"/>
+      <c r="C341" s="175"/>
+      <c r="D341" s="175"/>
+      <c r="E341" s="175"/>
+      <c r="F341" s="175"/>
+      <c r="G341" s="175"/>
+      <c r="H341" s="175"/>
+      <c r="I341" s="175"/>
+      <c r="J341" s="175"/>
+      <c r="K341" s="175"/>
+      <c r="L341" s="175"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8066,12 +8067,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="189" t="s">
+      <c r="B345" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="189"/>
-      <c r="D345" s="189"/>
-      <c r="E345" s="189"/>
+      <c r="C345" s="172"/>
+      <c r="D345" s="172"/>
+      <c r="E345" s="172"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8094,12 +8095,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="189" t="s">
+      <c r="B347" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="189"/>
-      <c r="D347" s="189"/>
-      <c r="E347" s="189"/>
+      <c r="C347" s="172"/>
+      <c r="D347" s="172"/>
+      <c r="E347" s="172"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8124,13 +8125,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="189" t="s">
+      <c r="B349" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="189"/>
-      <c r="D349" s="189"/>
-      <c r="E349" s="189"/>
-      <c r="F349" s="164"/>
+      <c r="C349" s="172"/>
+      <c r="D349" s="172"/>
+      <c r="E349" s="172"/>
+      <c r="F349" s="174"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8153,13 +8154,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="189" t="s">
+      <c r="B351" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="189"/>
-      <c r="D351" s="189"/>
-      <c r="E351" s="189"/>
-      <c r="F351" s="164"/>
+      <c r="C351" s="172"/>
+      <c r="D351" s="172"/>
+      <c r="E351" s="172"/>
+      <c r="F351" s="174"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8182,13 +8183,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="189" t="s">
+      <c r="B353" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="189"/>
-      <c r="D353" s="189"/>
-      <c r="E353" s="189"/>
-      <c r="F353" s="164"/>
+      <c r="C353" s="172"/>
+      <c r="D353" s="172"/>
+      <c r="E353" s="172"/>
+      <c r="F353" s="174"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8260,83 +8261,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="179" t="s">
+      <c r="B358" s="176" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="180"/>
-      <c r="D358" s="180"/>
-      <c r="E358" s="180"/>
-      <c r="F358" s="180"/>
-      <c r="G358" s="180"/>
-      <c r="H358" s="180"/>
-      <c r="I358" s="180"/>
-      <c r="J358" s="180"/>
-      <c r="K358" s="180"/>
-      <c r="L358" s="181"/>
+      <c r="C358" s="177"/>
+      <c r="D358" s="177"/>
+      <c r="E358" s="177"/>
+      <c r="F358" s="177"/>
+      <c r="G358" s="177"/>
+      <c r="H358" s="177"/>
+      <c r="I358" s="177"/>
+      <c r="J358" s="177"/>
+      <c r="K358" s="177"/>
+      <c r="L358" s="178"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="182"/>
-      <c r="C359" s="183"/>
-      <c r="D359" s="183"/>
-      <c r="E359" s="183"/>
-      <c r="F359" s="183"/>
-      <c r="G359" s="183"/>
-      <c r="H359" s="183"/>
-      <c r="I359" s="183"/>
-      <c r="J359" s="183"/>
-      <c r="K359" s="183"/>
-      <c r="L359" s="184"/>
+      <c r="B359" s="179"/>
+      <c r="C359" s="180"/>
+      <c r="D359" s="180"/>
+      <c r="E359" s="180"/>
+      <c r="F359" s="180"/>
+      <c r="G359" s="180"/>
+      <c r="H359" s="180"/>
+      <c r="I359" s="180"/>
+      <c r="J359" s="180"/>
+      <c r="K359" s="180"/>
+      <c r="L359" s="181"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="182"/>
-      <c r="C360" s="183"/>
-      <c r="D360" s="183"/>
-      <c r="E360" s="183"/>
-      <c r="F360" s="183"/>
-      <c r="G360" s="183"/>
-      <c r="H360" s="183"/>
-      <c r="I360" s="183"/>
-      <c r="J360" s="183"/>
-      <c r="K360" s="183"/>
-      <c r="L360" s="184"/>
+      <c r="B360" s="179"/>
+      <c r="C360" s="180"/>
+      <c r="D360" s="180"/>
+      <c r="E360" s="180"/>
+      <c r="F360" s="180"/>
+      <c r="G360" s="180"/>
+      <c r="H360" s="180"/>
+      <c r="I360" s="180"/>
+      <c r="J360" s="180"/>
+      <c r="K360" s="180"/>
+      <c r="L360" s="181"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="182"/>
-      <c r="C361" s="183"/>
-      <c r="D361" s="183"/>
-      <c r="E361" s="183"/>
-      <c r="F361" s="183"/>
-      <c r="G361" s="183"/>
-      <c r="H361" s="183"/>
-      <c r="I361" s="183"/>
-      <c r="J361" s="183"/>
-      <c r="K361" s="183"/>
-      <c r="L361" s="184"/>
+      <c r="B361" s="179"/>
+      <c r="C361" s="180"/>
+      <c r="D361" s="180"/>
+      <c r="E361" s="180"/>
+      <c r="F361" s="180"/>
+      <c r="G361" s="180"/>
+      <c r="H361" s="180"/>
+      <c r="I361" s="180"/>
+      <c r="J361" s="180"/>
+      <c r="K361" s="180"/>
+      <c r="L361" s="181"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="185"/>
-      <c r="C362" s="186"/>
-      <c r="D362" s="186"/>
-      <c r="E362" s="186"/>
-      <c r="F362" s="186"/>
-      <c r="G362" s="186"/>
-      <c r="H362" s="186"/>
-      <c r="I362" s="186"/>
-      <c r="J362" s="186"/>
-      <c r="K362" s="186"/>
-      <c r="L362" s="187"/>
+      <c r="B362" s="182"/>
+      <c r="C362" s="183"/>
+      <c r="D362" s="183"/>
+      <c r="E362" s="183"/>
+      <c r="F362" s="183"/>
+      <c r="G362" s="183"/>
+      <c r="H362" s="183"/>
+      <c r="I362" s="183"/>
+      <c r="J362" s="183"/>
+      <c r="K362" s="183"/>
+      <c r="L362" s="184"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8411,28 +8412,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="253" t="s">
+      <c r="B367" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="254"/>
-      <c r="D367" s="243" t="s">
+      <c r="C367" s="199"/>
+      <c r="D367" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="244"/>
-      <c r="F367" s="244"/>
-      <c r="G367" s="244"/>
-      <c r="H367" s="244"/>
-      <c r="I367" s="244"/>
-      <c r="J367" s="244"/>
-      <c r="K367" s="244"/>
-      <c r="L367" s="245"/>
+      <c r="E367" s="194"/>
+      <c r="F367" s="194"/>
+      <c r="G367" s="194"/>
+      <c r="H367" s="194"/>
+      <c r="I367" s="194"/>
+      <c r="J367" s="194"/>
+      <c r="K367" s="194"/>
+      <c r="L367" s="171"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="243"/>
-      <c r="C368" s="245"/>
+      <c r="B368" s="170"/>
+      <c r="C368" s="171"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8447,19 +8448,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="188" t="s">
+      <c r="B369" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="188"/>
-      <c r="D369" s="188"/>
-      <c r="E369" s="188"/>
-      <c r="F369" s="188"/>
-      <c r="G369" s="188"/>
-      <c r="H369" s="188"/>
-      <c r="I369" s="188"/>
-      <c r="J369" s="188"/>
-      <c r="K369" s="188"/>
-      <c r="L369" s="188"/>
+      <c r="C369" s="229"/>
+      <c r="D369" s="229"/>
+      <c r="E369" s="229"/>
+      <c r="F369" s="229"/>
+      <c r="G369" s="229"/>
+      <c r="H369" s="229"/>
+      <c r="I369" s="229"/>
+      <c r="J369" s="229"/>
+      <c r="K369" s="229"/>
+      <c r="L369" s="229"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8547,20 +8548,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="232" t="s">
+      <c r="C375" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="232"/>
-      <c r="E375" s="233" t="s">
+      <c r="D375" s="205"/>
+      <c r="E375" s="204" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="233"/>
-      <c r="G375" s="233"/>
-      <c r="H375" s="233" t="s">
+      <c r="F375" s="204"/>
+      <c r="G375" s="204"/>
+      <c r="H375" s="204" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="233"/>
-      <c r="J375" s="233"/>
+      <c r="I375" s="204"/>
+      <c r="J375" s="204"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8570,14 +8571,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="232"/>
-      <c r="D376" s="232"/>
-      <c r="E376" s="233"/>
-      <c r="F376" s="233"/>
-      <c r="G376" s="233"/>
-      <c r="H376" s="233"/>
-      <c r="I376" s="233"/>
-      <c r="J376" s="233"/>
+      <c r="C376" s="205"/>
+      <c r="D376" s="205"/>
+      <c r="E376" s="204"/>
+      <c r="F376" s="204"/>
+      <c r="G376" s="204"/>
+      <c r="H376" s="204"/>
+      <c r="I376" s="204"/>
+      <c r="J376" s="204"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8587,14 +8588,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="232"/>
-      <c r="D377" s="232"/>
-      <c r="E377" s="233"/>
-      <c r="F377" s="233"/>
-      <c r="G377" s="233"/>
-      <c r="H377" s="233"/>
-      <c r="I377" s="233"/>
-      <c r="J377" s="233"/>
+      <c r="C377" s="205"/>
+      <c r="D377" s="205"/>
+      <c r="E377" s="204"/>
+      <c r="F377" s="204"/>
+      <c r="G377" s="204"/>
+      <c r="H377" s="204"/>
+      <c r="I377" s="204"/>
+      <c r="J377" s="204"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8604,14 +8605,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="232"/>
-      <c r="D378" s="232"/>
-      <c r="E378" s="233"/>
-      <c r="F378" s="233"/>
-      <c r="G378" s="233"/>
-      <c r="H378" s="233"/>
-      <c r="I378" s="233"/>
-      <c r="J378" s="233"/>
+      <c r="C378" s="205"/>
+      <c r="D378" s="205"/>
+      <c r="E378" s="204"/>
+      <c r="F378" s="204"/>
+      <c r="G378" s="204"/>
+      <c r="H378" s="204"/>
+      <c r="I378" s="204"/>
+      <c r="J378" s="204"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8621,14 +8622,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="232"/>
-      <c r="D379" s="232"/>
-      <c r="E379" s="233"/>
-      <c r="F379" s="233"/>
-      <c r="G379" s="233"/>
-      <c r="H379" s="233"/>
-      <c r="I379" s="233"/>
-      <c r="J379" s="233"/>
+      <c r="C379" s="205"/>
+      <c r="D379" s="205"/>
+      <c r="E379" s="204"/>
+      <c r="F379" s="204"/>
+      <c r="G379" s="204"/>
+      <c r="H379" s="204"/>
+      <c r="I379" s="204"/>
+      <c r="J379" s="204"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8638,14 +8639,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="232"/>
-      <c r="D380" s="232"/>
-      <c r="E380" s="233"/>
-      <c r="F380" s="233"/>
-      <c r="G380" s="233"/>
-      <c r="H380" s="233"/>
-      <c r="I380" s="233"/>
-      <c r="J380" s="233"/>
+      <c r="C380" s="205"/>
+      <c r="D380" s="205"/>
+      <c r="E380" s="204"/>
+      <c r="F380" s="204"/>
+      <c r="G380" s="204"/>
+      <c r="H380" s="204"/>
+      <c r="I380" s="204"/>
+      <c r="J380" s="204"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8655,14 +8656,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="232"/>
-      <c r="D381" s="232"/>
-      <c r="E381" s="233"/>
-      <c r="F381" s="233"/>
-      <c r="G381" s="233"/>
-      <c r="H381" s="233"/>
-      <c r="I381" s="233"/>
-      <c r="J381" s="233"/>
+      <c r="C381" s="205"/>
+      <c r="D381" s="205"/>
+      <c r="E381" s="204"/>
+      <c r="F381" s="204"/>
+      <c r="G381" s="204"/>
+      <c r="H381" s="204"/>
+      <c r="I381" s="204"/>
+      <c r="J381" s="204"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8672,14 +8673,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="232"/>
-      <c r="D382" s="232"/>
-      <c r="E382" s="233"/>
-      <c r="F382" s="233"/>
-      <c r="G382" s="233"/>
-      <c r="H382" s="233"/>
-      <c r="I382" s="233"/>
-      <c r="J382" s="233"/>
+      <c r="C382" s="205"/>
+      <c r="D382" s="205"/>
+      <c r="E382" s="204"/>
+      <c r="F382" s="204"/>
+      <c r="G382" s="204"/>
+      <c r="H382" s="204"/>
+      <c r="I382" s="204"/>
+      <c r="J382" s="204"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8804,10 +8805,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="232" t="s">
+      <c r="C392" s="205" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="232"/>
+      <c r="D392" s="205"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8815,43 +8816,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="161" t="s">
+      <c r="B393" s="219" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="161" t="s">
+      <c r="C393" s="219" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="161" t="s">
+      <c r="D393" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="161" t="s">
+      <c r="E393" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="234" t="s">
+      <c r="F393" s="220" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="234" t="s">
+      <c r="G393" s="220" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="234" t="s">
+      <c r="H393" s="220" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="233" t="s">
+      <c r="I393" s="204" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="233"/>
+      <c r="J393" s="204"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="161"/>
-      <c r="C394" s="161"/>
-      <c r="D394" s="161"/>
-      <c r="E394" s="161"/>
-      <c r="F394" s="235"/>
-      <c r="G394" s="235"/>
-      <c r="H394" s="235"/>
+      <c r="B394" s="219"/>
+      <c r="C394" s="219"/>
+      <c r="D394" s="219"/>
+      <c r="E394" s="219"/>
+      <c r="F394" s="221"/>
+      <c r="G394" s="221"/>
+      <c r="H394" s="221"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -9156,21 +9157,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="168" t="s">
+      <c r="B414" s="213" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="170"/>
-      <c r="D414" s="168" t="s">
+      <c r="C414" s="215"/>
+      <c r="D414" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="169"/>
-      <c r="F414" s="169"/>
-      <c r="G414" s="169"/>
-      <c r="H414" s="169"/>
-      <c r="I414" s="169"/>
-      <c r="J414" s="170"/>
+      <c r="E414" s="214"/>
+      <c r="F414" s="214"/>
+      <c r="G414" s="214"/>
+      <c r="H414" s="214"/>
+      <c r="I414" s="214"/>
+      <c r="J414" s="215"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="234" t="s">
+      <c r="L414" s="220" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9204,7 +9205,7 @@
         <v>180</v>
       </c>
       <c r="K415" s="158"/>
-      <c r="L415" s="235"/>
+      <c r="L415" s="221"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9450,23 +9451,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="168" t="s">
+      <c r="B431" s="213" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="170"/>
-      <c r="D431" s="242" t="s">
+      <c r="C431" s="215"/>
+      <c r="D431" s="228" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="168" t="s">
+      <c r="E431" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="169"/>
-      <c r="G431" s="169"/>
-      <c r="H431" s="169"/>
-      <c r="I431" s="169"/>
-      <c r="J431" s="170"/>
+      <c r="F431" s="214"/>
+      <c r="G431" s="214"/>
+      <c r="H431" s="214"/>
+      <c r="I431" s="214"/>
+      <c r="J431" s="215"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="234" t="s">
+      <c r="L431" s="220" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9478,7 +9479,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="232"/>
+      <c r="D432" s="205"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>180</v>
       </c>
       <c r="K432" s="158"/>
-      <c r="L432" s="235"/>
+      <c r="L432" s="221"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9686,26 +9687,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="248" t="s">
+      <c r="B445" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="249"/>
-      <c r="D445" s="168" t="s">
+      <c r="C445" s="210"/>
+      <c r="D445" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="169"/>
-      <c r="F445" s="169"/>
-      <c r="G445" s="169"/>
-      <c r="H445" s="169"/>
-      <c r="I445" s="169"/>
-      <c r="J445" s="170"/>
+      <c r="E445" s="214"/>
+      <c r="F445" s="214"/>
+      <c r="G445" s="214"/>
+      <c r="H445" s="214"/>
+      <c r="I445" s="214"/>
+      <c r="J445" s="215"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="252"/>
+      <c r="L445" s="216"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="250"/>
-      <c r="C446" s="251"/>
+      <c r="B446" s="211"/>
+      <c r="C446" s="212"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9728,14 +9729,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="252"/>
+      <c r="L446" s="216"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="243" t="s">
+      <c r="B447" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="245"/>
+      <c r="C447" s="171"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9747,10 +9748,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="243" t="s">
+      <c r="B448" s="170" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="245"/>
+      <c r="C448" s="171"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9762,10 +9763,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="243" t="s">
+      <c r="B449" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="245"/>
+      <c r="C449" s="171"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9777,10 +9778,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="168" t="s">
+      <c r="B450" s="213" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="170"/>
+      <c r="C450" s="215"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10116,18 +10117,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="239" t="s">
+      <c r="C472" s="225" t="s">
         <v>336</v>
       </c>
-      <c r="D472" s="240"/>
-      <c r="E472" s="240"/>
-      <c r="F472" s="240"/>
-      <c r="G472" s="240"/>
-      <c r="H472" s="240"/>
-      <c r="I472" s="240"/>
-      <c r="J472" s="240"/>
-      <c r="K472" s="240"/>
-      <c r="L472" s="241"/>
+      <c r="D472" s="226"/>
+      <c r="E472" s="226"/>
+      <c r="F472" s="226"/>
+      <c r="G472" s="226"/>
+      <c r="H472" s="226"/>
+      <c r="I472" s="226"/>
+      <c r="J472" s="226"/>
+      <c r="K472" s="226"/>
+      <c r="L472" s="227"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10163,10 +10164,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="232" t="s">
+      <c r="C475" s="205" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="232"/>
+      <c r="D475" s="205"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10178,43 +10179,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="161" t="s">
+      <c r="B476" s="219" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="161" t="s">
+      <c r="C476" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="161" t="s">
+      <c r="D476" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="161" t="s">
+      <c r="E476" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="234" t="s">
+      <c r="F476" s="220" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="234" t="s">
+      <c r="G476" s="220" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="234" t="s">
+      <c r="H476" s="220" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="236" t="s">
+      <c r="I476" s="222" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="237"/>
-      <c r="K476" s="237"/>
-      <c r="L476" s="238"/>
+      <c r="J476" s="223"/>
+      <c r="K476" s="223"/>
+      <c r="L476" s="224"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="161"/>
-      <c r="C477" s="161"/>
-      <c r="D477" s="161"/>
-      <c r="E477" s="161"/>
-      <c r="F477" s="235"/>
-      <c r="G477" s="235"/>
-      <c r="H477" s="235"/>
+      <c r="B477" s="219"/>
+      <c r="C477" s="219"/>
+      <c r="D477" s="219"/>
+      <c r="E477" s="219"/>
+      <c r="F477" s="221"/>
+      <c r="G477" s="221"/>
+      <c r="H477" s="221"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10357,10 +10358,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="255" t="s">
+      <c r="F484" s="200" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="255"/>
+      <c r="G484" s="200"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10379,10 +10380,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="256" t="s">
+      <c r="F485" s="201" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="256"/>
+      <c r="G485" s="201"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10404,10 +10405,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="256" t="s">
+      <c r="F486" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="G486" s="256"/>
+      <c r="G486" s="201"/>
       <c r="H486" s="127">
         <v>17290.75</v>
       </c>
@@ -10426,10 +10427,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="247" t="s">
+      <c r="F487" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="G487" s="247"/>
+      <c r="G487" s="208"/>
       <c r="H487" s="138">
         <f>SUM(H478:H486)+0.01</f>
         <v>292667.7</v>
@@ -10574,27 +10575,27 @@
     </row>
     <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="248" t="s">
+      <c r="B496" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C496" s="249"/>
-      <c r="D496" s="168" t="s">
+      <c r="C496" s="210"/>
+      <c r="D496" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="E496" s="169"/>
-      <c r="F496" s="169"/>
-      <c r="G496" s="169"/>
-      <c r="H496" s="169"/>
-      <c r="I496" s="169"/>
-      <c r="J496" s="170"/>
+      <c r="E496" s="214"/>
+      <c r="F496" s="214"/>
+      <c r="G496" s="214"/>
+      <c r="H496" s="214"/>
+      <c r="I496" s="214"/>
+      <c r="J496" s="215"/>
       <c r="K496" s="21"/>
-      <c r="L496" s="252"/>
+      <c r="L496" s="216"/>
       <c r="M496" s="79"/>
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="250"/>
-      <c r="C497" s="251"/>
+      <c r="B497" s="211"/>
+      <c r="C497" s="212"/>
       <c r="D497" s="74">
         <v>1</v>
       </c>
@@ -10617,15 +10618,15 @@
         <v>10</v>
       </c>
       <c r="K497" s="21"/>
-      <c r="L497" s="252"/>
+      <c r="L497" s="216"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="226" t="s">
+      <c r="B498" s="217" t="s">
         <v>334</v>
       </c>
-      <c r="C498" s="228"/>
+      <c r="C498" s="218"/>
       <c r="D498" s="102"/>
       <c r="E498" s="142">
         <v>3500</v>
@@ -10647,10 +10648,10 @@
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="243" t="s">
+      <c r="B499" s="170" t="s">
         <v>178</v>
       </c>
-      <c r="C499" s="245"/>
+      <c r="C499" s="171"/>
       <c r="D499" s="81"/>
       <c r="E499" s="81"/>
       <c r="F499" s="81"/>
@@ -10664,10 +10665,10 @@
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="243" t="s">
+      <c r="B500" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="C500" s="245"/>
+      <c r="C500" s="171"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10681,9 +10682,9 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="78"/>
-      <c r="B501" s="259"/>
-      <c r="C501" s="259"/>
-      <c r="D501" s="259"/>
+      <c r="B501" s="161"/>
+      <c r="C501" s="161"/>
+      <c r="D501" s="161"/>
       <c r="E501" s="39"/>
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
@@ -11106,12 +11107,12 @@
       <c r="L528" s="79"/>
     </row>
     <row r="529" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="198" t="s">
+      <c r="A529" s="206" t="s">
         <v>246</v>
       </c>
-      <c r="B529" s="198"/>
-      <c r="C529" s="198"/>
-      <c r="D529" s="198"/>
+      <c r="B529" s="206"/>
+      <c r="C529" s="206"/>
+      <c r="D529" s="206"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="151"/>
@@ -11189,36 +11190,36 @@
       <c r="K534" s="150"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A535" s="246" t="s">
+      <c r="A535" s="207" t="s">
         <v>248</v>
       </c>
-      <c r="B535" s="246"/>
-      <c r="C535" s="246"/>
-      <c r="D535" s="246"/>
-      <c r="E535" s="246"/>
-      <c r="F535" s="246"/>
-      <c r="G535" s="246"/>
-      <c r="H535" s="246"/>
-      <c r="I535" s="246"/>
-      <c r="J535" s="246"/>
-      <c r="K535" s="246"/>
-      <c r="L535" s="246"/>
+      <c r="B535" s="207"/>
+      <c r="C535" s="207"/>
+      <c r="D535" s="207"/>
+      <c r="E535" s="207"/>
+      <c r="F535" s="207"/>
+      <c r="G535" s="207"/>
+      <c r="H535" s="207"/>
+      <c r="I535" s="207"/>
+      <c r="J535" s="207"/>
+      <c r="K535" s="207"/>
+      <c r="L535" s="207"/>
     </row>
     <row r="536" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="246" t="s">
+      <c r="A536" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="B536" s="246"/>
-      <c r="C536" s="246"/>
-      <c r="D536" s="246"/>
-      <c r="E536" s="246"/>
-      <c r="F536" s="246"/>
-      <c r="G536" s="246"/>
-      <c r="H536" s="246"/>
-      <c r="I536" s="246"/>
-      <c r="J536" s="246"/>
-      <c r="K536" s="246"/>
-      <c r="L536" s="246"/>
+      <c r="B536" s="207"/>
+      <c r="C536" s="207"/>
+      <c r="D536" s="207"/>
+      <c r="E536" s="207"/>
+      <c r="F536" s="207"/>
+      <c r="G536" s="207"/>
+      <c r="H536" s="207"/>
+      <c r="I536" s="207"/>
+      <c r="J536" s="207"/>
+      <c r="K536" s="207"/>
+      <c r="L536" s="207"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537" s="79"/>
@@ -11249,20 +11250,20 @@
       <c r="K538" s="150"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="246" t="s">
+      <c r="A539" s="207" t="s">
         <v>250</v>
       </c>
-      <c r="B539" s="246"/>
-      <c r="C539" s="246"/>
-      <c r="D539" s="246"/>
-      <c r="E539" s="246"/>
-      <c r="F539" s="246"/>
-      <c r="G539" s="246"/>
-      <c r="H539" s="246"/>
-      <c r="I539" s="246"/>
-      <c r="J539" s="246"/>
-      <c r="K539" s="246"/>
-      <c r="L539" s="246"/>
+      <c r="B539" s="207"/>
+      <c r="C539" s="207"/>
+      <c r="D539" s="207"/>
+      <c r="E539" s="207"/>
+      <c r="F539" s="207"/>
+      <c r="G539" s="207"/>
+      <c r="H539" s="207"/>
+      <c r="I539" s="207"/>
+      <c r="J539" s="207"/>
+      <c r="K539" s="207"/>
+      <c r="L539" s="207"/>
     </row>
     <row r="540" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="78"/>
@@ -11278,6 +11279,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B369:L369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:L216"/>
+    <mergeCell ref="B126:L126"/>
+    <mergeCell ref="B129:L129"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:L123"/>
+    <mergeCell ref="B193:L197"/>
+    <mergeCell ref="B200:L204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A535:L535"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A539:L539"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B496:C497"/>
+    <mergeCell ref="D496:J496"/>
+    <mergeCell ref="L496:L497"/>
+    <mergeCell ref="B498:C498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="B501:D501"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -11302,134 +11431,6 @@
     <mergeCell ref="D367:L367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:L237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A535:L535"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A539:L539"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B496:C497"/>
-    <mergeCell ref="D496:J496"/>
-    <mergeCell ref="L496:L497"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:L369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:L216"/>
-    <mergeCell ref="B126:L126"/>
-    <mergeCell ref="B129:L129"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:L123"/>
-    <mergeCell ref="B193:L197"/>
-    <mergeCell ref="B200:L204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
